--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\LTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23D9B99-E4F7-4EF4-9D90-2B21CA0D0E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D423FB15-525F-4A0B-B685-CE7500467593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{1E3275F7-0219-46B7-B9B0-3246E28631A6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="223">
   <si>
     <t>Points</t>
   </si>
@@ -688,6 +688,27 @@
   <si>
     <t>Unsigned</t>
   </si>
+  <si>
+    <t>Drafted by Choc-Tops</t>
+  </si>
+  <si>
+    <t>Drafted by Traffic Controllers</t>
+  </si>
+  <si>
+    <t>Drafted by Gentle, Men</t>
+  </si>
+  <si>
+    <t>Drafted by Choc-Tops. Traded to Gentle, Men.</t>
+  </si>
+  <si>
+    <t>Drafted by Traffic Controllers. Traded to Choc-Tops.</t>
+  </si>
+  <si>
+    <t>Drafted by Choc-Tops. Traded to Traffic Controllers.</t>
+  </si>
+  <si>
+    <t>Drafted by Gentle, Men. Traded to Choc-Tops. Traded to Traffic Controllers</t>
+  </si>
 </sst>
 </file>
 
@@ -698,11 +719,18 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1112,25 +1140,25 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1"/>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1"/>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1138,47 +1166,47 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1190,68 +1218,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="23" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1260,115 +1288,116 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="22" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="26" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="38" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="36" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -7916,8 +7945,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="112" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="66" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -8056,9 +8085,8 @@
         <f>'Stats Global'!AJ8</f>
         <v>0</v>
       </c>
-      <c r="U3" s="1" t="str">
-        <f>"Drafted by "&amp;C3</f>
-        <v>Drafted by Choc-Tops</v>
+      <c r="U3" s="16" t="s">
+        <v>216</v>
       </c>
       <c r="V3" s="1" t="str">
         <f>IF(C3="Gentle, Men", $Y$3, IF(C3="Choc-Tops", $Y$4, IF(C3="Traffic Controllers", $Y$5, $Y$6)))</f>
@@ -8115,7 +8143,7 @@
         <f>'Stats Global'!AJ9</f>
         <v>0</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="16" t="s">
         <v>203</v>
       </c>
       <c r="V4" s="11" t="str">
@@ -8185,9 +8213,8 @@
       <c r="P5" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="U5" s="11" t="str">
-        <f t="shared" ref="U4:U18" si="2">"Drafted by "&amp;C5</f>
-        <v>Drafted by Traffic Controllers</v>
+      <c r="U5" s="16" t="s">
+        <v>217</v>
       </c>
       <c r="V5" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8265,9 +8292,8 @@
       <c r="S6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="U6" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>Drafted by Gentle, Men</v>
+      <c r="U6" s="16" t="s">
+        <v>218</v>
       </c>
       <c r="V6" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8336,9 +8362,8 @@
       <c r="P7" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="U7" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>Drafted by Gentle, Men</v>
+      <c r="U7" s="16" t="s">
+        <v>218</v>
       </c>
       <c r="V7" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8353,8 +8378,8 @@
       <c r="B8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="157" t="s">
-        <v>208</v>
+      <c r="C8" s="158" t="s">
+        <v>207</v>
       </c>
       <c r="D8" s="7">
         <f>'Stats Global'!AB13</f>
@@ -8401,13 +8426,12 @@
       <c r="O8" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="U8" s="11" t="str">
-        <f>"Drafted by Gentle, Men. Traded to Choc-Tops."</f>
-        <v>Drafted by Gentle, Men. Traded to Choc-Tops.</v>
+      <c r="U8" s="16" t="s">
+        <v>222</v>
       </c>
       <c r="V8" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>../Images/CT_Final.png</v>
+        <v>../Images/TC_Final.png</v>
       </c>
       <c r="W8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8421,8 +8445,8 @@
       <c r="B9" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="155" t="s">
-        <v>207</v>
+      <c r="C9" s="158" t="s">
+        <v>208</v>
       </c>
       <c r="D9" s="7">
         <f>'Stats Global'!AB14</f>
@@ -8466,13 +8490,12 @@
       <c r="N9" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="U9" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>Drafted by Traffic Controllers</v>
+      <c r="U9" s="16" t="s">
+        <v>220</v>
       </c>
       <c r="V9" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>../Images/TC_Final.png</v>
+        <v>../Images/CT_Final.png</v>
       </c>
       <c r="W9" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8543,7 +8566,7 @@
       <c r="S10" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="U10" s="16" t="s">
         <v>205</v>
       </c>
       <c r="V10" s="11" t="str">
@@ -8562,8 +8585,8 @@
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="155" t="s">
-        <v>207</v>
+      <c r="C11" s="158" t="s">
+        <v>208</v>
       </c>
       <c r="D11" s="7">
         <f>'Stats Global'!AB16</f>
@@ -8622,13 +8645,12 @@
       <c r="S11" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="U11" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>Drafted by Traffic Controllers</v>
+      <c r="U11" s="16" t="s">
+        <v>220</v>
       </c>
       <c r="V11" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>../Images/TC_Final.png</v>
+        <v>../Images/CT_Final.png</v>
       </c>
       <c r="W11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8696,9 +8718,8 @@
       <c r="Q12" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="U12" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>Drafted by Traffic Controllers</v>
+      <c r="U12" s="16" t="s">
+        <v>217</v>
       </c>
       <c r="V12" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8762,7 +8783,7 @@
         <v>30</v>
       </c>
       <c r="O13" s="16"/>
-      <c r="U13" s="11" t="s">
+      <c r="U13" s="16" t="s">
         <v>204</v>
       </c>
       <c r="V13" s="11" t="str">
@@ -8828,7 +8849,7 @@
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
       <c r="T14" s="16"/>
-      <c r="U14" s="11" t="s">
+      <c r="U14" s="16" t="s">
         <v>215</v>
       </c>
       <c r="V14" s="11" t="str">
@@ -8847,8 +8868,8 @@
       <c r="B15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="155" t="s">
-        <v>208</v>
+      <c r="C15" s="158" t="s">
+        <v>207</v>
       </c>
       <c r="D15" s="7">
         <f>'Stats Global'!AB20</f>
@@ -8904,13 +8925,12 @@
       <c r="R15" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="U15" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>Drafted by Choc-Tops</v>
+      <c r="U15" s="16" t="s">
+        <v>221</v>
       </c>
       <c r="V15" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>../Images/CT_Final.png</v>
+        <v>../Images/TC_Final.png</v>
       </c>
       <c r="W15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8924,7 +8944,7 @@
       <c r="B16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="157" t="s">
+      <c r="C16" s="156" t="s">
         <v>206</v>
       </c>
       <c r="D16" s="7">
@@ -8981,9 +9001,8 @@
       <c r="R16" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="U16" s="11" t="str">
-        <f>"Drafted by Choc-Tops. Traded to Gentle, Men."</f>
-        <v>Drafted by Choc-Tops. Traded to Gentle, Men.</v>
+      <c r="U16" s="16" t="s">
+        <v>219</v>
       </c>
       <c r="V16" s="11" t="str">
         <f t="shared" si="1"/>
@@ -9064,9 +9083,8 @@
       <c r="T17" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="U17" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>Drafted by Choc-Tops</v>
+      <c r="U17" s="16" t="s">
+        <v>216</v>
       </c>
       <c r="V17" s="11" t="str">
         <f t="shared" si="1"/>
@@ -9132,9 +9150,8 @@
       <c r="O18" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="U18" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>Drafted by Gentle, Men</v>
+      <c r="U18" s="16" t="s">
+        <v>218</v>
       </c>
       <c r="V18" s="11" t="str">
         <f t="shared" si="1"/>
@@ -9187,18 +9204,18 @@
       </c>
     </row>
     <row r="22" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="B22" s="156" t="s">
+      <c r="B22" s="157" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="156"/>
+      <c r="C22" s="157"/>
       <c r="D22" s="92"/>
       <c r="Y22" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="157"/>
       <c r="D23" s="92"/>
       <c r="Y23" s="2" t="s">
         <v>65</v>
@@ -9208,6 +9225,7 @@
       <c r="B24" s="16"/>
       <c r="C24" s="48"/>
       <c r="D24" s="48"/>
+      <c r="U24" s="16"/>
       <c r="X24" s="16"/>
       <c r="Y24" s="2" t="s">
         <v>67</v>
@@ -9245,7 +9263,7 @@
     <row r="26" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B26" s="17" t="str">
         <f>C49&amp;":["&amp;C50&amp;C51&amp;C52&amp;C53&amp;C54&amp;C55&amp;C56&amp;C57&amp;C58&amp;C59&amp;C60&amp;C61&amp;C62&amp;C63&amp;C64&amp;C65&amp;"],"</f>
-        <v>"Team":["Choc-Tops","Gentle, Men","Traffic Controllers","Gentle, Men","Gentle, Men","Choc-Tops","Traffic Controllers","Traffic Controllers","Traffic Controllers","Traffic Controllers","Choc-Tops","","Choc-Tops","Gentle, Men","Choc-Tops","Gentle, Men"],</v>
+        <v>"Team":["Choc-Tops","Gentle, Men","Traffic Controllers","Gentle, Men","Gentle, Men","Traffic Controllers","Choc-Tops","Traffic Controllers","Choc-Tops","Traffic Controllers","Choc-Tops","","Traffic Controllers","Gentle, Men","Choc-Tops","Gentle, Men"],</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -9714,7 +9732,7 @@
     <row r="44" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="16" t="str">
         <f>U49&amp;":["&amp;U50&amp;U51&amp;U52&amp;U53&amp;U54&amp;U55&amp;U56&amp;U57&amp;U58&amp;U59&amp;U60&amp;U61&amp;U62&amp;U63&amp;U64&amp;U65&amp;"],"</f>
-        <v>"History":["Drafted by Choc-Tops","GM of Gentle, Men","Drafted by Traffic Controllers","Drafted by Gentle, Men","Drafted by Gentle, Men","Drafted by Gentle, Men. Traded to Choc-Tops.","Drafted by Traffic Controllers","GM of Traffic Controllers","Drafted by Traffic Controllers","Drafted by Traffic Controllers","GM of Choc-Tops","Unsigned","Drafted by Choc-Tops","Drafted by Choc-Tops. Traded to Gentle, Men.","Drafted by Choc-Tops","Drafted by Gentle, Men"],</v>
+        <v>"History":["Drafted by Choc-Tops","GM of Gentle, Men","Drafted by Traffic Controllers","Drafted by Gentle, Men","Drafted by Gentle, Men","Drafted by Gentle, Men. Traded to Choc-Tops. Traded to Traffic Controllers","Drafted by Traffic Controllers. Traded to Choc-Tops.","GM of Traffic Controllers","Drafted by Traffic Controllers. Traded to Choc-Tops.","Drafted by Traffic Controllers","GM of Choc-Tops","Unsigned","Drafted by Choc-Tops. Traded to Traffic Controllers.","Drafted by Choc-Tops. Traded to Gentle, Men.","Drafted by Choc-Tops","Drafted by Gentle, Men"],</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
@@ -9740,7 +9758,7 @@
     <row r="45" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="16" t="str">
         <f>V49&amp;":["&amp;V50&amp;V51&amp;V52&amp;V53&amp;V54&amp;V55&amp;V56&amp;V57&amp;V58&amp;V59&amp;V60&amp;V61&amp;V62&amp;V63&amp;V64&amp;V65&amp;"],"</f>
-        <v>"TeamImage":["../Images/CT_Final.png","../Images/GM_Final.png","../Images/TC_Final.png","../Images/GM_Final.png","../Images/GM_Final.png","../Images/CT_Final.png","../Images/TC_Final.png","../Images/TC_Final.png","../Images/TC_Final.png","../Images/TC_Final.png","../Images/CT_Final.png","../Images/Logo.png","../Images/CT_Final.png","../Images/GM_Final.png","../Images/CT_Final.png","../Images/GM_Final.png"],</v>
+        <v>"TeamImage":["../Images/CT_Final.png","../Images/GM_Final.png","../Images/TC_Final.png","../Images/GM_Final.png","../Images/GM_Final.png","../Images/TC_Final.png","../Images/CT_Final.png","../Images/TC_Final.png","../Images/CT_Final.png","../Images/TC_Final.png","../Images/CT_Final.png","../Images/Logo.png","../Images/TC_Final.png","../Images/GM_Final.png","../Images/CT_Final.png","../Images/GM_Final.png"],</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
@@ -9878,1397 +9896,1397 @@
         <v>"Missed"</v>
       </c>
       <c r="M49" s="17" t="str">
-        <f t="shared" ref="M49:W49" si="3">CHAR(34)&amp;M2&amp;CHAR(34)</f>
+        <f t="shared" ref="M49:W49" si="2">CHAR(34)&amp;M2&amp;CHAR(34)</f>
         <v>"AccoladesOne"</v>
       </c>
       <c r="N49" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"AccoladesTwo"</v>
       </c>
       <c r="O49" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"AccoladesThree"</v>
       </c>
       <c r="P49" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"AccoladesFour"</v>
       </c>
       <c r="Q49" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"AccoladesFive"</v>
       </c>
       <c r="R49" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"AccoladesSix"</v>
       </c>
       <c r="S49" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"AccoladesSeven"</v>
       </c>
       <c r="T49" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"AccoladesEight"</v>
       </c>
       <c r="U49" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"History"</v>
       </c>
       <c r="V49" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"TeamImage"</v>
       </c>
       <c r="W49" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"PlayerImage"</v>
       </c>
     </row>
     <row r="50" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="17" t="str">
-        <f t="shared" ref="B50:C64" si="4">CHAR(34)&amp;B3&amp;CHAR(34)&amp;","</f>
+        <f t="shared" ref="B50:C64" si="3">CHAR(34)&amp;B3&amp;CHAR(34)&amp;","</f>
         <v>"Jasper Collier",</v>
       </c>
       <c r="C50" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>"Choc-Tops",</v>
+      </c>
+      <c r="D50" s="17" t="str">
+        <f t="shared" ref="D50:D64" si="4">ROUND(D3,2)&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="E50" s="17" t="str">
+        <f t="shared" ref="E50:E64" si="5">E3&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="F50" s="17" t="str">
+        <f t="shared" ref="F50:F64" si="6">ROUND(F3,2)&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="G50" s="17" t="str">
+        <f t="shared" ref="G50:G64" si="7">G3&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="H50" s="17" t="str">
+        <f t="shared" ref="H50:H64" si="8">ROUND(H3,2)&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="I50" s="17" t="str">
+        <f t="shared" ref="I50:I64" si="9">I3&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="J50" s="17" t="str">
+        <f t="shared" ref="J50:J64" si="10">ROUND(J3,2)&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="K50" s="17" t="str">
+        <f t="shared" ref="K50:L64" si="11">K3&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="L50" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>0,</v>
+      </c>
+      <c r="M50" s="17" t="str">
+        <f t="shared" ref="M50:W50" si="12">CHAR(34)&amp;M3&amp;CHAR(34)&amp;","</f>
+        <v>"",</v>
+      </c>
+      <c r="N50" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>"",</v>
+      </c>
+      <c r="O50" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>"",</v>
+      </c>
+      <c r="P50" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>"",</v>
+      </c>
+      <c r="Q50" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>"",</v>
+      </c>
+      <c r="R50" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>"",</v>
+      </c>
+      <c r="S50" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>"",</v>
+      </c>
+      <c r="T50" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>"",</v>
+      </c>
+      <c r="U50" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>"Drafted by Choc-Tops",</v>
+      </c>
+      <c r="V50" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>"../Images/CT_Final.png",</v>
+      </c>
+      <c r="W50" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>"../Images/Players/Jasper.png",</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>"Conor Farrington",</v>
+      </c>
+      <c r="C51" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>"Gentle, Men",</v>
+      </c>
+      <c r="D51" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>"Choc-Tops",</v>
-      </c>
-      <c r="D50" s="17" t="str">
-        <f t="shared" ref="D50:D64" si="5">ROUND(D3,2)&amp;","</f>
         <v>0,</v>
       </c>
-      <c r="E50" s="17" t="str">
-        <f t="shared" ref="E50:E64" si="6">E3&amp;","</f>
+      <c r="E51" s="17" t="str">
+        <f t="shared" si="5"/>
         <v>0,</v>
       </c>
-      <c r="F50" s="17" t="str">
-        <f t="shared" ref="F50:F64" si="7">ROUND(F3,2)&amp;","</f>
+      <c r="F51" s="17" t="str">
+        <f t="shared" si="6"/>
         <v>0,</v>
       </c>
-      <c r="G50" s="17" t="str">
-        <f t="shared" ref="G50:G64" si="8">G3&amp;","</f>
+      <c r="G51" s="17" t="str">
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
-      <c r="H50" s="17" t="str">
-        <f t="shared" ref="H50:H64" si="9">ROUND(H3,2)&amp;","</f>
+      <c r="H51" s="17" t="str">
+        <f t="shared" si="8"/>
         <v>0,</v>
       </c>
-      <c r="I50" s="17" t="str">
-        <f t="shared" ref="I50:I64" si="10">I3&amp;","</f>
+      <c r="I51" s="17" t="str">
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
-      <c r="J50" s="17" t="str">
-        <f t="shared" ref="J50:J64" si="11">ROUND(J3,2)&amp;","</f>
+      <c r="J51" s="17" t="str">
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
-      <c r="K50" s="17" t="str">
-        <f t="shared" ref="K50:L64" si="12">K3&amp;","</f>
+      <c r="K51" s="17" t="str">
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
-      <c r="L50" s="17" t="str">
-        <f t="shared" si="12"/>
+      <c r="L51" s="17" t="str">
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
-      <c r="M50" s="17" t="str">
-        <f t="shared" ref="M50:W50" si="13">CHAR(34)&amp;M3&amp;CHAR(34)&amp;","</f>
+      <c r="M51" s="17" t="str">
+        <f t="shared" ref="M51:W51" si="13">CHAR(34)&amp;M4&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
-      <c r="N50" s="17" t="str">
+      <c r="N51" s="17" t="str">
         <f t="shared" si="13"/>
         <v>"",</v>
       </c>
-      <c r="O50" s="17" t="str">
+      <c r="O51" s="17" t="str">
         <f t="shared" si="13"/>
         <v>"",</v>
       </c>
-      <c r="P50" s="17" t="str">
+      <c r="P51" s="17" t="str">
         <f t="shared" si="13"/>
         <v>"",</v>
       </c>
-      <c r="Q50" s="17" t="str">
+      <c r="Q51" s="17" t="str">
         <f t="shared" si="13"/>
         <v>"",</v>
       </c>
-      <c r="R50" s="17" t="str">
+      <c r="R51" s="17" t="str">
         <f t="shared" si="13"/>
         <v>"",</v>
       </c>
-      <c r="S50" s="17" t="str">
+      <c r="S51" s="17" t="str">
         <f t="shared" si="13"/>
         <v>"",</v>
       </c>
-      <c r="T50" s="17" t="str">
+      <c r="T51" s="17" t="str">
         <f t="shared" si="13"/>
         <v>"",</v>
       </c>
-      <c r="U50" s="17" t="str">
+      <c r="U51" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>"Drafted by Choc-Tops",</v>
-      </c>
-      <c r="V50" s="17" t="str">
+        <v>"GM of Gentle, Men",</v>
+      </c>
+      <c r="V51" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>"../Images/CT_Final.png",</v>
-      </c>
-      <c r="W50" s="17" t="str">
+        <v>"../Images/GM_Final.png",</v>
+      </c>
+      <c r="W51" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>"../Images/Players/Jasper.png",</v>
-      </c>
-    </row>
-    <row r="51" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="17" t="str">
+        <v>"../Images/Players/Conor.png",</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>"Alexander Galt",</v>
+      </c>
+      <c r="C52" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>"Traffic Controllers",</v>
+      </c>
+      <c r="D52" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>"Conor Farrington",</v>
-      </c>
-      <c r="C51" s="17" t="str">
-        <f t="shared" si="4"/>
-        <v>"Gentle, Men",</v>
-      </c>
-      <c r="D51" s="17" t="str">
+        <v>0,</v>
+      </c>
+      <c r="E52" s="17" t="str">
         <f t="shared" si="5"/>
         <v>0,</v>
       </c>
-      <c r="E51" s="17" t="str">
+      <c r="F52" s="17" t="str">
         <f t="shared" si="6"/>
         <v>0,</v>
       </c>
-      <c r="F51" s="17" t="str">
+      <c r="G52" s="17" t="str">
         <f t="shared" si="7"/>
         <v>0,</v>
       </c>
-      <c r="G51" s="17" t="str">
+      <c r="H52" s="17" t="str">
         <f t="shared" si="8"/>
         <v>0,</v>
       </c>
-      <c r="H51" s="17" t="str">
+      <c r="I52" s="17" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
       </c>
-      <c r="I51" s="17" t="str">
+      <c r="J52" s="17" t="str">
         <f t="shared" si="10"/>
         <v>0,</v>
       </c>
-      <c r="J51" s="17" t="str">
+      <c r="K52" s="17" t="str">
         <f t="shared" si="11"/>
         <v>0,</v>
       </c>
-      <c r="K51" s="17" t="str">
-        <f t="shared" si="12"/>
+      <c r="L52" s="17" t="str">
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
-      <c r="L51" s="17" t="str">
-        <f t="shared" si="12"/>
-        <v>0,</v>
-      </c>
-      <c r="M51" s="17" t="str">
-        <f t="shared" ref="M51:W51" si="14">CHAR(34)&amp;M4&amp;CHAR(34)&amp;","</f>
-        <v>"",</v>
-      </c>
-      <c r="N51" s="17" t="str">
+      <c r="M52" s="17" t="str">
+        <f t="shared" ref="M52:W52" si="14">CHAR(34)&amp;M5&amp;CHAR(34)&amp;","</f>
+        <v>"All-Defence Team T1",</v>
+      </c>
+      <c r="N52" s="17" t="str">
+        <f t="shared" si="14"/>
+        <v>"Champion T1",</v>
+      </c>
+      <c r="O52" s="17" t="str">
+        <f t="shared" si="14"/>
+        <v>"All-Offence Team T2",</v>
+      </c>
+      <c r="P52" s="17" t="str">
+        <f t="shared" si="14"/>
+        <v>"All-Defence Team T2",</v>
+      </c>
+      <c r="Q52" s="17" t="str">
         <f t="shared" si="14"/>
         <v>"",</v>
       </c>
-      <c r="O51" s="17" t="str">
+      <c r="R52" s="17" t="str">
         <f t="shared" si="14"/>
         <v>"",</v>
       </c>
-      <c r="P51" s="17" t="str">
+      <c r="S52" s="17" t="str">
         <f t="shared" si="14"/>
         <v>"",</v>
       </c>
-      <c r="Q51" s="17" t="str">
+      <c r="T52" s="17" t="str">
         <f t="shared" si="14"/>
         <v>"",</v>
       </c>
-      <c r="R51" s="17" t="str">
+      <c r="U52" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>"",</v>
-      </c>
-      <c r="S51" s="17" t="str">
+        <v>"Drafted by Traffic Controllers",</v>
+      </c>
+      <c r="V52" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>"",</v>
-      </c>
-      <c r="T51" s="17" t="str">
+        <v>"../Images/TC_Final.png",</v>
+      </c>
+      <c r="W52" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>"",</v>
-      </c>
-      <c r="U51" s="17" t="str">
-        <f t="shared" si="14"/>
-        <v>"GM of Gentle, Men",</v>
-      </c>
-      <c r="V51" s="17" t="str">
-        <f t="shared" si="14"/>
-        <v>"../Images/GM_Final.png",</v>
-      </c>
-      <c r="W51" s="17" t="str">
-        <f t="shared" si="14"/>
-        <v>"../Images/Players/Conor.png",</v>
-      </c>
-    </row>
-    <row r="52" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="17" t="str">
+        <v>"../Images/Players/Alex.png",</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>"Rudy Hoschke",</v>
+      </c>
+      <c r="C53" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>"Gentle, Men",</v>
+      </c>
+      <c r="D53" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>"Alexander Galt",</v>
-      </c>
-      <c r="C52" s="17" t="str">
-        <f t="shared" si="4"/>
-        <v>"Traffic Controllers",</v>
-      </c>
-      <c r="D52" s="17" t="str">
+        <v>0,</v>
+      </c>
+      <c r="E53" s="17" t="str">
         <f t="shared" si="5"/>
         <v>0,</v>
       </c>
-      <c r="E52" s="17" t="str">
+      <c r="F53" s="17" t="str">
         <f t="shared" si="6"/>
         <v>0,</v>
       </c>
-      <c r="F52" s="17" t="str">
+      <c r="G53" s="17" t="str">
         <f t="shared" si="7"/>
         <v>0,</v>
       </c>
-      <c r="G52" s="17" t="str">
+      <c r="H53" s="17" t="str">
         <f t="shared" si="8"/>
         <v>0,</v>
       </c>
-      <c r="H52" s="17" t="str">
+      <c r="I53" s="17" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
       </c>
-      <c r="I52" s="17" t="str">
+      <c r="J53" s="17" t="str">
         <f t="shared" si="10"/>
         <v>0,</v>
       </c>
-      <c r="J52" s="17" t="str">
+      <c r="K53" s="17" t="str">
         <f t="shared" si="11"/>
         <v>0,</v>
       </c>
-      <c r="K52" s="17" t="str">
-        <f t="shared" si="12"/>
+      <c r="L53" s="17" t="str">
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
-      <c r="L52" s="17" t="str">
-        <f t="shared" si="12"/>
-        <v>0,</v>
-      </c>
-      <c r="M52" s="17" t="str">
-        <f t="shared" ref="M52:W52" si="15">CHAR(34)&amp;M5&amp;CHAR(34)&amp;","</f>
+      <c r="M53" s="17" t="str">
+        <f t="shared" ref="M53:W53" si="15">CHAR(34)&amp;M6&amp;CHAR(34)&amp;","</f>
+        <v>"All-Offence Team T1",</v>
+      </c>
+      <c r="N53" s="17" t="str">
+        <f t="shared" si="15"/>
         <v>"All-Defence Team T1",</v>
       </c>
-      <c r="N52" s="17" t="str">
+      <c r="O53" s="17" t="str">
         <f t="shared" si="15"/>
         <v>"Champion T1",</v>
       </c>
-      <c r="O52" s="17" t="str">
+      <c r="P53" s="17" t="str">
         <f t="shared" si="15"/>
         <v>"All-Offence Team T2",</v>
       </c>
-      <c r="P52" s="17" t="str">
+      <c r="Q53" s="17" t="str">
         <f t="shared" si="15"/>
         <v>"All-Defence Team T2",</v>
       </c>
-      <c r="Q52" s="17" t="str">
+      <c r="R53" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>"Scoring Champ T2",</v>
+      </c>
+      <c r="S53" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>"GM",</v>
+      </c>
+      <c r="T53" s="17" t="str">
         <f t="shared" si="15"/>
         <v>"",</v>
       </c>
-      <c r="R52" s="17" t="str">
+      <c r="U53" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>"",</v>
-      </c>
-      <c r="S52" s="17" t="str">
+        <v>"Drafted by Gentle, Men",</v>
+      </c>
+      <c r="V53" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>"",</v>
-      </c>
-      <c r="T52" s="17" t="str">
+        <v>"../Images/GM_Final.png",</v>
+      </c>
+      <c r="W53" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>"",</v>
-      </c>
-      <c r="U52" s="17" t="str">
-        <f t="shared" si="15"/>
-        <v>"Drafted by Traffic Controllers",</v>
-      </c>
-      <c r="V52" s="17" t="str">
-        <f t="shared" si="15"/>
-        <v>"../Images/TC_Final.png",</v>
-      </c>
-      <c r="W52" s="17" t="str">
-        <f t="shared" si="15"/>
-        <v>"../Images/Players/Alex.png",</v>
-      </c>
-    </row>
-    <row r="53" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="17" t="str">
+        <v>"../Images/Players/Rudy.png",</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>"Michael Iffland",</v>
+      </c>
+      <c r="C54" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>"Gentle, Men",</v>
+      </c>
+      <c r="D54" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>"Rudy Hoschke",</v>
-      </c>
-      <c r="C53" s="17" t="str">
-        <f t="shared" si="4"/>
-        <v>"Gentle, Men",</v>
-      </c>
-      <c r="D53" s="17" t="str">
+        <v>0,</v>
+      </c>
+      <c r="E54" s="17" t="str">
         <f t="shared" si="5"/>
         <v>0,</v>
       </c>
-      <c r="E53" s="17" t="str">
+      <c r="F54" s="17" t="str">
         <f t="shared" si="6"/>
         <v>0,</v>
       </c>
-      <c r="F53" s="17" t="str">
+      <c r="G54" s="17" t="str">
         <f t="shared" si="7"/>
         <v>0,</v>
       </c>
-      <c r="G53" s="17" t="str">
+      <c r="H54" s="17" t="str">
         <f t="shared" si="8"/>
         <v>0,</v>
       </c>
-      <c r="H53" s="17" t="str">
+      <c r="I54" s="17" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
       </c>
-      <c r="I53" s="17" t="str">
+      <c r="J54" s="17" t="str">
         <f t="shared" si="10"/>
         <v>0,</v>
       </c>
-      <c r="J53" s="17" t="str">
+      <c r="K54" s="17" t="str">
         <f t="shared" si="11"/>
         <v>0,</v>
       </c>
-      <c r="K53" s="17" t="str">
-        <f t="shared" si="12"/>
+      <c r="L54" s="17" t="str">
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
-      <c r="L53" s="17" t="str">
-        <f t="shared" si="12"/>
-        <v>0,</v>
-      </c>
-      <c r="M53" s="17" t="str">
-        <f t="shared" ref="M53:W53" si="16">CHAR(34)&amp;M6&amp;CHAR(34)&amp;","</f>
-        <v>"All-Offence Team T1",</v>
-      </c>
-      <c r="N53" s="17" t="str">
+      <c r="M54" s="17" t="str">
+        <f t="shared" ref="M54:W54" si="16">CHAR(34)&amp;M7&amp;CHAR(34)&amp;","</f>
+        <v>"Playmaker T1",</v>
+      </c>
+      <c r="N54" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>"All-Defence Team T1",</v>
-      </c>
-      <c r="O53" s="17" t="str">
-        <f t="shared" si="16"/>
-        <v>"Champion T1",</v>
-      </c>
-      <c r="P53" s="17" t="str">
+        <v>"Thirdman T1",</v>
+      </c>
+      <c r="O54" s="17" t="str">
         <f t="shared" si="16"/>
         <v>"All-Offence Team T2",</v>
       </c>
-      <c r="Q53" s="17" t="str">
+      <c r="P54" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>"All-Defence Team T2",</v>
-      </c>
-      <c r="R53" s="17" t="str">
-        <f t="shared" si="16"/>
-        <v>"Scoring Champ T2",</v>
-      </c>
-      <c r="S53" s="17" t="str">
-        <f t="shared" si="16"/>
-        <v>"GM",</v>
-      </c>
-      <c r="T53" s="17" t="str">
+        <v>"All-2nd-Defence Team T2",</v>
+      </c>
+      <c r="Q54" s="17" t="str">
         <f t="shared" si="16"/>
         <v>"",</v>
       </c>
-      <c r="U53" s="17" t="str">
+      <c r="R54" s="17" t="str">
+        <f t="shared" si="16"/>
+        <v>"",</v>
+      </c>
+      <c r="S54" s="17" t="str">
+        <f t="shared" si="16"/>
+        <v>"",</v>
+      </c>
+      <c r="T54" s="17" t="str">
+        <f t="shared" si="16"/>
+        <v>"",</v>
+      </c>
+      <c r="U54" s="17" t="str">
         <f t="shared" si="16"/>
         <v>"Drafted by Gentle, Men",</v>
       </c>
-      <c r="V53" s="17" t="str">
+      <c r="V54" s="17" t="str">
         <f t="shared" si="16"/>
         <v>"../Images/GM_Final.png",</v>
       </c>
-      <c r="W53" s="17" t="str">
+      <c r="W54" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>"../Images/Players/Rudy.png",</v>
-      </c>
-    </row>
-    <row r="54" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="17" t="str">
+        <v>"../Images/Players/Michael.png",</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>"Lukas Johnston",</v>
+      </c>
+      <c r="C55" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>"Traffic Controllers",</v>
+      </c>
+      <c r="D55" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>"Michael Iffland",</v>
-      </c>
-      <c r="C54" s="17" t="str">
-        <f t="shared" si="4"/>
-        <v>"Gentle, Men",</v>
-      </c>
-      <c r="D54" s="17" t="str">
+        <v>0,</v>
+      </c>
+      <c r="E55" s="17" t="str">
         <f t="shared" si="5"/>
         <v>0,</v>
       </c>
-      <c r="E54" s="17" t="str">
+      <c r="F55" s="17" t="str">
         <f t="shared" si="6"/>
         <v>0,</v>
       </c>
-      <c r="F54" s="17" t="str">
+      <c r="G55" s="17" t="str">
         <f t="shared" si="7"/>
         <v>0,</v>
       </c>
-      <c r="G54" s="17" t="str">
+      <c r="H55" s="17" t="str">
         <f t="shared" si="8"/>
         <v>0,</v>
       </c>
-      <c r="H54" s="17" t="str">
+      <c r="I55" s="17" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
       </c>
-      <c r="I54" s="17" t="str">
+      <c r="J55" s="17" t="str">
         <f t="shared" si="10"/>
         <v>0,</v>
       </c>
-      <c r="J54" s="17" t="str">
+      <c r="K55" s="17" t="str">
         <f t="shared" si="11"/>
         <v>0,</v>
       </c>
-      <c r="K54" s="17" t="str">
-        <f t="shared" si="12"/>
+      <c r="L55" s="17" t="str">
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
-      <c r="L54" s="17" t="str">
-        <f t="shared" si="12"/>
-        <v>0,</v>
-      </c>
-      <c r="M54" s="17" t="str">
-        <f t="shared" ref="M54:W54" si="17">CHAR(34)&amp;M7&amp;CHAR(34)&amp;","</f>
-        <v>"Playmaker T1",</v>
-      </c>
-      <c r="N54" s="17" t="str">
+      <c r="M55" s="17" t="str">
+        <f t="shared" ref="M55:W55" si="17">CHAR(34)&amp;M8&amp;CHAR(34)&amp;","</f>
+        <v>"MVP Runner Up T1",</v>
+      </c>
+      <c r="N55" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>"Thirdman T1",</v>
-      </c>
-      <c r="O54" s="17" t="str">
+        <v>"All-Offence Team T1",</v>
+      </c>
+      <c r="O55" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>"All-Offence Team T2",</v>
-      </c>
-      <c r="P54" s="17" t="str">
-        <f t="shared" si="17"/>
-        <v>"All-2nd-Defence Team T2",</v>
-      </c>
-      <c r="Q54" s="17" t="str">
+        <v>"All-2nd-Offence Team T2",</v>
+      </c>
+      <c r="P55" s="17" t="str">
         <f t="shared" si="17"/>
         <v>"",</v>
       </c>
-      <c r="R54" s="17" t="str">
+      <c r="Q55" s="17" t="str">
         <f t="shared" si="17"/>
         <v>"",</v>
       </c>
-      <c r="S54" s="17" t="str">
+      <c r="R55" s="17" t="str">
         <f t="shared" si="17"/>
         <v>"",</v>
       </c>
-      <c r="T54" s="17" t="str">
+      <c r="S55" s="17" t="str">
         <f t="shared" si="17"/>
         <v>"",</v>
       </c>
-      <c r="U54" s="17" t="str">
+      <c r="T55" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>"Drafted by Gentle, Men",</v>
-      </c>
-      <c r="V54" s="17" t="str">
+        <v>"",</v>
+      </c>
+      <c r="U55" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>"../Images/GM_Final.png",</v>
-      </c>
-      <c r="W54" s="17" t="str">
+        <v>"Drafted by Gentle, Men. Traded to Choc-Tops. Traded to Traffic Controllers",</v>
+      </c>
+      <c r="V55" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>"../Images/Players/Michael.png",</v>
-      </c>
-    </row>
-    <row r="55" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="17" t="str">
+        <v>"../Images/TC_Final.png",</v>
+      </c>
+      <c r="W55" s="17" t="str">
+        <f t="shared" si="17"/>
+        <v>"../Images/Players/Lukas.png",</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>"Sam James",</v>
+      </c>
+      <c r="C56" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>"Choc-Tops",</v>
+      </c>
+      <c r="D56" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>"Lukas Johnston",</v>
-      </c>
-      <c r="C55" s="17" t="str">
-        <f t="shared" si="4"/>
-        <v>"Choc-Tops",</v>
-      </c>
-      <c r="D55" s="17" t="str">
+        <v>0,</v>
+      </c>
+      <c r="E56" s="17" t="str">
         <f t="shared" si="5"/>
         <v>0,</v>
       </c>
-      <c r="E55" s="17" t="str">
+      <c r="F56" s="17" t="str">
         <f t="shared" si="6"/>
         <v>0,</v>
       </c>
-      <c r="F55" s="17" t="str">
+      <c r="G56" s="17" t="str">
         <f t="shared" si="7"/>
         <v>0,</v>
       </c>
-      <c r="G55" s="17" t="str">
+      <c r="H56" s="17" t="str">
         <f t="shared" si="8"/>
         <v>0,</v>
       </c>
-      <c r="H55" s="17" t="str">
+      <c r="I56" s="17" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
       </c>
-      <c r="I55" s="17" t="str">
+      <c r="J56" s="17" t="str">
         <f t="shared" si="10"/>
         <v>0,</v>
       </c>
-      <c r="J55" s="17" t="str">
+      <c r="K56" s="17" t="str">
         <f t="shared" si="11"/>
         <v>0,</v>
       </c>
-      <c r="K55" s="17" t="str">
-        <f t="shared" si="12"/>
+      <c r="L56" s="17" t="str">
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
-      <c r="L55" s="17" t="str">
-        <f t="shared" si="12"/>
-        <v>0,</v>
-      </c>
-      <c r="M55" s="17" t="str">
-        <f t="shared" ref="M55:W55" si="18">CHAR(34)&amp;M8&amp;CHAR(34)&amp;","</f>
-        <v>"MVP Runner Up T1",</v>
-      </c>
-      <c r="N55" s="17" t="str">
+      <c r="M56" s="17" t="str">
+        <f t="shared" ref="M56:W56" si="18">CHAR(34)&amp;M9&amp;CHAR(34)&amp;","</f>
+        <v>"Miles Morales",</v>
+      </c>
+      <c r="N56" s="17" t="str">
         <f t="shared" si="18"/>
-        <v>"All-Offence Team T1",</v>
-      </c>
-      <c r="O55" s="17" t="str">
-        <f t="shared" si="18"/>
-        <v>"All-2nd-Offence Team T2",</v>
-      </c>
-      <c r="P55" s="17" t="str">
+        <v>"Champion T2",</v>
+      </c>
+      <c r="O56" s="17" t="str">
         <f t="shared" si="18"/>
         <v>"",</v>
       </c>
-      <c r="Q55" s="17" t="str">
+      <c r="P56" s="17" t="str">
         <f t="shared" si="18"/>
         <v>"",</v>
       </c>
-      <c r="R55" s="17" t="str">
+      <c r="Q56" s="17" t="str">
         <f t="shared" si="18"/>
         <v>"",</v>
       </c>
-      <c r="S55" s="17" t="str">
+      <c r="R56" s="17" t="str">
         <f t="shared" si="18"/>
         <v>"",</v>
       </c>
-      <c r="T55" s="17" t="str">
+      <c r="S56" s="17" t="str">
         <f t="shared" si="18"/>
         <v>"",</v>
       </c>
-      <c r="U55" s="17" t="str">
+      <c r="T56" s="17" t="str">
         <f t="shared" si="18"/>
-        <v>"Drafted by Gentle, Men. Traded to Choc-Tops.",</v>
-      </c>
-      <c r="V55" s="17" t="str">
+        <v>"",</v>
+      </c>
+      <c r="U56" s="17" t="str">
+        <f t="shared" si="18"/>
+        <v>"Drafted by Traffic Controllers. Traded to Choc-Tops.",</v>
+      </c>
+      <c r="V56" s="17" t="str">
         <f t="shared" si="18"/>
         <v>"../Images/CT_Final.png",</v>
       </c>
-      <c r="W55" s="17" t="str">
+      <c r="W56" s="17" t="str">
         <f t="shared" si="18"/>
-        <v>"../Images/Players/Lukas.png",</v>
-      </c>
-    </row>
-    <row r="56" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="17" t="str">
+        <v>"../Images/Players/SamJ.png",</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>"Clarrie Jones",</v>
+      </c>
+      <c r="C57" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>"Traffic Controllers",</v>
+      </c>
+      <c r="D57" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>"Sam James",</v>
-      </c>
-      <c r="C56" s="17" t="str">
-        <f t="shared" si="4"/>
-        <v>"Traffic Controllers",</v>
-      </c>
-      <c r="D56" s="17" t="str">
+        <v>0,</v>
+      </c>
+      <c r="E57" s="17" t="str">
         <f t="shared" si="5"/>
         <v>0,</v>
       </c>
-      <c r="E56" s="17" t="str">
+      <c r="F57" s="17" t="str">
         <f t="shared" si="6"/>
         <v>0,</v>
       </c>
-      <c r="F56" s="17" t="str">
+      <c r="G57" s="17" t="str">
         <f t="shared" si="7"/>
         <v>0,</v>
       </c>
-      <c r="G56" s="17" t="str">
+      <c r="H57" s="17" t="str">
         <f t="shared" si="8"/>
         <v>0,</v>
       </c>
-      <c r="H56" s="17" t="str">
+      <c r="I57" s="17" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
       </c>
-      <c r="I56" s="17" t="str">
+      <c r="J57" s="17" t="str">
         <f t="shared" si="10"/>
         <v>0,</v>
       </c>
-      <c r="J56" s="17" t="str">
+      <c r="K57" s="17" t="str">
         <f t="shared" si="11"/>
         <v>0,</v>
       </c>
-      <c r="K56" s="17" t="str">
-        <f t="shared" si="12"/>
+      <c r="L57" s="17" t="str">
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
-      <c r="L56" s="17" t="str">
-        <f t="shared" si="12"/>
-        <v>0,</v>
-      </c>
-      <c r="M56" s="17" t="str">
-        <f t="shared" ref="M56:W56" si="19">CHAR(34)&amp;M9&amp;CHAR(34)&amp;","</f>
-        <v>"Miles Morales",</v>
-      </c>
-      <c r="N56" s="17" t="str">
+      <c r="M57" s="17" t="str">
+        <f t="shared" ref="M57:W57" si="19">CHAR(34)&amp;M10&amp;CHAR(34)&amp;","</f>
+        <v>"LTBO Manager",</v>
+      </c>
+      <c r="N57" s="17" t="str">
+        <f t="shared" si="19"/>
+        <v>"Champion T1",</v>
+      </c>
+      <c r="O57" s="17" t="str">
+        <f t="shared" si="19"/>
+        <v>"Finals MVP T1",</v>
+      </c>
+      <c r="P57" s="17" t="str">
+        <f t="shared" si="19"/>
+        <v>"Fifthman T2",</v>
+      </c>
+      <c r="Q57" s="17" t="str">
+        <f t="shared" si="19"/>
+        <v>"All-2nd-Offence Team T2",</v>
+      </c>
+      <c r="R57" s="17" t="str">
+        <f t="shared" si="19"/>
+        <v>"All-2nd-Defence Team T2",</v>
+      </c>
+      <c r="S57" s="17" t="str">
         <f t="shared" si="19"/>
         <v>"Champion T2",</v>
       </c>
-      <c r="O56" s="17" t="str">
+      <c r="T57" s="17" t="str">
         <f t="shared" si="19"/>
         <v>"",</v>
       </c>
-      <c r="P56" s="17" t="str">
+      <c r="U57" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>"",</v>
-      </c>
-      <c r="Q56" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>"",</v>
-      </c>
-      <c r="R56" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>"",</v>
-      </c>
-      <c r="S56" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>"",</v>
-      </c>
-      <c r="T56" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>"",</v>
-      </c>
-      <c r="U56" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>"Drafted by Traffic Controllers",</v>
-      </c>
-      <c r="V56" s="17" t="str">
+        <v>"GM of Traffic Controllers",</v>
+      </c>
+      <c r="V57" s="17" t="str">
         <f t="shared" si="19"/>
         <v>"../Images/TC_Final.png",</v>
       </c>
-      <c r="W56" s="17" t="str">
+      <c r="W57" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>"../Images/Players/SamJ.png",</v>
-      </c>
-    </row>
-    <row r="57" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="17" t="str">
+        <v>"../Images/Players/Clarrie.png",</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>"William Kim",</v>
+      </c>
+      <c r="C58" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>"Choc-Tops",</v>
+      </c>
+      <c r="D58" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>"Clarrie Jones",</v>
-      </c>
-      <c r="C57" s="17" t="str">
-        <f t="shared" si="4"/>
-        <v>"Traffic Controllers",</v>
-      </c>
-      <c r="D57" s="17" t="str">
+        <v>0,</v>
+      </c>
+      <c r="E58" s="17" t="str">
         <f t="shared" si="5"/>
         <v>0,</v>
       </c>
-      <c r="E57" s="17" t="str">
+      <c r="F58" s="17" t="str">
         <f t="shared" si="6"/>
         <v>0,</v>
       </c>
-      <c r="F57" s="17" t="str">
+      <c r="G58" s="17" t="str">
         <f t="shared" si="7"/>
         <v>0,</v>
       </c>
-      <c r="G57" s="17" t="str">
+      <c r="H58" s="17" t="str">
         <f t="shared" si="8"/>
         <v>0,</v>
       </c>
-      <c r="H57" s="17" t="str">
+      <c r="I58" s="17" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
       </c>
-      <c r="I57" s="17" t="str">
+      <c r="J58" s="17" t="str">
         <f t="shared" si="10"/>
         <v>0,</v>
       </c>
-      <c r="J57" s="17" t="str">
+      <c r="K58" s="17" t="str">
         <f t="shared" si="11"/>
         <v>0,</v>
       </c>
-      <c r="K57" s="17" t="str">
-        <f t="shared" si="12"/>
+      <c r="L58" s="17" t="str">
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
-      <c r="L57" s="17" t="str">
-        <f t="shared" si="12"/>
-        <v>0,</v>
-      </c>
-      <c r="M57" s="17" t="str">
-        <f t="shared" ref="M57:W57" si="20">CHAR(34)&amp;M10&amp;CHAR(34)&amp;","</f>
-        <v>"LTBO Manager",</v>
-      </c>
-      <c r="N57" s="17" t="str">
+      <c r="M58" s="17" t="str">
+        <f t="shared" ref="M58:W58" si="20">CHAR(34)&amp;M11&amp;CHAR(34)&amp;","</f>
+        <v>"MVP T1",</v>
+      </c>
+      <c r="N58" s="17" t="str">
         <f t="shared" si="20"/>
-        <v>"Champion T1",</v>
-      </c>
-      <c r="O57" s="17" t="str">
+        <v>"All-Offence Team T1",</v>
+      </c>
+      <c r="O58" s="17" t="str">
         <f t="shared" si="20"/>
-        <v>"Finals MVP T1",</v>
-      </c>
-      <c r="P57" s="17" t="str">
-        <f t="shared" si="20"/>
-        <v>"Fifthman T2",</v>
-      </c>
-      <c r="Q57" s="17" t="str">
+        <v>"All-Defence Team T1",</v>
+      </c>
+      <c r="P58" s="17" t="str">
         <f t="shared" si="20"/>
         <v>"All-2nd-Offence Team T2",</v>
       </c>
-      <c r="R57" s="17" t="str">
+      <c r="Q58" s="17" t="str">
         <f t="shared" si="20"/>
-        <v>"All-2nd-Defence Team T2",</v>
-      </c>
-      <c r="S57" s="17" t="str">
+        <v>"All-Defence Team T2",</v>
+      </c>
+      <c r="R58" s="17" t="str">
         <f t="shared" si="20"/>
         <v>"Champion T2",</v>
       </c>
-      <c r="T57" s="17" t="str">
+      <c r="S58" s="17" t="str">
+        <f t="shared" si="20"/>
+        <v>"Finals MVP T2",</v>
+      </c>
+      <c r="T58" s="17" t="str">
         <f t="shared" si="20"/>
         <v>"",</v>
       </c>
-      <c r="U57" s="17" t="str">
+      <c r="U58" s="17" t="str">
         <f t="shared" si="20"/>
-        <v>"GM of Traffic Controllers",</v>
-      </c>
-      <c r="V57" s="17" t="str">
+        <v>"Drafted by Traffic Controllers. Traded to Choc-Tops.",</v>
+      </c>
+      <c r="V58" s="17" t="str">
         <f t="shared" si="20"/>
-        <v>"../Images/TC_Final.png",</v>
-      </c>
-      <c r="W57" s="17" t="str">
+        <v>"../Images/CT_Final.png",</v>
+      </c>
+      <c r="W58" s="17" t="str">
         <f t="shared" si="20"/>
-        <v>"../Images/Players/Clarrie.png",</v>
-      </c>
-    </row>
-    <row r="58" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="17" t="str">
+        <v>"../Images/Players/Kimmy.png",</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>"Samuel McConaghy",</v>
+      </c>
+      <c r="C59" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>"Traffic Controllers",</v>
+      </c>
+      <c r="D59" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>"William Kim",</v>
-      </c>
-      <c r="C58" s="17" t="str">
-        <f t="shared" si="4"/>
-        <v>"Traffic Controllers",</v>
-      </c>
-      <c r="D58" s="17" t="str">
+        <v>0,</v>
+      </c>
+      <c r="E59" s="17" t="str">
         <f t="shared" si="5"/>
         <v>0,</v>
       </c>
-      <c r="E58" s="17" t="str">
+      <c r="F59" s="17" t="str">
         <f t="shared" si="6"/>
         <v>0,</v>
       </c>
-      <c r="F58" s="17" t="str">
+      <c r="G59" s="17" t="str">
         <f t="shared" si="7"/>
         <v>0,</v>
       </c>
-      <c r="G58" s="17" t="str">
+      <c r="H59" s="17" t="str">
         <f t="shared" si="8"/>
         <v>0,</v>
       </c>
-      <c r="H58" s="17" t="str">
+      <c r="I59" s="17" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
       </c>
-      <c r="I58" s="17" t="str">
+      <c r="J59" s="17" t="str">
         <f t="shared" si="10"/>
         <v>0,</v>
       </c>
-      <c r="J58" s="17" t="str">
+      <c r="K59" s="17" t="str">
         <f t="shared" si="11"/>
         <v>0,</v>
       </c>
-      <c r="K58" s="17" t="str">
-        <f t="shared" si="12"/>
+      <c r="L59" s="17" t="str">
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
-      <c r="L58" s="17" t="str">
-        <f t="shared" si="12"/>
-        <v>0,</v>
-      </c>
-      <c r="M58" s="17" t="str">
-        <f t="shared" ref="M58:W58" si="21">CHAR(34)&amp;M11&amp;CHAR(34)&amp;","</f>
-        <v>"MVP T1",</v>
-      </c>
-      <c r="N58" s="17" t="str">
+      <c r="M59" s="17" t="str">
+        <f t="shared" ref="M59:W59" si="21">CHAR(34)&amp;M12&amp;CHAR(34)&amp;","</f>
+        <v>"GM",</v>
+      </c>
+      <c r="N59" s="17" t="str">
         <f t="shared" si="21"/>
         <v>"All-Offence Team T1",</v>
       </c>
-      <c r="O58" s="17" t="str">
+      <c r="O59" s="17" t="str">
         <f t="shared" si="21"/>
         <v>"All-Defence Team T1",</v>
       </c>
-      <c r="P58" s="17" t="str">
+      <c r="P59" s="17" t="str">
         <f t="shared" si="21"/>
-        <v>"All-2nd-Offence Team T2",</v>
-      </c>
-      <c r="Q58" s="17" t="str">
+        <v>"All-Offence Team T2",</v>
+      </c>
+      <c r="Q59" s="17" t="str">
         <f t="shared" si="21"/>
         <v>"All-Defence Team T2",</v>
       </c>
-      <c r="R58" s="17" t="str">
-        <f t="shared" si="21"/>
-        <v>"Champion T2",</v>
-      </c>
-      <c r="S58" s="17" t="str">
-        <f t="shared" si="21"/>
-        <v>"Finals MVP T2",</v>
-      </c>
-      <c r="T58" s="17" t="str">
+      <c r="R59" s="17" t="str">
         <f t="shared" si="21"/>
         <v>"",</v>
       </c>
-      <c r="U58" s="17" t="str">
+      <c r="S59" s="17" t="str">
+        <f t="shared" si="21"/>
+        <v>"",</v>
+      </c>
+      <c r="T59" s="17" t="str">
+        <f t="shared" si="21"/>
+        <v>"",</v>
+      </c>
+      <c r="U59" s="17" t="str">
         <f t="shared" si="21"/>
         <v>"Drafted by Traffic Controllers",</v>
       </c>
-      <c r="V58" s="17" t="str">
+      <c r="V59" s="17" t="str">
         <f t="shared" si="21"/>
         <v>"../Images/TC_Final.png",</v>
       </c>
-      <c r="W58" s="17" t="str">
+      <c r="W59" s="17" t="str">
         <f t="shared" si="21"/>
-        <v>"../Images/Players/Kimmy.png",</v>
-      </c>
-    </row>
-    <row r="59" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="17" t="str">
+        <v>"../Images/Players/SamM.png",</v>
+      </c>
+    </row>
+    <row r="60" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>"Ryan Pattemore",</v>
+      </c>
+      <c r="C60" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>"Choc-Tops",</v>
+      </c>
+      <c r="D60" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>"Samuel McConaghy",</v>
-      </c>
-      <c r="C59" s="17" t="str">
-        <f t="shared" si="4"/>
-        <v>"Traffic Controllers",</v>
-      </c>
-      <c r="D59" s="17" t="str">
+        <v>0,</v>
+      </c>
+      <c r="E60" s="17" t="str">
         <f t="shared" si="5"/>
         <v>0,</v>
       </c>
-      <c r="E59" s="17" t="str">
+      <c r="F60" s="17" t="str">
         <f t="shared" si="6"/>
         <v>0,</v>
       </c>
-      <c r="F59" s="17" t="str">
+      <c r="G60" s="17" t="str">
         <f t="shared" si="7"/>
         <v>0,</v>
       </c>
-      <c r="G59" s="17" t="str">
+      <c r="H60" s="17" t="str">
         <f t="shared" si="8"/>
         <v>0,</v>
       </c>
-      <c r="H59" s="17" t="str">
+      <c r="I60" s="17" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
       </c>
-      <c r="I59" s="17" t="str">
+      <c r="J60" s="17" t="str">
         <f t="shared" si="10"/>
         <v>0,</v>
       </c>
-      <c r="J59" s="17" t="str">
+      <c r="K60" s="17" t="str">
         <f t="shared" si="11"/>
         <v>0,</v>
       </c>
-      <c r="K59" s="17" t="str">
-        <f t="shared" si="12"/>
+      <c r="L60" s="17" t="str">
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
-      <c r="L59" s="17" t="str">
-        <f t="shared" si="12"/>
-        <v>0,</v>
-      </c>
-      <c r="M59" s="17" t="str">
-        <f t="shared" ref="M59:W59" si="22">CHAR(34)&amp;M12&amp;CHAR(34)&amp;","</f>
-        <v>"GM",</v>
-      </c>
-      <c r="N59" s="17" t="str">
+      <c r="M60" s="17" t="str">
+        <f t="shared" ref="M60:W60" si="22">CHAR(34)&amp;M13&amp;CHAR(34)&amp;","</f>
+        <v>"Perimeter T1",</v>
+      </c>
+      <c r="N60" s="17" t="str">
         <f t="shared" si="22"/>
-        <v>"All-Offence Team T1",</v>
-      </c>
-      <c r="O59" s="17" t="str">
-        <f t="shared" si="22"/>
-        <v>"All-Defence Team T1",</v>
-      </c>
-      <c r="P59" s="17" t="str">
-        <f t="shared" si="22"/>
-        <v>"All-Offence Team T2",</v>
-      </c>
-      <c r="Q59" s="17" t="str">
-        <f t="shared" si="22"/>
-        <v>"All-Defence Team T2",</v>
-      </c>
-      <c r="R59" s="17" t="str">
+        <v>"Champion T1",</v>
+      </c>
+      <c r="O60" s="17" t="str">
         <f t="shared" si="22"/>
         <v>"",</v>
       </c>
-      <c r="S59" s="17" t="str">
+      <c r="P60" s="17" t="str">
         <f t="shared" si="22"/>
         <v>"",</v>
       </c>
-      <c r="T59" s="17" t="str">
+      <c r="Q60" s="17" t="str">
         <f t="shared" si="22"/>
         <v>"",</v>
       </c>
-      <c r="U59" s="17" t="str">
+      <c r="R60" s="17" t="str">
         <f t="shared" si="22"/>
-        <v>"Drafted by Traffic Controllers",</v>
-      </c>
-      <c r="V59" s="17" t="str">
+        <v>"",</v>
+      </c>
+      <c r="S60" s="17" t="str">
         <f t="shared" si="22"/>
-        <v>"../Images/TC_Final.png",</v>
-      </c>
-      <c r="W59" s="17" t="str">
+        <v>"",</v>
+      </c>
+      <c r="T60" s="17" t="str">
         <f t="shared" si="22"/>
-        <v>"../Images/Players/SamM.png",</v>
-      </c>
-    </row>
-    <row r="60" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="17" t="str">
+        <v>"",</v>
+      </c>
+      <c r="U60" s="17" t="str">
+        <f t="shared" si="22"/>
+        <v>"GM of Choc-Tops",</v>
+      </c>
+      <c r="V60" s="17" t="str">
+        <f t="shared" si="22"/>
+        <v>"../Images/CT_Final.png",</v>
+      </c>
+      <c r="W60" s="17" t="str">
+        <f t="shared" si="22"/>
+        <v>"../Images/Players/Ryan.png",</v>
+      </c>
+    </row>
+    <row r="61" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>"William Scott",</v>
+      </c>
+      <c r="C61" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>"",</v>
+      </c>
+      <c r="D61" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>"Ryan Pattemore",</v>
-      </c>
-      <c r="C60" s="17" t="str">
-        <f t="shared" si="4"/>
-        <v>"Choc-Tops",</v>
-      </c>
-      <c r="D60" s="17" t="str">
+        <v>0,</v>
+      </c>
+      <c r="E61" s="17" t="str">
         <f t="shared" si="5"/>
         <v>0,</v>
       </c>
-      <c r="E60" s="17" t="str">
+      <c r="F61" s="17" t="str">
         <f t="shared" si="6"/>
         <v>0,</v>
       </c>
-      <c r="F60" s="17" t="str">
+      <c r="G61" s="17" t="str">
         <f t="shared" si="7"/>
         <v>0,</v>
       </c>
-      <c r="G60" s="17" t="str">
+      <c r="H61" s="17" t="str">
         <f t="shared" si="8"/>
         <v>0,</v>
       </c>
-      <c r="H60" s="17" t="str">
+      <c r="I61" s="17" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
       </c>
-      <c r="I60" s="17" t="str">
+      <c r="J61" s="17" t="str">
         <f t="shared" si="10"/>
         <v>0,</v>
       </c>
-      <c r="J60" s="17" t="str">
+      <c r="K61" s="17" t="str">
         <f t="shared" si="11"/>
         <v>0,</v>
       </c>
-      <c r="K60" s="17" t="str">
-        <f t="shared" si="12"/>
+      <c r="L61" s="17" t="str">
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
-      <c r="L60" s="17" t="str">
-        <f t="shared" si="12"/>
-        <v>0,</v>
-      </c>
-      <c r="M60" s="17" t="str">
-        <f t="shared" ref="M60:W60" si="23">CHAR(34)&amp;M13&amp;CHAR(34)&amp;","</f>
-        <v>"Perimeter T1",</v>
-      </c>
-      <c r="N60" s="17" t="str">
-        <f t="shared" si="23"/>
-        <v>"Champion T1",</v>
-      </c>
-      <c r="O60" s="17" t="str">
+      <c r="M61" s="17" t="str">
+        <f t="shared" ref="M61:W61" si="23">CHAR(34)&amp;M14&amp;CHAR(34)&amp;","</f>
+        <v>"LTBO Photographer",</v>
+      </c>
+      <c r="N61" s="17" t="str">
         <f t="shared" si="23"/>
         <v>"",</v>
       </c>
-      <c r="P60" s="17" t="str">
+      <c r="O61" s="17" t="str">
         <f t="shared" si="23"/>
         <v>"",</v>
       </c>
-      <c r="Q60" s="17" t="str">
+      <c r="P61" s="17" t="str">
         <f t="shared" si="23"/>
         <v>"",</v>
       </c>
-      <c r="R60" s="17" t="str">
+      <c r="Q61" s="17" t="str">
         <f t="shared" si="23"/>
         <v>"",</v>
       </c>
-      <c r="S60" s="17" t="str">
+      <c r="R61" s="17" t="str">
         <f t="shared" si="23"/>
         <v>"",</v>
       </c>
-      <c r="T60" s="17" t="str">
+      <c r="S61" s="17" t="str">
         <f t="shared" si="23"/>
         <v>"",</v>
       </c>
-      <c r="U60" s="17" t="str">
+      <c r="T61" s="17" t="str">
         <f t="shared" si="23"/>
-        <v>"GM of Choc-Tops",</v>
-      </c>
-      <c r="V60" s="17" t="str">
+        <v>"",</v>
+      </c>
+      <c r="U61" s="17" t="str">
         <f t="shared" si="23"/>
-        <v>"../Images/CT_Final.png",</v>
-      </c>
-      <c r="W60" s="17" t="str">
+        <v>"Unsigned",</v>
+      </c>
+      <c r="V61" s="17" t="str">
         <f t="shared" si="23"/>
-        <v>"../Images/Players/Ryan.png",</v>
-      </c>
-    </row>
-    <row r="61" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="17" t="str">
+        <v>"../Images/Logo.png",</v>
+      </c>
+      <c r="W61" s="17" t="str">
+        <f t="shared" si="23"/>
+        <v>"../Images/Players/Will.png",</v>
+      </c>
+    </row>
+    <row r="62" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>"Nicholas Szogi",</v>
+      </c>
+      <c r="C62" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>"Traffic Controllers",</v>
+      </c>
+      <c r="D62" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>"William Scott",</v>
-      </c>
-      <c r="C61" s="17" t="str">
-        <f t="shared" si="4"/>
-        <v>"",</v>
-      </c>
-      <c r="D61" s="17" t="str">
+        <v>0,</v>
+      </c>
+      <c r="E62" s="17" t="str">
         <f t="shared" si="5"/>
         <v>0,</v>
       </c>
-      <c r="E61" s="17" t="str">
+      <c r="F62" s="17" t="str">
         <f t="shared" si="6"/>
         <v>0,</v>
       </c>
-      <c r="F61" s="17" t="str">
+      <c r="G62" s="17" t="str">
         <f t="shared" si="7"/>
         <v>0,</v>
       </c>
-      <c r="G61" s="17" t="str">
+      <c r="H62" s="17" t="str">
         <f t="shared" si="8"/>
         <v>0,</v>
       </c>
-      <c r="H61" s="17" t="str">
+      <c r="I62" s="17" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
       </c>
-      <c r="I61" s="17" t="str">
+      <c r="J62" s="17" t="str">
         <f t="shared" si="10"/>
         <v>0,</v>
       </c>
-      <c r="J61" s="17" t="str">
+      <c r="K62" s="17" t="str">
         <f t="shared" si="11"/>
         <v>0,</v>
       </c>
-      <c r="K61" s="17" t="str">
-        <f t="shared" si="12"/>
+      <c r="L62" s="17" t="str">
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
-      <c r="L61" s="17" t="str">
-        <f t="shared" si="12"/>
-        <v>0,</v>
-      </c>
-      <c r="M61" s="17" t="str">
-        <f t="shared" ref="M61:W61" si="24">CHAR(34)&amp;M14&amp;CHAR(34)&amp;","</f>
-        <v>"LTBO Photographer",</v>
-      </c>
-      <c r="N61" s="17" t="str">
+      <c r="M62" s="17" t="str">
+        <f t="shared" ref="M62:W62" si="24">CHAR(34)&amp;M15&amp;CHAR(34)&amp;","</f>
+        <v>"The Biggest Bird",</v>
+      </c>
+      <c r="N62" s="17" t="str">
+        <f t="shared" si="24"/>
+        <v>"Champion T1",</v>
+      </c>
+      <c r="O62" s="17" t="str">
+        <f t="shared" si="24"/>
+        <v>"MVP Runner Up T2",</v>
+      </c>
+      <c r="P62" s="17" t="str">
+        <f t="shared" si="24"/>
+        <v>"X-Factor T2",</v>
+      </c>
+      <c r="Q62" s="17" t="str">
+        <f t="shared" si="24"/>
+        <v>"All-2nd-Offence Team T2",</v>
+      </c>
+      <c r="R62" s="17" t="str">
+        <f t="shared" si="24"/>
+        <v>"All-2nd-Defence Team T2",</v>
+      </c>
+      <c r="S62" s="17" t="str">
         <f t="shared" si="24"/>
         <v>"",</v>
       </c>
-      <c r="O61" s="17" t="str">
+      <c r="T62" s="17" t="str">
         <f t="shared" si="24"/>
         <v>"",</v>
       </c>
-      <c r="P61" s="17" t="str">
+      <c r="U62" s="17" t="str">
         <f t="shared" si="24"/>
-        <v>"",</v>
-      </c>
-      <c r="Q61" s="17" t="str">
+        <v>"Drafted by Choc-Tops. Traded to Traffic Controllers.",</v>
+      </c>
+      <c r="V62" s="17" t="str">
         <f t="shared" si="24"/>
-        <v>"",</v>
-      </c>
-      <c r="R61" s="17" t="str">
+        <v>"../Images/TC_Final.png",</v>
+      </c>
+      <c r="W62" s="17" t="str">
         <f t="shared" si="24"/>
-        <v>"",</v>
-      </c>
-      <c r="S61" s="17" t="str">
-        <f t="shared" si="24"/>
-        <v>"",</v>
-      </c>
-      <c r="T61" s="17" t="str">
-        <f t="shared" si="24"/>
-        <v>"",</v>
-      </c>
-      <c r="U61" s="17" t="str">
-        <f t="shared" si="24"/>
-        <v>"Unsigned",</v>
-      </c>
-      <c r="V61" s="17" t="str">
-        <f t="shared" si="24"/>
-        <v>"../Images/Logo.png",</v>
-      </c>
-      <c r="W61" s="17" t="str">
-        <f t="shared" si="24"/>
-        <v>"../Images/Players/Will.png",</v>
-      </c>
-    </row>
-    <row r="62" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="17" t="str">
+        <v>"../Images/Players/Nick.png",</v>
+      </c>
+    </row>
+    <row r="63" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>"Christopher Tomkinson",</v>
+      </c>
+      <c r="C63" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>"Gentle, Men",</v>
+      </c>
+      <c r="D63" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>"Nicholas Szogi",</v>
-      </c>
-      <c r="C62" s="17" t="str">
-        <f t="shared" si="4"/>
-        <v>"Choc-Tops",</v>
-      </c>
-      <c r="D62" s="17" t="str">
+        <v>0,</v>
+      </c>
+      <c r="E63" s="17" t="str">
         <f t="shared" si="5"/>
         <v>0,</v>
       </c>
-      <c r="E62" s="17" t="str">
+      <c r="F63" s="17" t="str">
         <f t="shared" si="6"/>
         <v>0,</v>
       </c>
-      <c r="F62" s="17" t="str">
+      <c r="G63" s="17" t="str">
         <f t="shared" si="7"/>
         <v>0,</v>
       </c>
-      <c r="G62" s="17" t="str">
+      <c r="H63" s="17" t="str">
         <f t="shared" si="8"/>
         <v>0,</v>
       </c>
-      <c r="H62" s="17" t="str">
+      <c r="I63" s="17" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
       </c>
-      <c r="I62" s="17" t="str">
+      <c r="J63" s="17" t="str">
         <f t="shared" si="10"/>
         <v>0,</v>
       </c>
-      <c r="J62" s="17" t="str">
+      <c r="K63" s="17" t="str">
         <f t="shared" si="11"/>
         <v>0,</v>
       </c>
-      <c r="K62" s="17" t="str">
-        <f t="shared" si="12"/>
+      <c r="L63" s="17" t="str">
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
-      <c r="L62" s="17" t="str">
-        <f t="shared" si="12"/>
-        <v>0,</v>
-      </c>
-      <c r="M62" s="17" t="str">
-        <f t="shared" ref="M62:W62" si="25">CHAR(34)&amp;M15&amp;CHAR(34)&amp;","</f>
-        <v>"The Biggest Bird",</v>
-      </c>
-      <c r="N62" s="17" t="str">
+      <c r="M63" s="17" t="str">
+        <f t="shared" ref="M63:W63" si="25">CHAR(34)&amp;M16&amp;CHAR(34)&amp;","</f>
+        <v>"MIP T1",</v>
+      </c>
+      <c r="N63" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>"Champion T1",</v>
-      </c>
-      <c r="O62" s="17" t="str">
+        <v>"MIP T2",</v>
+      </c>
+      <c r="O63" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>"MVP Runner Up T2",</v>
-      </c>
-      <c r="P62" s="17" t="str">
-        <f t="shared" si="25"/>
-        <v>"X-Factor T2",</v>
-      </c>
-      <c r="Q62" s="17" t="str">
+        <v>"MVP T2",</v>
+      </c>
+      <c r="P63" s="17" t="str">
         <f t="shared" si="25"/>
         <v>"All-2nd-Offence Team T2",</v>
       </c>
-      <c r="R62" s="17" t="str">
+      <c r="Q63" s="17" t="str">
         <f t="shared" si="25"/>
         <v>"All-2nd-Defence Team T2",</v>
       </c>
-      <c r="S62" s="17" t="str">
+      <c r="R63" s="17" t="str">
+        <f t="shared" si="25"/>
+        <v>"Champion T2",</v>
+      </c>
+      <c r="S63" s="17" t="str">
         <f t="shared" si="25"/>
         <v>"",</v>
       </c>
-      <c r="T62" s="17" t="str">
+      <c r="T63" s="17" t="str">
         <f t="shared" si="25"/>
         <v>"",</v>
       </c>
-      <c r="U62" s="17" t="str">
+      <c r="U63" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>"Drafted by Choc-Tops",</v>
-      </c>
-      <c r="V62" s="17" t="str">
+        <v>"Drafted by Choc-Tops. Traded to Gentle, Men.",</v>
+      </c>
+      <c r="V63" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>"../Images/CT_Final.png",</v>
-      </c>
-      <c r="W62" s="17" t="str">
+        <v>"../Images/GM_Final.png",</v>
+      </c>
+      <c r="W63" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>"../Images/Players/Nick.png",</v>
-      </c>
-    </row>
-    <row r="63" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="17" t="str">
+        <v>"../Images/Players/Chris.png",</v>
+      </c>
+    </row>
+    <row r="64" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angus Walker",</v>
+      </c>
+      <c r="C64" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>"Choc-Tops",</v>
+      </c>
+      <c r="D64" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>"Christopher Tomkinson",</v>
-      </c>
-      <c r="C63" s="17" t="str">
-        <f t="shared" si="4"/>
-        <v>"Gentle, Men",</v>
-      </c>
-      <c r="D63" s="17" t="str">
+        <v>0,</v>
+      </c>
+      <c r="E64" s="17" t="str">
         <f t="shared" si="5"/>
         <v>0,</v>
       </c>
-      <c r="E63" s="17" t="str">
+      <c r="F64" s="17" t="str">
         <f t="shared" si="6"/>
         <v>0,</v>
       </c>
-      <c r="F63" s="17" t="str">
+      <c r="G64" s="17" t="str">
         <f t="shared" si="7"/>
         <v>0,</v>
       </c>
-      <c r="G63" s="17" t="str">
+      <c r="H64" s="17" t="str">
         <f t="shared" si="8"/>
         <v>0,</v>
       </c>
-      <c r="H63" s="17" t="str">
+      <c r="I64" s="17" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
       </c>
-      <c r="I63" s="17" t="str">
+      <c r="J64" s="17" t="str">
         <f t="shared" si="10"/>
         <v>0,</v>
       </c>
-      <c r="J63" s="17" t="str">
+      <c r="K64" s="17" t="str">
         <f t="shared" si="11"/>
         <v>0,</v>
       </c>
-      <c r="K63" s="17" t="str">
-        <f t="shared" si="12"/>
+      <c r="L64" s="17" t="str">
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
-      <c r="L63" s="17" t="str">
-        <f t="shared" si="12"/>
-        <v>0,</v>
-      </c>
-      <c r="M63" s="17" t="str">
-        <f t="shared" ref="M63:W63" si="26">CHAR(34)&amp;M16&amp;CHAR(34)&amp;","</f>
-        <v>"MIP T1",</v>
-      </c>
-      <c r="N63" s="17" t="str">
+      <c r="M64" s="17" t="str">
+        <f t="shared" ref="M64:W64" si="26">CHAR(34)&amp;M17&amp;CHAR(34)&amp;","</f>
+        <v>"LTBO CEO",</v>
+      </c>
+      <c r="N64" s="17" t="str">
         <f t="shared" si="26"/>
-        <v>"MIP T2",</v>
-      </c>
-      <c r="O63" s="17" t="str">
+        <v>"GM",</v>
+      </c>
+      <c r="O64" s="17" t="str">
         <f t="shared" si="26"/>
-        <v>"MVP T2",</v>
-      </c>
-      <c r="P63" s="17" t="str">
+        <v>"All-Offence Team T1",</v>
+      </c>
+      <c r="P64" s="17" t="str">
         <f t="shared" si="26"/>
-        <v>"All-2nd-Offence Team T2",</v>
-      </c>
-      <c r="Q63" s="17" t="str">
+        <v>"All-Defence Team T1",</v>
+      </c>
+      <c r="Q64" s="17" t="str">
         <f t="shared" si="26"/>
-        <v>"All-2nd-Defence Team T2",</v>
-      </c>
-      <c r="R63" s="17" t="str">
+        <v>"Scoring Champ T1",</v>
+      </c>
+      <c r="R64" s="17" t="str">
+        <f t="shared" si="26"/>
+        <v>"All-Offence Team T2",</v>
+      </c>
+      <c r="S64" s="17" t="str">
+        <f t="shared" si="26"/>
+        <v>"All-Defence Team T2",</v>
+      </c>
+      <c r="T64" s="17" t="str">
         <f t="shared" si="26"/>
         <v>"Champion T2",</v>
       </c>
-      <c r="S63" s="17" t="str">
+      <c r="U64" s="17" t="str">
         <f t="shared" si="26"/>
-        <v>"",</v>
-      </c>
-      <c r="T63" s="17" t="str">
+        <v>"Drafted by Choc-Tops",</v>
+      </c>
+      <c r="V64" s="17" t="str">
         <f t="shared" si="26"/>
-        <v>"",</v>
-      </c>
-      <c r="U63" s="17" t="str">
+        <v>"../Images/CT_Final.png",</v>
+      </c>
+      <c r="W64" s="17" t="str">
         <f t="shared" si="26"/>
-        <v>"Drafted by Choc-Tops. Traded to Gentle, Men.",</v>
-      </c>
-      <c r="V63" s="17" t="str">
-        <f t="shared" si="26"/>
-        <v>"../Images/GM_Final.png",</v>
-      </c>
-      <c r="W63" s="17" t="str">
-        <f t="shared" si="26"/>
-        <v>"../Images/Players/Chris.png",</v>
-      </c>
-    </row>
-    <row r="64" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="17" t="str">
-        <f t="shared" si="4"/>
-        <v>"Angus Walker",</v>
-      </c>
-      <c r="C64" s="17" t="str">
-        <f t="shared" si="4"/>
-        <v>"Choc-Tops",</v>
-      </c>
-      <c r="D64" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>0,</v>
-      </c>
-      <c r="E64" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="F64" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>0,</v>
-      </c>
-      <c r="G64" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v>0,</v>
-      </c>
-      <c r="H64" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="I64" s="17" t="str">
-        <f t="shared" si="10"/>
-        <v>0,</v>
-      </c>
-      <c r="J64" s="17" t="str">
-        <f t="shared" si="11"/>
-        <v>0,</v>
-      </c>
-      <c r="K64" s="17" t="str">
-        <f t="shared" si="12"/>
-        <v>0,</v>
-      </c>
-      <c r="L64" s="17" t="str">
-        <f t="shared" si="12"/>
-        <v>0,</v>
-      </c>
-      <c r="M64" s="17" t="str">
-        <f t="shared" ref="M64:W64" si="27">CHAR(34)&amp;M17&amp;CHAR(34)&amp;","</f>
-        <v>"LTBO CEO",</v>
-      </c>
-      <c r="N64" s="17" t="str">
-        <f t="shared" si="27"/>
-        <v>"GM",</v>
-      </c>
-      <c r="O64" s="17" t="str">
-        <f t="shared" si="27"/>
-        <v>"All-Offence Team T1",</v>
-      </c>
-      <c r="P64" s="17" t="str">
-        <f t="shared" si="27"/>
-        <v>"All-Defence Team T1",</v>
-      </c>
-      <c r="Q64" s="17" t="str">
-        <f t="shared" si="27"/>
-        <v>"Scoring Champ T1",</v>
-      </c>
-      <c r="R64" s="17" t="str">
-        <f t="shared" si="27"/>
-        <v>"All-Offence Team T2",</v>
-      </c>
-      <c r="S64" s="17" t="str">
-        <f t="shared" si="27"/>
-        <v>"All-Defence Team T2",</v>
-      </c>
-      <c r="T64" s="17" t="str">
-        <f t="shared" si="27"/>
-        <v>"Champion T2",</v>
-      </c>
-      <c r="U64" s="17" t="str">
-        <f t="shared" si="27"/>
-        <v>"Drafted by Choc-Tops",</v>
-      </c>
-      <c r="V64" s="17" t="str">
-        <f t="shared" si="27"/>
-        <v>"../Images/CT_Final.png",</v>
-      </c>
-      <c r="W64" s="17" t="str">
-        <f t="shared" si="27"/>
         <v>"../Images/Players/Angus.png",</v>
       </c>
     </row>
@@ -11318,47 +11336,47 @@
         <v>0</v>
       </c>
       <c r="M65" s="17" t="str">
-        <f t="shared" ref="M65:W65" si="28">CHAR(34)&amp;M18&amp;CHAR(34)</f>
+        <f t="shared" ref="M65:W65" si="27">CHAR(34)&amp;M18&amp;CHAR(34)</f>
         <v>"Teammate T1"</v>
       </c>
       <c r="N65" s="17" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>"Champion T1"</v>
       </c>
       <c r="O65" s="17" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>"Teammate T2"</v>
       </c>
       <c r="P65" s="17" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>""</v>
       </c>
       <c r="Q65" s="17" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>""</v>
       </c>
       <c r="R65" s="17" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>""</v>
       </c>
       <c r="S65" s="17" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>""</v>
       </c>
       <c r="T65" s="17" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>""</v>
       </c>
       <c r="U65" s="17" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>"Drafted by Gentle, Men"</v>
       </c>
       <c r="V65" s="17" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>"../Images/GM_Final.png"</v>
       </c>
       <c r="W65" s="17" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>"../Images/Players/Willie.png"</v>
       </c>
     </row>
@@ -12326,7 +12344,7 @@
   <mergeCells count="1">
     <mergeCell ref="B22:C23"/>
   </mergeCells>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -13198,7 +13216,7 @@
       </c>
       <c r="AI13" s="141" t="str">
         <f>SfW!C8</f>
-        <v>Choc-Tops</v>
+        <v>Traffic Controllers</v>
       </c>
       <c r="AJ13" s="146">
         <f t="shared" si="5"/>
@@ -13295,7 +13313,7 @@
       </c>
       <c r="AI14" s="141" t="str">
         <f>SfW!C9</f>
-        <v>Traffic Controllers</v>
+        <v>Choc-Tops</v>
       </c>
       <c r="AJ14" s="146">
         <f t="shared" si="5"/>
@@ -13489,7 +13507,7 @@
       </c>
       <c r="AI16" s="61" t="str">
         <f>SfW!C11</f>
-        <v>Traffic Controllers</v>
+        <v>Choc-Tops</v>
       </c>
       <c r="AJ16" s="66">
         <f t="shared" si="5"/>
@@ -13868,7 +13886,7 @@
       </c>
       <c r="AI20" s="141" t="str">
         <f>SfW!C15</f>
-        <v>Choc-Tops</v>
+        <v>Traffic Controllers</v>
       </c>
       <c r="AJ20" s="146">
         <f t="shared" si="5"/>
@@ -18603,7 +18621,7 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="U109:U118 W103:W108">
     <cfRule type="cellIs" dxfId="156" priority="11" operator="greaterThan">
       <formula>0</formula>
@@ -26809,18 +26827,18 @@
     <row r="41" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R41" s="92"/>
       <c r="S41" s="92"/>
-      <c r="T41" s="156" t="s">
+      <c r="T41" s="157" t="s">
         <v>107</v>
       </c>
-      <c r="U41" s="156"/>
-      <c r="V41" s="156"/>
+      <c r="U41" s="157"/>
+      <c r="V41" s="157"/>
     </row>
     <row r="42" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R42" s="92"/>
       <c r="S42" s="92"/>
-      <c r="T42" s="156"/>
-      <c r="U42" s="156"/>
-      <c r="V42" s="156"/>
+      <c r="T42" s="157"/>
+      <c r="U42" s="157"/>
+      <c r="V42" s="157"/>
     </row>
     <row r="43" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="16" t="s">

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\LTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDFDBAF-A794-42FE-8A9E-F794C169CBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49A92F6-27FF-4026-BE84-7CFFA9223FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="6" xr2:uid="{1E3275F7-0219-46B7-B9B0-3246E28631A6}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="223">
   <si>
     <t>Points</t>
   </si>
@@ -215,9 +215,6 @@
   </si>
   <si>
     <t>Clarrie</t>
-  </si>
-  <si>
-    <t>Willie Weekes</t>
   </si>
   <si>
     <t>Teammate T1</t>
@@ -1425,96 +1422,6 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="157">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4958,6 +4865,96 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -7493,40 +7490,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}" name="Table1" displayName="Table1" ref="Z7:AJ23" totalsRowShown="0" headerRowDxfId="156" dataDxfId="154" headerRowBorderDxfId="155" tableBorderDxfId="153" totalsRowBorderDxfId="152">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}" name="Table1" displayName="Table1" ref="Z7:AJ23" totalsRowShown="0" headerRowDxfId="147" dataDxfId="145" headerRowBorderDxfId="146" tableBorderDxfId="144" totalsRowBorderDxfId="143">
   <autoFilter ref="Z7:AJ23" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{9B036617-5450-4894-9268-827D2E0914FF}" name="Scoring" dataDxfId="151">
+    <tableColumn id="1" xr3:uid="{9B036617-5450-4894-9268-827D2E0914FF}" name="Scoring" dataDxfId="142">
       <calculatedColumnFormula>SfW!B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="150">
+    <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="141">
       <calculatedColumnFormula>SUM(AL29,AA49,AL49,AA69,AL69,AA89,AL89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="149">
+    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="140">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="148">
+    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="139">
       <calculatedColumnFormula>SUM(AM29,AB49,AM49,AB69,AM69,AB89,AM89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="147">
+    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="138">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="146">
+    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="137">
       <calculatedColumnFormula>SUM(AN29,AC49,AN49,AC69,AN69,AC89,AN89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="145">
+    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="136">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="144">
+    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="135">
       <calculatedColumnFormula>SUM(AO29,AD49,AO49,AD69,AO69,AD89,AO89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="143">
+    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="134">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="142">
+    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="133">
       <calculatedColumnFormula>SfW!C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="141">
+    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="132">
       <calculatedColumnFormula>SUM(AT29,AI49,AT49,AI69,AT69,AI89,AT89)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7535,113 +7532,113 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}" name="Table1114" displayName="Table1114" ref="R3:AA8" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}" name="Table1114" displayName="Table1114" ref="R3:AA8" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="R3:AA8" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B3B5C08C-655A-460A-A171-B3B0C826FF04}" name="Name" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{427944B0-44CA-4325-A406-29F83026BA5E}" name="Points" dataDxfId="41">
+    <tableColumn id="1" xr3:uid="{B3B5C08C-655A-460A-A171-B3B0C826FF04}" name="Name" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{427944B0-44CA-4325-A406-29F83026BA5E}" name="Points" dataDxfId="32">
       <calculatedColumnFormula>'Stats Global'!AA22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5E06D173-4DBE-4045-9072-0A0A77D19C84}" name="Average" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{E74131A4-1DCA-4A89-8989-A4CF80175582}" name="Finishes" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{FC3336D4-2CB5-4673-A345-7C9CCED7ADEE}" name="Averages" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{BD6313A7-5D92-4B66-9B85-7ABC12DE9691}" name="Midranges" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{6D0293BC-7E06-45CE-9D4B-FE4769DF9D9F}" name="Averages2" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{89C1C64B-DD66-482C-BCDE-8B912D2676EF}" name="Threes" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{7748B87C-1833-4BD6-9162-76373407E655}" name="Averages3" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{D870E191-A52F-442E-AA52-A42CFAD05573}" name="Missed Games" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{5E06D173-4DBE-4045-9072-0A0A77D19C84}" name="Average" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{E74131A4-1DCA-4A89-8989-A4CF80175582}" name="Finishes" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{FC3336D4-2CB5-4673-A345-7C9CCED7ADEE}" name="Averages" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{BD6313A7-5D92-4B66-9B85-7ABC12DE9691}" name="Midranges" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{6D0293BC-7E06-45CE-9D4B-FE4769DF9D9F}" name="Averages2" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{89C1C64B-DD66-482C-BCDE-8B912D2676EF}" name="Threes" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{7748B87C-1833-4BD6-9162-76373407E655}" name="Averages3" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{D870E191-A52F-442E-AA52-A42CFAD05573}" name="Missed Games" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}" name="Table1113" displayName="Table1113" ref="O3:X8" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}" name="Table1113" displayName="Table1113" ref="O3:X8" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="O3:X8" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7790729E-C8E5-45C1-8784-25212A2654AA}" name="Name" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{52A67B2B-967C-4970-8D83-8F8E9CC61522}" name="Points" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{BA1FA2C8-AEC0-4644-83DB-5097750D7188}" name="Average" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{4CF66F5D-BF10-4CBD-88FF-CCD38730E1CD}" name="Finishes" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{BC246D5B-7E78-41A6-B796-C93ED8E53DF9}" name="Averages" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{AB819419-CC06-4A40-8DED-E231125129C0}" name="Midranges" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{064AA562-C451-4362-805E-D12DC76C3530}" name="Averages2" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{BD0D8BAE-15E4-4B38-87FE-B682D7BAEE75}" name="Threes" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{541E391B-4B08-4E98-A63F-753C11193269}" name="Averages3" dataDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{999BB5D2-D6FB-4EB9-A268-D62EA72F939D}" name="Missed Games" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{7790729E-C8E5-45C1-8784-25212A2654AA}" name="Name" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{52A67B2B-967C-4970-8D83-8F8E9CC61522}" name="Points" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{BA1FA2C8-AEC0-4644-83DB-5097750D7188}" name="Average" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{4CF66F5D-BF10-4CBD-88FF-CCD38730E1CD}" name="Finishes" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{BC246D5B-7E78-41A6-B796-C93ED8E53DF9}" name="Averages" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{AB819419-CC06-4A40-8DED-E231125129C0}" name="Midranges" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{064AA562-C451-4362-805E-D12DC76C3530}" name="Averages2" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{BD0D8BAE-15E4-4B38-87FE-B682D7BAEE75}" name="Threes" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{541E391B-4B08-4E98-A63F-753C11193269}" name="Averages3" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{999BB5D2-D6FB-4EB9-A268-D62EA72F939D}" name="Missed Games" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}" name="Table11" displayName="Table11" ref="L4:U9" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}" name="Table11" displayName="Table11" ref="L4:U9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="L4:U9" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{CE15C23D-9493-4B21-9D40-1A25D210C18E}" name="Name" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{6BB170B1-AA38-4699-9B96-400D2947EE9C}" name="Points" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{EC8B6CBB-FCC9-416C-AEA6-738419DFE531}" name="Average" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{315DA055-9A43-468A-A501-1092626F523F}" name="Finishes" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{56B6FF4D-95D4-4550-88E4-C781ABDA83A6}" name="Averages" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{F7B5C0B8-FBE2-44B0-A372-112C7776FCCF}" name="Midranges" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{1A1C2126-FEB1-408F-8523-049E53028B4E}" name="Averages2" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{AE94036B-3777-4C1B-97D5-7BFA1037C0BF}" name="Threes" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{448B0903-7F66-40BA-809F-74ADBF397B45}" name="Averages3" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{E0CAC55D-8398-4928-A219-C01706996D48}" name="Missed Games" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{CE15C23D-9493-4B21-9D40-1A25D210C18E}" name="Name" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{6BB170B1-AA38-4699-9B96-400D2947EE9C}" name="Points" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{EC8B6CBB-FCC9-416C-AEA6-738419DFE531}" name="Average" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{315DA055-9A43-468A-A501-1092626F523F}" name="Finishes" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{56B6FF4D-95D4-4550-88E4-C781ABDA83A6}" name="Averages" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{F7B5C0B8-FBE2-44B0-A372-112C7776FCCF}" name="Midranges" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{1A1C2126-FEB1-408F-8523-049E53028B4E}" name="Averages2" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{AE94036B-3777-4C1B-97D5-7BFA1037C0BF}" name="Threes" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{448B0903-7F66-40BA-809F-74ADBF397B45}" name="Averages3" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{E0CAC55D-8398-4928-A219-C01706996D48}" name="Missed Games" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}" name="Table2" displayName="Table2" ref="Z28:AI44" totalsRowShown="0" headerRowDxfId="140" dataDxfId="139">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}" name="Table2" displayName="Table2" ref="Z28:AI44" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
   <autoFilter ref="Z28:AI44" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4DB7A2B8-7BD8-4BD7-8F53-2A7873A4EAAE}" name="Scoring" dataDxfId="138"/>
-    <tableColumn id="2" xr3:uid="{BE8EBD49-660A-4C9F-970E-230EBB942EF1}" name="Points" dataDxfId="137"/>
-    <tableColumn id="3" xr3:uid="{C2C49EF0-4D8C-4F8C-8D19-CDD1481D9568}" name="Finishes" dataDxfId="136"/>
-    <tableColumn id="4" xr3:uid="{7E789F8C-B8F3-4D6E-AB6C-C9454835B062}" name="Midranges" dataDxfId="135"/>
-    <tableColumn id="5" xr3:uid="{18C990F2-A6D0-4F57-B96A-D00066DCC8D8}" name="Threes" dataDxfId="134"/>
-    <tableColumn id="6" xr3:uid="{40526534-76CA-42BA-A8B6-AB092D9CE18F}" name="Avg P" dataDxfId="133"/>
-    <tableColumn id="7" xr3:uid="{693AF117-21F6-4887-B78D-D59235BABA44}" name="Avg F" dataDxfId="132"/>
-    <tableColumn id="8" xr3:uid="{02AC8FBF-EBB3-4AFC-BAC5-B773E33B7279}" name="Avg M" dataDxfId="131"/>
-    <tableColumn id="9" xr3:uid="{CCF75EB4-34C4-4D47-9D51-E8D85C07E38B}" name="Avg T" dataDxfId="130"/>
-    <tableColumn id="10" xr3:uid="{1A786A5C-D0C2-4ABC-904C-983180542D5F}" name="Missed Games" dataDxfId="129"/>
+    <tableColumn id="1" xr3:uid="{4DB7A2B8-7BD8-4BD7-8F53-2A7873A4EAAE}" name="Scoring" dataDxfId="129"/>
+    <tableColumn id="2" xr3:uid="{BE8EBD49-660A-4C9F-970E-230EBB942EF1}" name="Points" dataDxfId="128"/>
+    <tableColumn id="3" xr3:uid="{C2C49EF0-4D8C-4F8C-8D19-CDD1481D9568}" name="Finishes" dataDxfId="127"/>
+    <tableColumn id="4" xr3:uid="{7E789F8C-B8F3-4D6E-AB6C-C9454835B062}" name="Midranges" dataDxfId="126"/>
+    <tableColumn id="5" xr3:uid="{18C990F2-A6D0-4F57-B96A-D00066DCC8D8}" name="Threes" dataDxfId="125"/>
+    <tableColumn id="6" xr3:uid="{40526534-76CA-42BA-A8B6-AB092D9CE18F}" name="Avg P" dataDxfId="124"/>
+    <tableColumn id="7" xr3:uid="{693AF117-21F6-4887-B78D-D59235BABA44}" name="Avg F" dataDxfId="123"/>
+    <tableColumn id="8" xr3:uid="{02AC8FBF-EBB3-4AFC-BAC5-B773E33B7279}" name="Avg M" dataDxfId="122"/>
+    <tableColumn id="9" xr3:uid="{CCF75EB4-34C4-4D47-9D51-E8D85C07E38B}" name="Avg T" dataDxfId="121"/>
+    <tableColumn id="10" xr3:uid="{1A786A5C-D0C2-4ABC-904C-983180542D5F}" name="Missed Games" dataDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}" name="Table211" displayName="Table211" ref="AK28:AT44" totalsRowShown="0" headerRowDxfId="128" dataDxfId="127">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}" name="Table211" displayName="Table211" ref="AK28:AT44" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="AK28:AT44" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5D003608-C1C2-4694-9447-8632FB8D7348}" name="Scoring" dataDxfId="126"/>
-    <tableColumn id="2" xr3:uid="{D15F4085-CED5-4CDD-B43B-BF7EB59B45A3}" name="Points" dataDxfId="125">
+    <tableColumn id="1" xr3:uid="{5D003608-C1C2-4694-9447-8632FB8D7348}" name="Scoring" dataDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{D15F4085-CED5-4CDD-B43B-BF7EB59B45A3}" name="Points" dataDxfId="116">
       <calculatedColumnFormula>'2310'!R3+'2410'!R3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2D436F37-54B6-4820-9145-F48B4EF9B294}" name="Finishes" dataDxfId="124">
+    <tableColumn id="3" xr3:uid="{2D436F37-54B6-4820-9145-F48B4EF9B294}" name="Finishes" dataDxfId="115">
       <calculatedColumnFormula>'2310'!S3+'2410'!S3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1D9B6A22-B682-47F3-B738-7C138F317A41}" name="Midranges" dataDxfId="123">
+    <tableColumn id="4" xr3:uid="{1D9B6A22-B682-47F3-B738-7C138F317A41}" name="Midranges" dataDxfId="114">
       <calculatedColumnFormula>'2310'!T3+'2410'!T3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9966C9A0-3872-44E9-BB39-05DE197EAA68}" name="Threes" dataDxfId="122">
+    <tableColumn id="5" xr3:uid="{9966C9A0-3872-44E9-BB39-05DE197EAA68}" name="Threes" dataDxfId="113">
       <calculatedColumnFormula>'2310'!U3+'2410'!U3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CC4AB646-735F-425F-8528-C5EFE7FE11DC}" name="Avg P" dataDxfId="121">
+    <tableColumn id="6" xr3:uid="{CC4AB646-735F-425F-8528-C5EFE7FE11DC}" name="Avg P" dataDxfId="112">
       <calculatedColumnFormula>Table211[[#This Row],[Points]]/($AL$27-Table211[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F8D0247E-C6F7-467A-9F38-46084D44F8AB}" name="Avg F" dataDxfId="120">
+    <tableColumn id="7" xr3:uid="{F8D0247E-C6F7-467A-9F38-46084D44F8AB}" name="Avg F" dataDxfId="111">
       <calculatedColumnFormula>Table211[[#This Row],[Finishes]]/($AL$27-Table211[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7CCF1C77-9DB0-4EB2-B7D0-FD0BDBEBFA0E}" name="Avg M" dataDxfId="119">
+    <tableColumn id="8" xr3:uid="{7CCF1C77-9DB0-4EB2-B7D0-FD0BDBEBFA0E}" name="Avg M" dataDxfId="110">
       <calculatedColumnFormula>Table211[[#This Row],[Midranges]]/($AL$27-Table211[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{582A1A4E-5383-4383-A480-735408867046}" name="Avg T" dataDxfId="118">
+    <tableColumn id="9" xr3:uid="{582A1A4E-5383-4383-A480-735408867046}" name="Avg T" dataDxfId="109">
       <calculatedColumnFormula>Table211[[#This Row],[Threes]]/($AL$27-Table211[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E547AEB5-F9BA-4C5F-8DCE-34B6A8FF303A}" name="Missed Games" dataDxfId="117">
+    <tableColumn id="10" xr3:uid="{E547AEB5-F9BA-4C5F-8DCE-34B6A8FF303A}" name="Missed Games" dataDxfId="108">
       <calculatedColumnFormula>COUNTIF('2310'!V3, TRUE)+COUNTIF('2410'!V3, TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7650,130 +7647,130 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}" name="Table21123" displayName="Table21123" ref="Z48:AI64" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}" name="Table21123" displayName="Table21123" ref="Z48:AI64" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="Z48:AI64" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0B0344E8-2677-4FAB-9B03-4745991FB5AE}" name="Scoring" dataDxfId="114"/>
-    <tableColumn id="2" xr3:uid="{58CA1107-8BB4-4A5D-BA00-31619C8D3973}" name="Points" dataDxfId="113"/>
-    <tableColumn id="3" xr3:uid="{8090861E-1FDF-44F4-9DB6-BB814E32C754}" name="Finishes" dataDxfId="112"/>
-    <tableColumn id="4" xr3:uid="{972D0347-DAB3-4985-A738-E5D78740D498}" name="Midranges" dataDxfId="111"/>
-    <tableColumn id="5" xr3:uid="{48F5F884-1753-4988-9056-632B5EB6BBCB}" name="Threes" dataDxfId="110"/>
-    <tableColumn id="6" xr3:uid="{6953B627-EA05-418F-A758-FD59263EA60D}" name="Avg P" dataDxfId="109"/>
-    <tableColumn id="7" xr3:uid="{BE057C9C-5ECD-4AC2-A9C0-18C89CFB52BC}" name="Avg F" dataDxfId="108"/>
-    <tableColumn id="8" xr3:uid="{0FDEBEE7-CD5E-4A44-A0AE-74F044F1FF46}" name="Avg M" dataDxfId="107"/>
-    <tableColumn id="9" xr3:uid="{76975BB6-3677-41A8-BC24-7536B1D876D3}" name="Avg T" dataDxfId="106"/>
-    <tableColumn id="10" xr3:uid="{E5ADB69B-3BA2-4019-8C83-8B02221F187E}" name="Missed Games" dataDxfId="105"/>
+    <tableColumn id="1" xr3:uid="{0B0344E8-2677-4FAB-9B03-4745991FB5AE}" name="Scoring" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{58CA1107-8BB4-4A5D-BA00-31619C8D3973}" name="Points" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{8090861E-1FDF-44F4-9DB6-BB814E32C754}" name="Finishes" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{972D0347-DAB3-4985-A738-E5D78740D498}" name="Midranges" dataDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{48F5F884-1753-4988-9056-632B5EB6BBCB}" name="Threes" dataDxfId="101"/>
+    <tableColumn id="6" xr3:uid="{6953B627-EA05-418F-A758-FD59263EA60D}" name="Avg P" dataDxfId="100"/>
+    <tableColumn id="7" xr3:uid="{BE057C9C-5ECD-4AC2-A9C0-18C89CFB52BC}" name="Avg F" dataDxfId="99"/>
+    <tableColumn id="8" xr3:uid="{0FDEBEE7-CD5E-4A44-A0AE-74F044F1FF46}" name="Avg M" dataDxfId="98"/>
+    <tableColumn id="9" xr3:uid="{76975BB6-3677-41A8-BC24-7536B1D876D3}" name="Avg T" dataDxfId="97"/>
+    <tableColumn id="10" xr3:uid="{E5ADB69B-3BA2-4019-8C83-8B02221F187E}" name="Missed Games" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}" name="Table21124" displayName="Table21124" ref="AK48:AT64" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}" name="Table21124" displayName="Table21124" ref="AK48:AT64" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="AK48:AT64" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3D35891E-3654-497A-8DB2-BF0BD916CA29}" name="Scoring" dataDxfId="102"/>
-    <tableColumn id="2" xr3:uid="{54B5B6AF-372A-4E07-B4D6-DFC66F7E20C5}" name="Points" dataDxfId="101"/>
-    <tableColumn id="3" xr3:uid="{6CA15B41-F560-4B43-8836-163F5BB5689C}" name="Finishes" dataDxfId="100"/>
-    <tableColumn id="4" xr3:uid="{8FF05262-0051-44F7-966E-8D405318BA69}" name="Midranges" dataDxfId="99"/>
-    <tableColumn id="5" xr3:uid="{F0D843FC-7A93-4C9A-BCCF-E789F7811B3B}" name="Threes" dataDxfId="98"/>
-    <tableColumn id="6" xr3:uid="{F0498F8A-F646-4C1F-A3CF-E89E73750FC1}" name="Avg P" dataDxfId="97"/>
-    <tableColumn id="7" xr3:uid="{A387BC88-F45C-4386-8503-EFEA33BDAC38}" name="Avg F" dataDxfId="96"/>
-    <tableColumn id="8" xr3:uid="{BEA82919-0828-4351-A01A-D72E13E63FAB}" name="Avg M" dataDxfId="95"/>
-    <tableColumn id="9" xr3:uid="{ABEBCE01-BCA4-4342-966C-27301889B607}" name="Avg T" dataDxfId="94"/>
-    <tableColumn id="10" xr3:uid="{65E7A8E7-4C51-42E4-AB0F-B7FF6099D70A}" name="Missed Games" dataDxfId="93"/>
+    <tableColumn id="1" xr3:uid="{3D35891E-3654-497A-8DB2-BF0BD916CA29}" name="Scoring" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{54B5B6AF-372A-4E07-B4D6-DFC66F7E20C5}" name="Points" dataDxfId="92"/>
+    <tableColumn id="3" xr3:uid="{6CA15B41-F560-4B43-8836-163F5BB5689C}" name="Finishes" dataDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{8FF05262-0051-44F7-966E-8D405318BA69}" name="Midranges" dataDxfId="90"/>
+    <tableColumn id="5" xr3:uid="{F0D843FC-7A93-4C9A-BCCF-E789F7811B3B}" name="Threes" dataDxfId="89"/>
+    <tableColumn id="6" xr3:uid="{F0498F8A-F646-4C1F-A3CF-E89E73750FC1}" name="Avg P" dataDxfId="88"/>
+    <tableColumn id="7" xr3:uid="{A387BC88-F45C-4386-8503-EFEA33BDAC38}" name="Avg F" dataDxfId="87"/>
+    <tableColumn id="8" xr3:uid="{BEA82919-0828-4351-A01A-D72E13E63FAB}" name="Avg M" dataDxfId="86"/>
+    <tableColumn id="9" xr3:uid="{ABEBCE01-BCA4-4342-966C-27301889B607}" name="Avg T" dataDxfId="85"/>
+    <tableColumn id="10" xr3:uid="{65E7A8E7-4C51-42E4-AB0F-B7FF6099D70A}" name="Missed Games" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}" name="Table21125" displayName="Table21125" ref="AK68:AT84" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}" name="Table21125" displayName="Table21125" ref="AK68:AT84" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="AK68:AT84" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D144EF14-69FD-4E71-90C7-56F49F45FAE5}" name="Scoring" dataDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{34D1D392-F3E0-4C36-9EED-849D5B1149E6}" name="Points" dataDxfId="89"/>
-    <tableColumn id="3" xr3:uid="{E91D98A2-80BD-4E5C-9036-2FCC8185369F}" name="Finishes" dataDxfId="88"/>
-    <tableColumn id="4" xr3:uid="{D2E5029E-4811-4E9B-9A2D-5F5F8F322B0D}" name="Midranges" dataDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{B3E76CEE-33DA-4B18-8DCE-8EBC7EE592D7}" name="Threes" dataDxfId="86"/>
-    <tableColumn id="6" xr3:uid="{6ABE1879-8018-4498-A9A1-22CF831F0364}" name="Avg P" dataDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{8DA4DD79-8A2A-49E4-996F-C1ACCED3C565}" name="Avg F" dataDxfId="84"/>
-    <tableColumn id="8" xr3:uid="{256EA4BC-BA61-49E2-969F-0786AA9AA6EA}" name="Avg M" dataDxfId="83"/>
-    <tableColumn id="9" xr3:uid="{0E5566B2-99EC-4B03-A074-8705C4EDA484}" name="Avg T" dataDxfId="82"/>
-    <tableColumn id="10" xr3:uid="{3E2357F0-493E-401D-AC75-9AAB260F684E}" name="Missed Games" dataDxfId="81"/>
+    <tableColumn id="1" xr3:uid="{D144EF14-69FD-4E71-90C7-56F49F45FAE5}" name="Scoring" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{34D1D392-F3E0-4C36-9EED-849D5B1149E6}" name="Points" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{E91D98A2-80BD-4E5C-9036-2FCC8185369F}" name="Finishes" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{D2E5029E-4811-4E9B-9A2D-5F5F8F322B0D}" name="Midranges" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{B3E76CEE-33DA-4B18-8DCE-8EBC7EE592D7}" name="Threes" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{6ABE1879-8018-4498-A9A1-22CF831F0364}" name="Avg P" dataDxfId="76"/>
+    <tableColumn id="7" xr3:uid="{8DA4DD79-8A2A-49E4-996F-C1ACCED3C565}" name="Avg F" dataDxfId="75"/>
+    <tableColumn id="8" xr3:uid="{256EA4BC-BA61-49E2-969F-0786AA9AA6EA}" name="Avg M" dataDxfId="74"/>
+    <tableColumn id="9" xr3:uid="{0E5566B2-99EC-4B03-A074-8705C4EDA484}" name="Avg T" dataDxfId="73"/>
+    <tableColumn id="10" xr3:uid="{3E2357F0-493E-401D-AC75-9AAB260F684E}" name="Missed Games" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}" name="Table21126" displayName="Table21126" ref="Z68:AI84" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}" name="Table21126" displayName="Table21126" ref="Z68:AI84" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="Z68:AI84" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7723929D-65B3-40BB-8FDD-C4533243706C}" name="Scoring" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{EC28DE3D-619E-4930-A3AF-7AD1BE1D4843}" name="Points" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{9537269D-8C1D-42B5-866F-D03CE61A8512}" name="Finishes" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{AC590DDB-BE19-4A14-8B98-1E5E2430AA45}" name="Midranges" dataDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{C96D3ACD-F34D-477E-86DE-4650EE56BC94}" name="Threes" dataDxfId="74"/>
-    <tableColumn id="6" xr3:uid="{A43DE5E9-BB01-49FA-A204-66EE7BAA2E9F}" name="Avg P" dataDxfId="73"/>
-    <tableColumn id="7" xr3:uid="{C75A19FF-6041-45C2-BACB-E347F06B6329}" name="Avg F" dataDxfId="72"/>
-    <tableColumn id="8" xr3:uid="{00D3FCFC-C9C5-4C96-BE0E-8E1FDC95D07C}" name="Avg M" dataDxfId="71"/>
-    <tableColumn id="9" xr3:uid="{0448FF4E-9D2D-47F6-89B7-F17D36B05E8A}" name="Avg T" dataDxfId="70"/>
-    <tableColumn id="10" xr3:uid="{D5BDFA2D-095B-44F8-8567-15B3B1520E5A}" name="Missed Games" dataDxfId="69"/>
+    <tableColumn id="1" xr3:uid="{7723929D-65B3-40BB-8FDD-C4533243706C}" name="Scoring" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{EC28DE3D-619E-4930-A3AF-7AD1BE1D4843}" name="Points" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{9537269D-8C1D-42B5-866F-D03CE61A8512}" name="Finishes" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{AC590DDB-BE19-4A14-8B98-1E5E2430AA45}" name="Midranges" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{C96D3ACD-F34D-477E-86DE-4650EE56BC94}" name="Threes" dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{A43DE5E9-BB01-49FA-A204-66EE7BAA2E9F}" name="Avg P" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{C75A19FF-6041-45C2-BACB-E347F06B6329}" name="Avg F" dataDxfId="63"/>
+    <tableColumn id="8" xr3:uid="{00D3FCFC-C9C5-4C96-BE0E-8E1FDC95D07C}" name="Avg M" dataDxfId="62"/>
+    <tableColumn id="9" xr3:uid="{0448FF4E-9D2D-47F6-89B7-F17D36B05E8A}" name="Avg T" dataDxfId="61"/>
+    <tableColumn id="10" xr3:uid="{D5BDFA2D-095B-44F8-8567-15B3B1520E5A}" name="Missed Games" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}" name="Table21127" displayName="Table21127" ref="Z88:AI104" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}" name="Table21127" displayName="Table21127" ref="Z88:AI104" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="Z88:AI104" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{9DBD966D-620C-4B97-A502-29D00ABE150B}" name="Scoring" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{F8F81F0E-16B3-4472-9D90-A92149C763E4}" name="Points" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{09859CE1-290D-4977-B02C-46F4E5A6FDC2}" name="Finishes" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{7D751A0E-2895-46DF-B5E2-5A8AA5531CD2}" name="Midranges" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{591CDC71-B0EA-413B-B6C1-77884E7E50D4}" name="Threes" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{52ED768C-5557-42DC-9824-7A4D9B547153}" name="Avg P" dataDxfId="61"/>
-    <tableColumn id="7" xr3:uid="{FC79BE87-72E2-4F5E-83D6-CDCE645EB943}" name="Avg F" dataDxfId="60"/>
-    <tableColumn id="8" xr3:uid="{BA012C22-0D65-4C11-98A7-4F958703D04B}" name="Avg M" dataDxfId="59"/>
-    <tableColumn id="9" xr3:uid="{63344F2B-5D94-417D-85E2-C2BFBACE3E7E}" name="Avg T" dataDxfId="58"/>
-    <tableColumn id="10" xr3:uid="{1AD5A604-8909-45B3-8E43-11D407451CEA}" name="Missed Games" dataDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{9DBD966D-620C-4B97-A502-29D00ABE150B}" name="Scoring" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{F8F81F0E-16B3-4472-9D90-A92149C763E4}" name="Points" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{09859CE1-290D-4977-B02C-46F4E5A6FDC2}" name="Finishes" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{7D751A0E-2895-46DF-B5E2-5A8AA5531CD2}" name="Midranges" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{591CDC71-B0EA-413B-B6C1-77884E7E50D4}" name="Threes" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{52ED768C-5557-42DC-9824-7A4D9B547153}" name="Avg P" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{FC79BE87-72E2-4F5E-83D6-CDCE645EB943}" name="Avg F" dataDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{BA012C22-0D65-4C11-98A7-4F958703D04B}" name="Avg M" dataDxfId="50"/>
+    <tableColumn id="9" xr3:uid="{63344F2B-5D94-417D-85E2-C2BFBACE3E7E}" name="Avg T" dataDxfId="49"/>
+    <tableColumn id="10" xr3:uid="{1AD5A604-8909-45B3-8E43-11D407451CEA}" name="Missed Games" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}" name="Table21128" displayName="Table21128" ref="AK88:AT104" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}" name="Table21128" displayName="Table21128" ref="AK88:AT104" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="AK88:AT104" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{E62FBAA0-D6F6-4997-96C9-B6B13FAA9B6E}" name="Scoring" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{0A655F6F-9A21-4167-85B6-B9F7DC2070CA}" name="Points" dataDxfId="53">
+    <tableColumn id="1" xr3:uid="{E62FBAA0-D6F6-4997-96C9-B6B13FAA9B6E}" name="Scoring" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{0A655F6F-9A21-4167-85B6-B9F7DC2070CA}" name="Points" dataDxfId="44">
       <calculatedColumnFormula>Template!AC51</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{460771D3-3BD8-4DA3-AF1B-1A0F98EF1499}" name="Finishes" dataDxfId="52">
+    <tableColumn id="3" xr3:uid="{460771D3-3BD8-4DA3-AF1B-1A0F98EF1499}" name="Finishes" dataDxfId="43">
       <calculatedColumnFormula>Template!AD51</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3C08B2D7-823D-49C3-A627-A5848E664B2F}" name="Midranges" dataDxfId="51">
+    <tableColumn id="4" xr3:uid="{3C08B2D7-823D-49C3-A627-A5848E664B2F}" name="Midranges" dataDxfId="42">
       <calculatedColumnFormula>Template!AE51</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E88F45FB-4C46-4674-86D5-74808E7E5368}" name="Threes" dataDxfId="50">
+    <tableColumn id="5" xr3:uid="{E88F45FB-4C46-4674-86D5-74808E7E5368}" name="Threes" dataDxfId="41">
       <calculatedColumnFormula>Template!AF51</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0C0E8016-1E6E-4F25-9675-4EE061FFD0F7}" name="Avg P" dataDxfId="49">
+    <tableColumn id="6" xr3:uid="{0C0E8016-1E6E-4F25-9675-4EE061FFD0F7}" name="Avg P" dataDxfId="40">
       <calculatedColumnFormula>AL89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F7AC350B-AE4B-4912-B21D-16D99E2AE8BF}" name="Avg F" dataDxfId="48">
+    <tableColumn id="7" xr3:uid="{F7AC350B-AE4B-4912-B21D-16D99E2AE8BF}" name="Avg F" dataDxfId="39">
       <calculatedColumnFormula>AM89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F451E5CA-B9C4-4EFA-A647-CEDB2FB39550}" name="Avg M" dataDxfId="47">
+    <tableColumn id="8" xr3:uid="{F451E5CA-B9C4-4EFA-A647-CEDB2FB39550}" name="Avg M" dataDxfId="38">
       <calculatedColumnFormula>AN89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ED1D92B5-05F1-40CE-A89F-E6627FAB4A59}" name="Avg T" dataDxfId="46">
+    <tableColumn id="9" xr3:uid="{ED1D92B5-05F1-40CE-A89F-E6627FAB4A59}" name="Avg T" dataDxfId="37">
       <calculatedColumnFormula>AO89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{48A4808A-3DE6-4644-83F5-C2AEDDFC3E5E}" name="Missed Games" dataDxfId="45">
+    <tableColumn id="10" xr3:uid="{48A4808A-3DE6-4644-83F5-C2AEDDFC3E5E}" name="Missed Games" dataDxfId="36">
       <calculatedColumnFormula>COUNTIF(Template!AG63, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7983,7 +7980,7 @@
   <dimension ref="B1:Y1000"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:B34"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -8043,7 +8040,7 @@
         <v>13</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>14</v>
@@ -8084,7 +8081,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="149" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D3" s="7">
         <f>'Stats Global'!AB8</f>
@@ -8123,7 +8120,7 @@
         <v>0</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V3" s="1" t="str">
         <f>IF(C3="Gentle, Men", $Y$3, IF(C3="Choc-Tops", $Y$4, IF(C3="Traffic Controllers", $Y$5, $Y$6)))</f>
@@ -8134,7 +8131,7 @@
         <v>../Images/Players/Jasper.png</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -8142,7 +8139,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="147" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D4" s="7">
         <f>'Stats Global'!AB9</f>
@@ -8181,7 +8178,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V4" s="11" t="str">
         <f t="shared" ref="V4:V18" si="1">IF(C4="Gentle, Men", $Y$3, IF(C4="Choc-Tops", $Y$4, IF(C4="Traffic Controllers", $Y$5, $Y$6)))</f>
@@ -8192,7 +8189,7 @@
         <v>../Images/Players/Conor.png</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -8200,7 +8197,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="149" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D5" s="7">
         <f>'Stats Global'!AB10</f>
@@ -8245,13 +8242,13 @@
         <v>29</v>
       </c>
       <c r="O5" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="P5" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="P5" s="16" t="s">
-        <v>135</v>
-      </c>
       <c r="U5" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V5" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8262,7 +8259,7 @@
         <v>../Images/Players/Alex.png</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -8270,7 +8267,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="149" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D6" s="7">
         <f>'Stats Global'!AB11</f>
@@ -8318,19 +8315,19 @@
         <v>29</v>
       </c>
       <c r="P6" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q6" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="Q6" s="16" t="s">
-        <v>135</v>
-      </c>
       <c r="R6" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S6" s="16" t="s">
         <v>35</v>
       </c>
       <c r="U6" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V6" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8341,7 +8338,7 @@
         <v>../Images/Players/Rudy.png</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -8349,7 +8346,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="149" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D7" s="7">
         <f>'Stats Global'!AB12</f>
@@ -8394,13 +8391,13 @@
         <v>34</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U7" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V7" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8416,7 +8413,7 @@
         <v>37</v>
       </c>
       <c r="C8" s="151" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D8" s="7">
         <f>'Stats Global'!AB13</f>
@@ -8461,10 +8458,10 @@
         <v>31</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="V8" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8480,10 +8477,10 @@
     </row>
     <row r="9" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="151" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D9" s="7">
         <f>'Stats Global'!AB14</f>
@@ -8522,13 +8519,13 @@
         <v>0</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="V9" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8544,7 +8541,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="147" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D10" s="7">
         <f>'Stats Global'!AB15</f>
@@ -8583,28 +8580,28 @@
         <v>0</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R10" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S10" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U10" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V10" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8623,7 +8620,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="151" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D11" s="7">
         <f>'Stats Global'!AB16</f>
@@ -8671,19 +8668,19 @@
         <v>28</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R11" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="S11" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="S11" s="16" t="s">
-        <v>140</v>
-      </c>
       <c r="U11" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="V11" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8702,7 +8699,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="149" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D12" s="7">
         <f>'Stats Global'!AB17</f>
@@ -8750,13 +8747,13 @@
         <v>28</v>
       </c>
       <c r="P12" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q12" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="Q12" s="16" t="s">
-        <v>135</v>
-      </c>
       <c r="U12" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V12" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8775,7 +8772,7 @@
         <v>46</v>
       </c>
       <c r="C13" s="147" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D13" s="7">
         <f>'Stats Global'!AB18</f>
@@ -8821,7 +8818,7 @@
       </c>
       <c r="O13" s="16"/>
       <c r="U13" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V13" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8837,7 +8834,7 @@
     </row>
     <row r="14" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" s="120"/>
       <c r="D14" s="7">
@@ -8877,7 +8874,7 @@
         <v>2</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="16"/>
@@ -8887,7 +8884,7 @@
       <c r="S14" s="16"/>
       <c r="T14" s="16"/>
       <c r="U14" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="V14" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8906,7 +8903,7 @@
         <v>49</v>
       </c>
       <c r="C15" s="151" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D15" s="7">
         <f>'Stats Global'!AB20</f>
@@ -8951,19 +8948,19 @@
         <v>29</v>
       </c>
       <c r="O15" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="P15" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="P15" s="16" t="s">
-        <v>132</v>
-      </c>
       <c r="Q15" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R15" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V15" s="11" t="str">
         <f t="shared" si="1"/>
@@ -8982,7 +8979,7 @@
         <v>52</v>
       </c>
       <c r="C16" s="150" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D16" s="7">
         <f>'Stats Global'!AB21</f>
@@ -9024,22 +9021,22 @@
         <v>53</v>
       </c>
       <c r="N16" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="O16" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="O16" s="16" t="s">
-        <v>129</v>
-      </c>
       <c r="P16" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R16" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U16" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="V16" s="11" t="str">
         <f t="shared" si="1"/>
@@ -9050,7 +9047,7 @@
         <v>../Images/Players/Chris.png</v>
       </c>
       <c r="Y16" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -9058,7 +9055,7 @@
         <v>55</v>
       </c>
       <c r="C17" s="149" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D17" s="7">
         <f>'Stats Global'!AB22</f>
@@ -9097,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>35</v>
@@ -9112,16 +9109,16 @@
         <v>56</v>
       </c>
       <c r="R17" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="S17" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="S17" s="16" t="s">
-        <v>135</v>
-      </c>
       <c r="T17" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U17" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V17" s="11" t="str">
         <f t="shared" si="1"/>
@@ -9137,26 +9134,26 @@
     </row>
     <row r="18" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>222</v>
       </c>
       <c r="C18" s="149" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D18" s="7">
         <f>'Stats Global'!AB23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="11">
         <f>'Stats Global'!AA23</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" s="7">
         <f>'Stats Global'!AD23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="11">
         <f>'Stats Global'!AC23</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="7">
         <f>'Stats Global'!AF23</f>
@@ -9179,16 +9176,16 @@
         <v>0</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U18" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V18" s="11" t="str">
         <f t="shared" si="1"/>
@@ -9199,7 +9196,7 @@
         <v>../Images/Players/Willie.png</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -9220,7 +9217,7 @@
       <c r="V19" s="11"/>
       <c r="W19" s="1"/>
       <c r="Y19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -9232,22 +9229,22 @@
       <c r="J20" s="17"/>
       <c r="K20" s="15"/>
       <c r="Y20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Y21" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B22" s="164" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" s="164"/>
       <c r="D22" s="91"/>
       <c r="Y22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
@@ -9255,7 +9252,7 @@
       <c r="C23" s="164"/>
       <c r="D23" s="91"/>
       <c r="Y23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
@@ -9265,13 +9262,13 @@
       <c r="U24" s="16"/>
       <c r="X24" s="16"/>
       <c r="Y24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B25" s="17" t="str">
         <f>B49&amp;":["&amp;B50&amp;B51&amp;B52&amp;B53&amp;B54&amp;B55&amp;B56&amp;B57&amp;B58&amp;B59&amp;B60&amp;B61&amp;B62&amp;B63&amp;B64&amp;B65&amp;"],"</f>
-        <v>"Name":["Jasper Collier","Conor Farrington","Alexander Galt","Rudy Hoschke","Michael Iffland","Lukas Johnston","Sam James","Clarrie Jones","William Kim","Samuel McConaghy","Ryan Pattemore","William Scott","Nicholas Szogi","Christopher Tomkinson","Angus Walker","Willie Weekes"],</v>
+        <v>"Name":["Jasper Collier","Conor Farrington","Alexander Galt","Rudy Hoschke","Michael Iffland","Lukas Johnston","Sam James","Clarrie Jones","William Kim","Samuel McConaghy","Ryan Pattemore","William Scott","Nicholas Szogi","Christopher Tomkinson","Angus Walker","Will Weekes"],</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -9294,7 +9291,7 @@
       <c r="W25" s="16"/>
       <c r="X25" s="16"/>
       <c r="Y25" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
@@ -9327,7 +9324,7 @@
     <row r="27" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="17" t="str">
         <f>D49&amp;":["&amp;D50&amp;D51&amp;D52&amp;D53&amp;D54&amp;D55&amp;D56&amp;D57&amp;D58&amp;D59&amp;D60&amp;D61&amp;D62&amp;D63&amp;D64&amp;D65&amp;"],"</f>
-        <v>"PPG":[0,3,0,6,2,0.5,1.5,2,1,2,0.5,0,0.5,2,0,0],</v>
+        <v>"PPG":[0,3,0,6,2,0.5,1.5,2,1,2,0.5,0,0.5,2,0,1],</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -9353,7 +9350,7 @@
     <row r="28" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="16" t="str">
         <f>E49&amp;":["&amp;E50&amp;E51&amp;E52&amp;E53&amp;E54&amp;E55&amp;E56&amp;E57&amp;E58&amp;E59&amp;E60&amp;E61&amp;E62&amp;E63&amp;E64&amp;E65&amp;"],"</f>
-        <v>"TP":[0,6,0,12,4,1,3,4,2,4,1,0,1,4,0,0],</v>
+        <v>"TP":[0,6,0,12,4,1,3,4,2,4,1,0,1,4,0,2],</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -9379,7 +9376,7 @@
     <row r="29" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="16" t="str">
         <f>F49&amp;":["&amp;F50&amp;F51&amp;F52&amp;F53&amp;F54&amp;F55&amp;F56&amp;F57&amp;F58&amp;F59&amp;F60&amp;F61&amp;F62&amp;F63&amp;F64&amp;F65&amp;"],"</f>
-        <v>"FPG":[0,1,0,5,0.5,0,1,0.5,0,0,0,0,0.5,2,0,0],</v>
+        <v>"FPG":[0,1,0,5,0.5,0,1,0.5,0,0,0,0,0.5,2,0,1],</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -9405,7 +9402,7 @@
     <row r="30" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="16" t="str">
         <f>G49&amp;":["&amp;G50&amp;G51&amp;G52&amp;G53&amp;G54&amp;G55&amp;G56&amp;G57&amp;G58&amp;G59&amp;G60&amp;G61&amp;G62&amp;G63&amp;G64&amp;G65&amp;"],"</f>
-        <v>"TF":[0,2,0,10,1,0,2,1,0,0,0,0,1,4,0,0],</v>
+        <v>"TF":[0,2,0,10,1,0,2,1,0,0,0,0,1,4,0,2],</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -11330,7 +11327,7 @@
     <row r="65" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="17" t="str">
         <f>CHAR(34)&amp;B18&amp;CHAR(34)</f>
-        <v>"Willie Weekes"</v>
+        <v>"Will Weekes"</v>
       </c>
       <c r="C65" s="17" t="str">
         <f>CHAR(34)&amp;C18&amp;CHAR(34)</f>
@@ -11338,19 +11335,19 @@
       </c>
       <c r="D65" s="17">
         <f>ROUND(D18,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" s="17">
         <f>E18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F65" s="17">
         <f>ROUND(F18,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="17">
         <f>G18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H65" s="17">
         <f>ROUND(H18,2)</f>
@@ -12393,7 +12390,7 @@
   <dimension ref="A1:BC1000"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -12426,64 +12423,64 @@
     <row r="1" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="99" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="99" t="s">
+      <c r="E4" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="99" t="s">
+      <c r="F4" s="99" t="s">
+        <v>209</v>
+      </c>
+      <c r="G4" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" s="99" t="s">
+        <v>215</v>
+      </c>
+      <c r="I4" s="99" t="s">
+        <v>212</v>
+      </c>
+      <c r="J4" s="99" t="s">
+        <v>213</v>
+      </c>
+      <c r="K4" s="99" t="s">
+        <v>216</v>
+      </c>
+      <c r="L4" s="99" t="s">
+        <v>217</v>
+      </c>
+      <c r="M4" s="99" t="s">
+        <v>218</v>
+      </c>
+      <c r="N4" s="99" t="s">
+        <v>219</v>
+      </c>
+      <c r="O4" s="99" t="s">
+        <v>210</v>
+      </c>
+      <c r="P4" s="99" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q4" s="99" t="s">
+        <v>220</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="99" t="s">
-        <v>210</v>
-      </c>
-      <c r="G4" s="99" t="s">
-        <v>212</v>
-      </c>
-      <c r="H4" s="99" t="s">
-        <v>216</v>
-      </c>
-      <c r="I4" s="99" t="s">
-        <v>213</v>
-      </c>
-      <c r="J4" s="99" t="s">
-        <v>214</v>
-      </c>
-      <c r="K4" s="99" t="s">
-        <v>217</v>
-      </c>
-      <c r="L4" s="99" t="s">
-        <v>218</v>
-      </c>
-      <c r="M4" s="99" t="s">
-        <v>219</v>
-      </c>
-      <c r="N4" s="99" t="s">
-        <v>220</v>
-      </c>
-      <c r="O4" s="99" t="s">
-        <v>211</v>
-      </c>
-      <c r="P4" s="99" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q4" s="99" t="s">
-        <v>221</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="Z4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AA4" s="111">
         <f>AA6/(20-AA5)</f>
@@ -12556,19 +12553,19 @@
         <v>1</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="Z5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AA5">
         <v>3</v>
@@ -12659,7 +12656,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Z6" s="67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA6" s="8">
         <f>AA47+AA67+AL27+AL47+AL67+AA87+AL87</f>
@@ -12668,7 +12665,7 @@
       <c r="AK6" s="29"/>
       <c r="AL6" s="29"/>
       <c r="AM6" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AO6" s="42"/>
       <c r="AR6" s="58"/>
@@ -12694,7 +12691,7 @@
       <c r="P7" s="103"/>
       <c r="Q7" s="103"/>
       <c r="S7" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T7" s="5" t="e">
         <f>T6/$S$6</f>
@@ -12709,62 +12706,62 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Z7" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="21" t="s">
         <v>76</v>
-      </c>
-      <c r="AA7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="21" t="s">
-        <v>77</v>
       </c>
       <c r="AC7" s="22" t="s">
         <v>1</v>
       </c>
       <c r="AD7" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE7" s="23" t="s">
         <v>2</v>
       </c>
       <c r="AF7" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG7" s="22" t="s">
         <v>3</v>
       </c>
       <c r="AH7" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI7" s="24" t="s">
         <v>5</v>
       </c>
       <c r="AJ7" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK7" s="59"/>
       <c r="AL7" s="59"/>
       <c r="AM7" s="59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AN7" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AO7" s="13"/>
       <c r="AP7" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AQ7" s="117"/>
       <c r="AR7" s="118" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS7" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="AS7" s="57" t="s">
-        <v>172</v>
-      </c>
       <c r="AT7" s="124" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU7" s="126" t="s">
         <v>176</v>
-      </c>
-      <c r="AU7" s="126" t="s">
-        <v>177</v>
       </c>
       <c r="AW7" s="2"/>
       <c r="AX7" s="123"/>
@@ -12842,11 +12839,11 @@
       </c>
       <c r="AM8" s="109">
         <f>AVERAGE(Table1[Average])</f>
-        <v>1.3125</v>
+        <v>1.375</v>
       </c>
       <c r="AN8" s="109">
         <f>MEDIAN(Table1[Average])</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AO8" s="36"/>
       <c r="AP8" s="18">
@@ -12948,11 +12945,11 @@
       </c>
       <c r="AM9" s="109">
         <f>AVERAGE(Table1[Finishes])</f>
-        <v>1.3125</v>
+        <v>1.4375</v>
       </c>
       <c r="AN9" s="109">
         <f>MEDIAN(Table1[Finishes])</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO9" s="114"/>
       <c r="AP9" s="18">
@@ -13051,7 +13048,7 @@
       </c>
       <c r="AK10" s="60"/>
       <c r="AL10" s="110" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AM10" s="109">
         <f>AVERAGE(Table1[Midranges])</f>
@@ -13939,7 +13936,7 @@
         <v>0</v>
       </c>
       <c r="AI19" s="135" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AJ19" s="140">
         <f t="shared" si="5"/>
@@ -14287,23 +14284,23 @@
       <c r="Q23" s="103"/>
       <c r="Z23" s="135" t="str">
         <f>SfW!B18</f>
-        <v>Willie Weekes</v>
+        <v>Will Weekes</v>
       </c>
       <c r="AA23" s="136">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB23" s="143">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23" s="138">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD23" s="144">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23" s="138">
         <f t="shared" si="3"/>
@@ -14339,23 +14336,23 @@
       </c>
       <c r="AQ23" s="27">
         <f>Table1[[#This Row],[Points]]/AP23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR23" s="113">
         <f>AP23-Table1[[#This Row],[Points]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS23" s="119">
         <f>Table1[[#This Row],[Points]]/(20-AA$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>0</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="AT23" s="125">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R21</f>
-        <v>-0.11764705882352941</v>
+        <v>0.88235294117647056</v>
       </c>
       <c r="AU23" s="27">
         <f>(Table1[[#This Row],[Average]]-'[1]Stats Global'!R21)/'[1]Stats Global'!R21</f>
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="AW23" s="2"/>
       <c r="AX23" s="16"/>
@@ -14475,14 +14472,14 @@
       <c r="P27" s="103"/>
       <c r="Q27" s="103"/>
       <c r="Z27" s="47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AA27" s="1">
         <v>0</v>
       </c>
       <c r="AI27" s="3"/>
       <c r="AK27" s="47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AL27" s="11">
         <v>2</v>
@@ -14515,7 +14512,7 @@
       <c r="Q28" s="103"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
@@ -14524,7 +14521,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA28" s="28" t="s">
         <v>0</v>
@@ -14539,23 +14536,23 @@
         <v>3</v>
       </c>
       <c r="AE28" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF28" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG28" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="AG28" s="29" t="s">
-        <v>107</v>
-      </c>
       <c r="AH28" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI28" s="68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ28" s="35"/>
       <c r="AK28" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AL28" s="28" t="s">
         <v>0</v>
@@ -14570,19 +14567,19 @@
         <v>3</v>
       </c>
       <c r="AP28" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AQ28" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR28" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="AR28" s="29" t="s">
-        <v>107</v>
-      </c>
       <c r="AS28" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AT28" s="68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -14604,7 +14601,7 @@
       <c r="Q29" s="112"/>
       <c r="R29" s="3"/>
       <c r="S29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X29" s="19"/>
       <c r="Y29" s="19"/>
@@ -14680,7 +14677,7 @@
       <c r="Q30" s="112"/>
       <c r="R30" s="3"/>
       <c r="S30" s="92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z30" s="47" t="s">
         <v>43</v>
@@ -14754,7 +14751,7 @@
       <c r="Q31" s="112"/>
       <c r="R31" s="3"/>
       <c r="S31" s="92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z31" s="47" t="s">
         <v>45</v>
@@ -14827,7 +14824,7 @@
       <c r="P32" s="112"/>
       <c r="Q32" s="112"/>
       <c r="S32" s="92" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X32" s="18"/>
       <c r="Z32" s="47" t="s">
@@ -14901,7 +14898,7 @@
       <c r="P33" s="112"/>
       <c r="Q33" s="112"/>
       <c r="S33" s="92" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z33" s="47" t="s">
         <v>51</v>
@@ -14974,7 +14971,7 @@
       <c r="P34" s="112"/>
       <c r="Q34" s="112"/>
       <c r="S34" s="92" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z34" s="47" t="s">
         <v>54</v>
@@ -15047,10 +15044,10 @@
       <c r="P35" s="112"/>
       <c r="Q35" s="112"/>
       <c r="S35" s="92" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z35" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA35" s="31"/>
       <c r="AB35" s="31"/>
@@ -15063,7 +15060,7 @@
       <c r="AI35" s="35"/>
       <c r="AJ35" s="35"/>
       <c r="AK35" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL35" s="31">
         <f>'2310'!R9+'2410'!R9</f>
@@ -15120,7 +15117,7 @@
       <c r="P36" s="112"/>
       <c r="Q36" s="112"/>
       <c r="S36" s="92" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z36" s="47" t="s">
         <v>57</v>
@@ -15193,7 +15190,7 @@
       <c r="P37" s="112"/>
       <c r="Q37" s="112"/>
       <c r="Z37" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA37" s="31"/>
       <c r="AB37" s="31"/>
@@ -15206,7 +15203,7 @@
       <c r="AI37" s="35"/>
       <c r="AJ37" s="35"/>
       <c r="AK37" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AL37" s="31">
         <f>'2310'!R11+'2410'!R11</f>
@@ -15263,7 +15260,7 @@
       <c r="P38" s="112"/>
       <c r="Q38" s="112"/>
       <c r="Z38" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA38" s="31"/>
       <c r="AB38" s="31"/>
@@ -15276,7 +15273,7 @@
       <c r="AI38" s="35"/>
       <c r="AJ38" s="35"/>
       <c r="AK38" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL38" s="31">
         <f>'2310'!R12+'2410'!R12</f>
@@ -15333,7 +15330,7 @@
       <c r="P39" s="112"/>
       <c r="Q39" s="112"/>
       <c r="Z39" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA39" s="31"/>
       <c r="AB39" s="31"/>
@@ -15346,7 +15343,7 @@
       <c r="AI39" s="35"/>
       <c r="AJ39" s="69"/>
       <c r="AK39" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL39" s="31">
         <f>'2310'!R13+'2410'!R13</f>
@@ -15403,22 +15400,22 @@
       <c r="P40" s="112"/>
       <c r="Q40" s="112"/>
       <c r="R40" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U40" t="s">
+        <v>166</v>
+      </c>
+      <c r="V40" t="s">
         <v>167</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>168</v>
       </c>
-      <c r="W40" t="s">
-        <v>169</v>
-      </c>
       <c r="X40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Z40" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA40" s="31"/>
       <c r="AB40" s="31"/>
@@ -15431,7 +15428,7 @@
       <c r="AI40" s="35"/>
       <c r="AJ40" s="35"/>
       <c r="AK40" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL40" s="31">
         <f>'2310'!R14+'2410'!R14</f>
@@ -15472,7 +15469,7 @@
     </row>
     <row r="41" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R41" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S41">
         <f>'Statistics CT'!J3</f>
@@ -15500,7 +15497,7 @@
         <v>1</v>
       </c>
       <c r="Z41" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AA41" s="31"/>
       <c r="AB41" s="31"/>
@@ -15513,7 +15510,7 @@
       <c r="AI41" s="35"/>
       <c r="AJ41" s="35"/>
       <c r="AK41" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL41" s="31">
         <f>'2310'!R15+'2410'!R15</f>
@@ -15554,7 +15551,7 @@
     </row>
     <row r="42" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R42" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S42">
         <f>'Statistics TC'!J3</f>
@@ -15582,7 +15579,7 @@
         <v>2</v>
       </c>
       <c r="Z42" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA42" s="31"/>
       <c r="AB42" s="31"/>
@@ -15595,7 +15592,7 @@
       <c r="AI42" s="35"/>
       <c r="AJ42" s="35"/>
       <c r="AK42" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AL42" s="31">
         <f>'2310'!R16+'2410'!R16</f>
@@ -15664,7 +15661,7 @@
         <v>3</v>
       </c>
       <c r="Z43" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA43" s="31"/>
       <c r="AB43" s="31"/>
@@ -15677,7 +15674,7 @@
       <c r="AI43" s="35"/>
       <c r="AJ43" s="35"/>
       <c r="AK43" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AL43" s="31">
         <f>'2310'!R17+'2410'!R17</f>
@@ -15718,7 +15715,7 @@
     </row>
     <row r="44" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Z44" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA44" s="31"/>
       <c r="AB44" s="31"/>
@@ -15731,15 +15728,15 @@
       <c r="AI44" s="35"/>
       <c r="AJ44" s="35"/>
       <c r="AK44" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AL44" s="31">
         <f>'2310'!R18+'2410'!R18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM44" s="31">
         <f>'2310'!S18+'2410'!S18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN44" s="31">
         <f>'2310'!T18+'2410'!T18</f>
@@ -15751,11 +15748,11 @@
       </c>
       <c r="AP44" s="31">
         <f>Table211[[#This Row],[Points]]/($AL$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ44" s="31">
         <f>Table211[[#This Row],[Finishes]]/($AL$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR44" s="31">
         <f>Table211[[#This Row],[Midranges]]/($AL$27-Table211[[#This Row],[Missed Games]])</f>
@@ -15772,7 +15769,7 @@
     </row>
     <row r="45" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W45">
         <f>(20-AA6-AA5)*2</f>
@@ -15802,7 +15799,7 @@
     </row>
     <row r="46" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W46">
         <f>(W45-(MAX(S41:S43)-MIN(S41:S43)))/2</f>
@@ -15833,7 +15830,7 @@
     <row r="47" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Y47" s="16"/>
       <c r="Z47" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AA47" s="11">
         <v>0</v>
@@ -15848,7 +15845,7 @@
       <c r="AI47" s="3"/>
       <c r="AJ47" s="35"/>
       <c r="AK47" s="47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL47" s="11">
         <v>0</v>
@@ -15864,19 +15861,19 @@
     </row>
     <row r="48" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="S48" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="U48" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="V48" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="W48" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="U48" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="V48" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="W48" s="13" t="s">
-        <v>125</v>
-      </c>
       <c r="Z48" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA48" s="28" t="s">
         <v>0</v>
@@ -15891,23 +15888,23 @@
         <v>3</v>
       </c>
       <c r="AE48" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF48" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG48" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="AG48" s="29" t="s">
-        <v>107</v>
-      </c>
       <c r="AH48" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI48" s="68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ48" s="35"/>
       <c r="AK48" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AL48" s="28" t="s">
         <v>0</v>
@@ -15922,19 +15919,19 @@
         <v>3</v>
       </c>
       <c r="AP48" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AQ48" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR48" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="AR48" s="29" t="s">
-        <v>107</v>
-      </c>
       <c r="AS48" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AT48" s="68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="19:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -15943,15 +15940,15 @@
       </c>
       <c r="U49" s="18">
         <f>SUM(Table1[Finishes])</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V49" s="17">
         <f>U49/AA6</f>
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="W49" s="27">
         <f>U49/SUM($U$49:$U$51)</f>
-        <v>0.55263157894736847</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="Z49" s="47" t="s">
         <v>40</v>
@@ -15994,7 +15991,7 @@
       </c>
       <c r="W50" s="27">
         <f>U50/SUM($U$49:$U$51)</f>
-        <v>0.34210526315789475</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="Z50" s="47" t="s">
         <v>43</v>
@@ -16036,7 +16033,7 @@
       </c>
       <c r="W51" s="27">
         <f>U51/SUM($U$49:$U$51)</f>
-        <v>0.10526315789473684</v>
+        <v>0.1</v>
       </c>
       <c r="Z51" s="47" t="s">
         <v>45</v>
@@ -16093,7 +16090,7 @@
     </row>
     <row r="53" spans="19:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T53" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z53" s="47" t="s">
         <v>51</v>
@@ -16123,10 +16120,10 @@
     </row>
     <row r="54" spans="19:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T54" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="U54" s="13" t="s">
         <v>182</v>
-      </c>
-      <c r="U54" s="13" t="s">
-        <v>183</v>
       </c>
       <c r="V54" s="13" t="s">
         <v>35</v>
@@ -16159,10 +16156,10 @@
     </row>
     <row r="55" spans="19:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="S55" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T55" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U55" s="38">
         <f>'Statistics CT'!L42</f>
@@ -16177,7 +16174,7 @@
         <v>0.22727272727272727</v>
       </c>
       <c r="Z55" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA55" s="31"/>
       <c r="AB55" s="31"/>
@@ -16190,7 +16187,7 @@
       <c r="AI55" s="31"/>
       <c r="AJ55" s="35"/>
       <c r="AK55" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL55" s="31"/>
       <c r="AM55" s="31"/>
@@ -16204,14 +16201,14 @@
     </row>
     <row r="56" spans="19:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="S56" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T56" s="38">
         <f>1-'Statistics CT'!L42</f>
         <v>0.72727272727272729</v>
       </c>
       <c r="U56" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V56" s="38">
         <f>'Statistics TC'!L42</f>
@@ -16249,7 +16246,7 @@
     </row>
     <row r="57" spans="19:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="S57" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T57" s="38">
         <f>1-V55</f>
@@ -16260,14 +16257,14 @@
         <v>0.5</v>
       </c>
       <c r="V57" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W57" s="38">
         <f>AVERAGE(T57:V57)</f>
         <v>0.65909090909090906</v>
       </c>
       <c r="Z57" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA57" s="31"/>
       <c r="AB57" s="31"/>
@@ -16280,7 +16277,7 @@
       <c r="AI57" s="31"/>
       <c r="AJ57" s="35"/>
       <c r="AK57" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AL57" s="31"/>
       <c r="AM57" s="31"/>
@@ -16296,7 +16293,7 @@
       <c r="V58" s="41"/>
       <c r="W58" s="104"/>
       <c r="Z58" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA58" s="31"/>
       <c r="AB58" s="31"/>
@@ -16309,7 +16306,7 @@
       <c r="AI58" s="31"/>
       <c r="AJ58" s="35"/>
       <c r="AK58" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL58" s="31"/>
       <c r="AM58" s="31"/>
@@ -16323,7 +16320,7 @@
     </row>
     <row r="59" spans="19:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Z59" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA59" s="31"/>
       <c r="AB59" s="31"/>
@@ -16336,7 +16333,7 @@
       <c r="AI59" s="31"/>
       <c r="AJ59" s="35"/>
       <c r="AK59" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL59" s="31"/>
       <c r="AM59" s="31"/>
@@ -16350,7 +16347,7 @@
     </row>
     <row r="60" spans="19:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Z60" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA60" s="31"/>
       <c r="AB60" s="31"/>
@@ -16363,7 +16360,7 @@
       <c r="AI60" s="31"/>
       <c r="AJ60" s="35"/>
       <c r="AK60" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL60" s="31"/>
       <c r="AM60" s="31"/>
@@ -16377,7 +16374,7 @@
     </row>
     <row r="61" spans="19:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Z61" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AA61" s="31"/>
       <c r="AB61" s="31"/>
@@ -16390,7 +16387,7 @@
       <c r="AI61" s="31"/>
       <c r="AJ61" s="35"/>
       <c r="AK61" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL61" s="31"/>
       <c r="AM61" s="31"/>
@@ -16404,7 +16401,7 @@
     </row>
     <row r="62" spans="19:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Z62" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA62" s="31"/>
       <c r="AB62" s="31"/>
@@ -16417,7 +16414,7 @@
       <c r="AI62" s="31"/>
       <c r="AJ62" s="35"/>
       <c r="AK62" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AL62" s="31"/>
       <c r="AM62" s="31"/>
@@ -16431,7 +16428,7 @@
     </row>
     <row r="63" spans="19:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Z63" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA63" s="31"/>
       <c r="AB63" s="31"/>
@@ -16444,7 +16441,7 @@
       <c r="AI63" s="31"/>
       <c r="AJ63" s="35"/>
       <c r="AK63" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AL63" s="31"/>
       <c r="AM63" s="31"/>
@@ -16458,7 +16455,7 @@
     </row>
     <row r="64" spans="19:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Z64" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA64" s="31"/>
       <c r="AB64" s="31"/>
@@ -16471,7 +16468,7 @@
       <c r="AI64" s="31"/>
       <c r="AJ64" s="35"/>
       <c r="AK64" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AL64" s="31"/>
       <c r="AM64" s="31"/>
@@ -16531,7 +16528,7 @@
     </row>
     <row r="67" spans="18:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Z67" s="47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA67" s="11">
         <v>0</v>
@@ -16546,7 +16543,7 @@
       <c r="AI67" s="3"/>
       <c r="AJ67" s="35"/>
       <c r="AK67" s="47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL67" s="11">
         <v>0</v>
@@ -16562,7 +16559,7 @@
     </row>
     <row r="68" spans="18:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Z68" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA68" s="28" t="s">
         <v>0</v>
@@ -16577,23 +16574,23 @@
         <v>3</v>
       </c>
       <c r="AE68" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF68" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG68" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="AG68" s="29" t="s">
-        <v>107</v>
-      </c>
       <c r="AH68" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI68" s="68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ68" s="35"/>
       <c r="AK68" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AL68" s="28" t="s">
         <v>0</v>
@@ -16608,19 +16605,19 @@
         <v>3</v>
       </c>
       <c r="AP68" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AQ68" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR68" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="AR68" s="29" t="s">
-        <v>107</v>
-      </c>
       <c r="AS68" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AT68" s="68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="18:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -16791,7 +16788,7 @@
     </row>
     <row r="75" spans="18:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Z75" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA75" s="31"/>
       <c r="AB75" s="31"/>
@@ -16804,7 +16801,7 @@
       <c r="AI75" s="31"/>
       <c r="AJ75" s="35"/>
       <c r="AK75" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL75" s="31"/>
       <c r="AM75" s="31"/>
@@ -16818,7 +16815,7 @@
     </row>
     <row r="76" spans="18:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T76" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Z76" s="47" t="s">
         <v>57</v>
@@ -16848,19 +16845,19 @@
     </row>
     <row r="77" spans="18:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="S77" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T77" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U77" t="s">
         <v>35</v>
       </c>
       <c r="V77" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z77" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA77" s="31"/>
       <c r="AB77" s="31"/>
@@ -16873,7 +16870,7 @@
       <c r="AI77" s="31"/>
       <c r="AJ77" s="35"/>
       <c r="AK77" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AL77" s="31"/>
       <c r="AM77" s="31"/>
@@ -16906,7 +16903,7 @@
         <v>0</v>
       </c>
       <c r="Z78" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA78" s="31"/>
       <c r="AB78" s="31"/>
@@ -16919,7 +16916,7 @@
       <c r="AI78" s="31"/>
       <c r="AJ78" s="35"/>
       <c r="AK78" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL78" s="31"/>
       <c r="AM78" s="31"/>
@@ -16952,7 +16949,7 @@
         <v>0</v>
       </c>
       <c r="Z79" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA79" s="31"/>
       <c r="AB79" s="31"/>
@@ -16965,7 +16962,7 @@
       <c r="AI79" s="31"/>
       <c r="AJ79" s="35"/>
       <c r="AK79" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL79" s="31"/>
       <c r="AM79" s="31"/>
@@ -16998,7 +16995,7 @@
         <v>0</v>
       </c>
       <c r="Z80" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA80" s="31"/>
       <c r="AB80" s="31"/>
@@ -17011,7 +17008,7 @@
       <c r="AI80" s="31"/>
       <c r="AJ80" s="35"/>
       <c r="AK80" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL80" s="31"/>
       <c r="AM80" s="31"/>
@@ -17044,7 +17041,7 @@
         <v>0</v>
       </c>
       <c r="Z81" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AA81" s="31"/>
       <c r="AB81" s="31"/>
@@ -17057,7 +17054,7 @@
       <c r="AI81" s="31"/>
       <c r="AJ81" s="35"/>
       <c r="AK81" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL81" s="31"/>
       <c r="AM81" s="31"/>
@@ -17090,7 +17087,7 @@
         <v>0</v>
       </c>
       <c r="Z82" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA82" s="31"/>
       <c r="AB82" s="31"/>
@@ -17103,7 +17100,7 @@
       <c r="AI82" s="31"/>
       <c r="AJ82" s="35"/>
       <c r="AK82" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AL82" s="31"/>
       <c r="AM82" s="31"/>
@@ -17136,7 +17133,7 @@
         <v>0</v>
       </c>
       <c r="Z83" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA83" s="31"/>
       <c r="AB83" s="31"/>
@@ -17149,7 +17146,7 @@
       <c r="AI83" s="31"/>
       <c r="AJ83" s="35"/>
       <c r="AK83" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AL83" s="31"/>
       <c r="AM83" s="31"/>
@@ -17182,7 +17179,7 @@
         <v>0</v>
       </c>
       <c r="Z84" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA84" s="31"/>
       <c r="AB84" s="31"/>
@@ -17195,7 +17192,7 @@
       <c r="AI84" s="31"/>
       <c r="AJ84" s="35"/>
       <c r="AK84" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AL84" s="31"/>
       <c r="AM84" s="31"/>
@@ -17312,7 +17309,7 @@
         <v>0</v>
       </c>
       <c r="Z87" s="47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AA87" s="11">
         <v>0</v>
@@ -17327,7 +17324,7 @@
       <c r="AI87" s="3"/>
       <c r="AJ87" s="35"/>
       <c r="AK87" s="47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AL87" s="11">
         <v>0</v>
@@ -17362,7 +17359,7 @@
         <v>0</v>
       </c>
       <c r="Z88" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA88" s="28" t="s">
         <v>0</v>
@@ -17377,23 +17374,23 @@
         <v>3</v>
       </c>
       <c r="AE88" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF88" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG88" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="AG88" s="29" t="s">
-        <v>107</v>
-      </c>
       <c r="AH88" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI88" s="68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ88" s="35"/>
       <c r="AK88" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AL88" s="28" t="s">
         <v>0</v>
@@ -17408,19 +17405,19 @@
         <v>3</v>
       </c>
       <c r="AP88" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AQ88" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR88" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="AR88" s="29" t="s">
-        <v>107</v>
-      </c>
       <c r="AS88" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AT88" s="68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="18:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -17724,7 +17721,7 @@
       </c>
       <c r="W95" s="16"/>
       <c r="Z95" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA95" s="31"/>
       <c r="AB95" s="31"/>
@@ -17737,7 +17734,7 @@
       <c r="AI95" s="31"/>
       <c r="AJ95" s="35"/>
       <c r="AK95" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL95" s="31"/>
       <c r="AM95" s="31"/>
@@ -17804,7 +17801,7 @@
       <c r="V97" s="16"/>
       <c r="W97" s="16"/>
       <c r="Z97" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA97" s="31"/>
       <c r="AB97" s="31"/>
@@ -17817,7 +17814,7 @@
       <c r="AI97" s="31"/>
       <c r="AJ97" s="35"/>
       <c r="AK97" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AL97" s="31"/>
       <c r="AM97" s="31"/>
@@ -17832,7 +17829,7 @@
     <row r="98" spans="7:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="S98" s="46"/>
       <c r="Z98" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA98" s="31"/>
       <c r="AB98" s="31"/>
@@ -17845,7 +17842,7 @@
       <c r="AI98" s="31"/>
       <c r="AJ98" s="35"/>
       <c r="AK98" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL98" s="31"/>
       <c r="AM98" s="31"/>
@@ -17859,7 +17856,7 @@
     </row>
     <row r="99" spans="7:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Z99" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA99" s="31"/>
       <c r="AB99" s="31"/>
@@ -17872,7 +17869,7 @@
       <c r="AI99" s="31"/>
       <c r="AJ99" s="35"/>
       <c r="AK99" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL99" s="31"/>
       <c r="AM99" s="31"/>
@@ -17886,7 +17883,7 @@
     </row>
     <row r="100" spans="7:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Z100" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA100" s="31"/>
       <c r="AB100" s="31"/>
@@ -17899,7 +17896,7 @@
       <c r="AI100" s="31"/>
       <c r="AJ100" s="35"/>
       <c r="AK100" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL100" s="31"/>
       <c r="AM100" s="31"/>
@@ -17913,7 +17910,7 @@
     </row>
     <row r="101" spans="7:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Z101" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AA101" s="31"/>
       <c r="AB101" s="31"/>
@@ -17926,7 +17923,7 @@
       <c r="AI101" s="31"/>
       <c r="AJ101" s="35"/>
       <c r="AK101" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL101" s="31"/>
       <c r="AM101" s="31"/>
@@ -17955,7 +17952,7 @@
       <c r="V102" s="55"/>
       <c r="W102" s="55"/>
       <c r="Z102" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA102" s="31"/>
       <c r="AB102" s="31"/>
@@ -17967,7 +17964,7 @@
       <c r="AH102" s="31"/>
       <c r="AI102" s="31"/>
       <c r="AK102" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AL102" s="31"/>
       <c r="AM102" s="31"/>
@@ -17996,7 +17993,7 @@
       <c r="V103" s="56"/>
       <c r="W103" s="55"/>
       <c r="Z103" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA103" s="31"/>
       <c r="AB103" s="31"/>
@@ -18008,7 +18005,7 @@
       <c r="AH103" s="31"/>
       <c r="AI103" s="31"/>
       <c r="AK103" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AL103" s="31"/>
       <c r="AM103" s="31"/>
@@ -18037,7 +18034,7 @@
       <c r="V104" s="56"/>
       <c r="W104" s="55"/>
       <c r="Z104" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA104" s="31"/>
       <c r="AB104" s="31"/>
@@ -18049,7 +18046,7 @@
       <c r="AH104" s="31"/>
       <c r="AI104" s="31"/>
       <c r="AK104" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AL104" s="31"/>
       <c r="AM104" s="31"/>
@@ -19204,39 +19201,39 @@
   </sheetData>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="U109:U118 W103:W108">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="156" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U109:U118 W103:W108">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ8:AQ24">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="5" operator="equal">
       <formula>$AA$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="6" operator="lessThan">
       <formula>$AA$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="7" operator="greaterThan">
       <formula>$AA$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT8:AT24">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU8:AU24">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="148" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19292,47 +19289,47 @@
     </row>
     <row r="2" spans="1:27" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H2" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="J2" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="54" t="s">
-        <v>82</v>
-      </c>
       <c r="L2" s="78" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N2" s="54"/>
       <c r="O2" s="78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R2" s="93" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA2" s="54"/>
     </row>
     <row r="3" spans="1:27" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="76" t="s">
-        <v>79</v>
-      </c>
       <c r="D3" s="76" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="77" t="s">
         <v>121</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>122</v>
       </c>
       <c r="H3" s="156">
         <f>SUM(B4:B40)</f>
@@ -19347,17 +19344,17 @@
         <v>3</v>
       </c>
       <c r="L3" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="78" t="s">
         <v>78</v>
-      </c>
-      <c r="M3" s="78" t="s">
-        <v>79</v>
       </c>
       <c r="N3" s="75"/>
       <c r="O3" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="78" t="s">
         <v>78</v>
-      </c>
-      <c r="P3" s="78" t="s">
-        <v>79</v>
       </c>
       <c r="R3" s="94" t="s">
         <v>4</v>
@@ -19366,28 +19363,28 @@
         <v>0</v>
       </c>
       <c r="T3" s="95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U3" s="96" t="s">
         <v>1</v>
       </c>
       <c r="V3" s="97" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W3" s="97" t="s">
         <v>2</v>
       </c>
       <c r="X3" s="97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Y3" s="96" t="s">
         <v>3</v>
       </c>
       <c r="Z3" s="97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA3" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
@@ -20635,7 +20632,7 @@
       </c>
       <c r="J41" s="80"/>
       <c r="K41" s="78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L41" s="162">
         <f>SUM(L4:L40)</f>
@@ -20671,10 +20668,10 @@
         <v>"PartA":[5,24,3],</v>
       </c>
       <c r="K43" s="73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M43" s="73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O43" s="87">
         <f>ROUND((SUM('Stats Global'!AA8,'Stats Global'!AA9,'Stats Global'!AA16,'Stats Global'!AA21,'Stats Global'!AA22))/'Stats Global'!AA6,1)</f>
@@ -20687,7 +20684,7 @@
         <v>"PartB":[3,"Sam James",2,"Sam James",1,"Ryan Pattemore",1,"William Kim"],</v>
       </c>
       <c r="K44" s="73" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M44" s="88">
         <f>MAX(Table1114[Points])</f>
@@ -20708,7 +20705,7 @@
         <v>"PartC":[6,3,2,0.5,2.5,12],</v>
       </c>
       <c r="K45" s="73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M45" s="88">
         <f>MAX(Table1114[Finishes])</f>
@@ -20729,7 +20726,7 @@
         <v>"PartD":[3,8,27.3,2,9,18.2],</v>
       </c>
       <c r="K46" s="73" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M46" s="88">
         <f>MAX(Table1114[Midranges])</f>
@@ -21743,44 +21740,44 @@
     <row r="1" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="74" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H2" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="J2" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="54" t="s">
-        <v>82</v>
-      </c>
       <c r="L2" s="78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N2" s="54"/>
       <c r="O2" s="93" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X2" s="54"/>
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="76" t="s">
-        <v>79</v>
-      </c>
       <c r="D3" s="76" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="77" t="s">
         <v>121</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>122</v>
       </c>
       <c r="H3" s="160">
         <f>SUM(B4:B40)</f>
@@ -21795,10 +21792,10 @@
         <v>3</v>
       </c>
       <c r="L3" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="78" t="s">
         <v>78</v>
-      </c>
-      <c r="M3" s="78" t="s">
-        <v>79</v>
       </c>
       <c r="N3" s="75"/>
       <c r="O3" s="94" t="s">
@@ -21808,28 +21805,28 @@
         <v>0</v>
       </c>
       <c r="Q3" s="95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R3" s="96" t="s">
         <v>1</v>
       </c>
       <c r="S3" s="97" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T3" s="97" t="s">
         <v>2</v>
       </c>
       <c r="U3" s="97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V3" s="96" t="s">
         <v>3</v>
       </c>
       <c r="W3" s="97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X3" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -22819,7 +22816,7 @@
       </c>
       <c r="J41" s="80"/>
       <c r="K41" s="73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L41" s="163">
         <f>SUM(L4:L40)</f>
@@ -22847,10 +22844,10 @@
       </c>
       <c r="K43" s="78"/>
       <c r="L43" s="73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N43" s="73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P43" s="87">
         <f>ROUND(SUM('Stats Global'!AA11,'Stats Global'!AA12,'Stats Global'!AA20,'Stats Global'!AA15,'Stats Global'!AA19,'Stats Global'!AA18)/'Stats Global'!AA6,1)</f>
@@ -22863,7 +22860,7 @@
         <v>"PartB":[4,"Clarrie Jones",1,"Clarrie Jones",4,"Samuel McConaghy",1,"Clarrie Jones"],</v>
       </c>
       <c r="L44" s="73" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N44" s="88">
         <f>MAX(Table1113[Points])</f>
@@ -22884,7 +22881,7 @@
         <v>"PartC":[11,6.5,1.5,1.5,4.5,8],</v>
       </c>
       <c r="L45" s="73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N45" s="88">
         <f>MAX(Table1113[Finishes])</f>
@@ -22905,7 +22902,7 @@
         <v>"PartD":[8,3,72.7,9,9,50],</v>
       </c>
       <c r="L46" s="73" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N46" s="88">
         <f>MAX(Table1113[Midranges])</f>
@@ -23922,16 +23919,16 @@
     <row r="1" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H2" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="J2" s="78" t="s">
         <v>81</v>
-      </c>
-      <c r="J2" s="78" t="s">
-        <v>82</v>
       </c>
       <c r="K2" s="54"/>
       <c r="L2" s="54"/>
@@ -23949,22 +23946,22 @@
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="76" t="s">
-        <v>79</v>
-      </c>
       <c r="D3" s="76" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="77" t="s">
         <v>121</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>122</v>
       </c>
       <c r="H3" s="160">
         <f>SUM(B4:B40)</f>
@@ -23980,7 +23977,7 @@
       </c>
       <c r="K3" s="75"/>
       <c r="L3" s="93" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U3" s="54"/>
       <c r="V3" s="75"/>
@@ -24014,28 +24011,28 @@
         <v>0</v>
       </c>
       <c r="N4" s="95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O4" s="96" t="s">
         <v>1</v>
       </c>
       <c r="P4" s="97" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="97" t="s">
         <v>2</v>
       </c>
       <c r="R4" s="97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S4" s="96" t="s">
         <v>3</v>
       </c>
       <c r="T4" s="97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U4" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V4" s="80"/>
       <c r="W4" s="80"/>
@@ -24279,23 +24276,23 @@
       <c r="K9" s="80"/>
       <c r="L9" s="80" t="str">
         <f>'Stats Global'!Z23</f>
-        <v>Willie Weekes</v>
+        <v>Will Weekes</v>
       </c>
       <c r="M9" s="80">
         <f>'Stats Global'!AA23</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9" s="80">
         <f>'Stats Global'!AB23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="80">
         <f>'Stats Global'!AC23</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P9" s="80">
         <f>'Stats Global'!AD23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="80">
         <f>'Stats Global'!AE23</f>
@@ -24803,14 +24800,14 @@
       </c>
       <c r="L32" s="78"/>
       <c r="M32" s="73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O32" s="73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q32" s="87">
         <f>ROUND(SUM('Stats Global'!AA10,'Stats Global'!AA14,'Stats Global'!AA17,'Stats Global'!AA13,'Stats Global'!AA24,'Stats Global'!AA23)/'Stats Global'!AA6,1)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -24825,7 +24822,7 @@
         <v>"PartB":[12,"Rudy Hoschke",10,"Rudy Hoschke",4,"Conor Farrington",1,"Rudy Hoschke"],</v>
       </c>
       <c r="M33" s="73" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O33" s="88">
         <f>MAX(Table11[Points])</f>
@@ -24837,7 +24834,7 @@
       </c>
       <c r="Q33" s="87">
         <f>ROUND(SUM('Stats Global'!AC10,'Stats Global'!AC14,'Stats Global'!AC17,'Stats Global'!AC13,'Stats Global'!AC24,'Stats Global'!AC23)/'Stats Global'!AA6,1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -24849,10 +24846,10 @@
       <c r="F34" s="77"/>
       <c r="K34" s="73" t="str">
         <f>M34&amp;Q32&amp;","&amp;Q33&amp;","&amp;Q34&amp;","&amp;Q35&amp;","&amp;Q36&amp;","&amp;Q37&amp;"],"</f>
-        <v>"PartC":[4,1,3,0,13,3.5],</v>
+        <v>"PartC":[5,2,3,0,13,3.5],</v>
       </c>
       <c r="M34" s="73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O34" s="88">
         <f>MAX(Table11[Finishes])</f>
@@ -24879,7 +24876,7 @@
         <v>"PartD":[9,2,81.8,9,9,50],</v>
       </c>
       <c r="M35" s="73" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O35" s="88">
         <f>MAX(Table11[Midranges])</f>
@@ -25930,7 +25927,7 @@
   <dimension ref="B1:AF1000"/>
   <sheetViews>
     <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -25948,28 +25945,28 @@
     <row r="1" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="L2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="N2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="R2" s="11" t="s">
         <v>0</v>
@@ -25978,13 +25975,13 @@
         <v>1</v>
       </c>
       <c r="T2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="V2" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
@@ -25992,31 +25989,31 @@
     </row>
     <row r="3" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="I3" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>96</v>
-      </c>
       <c r="K3" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L3" s="11">
         <f>COUNTIF(C3:C40, "Choc-Tops")</f>
@@ -26057,10 +26054,10 @@
         <v>0</v>
       </c>
       <c r="X3" s="148" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y3" s="148" t="s">
         <v>182</v>
-      </c>
-      <c r="Y3" s="148" t="s">
-        <v>183</v>
       </c>
       <c r="Z3" s="148" t="s">
         <v>35</v>
@@ -26077,7 +26074,7 @@
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="K4" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L4" s="11">
         <f>COUNTIF(C3:C40, "Traffic Controllers")</f>
@@ -26340,7 +26337,7 @@
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
       <c r="Q9" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R9" s="18">
         <f t="shared" si="0"/>
@@ -26564,7 +26561,7 @@
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="Q14" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R14" s="8">
         <f t="shared" si="0"/>
@@ -26744,7 +26741,7 @@
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
       <c r="Q18" s="2" t="s">
-        <v>58</v>
+        <v>222</v>
       </c>
       <c r="R18" s="8">
         <f t="shared" si="0"/>
@@ -27481,7 +27478,7 @@
       <c r="R41" s="91"/>
       <c r="S41" s="91"/>
       <c r="T41" s="164" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U41" s="164"/>
       <c r="V41" s="164"/>
@@ -27495,60 +27492,60 @@
     </row>
     <row r="43" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T43" s="67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="E44" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E44" s="16" t="s">
-        <v>71</v>
-      </c>
       <c r="F44" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="G44" s="92" t="s">
+        <v>211</v>
+      </c>
+      <c r="H44" s="92" t="s">
+        <v>215</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="K44" s="92" t="s">
+        <v>216</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="M44" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="N44" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="O44" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="G44" s="92" t="s">
-        <v>212</v>
-      </c>
-      <c r="H44" s="92" t="s">
-        <v>216</v>
-      </c>
-      <c r="I44" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="J44" s="16" t="s">
+      <c r="P44" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="K44" s="92" t="s">
-        <v>217</v>
-      </c>
-      <c r="L44" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="M44" s="92" t="s">
-        <v>219</v>
-      </c>
-      <c r="N44" s="92" t="s">
+      <c r="Q44" s="16" t="s">
         <v>220</v>
-      </c>
-      <c r="O44" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="P44" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q44" s="16" t="s">
-        <v>221</v>
       </c>
       <c r="T44" s="16" t="str">
         <f>CHAR(34)&amp;"Date"&amp;CHAR(34)&amp;":["&amp;CHAR(34)&amp;""&amp;C2&amp;""&amp;CHAR(34)&amp;"],"</f>
@@ -27645,7 +27642,7 @@
     </row>
     <row r="49" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T49" s="67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -28612,8 +28609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E174D9-98A8-47DC-8DB9-CDDFD27E733E}">
   <dimension ref="B1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B30"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="79" workbookViewId="0">
+      <selection activeCell="T43" sqref="T43:T49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -28631,28 +28628,28 @@
     <row r="1" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="L2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="N2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="R2" s="11" t="s">
         <v>0</v>
@@ -28661,13 +28658,13 @@
         <v>1</v>
       </c>
       <c r="T2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="V2" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
@@ -28675,31 +28672,31 @@
     </row>
     <row r="3" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="I3" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>96</v>
-      </c>
       <c r="K3" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L3" s="11">
         <f>COUNTIF(C3:C40, "Choc-Tops")</f>
@@ -28740,10 +28737,10 @@
         <v>0</v>
       </c>
       <c r="X3" s="148" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y3" s="148" t="s">
         <v>182</v>
-      </c>
-      <c r="Y3" s="148" t="s">
-        <v>183</v>
       </c>
       <c r="Z3" s="148" t="s">
         <v>35</v>
@@ -28755,16 +28752,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>190</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>191</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G4" s="25">
         <v>1</v>
@@ -28776,7 +28773,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L4" s="11">
         <f>COUNTIF(C3:C40, "Traffic Controllers")</f>
@@ -28835,16 +28832,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G5" s="25">
         <v>2</v>
@@ -28915,16 +28912,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>190</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>191</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G6" s="25">
         <v>3</v>
@@ -28976,16 +28973,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G7" s="25">
         <v>4</v>
@@ -29037,16 +29034,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>190</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>191</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G8" s="25">
         <v>5</v>
@@ -29098,16 +29095,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G9" s="25">
         <v>6</v>
@@ -29119,7 +29116,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R9" s="18">
         <f t="shared" si="0"/>
@@ -29158,16 +29155,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>191</v>
-      </c>
       <c r="E10" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G10" s="25">
         <v>7</v>
@@ -29219,16 +29216,16 @@
         <v>8</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>52</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G11" s="25">
         <v>8</v>
@@ -29280,16 +29277,16 @@
         <v>9</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" s="25">
         <v>1</v>
@@ -29341,16 +29338,16 @@
         <v>10</v>
       </c>
       <c r="C13" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>191</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>192</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G13" s="25">
         <v>2</v>
@@ -29402,16 +29399,16 @@
         <v>11</v>
       </c>
       <c r="C14" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>190</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>191</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G14" s="25">
         <v>1</v>
@@ -29423,7 +29420,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R14" s="8">
         <f t="shared" si="0"/>
@@ -29463,16 +29460,16 @@
         <v>12</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G15" s="25">
         <v>4</v>
@@ -29524,16 +29521,16 @@
         <v>13</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>49</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G16" s="25">
         <v>1</v>
@@ -29585,16 +29582,16 @@
         <v>14</v>
       </c>
       <c r="C17" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="25" t="s">
         <v>191</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>192</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>44</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17" s="25">
         <v>2</v>
@@ -29628,15 +29625,15 @@
         <v>0</v>
       </c>
       <c r="X17" s="50" t="str">
-        <f>IF(AND(C15="Choc-Tops",D15="Gentle, Men"),"CT/GM", IF(AND(C15="Choc-Tops",D15="Traffic Controllers"),"CT/TC", ""))</f>
+        <f t="shared" ref="X17:X32" si="8">IF(AND(C15="Choc-Tops",D15="Gentle, Men"),"CT/GM", IF(AND(C15="Choc-Tops",D15="Traffic Controllers"),"CT/TC", ""))</f>
         <v/>
       </c>
       <c r="Y17" s="50" t="str">
-        <f>IF(AND(C15="Gentle, Men",D15="Choc-Tops"),"GM/CT", IF(AND(C15="Gentle, Men",D15="Traffic Controllers"),"GM/TC", ""))</f>
+        <f t="shared" ref="Y17:Y32" si="9">IF(AND(C15="Gentle, Men",D15="Choc-Tops"),"GM/CT", IF(AND(C15="Gentle, Men",D15="Traffic Controllers"),"GM/TC", ""))</f>
         <v>GM/CT</v>
       </c>
       <c r="Z17" s="50" t="str">
-        <f>IF(AND(C15="Traffic Controllers",D15="Choc-Tops"),"TC/CT", IF(AND($C15="Traffic Controllers",$D15="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" ref="Z17:Z32" si="10">IF(AND(C15="Traffic Controllers",D15="Choc-Tops"),"TC/CT", IF(AND($C15="Traffic Controllers",$D15="Gentle, Men"),"TC/GM", ""))</f>
         <v/>
       </c>
       <c r="AB17" s="2"/>
@@ -29646,16 +29643,16 @@
         <v>15</v>
       </c>
       <c r="C18" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>190</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>191</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G18" s="25">
         <v>1</v>
@@ -29667,15 +29664,15 @@
         <v>1</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>58</v>
+        <v>222</v>
       </c>
       <c r="R18" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S18" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T18" s="9">
         <f t="shared" si="2"/>
@@ -29689,15 +29686,15 @@
         <v>0</v>
       </c>
       <c r="X18" s="50" t="str">
-        <f>IF(AND(C16="Choc-Tops",D16="Gentle, Men"),"CT/GM", IF(AND(C16="Choc-Tops",D16="Traffic Controllers"),"CT/TC", ""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y18" s="50" t="str">
-        <f>IF(AND(C16="Gentle, Men",D16="Choc-Tops"),"GM/CT", IF(AND(C16="Gentle, Men",D16="Traffic Controllers"),"GM/TC", ""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z18" s="50" t="str">
-        <f>IF(AND(C16="Traffic Controllers",D16="Choc-Tops"),"TC/CT", IF(AND($C16="Traffic Controllers",$D16="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="10"/>
         <v>TC/GM</v>
       </c>
       <c r="AB18" s="2"/>
@@ -29707,16 +29704,16 @@
         <v>16</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G19" s="25">
         <v>2</v>
@@ -29734,15 +29731,15 @@
       <c r="U19" s="9"/>
       <c r="V19" s="26"/>
       <c r="X19" s="50" t="str">
-        <f>IF(AND(C17="Choc-Tops",D17="Gentle, Men"),"CT/GM", IF(AND(C17="Choc-Tops",D17="Traffic Controllers"),"CT/TC", ""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y19" s="50" t="str">
-        <f>IF(AND(C17="Gentle, Men",D17="Choc-Tops"),"GM/CT", IF(AND(C17="Gentle, Men",D17="Traffic Controllers"),"GM/TC", ""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z19" s="50" t="str">
-        <f>IF(AND(C17="Traffic Controllers",D17="Choc-Tops"),"TC/CT", IF(AND($C17="Traffic Controllers",$D17="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="10"/>
         <v>TC/CT</v>
       </c>
     </row>
@@ -29751,16 +29748,16 @@
         <v>17</v>
       </c>
       <c r="C20" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>190</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>191</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G20" s="25">
         <v>3</v>
@@ -29772,15 +29769,15 @@
         <v>3</v>
       </c>
       <c r="X20" s="50" t="str">
-        <f>IF(AND(C18="Choc-Tops",D18="Gentle, Men"),"CT/GM", IF(AND(C18="Choc-Tops",D18="Traffic Controllers"),"CT/TC", ""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y20" s="50" t="str">
-        <f>IF(AND(C18="Gentle, Men",D18="Choc-Tops"),"GM/CT", IF(AND(C18="Gentle, Men",D18="Traffic Controllers"),"GM/TC", ""))</f>
+        <f t="shared" si="9"/>
         <v>GM/TC</v>
       </c>
       <c r="Z20" s="50" t="str">
-        <f>IF(AND(C18="Traffic Controllers",D18="Choc-Tops"),"TC/CT", IF(AND($C18="Traffic Controllers",$D18="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -29789,16 +29786,16 @@
         <v>18</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>52</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G21" s="25">
         <v>4</v>
@@ -29810,15 +29807,15 @@
         <v>1</v>
       </c>
       <c r="X21" s="50" t="str">
-        <f>IF(AND(C19="Choc-Tops",D19="Gentle, Men"),"CT/GM", IF(AND(C19="Choc-Tops",D19="Traffic Controllers"),"CT/TC", ""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y21" s="50" t="str">
-        <f>IF(AND(C19="Gentle, Men",D19="Choc-Tops"),"GM/CT", IF(AND(C19="Gentle, Men",D19="Traffic Controllers"),"GM/TC", ""))</f>
+        <f t="shared" si="9"/>
         <v>GM/CT</v>
       </c>
       <c r="Z21" s="50" t="str">
-        <f>IF(AND(C19="Traffic Controllers",D19="Choc-Tops"),"TC/CT", IF(AND($C19="Traffic Controllers",$D19="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -29827,16 +29824,16 @@
         <v>19</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E22" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G22" s="25">
         <v>1</v>
@@ -29848,15 +29845,15 @@
         <v>1</v>
       </c>
       <c r="X22" s="50" t="str">
-        <f>IF(AND(C20="Choc-Tops",D20="Gentle, Men"),"CT/GM", IF(AND(C20="Choc-Tops",D20="Traffic Controllers"),"CT/TC", ""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y22" s="50" t="str">
-        <f>IF(AND(C20="Gentle, Men",D20="Choc-Tops"),"GM/CT", IF(AND(C20="Gentle, Men",D20="Traffic Controllers"),"GM/TC", ""))</f>
+        <f t="shared" si="9"/>
         <v>GM/TC</v>
       </c>
       <c r="Z22" s="50" t="str">
-        <f>IF(AND(C20="Traffic Controllers",D20="Choc-Tops"),"TC/CT", IF(AND($C20="Traffic Controllers",$D20="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -29865,16 +29862,16 @@
         <v>20</v>
       </c>
       <c r="C23" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" s="25" t="s">
         <v>191</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>192</v>
       </c>
       <c r="E23" s="25" t="s">
         <v>44</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G23" s="25">
         <v>2</v>
@@ -29891,27 +29888,27 @@
         <v>0,</v>
       </c>
       <c r="S23" s="16" t="str">
-        <f t="shared" ref="S23:U23" si="8">IF($V3, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), S3)&amp;","</f>
+        <f t="shared" ref="S23:U23" si="11">IF($V3, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), S3)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T23" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v>0,</v>
+      </c>
+      <c r="U23" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v>0,</v>
+      </c>
+      <c r="X23" s="50" t="str">
         <f t="shared" si="8"/>
-        <v>0,</v>
-      </c>
-      <c r="U23" s="16" t="str">
-        <f t="shared" si="8"/>
-        <v>0,</v>
-      </c>
-      <c r="X23" s="50" t="str">
-        <f>IF(AND(C21="Choc-Tops",D21="Gentle, Men"),"CT/GM", IF(AND(C21="Choc-Tops",D21="Traffic Controllers"),"CT/TC", ""))</f>
         <v/>
       </c>
       <c r="Y23" s="50" t="str">
-        <f>IF(AND(C21="Gentle, Men",D21="Choc-Tops"),"GM/CT", IF(AND(C21="Gentle, Men",D21="Traffic Controllers"),"GM/TC", ""))</f>
+        <f t="shared" si="9"/>
         <v>GM/CT</v>
       </c>
       <c r="Z23" s="50" t="str">
-        <f>IF(AND(C21="Traffic Controllers",D21="Choc-Tops"),"TC/CT", IF(AND($C21="Traffic Controllers",$D21="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AB23" s="131"/>
@@ -29925,16 +29922,16 @@
         <v>21</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G24" s="25">
         <v>3</v>
@@ -29946,31 +29943,31 @@
         <v>2</v>
       </c>
       <c r="R24" s="16" t="str">
-        <f t="shared" ref="R24:U37" si="9">IF($V4, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R4)&amp;","</f>
+        <f t="shared" ref="R24:U37" si="12">IF($V4, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R4)&amp;","</f>
         <v>6,</v>
       </c>
       <c r="S24" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>2,</v>
+      </c>
+      <c r="T24" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>4,</v>
+      </c>
+      <c r="U24" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X24" s="50" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y24" s="50" t="str">
         <f t="shared" si="9"/>
-        <v>2,</v>
-      </c>
-      <c r="T24" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>4,</v>
-      </c>
-      <c r="U24" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X24" s="50" t="str">
-        <f>IF(AND(C22="Choc-Tops",D22="Gentle, Men"),"CT/GM", IF(AND(C22="Choc-Tops",D22="Traffic Controllers"),"CT/TC", ""))</f>
         <v/>
       </c>
-      <c r="Y24" s="50" t="str">
-        <f>IF(AND(C22="Gentle, Men",D22="Choc-Tops"),"GM/CT", IF(AND(C22="Gentle, Men",D22="Traffic Controllers"),"GM/TC", ""))</f>
-        <v/>
-      </c>
       <c r="Z24" s="50" t="str">
-        <f>IF(AND(C22="Traffic Controllers",D22="Choc-Tops"),"TC/CT", IF(AND($C22="Traffic Controllers",$D22="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="10"/>
         <v>TC/GM</v>
       </c>
     </row>
@@ -29979,16 +29976,16 @@
         <v>22</v>
       </c>
       <c r="C25" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="25" t="s">
         <v>191</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>192</v>
       </c>
       <c r="E25" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G25" s="25">
         <v>4</v>
@@ -30001,31 +29998,31 @@
       </c>
       <c r="Q25" s="6"/>
       <c r="R25" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="S25" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="T25" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="U25" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="X25" s="50" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y25" s="50" t="str">
         <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="S25" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="T25" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="U25" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="X25" s="50" t="str">
-        <f>IF(AND(C23="Choc-Tops",D23="Gentle, Men"),"CT/GM", IF(AND(C23="Choc-Tops",D23="Traffic Controllers"),"CT/TC", ""))</f>
         <v/>
       </c>
-      <c r="Y25" s="50" t="str">
-        <f>IF(AND(C23="Gentle, Men",D23="Choc-Tops"),"GM/CT", IF(AND(C23="Gentle, Men",D23="Traffic Controllers"),"GM/TC", ""))</f>
-        <v/>
-      </c>
       <c r="Z25" s="50" t="str">
-        <f>IF(AND(C23="Traffic Controllers",D23="Choc-Tops"),"TC/CT", IF(AND($C23="Traffic Controllers",$D23="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="10"/>
         <v>TC/CT</v>
       </c>
     </row>
@@ -30034,16 +30031,16 @@
         <v>23</v>
       </c>
       <c r="C26" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" s="25" t="s">
         <v>190</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>191</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>30</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G26" s="25">
         <v>1</v>
@@ -30056,31 +30053,31 @@
       </c>
       <c r="Q26" s="12"/>
       <c r="R26" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>6,</v>
+      </c>
+      <c r="S26" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>4,</v>
+      </c>
+      <c r="T26" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U26" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="X26" s="50" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y26" s="50" t="str">
         <f t="shared" si="9"/>
-        <v>6,</v>
-      </c>
-      <c r="S26" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>4,</v>
-      </c>
-      <c r="T26" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U26" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="X26" s="50" t="str">
-        <f>IF(AND(C24="Choc-Tops",D24="Gentle, Men"),"CT/GM", IF(AND(C24="Choc-Tops",D24="Traffic Controllers"),"CT/TC", ""))</f>
         <v/>
       </c>
-      <c r="Y26" s="50" t="str">
-        <f>IF(AND(C24="Gentle, Men",D24="Choc-Tops"),"GM/CT", IF(AND(C24="Gentle, Men",D24="Traffic Controllers"),"GM/TC", ""))</f>
-        <v/>
-      </c>
       <c r="Z26" s="50" t="str">
-        <f>IF(AND(C24="Traffic Controllers",D24="Choc-Tops"),"TC/CT", IF(AND($C24="Traffic Controllers",$D24="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="10"/>
         <v>TC/GM</v>
       </c>
     </row>
@@ -30089,16 +30086,16 @@
         <v>24</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G27" s="25">
         <v>1</v>
@@ -30110,31 +30107,31 @@
         <v>1</v>
       </c>
       <c r="R27" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>3,</v>
+      </c>
+      <c r="S27" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T27" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="U27" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="X27" s="50" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y27" s="50" t="str">
         <f t="shared" si="9"/>
-        <v>3,</v>
-      </c>
-      <c r="S27" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T27" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="U27" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="X27" s="50" t="str">
-        <f>IF(AND(C25="Choc-Tops",D25="Gentle, Men"),"CT/GM", IF(AND(C25="Choc-Tops",D25="Traffic Controllers"),"CT/TC", ""))</f>
         <v/>
       </c>
-      <c r="Y27" s="50" t="str">
-        <f>IF(AND(C25="Gentle, Men",D25="Choc-Tops"),"GM/CT", IF(AND(C25="Gentle, Men",D25="Traffic Controllers"),"GM/TC", ""))</f>
-        <v/>
-      </c>
       <c r="Z27" s="50" t="str">
-        <f>IF(AND(C25="Traffic Controllers",D25="Choc-Tops"),"TC/CT", IF(AND($C25="Traffic Controllers",$D25="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="10"/>
         <v>TC/CT</v>
       </c>
     </row>
@@ -30143,16 +30140,16 @@
         <v>25</v>
       </c>
       <c r="C28" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D28" s="25" t="s">
         <v>191</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>192</v>
       </c>
       <c r="E28" s="25" t="s">
         <v>37</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G28" s="25">
         <v>1</v>
@@ -30164,31 +30161,31 @@
         <v>1</v>
       </c>
       <c r="R28" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="S28" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T28" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="U28" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X28" s="50" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y28" s="50" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="S28" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T28" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="U28" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X28" s="50" t="str">
-        <f>IF(AND(C26="Choc-Tops",D26="Gentle, Men"),"CT/GM", IF(AND(C26="Choc-Tops",D26="Traffic Controllers"),"CT/TC", ""))</f>
-        <v/>
-      </c>
-      <c r="Y28" s="50" t="str">
-        <f>IF(AND(C26="Gentle, Men",D26="Choc-Tops"),"GM/CT", IF(AND(C26="Gentle, Men",D26="Traffic Controllers"),"GM/TC", ""))</f>
         <v>GM/TC</v>
       </c>
       <c r="Z28" s="50" t="str">
-        <f>IF(AND(C26="Traffic Controllers",D26="Choc-Tops"),"TC/CT", IF(AND($C26="Traffic Controllers",$D26="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -30197,16 +30194,16 @@
         <v>26</v>
       </c>
       <c r="C29" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" s="25" t="s">
         <v>190</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>191</v>
       </c>
       <c r="E29" s="25" t="s">
         <v>30</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G29" s="25">
         <v>1</v>
@@ -30218,31 +30215,31 @@
         <v>1</v>
       </c>
       <c r="R29" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="S29" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="T29" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U29" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X29" s="50" t="str">
+        <f t="shared" si="8"/>
+        <v>CT/GM</v>
+      </c>
+      <c r="Y29" s="50" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="S29" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="T29" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U29" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X29" s="50" t="str">
-        <f>IF(AND(C27="Choc-Tops",D27="Gentle, Men"),"CT/GM", IF(AND(C27="Choc-Tops",D27="Traffic Controllers"),"CT/TC", ""))</f>
-        <v>CT/GM</v>
-      </c>
-      <c r="Y29" s="50" t="str">
-        <f>IF(AND(C27="Gentle, Men",D27="Choc-Tops"),"GM/CT", IF(AND(C27="Gentle, Men",D27="Traffic Controllers"),"GM/TC", ""))</f>
         <v/>
       </c>
       <c r="Z29" s="50" t="str">
-        <f>IF(AND(C27="Traffic Controllers",D27="Choc-Tops"),"TC/CT", IF(AND($C27="Traffic Controllers",$D27="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -30251,16 +30248,16 @@
         <v>27</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E30" s="25" t="s">
         <v>30</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G30" s="25">
         <v>2</v>
@@ -30272,91 +30269,91 @@
         <v>2</v>
       </c>
       <c r="R30" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>4,</v>
+      </c>
+      <c r="S30" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="T30" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="U30" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="X30" s="50" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y30" s="50" t="str">
         <f t="shared" si="9"/>
-        <v>4,</v>
-      </c>
-      <c r="S30" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="T30" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="U30" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="X30" s="50" t="str">
-        <f>IF(AND(C28="Choc-Tops",D28="Gentle, Men"),"CT/GM", IF(AND(C28="Choc-Tops",D28="Traffic Controllers"),"CT/TC", ""))</f>
         <v/>
       </c>
-      <c r="Y30" s="50" t="str">
-        <f>IF(AND(C28="Gentle, Men",D28="Choc-Tops"),"GM/CT", IF(AND(C28="Gentle, Men",D28="Traffic Controllers"),"GM/TC", ""))</f>
-        <v/>
-      </c>
       <c r="Z30" s="50" t="str">
-        <f>IF(AND(C28="Traffic Controllers",D28="Choc-Tops"),"TC/CT", IF(AND($C28="Traffic Controllers",$D28="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="10"/>
         <v>TC/CT</v>
       </c>
     </row>
     <row r="31" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R31" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="S31" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T31" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U31" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X31" s="50" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y31" s="50" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="S31" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T31" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U31" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X31" s="50" t="str">
-        <f>IF(AND(C29="Choc-Tops",D29="Gentle, Men"),"CT/GM", IF(AND(C29="Choc-Tops",D29="Traffic Controllers"),"CT/TC", ""))</f>
-        <v/>
-      </c>
-      <c r="Y31" s="50" t="str">
-        <f>IF(AND(C29="Gentle, Men",D29="Choc-Tops"),"GM/CT", IF(AND(C29="Gentle, Men",D29="Traffic Controllers"),"GM/TC", ""))</f>
         <v>GM/TC</v>
       </c>
       <c r="Z31" s="50" t="str">
-        <f>IF(AND(C29="Traffic Controllers",D29="Choc-Tops"),"TC/CT", IF(AND($C29="Traffic Controllers",$D29="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R32" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>4,</v>
+      </c>
+      <c r="S32" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T32" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>4,</v>
+      </c>
+      <c r="U32" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X32" s="50" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y32" s="50" t="str">
         <f t="shared" si="9"/>
-        <v>4,</v>
-      </c>
-      <c r="S32" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T32" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>4,</v>
-      </c>
-      <c r="U32" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X32" s="50" t="str">
-        <f>IF(AND(C30="Choc-Tops",D30="Gentle, Men"),"CT/GM", IF(AND(C30="Choc-Tops",D30="Traffic Controllers"),"CT/TC", ""))</f>
-        <v/>
-      </c>
-      <c r="Y32" s="50" t="str">
-        <f>IF(AND(C30="Gentle, Men",D30="Choc-Tops"),"GM/CT", IF(AND(C30="Gentle, Men",D30="Traffic Controllers"),"GM/TC", ""))</f>
         <v>GM/CT</v>
       </c>
       <c r="Z32" s="50" t="str">
-        <f>IF(AND(C30="Traffic Controllers",D30="Choc-Tops"),"TC/CT", IF(AND($C30="Traffic Controllers",$D30="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -30370,19 +30367,19 @@
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
       <c r="R33" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="S33" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="T33" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="U33" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="X33" s="50" t="str">
@@ -30408,19 +30405,19 @@
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
       <c r="R34" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>"Did not Play",</v>
       </c>
       <c r="S34" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>"Did not Play",</v>
       </c>
       <c r="T34" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>"Did not Play",</v>
       </c>
       <c r="U34" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>"Did not Play",</v>
       </c>
       <c r="X34" s="50" t="str">
@@ -30438,19 +30435,19 @@
     </row>
     <row r="35" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R35" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1,</v>
       </c>
       <c r="S35" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1,</v>
       </c>
       <c r="T35" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="U35" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="X35" s="50" t="str">
@@ -30468,19 +30465,19 @@
     </row>
     <row r="36" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R36" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2,</v>
       </c>
       <c r="S36" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2,</v>
       </c>
       <c r="T36" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="U36" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="X36" s="50" t="str">
@@ -30498,19 +30495,19 @@
     </row>
     <row r="37" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R37" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="S37" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="T37" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="U37" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="X37" s="50" t="str">
@@ -30529,11 +30526,11 @@
     <row r="38" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R38" s="16">
         <f>IF($V18, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R18)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S38" s="16">
         <f>IF($V18, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), S18)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T38" s="16">
         <f>IF($V18, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), T18)</f>
@@ -30580,7 +30577,7 @@
       <c r="R41" s="91"/>
       <c r="S41" s="91"/>
       <c r="T41" s="164" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U41" s="164"/>
       <c r="V41" s="164"/>
@@ -30594,60 +30591,60 @@
     </row>
     <row r="43" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T43" s="67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="E44" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E44" s="16" t="s">
-        <v>71</v>
-      </c>
       <c r="F44" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="G44" s="92" t="s">
+        <v>211</v>
+      </c>
+      <c r="H44" s="92" t="s">
+        <v>215</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="K44" s="92" t="s">
+        <v>216</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="M44" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="N44" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="O44" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="G44" s="92" t="s">
-        <v>212</v>
-      </c>
-      <c r="H44" s="92" t="s">
-        <v>216</v>
-      </c>
-      <c r="I44" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="J44" s="16" t="s">
+      <c r="P44" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="K44" s="92" t="s">
-        <v>217</v>
-      </c>
-      <c r="L44" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="M44" s="92" t="s">
-        <v>219</v>
-      </c>
-      <c r="N44" s="92" t="s">
+      <c r="Q44" s="16" t="s">
         <v>220</v>
-      </c>
-      <c r="O44" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="P44" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q44" s="16" t="s">
-        <v>221</v>
       </c>
       <c r="T44" s="16" t="str">
         <f>CHAR(34)&amp;"Date"&amp;CHAR(34)&amp;":["&amp;CHAR(34)&amp;""&amp;C2&amp;""&amp;CHAR(34)&amp;"],"</f>
@@ -30721,13 +30718,13 @@
       </c>
       <c r="T45" s="16" t="str">
         <f>CHAR(34)&amp;"Points"&amp;CHAR(34)&amp;":["&amp;R23&amp;R24&amp;R25&amp;R26&amp;R27&amp;R28&amp;R29&amp;R30&amp;R31&amp;R32&amp;R33&amp;R34&amp;R35&amp;R36&amp;R37&amp;R38&amp;"],"</f>
-        <v>"Points":[0,6,"Did not Play",6,3,1,1,4,0,4,0,"Did not Play",1,2,0,0],</v>
+        <v>"Points":[0,6,"Did not Play",6,3,1,1,4,0,4,0,"Did not Play",1,2,0,2],</v>
       </c>
     </row>
     <row r="46" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T46" s="16" t="str">
         <f>CHAR(34)&amp;"Finishes"&amp;CHAR(34)&amp;":["&amp;S23&amp;S24&amp;S25&amp;S26&amp;S27&amp;S28&amp;S29&amp;S30&amp;S31&amp;S32&amp;S33&amp;S34&amp;S35&amp;S36&amp;S37&amp;S38&amp;"],"</f>
-        <v>"Finishes":[0,2,"Did not Play",4,0,0,1,1,0,0,0,"Did not Play",1,2,0,0],</v>
+        <v>"Finishes":[0,2,"Did not Play",4,0,0,1,1,0,0,0,"Did not Play",1,2,0,2],</v>
       </c>
     </row>
     <row r="47" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -30744,7 +30741,7 @@
     </row>
     <row r="49" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T49" s="67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -31711,8 +31708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2660BA0C-5C63-4E07-8097-E0E9B5F5BD3B}">
   <dimension ref="B1:AF1000"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I16"/>
+    <sheetView topLeftCell="A18" zoomScale="79" workbookViewId="0">
+      <selection activeCell="T43" sqref="T43:T49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -31730,28 +31727,28 @@
     <row r="1" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="L2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="N2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="R2" s="11" t="s">
         <v>0</v>
@@ -31760,13 +31757,13 @@
         <v>1</v>
       </c>
       <c r="T2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="V2" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
@@ -31774,31 +31771,31 @@
     </row>
     <row r="3" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="I3" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>96</v>
-      </c>
       <c r="K3" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L3" s="11">
         <f>COUNTIF(C3:C40, "Choc-Tops")</f>
@@ -31839,10 +31836,10 @@
         <v>0</v>
       </c>
       <c r="X3" s="148" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y3" s="148" t="s">
         <v>182</v>
-      </c>
-      <c r="Y3" s="148" t="s">
-        <v>183</v>
       </c>
       <c r="Z3" s="148" t="s">
         <v>35</v>
@@ -31854,16 +31851,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>190</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>191</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G4" s="25">
         <v>1</v>
@@ -31875,7 +31872,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L4" s="11">
         <f>COUNTIF(C3:C40, "Traffic Controllers")</f>
@@ -31934,16 +31931,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G5" s="25">
         <v>2</v>
@@ -32014,16 +32011,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>190</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>191</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G6" s="25">
         <v>3</v>
@@ -32075,16 +32072,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>52</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G7" s="25">
         <v>4</v>
@@ -32136,16 +32133,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>190</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>191</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G8" s="25">
         <v>5</v>
@@ -32197,16 +32194,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G9" s="25">
         <v>1</v>
@@ -32218,7 +32215,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R9" s="18">
         <f t="shared" si="0"/>
@@ -32257,16 +32254,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" s="25">
         <v>2</v>
@@ -32318,16 +32315,16 @@
         <v>8</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G11" s="25">
         <v>1</v>
@@ -32379,16 +32376,16 @@
         <v>9</v>
       </c>
       <c r="C12" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>190</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>191</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>52</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G12" s="25">
         <v>2</v>
@@ -32440,16 +32437,16 @@
         <v>10</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>41</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G13" s="25">
         <v>1</v>
@@ -32501,16 +32498,16 @@
         <v>11</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G14" s="25">
         <v>2</v>
@@ -32522,7 +32519,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R14" s="8">
         <f t="shared" si="0"/>
@@ -32562,16 +32559,16 @@
         <v>12</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>30</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G15" s="25">
         <v>1</v>
@@ -32623,16 +32620,16 @@
         <v>13</v>
       </c>
       <c r="C16" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="25" t="s">
         <v>190</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>191</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>30</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G16" s="25">
         <v>2</v>
@@ -32734,7 +32731,7 @@
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
       <c r="Q18" s="2" t="s">
-        <v>58</v>
+        <v>222</v>
       </c>
       <c r="R18" s="8">
         <f t="shared" si="0"/>
@@ -33471,7 +33468,7 @@
       <c r="R41" s="91"/>
       <c r="S41" s="91"/>
       <c r="T41" s="164" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U41" s="164"/>
       <c r="V41" s="164"/>
@@ -33485,60 +33482,60 @@
     </row>
     <row r="43" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T43" s="67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="E44" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E44" s="16" t="s">
-        <v>71</v>
-      </c>
       <c r="F44" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="G44" s="92" t="s">
+        <v>211</v>
+      </c>
+      <c r="H44" s="92" t="s">
+        <v>215</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="K44" s="92" t="s">
+        <v>216</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="M44" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="N44" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="O44" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="G44" s="92" t="s">
-        <v>212</v>
-      </c>
-      <c r="H44" s="92" t="s">
-        <v>216</v>
-      </c>
-      <c r="I44" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="J44" s="16" t="s">
+      <c r="P44" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="K44" s="92" t="s">
-        <v>217</v>
-      </c>
-      <c r="L44" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="M44" s="92" t="s">
-        <v>219</v>
-      </c>
-      <c r="N44" s="92" t="s">
+      <c r="Q44" s="16" t="s">
         <v>220</v>
-      </c>
-      <c r="O44" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="P44" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q44" s="16" t="s">
-        <v>221</v>
       </c>
       <c r="T44" s="16" t="str">
         <f>CHAR(34)&amp;"Date"&amp;CHAR(34)&amp;":["&amp;CHAR(34)&amp;""&amp;C2&amp;""&amp;CHAR(34)&amp;"],"</f>
@@ -33635,7 +33632,7 @@
     </row>
     <row r="49" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T49" s="67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\LTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889EE14A-931C-429E-8901-6F2AD6F1B2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E52653-3709-4481-BDC0-A54D5C63E930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="5" xr2:uid="{1E3275F7-0219-46B7-B9B0-3246E28631A6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{2BAB6892-F479-4D43-B08F-5DB0BF167B7D}"/>
   </bookViews>
   <sheets>
     <sheet name="SfW" sheetId="2" r:id="rId1"/>
@@ -1124,7 +1124,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1273,9 +1273,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1343,14 +1340,14 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1360,76 +1357,6 @@
     <cellStyle name="Percent 2" xfId="4" xr:uid="{634236AC-3325-4CC1-8E1B-D50D109B9BAB}"/>
   </cellStyles>
   <dxfs count="155">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4873,6 +4800,76 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -7408,40 +7405,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}" name="Table1" displayName="Table1" ref="Z7:AJ23" totalsRowShown="0" headerRowDxfId="154" dataDxfId="152" headerRowBorderDxfId="153" tableBorderDxfId="151" totalsRowBorderDxfId="150">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}" name="Table1" displayName="Table1" ref="Z7:AJ23" totalsRowShown="0" headerRowDxfId="147" dataDxfId="145" headerRowBorderDxfId="146" tableBorderDxfId="144" totalsRowBorderDxfId="143">
   <autoFilter ref="Z7:AJ23" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{9B036617-5450-4894-9268-827D2E0914FF}" name="Scoring" dataDxfId="149">
+    <tableColumn id="1" xr3:uid="{9B036617-5450-4894-9268-827D2E0914FF}" name="Scoring" dataDxfId="142">
       <calculatedColumnFormula>SfW!B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="148">
+    <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="141">
       <calculatedColumnFormula>SUM(AL29,AA49,AL49,AA69,AL69,AA89,AL89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="147">
+    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="140">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="146">
+    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="139">
       <calculatedColumnFormula>SUM(AM29,AB49,AM49,AB69,AM69,AB89,AM89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="145">
+    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="138">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="144">
+    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="137">
       <calculatedColumnFormula>SUM(AN29,AC49,AN49,AC69,AN69,AC89,AN89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="143">
+    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="136">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="142">
+    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="135">
       <calculatedColumnFormula>SUM(AO29,AD49,AO49,AD69,AO69,AD89,AO89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="141">
+    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="134">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="140">
+    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="133">
       <calculatedColumnFormula>SfW!C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="139">
+    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="132">
       <calculatedColumnFormula>SUM(AT29,AI49,AT49,AI69,AT69,AI89,AT89)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7450,225 +7447,225 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}" name="Table1114" displayName="Table1114" ref="P3:Y8" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}" name="Table1114" displayName="Table1114" ref="P3:Y8" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="P3:Y8" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B3B5C08C-655A-460A-A171-B3B0C826FF04}" name="Name" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{427944B0-44CA-4325-A406-29F83026BA5E}" name="Points" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{5E06D173-4DBE-4045-9072-0A0A77D19C84}" name="Average" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{E74131A4-1DCA-4A89-8989-A4CF80175582}" name="Finishes" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{FC3336D4-2CB5-4673-A345-7C9CCED7ADEE}" name="Averages" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{BD6313A7-5D92-4B66-9B85-7ABC12DE9691}" name="Midranges" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{6D0293BC-7E06-45CE-9D4B-FE4769DF9D9F}" name="Averages2" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{89C1C64B-DD66-482C-BCDE-8B912D2676EF}" name="Threes" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{7748B87C-1833-4BD6-9162-76373407E655}" name="Averages3" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{D870E191-A52F-442E-AA52-A42CFAD05573}" name="Missed Games" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{B3B5C08C-655A-460A-A171-B3B0C826FF04}" name="Name" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{427944B0-44CA-4325-A406-29F83026BA5E}" name="Points" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{5E06D173-4DBE-4045-9072-0A0A77D19C84}" name="Average" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{E74131A4-1DCA-4A89-8989-A4CF80175582}" name="Finishes" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{FC3336D4-2CB5-4673-A345-7C9CCED7ADEE}" name="Averages" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{BD6313A7-5D92-4B66-9B85-7ABC12DE9691}" name="Midranges" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{6D0293BC-7E06-45CE-9D4B-FE4769DF9D9F}" name="Averages2" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{89C1C64B-DD66-482C-BCDE-8B912D2676EF}" name="Threes" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{7748B87C-1833-4BD6-9162-76373407E655}" name="Averages3" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{D870E191-A52F-442E-AA52-A42CFAD05573}" name="Missed Games" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}" name="Table1113" displayName="Table1113" ref="M3:V8" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}" name="Table1113" displayName="Table1113" ref="M3:V8" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="M3:V8" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7790729E-C8E5-45C1-8784-25212A2654AA}" name="Name" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{52A67B2B-967C-4970-8D83-8F8E9CC61522}" name="Points" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{BA1FA2C8-AEC0-4644-83DB-5097750D7188}" name="Average" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{4CF66F5D-BF10-4CBD-88FF-CCD38730E1CD}" name="Finishes" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{BC246D5B-7E78-41A6-B796-C93ED8E53DF9}" name="Averages" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{AB819419-CC06-4A40-8DED-E231125129C0}" name="Midranges" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{064AA562-C451-4362-805E-D12DC76C3530}" name="Averages2" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{BD0D8BAE-15E4-4B38-87FE-B682D7BAEE75}" name="Threes" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{541E391B-4B08-4E98-A63F-753C11193269}" name="Averages3" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{999BB5D2-D6FB-4EB9-A268-D62EA72F939D}" name="Missed Games" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{7790729E-C8E5-45C1-8784-25212A2654AA}" name="Name" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{52A67B2B-967C-4970-8D83-8F8E9CC61522}" name="Points" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{BA1FA2C8-AEC0-4644-83DB-5097750D7188}" name="Average" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{4CF66F5D-BF10-4CBD-88FF-CCD38730E1CD}" name="Finishes" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{BC246D5B-7E78-41A6-B796-C93ED8E53DF9}" name="Averages" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{AB819419-CC06-4A40-8DED-E231125129C0}" name="Midranges" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{064AA562-C451-4362-805E-D12DC76C3530}" name="Averages2" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{BD0D8BAE-15E4-4B38-87FE-B682D7BAEE75}" name="Threes" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{541E391B-4B08-4E98-A63F-753C11193269}" name="Averages3" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{999BB5D2-D6FB-4EB9-A268-D62EA72F939D}" name="Missed Games" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}" name="Table11" displayName="Table11" ref="I4:R9" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="I4:R9" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}" name="Table11" displayName="Table11" ref="I4:R10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="I4:R10" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{CE15C23D-9493-4B21-9D40-1A25D210C18E}" name="Name" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{6BB170B1-AA38-4699-9B96-400D2947EE9C}" name="Points" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{EC8B6CBB-FCC9-416C-AEA6-738419DFE531}" name="Average" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{315DA055-9A43-468A-A501-1092626F523F}" name="Finishes" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{56B6FF4D-95D4-4550-88E4-C781ABDA83A6}" name="Averages" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{F7B5C0B8-FBE2-44B0-A372-112C7776FCCF}" name="Midranges" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{1A1C2126-FEB1-408F-8523-049E53028B4E}" name="Averages2" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{AE94036B-3777-4C1B-97D5-7BFA1037C0BF}" name="Threes" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{448B0903-7F66-40BA-809F-74ADBF397B45}" name="Averages3" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{E0CAC55D-8398-4928-A219-C01706996D48}" name="Missed Games" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{CE15C23D-9493-4B21-9D40-1A25D210C18E}" name="Name" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{6BB170B1-AA38-4699-9B96-400D2947EE9C}" name="Points" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{EC8B6CBB-FCC9-416C-AEA6-738419DFE531}" name="Average" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{315DA055-9A43-468A-A501-1092626F523F}" name="Finishes" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{56B6FF4D-95D4-4550-88E4-C781ABDA83A6}" name="Averages" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{F7B5C0B8-FBE2-44B0-A372-112C7776FCCF}" name="Midranges" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{1A1C2126-FEB1-408F-8523-049E53028B4E}" name="Averages2" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{AE94036B-3777-4C1B-97D5-7BFA1037C0BF}" name="Threes" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{448B0903-7F66-40BA-809F-74ADBF397B45}" name="Averages3" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{E0CAC55D-8398-4928-A219-C01706996D48}" name="Missed Games" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}" name="Table2" displayName="Table2" ref="Z28:AI44" totalsRowShown="0" headerRowDxfId="138" dataDxfId="137">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}" name="Table2" displayName="Table2" ref="Z28:AI44" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
   <autoFilter ref="Z28:AI44" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4DB7A2B8-7BD8-4BD7-8F53-2A7873A4EAAE}" name="Scoring" dataDxfId="136"/>
-    <tableColumn id="2" xr3:uid="{BE8EBD49-660A-4C9F-970E-230EBB942EF1}" name="Points" dataDxfId="135"/>
-    <tableColumn id="3" xr3:uid="{C2C49EF0-4D8C-4F8C-8D19-CDD1481D9568}" name="Finishes" dataDxfId="134"/>
-    <tableColumn id="4" xr3:uid="{7E789F8C-B8F3-4D6E-AB6C-C9454835B062}" name="Midranges" dataDxfId="133"/>
-    <tableColumn id="5" xr3:uid="{18C990F2-A6D0-4F57-B96A-D00066DCC8D8}" name="Threes" dataDxfId="132"/>
-    <tableColumn id="6" xr3:uid="{40526534-76CA-42BA-A8B6-AB092D9CE18F}" name="Avg P" dataDxfId="131"/>
-    <tableColumn id="7" xr3:uid="{693AF117-21F6-4887-B78D-D59235BABA44}" name="Avg F" dataDxfId="130"/>
-    <tableColumn id="8" xr3:uid="{02AC8FBF-EBB3-4AFC-BAC5-B773E33B7279}" name="Avg M" dataDxfId="129"/>
-    <tableColumn id="9" xr3:uid="{CCF75EB4-34C4-4D47-9D51-E8D85C07E38B}" name="Avg T" dataDxfId="128"/>
-    <tableColumn id="10" xr3:uid="{1A786A5C-D0C2-4ABC-904C-983180542D5F}" name="Missed Games" dataDxfId="127"/>
+    <tableColumn id="1" xr3:uid="{4DB7A2B8-7BD8-4BD7-8F53-2A7873A4EAAE}" name="Scoring" dataDxfId="129"/>
+    <tableColumn id="2" xr3:uid="{BE8EBD49-660A-4C9F-970E-230EBB942EF1}" name="Points" dataDxfId="128"/>
+    <tableColumn id="3" xr3:uid="{C2C49EF0-4D8C-4F8C-8D19-CDD1481D9568}" name="Finishes" dataDxfId="127"/>
+    <tableColumn id="4" xr3:uid="{7E789F8C-B8F3-4D6E-AB6C-C9454835B062}" name="Midranges" dataDxfId="126"/>
+    <tableColumn id="5" xr3:uid="{18C990F2-A6D0-4F57-B96A-D00066DCC8D8}" name="Threes" dataDxfId="125"/>
+    <tableColumn id="6" xr3:uid="{40526534-76CA-42BA-A8B6-AB092D9CE18F}" name="Avg P" dataDxfId="124"/>
+    <tableColumn id="7" xr3:uid="{693AF117-21F6-4887-B78D-D59235BABA44}" name="Avg F" dataDxfId="123"/>
+    <tableColumn id="8" xr3:uid="{02AC8FBF-EBB3-4AFC-BAC5-B773E33B7279}" name="Avg M" dataDxfId="122"/>
+    <tableColumn id="9" xr3:uid="{CCF75EB4-34C4-4D47-9D51-E8D85C07E38B}" name="Avg T" dataDxfId="121"/>
+    <tableColumn id="10" xr3:uid="{1A786A5C-D0C2-4ABC-904C-983180542D5F}" name="Missed Games" dataDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}" name="Table211" displayName="Table211" ref="AK28:AT44" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}" name="Table211" displayName="Table211" ref="AK28:AT44" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="AK28:AT44" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5D003608-C1C2-4694-9447-8632FB8D7348}" name="Scoring" dataDxfId="124"/>
-    <tableColumn id="2" xr3:uid="{D15F4085-CED5-4CDD-B43B-BF7EB59B45A3}" name="Points" dataDxfId="123"/>
-    <tableColumn id="3" xr3:uid="{2D436F37-54B6-4820-9145-F48B4EF9B294}" name="Finishes" dataDxfId="122"/>
-    <tableColumn id="4" xr3:uid="{1D9B6A22-B682-47F3-B738-7C138F317A41}" name="Midranges" dataDxfId="121"/>
-    <tableColumn id="5" xr3:uid="{9966C9A0-3872-44E9-BB39-05DE197EAA68}" name="Threes" dataDxfId="120"/>
-    <tableColumn id="6" xr3:uid="{CC4AB646-735F-425F-8528-C5EFE7FE11DC}" name="Avg P" dataDxfId="119"/>
-    <tableColumn id="7" xr3:uid="{F8D0247E-C6F7-467A-9F38-46084D44F8AB}" name="Avg F" dataDxfId="118"/>
-    <tableColumn id="8" xr3:uid="{7CCF1C77-9DB0-4EB2-B7D0-FD0BDBEBFA0E}" name="Avg M" dataDxfId="117"/>
-    <tableColumn id="9" xr3:uid="{582A1A4E-5383-4383-A480-735408867046}" name="Avg T" dataDxfId="116"/>
-    <tableColumn id="10" xr3:uid="{E547AEB5-F9BA-4C5F-8DCE-34B6A8FF303A}" name="Missed Games" dataDxfId="115"/>
+    <tableColumn id="1" xr3:uid="{5D003608-C1C2-4694-9447-8632FB8D7348}" name="Scoring" dataDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{D15F4085-CED5-4CDD-B43B-BF7EB59B45A3}" name="Points" dataDxfId="116"/>
+    <tableColumn id="3" xr3:uid="{2D436F37-54B6-4820-9145-F48B4EF9B294}" name="Finishes" dataDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{1D9B6A22-B682-47F3-B738-7C138F317A41}" name="Midranges" dataDxfId="114"/>
+    <tableColumn id="5" xr3:uid="{9966C9A0-3872-44E9-BB39-05DE197EAA68}" name="Threes" dataDxfId="113"/>
+    <tableColumn id="6" xr3:uid="{CC4AB646-735F-425F-8528-C5EFE7FE11DC}" name="Avg P" dataDxfId="112"/>
+    <tableColumn id="7" xr3:uid="{F8D0247E-C6F7-467A-9F38-46084D44F8AB}" name="Avg F" dataDxfId="111"/>
+    <tableColumn id="8" xr3:uid="{7CCF1C77-9DB0-4EB2-B7D0-FD0BDBEBFA0E}" name="Avg M" dataDxfId="110"/>
+    <tableColumn id="9" xr3:uid="{582A1A4E-5383-4383-A480-735408867046}" name="Avg T" dataDxfId="109"/>
+    <tableColumn id="10" xr3:uid="{E547AEB5-F9BA-4C5F-8DCE-34B6A8FF303A}" name="Missed Games" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}" name="Table21123" displayName="Table21123" ref="Z48:AI64" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}" name="Table21123" displayName="Table21123" ref="Z48:AI64" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="Z48:AI64" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0B0344E8-2677-4FAB-9B03-4745991FB5AE}" name="Scoring" dataDxfId="112"/>
-    <tableColumn id="2" xr3:uid="{58CA1107-8BB4-4A5D-BA00-31619C8D3973}" name="Points" dataDxfId="111"/>
-    <tableColumn id="3" xr3:uid="{8090861E-1FDF-44F4-9DB6-BB814E32C754}" name="Finishes" dataDxfId="110"/>
-    <tableColumn id="4" xr3:uid="{972D0347-DAB3-4985-A738-E5D78740D498}" name="Midranges" dataDxfId="109"/>
-    <tableColumn id="5" xr3:uid="{48F5F884-1753-4988-9056-632B5EB6BBCB}" name="Threes" dataDxfId="108"/>
-    <tableColumn id="6" xr3:uid="{6953B627-EA05-418F-A758-FD59263EA60D}" name="Avg P" dataDxfId="107"/>
-    <tableColumn id="7" xr3:uid="{BE057C9C-5ECD-4AC2-A9C0-18C89CFB52BC}" name="Avg F" dataDxfId="106"/>
-    <tableColumn id="8" xr3:uid="{0FDEBEE7-CD5E-4A44-A0AE-74F044F1FF46}" name="Avg M" dataDxfId="105"/>
-    <tableColumn id="9" xr3:uid="{76975BB6-3677-41A8-BC24-7536B1D876D3}" name="Avg T" dataDxfId="104"/>
-    <tableColumn id="10" xr3:uid="{E5ADB69B-3BA2-4019-8C83-8B02221F187E}" name="Missed Games" dataDxfId="103"/>
+    <tableColumn id="1" xr3:uid="{0B0344E8-2677-4FAB-9B03-4745991FB5AE}" name="Scoring" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{58CA1107-8BB4-4A5D-BA00-31619C8D3973}" name="Points" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{8090861E-1FDF-44F4-9DB6-BB814E32C754}" name="Finishes" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{972D0347-DAB3-4985-A738-E5D78740D498}" name="Midranges" dataDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{48F5F884-1753-4988-9056-632B5EB6BBCB}" name="Threes" dataDxfId="101"/>
+    <tableColumn id="6" xr3:uid="{6953B627-EA05-418F-A758-FD59263EA60D}" name="Avg P" dataDxfId="100"/>
+    <tableColumn id="7" xr3:uid="{BE057C9C-5ECD-4AC2-A9C0-18C89CFB52BC}" name="Avg F" dataDxfId="99"/>
+    <tableColumn id="8" xr3:uid="{0FDEBEE7-CD5E-4A44-A0AE-74F044F1FF46}" name="Avg M" dataDxfId="98"/>
+    <tableColumn id="9" xr3:uid="{76975BB6-3677-41A8-BC24-7536B1D876D3}" name="Avg T" dataDxfId="97"/>
+    <tableColumn id="10" xr3:uid="{E5ADB69B-3BA2-4019-8C83-8B02221F187E}" name="Missed Games" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}" name="Table21124" displayName="Table21124" ref="AK48:AT64" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}" name="Table21124" displayName="Table21124" ref="AK48:AT64" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="AK48:AT64" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3D35891E-3654-497A-8DB2-BF0BD916CA29}" name="Scoring" dataDxfId="100"/>
-    <tableColumn id="2" xr3:uid="{54B5B6AF-372A-4E07-B4D6-DFC66F7E20C5}" name="Points" dataDxfId="99"/>
-    <tableColumn id="3" xr3:uid="{6CA15B41-F560-4B43-8836-163F5BB5689C}" name="Finishes" dataDxfId="98"/>
-    <tableColumn id="4" xr3:uid="{8FF05262-0051-44F7-966E-8D405318BA69}" name="Midranges" dataDxfId="97"/>
-    <tableColumn id="5" xr3:uid="{F0D843FC-7A93-4C9A-BCCF-E789F7811B3B}" name="Threes" dataDxfId="96"/>
-    <tableColumn id="6" xr3:uid="{F0498F8A-F646-4C1F-A3CF-E89E73750FC1}" name="Avg P" dataDxfId="95"/>
-    <tableColumn id="7" xr3:uid="{A387BC88-F45C-4386-8503-EFEA33BDAC38}" name="Avg F" dataDxfId="94"/>
-    <tableColumn id="8" xr3:uid="{BEA82919-0828-4351-A01A-D72E13E63FAB}" name="Avg M" dataDxfId="93"/>
-    <tableColumn id="9" xr3:uid="{ABEBCE01-BCA4-4342-966C-27301889B607}" name="Avg T" dataDxfId="92"/>
-    <tableColumn id="10" xr3:uid="{65E7A8E7-4C51-42E4-AB0F-B7FF6099D70A}" name="Missed Games" dataDxfId="91"/>
+    <tableColumn id="1" xr3:uid="{3D35891E-3654-497A-8DB2-BF0BD916CA29}" name="Scoring" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{54B5B6AF-372A-4E07-B4D6-DFC66F7E20C5}" name="Points" dataDxfId="92"/>
+    <tableColumn id="3" xr3:uid="{6CA15B41-F560-4B43-8836-163F5BB5689C}" name="Finishes" dataDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{8FF05262-0051-44F7-966E-8D405318BA69}" name="Midranges" dataDxfId="90"/>
+    <tableColumn id="5" xr3:uid="{F0D843FC-7A93-4C9A-BCCF-E789F7811B3B}" name="Threes" dataDxfId="89"/>
+    <tableColumn id="6" xr3:uid="{F0498F8A-F646-4C1F-A3CF-E89E73750FC1}" name="Avg P" dataDxfId="88"/>
+    <tableColumn id="7" xr3:uid="{A387BC88-F45C-4386-8503-EFEA33BDAC38}" name="Avg F" dataDxfId="87"/>
+    <tableColumn id="8" xr3:uid="{BEA82919-0828-4351-A01A-D72E13E63FAB}" name="Avg M" dataDxfId="86"/>
+    <tableColumn id="9" xr3:uid="{ABEBCE01-BCA4-4342-966C-27301889B607}" name="Avg T" dataDxfId="85"/>
+    <tableColumn id="10" xr3:uid="{65E7A8E7-4C51-42E4-AB0F-B7FF6099D70A}" name="Missed Games" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}" name="Table21125" displayName="Table21125" ref="AK68:AT84" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}" name="Table21125" displayName="Table21125" ref="AK68:AT84" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="AK68:AT84" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D144EF14-69FD-4E71-90C7-56F49F45FAE5}" name="Scoring" dataDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{34D1D392-F3E0-4C36-9EED-849D5B1149E6}" name="Points" dataDxfId="87"/>
-    <tableColumn id="3" xr3:uid="{E91D98A2-80BD-4E5C-9036-2FCC8185369F}" name="Finishes" dataDxfId="86"/>
-    <tableColumn id="4" xr3:uid="{D2E5029E-4811-4E9B-9A2D-5F5F8F322B0D}" name="Midranges" dataDxfId="85"/>
-    <tableColumn id="5" xr3:uid="{B3E76CEE-33DA-4B18-8DCE-8EBC7EE592D7}" name="Threes" dataDxfId="84"/>
-    <tableColumn id="6" xr3:uid="{6ABE1879-8018-4498-A9A1-22CF831F0364}" name="Avg P" dataDxfId="83"/>
-    <tableColumn id="7" xr3:uid="{8DA4DD79-8A2A-49E4-996F-C1ACCED3C565}" name="Avg F" dataDxfId="82"/>
-    <tableColumn id="8" xr3:uid="{256EA4BC-BA61-49E2-969F-0786AA9AA6EA}" name="Avg M" dataDxfId="81"/>
-    <tableColumn id="9" xr3:uid="{0E5566B2-99EC-4B03-A074-8705C4EDA484}" name="Avg T" dataDxfId="80"/>
-    <tableColumn id="10" xr3:uid="{3E2357F0-493E-401D-AC75-9AAB260F684E}" name="Missed Games" dataDxfId="79"/>
+    <tableColumn id="1" xr3:uid="{D144EF14-69FD-4E71-90C7-56F49F45FAE5}" name="Scoring" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{34D1D392-F3E0-4C36-9EED-849D5B1149E6}" name="Points" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{E91D98A2-80BD-4E5C-9036-2FCC8185369F}" name="Finishes" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{D2E5029E-4811-4E9B-9A2D-5F5F8F322B0D}" name="Midranges" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{B3E76CEE-33DA-4B18-8DCE-8EBC7EE592D7}" name="Threes" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{6ABE1879-8018-4498-A9A1-22CF831F0364}" name="Avg P" dataDxfId="76"/>
+    <tableColumn id="7" xr3:uid="{8DA4DD79-8A2A-49E4-996F-C1ACCED3C565}" name="Avg F" dataDxfId="75"/>
+    <tableColumn id="8" xr3:uid="{256EA4BC-BA61-49E2-969F-0786AA9AA6EA}" name="Avg M" dataDxfId="74"/>
+    <tableColumn id="9" xr3:uid="{0E5566B2-99EC-4B03-A074-8705C4EDA484}" name="Avg T" dataDxfId="73"/>
+    <tableColumn id="10" xr3:uid="{3E2357F0-493E-401D-AC75-9AAB260F684E}" name="Missed Games" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}" name="Table21126" displayName="Table21126" ref="Z68:AI84" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}" name="Table21126" displayName="Table21126" ref="Z68:AI84" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="Z68:AI84" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7723929D-65B3-40BB-8FDD-C4533243706C}" name="Scoring" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{EC28DE3D-619E-4930-A3AF-7AD1BE1D4843}" name="Points" dataDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{9537269D-8C1D-42B5-866F-D03CE61A8512}" name="Finishes" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{AC590DDB-BE19-4A14-8B98-1E5E2430AA45}" name="Midranges" dataDxfId="73"/>
-    <tableColumn id="5" xr3:uid="{C96D3ACD-F34D-477E-86DE-4650EE56BC94}" name="Threes" dataDxfId="72"/>
-    <tableColumn id="6" xr3:uid="{A43DE5E9-BB01-49FA-A204-66EE7BAA2E9F}" name="Avg P" dataDxfId="71"/>
-    <tableColumn id="7" xr3:uid="{C75A19FF-6041-45C2-BACB-E347F06B6329}" name="Avg F" dataDxfId="70"/>
-    <tableColumn id="8" xr3:uid="{00D3FCFC-C9C5-4C96-BE0E-8E1FDC95D07C}" name="Avg M" dataDxfId="69"/>
-    <tableColumn id="9" xr3:uid="{0448FF4E-9D2D-47F6-89B7-F17D36B05E8A}" name="Avg T" dataDxfId="68"/>
-    <tableColumn id="10" xr3:uid="{D5BDFA2D-095B-44F8-8567-15B3B1520E5A}" name="Missed Games" dataDxfId="67"/>
+    <tableColumn id="1" xr3:uid="{7723929D-65B3-40BB-8FDD-C4533243706C}" name="Scoring" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{EC28DE3D-619E-4930-A3AF-7AD1BE1D4843}" name="Points" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{9537269D-8C1D-42B5-866F-D03CE61A8512}" name="Finishes" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{AC590DDB-BE19-4A14-8B98-1E5E2430AA45}" name="Midranges" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{C96D3ACD-F34D-477E-86DE-4650EE56BC94}" name="Threes" dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{A43DE5E9-BB01-49FA-A204-66EE7BAA2E9F}" name="Avg P" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{C75A19FF-6041-45C2-BACB-E347F06B6329}" name="Avg F" dataDxfId="63"/>
+    <tableColumn id="8" xr3:uid="{00D3FCFC-C9C5-4C96-BE0E-8E1FDC95D07C}" name="Avg M" dataDxfId="62"/>
+    <tableColumn id="9" xr3:uid="{0448FF4E-9D2D-47F6-89B7-F17D36B05E8A}" name="Avg T" dataDxfId="61"/>
+    <tableColumn id="10" xr3:uid="{D5BDFA2D-095B-44F8-8567-15B3B1520E5A}" name="Missed Games" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}" name="Table21127" displayName="Table21127" ref="Z88:AI104" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}" name="Table21127" displayName="Table21127" ref="Z88:AI104" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="Z88:AI104" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{9DBD966D-620C-4B97-A502-29D00ABE150B}" name="Scoring" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{F8F81F0E-16B3-4472-9D90-A92149C763E4}" name="Points" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{09859CE1-290D-4977-B02C-46F4E5A6FDC2}" name="Finishes" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{7D751A0E-2895-46DF-B5E2-5A8AA5531CD2}" name="Midranges" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{591CDC71-B0EA-413B-B6C1-77884E7E50D4}" name="Threes" dataDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{52ED768C-5557-42DC-9824-7A4D9B547153}" name="Avg P" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{FC79BE87-72E2-4F5E-83D6-CDCE645EB943}" name="Avg F" dataDxfId="58"/>
-    <tableColumn id="8" xr3:uid="{BA012C22-0D65-4C11-98A7-4F958703D04B}" name="Avg M" dataDxfId="57"/>
-    <tableColumn id="9" xr3:uid="{63344F2B-5D94-417D-85E2-C2BFBACE3E7E}" name="Avg T" dataDxfId="56"/>
-    <tableColumn id="10" xr3:uid="{1AD5A604-8909-45B3-8E43-11D407451CEA}" name="Missed Games" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{9DBD966D-620C-4B97-A502-29D00ABE150B}" name="Scoring" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{F8F81F0E-16B3-4472-9D90-A92149C763E4}" name="Points" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{09859CE1-290D-4977-B02C-46F4E5A6FDC2}" name="Finishes" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{7D751A0E-2895-46DF-B5E2-5A8AA5531CD2}" name="Midranges" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{591CDC71-B0EA-413B-B6C1-77884E7E50D4}" name="Threes" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{52ED768C-5557-42DC-9824-7A4D9B547153}" name="Avg P" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{FC79BE87-72E2-4F5E-83D6-CDCE645EB943}" name="Avg F" dataDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{BA012C22-0D65-4C11-98A7-4F958703D04B}" name="Avg M" dataDxfId="50"/>
+    <tableColumn id="9" xr3:uid="{63344F2B-5D94-417D-85E2-C2BFBACE3E7E}" name="Avg T" dataDxfId="49"/>
+    <tableColumn id="10" xr3:uid="{1AD5A604-8909-45B3-8E43-11D407451CEA}" name="Missed Games" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}" name="Table21128" displayName="Table21128" ref="AK88:AT104" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}" name="Table21128" displayName="Table21128" ref="AK88:AT104" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="AK88:AT104" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{E62FBAA0-D6F6-4997-96C9-B6B13FAA9B6E}" name="Scoring" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{0A655F6F-9A21-4167-85B6-B9F7DC2070CA}" name="Points" dataDxfId="51">
+    <tableColumn id="1" xr3:uid="{E62FBAA0-D6F6-4997-96C9-B6B13FAA9B6E}" name="Scoring" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{0A655F6F-9A21-4167-85B6-B9F7DC2070CA}" name="Points" dataDxfId="44">
       <calculatedColumnFormula>Template!AC51</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{460771D3-3BD8-4DA3-AF1B-1A0F98EF1499}" name="Finishes" dataDxfId="50">
+    <tableColumn id="3" xr3:uid="{460771D3-3BD8-4DA3-AF1B-1A0F98EF1499}" name="Finishes" dataDxfId="43">
       <calculatedColumnFormula>Template!AD51</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3C08B2D7-823D-49C3-A627-A5848E664B2F}" name="Midranges" dataDxfId="49">
+    <tableColumn id="4" xr3:uid="{3C08B2D7-823D-49C3-A627-A5848E664B2F}" name="Midranges" dataDxfId="42">
       <calculatedColumnFormula>Template!AE51</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E88F45FB-4C46-4674-86D5-74808E7E5368}" name="Threes" dataDxfId="48">
+    <tableColumn id="5" xr3:uid="{E88F45FB-4C46-4674-86D5-74808E7E5368}" name="Threes" dataDxfId="41">
       <calculatedColumnFormula>Template!AF51</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0C0E8016-1E6E-4F25-9675-4EE061FFD0F7}" name="Avg P" dataDxfId="47">
+    <tableColumn id="6" xr3:uid="{0C0E8016-1E6E-4F25-9675-4EE061FFD0F7}" name="Avg P" dataDxfId="40">
       <calculatedColumnFormula>AL89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F7AC350B-AE4B-4912-B21D-16D99E2AE8BF}" name="Avg F" dataDxfId="46">
+    <tableColumn id="7" xr3:uid="{F7AC350B-AE4B-4912-B21D-16D99E2AE8BF}" name="Avg F" dataDxfId="39">
       <calculatedColumnFormula>AM89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F451E5CA-B9C4-4EFA-A647-CEDB2FB39550}" name="Avg M" dataDxfId="45">
+    <tableColumn id="8" xr3:uid="{F451E5CA-B9C4-4EFA-A647-CEDB2FB39550}" name="Avg M" dataDxfId="38">
       <calculatedColumnFormula>AN89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ED1D92B5-05F1-40CE-A89F-E6627FAB4A59}" name="Avg T" dataDxfId="44">
+    <tableColumn id="9" xr3:uid="{ED1D92B5-05F1-40CE-A89F-E6627FAB4A59}" name="Avg T" dataDxfId="37">
       <calculatedColumnFormula>AO89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{48A4808A-3DE6-4644-83F5-C2AEDDFC3E5E}" name="Missed Games" dataDxfId="43">
+    <tableColumn id="10" xr3:uid="{48A4808A-3DE6-4644-83F5-C2AEDDFC3E5E}" name="Missed Games" dataDxfId="36">
       <calculatedColumnFormula>COUNTIF(Template!AG63, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7877,8 +7874,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:AE1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="49" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:B46"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="T46" sqref="T46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7978,7 +7975,7 @@
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="116" t="s">
         <v>177</v>
       </c>
       <c r="D3" s="5">
@@ -8047,7 +8044,7 @@
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="105" t="s">
         <v>175</v>
       </c>
       <c r="D4" s="5">
@@ -8112,7 +8109,7 @@
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="116" t="s">
         <v>177</v>
       </c>
       <c r="D5" s="5">
@@ -8181,16 +8178,16 @@
       <c r="AD5" t="s">
         <v>200</v>
       </c>
-      <c r="AE5" t="e">
+      <c r="AE5" t="str">
         <f>'Statistics CT'!G45</f>
-        <v>#DIV/0!</v>
+        <v>0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="6" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="116" t="s">
         <v>177</v>
       </c>
       <c r="D6" s="5">
@@ -8277,7 +8274,7 @@
       <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="116" t="s">
         <v>175</v>
       </c>
       <c r="D7" s="5">
@@ -8352,7 +8349,7 @@
       <c r="B8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="117" t="s">
+      <c r="C8" s="116" t="s">
         <v>175</v>
       </c>
       <c r="D8" s="5">
@@ -8427,7 +8424,7 @@
       <c r="B9" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="116" t="s">
         <v>176</v>
       </c>
       <c r="D9" s="5">
@@ -8487,16 +8484,16 @@
       <c r="AD9" t="s">
         <v>204</v>
       </c>
-      <c r="AE9" t="e">
+      <c r="AE9" t="str">
         <f>'Statistics TC'!H45</f>
-        <v>#DIV/0!</v>
+        <v>0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="10" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="106" t="s">
+      <c r="C10" s="105" t="s">
         <v>176</v>
       </c>
       <c r="D10" s="5">
@@ -8582,7 +8579,7 @@
       <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="114" t="s">
         <v>176</v>
       </c>
       <c r="D11" s="5">
@@ -8669,7 +8666,7 @@
       <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="117" t="s">
+      <c r="C12" s="116" t="s">
         <v>175</v>
       </c>
       <c r="D12" s="5">
@@ -8750,7 +8747,7 @@
       <c r="B13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="106" t="s">
+      <c r="C13" s="105" t="s">
         <v>177</v>
       </c>
       <c r="D13" s="5">
@@ -8812,16 +8809,16 @@
       <c r="AD13" t="s">
         <v>208</v>
       </c>
-      <c r="AE13" t="e">
+      <c r="AE13" t="str">
         <f>'Statistics GM'!H34</f>
-        <v>#DIV/0!</v>
+        <v>0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="14" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="117" t="s">
+      <c r="C14" s="116" t="s">
         <v>176</v>
       </c>
       <c r="D14" s="5">
@@ -8905,7 +8902,7 @@
       <c r="B15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="116" t="s">
         <v>177</v>
       </c>
       <c r="D15" s="5">
@@ -8982,7 +8979,7 @@
       <c r="B16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="117" t="s">
+      <c r="C16" s="116" t="s">
         <v>176</v>
       </c>
       <c r="D16" s="5">
@@ -9065,7 +9062,7 @@
       <c r="B17" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C17" s="117" t="s">
+      <c r="C17" s="116" t="s">
         <v>175</v>
       </c>
       <c r="D17" s="5">
@@ -9134,10 +9131,10 @@
       </c>
     </row>
     <row r="18" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="128" t="s">
+      <c r="B18" s="127" t="s">
         <v>210</v>
       </c>
-      <c r="C18" s="129" t="s">
+      <c r="C18" s="128" t="s">
         <v>175</v>
       </c>
       <c r="D18" s="5">
@@ -9180,7 +9177,7 @@
         <f>"Drafted by "&amp;C18</f>
         <v>Drafted by Gentle, Men</v>
       </c>
-      <c r="V18" s="128" t="str">
+      <c r="V18" s="127" t="str">
         <f>IF(C18="Gentle, Men", $Y$3, IF(C18="Choc-Tops", $Y$4, IF(C18="Traffic Controllers", $Y$5, $Y$6)))</f>
         <v>../Images/GM_Final.png</v>
       </c>
@@ -9210,9 +9207,9 @@
       <c r="Y19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD19" s="35" t="e">
+      <c r="AD19" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>"PartCCT":[0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="20" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -9239,10 +9236,10 @@
       </c>
     </row>
     <row r="22" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="B22" s="130" t="s">
+      <c r="B22" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="130"/>
+      <c r="C22" s="132"/>
       <c r="D22" s="64"/>
       <c r="Y22" s="1" t="s">
         <v>104</v>
@@ -9253,15 +9250,15 @@
       </c>
     </row>
     <row r="23" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="B23" s="130"/>
-      <c r="C23" s="130"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
       <c r="D23" s="64"/>
       <c r="Y23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AD23" s="35" t="e">
+      <c r="AD23" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>"PartCTC":[0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="24" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
@@ -9276,7 +9273,7 @@
       </c>
     </row>
     <row r="25" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="B25" s="118" t="str">
+      <c r="B25" s="117" t="str">
         <f>B49&amp;":["&amp;B50&amp;B51&amp;B52&amp;B53&amp;B54&amp;B55&amp;B56&amp;B57&amp;B58&amp;B59&amp;B60&amp;B61&amp;B62&amp;B63&amp;B64&amp;B65&amp;"],"</f>
         <v>"Name":["Jasper Collier","Conor Farrington","Alexander Galt","Rudy Hoschke","Michael Iffland","Lukas Johnston","Sam James","Clarrie Jones","William Kim","Samuel McConaghy","Ryan Pattemore","Nicholas Szogi","Christopher Tomkinson","Angus Walker","Will Weekes","Mitch Yue"],</v>
       </c>
@@ -9295,7 +9292,7 @@
       </c>
     </row>
     <row r="26" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="B26" s="118" t="str">
+      <c r="B26" s="117" t="str">
         <f>C49&amp;":["&amp;C50&amp;C51&amp;C52&amp;C53&amp;C54&amp;C55&amp;C56&amp;C57&amp;C58&amp;C59&amp;C60&amp;C61&amp;C62&amp;C63&amp;C64&amp;C65&amp;"],"</f>
         <v>"Team":["Choc-Tops","Gentle, Men","Choc-Tops","Choc-Tops","Gentle, Men","Gentle, Men","Traffic Controllers","Traffic Controllers","Traffic Controllers","Gentle, Men","Choc-Tops","Traffic Controllers","Choc-Tops","Traffic Controllers","Gentle, Men","Gentle, Men"],</v>
       </c>
@@ -9307,13 +9304,13 @@
       </c>
     </row>
     <row r="27" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="118" t="str">
+      <c r="B27" s="117" t="str">
         <f>D49&amp;":["&amp;D50&amp;D51&amp;D52&amp;D53&amp;D54&amp;D55&amp;D56&amp;D57&amp;D58&amp;D59&amp;D60&amp;D61&amp;D62&amp;D63&amp;D64&amp;D65&amp;"],"</f>
         <v>"PPG":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,"0"],</v>
       </c>
-      <c r="AD27" s="35" t="e">
+      <c r="AD27" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>"PartCGM":[0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="28" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -11943,9 +11940,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:BC1000"/>
   <sheetViews>
-    <sheetView zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI16" sqref="AI16:AI23"/>
-    </sheetView>
+    <sheetView zoomScale="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -12042,22 +12037,22 @@
       </c>
     </row>
     <row r="5" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="126"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="126"/>
       <c r="S5" s="1" t="s">
         <v>70</v>
       </c>
@@ -12101,15 +12096,15 @@
         <f>SUM(C5:E40)/COUNT(C5:C40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T6" s="116" t="e">
+      <c r="T6" s="115" t="e">
         <f>AVERAGE(C5:C40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U6" s="116" t="e">
+      <c r="U6" s="115" t="e">
         <f>AVERAGE(D5:D40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V6" s="116" t="e">
+      <c r="V6" s="115" t="e">
         <f>AVERAGE(E5:E40)</f>
         <v>#DIV/0!</v>
       </c>
@@ -12215,19 +12210,19 @@
       <c r="AS7" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="AT7" s="93" t="s">
+      <c r="AT7" s="92" t="s">
         <v>161</v>
       </c>
-      <c r="AU7" s="95" t="s">
+      <c r="AU7" s="94" t="s">
         <v>162</v>
       </c>
       <c r="AW7" s="1"/>
-      <c r="AX7" s="92"/>
-      <c r="AY7" s="92"/>
-      <c r="AZ7" s="92"/>
-      <c r="BA7" s="92"/>
-      <c r="BB7" s="92"/>
-      <c r="BC7" s="92"/>
+      <c r="AX7" s="91"/>
+      <c r="AY7" s="91"/>
+      <c r="AZ7" s="91"/>
+      <c r="BA7" s="91"/>
+      <c r="BB7" s="91"/>
+      <c r="BC7" s="91"/>
     </row>
     <row r="8" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="50"/>
@@ -12247,47 +12242,47 @@
       <c r="O8" s="74"/>
       <c r="P8" s="74"/>
       <c r="Q8" s="74"/>
-      <c r="Z8" s="99" t="str">
+      <c r="Z8" s="98" t="str">
         <f>SfW!B3</f>
         <v>Jasper Collier</v>
       </c>
-      <c r="AA8" s="100">
+      <c r="AA8" s="99">
         <f t="shared" ref="AA8:AA23" si="0">SUM(AL29,AA49,AL49,AA69,AL69,AA89,AL89)</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="101">
+      <c r="AB8" s="100">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AC8" s="102">
+      <c r="AC8" s="101">
         <f t="shared" ref="AC8:AC23" si="1">SUM(AM29,AB49,AM49,AB69,AM69,AB89,AM89)</f>
         <v>0</v>
       </c>
-      <c r="AD8" s="99">
+      <c r="AD8" s="98">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="102">
+      <c r="AE8" s="101">
         <f t="shared" ref="AE8:AE23" si="2">SUM(AN29,AC49,AN49,AC69,AN69,AC89,AN89)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="99">
+      <c r="AF8" s="98">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AG8" s="102">
+      <c r="AG8" s="101">
         <f t="shared" ref="AG8:AG23" si="3">SUM(AO29,AD49,AO49,AD69,AO69,AD89,AO89)</f>
         <v>0</v>
       </c>
-      <c r="AH8" s="99">
+      <c r="AH8" s="98">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AI8" s="99" t="str">
+      <c r="AI8" s="98" t="str">
         <f>SfW!C3</f>
         <v>Choc-Tops</v>
       </c>
-      <c r="AJ8" s="103">
+      <c r="AJ8" s="102">
         <f t="shared" ref="AJ8:AJ23" si="4">SUM(AT29,AI49,AT49,AI69,AT69,AI89,AT89)</f>
         <v>0</v>
       </c>
@@ -12320,7 +12315,7 @@
         <f>Table1[[#This Row],[Points]]/(20-AA$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
-      <c r="AT8" s="94">
+      <c r="AT8" s="93">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R8</f>
         <v>-0.41176470588235292</v>
       </c>
@@ -12348,47 +12343,47 @@
       <c r="O9" s="74"/>
       <c r="P9" s="74"/>
       <c r="Q9" s="74"/>
-      <c r="Z9" s="99" t="str">
+      <c r="Z9" s="98" t="str">
         <f>SfW!B4</f>
         <v>Conor Farrington</v>
       </c>
-      <c r="AA9" s="100">
+      <c r="AA9" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB9" s="101">
+      <c r="AB9" s="100">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AC9" s="102">
+      <c r="AC9" s="101">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="99">
+      <c r="AD9" s="98">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AE9" s="102">
+      <c r="AE9" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="99">
+      <c r="AF9" s="98">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AG9" s="102">
+      <c r="AG9" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH9" s="99">
+      <c r="AH9" s="98">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AI9" s="99" t="str">
+      <c r="AI9" s="98" t="str">
         <f>SfW!C4</f>
         <v>Gentle, Men</v>
       </c>
-      <c r="AJ9" s="103">
+      <c r="AJ9" s="102">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -12421,7 +12416,7 @@
         <f>Table1[[#This Row],[Points]]/(20-AA$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
-      <c r="AT9" s="94">
+      <c r="AT9" s="93">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R9</f>
         <v>-0.6</v>
       </c>
@@ -12449,7 +12444,7 @@
       <c r="O10" s="74"/>
       <c r="P10" s="74"/>
       <c r="Q10" s="74"/>
-      <c r="Z10" s="99" t="str">
+      <c r="Z10" s="98" t="str">
         <f>SfW!B5</f>
         <v>Alexander Galt</v>
       </c>
@@ -12522,7 +12517,7 @@
         <f>Table1[[#This Row],[Points]]/(20-AA$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
-      <c r="AT10" s="94">
+      <c r="AT10" s="93">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R10</f>
         <v>-3.1428571428571428</v>
       </c>
@@ -12550,7 +12545,7 @@
       <c r="O11" s="74"/>
       <c r="P11" s="74"/>
       <c r="Q11" s="74"/>
-      <c r="Z11" s="99" t="str">
+      <c r="Z11" s="98" t="str">
         <f>SfW!B6</f>
         <v>Rudy Hoschke</v>
       </c>
@@ -12623,7 +12618,7 @@
         <f>Table1[[#This Row],[Points]]/(20-AA$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
-      <c r="AT11" s="94">
+      <c r="AT11" s="93">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R11</f>
         <v>-2.8125</v>
       </c>
@@ -12651,7 +12646,7 @@
       <c r="O12" s="74"/>
       <c r="P12" s="74"/>
       <c r="Q12" s="74"/>
-      <c r="Z12" s="99" t="str">
+      <c r="Z12" s="98" t="str">
         <f>SfW!B7</f>
         <v>Michael Iffland</v>
       </c>
@@ -12715,7 +12710,7 @@
         <f>Table1[[#This Row],[Points]]/(20-AA$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
-      <c r="AT12" s="94">
+      <c r="AT12" s="93">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R12</f>
         <v>-2.0588235294117645</v>
       </c>
@@ -12743,47 +12738,47 @@
       <c r="O13" s="74"/>
       <c r="P13" s="74"/>
       <c r="Q13" s="74"/>
-      <c r="Z13" s="99" t="str">
+      <c r="Z13" s="98" t="str">
         <f>SfW!B8</f>
         <v>Lukas Johnston</v>
       </c>
-      <c r="AA13" s="100">
+      <c r="AA13" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="101">
+      <c r="AB13" s="100">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="102">
+      <c r="AC13" s="101">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="99">
+      <c r="AD13" s="98">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="102">
+      <c r="AE13" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="99">
+      <c r="AF13" s="98">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AG13" s="102">
+      <c r="AG13" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH13" s="99">
+      <c r="AH13" s="98">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AI13" s="99" t="str">
+      <c r="AI13" s="98" t="str">
         <f>SfW!C8</f>
         <v>Gentle, Men</v>
       </c>
-      <c r="AJ13" s="103">
+      <c r="AJ13" s="102">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -12807,7 +12802,7 @@
         <f>Table1[[#This Row],[Points]]/(20-AA$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
-      <c r="AT13" s="94">
+      <c r="AT13" s="93">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R13</f>
         <v>-1.1428571428571428</v>
       </c>
@@ -12835,47 +12830,47 @@
       <c r="O14" s="74"/>
       <c r="P14" s="74"/>
       <c r="Q14" s="74"/>
-      <c r="Z14" s="99" t="str">
+      <c r="Z14" s="98" t="str">
         <f>SfW!B9</f>
         <v>Sam James</v>
       </c>
-      <c r="AA14" s="100">
+      <c r="AA14" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="101">
+      <c r="AB14" s="100">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AC14" s="102">
+      <c r="AC14" s="101">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="99">
+      <c r="AD14" s="98">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AE14" s="102">
+      <c r="AE14" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="99">
+      <c r="AF14" s="98">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AG14" s="102">
+      <c r="AG14" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH14" s="99">
+      <c r="AH14" s="98">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AI14" s="99" t="str">
+      <c r="AI14" s="98" t="str">
         <f>SfW!C9</f>
         <v>Traffic Controllers</v>
       </c>
-      <c r="AJ14" s="103">
+      <c r="AJ14" s="102">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -12899,7 +12894,7 @@
         <f>Table1[[#This Row],[Points]]/(20-AA$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
-      <c r="AT14" s="94">
+      <c r="AT14" s="93">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R23</f>
         <v>-0.3125</v>
       </c>
@@ -12926,47 +12921,47 @@
       <c r="O15" s="74"/>
       <c r="P15" s="74"/>
       <c r="Q15" s="74"/>
-      <c r="Z15" s="99" t="str">
+      <c r="Z15" s="98" t="str">
         <f>SfW!B10</f>
         <v>Clarrie Jones</v>
       </c>
-      <c r="AA15" s="100">
+      <c r="AA15" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="101">
+      <c r="AB15" s="100">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AC15" s="102">
+      <c r="AC15" s="101">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="99">
+      <c r="AD15" s="98">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AE15" s="102">
+      <c r="AE15" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="99">
+      <c r="AF15" s="98">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AG15" s="102">
+      <c r="AG15" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH15" s="99">
+      <c r="AH15" s="98">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AI15" s="99" t="str">
+      <c r="AI15" s="98" t="str">
         <f>SfW!C10</f>
         <v>Traffic Controllers</v>
       </c>
-      <c r="AJ15" s="103">
+      <c r="AJ15" s="102">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -12990,7 +12985,7 @@
         <f>Table1[[#This Row],[Points]]/(20-AA$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
-      <c r="AT15" s="94">
+      <c r="AT15" s="93">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R14</f>
         <v>-1.588235294117647</v>
       </c>
@@ -13018,7 +13013,7 @@
       <c r="O16" s="74"/>
       <c r="P16" s="74"/>
       <c r="Q16" s="74"/>
-      <c r="Z16" s="99" t="str">
+      <c r="Z16" s="98" t="str">
         <f>SfW!B11</f>
         <v>William Kim</v>
       </c>
@@ -13082,7 +13077,7 @@
         <f>Table1[[#This Row],[Points]]/(20-AA$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
-      <c r="AT16" s="94">
+      <c r="AT16" s="93">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R15</f>
         <v>-1.411764705882353</v>
       </c>
@@ -13109,7 +13104,7 @@
       <c r="O17" s="74"/>
       <c r="P17" s="74"/>
       <c r="Q17" s="74"/>
-      <c r="Z17" s="99" t="str">
+      <c r="Z17" s="98" t="str">
         <f>SfW!B12</f>
         <v>Samuel McConaghy</v>
       </c>
@@ -13173,7 +13168,7 @@
         <f>Table1[[#This Row],[Points]]/(20-AA$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
-      <c r="AT17" s="94">
+      <c r="AT17" s="93">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R16</f>
         <v>-2.5333333333333332</v>
       </c>
@@ -13200,39 +13195,39 @@
       <c r="O18" s="74"/>
       <c r="P18" s="74"/>
       <c r="Q18" s="74"/>
-      <c r="Z18" s="99" t="str">
+      <c r="Z18" s="98" t="str">
         <f>SfW!B13</f>
         <v>Ryan Pattemore</v>
       </c>
-      <c r="AA18" s="100">
+      <c r="AA18" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB18" s="101">
+      <c r="AB18" s="100">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AC18" s="102">
+      <c r="AC18" s="101">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD18" s="99">
+      <c r="AD18" s="98">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AE18" s="102">
+      <c r="AE18" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF18" s="99">
+      <c r="AF18" s="98">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AG18" s="102">
+      <c r="AG18" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH18" s="99">
+      <c r="AH18" s="98">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
@@ -13240,7 +13235,7 @@
         <f>SfW!C13</f>
         <v>Choc-Tops</v>
       </c>
-      <c r="AJ18" s="103">
+      <c r="AJ18" s="102">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -13264,7 +13259,7 @@
         <f>Table1[[#This Row],[Points]]/(20-AA$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
-      <c r="AT18" s="94">
+      <c r="AT18" s="93">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R17</f>
         <v>-0.875</v>
       </c>
@@ -13275,55 +13270,55 @@
       <c r="AW18" s="1"/>
     </row>
     <row r="19" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="96"/>
-      <c r="Z19" s="99" t="str">
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="Z19" s="98" t="str">
         <f>SfW!B14</f>
         <v>Nicholas Szogi</v>
       </c>
-      <c r="AA19" s="100">
+      <c r="AA19" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB19" s="101">
+      <c r="AB19" s="100">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AC19" s="102">
+      <c r="AC19" s="101">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="99">
+      <c r="AD19" s="98">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AE19" s="102">
+      <c r="AE19" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF19" s="99">
+      <c r="AF19" s="98">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AG19" s="102">
+      <c r="AG19" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH19" s="99">
+      <c r="AH19" s="98">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
@@ -13331,7 +13326,7 @@
         <f>SfW!C14</f>
         <v>Traffic Controllers</v>
       </c>
-      <c r="AJ19" s="103">
+      <c r="AJ19" s="102">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -13353,7 +13348,7 @@
         <f>Table1[[#This Row],[Points]]/(20-AA$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
-      <c r="AT19" s="94">
+      <c r="AT19" s="93">
         <v>0</v>
       </c>
       <c r="AU19" s="25">
@@ -13362,55 +13357,55 @@
       <c r="AW19" s="1"/>
     </row>
     <row r="20" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="96"/>
-      <c r="Z20" s="99" t="str">
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="Z20" s="98" t="str">
         <f>SfW!B15</f>
         <v>Christopher Tomkinson</v>
       </c>
-      <c r="AA20" s="100">
+      <c r="AA20" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB20" s="101">
+      <c r="AB20" s="100">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AC20" s="102">
+      <c r="AC20" s="101">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD20" s="99">
+      <c r="AD20" s="98">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AE20" s="102">
+      <c r="AE20" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF20" s="99">
+      <c r="AF20" s="98">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AG20" s="102">
+      <c r="AG20" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH20" s="99">
+      <c r="AH20" s="98">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
@@ -13418,7 +13413,7 @@
         <f>SfW!C15</f>
         <v>Choc-Tops</v>
       </c>
-      <c r="AJ20" s="103">
+      <c r="AJ20" s="102">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -13442,7 +13437,7 @@
         <f>Table1[[#This Row],[Points]]/(20-AA$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
-      <c r="AT20" s="94">
+      <c r="AT20" s="93">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R18</f>
         <v>-1.0666666666666667</v>
       </c>
@@ -13453,55 +13448,55 @@
       <c r="AW20" s="1"/>
     </row>
     <row r="21" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="96"/>
-      <c r="Z21" s="99" t="str">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="Z21" s="98" t="str">
         <f>SfW!B16</f>
         <v>Angus Walker</v>
       </c>
-      <c r="AA21" s="100">
+      <c r="AA21" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB21" s="101">
+      <c r="AB21" s="100">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AC21" s="102">
+      <c r="AC21" s="101">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD21" s="99">
+      <c r="AD21" s="98">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AE21" s="102">
+      <c r="AE21" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF21" s="99">
+      <c r="AF21" s="98">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AG21" s="102">
+      <c r="AG21" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH21" s="99">
+      <c r="AH21" s="98">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
@@ -13509,7 +13504,7 @@
         <f>SfW!C16</f>
         <v>Traffic Controllers</v>
       </c>
-      <c r="AJ21" s="103">
+      <c r="AJ21" s="102">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -13533,7 +13528,7 @@
         <f>Table1[[#This Row],[Points]]/(20-AA$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
-      <c r="AT21" s="94">
+      <c r="AT21" s="93">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R19</f>
         <v>-1.0588235294117647</v>
       </c>
@@ -13560,7 +13555,7 @@
       <c r="O22" s="74"/>
       <c r="P22" s="74"/>
       <c r="Q22" s="74"/>
-      <c r="Z22" s="99" t="str">
+      <c r="Z22" s="98" t="str">
         <f>SfW!B17</f>
         <v>Will Weekes</v>
       </c>
@@ -13624,7 +13619,7 @@
         <f>Table1[[#This Row],[Points]]/(20-AA$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
-      <c r="AT22" s="94">
+      <c r="AT22" s="93">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R20</f>
         <v>-2.4285714285714284</v>
       </c>
@@ -13651,39 +13646,39 @@
       <c r="O23" s="74"/>
       <c r="P23" s="74"/>
       <c r="Q23" s="74"/>
-      <c r="Z23" s="99" t="str">
+      <c r="Z23" s="98" t="str">
         <f>SfW!B18</f>
         <v>Mitch Yue</v>
       </c>
-      <c r="AA23" s="100">
+      <c r="AA23" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB23" s="105">
+      <c r="AB23" s="104">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AC23" s="102">
+      <c r="AC23" s="101">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD23" s="104">
+      <c r="AD23" s="103">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AE23" s="102">
+      <c r="AE23" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF23" s="104">
+      <c r="AF23" s="103">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
-      <c r="AG23" s="102">
+      <c r="AG23" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH23" s="104">
+      <c r="AH23" s="103">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
@@ -13691,7 +13686,7 @@
         <f>SfW!C18</f>
         <v>Gentle, Men</v>
       </c>
-      <c r="AJ23" s="103">
+      <c r="AJ23" s="102">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -13715,7 +13710,7 @@
         <f>Table1[[#This Row],[Points]]/(20-AA$5-Table1[[#This Row],[Missed Games]])</f>
         <v>0</v>
       </c>
-      <c r="AT23" s="94">
+      <c r="AT23" s="93">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R21</f>
         <v>-0.11764705882352941</v>
       </c>
@@ -13742,24 +13737,24 @@
       <c r="O24" s="74"/>
       <c r="P24" s="74"/>
       <c r="Q24" s="74"/>
-      <c r="Z24" s="99"/>
-      <c r="AA24" s="100"/>
-      <c r="AB24" s="101"/>
-      <c r="AC24" s="102"/>
-      <c r="AD24" s="99"/>
-      <c r="AE24" s="102"/>
-      <c r="AF24" s="99"/>
-      <c r="AG24" s="102"/>
-      <c r="AH24" s="99"/>
-      <c r="AI24" s="99"/>
-      <c r="AJ24" s="103"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="100"/>
+      <c r="AC24" s="101"/>
+      <c r="AD24" s="98"/>
+      <c r="AE24" s="101"/>
+      <c r="AF24" s="98"/>
+      <c r="AG24" s="101"/>
+      <c r="AH24" s="98"/>
+      <c r="AI24" s="98"/>
+      <c r="AJ24" s="102"/>
       <c r="AL24" s="30"/>
       <c r="AN24" s="3"/>
       <c r="AP24" s="13"/>
       <c r="AQ24" s="20"/>
       <c r="AR24" s="82"/>
       <c r="AS24" s="88"/>
-      <c r="AT24" s="94"/>
+      <c r="AT24" s="93"/>
       <c r="AU24" s="20"/>
       <c r="AW24" s="1"/>
     </row>
@@ -14799,10 +14794,10 @@
       <c r="AB49" s="22"/>
       <c r="AC49" s="22"/>
       <c r="AD49" s="22"/>
-      <c r="AE49" s="91"/>
-      <c r="AF49" s="91"/>
-      <c r="AG49" s="91"/>
-      <c r="AH49" s="91"/>
+      <c r="AE49" s="90"/>
+      <c r="AF49" s="90"/>
+      <c r="AG49" s="90"/>
+      <c r="AH49" s="90"/>
       <c r="AI49" s="22"/>
       <c r="AK49" s="1" t="s">
         <v>25</v>
@@ -14841,10 +14836,10 @@
       <c r="AB50" s="22"/>
       <c r="AC50" s="22"/>
       <c r="AD50" s="22"/>
-      <c r="AE50" s="91"/>
-      <c r="AF50" s="91"/>
-      <c r="AG50" s="91"/>
-      <c r="AH50" s="91"/>
+      <c r="AE50" s="90"/>
+      <c r="AF50" s="90"/>
+      <c r="AG50" s="90"/>
+      <c r="AH50" s="90"/>
       <c r="AI50" s="22"/>
       <c r="AK50" s="1" t="s">
         <v>26</v>
@@ -14882,10 +14877,10 @@
       <c r="AB51" s="22"/>
       <c r="AC51" s="22"/>
       <c r="AD51" s="22"/>
-      <c r="AE51" s="91"/>
-      <c r="AF51" s="91"/>
-      <c r="AG51" s="91"/>
-      <c r="AH51" s="91"/>
+      <c r="AE51" s="90"/>
+      <c r="AF51" s="90"/>
+      <c r="AG51" s="90"/>
+      <c r="AH51" s="90"/>
       <c r="AI51" s="22"/>
       <c r="AK51" s="1" t="s">
         <v>27</v>
@@ -14908,10 +14903,10 @@
       <c r="AB52" s="22"/>
       <c r="AC52" s="22"/>
       <c r="AD52" s="22"/>
-      <c r="AE52" s="91"/>
-      <c r="AF52" s="91"/>
-      <c r="AG52" s="91"/>
-      <c r="AH52" s="91"/>
+      <c r="AE52" s="90"/>
+      <c r="AF52" s="90"/>
+      <c r="AG52" s="90"/>
+      <c r="AH52" s="90"/>
       <c r="AI52" s="22"/>
       <c r="AK52" s="1" t="s">
         <v>30</v>
@@ -14937,10 +14932,10 @@
       <c r="AB53" s="22"/>
       <c r="AC53" s="22"/>
       <c r="AD53" s="22"/>
-      <c r="AE53" s="91"/>
-      <c r="AF53" s="91"/>
-      <c r="AG53" s="91"/>
-      <c r="AH53" s="91"/>
+      <c r="AE53" s="90"/>
+      <c r="AF53" s="90"/>
+      <c r="AG53" s="90"/>
+      <c r="AH53" s="90"/>
       <c r="AI53" s="22"/>
       <c r="AK53" s="1" t="s">
         <v>32</v>
@@ -14972,10 +14967,10 @@
       <c r="AB54" s="22"/>
       <c r="AC54" s="22"/>
       <c r="AD54" s="22"/>
-      <c r="AE54" s="91"/>
-      <c r="AF54" s="91"/>
-      <c r="AG54" s="91"/>
-      <c r="AH54" s="91"/>
+      <c r="AE54" s="90"/>
+      <c r="AF54" s="90"/>
+      <c r="AG54" s="90"/>
+      <c r="AH54" s="90"/>
       <c r="AI54" s="22"/>
       <c r="AK54" s="1" t="s">
         <v>37</v>
@@ -15016,10 +15011,10 @@
       <c r="AB55" s="22"/>
       <c r="AC55" s="22"/>
       <c r="AD55" s="22"/>
-      <c r="AE55" s="91"/>
-      <c r="AF55" s="91"/>
-      <c r="AG55" s="91"/>
-      <c r="AH55" s="91"/>
+      <c r="AE55" s="90"/>
+      <c r="AF55" s="90"/>
+      <c r="AG55" s="90"/>
+      <c r="AH55" s="90"/>
       <c r="AI55" s="22"/>
       <c r="AK55" t="s">
         <v>92</v>
@@ -15060,10 +15055,10 @@
       <c r="AB56" s="22"/>
       <c r="AC56" s="22"/>
       <c r="AD56" s="22"/>
-      <c r="AE56" s="91"/>
-      <c r="AF56" s="91"/>
-      <c r="AG56" s="91"/>
-      <c r="AH56" s="91"/>
+      <c r="AE56" s="90"/>
+      <c r="AF56" s="90"/>
+      <c r="AG56" s="90"/>
+      <c r="AH56" s="90"/>
       <c r="AI56" s="22"/>
       <c r="AK56" s="1" t="s">
         <v>39</v>
@@ -15104,10 +15099,10 @@
       <c r="AB57" s="22"/>
       <c r="AC57" s="22"/>
       <c r="AD57" s="22"/>
-      <c r="AE57" s="91"/>
-      <c r="AF57" s="91"/>
-      <c r="AG57" s="91"/>
-      <c r="AH57" s="91"/>
+      <c r="AE57" s="90"/>
+      <c r="AF57" s="90"/>
+      <c r="AG57" s="90"/>
+      <c r="AH57" s="90"/>
       <c r="AI57" s="22"/>
       <c r="AK57" s="1" t="s">
         <v>41</v>
@@ -15132,10 +15127,10 @@
       <c r="AB58" s="22"/>
       <c r="AC58" s="22"/>
       <c r="AD58" s="22"/>
-      <c r="AE58" s="91"/>
-      <c r="AF58" s="91"/>
-      <c r="AG58" s="91"/>
-      <c r="AH58" s="91"/>
+      <c r="AE58" s="90"/>
+      <c r="AF58" s="90"/>
+      <c r="AG58" s="90"/>
+      <c r="AH58" s="90"/>
       <c r="AI58" s="22"/>
       <c r="AK58" s="1" t="s">
         <v>44</v>
@@ -15158,10 +15153,10 @@
       <c r="AB59" s="22"/>
       <c r="AC59" s="22"/>
       <c r="AD59" s="22"/>
-      <c r="AE59" s="91"/>
-      <c r="AF59" s="91"/>
-      <c r="AG59" s="91"/>
-      <c r="AH59" s="91"/>
+      <c r="AE59" s="90"/>
+      <c r="AF59" s="90"/>
+      <c r="AG59" s="90"/>
+      <c r="AH59" s="90"/>
       <c r="AI59" s="22"/>
       <c r="AK59" s="1" t="s">
         <v>46</v>
@@ -15184,10 +15179,10 @@
       <c r="AB60" s="22"/>
       <c r="AC60" s="22"/>
       <c r="AD60" s="22"/>
-      <c r="AE60" s="91"/>
-      <c r="AF60" s="91"/>
-      <c r="AG60" s="91"/>
-      <c r="AH60" s="91"/>
+      <c r="AE60" s="90"/>
+      <c r="AF60" s="90"/>
+      <c r="AG60" s="90"/>
+      <c r="AH60" s="90"/>
       <c r="AI60" s="22"/>
       <c r="AK60" t="s">
         <v>49</v>
@@ -15210,10 +15205,10 @@
       <c r="AB61" s="22"/>
       <c r="AC61" s="22"/>
       <c r="AD61" s="22"/>
-      <c r="AE61" s="91"/>
-      <c r="AF61" s="91"/>
-      <c r="AG61" s="91"/>
-      <c r="AH61" s="91"/>
+      <c r="AE61" s="90"/>
+      <c r="AF61" s="90"/>
+      <c r="AG61" s="90"/>
+      <c r="AH61" s="90"/>
       <c r="AI61" s="22"/>
       <c r="AK61" t="s">
         <v>52</v>
@@ -15236,10 +15231,10 @@
       <c r="AB62" s="22"/>
       <c r="AC62" s="22"/>
       <c r="AD62" s="22"/>
-      <c r="AE62" s="91"/>
-      <c r="AF62" s="91"/>
-      <c r="AG62" s="91"/>
-      <c r="AH62" s="91"/>
+      <c r="AE62" s="90"/>
+      <c r="AF62" s="90"/>
+      <c r="AG62" s="90"/>
+      <c r="AH62" s="90"/>
       <c r="AI62" s="22"/>
       <c r="AK62" t="s">
         <v>55</v>
@@ -15262,10 +15257,10 @@
       <c r="AB63" s="22"/>
       <c r="AC63" s="22"/>
       <c r="AD63" s="22"/>
-      <c r="AE63" s="91"/>
-      <c r="AF63" s="91"/>
-      <c r="AG63" s="91"/>
-      <c r="AH63" s="91"/>
+      <c r="AE63" s="90"/>
+      <c r="AF63" s="90"/>
+      <c r="AG63" s="90"/>
+      <c r="AH63" s="90"/>
       <c r="AI63" s="22"/>
       <c r="AK63" t="s">
         <v>196</v>
@@ -15288,10 +15283,10 @@
       <c r="AB64" s="22"/>
       <c r="AC64" s="22"/>
       <c r="AD64" s="22"/>
-      <c r="AE64" s="91"/>
-      <c r="AF64" s="91"/>
-      <c r="AG64" s="91"/>
-      <c r="AH64" s="91"/>
+      <c r="AE64" s="90"/>
+      <c r="AF64" s="90"/>
+      <c r="AG64" s="90"/>
+      <c r="AH64" s="90"/>
       <c r="AI64" s="22"/>
       <c r="AK64" t="s">
         <v>210</v>
@@ -15312,10 +15307,10 @@
       <c r="AB65" s="22"/>
       <c r="AC65" s="22"/>
       <c r="AD65" s="22"/>
-      <c r="AE65" s="91"/>
-      <c r="AF65" s="91"/>
-      <c r="AG65" s="91"/>
-      <c r="AH65" s="91"/>
+      <c r="AE65" s="90"/>
+      <c r="AF65" s="90"/>
+      <c r="AG65" s="90"/>
+      <c r="AH65" s="90"/>
       <c r="AI65" s="22"/>
       <c r="AK65" s="1"/>
       <c r="AL65" s="22"/>
@@ -15436,10 +15431,10 @@
       <c r="AB69" s="22"/>
       <c r="AC69" s="22"/>
       <c r="AD69" s="22"/>
-      <c r="AE69" s="91"/>
-      <c r="AF69" s="91"/>
-      <c r="AG69" s="91"/>
-      <c r="AH69" s="91"/>
+      <c r="AE69" s="90"/>
+      <c r="AF69" s="90"/>
+      <c r="AG69" s="90"/>
+      <c r="AH69" s="90"/>
       <c r="AI69" s="22"/>
       <c r="AK69" s="1" t="s">
         <v>25</v>
@@ -17947,29 +17942,29 @@
   </sheetData>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="W103:W108 U109:U118">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="153" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ8:AQ24">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="5" operator="equal">
       <formula>$AA$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="6" operator="lessThan">
       <formula>$AA$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="7" operator="greaterThan">
       <formula>$AA$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT8:AU24">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="148" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17995,8 +17990,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D40"/>
+    <sheetView topLeftCell="E1" zoomScale="61" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -18055,16 +18050,16 @@
       <c r="D3" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="119"/>
-      <c r="F3" s="109">
+      <c r="E3" s="118"/>
+      <c r="F3" s="108">
         <f>SUM(B4:B40)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="109">
+      <c r="G3" s="108">
         <f>SUM(C4:C40)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="109">
+      <c r="H3" s="108">
         <f>SUM(D4:D40)</f>
         <v>0</v>
       </c>
@@ -18113,23 +18108,23 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="110">
+      <c r="A4" s="109">
         <f>'Stats Global'!B5</f>
         <v>0</v>
       </c>
-      <c r="B4" s="110">
+      <c r="B4" s="109">
         <f>'Stats Global'!F5</f>
         <v>0</v>
       </c>
-      <c r="C4" s="110">
+      <c r="C4" s="109">
         <f>'Stats Global'!G5+'Stats Global'!G5</f>
         <v>0</v>
       </c>
-      <c r="D4" s="110">
+      <c r="D4" s="109">
         <f>'Stats Global'!O5</f>
         <v>0</v>
       </c>
-      <c r="E4" s="119"/>
+      <c r="E4" s="118"/>
       <c r="H4" s="54"/>
       <c r="J4" s="55">
         <f>'Stats Global'!J5</f>
@@ -18190,23 +18185,23 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="110">
+      <c r="A5" s="109">
         <f>'Stats Global'!B6</f>
         <v>0</v>
       </c>
-      <c r="B5" s="110">
+      <c r="B5" s="109">
         <f>'Stats Global'!F6</f>
         <v>0</v>
       </c>
-      <c r="C5" s="110">
+      <c r="C5" s="109">
         <f>'Stats Global'!G6+'Stats Global'!G6</f>
         <v>0</v>
       </c>
-      <c r="D5" s="110">
+      <c r="D5" s="109">
         <f>'Stats Global'!O6</f>
         <v>0</v>
       </c>
-      <c r="E5" s="119"/>
+      <c r="E5" s="118"/>
       <c r="G5" s="52"/>
       <c r="H5" s="54"/>
       <c r="J5" s="55">
@@ -18227,64 +18222,64 @@
         <v>0</v>
       </c>
       <c r="P5" s="54" t="str">
-        <f>'Stats Global'!Z22</f>
-        <v>Will Weekes</v>
+        <f>'Stats Global'!Z8</f>
+        <v>Jasper Collier</v>
       </c>
       <c r="Q5" s="54">
-        <f>'Stats Global'!AA22</f>
+        <f>'Stats Global'!AA8</f>
         <v>0</v>
       </c>
       <c r="R5" s="54">
-        <f>'Stats Global'!AB22</f>
+        <f>'Stats Global'!AB8</f>
         <v>0</v>
       </c>
       <c r="S5" s="54">
-        <f>'Stats Global'!AC22</f>
+        <f>'Stats Global'!AC8</f>
         <v>0</v>
       </c>
       <c r="T5" s="54">
-        <f>'Stats Global'!AD22</f>
+        <f>'Stats Global'!AD8</f>
         <v>0</v>
       </c>
       <c r="U5" s="54">
-        <f>'Stats Global'!AE22</f>
+        <f>'Stats Global'!AE8</f>
         <v>0</v>
       </c>
       <c r="V5" s="54">
-        <f>'Stats Global'!AF22</f>
+        <f>'Stats Global'!AF8</f>
         <v>0</v>
       </c>
       <c r="W5" s="54">
-        <f>'Stats Global'!AG22</f>
+        <f>'Stats Global'!AG8</f>
         <v>0</v>
       </c>
       <c r="X5" s="54">
-        <f>'Stats Global'!AH22</f>
+        <f>'Stats Global'!AH8</f>
         <v>0</v>
       </c>
       <c r="Y5" s="63">
-        <f>'Stats Global'!AJ22</f>
+        <f>'Stats Global'!AJ8</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="110">
+      <c r="A6" s="109">
         <f>'Stats Global'!B7</f>
         <v>0</v>
       </c>
-      <c r="B6" s="110">
+      <c r="B6" s="109">
         <f>'Stats Global'!F7</f>
         <v>0</v>
       </c>
-      <c r="C6" s="110">
+      <c r="C6" s="109">
         <f>'Stats Global'!G7+'Stats Global'!G7</f>
         <v>0</v>
       </c>
-      <c r="D6" s="110">
+      <c r="D6" s="109">
         <f>'Stats Global'!O7</f>
         <v>0</v>
       </c>
-      <c r="E6" s="119"/>
+      <c r="E6" s="118"/>
       <c r="G6" s="52"/>
       <c r="H6" s="54"/>
       <c r="J6" s="55">
@@ -18305,64 +18300,64 @@
         <v>0</v>
       </c>
       <c r="P6" s="63" t="str">
-        <f>'Stats Global'!Z20</f>
-        <v>Christopher Tomkinson</v>
+        <f>'Stats Global'!Z10</f>
+        <v>Alexander Galt</v>
       </c>
       <c r="Q6" s="63">
-        <f>'Stats Global'!AA20</f>
+        <f>'Stats Global'!AA10</f>
         <v>0</v>
       </c>
       <c r="R6" s="63">
-        <f>'Stats Global'!AB20</f>
+        <f>'Stats Global'!AB10</f>
         <v>0</v>
       </c>
       <c r="S6" s="63">
-        <f>'Stats Global'!AC20</f>
+        <f>'Stats Global'!AC10</f>
         <v>0</v>
       </c>
       <c r="T6" s="63">
-        <f>'Stats Global'!AD20</f>
+        <f>'Stats Global'!AD10</f>
         <v>0</v>
       </c>
       <c r="U6" s="63">
-        <f>'Stats Global'!AE20</f>
+        <f>'Stats Global'!AE10</f>
         <v>0</v>
       </c>
       <c r="V6" s="63">
-        <f>'Stats Global'!AF20</f>
+        <f>'Stats Global'!AF10</f>
         <v>0</v>
       </c>
       <c r="W6" s="63">
-        <f>'Stats Global'!AG20</f>
+        <f>'Stats Global'!AG10</f>
         <v>0</v>
       </c>
       <c r="X6" s="63">
-        <f>'Stats Global'!AH20</f>
+        <f>'Stats Global'!AH10</f>
         <v>0</v>
       </c>
       <c r="Y6" s="63">
-        <f>'Stats Global'!AJ20</f>
+        <f>'Stats Global'!AJ10</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="110">
+      <c r="A7" s="109">
         <f>'Stats Global'!B8</f>
         <v>0</v>
       </c>
-      <c r="B7" s="110">
+      <c r="B7" s="109">
         <f>'Stats Global'!F8</f>
         <v>0</v>
       </c>
-      <c r="C7" s="110">
+      <c r="C7" s="109">
         <f>'Stats Global'!G8+'Stats Global'!G8</f>
         <v>0</v>
       </c>
-      <c r="D7" s="110">
+      <c r="D7" s="109">
         <f>'Stats Global'!O8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="119"/>
+      <c r="E7" s="118"/>
       <c r="G7" s="52"/>
       <c r="H7" s="54"/>
       <c r="J7" s="55">
@@ -18383,64 +18378,64 @@
         <v>0</v>
       </c>
       <c r="P7" s="54" t="str">
-        <f>'Stats Global'!Z14</f>
-        <v>Sam James</v>
+        <f>'Stats Global'!Z11</f>
+        <v>Rudy Hoschke</v>
       </c>
       <c r="Q7" s="54">
-        <f>'Stats Global'!AA14</f>
+        <f>'Stats Global'!AA11</f>
         <v>0</v>
       </c>
       <c r="R7" s="54">
-        <f>'Stats Global'!AB14</f>
+        <f>'Stats Global'!AB11</f>
         <v>0</v>
       </c>
       <c r="S7" s="54">
-        <f>'Stats Global'!AC14</f>
+        <f>'Stats Global'!AC11</f>
         <v>0</v>
       </c>
       <c r="T7" s="54">
-        <f>'Stats Global'!AD14</f>
+        <f>'Stats Global'!AD11</f>
         <v>0</v>
       </c>
       <c r="U7" s="54">
-        <f>'Stats Global'!AE14</f>
+        <f>'Stats Global'!AE11</f>
         <v>0</v>
       </c>
       <c r="V7" s="54">
-        <f>'Stats Global'!AF14</f>
+        <f>'Stats Global'!AF11</f>
         <v>0</v>
       </c>
       <c r="W7" s="54">
-        <f>'Stats Global'!AG14</f>
+        <f>'Stats Global'!AG11</f>
         <v>0</v>
       </c>
       <c r="X7" s="54">
-        <f>'Stats Global'!AH14</f>
+        <f>'Stats Global'!AH11</f>
         <v>0</v>
       </c>
       <c r="Y7" s="63">
-        <f>'Stats Global'!AJ14</f>
+        <f>'Stats Global'!AJ11</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="110">
+      <c r="A8" s="109">
         <f>'Stats Global'!B9</f>
         <v>0</v>
       </c>
-      <c r="B8" s="110">
+      <c r="B8" s="109">
         <f>'Stats Global'!F9</f>
         <v>0</v>
       </c>
-      <c r="C8" s="110">
+      <c r="C8" s="109">
         <f>'Stats Global'!G9+'Stats Global'!G9</f>
         <v>0</v>
       </c>
-      <c r="D8" s="110">
+      <c r="D8" s="109">
         <f>'Stats Global'!O9</f>
         <v>0</v>
       </c>
-      <c r="E8" s="119"/>
+      <c r="E8" s="118"/>
       <c r="G8" s="52"/>
       <c r="H8" s="54"/>
       <c r="J8" s="55">
@@ -18461,64 +18456,64 @@
         <v>0</v>
       </c>
       <c r="P8" s="54" t="str">
-        <f>'Stats Global'!Z12</f>
-        <v>Michael Iffland</v>
+        <f>'Stats Global'!Z20</f>
+        <v>Christopher Tomkinson</v>
       </c>
       <c r="Q8" s="54">
-        <f>'Stats Global'!AA12</f>
+        <f>'Stats Global'!AA20</f>
         <v>0</v>
       </c>
       <c r="R8" s="54">
-        <f>'Stats Global'!AB12</f>
+        <f>'Stats Global'!AB20</f>
         <v>0</v>
       </c>
       <c r="S8" s="54">
-        <f>'Stats Global'!AC12</f>
+        <f>'Stats Global'!AC20</f>
         <v>0</v>
       </c>
       <c r="T8" s="54">
-        <f>'Stats Global'!AD12</f>
+        <f>'Stats Global'!AD20</f>
         <v>0</v>
       </c>
       <c r="U8" s="54">
-        <f>'Stats Global'!AE12</f>
+        <f>'Stats Global'!AE20</f>
         <v>0</v>
       </c>
       <c r="V8" s="54">
-        <f>'Stats Global'!AF12</f>
+        <f>'Stats Global'!AF20</f>
         <v>0</v>
       </c>
       <c r="W8" s="54">
-        <f>'Stats Global'!AG12</f>
+        <f>'Stats Global'!AG20</f>
         <v>0</v>
       </c>
       <c r="X8" s="54">
-        <f>'Stats Global'!AH12</f>
+        <f>'Stats Global'!AH20</f>
         <v>0</v>
       </c>
       <c r="Y8" s="63">
-        <f>'Stats Global'!AJ12</f>
+        <f>'Stats Global'!AJ20</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="110">
+      <c r="A9" s="109">
         <f>'Stats Global'!B10</f>
         <v>0</v>
       </c>
-      <c r="B9" s="110">
+      <c r="B9" s="109">
         <f>'Stats Global'!F10</f>
         <v>0</v>
       </c>
-      <c r="C9" s="110">
+      <c r="C9" s="109">
         <f>'Stats Global'!G10+'Stats Global'!G10</f>
         <v>0</v>
       </c>
-      <c r="D9" s="110">
+      <c r="D9" s="109">
         <f>'Stats Global'!O10</f>
         <v>0</v>
       </c>
-      <c r="E9" s="119"/>
+      <c r="E9" s="118"/>
       <c r="G9" s="52"/>
       <c r="H9" s="54"/>
       <c r="J9" s="55">
@@ -18545,23 +18540,23 @@
       <c r="U9" s="26"/>
     </row>
     <row r="10" spans="1:25" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="110">
+      <c r="A10" s="109">
         <f>'Stats Global'!B11</f>
         <v>0</v>
       </c>
-      <c r="B10" s="110">
+      <c r="B10" s="109">
         <f>'Stats Global'!F11</f>
         <v>0</v>
       </c>
-      <c r="C10" s="110">
+      <c r="C10" s="109">
         <f>'Stats Global'!G11+'Stats Global'!G11</f>
         <v>0</v>
       </c>
-      <c r="D10" s="110">
+      <c r="D10" s="109">
         <f>'Stats Global'!O11</f>
         <v>0</v>
       </c>
-      <c r="E10" s="119"/>
+      <c r="E10" s="118"/>
       <c r="G10" s="52"/>
       <c r="H10" s="54"/>
       <c r="J10" s="55">
@@ -18587,23 +18582,23 @@
       <c r="U10" s="26"/>
     </row>
     <row r="11" spans="1:25" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="110">
+      <c r="A11" s="109">
         <f>'Stats Global'!B12</f>
         <v>0</v>
       </c>
-      <c r="B11" s="110">
+      <c r="B11" s="109">
         <f>'Stats Global'!F12</f>
         <v>0</v>
       </c>
-      <c r="C11" s="110">
+      <c r="C11" s="109">
         <f>'Stats Global'!G12+'Stats Global'!G12</f>
         <v>0</v>
       </c>
-      <c r="D11" s="110">
+      <c r="D11" s="109">
         <f>'Stats Global'!O12</f>
         <v>0</v>
       </c>
-      <c r="E11" s="119"/>
+      <c r="E11" s="118"/>
       <c r="G11" s="52"/>
       <c r="H11" s="54"/>
       <c r="J11" s="55">
@@ -18627,23 +18622,23 @@
       <c r="Q11" s="35"/>
     </row>
     <row r="12" spans="1:25" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="110">
+      <c r="A12" s="109">
         <f>'Stats Global'!B13</f>
         <v>0</v>
       </c>
-      <c r="B12" s="110">
+      <c r="B12" s="109">
         <f>'Stats Global'!F13</f>
         <v>0</v>
       </c>
-      <c r="C12" s="110">
+      <c r="C12" s="109">
         <f>'Stats Global'!G13+'Stats Global'!G13</f>
         <v>0</v>
       </c>
-      <c r="D12" s="110">
+      <c r="D12" s="109">
         <f>'Stats Global'!O13</f>
         <v>0</v>
       </c>
-      <c r="E12" s="119"/>
+      <c r="E12" s="118"/>
       <c r="G12" s="52"/>
       <c r="H12" s="54"/>
       <c r="J12" s="55">
@@ -18669,23 +18664,23 @@
       <c r="U12" s="35"/>
     </row>
     <row r="13" spans="1:25" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="110">
+      <c r="A13" s="109">
         <f>'Stats Global'!B14</f>
         <v>0</v>
       </c>
-      <c r="B13" s="110">
+      <c r="B13" s="109">
         <f>'Stats Global'!F14</f>
         <v>0</v>
       </c>
-      <c r="C13" s="110">
+      <c r="C13" s="109">
         <f>'Stats Global'!G14+'Stats Global'!G14</f>
         <v>0</v>
       </c>
-      <c r="D13" s="110">
+      <c r="D13" s="109">
         <f>'Stats Global'!O14</f>
         <v>0</v>
       </c>
-      <c r="E13" s="119"/>
+      <c r="E13" s="118"/>
       <c r="H13" s="54"/>
       <c r="J13" s="55">
         <f>'Stats Global'!J14</f>
@@ -18706,23 +18701,23 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="110">
+      <c r="A14" s="109">
         <f>'Stats Global'!B15</f>
         <v>0</v>
       </c>
-      <c r="B14" s="110">
+      <c r="B14" s="109">
         <f>'Stats Global'!F15</f>
         <v>0</v>
       </c>
-      <c r="C14" s="110">
+      <c r="C14" s="109">
         <f>'Stats Global'!G15+'Stats Global'!G15</f>
         <v>0</v>
       </c>
-      <c r="D14" s="110">
+      <c r="D14" s="109">
         <f>'Stats Global'!O15</f>
         <v>0</v>
       </c>
-      <c r="E14" s="119"/>
+      <c r="E14" s="118"/>
       <c r="H14" s="54"/>
       <c r="J14" s="55">
         <f>'Stats Global'!J15</f>
@@ -18743,23 +18738,23 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="110">
+      <c r="A15" s="109">
         <f>'Stats Global'!B16</f>
         <v>0</v>
       </c>
-      <c r="B15" s="110">
+      <c r="B15" s="109">
         <f>'Stats Global'!F16</f>
         <v>0</v>
       </c>
-      <c r="C15" s="110">
+      <c r="C15" s="109">
         <f>'Stats Global'!G16+'Stats Global'!G16</f>
         <v>0</v>
       </c>
-      <c r="D15" s="110">
+      <c r="D15" s="109">
         <f>'Stats Global'!O16</f>
         <v>0</v>
       </c>
-      <c r="E15" s="119"/>
+      <c r="E15" s="118"/>
       <c r="H15" s="54"/>
       <c r="J15" s="55">
         <f>'Stats Global'!J16</f>
@@ -18780,23 +18775,23 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="110">
+      <c r="A16" s="109">
         <f>'Stats Global'!B17</f>
         <v>0</v>
       </c>
-      <c r="B16" s="110">
+      <c r="B16" s="109">
         <f>'Stats Global'!F17</f>
         <v>0</v>
       </c>
-      <c r="C16" s="110">
+      <c r="C16" s="109">
         <f>'Stats Global'!G17+'Stats Global'!G17</f>
         <v>0</v>
       </c>
-      <c r="D16" s="110">
+      <c r="D16" s="109">
         <f>'Stats Global'!O17</f>
         <v>0</v>
       </c>
-      <c r="E16" s="119"/>
+      <c r="E16" s="118"/>
       <c r="H16" s="54"/>
       <c r="J16" s="55">
         <f>'Stats Global'!J17</f>
@@ -18817,23 +18812,23 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="110">
+      <c r="A17" s="109">
         <f>'Stats Global'!B18</f>
         <v>0</v>
       </c>
-      <c r="B17" s="110">
+      <c r="B17" s="109">
         <f>'Stats Global'!F18</f>
         <v>0</v>
       </c>
-      <c r="C17" s="110">
+      <c r="C17" s="109">
         <f>'Stats Global'!G18+'Stats Global'!G18</f>
         <v>0</v>
       </c>
-      <c r="D17" s="110">
+      <c r="D17" s="109">
         <f>'Stats Global'!O18</f>
         <v>0</v>
       </c>
-      <c r="E17" s="120"/>
+      <c r="E17" s="119"/>
       <c r="H17" s="54"/>
       <c r="J17" s="55">
         <f>'Stats Global'!J18</f>
@@ -18854,23 +18849,23 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="110">
+      <c r="A18" s="109">
         <f>'Stats Global'!B19</f>
         <v>0</v>
       </c>
-      <c r="B18" s="110">
+      <c r="B18" s="109">
         <f>'Stats Global'!F19</f>
         <v>0</v>
       </c>
-      <c r="C18" s="110">
+      <c r="C18" s="109">
         <f>'Stats Global'!G19+'Stats Global'!G19</f>
         <v>0</v>
       </c>
-      <c r="D18" s="110">
+      <c r="D18" s="109">
         <f>'Stats Global'!O19</f>
         <v>0</v>
       </c>
-      <c r="E18" s="121"/>
+      <c r="E18" s="120"/>
       <c r="H18" s="54"/>
       <c r="J18" s="55">
         <f>'Stats Global'!J19</f>
@@ -18891,23 +18886,23 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="110">
+      <c r="A19" s="109">
         <f>'Stats Global'!B20</f>
         <v>0</v>
       </c>
-      <c r="B19" s="110">
+      <c r="B19" s="109">
         <f>'Stats Global'!F20</f>
         <v>0</v>
       </c>
-      <c r="C19" s="110">
+      <c r="C19" s="109">
         <f>'Stats Global'!G20+'Stats Global'!G20</f>
         <v>0</v>
       </c>
-      <c r="D19" s="110">
+      <c r="D19" s="109">
         <f>'Stats Global'!O20</f>
         <v>0</v>
       </c>
-      <c r="E19" s="122"/>
+      <c r="E19" s="121"/>
       <c r="H19" s="54"/>
       <c r="J19" s="55">
         <f>'Stats Global'!J20</f>
@@ -18928,23 +18923,23 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="110">
+      <c r="A20" s="109">
         <f>'Stats Global'!B21</f>
         <v>0</v>
       </c>
-      <c r="B20" s="110">
+      <c r="B20" s="109">
         <f>'Stats Global'!F21</f>
         <v>0</v>
       </c>
-      <c r="C20" s="110">
+      <c r="C20" s="109">
         <f>'Stats Global'!G21+'Stats Global'!G21</f>
         <v>0</v>
       </c>
-      <c r="D20" s="110">
+      <c r="D20" s="109">
         <f>'Stats Global'!O21</f>
         <v>0</v>
       </c>
-      <c r="E20" s="123"/>
+      <c r="E20" s="122"/>
       <c r="H20" s="54"/>
       <c r="J20" s="55">
         <f>'Stats Global'!J21</f>
@@ -18965,23 +18960,23 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="110">
+      <c r="A21" s="109">
         <f>'Stats Global'!B22</f>
         <v>0</v>
       </c>
-      <c r="B21" s="110">
+      <c r="B21" s="109">
         <f>'Stats Global'!F22</f>
         <v>0</v>
       </c>
-      <c r="C21" s="110">
+      <c r="C21" s="109">
         <f>'Stats Global'!G22+'Stats Global'!G22</f>
         <v>0</v>
       </c>
-      <c r="D21" s="110">
+      <c r="D21" s="109">
         <f>'Stats Global'!O22</f>
         <v>0</v>
       </c>
-      <c r="E21" s="119"/>
+      <c r="E21" s="118"/>
       <c r="H21" s="54"/>
       <c r="J21" s="55">
         <f>'Stats Global'!J22</f>
@@ -19002,23 +18997,23 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="110">
+      <c r="A22" s="109">
         <f>'Stats Global'!B23</f>
         <v>0</v>
       </c>
-      <c r="B22" s="110">
+      <c r="B22" s="109">
         <f>'Stats Global'!F23</f>
         <v>0</v>
       </c>
-      <c r="C22" s="110">
+      <c r="C22" s="109">
         <f>'Stats Global'!G23+'Stats Global'!G23</f>
         <v>0</v>
       </c>
-      <c r="D22" s="110">
+      <c r="D22" s="109">
         <f>'Stats Global'!O23</f>
         <v>0</v>
       </c>
-      <c r="E22" s="119"/>
+      <c r="E22" s="118"/>
       <c r="F22" s="57"/>
       <c r="H22" s="54"/>
       <c r="J22" s="55">
@@ -19040,23 +19035,23 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="110">
+      <c r="A23" s="109">
         <f>'Stats Global'!B24</f>
         <v>0</v>
       </c>
-      <c r="B23" s="110">
+      <c r="B23" s="109">
         <f>'Stats Global'!F24</f>
         <v>0</v>
       </c>
-      <c r="C23" s="110">
+      <c r="C23" s="109">
         <f>'Stats Global'!G24+'Stats Global'!G24</f>
         <v>0</v>
       </c>
-      <c r="D23" s="110">
+      <c r="D23" s="109">
         <f>'Stats Global'!O24</f>
         <v>0</v>
       </c>
-      <c r="E23" s="124"/>
+      <c r="E23" s="123"/>
       <c r="F23" s="57"/>
       <c r="H23" s="54"/>
       <c r="J23" s="55">
@@ -19078,23 +19073,23 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="110">
+      <c r="A24" s="109">
         <f>'Stats Global'!B25</f>
         <v>0</v>
       </c>
-      <c r="B24" s="110">
+      <c r="B24" s="109">
         <f>'Stats Global'!F25</f>
         <v>0</v>
       </c>
-      <c r="C24" s="110">
+      <c r="C24" s="109">
         <f>'Stats Global'!G25+'Stats Global'!G25</f>
         <v>0</v>
       </c>
-      <c r="D24" s="110">
+      <c r="D24" s="109">
         <f>'Stats Global'!O25</f>
         <v>0</v>
       </c>
-      <c r="E24" s="125"/>
+      <c r="E24" s="124"/>
       <c r="F24" s="57"/>
       <c r="H24" s="54"/>
       <c r="J24" s="55">
@@ -19116,23 +19111,23 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="110">
+      <c r="A25" s="109">
         <f>'Stats Global'!B26</f>
         <v>0</v>
       </c>
-      <c r="B25" s="110">
+      <c r="B25" s="109">
         <f>'Stats Global'!F26</f>
         <v>0</v>
       </c>
-      <c r="C25" s="110">
+      <c r="C25" s="109">
         <f>'Stats Global'!G26+'Stats Global'!G26</f>
         <v>0</v>
       </c>
-      <c r="D25" s="110">
+      <c r="D25" s="109">
         <f>'Stats Global'!O26</f>
         <v>0</v>
       </c>
-      <c r="E25" s="125"/>
+      <c r="E25" s="124"/>
       <c r="H25" s="54"/>
       <c r="J25" s="55">
         <f>'Stats Global'!J26</f>
@@ -19153,23 +19148,23 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="110">
+      <c r="A26" s="109">
         <f>'Stats Global'!B27</f>
         <v>0</v>
       </c>
-      <c r="B26" s="110">
+      <c r="B26" s="109">
         <f>'Stats Global'!F27</f>
         <v>0</v>
       </c>
-      <c r="C26" s="110">
+      <c r="C26" s="109">
         <f>'Stats Global'!G27+'Stats Global'!G27</f>
         <v>0</v>
       </c>
-      <c r="D26" s="110">
+      <c r="D26" s="109">
         <f>'Stats Global'!O27</f>
         <v>0</v>
       </c>
-      <c r="E26" s="119"/>
+      <c r="E26" s="118"/>
       <c r="H26" s="54"/>
       <c r="J26" s="55">
         <f>'Stats Global'!J27</f>
@@ -19190,23 +19185,23 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="110">
+      <c r="A27" s="109">
         <f>'Stats Global'!B28</f>
         <v>0</v>
       </c>
-      <c r="B27" s="110">
+      <c r="B27" s="109">
         <f>'Stats Global'!F28</f>
         <v>0</v>
       </c>
-      <c r="C27" s="110">
+      <c r="C27" s="109">
         <f>'Stats Global'!G28+'Stats Global'!G28</f>
         <v>0</v>
       </c>
-      <c r="D27" s="110">
+      <c r="D27" s="109">
         <f>'Stats Global'!O28</f>
         <v>0</v>
       </c>
-      <c r="E27" s="119"/>
+      <c r="E27" s="118"/>
       <c r="H27" s="54"/>
       <c r="J27" s="55">
         <f>'Stats Global'!J28</f>
@@ -19227,23 +19222,23 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="110">
+      <c r="A28" s="109">
         <f>'Stats Global'!B29</f>
         <v>0</v>
       </c>
-      <c r="B28" s="110">
+      <c r="B28" s="109">
         <f>'Stats Global'!F29</f>
         <v>0</v>
       </c>
-      <c r="C28" s="110">
+      <c r="C28" s="109">
         <f>'Stats Global'!G29+'Stats Global'!G29</f>
         <v>0</v>
       </c>
-      <c r="D28" s="110">
+      <c r="D28" s="109">
         <f>'Stats Global'!O29</f>
         <v>0</v>
       </c>
-      <c r="E28" s="119"/>
+      <c r="E28" s="118"/>
       <c r="H28" s="54"/>
       <c r="J28" s="55">
         <f>'Stats Global'!J29</f>
@@ -19264,23 +19259,23 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="110">
+      <c r="A29" s="109">
         <f>'Stats Global'!B30</f>
         <v>0</v>
       </c>
-      <c r="B29" s="110">
+      <c r="B29" s="109">
         <f>'Stats Global'!F30</f>
         <v>0</v>
       </c>
-      <c r="C29" s="110">
+      <c r="C29" s="109">
         <f>'Stats Global'!G30+'Stats Global'!G30</f>
         <v>0</v>
       </c>
-      <c r="D29" s="110">
+      <c r="D29" s="109">
         <f>'Stats Global'!O30</f>
         <v>0</v>
       </c>
-      <c r="E29" s="119"/>
+      <c r="E29" s="118"/>
       <c r="H29" s="54"/>
       <c r="J29" s="55">
         <f>'Stats Global'!J30</f>
@@ -19301,23 +19296,23 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="110">
+      <c r="A30" s="109">
         <f>'Stats Global'!B31</f>
         <v>0</v>
       </c>
-      <c r="B30" s="110">
+      <c r="B30" s="109">
         <f>'Stats Global'!F31</f>
         <v>0</v>
       </c>
-      <c r="C30" s="110">
+      <c r="C30" s="109">
         <f>'Stats Global'!G31+'Stats Global'!G31</f>
         <v>0</v>
       </c>
-      <c r="D30" s="110">
+      <c r="D30" s="109">
         <f>'Stats Global'!O31</f>
         <v>0</v>
       </c>
-      <c r="E30" s="119"/>
+      <c r="E30" s="118"/>
       <c r="J30" s="55">
         <f>'Stats Global'!J31</f>
         <v>0</v>
@@ -19337,23 +19332,23 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="110">
+      <c r="A31" s="109">
         <f>'Stats Global'!B32</f>
         <v>0</v>
       </c>
-      <c r="B31" s="110">
+      <c r="B31" s="109">
         <f>'Stats Global'!F32</f>
         <v>0</v>
       </c>
-      <c r="C31" s="110">
+      <c r="C31" s="109">
         <f>'Stats Global'!G32+'Stats Global'!G32</f>
         <v>0</v>
       </c>
-      <c r="D31" s="110">
+      <c r="D31" s="109">
         <f>'Stats Global'!O32</f>
         <v>0</v>
       </c>
-      <c r="E31" s="119"/>
+      <c r="E31" s="118"/>
       <c r="J31" s="55">
         <f>'Stats Global'!J32</f>
         <v>0</v>
@@ -19373,23 +19368,23 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="110">
+      <c r="A32" s="109">
         <f>'Stats Global'!B33</f>
         <v>0</v>
       </c>
-      <c r="B32" s="110">
+      <c r="B32" s="109">
         <f>'Stats Global'!F33</f>
         <v>0</v>
       </c>
-      <c r="C32" s="110">
+      <c r="C32" s="109">
         <f>'Stats Global'!G33+'Stats Global'!G33</f>
         <v>0</v>
       </c>
-      <c r="D32" s="110">
+      <c r="D32" s="109">
         <f>'Stats Global'!O33</f>
         <v>0</v>
       </c>
-      <c r="E32" s="119"/>
+      <c r="E32" s="118"/>
       <c r="J32" s="55">
         <f>'Stats Global'!J33</f>
         <v>0</v>
@@ -19409,23 +19404,23 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="110">
+      <c r="A33" s="109">
         <f>'Stats Global'!B34</f>
         <v>0</v>
       </c>
-      <c r="B33" s="110">
+      <c r="B33" s="109">
         <f>'Stats Global'!F34</f>
         <v>0</v>
       </c>
-      <c r="C33" s="110">
+      <c r="C33" s="109">
         <f>'Stats Global'!G34+'Stats Global'!G34</f>
         <v>0</v>
       </c>
-      <c r="D33" s="110">
+      <c r="D33" s="109">
         <f>'Stats Global'!O34</f>
         <v>0</v>
       </c>
-      <c r="E33" s="119"/>
+      <c r="E33" s="118"/>
       <c r="J33" s="55">
         <f>'Stats Global'!J34</f>
         <v>0</v>
@@ -19445,23 +19440,23 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="110">
+      <c r="A34" s="109">
         <f>'Stats Global'!B35</f>
         <v>0</v>
       </c>
-      <c r="B34" s="110">
+      <c r="B34" s="109">
         <f>'Stats Global'!F35</f>
         <v>0</v>
       </c>
-      <c r="C34" s="110">
+      <c r="C34" s="109">
         <f>'Stats Global'!G35+'Stats Global'!G35</f>
         <v>0</v>
       </c>
-      <c r="D34" s="110">
+      <c r="D34" s="109">
         <f>'Stats Global'!O35</f>
         <v>0</v>
       </c>
-      <c r="E34" s="119"/>
+      <c r="E34" s="118"/>
       <c r="J34" s="55">
         <f>'Stats Global'!J35</f>
         <v>0</v>
@@ -19481,23 +19476,23 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="110">
+      <c r="A35" s="109">
         <f>'Stats Global'!B36</f>
         <v>0</v>
       </c>
-      <c r="B35" s="110">
+      <c r="B35" s="109">
         <f>'Stats Global'!F36</f>
         <v>0</v>
       </c>
-      <c r="C35" s="110">
+      <c r="C35" s="109">
         <f>'Stats Global'!G36+'Stats Global'!G36</f>
         <v>0</v>
       </c>
-      <c r="D35" s="110">
+      <c r="D35" s="109">
         <f>'Stats Global'!O36</f>
         <v>0</v>
       </c>
-      <c r="E35" s="119"/>
+      <c r="E35" s="118"/>
       <c r="J35" s="55">
         <f>'Stats Global'!J36</f>
         <v>0</v>
@@ -19517,23 +19512,23 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="110">
+      <c r="A36" s="109">
         <f>'Stats Global'!B37</f>
         <v>0</v>
       </c>
-      <c r="B36" s="110">
+      <c r="B36" s="109">
         <f>'Stats Global'!F37</f>
         <v>0</v>
       </c>
-      <c r="C36" s="110">
+      <c r="C36" s="109">
         <f>'Stats Global'!G37+'Stats Global'!G37</f>
         <v>0</v>
       </c>
-      <c r="D36" s="110">
+      <c r="D36" s="109">
         <f>'Stats Global'!O37</f>
         <v>0</v>
       </c>
-      <c r="E36" s="119"/>
+      <c r="E36" s="118"/>
       <c r="J36" s="55">
         <f>'Stats Global'!J37</f>
         <v>0</v>
@@ -19553,23 +19548,23 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="110">
+      <c r="A37" s="109">
         <f>'Stats Global'!B38</f>
         <v>0</v>
       </c>
-      <c r="B37" s="110">
+      <c r="B37" s="109">
         <f>'Stats Global'!F38</f>
         <v>0</v>
       </c>
-      <c r="C37" s="110">
+      <c r="C37" s="109">
         <f>'Stats Global'!G38+'Stats Global'!G38</f>
         <v>0</v>
       </c>
-      <c r="D37" s="110">
+      <c r="D37" s="109">
         <f>'Stats Global'!O38</f>
         <v>0</v>
       </c>
-      <c r="E37" s="119"/>
+      <c r="E37" s="118"/>
       <c r="J37" s="55">
         <f>'Stats Global'!J38</f>
         <v>0</v>
@@ -19589,23 +19584,23 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="110">
+      <c r="A38" s="109">
         <f>'Stats Global'!B39</f>
         <v>0</v>
       </c>
-      <c r="B38" s="110">
+      <c r="B38" s="109">
         <f>'Stats Global'!F39</f>
         <v>0</v>
       </c>
-      <c r="C38" s="110">
+      <c r="C38" s="109">
         <f>'Stats Global'!G39+'Stats Global'!G39</f>
         <v>0</v>
       </c>
-      <c r="D38" s="110">
+      <c r="D38" s="109">
         <f>'Stats Global'!O39</f>
         <v>0</v>
       </c>
-      <c r="E38" s="119"/>
+      <c r="E38" s="118"/>
       <c r="J38" s="55">
         <f>'Stats Global'!J39</f>
         <v>0</v>
@@ -19625,23 +19620,23 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="110">
+      <c r="A39" s="109">
         <f>'Stats Global'!B40</f>
         <v>0</v>
       </c>
-      <c r="B39" s="110">
+      <c r="B39" s="109">
         <f>'Stats Global'!F40</f>
         <v>0</v>
       </c>
-      <c r="C39" s="110">
+      <c r="C39" s="109">
         <f>'Stats Global'!G40+'Stats Global'!G40</f>
         <v>0</v>
       </c>
-      <c r="D39" s="110">
+      <c r="D39" s="109">
         <f>'Stats Global'!O40</f>
         <v>0</v>
       </c>
-      <c r="E39" s="119"/>
+      <c r="E39" s="118"/>
       <c r="J39" s="55">
         <f>'Stats Global'!J40</f>
         <v>0</v>
@@ -19661,23 +19656,23 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="110">
+      <c r="A40" s="109">
         <f>'Stats Global'!B41</f>
         <v>0</v>
       </c>
-      <c r="B40" s="110">
+      <c r="B40" s="109">
         <f>'Stats Global'!F41</f>
         <v>0</v>
       </c>
-      <c r="C40" s="110">
+      <c r="C40" s="109">
         <f>'Stats Global'!G41+'Stats Global'!G41</f>
         <v>0</v>
       </c>
-      <c r="D40" s="110">
+      <c r="D40" s="109">
         <f>'Stats Global'!O41</f>
         <v>0</v>
       </c>
-      <c r="E40" s="119"/>
+      <c r="E40" s="118"/>
       <c r="J40" s="55">
         <f>'Stats Global'!J41</f>
         <v>0</v>
@@ -19701,25 +19696,25 @@
         <f>SUM(B4:B40)/SUM(B4:C40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="119"/>
+      <c r="E41" s="118"/>
       <c r="H41" s="54"/>
       <c r="I41" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="J41" s="113">
+      <c r="J41" s="112">
         <f>SUM(J4:J40)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="113">
+      <c r="K41" s="112">
         <f>SUM(K4:K40)</f>
         <v>0</v>
       </c>
       <c r="L41" s="54"/>
-      <c r="M41" s="113">
+      <c r="M41" s="112">
         <f>SUM(M4:M40)</f>
         <v>0</v>
       </c>
-      <c r="N41" s="113">
+      <c r="N41" s="112">
         <f>SUM(N4:N40)</f>
         <v>0</v>
       </c>
@@ -19745,9 +19740,9 @@
       <c r="K43" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="M43" s="60" t="e">
-        <f>ROUND((SUM('Stats Global'!AA8,'Stats Global'!AA9,'Stats Global'!AA16,'Stats Global'!AA21,'Stats Global'!AA22))/'Stats Global'!AA6,1)</f>
-        <v>#DIV/0!</v>
+      <c r="M43" s="60">
+        <f>IFERROR(ROUND((SUM(Table1114[Points]))/'Stats Global'!AA6,1),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -19763,18 +19758,18 @@
         <v>0</v>
       </c>
       <c r="L44" s="36" t="str">
-        <f>IF(K44&lt;&gt;0,IF(K44=Q4,P4,IF(K44=Q5,P5,IF(Q6=K44,P6,IF(Q7=K44,P7,P8)))),"N/A")</f>
+        <f>IF(K44&lt;&gt;0, _xlfn.XLOOKUP(K44,Table1114[Points],Table1114[Name], "N/A"), "N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="M44" s="60" t="e">
-        <f>ROUND(SUM('Stats Global'!AC8,'Stats Global'!AC9,'Stats Global'!AC16,'Stats Global'!AC21,'Stats Global'!AC22)/'Stats Global'!AA6,1)</f>
-        <v>#DIV/0!</v>
+      <c r="M44" s="60">
+        <f>IFERROR(ROUND((SUM(Table1114[Finishes]))/'Stats Global'!AA7,1),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G45" s="36" t="e">
+      <c r="G45" s="36" t="str">
         <f>M43&amp;","&amp;M44&amp;","&amp;M45&amp;","&amp;M46&amp;","&amp;M47&amp;","&amp;M48&amp;"],"</f>
-        <v>#DIV/0!</v>
+        <v>0,0,0,0,0,0],</v>
       </c>
       <c r="I45" s="36" t="s">
         <v>110</v>
@@ -19783,13 +19778,13 @@
         <f>MAX(Table1114[Finishes])</f>
         <v>0</v>
       </c>
-      <c r="L45" s="66" t="str">
-        <f>IF(K45&lt;&gt;0,IF(K45=S4,P4,IF(K45=S5,P5,IF(S6=K45,P6,IF(S7=K45,P7,P8)))),"N/A")</f>
+      <c r="L45" s="36" t="str">
+        <f>IF(K45&lt;&gt;0, _xlfn.XLOOKUP(K45,Table1114[Finishes],Table1114[Name], "N/A"), "N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="M45" s="60" t="e">
-        <f>ROUND(SUM('Stats Global'!AE8,'Stats Global'!AE9,'Stats Global'!AE16,'Stats Global'!AE21,'Stats Global'!AE22)/'Stats Global'!AA6,1)</f>
-        <v>#DIV/0!</v>
+      <c r="M45" s="60">
+        <f>IFERROR(ROUND((SUM(Table1114[Midranges]))/'Stats Global'!AA8,1),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -19804,13 +19799,13 @@
         <f>MAX(Table1114[Midranges])</f>
         <v>0</v>
       </c>
-      <c r="L46" s="66" t="str">
-        <f>IF(K46&lt;&gt;0,IF(K46=U4,P4,IF(K46=U5,P5,IF(U6=K46,P6,IF(U7=K46,P7,P8)))),"N/A")</f>
+      <c r="L46" s="36" t="str">
+        <f>IF(K46&lt;&gt;0, _xlfn.XLOOKUP(K46,Table1114[Midranges],Table1114[Name], "N/A"), "N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="M46" s="60" t="e">
-        <f>ROUND(SUM('Stats Global'!AG8,'Stats Global'!AG9,'Stats Global'!AG16,'Stats Global'!AG21,'Stats Global'!AG22)/'Stats Global'!AA6,1)</f>
-        <v>#DIV/0!</v>
+      <c r="M46" s="60">
+        <f>IFERROR(ROUND((SUM(Table1114[Threes]))/'Stats Global'!AA9,1),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -19819,18 +19814,18 @@
         <v>0</v>
       </c>
       <c r="L47" s="36" t="str">
-        <f>IF(K47&lt;&gt;0,IF(K47=W4,P4,IF(K47=W5,P5,IF(W6=K47,P6,IF(W7=K47,P7,P8)))),"N/A")</f>
+        <f>IF(K47&lt;&gt;0, _xlfn.XLOOKUP(K47,Table1114[Threes],Table1114[Name], "N/A"), "N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="M47" s="36" t="e">
-        <f>ROUND(F3/'Stats Global'!AA6,1)</f>
-        <v>#DIV/0!</v>
+      <c r="M47" s="36">
+        <f>IFERROR(ROUND(F3/'Stats Global'!AA6,1),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="M48" s="36" t="e">
-        <f>ROUND(G3/'Stats Global'!AA6,1)</f>
-        <v>#DIV/0!</v>
+      <c r="M48" s="36">
+        <f>IFERROR(ROUND(G3/'Stats Global'!AA6,1),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -20799,8 +20794,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:V1000"/>
   <sheetViews>
-    <sheetView zoomScale="76" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D40"/>
+    <sheetView topLeftCell="D1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -20843,15 +20838,15 @@
       <c r="D3" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="112">
+      <c r="F3" s="111">
         <f>SUM(B4:B40)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="112">
+      <c r="G3" s="111">
         <f>SUM(C4:C40)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="112">
+      <c r="H3" s="111">
         <f>SUM(D4:D40)</f>
         <v>0</v>
       </c>
@@ -20894,27 +20889,27 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="110">
+      <c r="A4" s="109">
         <f>'Stats Global'!B5</f>
         <v>0</v>
       </c>
-      <c r="B4" s="111">
+      <c r="B4" s="110">
         <f>'Stats Global'!L5</f>
         <v>0</v>
       </c>
-      <c r="C4" s="111">
+      <c r="C4" s="110">
         <f>'Stats Global'!M5+'Stats Global'!N5</f>
         <v>0</v>
       </c>
-      <c r="D4" s="111">
+      <c r="D4" s="110">
         <f>'Stats Global'!Q5</f>
         <v>0</v>
       </c>
-      <c r="J4" s="108">
+      <c r="J4" s="107">
         <f>'Stats Global'!L5</f>
         <v>0</v>
       </c>
-      <c r="K4" s="108">
+      <c r="K4" s="107">
         <f>'Stats Global'!N5</f>
         <v>0</v>
       </c>
@@ -20961,19 +20956,19 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="110">
+      <c r="A5" s="109">
         <f>'Stats Global'!B6</f>
         <v>0</v>
       </c>
-      <c r="B5" s="111">
+      <c r="B5" s="110">
         <f>'Stats Global'!L6</f>
         <v>0</v>
       </c>
-      <c r="C5" s="111">
+      <c r="C5" s="110">
         <f>'Stats Global'!M6+'Stats Global'!N6</f>
         <v>0</v>
       </c>
-      <c r="D5" s="111">
+      <c r="D5" s="110">
         <f>'Stats Global'!Q6</f>
         <v>0</v>
       </c>
@@ -20988,60 +20983,60 @@
       </c>
       <c r="L5" s="56"/>
       <c r="M5" s="54" t="str">
-        <f>'Stats Global'!Z8</f>
-        <v>Jasper Collier</v>
+        <f>'Stats Global'!Z14</f>
+        <v>Sam James</v>
       </c>
       <c r="N5" s="54">
-        <f>'Stats Global'!AA8</f>
+        <f>'Stats Global'!AA14</f>
         <v>0</v>
       </c>
       <c r="O5" s="54">
-        <f>'Stats Global'!AB8</f>
+        <f>'Stats Global'!AB14</f>
         <v>0</v>
       </c>
       <c r="P5" s="54">
-        <f>'Stats Global'!AC8</f>
+        <f>'Stats Global'!AC14</f>
         <v>0</v>
       </c>
       <c r="Q5" s="54">
-        <f>'Stats Global'!AD8</f>
+        <f>'Stats Global'!AD14</f>
         <v>0</v>
       </c>
       <c r="R5" s="54">
-        <f>'Stats Global'!AE8</f>
+        <f>'Stats Global'!AE14</f>
         <v>0</v>
       </c>
       <c r="S5" s="54">
-        <f>'Stats Global'!AF8</f>
+        <f>'Stats Global'!AF14</f>
         <v>0</v>
       </c>
       <c r="T5" s="54">
-        <f>'Stats Global'!AG8</f>
+        <f>'Stats Global'!AG14</f>
         <v>0</v>
       </c>
       <c r="U5" s="54">
-        <f>'Stats Global'!AH8</f>
+        <f>'Stats Global'!AH14</f>
         <v>0</v>
       </c>
       <c r="V5" s="63">
-        <f>'Stats Global'!AJ8</f>
+        <f>'Stats Global'!AJ14</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="110">
+      <c r="A6" s="109">
         <f>'Stats Global'!B7</f>
         <v>0</v>
       </c>
-      <c r="B6" s="111">
+      <c r="B6" s="110">
         <f>'Stats Global'!L7</f>
         <v>0</v>
       </c>
-      <c r="C6" s="111">
+      <c r="C6" s="110">
         <f>'Stats Global'!M7+'Stats Global'!N7</f>
         <v>0</v>
       </c>
-      <c r="D6" s="111">
+      <c r="D6" s="110">
         <f>'Stats Global'!Q7</f>
         <v>0</v>
       </c>
@@ -21057,60 +21052,60 @@
       </c>
       <c r="L6" s="56"/>
       <c r="M6" s="54" t="str">
-        <f>'Stats Global'!Z17</f>
-        <v>Samuel McConaghy</v>
+        <f>'Stats Global'!Z16</f>
+        <v>William Kim</v>
       </c>
       <c r="N6" s="54">
-        <f>'Stats Global'!AA17</f>
+        <f>'Stats Global'!AA16</f>
         <v>0</v>
       </c>
       <c r="O6" s="54">
-        <f>'Stats Global'!AB17</f>
+        <f>'Stats Global'!AB16</f>
         <v>0</v>
       </c>
       <c r="P6" s="54">
-        <f>'Stats Global'!AC17</f>
+        <f>'Stats Global'!AC16</f>
         <v>0</v>
       </c>
       <c r="Q6" s="54">
-        <f>'Stats Global'!AD17</f>
+        <f>'Stats Global'!AD16</f>
         <v>0</v>
       </c>
       <c r="R6" s="54">
-        <f>'Stats Global'!AE17</f>
+        <f>'Stats Global'!AE16</f>
         <v>0</v>
       </c>
       <c r="S6" s="54">
-        <f>'Stats Global'!AF17</f>
+        <f>'Stats Global'!AF16</f>
         <v>0</v>
       </c>
       <c r="T6" s="54">
-        <f>'Stats Global'!AG17</f>
+        <f>'Stats Global'!AG16</f>
         <v>0</v>
       </c>
       <c r="U6" s="54">
-        <f>'Stats Global'!AH17</f>
+        <f>'Stats Global'!AH16</f>
         <v>0</v>
       </c>
       <c r="V6" s="63">
-        <f>'Stats Global'!AJ17</f>
+        <f>'Stats Global'!AJ16</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="110">
+      <c r="A7" s="109">
         <f>'Stats Global'!B8</f>
         <v>0</v>
       </c>
-      <c r="B7" s="111">
+      <c r="B7" s="110">
         <f>'Stats Global'!L8</f>
         <v>0</v>
       </c>
-      <c r="C7" s="111">
+      <c r="C7" s="110">
         <f>'Stats Global'!M8+'Stats Global'!N8</f>
         <v>0</v>
       </c>
-      <c r="D7" s="111">
+      <c r="D7" s="110">
         <f>'Stats Global'!Q8</f>
         <v>0</v>
       </c>
@@ -21126,60 +21121,60 @@
       </c>
       <c r="L7" s="56"/>
       <c r="M7" s="54" t="str">
-        <f>'Stats Global'!Z16</f>
-        <v>William Kim</v>
+        <f>'Stats Global'!Z19</f>
+        <v>Nicholas Szogi</v>
       </c>
       <c r="N7" s="54">
-        <f>'Stats Global'!AA16</f>
+        <f>'Stats Global'!AA19</f>
         <v>0</v>
       </c>
       <c r="O7" s="54">
-        <f>'Stats Global'!AB16</f>
+        <f>'Stats Global'!AB19</f>
         <v>0</v>
       </c>
       <c r="P7" s="54">
-        <f>'Stats Global'!AC16</f>
+        <f>'Stats Global'!AC19</f>
         <v>0</v>
       </c>
       <c r="Q7" s="54">
-        <f>'Stats Global'!AD16</f>
+        <f>'Stats Global'!AD19</f>
         <v>0</v>
       </c>
       <c r="R7" s="54">
-        <f>'Stats Global'!AE16</f>
+        <f>'Stats Global'!AE19</f>
         <v>0</v>
       </c>
       <c r="S7" s="54">
-        <f>'Stats Global'!AF16</f>
+        <f>'Stats Global'!AF19</f>
         <v>0</v>
       </c>
       <c r="T7" s="54">
-        <f>'Stats Global'!AG16</f>
+        <f>'Stats Global'!AG19</f>
         <v>0</v>
       </c>
       <c r="U7" s="54">
-        <f>'Stats Global'!AH16</f>
+        <f>'Stats Global'!AH19</f>
         <v>0</v>
       </c>
       <c r="V7" s="63">
-        <f>'Stats Global'!AJ16</f>
+        <f>'Stats Global'!AJ19</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="110">
+      <c r="A8" s="109">
         <f>'Stats Global'!B9</f>
         <v>0</v>
       </c>
-      <c r="B8" s="111">
+      <c r="B8" s="110">
         <f>'Stats Global'!L9</f>
         <v>0</v>
       </c>
-      <c r="C8" s="111">
+      <c r="C8" s="110">
         <f>'Stats Global'!M9+'Stats Global'!N9</f>
         <v>0</v>
       </c>
-      <c r="D8" s="111">
+      <c r="D8" s="110">
         <f>'Stats Global'!Q9</f>
         <v>0</v>
       </c>
@@ -21236,19 +21231,19 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="110">
+      <c r="A9" s="109">
         <f>'Stats Global'!B10</f>
         <v>0</v>
       </c>
-      <c r="B9" s="111">
+      <c r="B9" s="110">
         <f>'Stats Global'!L10</f>
         <v>0</v>
       </c>
-      <c r="C9" s="111">
+      <c r="C9" s="110">
         <f>'Stats Global'!M10+'Stats Global'!N10</f>
         <v>0</v>
       </c>
-      <c r="D9" s="111">
+      <c r="D9" s="110">
         <f>'Stats Global'!Q10</f>
         <v>0</v>
       </c>
@@ -21275,19 +21270,19 @@
       <c r="V9" s="73"/>
     </row>
     <row r="10" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="110">
+      <c r="A10" s="109">
         <f>'Stats Global'!B11</f>
         <v>0</v>
       </c>
-      <c r="B10" s="111">
+      <c r="B10" s="110">
         <f>'Stats Global'!L11</f>
         <v>0</v>
       </c>
-      <c r="C10" s="111">
+      <c r="C10" s="110">
         <f>'Stats Global'!M11+'Stats Global'!N11</f>
         <v>0</v>
       </c>
-      <c r="D10" s="111">
+      <c r="D10" s="110">
         <f>'Stats Global'!Q11</f>
         <v>0</v>
       </c>
@@ -21314,19 +21309,19 @@
       <c r="V10" s="73"/>
     </row>
     <row r="11" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="110">
+      <c r="A11" s="109">
         <f>'Stats Global'!B12</f>
         <v>0</v>
       </c>
-      <c r="B11" s="111">
+      <c r="B11" s="110">
         <f>'Stats Global'!L12</f>
         <v>0</v>
       </c>
-      <c r="C11" s="111">
+      <c r="C11" s="110">
         <f>'Stats Global'!M12+'Stats Global'!N12</f>
         <v>0</v>
       </c>
-      <c r="D11" s="111">
+      <c r="D11" s="110">
         <f>'Stats Global'!Q12</f>
         <v>0</v>
       </c>
@@ -21346,19 +21341,19 @@
       <c r="V11" s="54"/>
     </row>
     <row r="12" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="110">
+      <c r="A12" s="109">
         <f>'Stats Global'!B13</f>
         <v>0</v>
       </c>
-      <c r="B12" s="111">
+      <c r="B12" s="110">
         <f>'Stats Global'!L13</f>
         <v>0</v>
       </c>
-      <c r="C12" s="111">
+      <c r="C12" s="110">
         <f>'Stats Global'!M13+'Stats Global'!N13</f>
         <v>0</v>
       </c>
-      <c r="D12" s="111">
+      <c r="D12" s="110">
         <f>'Stats Global'!Q13</f>
         <v>0</v>
       </c>
@@ -21378,19 +21373,19 @@
       <c r="V12" s="54"/>
     </row>
     <row r="13" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="110">
+      <c r="A13" s="109">
         <f>'Stats Global'!B14</f>
         <v>0</v>
       </c>
-      <c r="B13" s="111">
+      <c r="B13" s="110">
         <f>'Stats Global'!L14</f>
         <v>0</v>
       </c>
-      <c r="C13" s="111">
+      <c r="C13" s="110">
         <f>'Stats Global'!M14+'Stats Global'!N14</f>
         <v>0</v>
       </c>
-      <c r="D13" s="111">
+      <c r="D13" s="110">
         <f>'Stats Global'!Q14</f>
         <v>0</v>
       </c>
@@ -21410,19 +21405,19 @@
       <c r="V13" s="54"/>
     </row>
     <row r="14" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="110">
+      <c r="A14" s="109">
         <f>'Stats Global'!B15</f>
         <v>0</v>
       </c>
-      <c r="B14" s="111">
+      <c r="B14" s="110">
         <f>'Stats Global'!L15</f>
         <v>0</v>
       </c>
-      <c r="C14" s="111">
+      <c r="C14" s="110">
         <f>'Stats Global'!M15+'Stats Global'!N15</f>
         <v>0</v>
       </c>
-      <c r="D14" s="111">
+      <c r="D14" s="110">
         <f>'Stats Global'!Q15</f>
         <v>0</v>
       </c>
@@ -21441,19 +21436,19 @@
       <c r="V14" s="54"/>
     </row>
     <row r="15" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="110">
+      <c r="A15" s="109">
         <f>'Stats Global'!B16</f>
         <v>0</v>
       </c>
-      <c r="B15" s="111">
+      <c r="B15" s="110">
         <f>'Stats Global'!L16</f>
         <v>0</v>
       </c>
-      <c r="C15" s="111">
+      <c r="C15" s="110">
         <f>'Stats Global'!M16+'Stats Global'!N16</f>
         <v>0</v>
       </c>
-      <c r="D15" s="111">
+      <c r="D15" s="110">
         <f>'Stats Global'!Q16</f>
         <v>0</v>
       </c>
@@ -21472,19 +21467,19 @@
       <c r="V15" s="54"/>
     </row>
     <row r="16" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="110">
+      <c r="A16" s="109">
         <f>'Stats Global'!B17</f>
         <v>0</v>
       </c>
-      <c r="B16" s="111">
+      <c r="B16" s="110">
         <f>'Stats Global'!L17</f>
         <v>0</v>
       </c>
-      <c r="C16" s="111">
+      <c r="C16" s="110">
         <f>'Stats Global'!M17+'Stats Global'!N17</f>
         <v>0</v>
       </c>
-      <c r="D16" s="111">
+      <c r="D16" s="110">
         <f>'Stats Global'!Q17</f>
         <v>0</v>
       </c>
@@ -21503,19 +21498,19 @@
       <c r="V16" s="54"/>
     </row>
     <row r="17" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="110">
+      <c r="A17" s="109">
         <f>'Stats Global'!B18</f>
         <v>0</v>
       </c>
-      <c r="B17" s="111">
+      <c r="B17" s="110">
         <f>'Stats Global'!L18</f>
         <v>0</v>
       </c>
-      <c r="C17" s="111">
+      <c r="C17" s="110">
         <f>'Stats Global'!M18+'Stats Global'!N18</f>
         <v>0</v>
       </c>
-      <c r="D17" s="111">
+      <c r="D17" s="110">
         <f>'Stats Global'!Q18</f>
         <v>0</v>
       </c>
@@ -21534,19 +21529,19 @@
       <c r="V17" s="54"/>
     </row>
     <row r="18" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="110">
+      <c r="A18" s="109">
         <f>'Stats Global'!B19</f>
         <v>0</v>
       </c>
-      <c r="B18" s="111">
+      <c r="B18" s="110">
         <f>'Stats Global'!L19</f>
         <v>0</v>
       </c>
-      <c r="C18" s="111">
+      <c r="C18" s="110">
         <f>'Stats Global'!M19+'Stats Global'!N19</f>
         <v>0</v>
       </c>
-      <c r="D18" s="111">
+      <c r="D18" s="110">
         <f>'Stats Global'!Q19</f>
         <v>0</v>
       </c>
@@ -21565,19 +21560,19 @@
       <c r="V18" s="54"/>
     </row>
     <row r="19" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="110">
+      <c r="A19" s="109">
         <f>'Stats Global'!B20</f>
         <v>0</v>
       </c>
-      <c r="B19" s="111">
+      <c r="B19" s="110">
         <f>'Stats Global'!L20</f>
         <v>0</v>
       </c>
-      <c r="C19" s="111">
+      <c r="C19" s="110">
         <f>'Stats Global'!M20+'Stats Global'!N20</f>
         <v>0</v>
       </c>
-      <c r="D19" s="111">
+      <c r="D19" s="110">
         <f>'Stats Global'!Q20</f>
         <v>0</v>
       </c>
@@ -21596,19 +21591,19 @@
       <c r="V19" s="54"/>
     </row>
     <row r="20" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="110">
+      <c r="A20" s="109">
         <f>'Stats Global'!B21</f>
         <v>0</v>
       </c>
-      <c r="B20" s="111">
+      <c r="B20" s="110">
         <f>'Stats Global'!L21</f>
         <v>0</v>
       </c>
-      <c r="C20" s="111">
+      <c r="C20" s="110">
         <f>'Stats Global'!M21+'Stats Global'!N21</f>
         <v>0</v>
       </c>
-      <c r="D20" s="111">
+      <c r="D20" s="110">
         <f>'Stats Global'!Q21</f>
         <v>0</v>
       </c>
@@ -21627,19 +21622,19 @@
       <c r="V20" s="54"/>
     </row>
     <row r="21" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="110">
+      <c r="A21" s="109">
         <f>'Stats Global'!B22</f>
         <v>0</v>
       </c>
-      <c r="B21" s="111">
+      <c r="B21" s="110">
         <f>'Stats Global'!L22</f>
         <v>0</v>
       </c>
-      <c r="C21" s="111">
+      <c r="C21" s="110">
         <f>'Stats Global'!M22+'Stats Global'!N22</f>
         <v>0</v>
       </c>
-      <c r="D21" s="111">
+      <c r="D21" s="110">
         <f>'Stats Global'!Q22</f>
         <v>0</v>
       </c>
@@ -21658,19 +21653,19 @@
       <c r="V21" s="54"/>
     </row>
     <row r="22" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="110">
+      <c r="A22" s="109">
         <f>'Stats Global'!B23</f>
         <v>0</v>
       </c>
-      <c r="B22" s="111">
+      <c r="B22" s="110">
         <f>'Stats Global'!L23</f>
         <v>0</v>
       </c>
-      <c r="C22" s="111">
+      <c r="C22" s="110">
         <f>'Stats Global'!M23+'Stats Global'!N23</f>
         <v>0</v>
       </c>
-      <c r="D22" s="111">
+      <c r="D22" s="110">
         <f>'Stats Global'!Q23</f>
         <v>0</v>
       </c>
@@ -21689,19 +21684,19 @@
       <c r="V22" s="54"/>
     </row>
     <row r="23" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="110">
+      <c r="A23" s="109">
         <f>'Stats Global'!B24</f>
         <v>0</v>
       </c>
-      <c r="B23" s="111">
+      <c r="B23" s="110">
         <f>'Stats Global'!L24</f>
         <v>0</v>
       </c>
-      <c r="C23" s="111">
+      <c r="C23" s="110">
         <f>'Stats Global'!M24+'Stats Global'!N24</f>
         <v>0</v>
       </c>
-      <c r="D23" s="111">
+      <c r="D23" s="110">
         <f>'Stats Global'!Q24</f>
         <v>0</v>
       </c>
@@ -21721,19 +21716,19 @@
       <c r="V23" s="54"/>
     </row>
     <row r="24" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="110">
+      <c r="A24" s="109">
         <f>'Stats Global'!B25</f>
         <v>0</v>
       </c>
-      <c r="B24" s="111">
+      <c r="B24" s="110">
         <f>'Stats Global'!L25</f>
         <v>0</v>
       </c>
-      <c r="C24" s="111">
+      <c r="C24" s="110">
         <f>'Stats Global'!M25+'Stats Global'!N25</f>
         <v>0</v>
       </c>
-      <c r="D24" s="111">
+      <c r="D24" s="110">
         <f>'Stats Global'!Q25</f>
         <v>0</v>
       </c>
@@ -21753,19 +21748,19 @@
       <c r="V24" s="54"/>
     </row>
     <row r="25" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="110">
+      <c r="A25" s="109">
         <f>'Stats Global'!B26</f>
         <v>0</v>
       </c>
-      <c r="B25" s="111">
+      <c r="B25" s="110">
         <f>'Stats Global'!L26</f>
         <v>0</v>
       </c>
-      <c r="C25" s="111">
+      <c r="C25" s="110">
         <f>'Stats Global'!M26+'Stats Global'!N26</f>
         <v>0</v>
       </c>
-      <c r="D25" s="111">
+      <c r="D25" s="110">
         <f>'Stats Global'!Q26</f>
         <v>0</v>
       </c>
@@ -21785,19 +21780,19 @@
       <c r="V25" s="54"/>
     </row>
     <row r="26" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="110">
+      <c r="A26" s="109">
         <f>'Stats Global'!B27</f>
         <v>0</v>
       </c>
-      <c r="B26" s="111">
+      <c r="B26" s="110">
         <f>'Stats Global'!L27</f>
         <v>0</v>
       </c>
-      <c r="C26" s="111">
+      <c r="C26" s="110">
         <f>'Stats Global'!M27+'Stats Global'!N27</f>
         <v>0</v>
       </c>
-      <c r="D26" s="111">
+      <c r="D26" s="110">
         <f>'Stats Global'!Q27</f>
         <v>0</v>
       </c>
@@ -21816,19 +21811,19 @@
       <c r="V26" s="54"/>
     </row>
     <row r="27" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="110">
+      <c r="A27" s="109">
         <f>'Stats Global'!B28</f>
         <v>0</v>
       </c>
-      <c r="B27" s="111">
+      <c r="B27" s="110">
         <f>'Stats Global'!L28</f>
         <v>0</v>
       </c>
-      <c r="C27" s="111">
+      <c r="C27" s="110">
         <f>'Stats Global'!M28+'Stats Global'!N28</f>
         <v>0</v>
       </c>
-      <c r="D27" s="111">
+      <c r="D27" s="110">
         <f>'Stats Global'!Q28</f>
         <v>0</v>
       </c>
@@ -21847,19 +21842,19 @@
       <c r="V27" s="54"/>
     </row>
     <row r="28" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="110">
+      <c r="A28" s="109">
         <f>'Stats Global'!B29</f>
         <v>0</v>
       </c>
-      <c r="B28" s="111">
+      <c r="B28" s="110">
         <f>'Stats Global'!L29</f>
         <v>0</v>
       </c>
-      <c r="C28" s="111">
+      <c r="C28" s="110">
         <f>'Stats Global'!M29+'Stats Global'!N29</f>
         <v>0</v>
       </c>
-      <c r="D28" s="111">
+      <c r="D28" s="110">
         <f>'Stats Global'!Q29</f>
         <v>0</v>
       </c>
@@ -21878,19 +21873,19 @@
       <c r="V28" s="54"/>
     </row>
     <row r="29" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="110">
+      <c r="A29" s="109">
         <f>'Stats Global'!B30</f>
         <v>0</v>
       </c>
-      <c r="B29" s="111">
+      <c r="B29" s="110">
         <f>'Stats Global'!L30</f>
         <v>0</v>
       </c>
-      <c r="C29" s="111">
+      <c r="C29" s="110">
         <f>'Stats Global'!M30+'Stats Global'!N30</f>
         <v>0</v>
       </c>
-      <c r="D29" s="111">
+      <c r="D29" s="110">
         <f>'Stats Global'!Q30</f>
         <v>0</v>
       </c>
@@ -21909,19 +21904,19 @@
       <c r="V29" s="54"/>
     </row>
     <row r="30" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="110">
+      <c r="A30" s="109">
         <f>'Stats Global'!B31</f>
         <v>0</v>
       </c>
-      <c r="B30" s="111">
+      <c r="B30" s="110">
         <f>'Stats Global'!L31</f>
         <v>0</v>
       </c>
-      <c r="C30" s="111">
+      <c r="C30" s="110">
         <f>'Stats Global'!M31+'Stats Global'!N31</f>
         <v>0</v>
       </c>
-      <c r="D30" s="111">
+      <c r="D30" s="110">
         <f>'Stats Global'!Q31</f>
         <v>0</v>
       </c>
@@ -21937,19 +21932,19 @@
       <c r="V30" s="54"/>
     </row>
     <row r="31" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="110">
+      <c r="A31" s="109">
         <f>'Stats Global'!B32</f>
         <v>0</v>
       </c>
-      <c r="B31" s="111">
+      <c r="B31" s="110">
         <f>'Stats Global'!L32</f>
         <v>0</v>
       </c>
-      <c r="C31" s="111">
+      <c r="C31" s="110">
         <f>'Stats Global'!M32+'Stats Global'!N32</f>
         <v>0</v>
       </c>
-      <c r="D31" s="111">
+      <c r="D31" s="110">
         <f>'Stats Global'!Q32</f>
         <v>0</v>
       </c>
@@ -21963,19 +21958,19 @@
       </c>
     </row>
     <row r="32" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="110">
+      <c r="A32" s="109">
         <f>'Stats Global'!B33</f>
         <v>0</v>
       </c>
-      <c r="B32" s="111">
+      <c r="B32" s="110">
         <f>'Stats Global'!L33</f>
         <v>0</v>
       </c>
-      <c r="C32" s="111">
+      <c r="C32" s="110">
         <f>'Stats Global'!M33+'Stats Global'!N33</f>
         <v>0</v>
       </c>
-      <c r="D32" s="111">
+      <c r="D32" s="110">
         <f>'Stats Global'!Q33</f>
         <v>0</v>
       </c>
@@ -21989,19 +21984,19 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="110">
+      <c r="A33" s="109">
         <f>'Stats Global'!B34</f>
         <v>0</v>
       </c>
-      <c r="B33" s="111">
+      <c r="B33" s="110">
         <f>'Stats Global'!L34</f>
         <v>0</v>
       </c>
-      <c r="C33" s="111">
+      <c r="C33" s="110">
         <f>'Stats Global'!M34+'Stats Global'!N34</f>
         <v>0</v>
       </c>
-      <c r="D33" s="111">
+      <c r="D33" s="110">
         <f>'Stats Global'!Q34</f>
         <v>0</v>
       </c>
@@ -22015,19 +22010,19 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="110">
+      <c r="A34" s="109">
         <f>'Stats Global'!B35</f>
         <v>0</v>
       </c>
-      <c r="B34" s="111">
+      <c r="B34" s="110">
         <f>'Stats Global'!L35</f>
         <v>0</v>
       </c>
-      <c r="C34" s="111">
+      <c r="C34" s="110">
         <f>'Stats Global'!M35+'Stats Global'!N35</f>
         <v>0</v>
       </c>
-      <c r="D34" s="111">
+      <c r="D34" s="110">
         <f>'Stats Global'!Q35</f>
         <v>0</v>
       </c>
@@ -22041,19 +22036,19 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="110">
+      <c r="A35" s="109">
         <f>'Stats Global'!B36</f>
         <v>0</v>
       </c>
-      <c r="B35" s="111">
+      <c r="B35" s="110">
         <f>'Stats Global'!L36</f>
         <v>0</v>
       </c>
-      <c r="C35" s="111">
+      <c r="C35" s="110">
         <f>'Stats Global'!M36+'Stats Global'!N36</f>
         <v>0</v>
       </c>
-      <c r="D35" s="111">
+      <c r="D35" s="110">
         <f>'Stats Global'!Q36</f>
         <v>0</v>
       </c>
@@ -22067,19 +22062,19 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="110">
+      <c r="A36" s="109">
         <f>'Stats Global'!B37</f>
         <v>0</v>
       </c>
-      <c r="B36" s="111">
+      <c r="B36" s="110">
         <f>'Stats Global'!L37</f>
         <v>0</v>
       </c>
-      <c r="C36" s="111">
+      <c r="C36" s="110">
         <f>'Stats Global'!M37+'Stats Global'!N37</f>
         <v>0</v>
       </c>
-      <c r="D36" s="111">
+      <c r="D36" s="110">
         <f>'Stats Global'!Q37</f>
         <v>0</v>
       </c>
@@ -22093,19 +22088,19 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="110">
+      <c r="A37" s="109">
         <f>'Stats Global'!B38</f>
         <v>0</v>
       </c>
-      <c r="B37" s="111">
+      <c r="B37" s="110">
         <f>'Stats Global'!L38</f>
         <v>0</v>
       </c>
-      <c r="C37" s="111">
+      <c r="C37" s="110">
         <f>'Stats Global'!M38+'Stats Global'!N38</f>
         <v>0</v>
       </c>
-      <c r="D37" s="111">
+      <c r="D37" s="110">
         <f>'Stats Global'!Q38</f>
         <v>0</v>
       </c>
@@ -22119,19 +22114,19 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="110">
+      <c r="A38" s="109">
         <f>'Stats Global'!B39</f>
         <v>0</v>
       </c>
-      <c r="B38" s="111">
+      <c r="B38" s="110">
         <f>'Stats Global'!L39</f>
         <v>0</v>
       </c>
-      <c r="C38" s="111">
+      <c r="C38" s="110">
         <f>'Stats Global'!M39+'Stats Global'!N39</f>
         <v>0</v>
       </c>
-      <c r="D38" s="111">
+      <c r="D38" s="110">
         <f>'Stats Global'!Q39</f>
         <v>0</v>
       </c>
@@ -22145,19 +22140,19 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="110">
+      <c r="A39" s="109">
         <f>'Stats Global'!B40</f>
         <v>0</v>
       </c>
-      <c r="B39" s="111">
+      <c r="B39" s="110">
         <f>'Stats Global'!L40</f>
         <v>0</v>
       </c>
-      <c r="C39" s="111">
+      <c r="C39" s="110">
         <f>'Stats Global'!M40+'Stats Global'!N40</f>
         <v>0</v>
       </c>
-      <c r="D39" s="111">
+      <c r="D39" s="110">
         <f>'Stats Global'!Q40</f>
         <v>0</v>
       </c>
@@ -22171,19 +22166,19 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="110">
+      <c r="A40" s="109">
         <f>'Stats Global'!B41</f>
         <v>0</v>
       </c>
-      <c r="B40" s="111">
+      <c r="B40" s="110">
         <f>'Stats Global'!L41</f>
         <v>0</v>
       </c>
-      <c r="C40" s="111">
+      <c r="C40" s="110">
         <f>'Stats Global'!M41+'Stats Global'!N41</f>
         <v>0</v>
       </c>
-      <c r="D40" s="111">
+      <c r="D40" s="110">
         <f>'Stats Global'!Q41</f>
         <v>0</v>
       </c>
@@ -22205,11 +22200,11 @@
       <c r="I41" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="J41" s="114">
+      <c r="J41" s="113">
         <f>SUM(J4:J40)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="114">
+      <c r="K41" s="113">
         <f>SUM(K4:K40)</f>
         <v>0</v>
       </c>
@@ -22234,9 +22229,9 @@
       <c r="L43" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="N43" s="60" t="e">
-        <f>ROUND(SUM('Stats Global'!AA11,'Stats Global'!AA12,'Stats Global'!AA20,'Stats Global'!AA15,'Stats Global'!AA19,'Stats Global'!AA18)/'Stats Global'!AA6,1)</f>
-        <v>#DIV/0!</v>
+      <c r="N43" s="60">
+        <f>IFERROR(ROUND((SUM(Table1114[Points]))/'Stats Global'!AB6,1),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -22252,18 +22247,18 @@
         <v>0</v>
       </c>
       <c r="M44" s="36" t="str">
-        <f>IF(L44&lt;&gt;0,IF(L44=N4,M4,IF(L44=N5,M5,IF(N6=L44,M6,IF(N7=L44,M7,IF(N8=L44,M8,IF(N9=L44,M9,M10)))))),"N/A")</f>
+        <f>IF(L44&lt;&gt;0, _xlfn.XLOOKUP(L44,Table1113[Points],Table1113[Name], "N/A"), "N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="N44" s="60" t="e">
-        <f>ROUND(SUM('Stats Global'!AC11,'Stats Global'!AC12,'Stats Global'!AC20,'Stats Global'!AC15,'Stats Global'!AC19,'Stats Global'!AC18)/'Stats Global'!AA6,1)</f>
-        <v>#DIV/0!</v>
+      <c r="N44" s="60">
+        <f>IFERROR(ROUND((SUM(Table1113[Finishes]))/'Stats Global'!AB7,1),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H45" s="36" t="e">
+      <c r="H45" s="36" t="str">
         <f>N43&amp;","&amp;N44&amp;","&amp;N45&amp;","&amp;N46&amp;","&amp;N47&amp;","&amp;N48&amp;"],"</f>
-        <v>#DIV/0!</v>
+        <v>0,0,0,0,0,0],</v>
       </c>
       <c r="J45" s="36" t="s">
         <v>110</v>
@@ -22273,12 +22268,12 @@
         <v>0</v>
       </c>
       <c r="M45" s="36" t="str">
-        <f>IF(L45&lt;&gt;0,IF(L45=P4,M4,IF(L45=P5,M5,IF(P6=L45,M6,IF(P7=L45,M7,IF(P8=L45,M8,IF(P9=L45,M9,M10)))))),"N/A")</f>
+        <f>IF(L45&lt;&gt;0, _xlfn.XLOOKUP(L45,Table1113[Finishes],Table1113[Name], "N/A"), "N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="N45" s="60" t="e">
-        <f>ROUND(SUM('Stats Global'!AE11,'Stats Global'!AE12,'Stats Global'!AE20,'Stats Global'!AE15,'Stats Global'!AE19,'Stats Global'!AE18)/'Stats Global'!AA6,1)</f>
-        <v>#DIV/0!</v>
+      <c r="N45" s="60">
+        <f>IFERROR(ROUND((SUM(Table1113[Midranges]))/'Stats Global'!AB8,1),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -22294,12 +22289,12 @@
         <v>0</v>
       </c>
       <c r="M46" s="36" t="str">
-        <f>IF(L46&lt;&gt;0,IF(L46=R4,M4,IF(L46=R5,M5,IF(R6=L46,M6,IF(R7=L46,M7,IF(R8=L46,M8,IF(R9=L46,M9,M10)))))),"N/A")</f>
+        <f>IF(L46&lt;&gt;0, _xlfn.XLOOKUP(L46,Table1113[Midranges],Table1113[Name], "N/A"), "N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="N46" s="60" t="e">
-        <f>ROUND(SUM('Stats Global'!AG11,'Stats Global'!AG12,'Stats Global'!AG20,'Stats Global'!AG15,'Stats Global'!AG19,'Stats Global'!AG18)/'Stats Global'!AA6,1)</f>
-        <v>#DIV/0!</v>
+      <c r="N46" s="60">
+        <f>IFERROR(ROUND((SUM(Table1113[Threes]))/'Stats Global'!AB9,1),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -22307,19 +22302,19 @@
         <f>MAX(Table1113[Threes])</f>
         <v>0</v>
       </c>
-      <c r="M47" s="66" t="str">
-        <f>IF(L47&lt;&gt;0,IF(L47=T4,M4,IF(L47=T5,M5,IF(T6=L47,M6,IF(T7=L47,M7,IF(T8=L47,M8,IF(T9=L47,M9,M10)))))),"N/A")</f>
+      <c r="M47" s="36" t="str">
+        <f>IF(L47&lt;&gt;0, _xlfn.XLOOKUP(L47,Table1113[Threes],Table1113[Name], "N/A"), "N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="N47" s="36" t="e">
-        <f>ROUND(F3/'Stats Global'!AA6,1)</f>
-        <v>#DIV/0!</v>
+      <c r="N47" s="36">
+        <f>IFERROR(ROUND(F3/'Stats Global'!AA6,1),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="N48" s="36" t="e">
-        <f>ROUND(G3/'Stats Global'!AA6,1)</f>
-        <v>#DIV/0!</v>
+      <c r="N48" s="36">
+        <f>IFERROR(ROUND(G3/'Stats Global'!AA6,1),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -23288,8 +23283,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -23331,15 +23326,15 @@
       <c r="D3" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="112">
+      <c r="E3" s="111">
         <f>SUM(B4:B40)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="112">
+      <c r="F3" s="111">
         <f>SUM(C4:C40)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="112">
+      <c r="G3" s="111">
         <f>SUM(D4:D40)</f>
         <v>0</v>
       </c>
@@ -23352,19 +23347,19 @@
       <c r="X3" s="52"/>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="110">
+      <c r="A4" s="109">
         <f>'Stats Global'!B5</f>
         <v>0</v>
       </c>
-      <c r="B4" s="111">
+      <c r="B4" s="110">
         <f>'Stats Global'!I5</f>
         <v>0</v>
       </c>
-      <c r="C4" s="111">
+      <c r="C4" s="110">
         <f>'Stats Global'!J5+'Stats Global'!K5</f>
         <v>0</v>
       </c>
-      <c r="D4" s="111">
+      <c r="D4" s="110">
         <f>'Stats Global'!P5</f>
         <v>0</v>
       </c>
@@ -23404,19 +23399,19 @@
       <c r="X4" s="54"/>
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="110">
+      <c r="A5" s="109">
         <f>'Stats Global'!B6</f>
         <v>0</v>
       </c>
-      <c r="B5" s="111">
+      <c r="B5" s="110">
         <f>'Stats Global'!I6</f>
         <v>0</v>
       </c>
-      <c r="C5" s="111">
+      <c r="C5" s="110">
         <f>'Stats Global'!J6+'Stats Global'!K6</f>
         <v>0</v>
       </c>
-      <c r="D5" s="111">
+      <c r="D5" s="110">
         <f>'Stats Global'!P6</f>
         <v>0</v>
       </c>
@@ -23466,19 +23461,19 @@
       <c r="X5" s="54"/>
     </row>
     <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="110">
+      <c r="A6" s="109">
         <f>'Stats Global'!B7</f>
         <v>0</v>
       </c>
-      <c r="B6" s="111">
+      <c r="B6" s="110">
         <f>'Stats Global'!I7</f>
         <v>0</v>
       </c>
-      <c r="C6" s="111">
+      <c r="C6" s="110">
         <f>'Stats Global'!J7+'Stats Global'!K7</f>
         <v>0</v>
       </c>
-      <c r="D6" s="111">
+      <c r="D6" s="110">
         <f>'Stats Global'!P7</f>
         <v>0</v>
       </c>
@@ -23486,43 +23481,43 @@
       <c r="F6" s="62"/>
       <c r="H6" s="54"/>
       <c r="I6" s="54" t="str">
-        <f>'Stats Global'!Z11</f>
-        <v>Rudy Hoschke</v>
+        <f>'Stats Global'!Z12</f>
+        <v>Michael Iffland</v>
       </c>
       <c r="J6" s="54">
-        <f>'Stats Global'!AA11</f>
+        <f>'Stats Global'!AA12</f>
         <v>0</v>
       </c>
       <c r="K6" s="54">
-        <f>'Stats Global'!AB11</f>
+        <f>'Stats Global'!AB12</f>
         <v>0</v>
       </c>
       <c r="L6" s="54">
-        <f>'Stats Global'!AC11</f>
+        <f>'Stats Global'!AC12</f>
         <v>0</v>
       </c>
       <c r="M6" s="54">
-        <f>'Stats Global'!AD11</f>
+        <f>'Stats Global'!AD12</f>
         <v>0</v>
       </c>
       <c r="N6" s="54">
-        <f>'Stats Global'!AE11</f>
+        <f>'Stats Global'!AE12</f>
         <v>0</v>
       </c>
       <c r="O6" s="54">
-        <f>'Stats Global'!AF11</f>
+        <f>'Stats Global'!AF12</f>
         <v>0</v>
       </c>
       <c r="P6" s="54">
-        <f>'Stats Global'!AG11</f>
+        <f>'Stats Global'!AG12</f>
         <v>0</v>
       </c>
       <c r="Q6" s="54">
-        <f>'Stats Global'!AH11</f>
+        <f>'Stats Global'!AH12</f>
         <v>0</v>
       </c>
       <c r="R6" s="63">
-        <f>'Stats Global'!AJ11</f>
+        <f>'Stats Global'!AJ12</f>
         <v>0</v>
       </c>
       <c r="V6" s="54"/>
@@ -23530,19 +23525,19 @@
       <c r="X6" s="54"/>
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="110">
+      <c r="A7" s="109">
         <f>'Stats Global'!B8</f>
         <v>0</v>
       </c>
-      <c r="B7" s="111">
+      <c r="B7" s="110">
         <f>'Stats Global'!I8</f>
         <v>0</v>
       </c>
-      <c r="C7" s="111">
+      <c r="C7" s="110">
         <f>'Stats Global'!J8+'Stats Global'!K8</f>
         <v>0</v>
       </c>
-      <c r="D7" s="111">
+      <c r="D7" s="110">
         <f>'Stats Global'!P8</f>
         <v>0</v>
       </c>
@@ -23550,43 +23545,43 @@
       <c r="F7" s="62"/>
       <c r="H7" s="54"/>
       <c r="I7" s="54" t="str">
-        <f>'Stats Global'!Z10</f>
-        <v>Alexander Galt</v>
+        <f>'Stats Global'!Z13</f>
+        <v>Lukas Johnston</v>
       </c>
       <c r="J7" s="54">
-        <f>'Stats Global'!AA10</f>
+        <f>'Stats Global'!AA13</f>
         <v>0</v>
       </c>
       <c r="K7" s="54">
-        <f>'Stats Global'!AB10</f>
+        <f>'Stats Global'!AB13</f>
         <v>0</v>
       </c>
       <c r="L7" s="54">
-        <f>'Stats Global'!AC10</f>
+        <f>'Stats Global'!AC13</f>
         <v>0</v>
       </c>
       <c r="M7" s="54">
-        <f>'Stats Global'!AD10</f>
+        <f>'Stats Global'!AD13</f>
         <v>0</v>
       </c>
       <c r="N7" s="54">
-        <f>'Stats Global'!AE10</f>
+        <f>'Stats Global'!AE13</f>
         <v>0</v>
       </c>
       <c r="O7" s="54">
-        <f>'Stats Global'!AF10</f>
+        <f>'Stats Global'!AF13</f>
         <v>0</v>
       </c>
       <c r="P7" s="54">
-        <f>'Stats Global'!AG10</f>
+        <f>'Stats Global'!AG13</f>
         <v>0</v>
       </c>
       <c r="Q7" s="54">
-        <f>'Stats Global'!AH10</f>
+        <f>'Stats Global'!AH13</f>
         <v>0</v>
       </c>
       <c r="R7" s="63">
-        <f>'Stats Global'!AJ10</f>
+        <f>'Stats Global'!AJ13</f>
         <v>0</v>
       </c>
       <c r="V7" s="54"/>
@@ -23594,19 +23589,19 @@
       <c r="X7" s="54"/>
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="110">
+      <c r="A8" s="109">
         <f>'Stats Global'!B9</f>
         <v>0</v>
       </c>
-      <c r="B8" s="111">
+      <c r="B8" s="110">
         <f>'Stats Global'!I9</f>
         <v>0</v>
       </c>
-      <c r="C8" s="111">
+      <c r="C8" s="110">
         <f>'Stats Global'!J9+'Stats Global'!K9</f>
         <v>0</v>
       </c>
-      <c r="D8" s="111">
+      <c r="D8" s="110">
         <f>'Stats Global'!P9</f>
         <v>0</v>
       </c>
@@ -23614,43 +23609,43 @@
       <c r="F8" s="62"/>
       <c r="H8" s="54"/>
       <c r="I8" s="54" t="str">
-        <f>'Stats Global'!Z13</f>
-        <v>Lukas Johnston</v>
+        <f>'Stats Global'!Z17</f>
+        <v>Samuel McConaghy</v>
       </c>
       <c r="J8" s="54">
-        <f>'Stats Global'!AA13</f>
+        <f>'Stats Global'!AA17</f>
         <v>0</v>
       </c>
       <c r="K8" s="54">
-        <f>'Stats Global'!AB13</f>
+        <f>'Stats Global'!AB17</f>
         <v>0</v>
       </c>
       <c r="L8" s="54">
-        <f>'Stats Global'!AC13</f>
+        <f>'Stats Global'!AC17</f>
         <v>0</v>
       </c>
       <c r="M8" s="54">
-        <f>'Stats Global'!AD13</f>
+        <f>'Stats Global'!AD17</f>
         <v>0</v>
       </c>
       <c r="N8" s="54">
-        <f>'Stats Global'!AE13</f>
+        <f>'Stats Global'!AE17</f>
         <v>0</v>
       </c>
       <c r="O8" s="54">
-        <f>'Stats Global'!AF13</f>
+        <f>'Stats Global'!AF17</f>
         <v>0</v>
       </c>
       <c r="P8" s="54">
-        <f>'Stats Global'!AG13</f>
+        <f>'Stats Global'!AG17</f>
         <v>0</v>
       </c>
       <c r="Q8" s="54">
-        <f>'Stats Global'!AH13</f>
+        <f>'Stats Global'!AH17</f>
         <v>0</v>
       </c>
       <c r="R8" s="63">
-        <f>'Stats Global'!AJ13</f>
+        <f>'Stats Global'!AJ17</f>
         <v>0</v>
       </c>
       <c r="V8" s="54"/>
@@ -23658,19 +23653,19 @@
       <c r="X8" s="54"/>
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="110">
+      <c r="A9" s="109">
         <f>'Stats Global'!B10</f>
         <v>0</v>
       </c>
-      <c r="B9" s="111">
+      <c r="B9" s="110">
         <f>'Stats Global'!I10</f>
         <v>0</v>
       </c>
-      <c r="C9" s="111">
+      <c r="C9" s="110">
         <f>'Stats Global'!J10+'Stats Global'!K10</f>
         <v>0</v>
       </c>
-      <c r="D9" s="111">
+      <c r="D9" s="110">
         <f>'Stats Global'!P10</f>
         <v>0</v>
       </c>
@@ -23678,43 +23673,43 @@
       <c r="F9" s="62"/>
       <c r="H9" s="54"/>
       <c r="I9" s="54" t="str">
-        <f>'Stats Global'!Z23</f>
-        <v>Mitch Yue</v>
+        <f>'Stats Global'!Z22</f>
+        <v>Will Weekes</v>
       </c>
       <c r="J9" s="54">
-        <f>'Stats Global'!AA23</f>
+        <f>'Stats Global'!AA22</f>
         <v>0</v>
       </c>
       <c r="K9" s="54">
-        <f>'Stats Global'!AB23</f>
+        <f>'Stats Global'!AB22</f>
         <v>0</v>
       </c>
       <c r="L9" s="54">
-        <f>'Stats Global'!AC23</f>
+        <f>'Stats Global'!AC22</f>
         <v>0</v>
       </c>
       <c r="M9" s="54">
-        <f>'Stats Global'!AD23</f>
+        <f>'Stats Global'!AD22</f>
         <v>0</v>
       </c>
       <c r="N9" s="54">
-        <f>'Stats Global'!AE23</f>
+        <f>'Stats Global'!AE22</f>
         <v>0</v>
       </c>
       <c r="O9" s="54">
-        <f>'Stats Global'!AF23</f>
+        <f>'Stats Global'!AF22</f>
         <v>0</v>
       </c>
       <c r="P9" s="54">
-        <f>'Stats Global'!AG23</f>
+        <f>'Stats Global'!AG22</f>
         <v>0</v>
       </c>
       <c r="Q9" s="54">
-        <f>'Stats Global'!AH23</f>
+        <f>'Stats Global'!AH22</f>
         <v>0</v>
       </c>
       <c r="R9" s="63">
-        <f>'Stats Global'!AJ23</f>
+        <f>'Stats Global'!AJ22</f>
         <v>0</v>
       </c>
       <c r="V9" s="54"/>
@@ -23722,52 +23717,82 @@
       <c r="X9" s="54"/>
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="110">
+      <c r="A10" s="109">
         <f>'Stats Global'!B11</f>
         <v>0</v>
       </c>
-      <c r="B10" s="111">
+      <c r="B10" s="110">
         <f>'Stats Global'!I11</f>
         <v>0</v>
       </c>
-      <c r="C10" s="111">
+      <c r="C10" s="110">
         <f>'Stats Global'!J11+'Stats Global'!K11</f>
         <v>0</v>
       </c>
-      <c r="D10" s="111">
+      <c r="D10" s="110">
         <f>'Stats Global'!P11</f>
         <v>0</v>
       </c>
       <c r="E10" s="52"/>
       <c r="F10" s="62"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
+      <c r="I10" s="54" t="str">
+        <f>'Stats Global'!Z23</f>
+        <v>Mitch Yue</v>
+      </c>
+      <c r="J10" s="54">
+        <f>'Stats Global'!AA23</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="54">
+        <f>'Stats Global'!AB23</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="54">
+        <f>'Stats Global'!AC23</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="54">
+        <f>'Stats Global'!AD23</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="54">
+        <f>'Stats Global'!AE23</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="54">
+        <f>'Stats Global'!AF23</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="54">
+        <f>'Stats Global'!AG23</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="54">
+        <f>'Stats Global'!AH23</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="63">
+        <f>'Stats Global'!AJ23</f>
+        <v>0</v>
+      </c>
       <c r="V10" s="54"/>
       <c r="W10" s="54"/>
       <c r="X10" s="54"/>
     </row>
     <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="110">
+      <c r="A11" s="109">
         <f>'Stats Global'!B12</f>
         <v>0</v>
       </c>
-      <c r="B11" s="111">
+      <c r="B11" s="110">
         <f>'Stats Global'!I12</f>
         <v>0</v>
       </c>
-      <c r="C11" s="111">
+      <c r="C11" s="110">
         <f>'Stats Global'!J12+'Stats Global'!K12</f>
         <v>0</v>
       </c>
-      <c r="D11" s="111">
+      <c r="D11" s="110">
         <f>'Stats Global'!P12</f>
         <v>0</v>
       </c>
@@ -23787,19 +23812,19 @@
       <c r="X11" s="54"/>
     </row>
     <row r="12" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="110">
+      <c r="A12" s="109">
         <f>'Stats Global'!B13</f>
         <v>0</v>
       </c>
-      <c r="B12" s="111">
+      <c r="B12" s="110">
         <f>'Stats Global'!I13</f>
         <v>0</v>
       </c>
-      <c r="C12" s="111">
+      <c r="C12" s="110">
         <f>'Stats Global'!J13+'Stats Global'!K13</f>
         <v>0</v>
       </c>
-      <c r="D12" s="111">
+      <c r="D12" s="110">
         <f>'Stats Global'!P13</f>
         <v>0</v>
       </c>
@@ -23819,19 +23844,19 @@
       <c r="X12" s="54"/>
     </row>
     <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="110">
+      <c r="A13" s="109">
         <f>'Stats Global'!B14</f>
         <v>0</v>
       </c>
-      <c r="B13" s="111">
+      <c r="B13" s="110">
         <f>'Stats Global'!I14</f>
         <v>0</v>
       </c>
-      <c r="C13" s="111">
+      <c r="C13" s="110">
         <f>'Stats Global'!J14+'Stats Global'!K14</f>
         <v>0</v>
       </c>
-      <c r="D13" s="111">
+      <c r="D13" s="110">
         <f>'Stats Global'!P14</f>
         <v>0</v>
       </c>
@@ -23851,19 +23876,19 @@
       <c r="X13" s="54"/>
     </row>
     <row r="14" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="110">
+      <c r="A14" s="109">
         <f>'Stats Global'!B15</f>
         <v>0</v>
       </c>
-      <c r="B14" s="111">
+      <c r="B14" s="110">
         <f>'Stats Global'!I15</f>
         <v>0</v>
       </c>
-      <c r="C14" s="111">
+      <c r="C14" s="110">
         <f>'Stats Global'!J15+'Stats Global'!K15</f>
         <v>0</v>
       </c>
-      <c r="D14" s="111">
+      <c r="D14" s="110">
         <f>'Stats Global'!P15</f>
         <v>0</v>
       </c>
@@ -23881,19 +23906,19 @@
       <c r="X14" s="54"/>
     </row>
     <row r="15" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="110">
+      <c r="A15" s="109">
         <f>'Stats Global'!B16</f>
         <v>0</v>
       </c>
-      <c r="B15" s="111">
+      <c r="B15" s="110">
         <f>'Stats Global'!I16</f>
         <v>0</v>
       </c>
-      <c r="C15" s="111">
+      <c r="C15" s="110">
         <f>'Stats Global'!J16+'Stats Global'!K16</f>
         <v>0</v>
       </c>
-      <c r="D15" s="111">
+      <c r="D15" s="110">
         <f>'Stats Global'!P16</f>
         <v>0</v>
       </c>
@@ -23911,19 +23936,19 @@
       <c r="X15" s="54"/>
     </row>
     <row r="16" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="110">
+      <c r="A16" s="109">
         <f>'Stats Global'!B17</f>
         <v>0</v>
       </c>
-      <c r="B16" s="111">
+      <c r="B16" s="110">
         <f>'Stats Global'!I17</f>
         <v>0</v>
       </c>
-      <c r="C16" s="111">
+      <c r="C16" s="110">
         <f>'Stats Global'!J17+'Stats Global'!K17</f>
         <v>0</v>
       </c>
-      <c r="D16" s="111">
+      <c r="D16" s="110">
         <f>'Stats Global'!P17</f>
         <v>0</v>
       </c>
@@ -23941,19 +23966,19 @@
       <c r="X16" s="54"/>
     </row>
     <row r="17" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="110">
+      <c r="A17" s="109">
         <f>'Stats Global'!B18</f>
         <v>0</v>
       </c>
-      <c r="B17" s="111">
+      <c r="B17" s="110">
         <f>'Stats Global'!I18</f>
         <v>0</v>
       </c>
-      <c r="C17" s="111">
+      <c r="C17" s="110">
         <f>'Stats Global'!J18+'Stats Global'!K18</f>
         <v>0</v>
       </c>
-      <c r="D17" s="111">
+      <c r="D17" s="110">
         <f>'Stats Global'!P18</f>
         <v>0</v>
       </c>
@@ -23971,19 +23996,19 @@
       <c r="X17" s="54"/>
     </row>
     <row r="18" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="110">
+      <c r="A18" s="109">
         <f>'Stats Global'!B19</f>
         <v>0</v>
       </c>
-      <c r="B18" s="111">
+      <c r="B18" s="110">
         <f>'Stats Global'!I19</f>
         <v>0</v>
       </c>
-      <c r="C18" s="111">
+      <c r="C18" s="110">
         <f>'Stats Global'!J19+'Stats Global'!K19</f>
         <v>0</v>
       </c>
-      <c r="D18" s="111">
+      <c r="D18" s="110">
         <f>'Stats Global'!P19</f>
         <v>0</v>
       </c>
@@ -24001,19 +24026,19 @@
       <c r="X18" s="54"/>
     </row>
     <row r="19" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="110">
+      <c r="A19" s="109">
         <f>'Stats Global'!B20</f>
         <v>0</v>
       </c>
-      <c r="B19" s="111">
+      <c r="B19" s="110">
         <f>'Stats Global'!I20</f>
         <v>0</v>
       </c>
-      <c r="C19" s="111">
+      <c r="C19" s="110">
         <f>'Stats Global'!J20+'Stats Global'!K20</f>
         <v>0</v>
       </c>
-      <c r="D19" s="111">
+      <c r="D19" s="110">
         <f>'Stats Global'!P20</f>
         <v>0</v>
       </c>
@@ -24031,19 +24056,19 @@
       <c r="X19" s="54"/>
     </row>
     <row r="20" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="110">
+      <c r="A20" s="109">
         <f>'Stats Global'!B21</f>
         <v>0</v>
       </c>
-      <c r="B20" s="111">
+      <c r="B20" s="110">
         <f>'Stats Global'!I21</f>
         <v>0</v>
       </c>
-      <c r="C20" s="111">
+      <c r="C20" s="110">
         <f>'Stats Global'!J21+'Stats Global'!K21</f>
         <v>0</v>
       </c>
-      <c r="D20" s="111">
+      <c r="D20" s="110">
         <f>'Stats Global'!P21</f>
         <v>0</v>
       </c>
@@ -24061,19 +24086,19 @@
       <c r="X20" s="54"/>
     </row>
     <row r="21" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="110">
+      <c r="A21" s="109">
         <f>'Stats Global'!B22</f>
         <v>0</v>
       </c>
-      <c r="B21" s="111">
+      <c r="B21" s="110">
         <f>'Stats Global'!I22</f>
         <v>0</v>
       </c>
-      <c r="C21" s="111">
+      <c r="C21" s="110">
         <f>'Stats Global'!J22+'Stats Global'!K22</f>
         <v>0</v>
       </c>
-      <c r="D21" s="111">
+      <c r="D21" s="110">
         <f>'Stats Global'!P22</f>
         <v>0</v>
       </c>
@@ -24091,19 +24116,19 @@
       <c r="X21" s="54"/>
     </row>
     <row r="22" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="110">
+      <c r="A22" s="109">
         <f>'Stats Global'!B23</f>
         <v>0</v>
       </c>
-      <c r="B22" s="111">
+      <c r="B22" s="110">
         <f>'Stats Global'!I23</f>
         <v>0</v>
       </c>
-      <c r="C22" s="111">
+      <c r="C22" s="110">
         <f>'Stats Global'!J23+'Stats Global'!K23</f>
         <v>0</v>
       </c>
-      <c r="D22" s="111">
+      <c r="D22" s="110">
         <f>'Stats Global'!P23</f>
         <v>0</v>
       </c>
@@ -24121,19 +24146,19 @@
       <c r="X22" s="54"/>
     </row>
     <row r="23" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="110">
+      <c r="A23" s="109">
         <f>'Stats Global'!B24</f>
         <v>0</v>
       </c>
-      <c r="B23" s="111">
+      <c r="B23" s="110">
         <f>'Stats Global'!I24</f>
         <v>0</v>
       </c>
-      <c r="C23" s="111">
+      <c r="C23" s="110">
         <f>'Stats Global'!J24+'Stats Global'!K24</f>
         <v>0</v>
       </c>
-      <c r="D23" s="111">
+      <c r="D23" s="110">
         <f>'Stats Global'!P24</f>
         <v>0</v>
       </c>
@@ -24151,19 +24176,19 @@
       <c r="X23" s="54"/>
     </row>
     <row r="24" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="110">
+      <c r="A24" s="109">
         <f>'Stats Global'!B25</f>
         <v>0</v>
       </c>
-      <c r="B24" s="111">
+      <c r="B24" s="110">
         <f>'Stats Global'!I25</f>
         <v>0</v>
       </c>
-      <c r="C24" s="111">
+      <c r="C24" s="110">
         <f>'Stats Global'!J25+'Stats Global'!K25</f>
         <v>0</v>
       </c>
-      <c r="D24" s="111">
+      <c r="D24" s="110">
         <f>'Stats Global'!P25</f>
         <v>0</v>
       </c>
@@ -24181,19 +24206,19 @@
       <c r="X24" s="54"/>
     </row>
     <row r="25" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="110">
+      <c r="A25" s="109">
         <f>'Stats Global'!B26</f>
         <v>0</v>
       </c>
-      <c r="B25" s="111">
+      <c r="B25" s="110">
         <f>'Stats Global'!I26</f>
         <v>0</v>
       </c>
-      <c r="C25" s="111">
+      <c r="C25" s="110">
         <f>'Stats Global'!J26+'Stats Global'!K26</f>
         <v>0</v>
       </c>
-      <c r="D25" s="111">
+      <c r="D25" s="110">
         <f>'Stats Global'!P26</f>
         <v>0</v>
       </c>
@@ -24211,19 +24236,19 @@
       <c r="X25" s="54"/>
     </row>
     <row r="26" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="110">
+      <c r="A26" s="109">
         <f>'Stats Global'!B27</f>
         <v>0</v>
       </c>
-      <c r="B26" s="111">
+      <c r="B26" s="110">
         <f>'Stats Global'!I27</f>
         <v>0</v>
       </c>
-      <c r="C26" s="111">
+      <c r="C26" s="110">
         <f>'Stats Global'!J27+'Stats Global'!K27</f>
         <v>0</v>
       </c>
-      <c r="D26" s="111">
+      <c r="D26" s="110">
         <f>'Stats Global'!P27</f>
         <v>0</v>
       </c>
@@ -24241,19 +24266,19 @@
       <c r="X26" s="54"/>
     </row>
     <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="110">
+      <c r="A27" s="109">
         <f>'Stats Global'!B28</f>
         <v>0</v>
       </c>
-      <c r="B27" s="111">
+      <c r="B27" s="110">
         <f>'Stats Global'!I28</f>
         <v>0</v>
       </c>
-      <c r="C27" s="111">
+      <c r="C27" s="110">
         <f>'Stats Global'!J28+'Stats Global'!K28</f>
         <v>0</v>
       </c>
-      <c r="D27" s="111">
+      <c r="D27" s="110">
         <f>'Stats Global'!P28</f>
         <v>0</v>
       </c>
@@ -24271,19 +24296,19 @@
       <c r="X27" s="54"/>
     </row>
     <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="110">
+      <c r="A28" s="109">
         <f>'Stats Global'!B29</f>
         <v>0</v>
       </c>
-      <c r="B28" s="111">
+      <c r="B28" s="110">
         <f>'Stats Global'!I29</f>
         <v>0</v>
       </c>
-      <c r="C28" s="111">
+      <c r="C28" s="110">
         <f>'Stats Global'!J29+'Stats Global'!K29</f>
         <v>0</v>
       </c>
-      <c r="D28" s="111">
+      <c r="D28" s="110">
         <f>'Stats Global'!P29</f>
         <v>0</v>
       </c>
@@ -24301,19 +24326,19 @@
       <c r="X28" s="54"/>
     </row>
     <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="110">
+      <c r="A29" s="109">
         <f>'Stats Global'!B30</f>
         <v>0</v>
       </c>
-      <c r="B29" s="111">
+      <c r="B29" s="110">
         <f>'Stats Global'!I30</f>
         <v>0</v>
       </c>
-      <c r="C29" s="111">
+      <c r="C29" s="110">
         <f>'Stats Global'!J30+'Stats Global'!K30</f>
         <v>0</v>
       </c>
-      <c r="D29" s="111">
+      <c r="D29" s="110">
         <f>'Stats Global'!P30</f>
         <v>0</v>
       </c>
@@ -24331,19 +24356,19 @@
       <c r="X29" s="54"/>
     </row>
     <row r="30" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="110">
+      <c r="A30" s="109">
         <f>'Stats Global'!B31</f>
         <v>0</v>
       </c>
-      <c r="B30" s="111">
+      <c r="B30" s="110">
         <f>'Stats Global'!I31</f>
         <v>0</v>
       </c>
-      <c r="C30" s="111">
+      <c r="C30" s="110">
         <f>'Stats Global'!J31+'Stats Global'!K31</f>
         <v>0</v>
       </c>
-      <c r="D30" s="111">
+      <c r="D30" s="110">
         <f>'Stats Global'!P31</f>
         <v>0</v>
       </c>
@@ -24362,19 +24387,19 @@
       <c r="X30" s="54"/>
     </row>
     <row r="31" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="110">
+      <c r="A31" s="109">
         <f>'Stats Global'!B32</f>
         <v>0</v>
       </c>
-      <c r="B31" s="111">
+      <c r="B31" s="110">
         <f>'Stats Global'!I32</f>
         <v>0</v>
       </c>
-      <c r="C31" s="111">
+      <c r="C31" s="110">
         <f>'Stats Global'!J32+'Stats Global'!K32</f>
         <v>0</v>
       </c>
-      <c r="D31" s="111">
+      <c r="D31" s="110">
         <f>'Stats Global'!P32</f>
         <v>0</v>
       </c>
@@ -24382,19 +24407,19 @@
       <c r="N31" s="58"/>
     </row>
     <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="110">
+      <c r="A32" s="109">
         <f>'Stats Global'!B33</f>
         <v>0</v>
       </c>
-      <c r="B32" s="111">
+      <c r="B32" s="110">
         <f>'Stats Global'!I33</f>
         <v>0</v>
       </c>
-      <c r="C32" s="111">
+      <c r="C32" s="110">
         <f>'Stats Global'!J33+'Stats Global'!K33</f>
         <v>0</v>
       </c>
-      <c r="D32" s="111">
+      <c r="D32" s="110">
         <f>'Stats Global'!P33</f>
         <v>0</v>
       </c>
@@ -24410,25 +24435,25 @@
       <c r="L32" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="N32" s="60" t="e">
-        <f>ROUND(SUM('Stats Global'!AA10,'Stats Global'!AA14,'Stats Global'!AA17,'Stats Global'!AA13,'Stats Global'!AA24,'Stats Global'!AA23)/'Stats Global'!AA6,1)</f>
-        <v>#DIV/0!</v>
+      <c r="N32" s="60">
+        <f>IFERROR(ROUND((SUM(Table11[Points]))/'Stats Global'!#REF!,1),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="110">
+      <c r="A33" s="109">
         <f>'Stats Global'!B34</f>
         <v>0</v>
       </c>
-      <c r="B33" s="111">
+      <c r="B33" s="110">
         <f>'Stats Global'!I34</f>
         <v>0</v>
       </c>
-      <c r="C33" s="111">
+      <c r="C33" s="110">
         <f>'Stats Global'!J34+'Stats Global'!K34</f>
         <v>0</v>
       </c>
-      <c r="D33" s="111">
+      <c r="D33" s="110">
         <f>'Stats Global'!P34</f>
         <v>0</v>
       </c>
@@ -24444,34 +24469,34 @@
         <v>0</v>
       </c>
       <c r="M33" s="36" t="str">
-        <f>IF(L33&lt;&gt;0,IF(L33=J5,I5,IF(L33=J6,I6,IF(J7=L33,I7,IF(J8=L33,I8,I9)))),"N/A")</f>
+        <f>IF(L33&lt;&gt;0, _xlfn.XLOOKUP(L39,J5:J10,I5:I10, "N/A"), "N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="N33" s="60" t="e">
-        <f>ROUND(SUM('Stats Global'!AC10,'Stats Global'!AC14,'Stats Global'!AC17,'Stats Global'!AC13,'Stats Global'!AC24,'Stats Global'!AC23)/'Stats Global'!AA6,1)</f>
-        <v>#DIV/0!</v>
+      <c r="N33" s="60">
+        <f>IFERROR(ROUND((SUM(Table11[Finishes]))/'Stats Global'!#REF!,1),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="110">
+      <c r="A34" s="109">
         <f>'Stats Global'!B35</f>
         <v>0</v>
       </c>
-      <c r="B34" s="111">
+      <c r="B34" s="110">
         <f>'Stats Global'!I35</f>
         <v>0</v>
       </c>
-      <c r="C34" s="111">
+      <c r="C34" s="110">
         <f>'Stats Global'!J35+'Stats Global'!K35</f>
         <v>0</v>
       </c>
-      <c r="D34" s="111">
+      <c r="D34" s="110">
         <f>'Stats Global'!P35</f>
         <v>0</v>
       </c>
-      <c r="H34" s="36" t="e">
+      <c r="H34" s="36" t="str">
         <f>N32&amp;","&amp;N33&amp;","&amp;N34&amp;","&amp;N35&amp;","&amp;N36&amp;","&amp;N37&amp;"],"</f>
-        <v>#DIV/0!</v>
+        <v>0,0,0,0,0,0],</v>
       </c>
       <c r="J34" s="36" t="s">
         <v>110</v>
@@ -24481,28 +24506,28 @@
         <v>0</v>
       </c>
       <c r="M34" s="36" t="str">
-        <f>IF(L34&lt;&gt;0,IF(L34=L5,I5,IF(L34=L6,I6,IF(L7=L34,I7,IF(L8=L34,I8,I9)))),"N/A")</f>
+        <f>IF(L33&lt;&gt;0, _xlfn.XLOOKUP(L39,K5:K10,I5:I10, "N/A"), "N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="N34" s="60" t="e">
-        <f>ROUND(SUM('Stats Global'!AE10,'Stats Global'!AE14,'Stats Global'!AE17,'Stats Global'!AE13,'Stats Global'!AE24,'Stats Global'!AE23)/'Stats Global'!AA6,1)</f>
-        <v>#DIV/0!</v>
+      <c r="N34" s="60">
+        <f>IFERROR(ROUND((SUM(Table11[Midranges]))/'Stats Global'!#REF!,1),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="110">
+      <c r="A35" s="109">
         <f>'Stats Global'!B36</f>
         <v>0</v>
       </c>
-      <c r="B35" s="111">
+      <c r="B35" s="110">
         <f>'Stats Global'!I36</f>
         <v>0</v>
       </c>
-      <c r="C35" s="111">
+      <c r="C35" s="110">
         <f>'Stats Global'!J36+'Stats Global'!K36</f>
         <v>0</v>
       </c>
-      <c r="D35" s="111">
+      <c r="D35" s="110">
         <f>'Stats Global'!P36</f>
         <v>0</v>
       </c>
@@ -24518,28 +24543,28 @@
         <v>0</v>
       </c>
       <c r="M35" s="36" t="str">
-        <f>IF(L35&lt;&gt;0,IF(L35=N5,I5,IF(L35=N6,I6,IF(N7=L35,I7,IF(N8=L35,I8,I9)))),"N/A")</f>
+        <f>IF(L33&lt;&gt;0, _xlfn.XLOOKUP(L39,L5:L10,I5:I10, "N/A"), "N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="N35" s="60" t="e">
-        <f>ROUND(SUM('Stats Global'!AG10,'Stats Global'!AG14,'Stats Global'!AG17,'Stats Global'!AG13,'Stats Global'!AG24,'Stats Global'!AG23)/'Stats Global'!AA6,1)</f>
-        <v>#DIV/0!</v>
+      <c r="N35" s="60">
+        <f>IFERROR(ROUND((SUM(Table11[Threes]))/'Stats Global'!#REF!,1),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="110">
+      <c r="A36" s="109">
         <f>'Stats Global'!B37</f>
         <v>0</v>
       </c>
-      <c r="B36" s="111">
+      <c r="B36" s="110">
         <f>'Stats Global'!I37</f>
         <v>0</v>
       </c>
-      <c r="C36" s="111">
+      <c r="C36" s="110">
         <f>'Stats Global'!J37+'Stats Global'!K37</f>
         <v>0</v>
       </c>
-      <c r="D36" s="111">
+      <c r="D36" s="110">
         <f>'Stats Global'!P37</f>
         <v>0</v>
       </c>
@@ -24548,91 +24573,98 @@
         <v>0</v>
       </c>
       <c r="M36" s="36" t="str">
-        <f>IF(L36&lt;&gt;0,IF(L36=P5,I5,IF(L36=P6,I6,IF(P7=L36,I7,IF(P8=L36,I8,I9)))),"N/A")</f>
+        <f>IF(L33&lt;&gt;0, _xlfn.XLOOKUP(L39,M5:M10,I5:I10, "N/A"), "N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="N36" s="36" t="e">
-        <f>ROUND(E3/'Stats Global'!AA6,1)</f>
-        <v>#DIV/0!</v>
+      <c r="N36" s="36">
+        <f>IFERROR(ROUND(E3/'Stats Global'!AA6,1),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="110">
+      <c r="A37" s="109">
         <f>'Stats Global'!B38</f>
         <v>0</v>
       </c>
-      <c r="B37" s="111">
+      <c r="B37" s="110">
         <f>'Stats Global'!I38</f>
         <v>0</v>
       </c>
-      <c r="C37" s="111">
+      <c r="C37" s="110">
         <f>'Stats Global'!J38+'Stats Global'!K38</f>
         <v>0</v>
       </c>
-      <c r="D37" s="111">
+      <c r="D37" s="110">
         <f>'Stats Global'!P38</f>
         <v>0</v>
       </c>
-      <c r="N37" s="36" t="e">
-        <f>ROUND(F3/'Stats Global'!AA6,1)</f>
-        <v>#DIV/0!</v>
+      <c r="N37" s="36">
+        <f>IFERROR(ROUND(F3/'Stats Global'!AA6,1),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="110">
+      <c r="A38" s="109">
         <f>'Stats Global'!B39</f>
         <v>0</v>
       </c>
-      <c r="B38" s="111">
+      <c r="B38" s="110">
         <f>'Stats Global'!I39</f>
         <v>0</v>
       </c>
-      <c r="C38" s="111">
+      <c r="C38" s="110">
         <f>'Stats Global'!J39+'Stats Global'!K39</f>
         <v>0</v>
       </c>
-      <c r="D38" s="111">
+      <c r="D38" s="110">
         <f>'Stats Global'!P39</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="110">
+      <c r="A39" s="109">
         <f>'Stats Global'!B40</f>
         <v>0</v>
       </c>
-      <c r="B39" s="111">
+      <c r="B39" s="110">
         <f>'Stats Global'!I40</f>
         <v>0</v>
       </c>
-      <c r="C39" s="111">
+      <c r="C39" s="110">
         <f>'Stats Global'!J40+'Stats Global'!K40</f>
         <v>0</v>
       </c>
-      <c r="D39" s="111">
+      <c r="D39" s="110">
         <f>'Stats Global'!P40</f>
         <v>0</v>
       </c>
+      <c r="L39" s="36">
+        <v>0</v>
+      </c>
+      <c r="M39" s="36" t="str">
+        <f>_xlfn.XLOOKUP(L39,J5:J10,I5:I10, "N/A")</f>
+        <v>Conor Farrington</v>
+      </c>
     </row>
     <row r="40" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="110">
+      <c r="A40" s="109">
         <f>'Stats Global'!B41</f>
         <v>0</v>
       </c>
-      <c r="B40" s="111">
+      <c r="B40" s="110">
         <f>'Stats Global'!I41</f>
         <v>0</v>
       </c>
-      <c r="C40" s="111">
+      <c r="C40" s="110">
         <f>'Stats Global'!J41+'Stats Global'!K41</f>
         <v>0</v>
       </c>
-      <c r="D40" s="111">
+      <c r="D40" s="110">
         <f>'Stats Global'!P41</f>
         <v>0</v>
       </c>
-      <c r="E40" s="119"/>
-      <c r="F40" s="119"/>
+      <c r="E40" s="118"/>
+      <c r="F40" s="118"/>
     </row>
     <row r="41" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C41" s="76" t="e">
@@ -25613,9 +25645,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="T42" sqref="T42"/>
-    </sheetView>
+    <sheetView topLeftCell="A5" zoomScale="77" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -25671,7 +25701,7 @@
       <c r="B3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="129" t="s">
         <v>211</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -25686,13 +25716,13 @@
       <c r="G3" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="131" t="s">
+      <c r="H3" s="129" t="s">
         <v>212</v>
       </c>
-      <c r="I3" s="131" t="s">
+      <c r="I3" s="129" t="s">
         <v>213</v>
       </c>
-      <c r="J3" s="131" t="s">
+      <c r="J3" s="129" t="s">
         <v>214</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -25718,37 +25748,37 @@
         <v>25</v>
       </c>
       <c r="S3" s="6">
-        <f>COUNTIF($F$3:$F$40, R3)+V3</f>
+        <f t="shared" ref="S3:S18" si="0">COUNTIF($F$3:$F$40, R3)+V3</f>
         <v>0</v>
       </c>
       <c r="T3" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R3,$G$3:$G$40,"Finish")</f>
+        <f t="shared" ref="T3:T18" si="1">COUNTIFS($F$3:$F$40, $R3,$G$3:$G$40,"Finish")</f>
         <v>0</v>
       </c>
       <c r="U3" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R3,$G$3:$G$40,"Midrange")</f>
+        <f t="shared" ref="U3:U18" si="2">COUNTIFS($F$3:$F$40, $R3,$G$3:$G$40,"Midrange")</f>
         <v>0</v>
       </c>
       <c r="V3" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R3,$G$3:$G$40,"Three Pointer")</f>
+        <f t="shared" ref="V3:V18" si="3">COUNTIFS($F$3:$F$40, $R3,$G$3:$G$40,"Three Pointer")</f>
         <v>0</v>
       </c>
       <c r="W3" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y3" s="107" t="s">
+      <c r="Y3" s="106" t="s">
         <v>167</v>
       </c>
-      <c r="Z3" s="107" t="s">
+      <c r="Z3" s="106" t="s">
         <v>168</v>
       </c>
-      <c r="AA3" s="107" t="s">
+      <c r="AA3" s="106" t="s">
         <v>35</v>
       </c>
       <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="131" t="s">
         <v>217</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -25763,7 +25793,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="8" t="e">
-        <f t="shared" ref="O4:O5" si="0">M4/(M4+N4)</f>
+        <f t="shared" ref="O4:O5" si="4">M4/(M4+N4)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P4" s="1">
@@ -25774,34 +25804,34 @@
         <v>26</v>
       </c>
       <c r="S4" s="6">
-        <f>COUNTIF($F$3:$F$40, R4)+V4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T4" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R4,$G$3:$G$40,"Finish")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U4" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R4,$G$3:$G$40,"Midrange")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V4" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R4,$G$3:$G$40,"Three Pointer")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W4" s="19" t="b">
         <v>0</v>
       </c>
       <c r="Y4" s="34" t="str">
-        <f t="shared" ref="Y4:Y39" si="1">IF(AND(D4="Choc-Tops",E4="Gentle, Men"),"CT/GM", IF(AND(D4="Choc-Tops",E4="Traffic Controllers"),"CT/TC", ""))</f>
+        <f t="shared" ref="Y4:Y39" si="5">IF(AND(D4="Choc-Tops",E4="Gentle, Men"),"CT/GM", IF(AND(D4="Choc-Tops",E4="Traffic Controllers"),"CT/TC", ""))</f>
         <v/>
       </c>
       <c r="Z4" s="34" t="str">
-        <f t="shared" ref="Z4:Z39" si="2">IF(AND(D4="Gentle, Men",E4="Choc-Tops"),"GM/CT", IF(AND(D4="Gentle, Men",E4="Traffic Controllers"),"GM/TC", ""))</f>
+        <f t="shared" ref="Z4:Z39" si="6">IF(AND(D4="Gentle, Men",E4="Choc-Tops"),"GM/CT", IF(AND(D4="Gentle, Men",E4="Traffic Controllers"),"GM/TC", ""))</f>
         <v/>
       </c>
       <c r="AA4" s="34" t="str">
-        <f>IF(AND(D4="Traffic Controllers",E4="Choc-Tops"),"TC/CT", IF(AND($D4="Traffic Controllers",$E4="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" ref="AA4:AA39" si="7">IF(AND(D4="Traffic Controllers",E4="Choc-Tops"),"TC/CT", IF(AND($D4="Traffic Controllers",$E4="Gentle, Men"),"TC/GM", ""))</f>
         <v/>
       </c>
       <c r="AB4" s="1"/>
@@ -25819,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P5" s="1">
@@ -25830,34 +25860,34 @@
         <v>27</v>
       </c>
       <c r="S5" s="6">
-        <f>COUNTIF($F$3:$F$40, R5)+V5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T5" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R5,$G$3:$G$40,"Finish")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U5" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R5,$G$3:$G$40,"Midrange")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V5" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R5,$G$3:$G$40,"Three Pointer")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W5" s="19" t="b">
         <v>0</v>
       </c>
       <c r="Y5" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z5" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA5" s="34" t="str">
-        <f>IF(AND(D5="Traffic Controllers",E5="Choc-Tops"),"TC/CT", IF(AND($D5="Traffic Controllers",$E5="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB5" s="1"/>
@@ -25867,34 +25897,34 @@
         <v>30</v>
       </c>
       <c r="S6" s="6">
-        <f>COUNTIF($F$3:$F$40, R6)+V6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T6" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R6,$G$3:$G$40,"Finish")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U6" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R6,$G$3:$G$40,"Midrange")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V6" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R6,$G$3:$G$40,"Three Pointer")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W6" s="19" t="b">
         <v>0</v>
       </c>
       <c r="Y6" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z6" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA6" s="34" t="str">
-        <f>IF(AND(D6="Traffic Controllers",E6="Choc-Tops"),"TC/CT", IF(AND($D6="Traffic Controllers",$E6="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB6" s="1"/>
@@ -25904,34 +25934,34 @@
         <v>32</v>
       </c>
       <c r="S7" s="6">
-        <f>COUNTIF($F$3:$F$40, R7)+V7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T7" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R7,$G$3:$G$40,"Finish")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U7" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R7,$G$3:$G$40,"Midrange")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V7" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R7,$G$3:$G$40,"Three Pointer")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W7" s="19" t="b">
         <v>0</v>
       </c>
       <c r="Y7" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z7" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA7" s="34" t="str">
-        <f>IF(AND(D7="Traffic Controllers",E7="Choc-Tops"),"TC/CT", IF(AND($D7="Traffic Controllers",$E7="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB7" s="1"/>
@@ -25941,34 +25971,34 @@
         <v>37</v>
       </c>
       <c r="S8" s="6">
-        <f>COUNTIF($F$3:$F$40, R8)+V8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T8" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R8,$G$3:$G$40,"Finish")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U8" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R8,$G$3:$G$40,"Midrange")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V8" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R8,$G$3:$G$40,"Three Pointer")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W8" s="19" t="b">
         <v>0</v>
       </c>
       <c r="Y8" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z8" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA8" s="34" t="str">
-        <f>IF(AND(D8="Traffic Controllers",E8="Choc-Tops"),"TC/CT", IF(AND($D8="Traffic Controllers",$E8="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB8" s="1"/>
@@ -25978,34 +26008,34 @@
         <v>92</v>
       </c>
       <c r="S9" s="6">
-        <f>COUNTIF($F$3:$F$40, R9)+V9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T9" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R9,$G$3:$G$40,"Finish")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U9" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R9,$G$3:$G$40,"Midrange")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V9" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R9,$G$3:$G$40,"Three Pointer")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W9" s="19" t="b">
         <v>0</v>
       </c>
       <c r="Y9" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z9" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA9" s="34" t="str">
-        <f>IF(AND(D9="Traffic Controllers",E9="Choc-Tops"),"TC/CT", IF(AND($D9="Traffic Controllers",$E9="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -26014,34 +26044,34 @@
         <v>39</v>
       </c>
       <c r="S10" s="6">
-        <f>COUNTIF($F$3:$F$40, R10)+V10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T10" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R10,$G$3:$G$40,"Finish")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U10" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R10,$G$3:$G$40,"Midrange")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V10" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R10,$G$3:$G$40,"Three Pointer")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W10" s="19" t="b">
         <v>0</v>
       </c>
       <c r="Y10" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z10" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA10" s="34" t="str">
-        <f>IF(AND(D10="Traffic Controllers",E10="Choc-Tops"),"TC/CT", IF(AND($D10="Traffic Controllers",$E10="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB10" s="1"/>
@@ -26051,34 +26081,34 @@
         <v>41</v>
       </c>
       <c r="S11" s="6">
-        <f>COUNTIF($F$3:$F$40, R11)+V11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T11" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R11,$G$3:$G$40,"Finish")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U11" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R11,$G$3:$G$40,"Midrange")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V11" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R11,$G$3:$G$40,"Three Pointer")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W11" s="19" t="b">
         <v>0</v>
       </c>
       <c r="Y11" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z11" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA11" s="34" t="str">
-        <f>IF(AND(D11="Traffic Controllers",E11="Choc-Tops"),"TC/CT", IF(AND($D11="Traffic Controllers",$E11="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB11" s="1"/>
@@ -26088,34 +26118,34 @@
         <v>44</v>
       </c>
       <c r="S12" s="6">
-        <f>COUNTIF($F$3:$F$40, R12)+V12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T12" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R12,$G$3:$G$40,"Finish")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U12" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R12,$G$3:$G$40,"Midrange")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V12" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R12,$G$3:$G$40,"Three Pointer")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W12" s="19" t="b">
         <v>0</v>
       </c>
       <c r="Y12" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z12" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA12" s="34" t="str">
-        <f>IF(AND(D12="Traffic Controllers",E12="Choc-Tops"),"TC/CT", IF(AND($D12="Traffic Controllers",$E12="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB12" s="1"/>
@@ -26125,34 +26155,34 @@
         <v>46</v>
       </c>
       <c r="S13" s="6">
-        <f>COUNTIF($F$3:$F$40, R13)+V13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T13" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R13,$G$3:$G$40,"Finish")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U13" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R13,$G$3:$G$40,"Midrange")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V13" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R13,$G$3:$G$40,"Three Pointer")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W13" s="19" t="b">
         <v>0</v>
       </c>
       <c r="Y13" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z13" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA13" s="34" t="str">
-        <f>IF(AND(D13="Traffic Controllers",E13="Choc-Tops"),"TC/CT", IF(AND($D13="Traffic Controllers",$E13="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB13" s="1"/>
@@ -26162,34 +26192,34 @@
         <v>49</v>
       </c>
       <c r="S14" s="6">
-        <f>COUNTIF($F$3:$F$40, R14)+V14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T14" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R14,$G$3:$G$40,"Finish")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U14" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R14,$G$3:$G$40,"Midrange")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V14" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R14,$G$3:$G$40,"Three Pointer")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W14" s="19" t="b">
         <v>0</v>
       </c>
       <c r="Y14" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z14" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA14" s="34" t="str">
-        <f>IF(AND(D14="Traffic Controllers",E14="Choc-Tops"),"TC/CT", IF(AND($D14="Traffic Controllers",$E14="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB14" s="1"/>
@@ -26199,34 +26229,34 @@
         <v>52</v>
       </c>
       <c r="S15" s="6">
-        <f>COUNTIF($F$3:$F$40, R15)+V15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T15" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R15,$G$3:$G$40,"Finish")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U15" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R15,$G$3:$G$40,"Midrange")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V15" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R15,$G$3:$G$40,"Three Pointer")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W15" s="19" t="b">
         <v>0</v>
       </c>
       <c r="Y15" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z15" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA15" s="34" t="str">
-        <f>IF(AND(D15="Traffic Controllers",E15="Choc-Tops"),"TC/CT", IF(AND($D15="Traffic Controllers",$E15="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB15" s="1"/>
@@ -26236,34 +26266,34 @@
         <v>55</v>
       </c>
       <c r="S16" s="6">
-        <f>COUNTIF($F$3:$F$40, R16)+V16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T16" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R16,$G$3:$G$40,"Finish")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U16" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R16,$G$3:$G$40,"Midrange")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V16" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R16,$G$3:$G$40,"Three Pointer")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W16" s="19" t="b">
         <v>0</v>
       </c>
       <c r="Y16" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z16" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA16" s="34" t="str">
-        <f>IF(AND(D16="Traffic Controllers",E16="Choc-Tops"),"TC/CT", IF(AND($D16="Traffic Controllers",$E16="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB16" s="1"/>
@@ -26273,71 +26303,71 @@
         <v>196</v>
       </c>
       <c r="S17" s="6">
-        <f>COUNTIF($F$3:$F$40, R17)+V17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T17" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R17,$G$3:$G$40,"Finish")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U17" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R17,$G$3:$G$40,"Midrange")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V17" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R17,$G$3:$G$40,"Three Pointer")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W17" s="19" t="b">
         <v>0</v>
       </c>
       <c r="Y17" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z17" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA17" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB17" s="1"/>
+    </row>
+    <row r="18" spans="18:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R18" s="127" t="s">
+        <v>210</v>
+      </c>
+      <c r="S18" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="7">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="34" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Z17" s="34" t="str">
-        <f t="shared" si="2"/>
+      <c r="Z18" s="34" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AA17" s="34" t="str">
-        <f>IF(AND(D17="Traffic Controllers",E17="Choc-Tops"),"TC/CT", IF(AND($D17="Traffic Controllers",$E17="Gentle, Men"),"TC/GM", ""))</f>
-        <v/>
-      </c>
-      <c r="AB17" s="1"/>
-    </row>
-    <row r="18" spans="18:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R18" s="128" t="s">
-        <v>210</v>
-      </c>
-      <c r="S18" s="6">
-        <f>COUNTIF($F$3:$F$40, R18)+V18</f>
-        <v>0</v>
-      </c>
-      <c r="T18" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R18,$G$3:$G$40,"Finish")</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R18,$G$3:$G$40,"Midrange")</f>
-        <v>0</v>
-      </c>
-      <c r="V18" s="7">
-        <f>COUNTIFS($F$3:$F$40, $R18,$G$3:$G$40,"Three Pointer")</f>
-        <v>0</v>
-      </c>
-      <c r="W18" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z18" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
       <c r="AA18" s="34" t="str">
-        <f>IF(AND(D18="Traffic Controllers",E18="Choc-Tops"),"TC/CT", IF(AND($D18="Traffic Controllers",$E18="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB18" s="1"/>
@@ -26350,57 +26380,57 @@
       <c r="V19" s="7"/>
       <c r="W19" s="19"/>
       <c r="Y19" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z19" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA19" s="34" t="str">
-        <f>IF(AND(D19="Traffic Controllers",E19="Choc-Tops"),"TC/CT", IF(AND($D19="Traffic Controllers",$E19="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="18:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Y20" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z20" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA20" s="34" t="str">
-        <f>IF(AND(D20="Traffic Controllers",E20="Choc-Tops"),"TC/CT", IF(AND($D20="Traffic Controllers",$E20="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="18:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Y21" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z21" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA21" s="34" t="str">
-        <f>IF(AND(D21="Traffic Controllers",E21="Choc-Tops"),"TC/CT", IF(AND($D21="Traffic Controllers",$E21="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="18:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Y22" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z22" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA22" s="34" t="str">
-        <f>IF(AND(D22="Traffic Controllers",E22="Choc-Tops"),"TC/CT", IF(AND($D22="Traffic Controllers",$E22="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -26411,514 +26441,514 @@
         <v>0,</v>
       </c>
       <c r="T23" t="str">
-        <f t="shared" ref="T23:U23" si="3">T3&amp;","</f>
+        <f t="shared" ref="T23:U23" si="8">T3&amp;","</f>
         <v>0,</v>
       </c>
       <c r="U23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0,</v>
       </c>
       <c r="V23" t="str">
         <f>V3&amp;","</f>
         <v>0,</v>
       </c>
-      <c r="W23" s="132" t="str">
+      <c r="W23" s="130" t="str">
         <f>IF(W3,1,0)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="Y23" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z23" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA23" s="34" t="str">
-        <f>IF(AND(D23="Traffic Controllers",E23="Choc-Tops"),"TC/CT", IF(AND($D23="Traffic Controllers",$E23="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB23" s="97"/>
-      <c r="AC23" s="98"/>
-      <c r="AD23" s="98"/>
-      <c r="AE23" s="98"/>
-      <c r="AF23" s="98"/>
+      <c r="AB23" s="96"/>
+      <c r="AC23" s="97"/>
+      <c r="AD23" s="97"/>
+      <c r="AE23" s="97"/>
+      <c r="AF23" s="97"/>
     </row>
     <row r="24" spans="18:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="S24" t="str">
-        <f t="shared" ref="S24:V24" si="4">S4&amp;","</f>
+        <f t="shared" ref="S24:V24" si="9">S4&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="V24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
-      <c r="W24" s="132" t="str">
-        <f t="shared" ref="W24:W37" si="5">IF(W4,1,0)&amp;","</f>
+      <c r="W24" s="130" t="str">
+        <f t="shared" ref="W24:W37" si="10">IF(W4,1,0)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="Y24" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z24" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA24" s="34" t="str">
-        <f>IF(AND(D24="Traffic Controllers",E24="Choc-Tops"),"TC/CT", IF(AND($D24="Traffic Controllers",$E24="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="18:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R25" s="2"/>
       <c r="S25" t="str">
-        <f t="shared" ref="S25:V25" si="6">S5&amp;","</f>
+        <f t="shared" ref="S25:V25" si="11">S5&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T25" t="str">
+        <f t="shared" si="11"/>
+        <v>0,</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="11"/>
+        <v>0,</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" si="11"/>
+        <v>0,</v>
+      </c>
+      <c r="W25" s="130" t="str">
+        <f t="shared" si="10"/>
+        <v>0,</v>
+      </c>
+      <c r="Y25" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z25" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="U25" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="V25" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="W25" s="132" t="str">
-        <f t="shared" si="5"/>
-        <v>0,</v>
-      </c>
-      <c r="Y25" s="34" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z25" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
       <c r="AA25" s="34" t="str">
-        <f>IF(AND(D25="Traffic Controllers",E25="Choc-Tops"),"TC/CT", IF(AND($D25="Traffic Controllers",$E25="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="18:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R26" s="9"/>
       <c r="S26" t="str">
-        <f t="shared" ref="S26:V26" si="7">S6&amp;","</f>
+        <f t="shared" ref="S26:V26" si="12">S6&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T26" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="W26" s="130" t="str">
+        <f t="shared" si="10"/>
+        <v>0,</v>
+      </c>
+      <c r="Y26" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z26" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA26" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>0,</v>
-      </c>
-      <c r="U26" t="str">
-        <f t="shared" si="7"/>
-        <v>0,</v>
-      </c>
-      <c r="V26" t="str">
-        <f t="shared" si="7"/>
-        <v>0,</v>
-      </c>
-      <c r="W26" s="132" t="str">
-        <f t="shared" si="5"/>
-        <v>0,</v>
-      </c>
-      <c r="Y26" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z26" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AA26" s="34" t="str">
-        <f>IF(AND(D26="Traffic Controllers",E26="Choc-Tops"),"TC/CT", IF(AND($D26="Traffic Controllers",$E26="Gentle, Men"),"TC/GM", ""))</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="18:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="S27" t="str">
-        <f t="shared" ref="S27:V27" si="8">S7&amp;","</f>
+        <f t="shared" ref="S27:V27" si="13">S7&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="U27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="V27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
-      <c r="W27" s="132" t="str">
+      <c r="W27" s="130" t="str">
+        <f t="shared" si="10"/>
+        <v>0,</v>
+      </c>
+      <c r="Y27" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>0,</v>
-      </c>
-      <c r="Y27" s="34" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Z27" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA27" s="34" t="str">
-        <f>IF(AND(D27="Traffic Controllers",E27="Choc-Tops"),"TC/CT", IF(AND($D27="Traffic Controllers",$E27="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="18:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="S28" t="str">
-        <f t="shared" ref="S28:V28" si="9">S8&amp;","</f>
+        <f t="shared" ref="S28:V28" si="14">S8&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0,</v>
       </c>
       <c r="U28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0,</v>
       </c>
       <c r="V28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0,</v>
       </c>
-      <c r="W28" s="132" t="str">
+      <c r="W28" s="130" t="str">
+        <f t="shared" si="10"/>
+        <v>0,</v>
+      </c>
+      <c r="Y28" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>0,</v>
-      </c>
-      <c r="Y28" s="34" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Z28" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA28" s="34" t="str">
-        <f>IF(AND(D28="Traffic Controllers",E28="Choc-Tops"),"TC/CT", IF(AND($D28="Traffic Controllers",$E28="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="18:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="S29" t="str">
-        <f t="shared" ref="S29:V29" si="10">S9&amp;","</f>
+        <f t="shared" ref="S29:V29" si="15">S9&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T29" t="str">
+        <f t="shared" si="15"/>
+        <v>0,</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="15"/>
+        <v>0,</v>
+      </c>
+      <c r="V29" t="str">
+        <f t="shared" si="15"/>
+        <v>0,</v>
+      </c>
+      <c r="W29" s="130" t="str">
         <f t="shared" si="10"/>
         <v>0,</v>
       </c>
-      <c r="U29" t="str">
+      <c r="Y29" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z29" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA29" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="18:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S30" t="str">
+        <f t="shared" ref="S30:V30" si="16">S10&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="16"/>
+        <v>0,</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="16"/>
+        <v>0,</v>
+      </c>
+      <c r="V30" t="str">
+        <f t="shared" si="16"/>
+        <v>0,</v>
+      </c>
+      <c r="W30" s="130" t="str">
         <f t="shared" si="10"/>
         <v>0,</v>
       </c>
-      <c r="V29" t="str">
+      <c r="Y30" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z30" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA30" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="18:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S31" t="str">
+        <f t="shared" ref="S31:V31" si="17">S11&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="T31" t="str">
+        <f t="shared" si="17"/>
+        <v>0,</v>
+      </c>
+      <c r="U31" t="str">
+        <f t="shared" si="17"/>
+        <v>0,</v>
+      </c>
+      <c r="V31" t="str">
+        <f t="shared" si="17"/>
+        <v>0,</v>
+      </c>
+      <c r="W31" s="130" t="str">
         <f t="shared" si="10"/>
         <v>0,</v>
       </c>
-      <c r="W29" s="132" t="str">
+      <c r="Y31" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>0,</v>
-      </c>
-      <c r="Y29" s="34" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z29" s="34" t="str">
-        <f t="shared" si="2"/>
+      <c r="Z31" s="34" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AA29" s="34" t="str">
-        <f>IF(AND(D29="Traffic Controllers",E29="Choc-Tops"),"TC/CT", IF(AND($D29="Traffic Controllers",$E29="Gentle, Men"),"TC/GM", ""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="18:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="S30" t="str">
-        <f t="shared" ref="S30:V30" si="11">S10&amp;","</f>
-        <v>0,</v>
-      </c>
-      <c r="T30" t="str">
-        <f t="shared" si="11"/>
-        <v>0,</v>
-      </c>
-      <c r="U30" t="str">
-        <f t="shared" si="11"/>
-        <v>0,</v>
-      </c>
-      <c r="V30" t="str">
-        <f t="shared" si="11"/>
-        <v>0,</v>
-      </c>
-      <c r="W30" s="132" t="str">
-        <f t="shared" si="5"/>
-        <v>0,</v>
-      </c>
-      <c r="Y30" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z30" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AA30" s="34" t="str">
-        <f>IF(AND(D30="Traffic Controllers",E30="Choc-Tops"),"TC/CT", IF(AND($D30="Traffic Controllers",$E30="Gentle, Men"),"TC/GM", ""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="18:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="S31" t="str">
-        <f t="shared" ref="S31:V31" si="12">S11&amp;","</f>
-        <v>0,</v>
-      </c>
-      <c r="T31" t="str">
-        <f t="shared" si="12"/>
-        <v>0,</v>
-      </c>
-      <c r="U31" t="str">
-        <f t="shared" si="12"/>
-        <v>0,</v>
-      </c>
-      <c r="V31" t="str">
-        <f t="shared" si="12"/>
-        <v>0,</v>
-      </c>
-      <c r="W31" s="132" t="str">
-        <f t="shared" si="5"/>
-        <v>0,</v>
-      </c>
-      <c r="Y31" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z31" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
       <c r="AA31" s="34" t="str">
-        <f>IF(AND(D31="Traffic Controllers",E31="Choc-Tops"),"TC/CT", IF(AND($D31="Traffic Controllers",$E31="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="18:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="S32" t="str">
-        <f t="shared" ref="S32:V32" si="13">S12&amp;","</f>
+        <f t="shared" ref="S32:V32" si="18">S12&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0,</v>
       </c>
       <c r="U32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0,</v>
       </c>
       <c r="V32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0,</v>
       </c>
-      <c r="W32" s="132" t="str">
+      <c r="W32" s="130" t="str">
+        <f t="shared" si="10"/>
+        <v>0,</v>
+      </c>
+      <c r="Y32" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>0,</v>
-      </c>
-      <c r="Y32" s="34" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Z32" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA32" s="34" t="str">
-        <f>IF(AND(D32="Traffic Controllers",E32="Choc-Tops"),"TC/CT", IF(AND($D32="Traffic Controllers",$E32="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="3:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="S33" t="str">
-        <f t="shared" ref="S33:V33" si="14">S13&amp;","</f>
+        <f t="shared" ref="S33:V33" si="19">S13&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0,</v>
       </c>
       <c r="U33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0,</v>
       </c>
       <c r="V33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0,</v>
       </c>
-      <c r="W33" s="132" t="str">
+      <c r="W33" s="130" t="str">
+        <f t="shared" si="10"/>
+        <v>0,</v>
+      </c>
+      <c r="Y33" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>0,</v>
-      </c>
-      <c r="Y33" s="34" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Z33" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA33" s="34" t="str">
-        <f>IF(AND(D33="Traffic Controllers",E33="Choc-Tops"),"TC/CT", IF(AND($D33="Traffic Controllers",$E33="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="3:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="S34" t="str">
-        <f t="shared" ref="S34:V34" si="15">S14&amp;","</f>
+        <f t="shared" ref="S34:V34" si="20">S14&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T34" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0,</v>
       </c>
       <c r="U34" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0,</v>
       </c>
       <c r="V34" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0,</v>
       </c>
-      <c r="W34" s="132" t="str">
+      <c r="W34" s="130" t="str">
+        <f t="shared" si="10"/>
+        <v>0,</v>
+      </c>
+      <c r="Y34" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>0,</v>
-      </c>
-      <c r="Y34" s="34" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Z34" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA34" s="34" t="str">
-        <f>IF(AND(D34="Traffic Controllers",E34="Choc-Tops"),"TC/CT", IF(AND($D34="Traffic Controllers",$E34="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="3:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="S35" t="str">
-        <f t="shared" ref="S35:V35" si="16">S15&amp;","</f>
+        <f t="shared" ref="S35:V35" si="21">S15&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T35" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0,</v>
       </c>
       <c r="U35" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0,</v>
       </c>
       <c r="V35" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0,</v>
       </c>
-      <c r="W35" s="132" t="str">
+      <c r="W35" s="130" t="str">
+        <f t="shared" si="10"/>
+        <v>0,</v>
+      </c>
+      <c r="Y35" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>0,</v>
-      </c>
-      <c r="Y35" s="34" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Z35" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA35" s="34" t="str">
-        <f>IF(AND(D35="Traffic Controllers",E35="Choc-Tops"),"TC/CT", IF(AND($D35="Traffic Controllers",$E35="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="3:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="S36" t="str">
-        <f t="shared" ref="S36:V36" si="17">S16&amp;","</f>
+        <f t="shared" ref="S36:V36" si="22">S16&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T36" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0,</v>
       </c>
       <c r="U36" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0,</v>
       </c>
       <c r="V36" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0,</v>
       </c>
-      <c r="W36" s="132" t="str">
+      <c r="W36" s="130" t="str">
+        <f t="shared" si="10"/>
+        <v>0,</v>
+      </c>
+      <c r="Y36" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>0,</v>
-      </c>
-      <c r="Y36" s="34" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Z36" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA36" s="34" t="str">
-        <f>IF(AND(D36="Traffic Controllers",E36="Choc-Tops"),"TC/CT", IF(AND($D36="Traffic Controllers",$E36="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="3:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="S37" t="str">
-        <f t="shared" ref="S37:V37" si="18">S17&amp;","</f>
+        <f t="shared" ref="S37:V37" si="23">S17&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0,</v>
       </c>
       <c r="U37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0,</v>
       </c>
       <c r="V37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0,</v>
       </c>
-      <c r="W37" s="132" t="str">
+      <c r="W37" s="130" t="str">
+        <f t="shared" si="10"/>
+        <v>0,</v>
+      </c>
+      <c r="Y37" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>0,</v>
-      </c>
-      <c r="Y37" s="34" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Z37" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA37" s="34" t="str">
-        <f>IF(AND(D37="Traffic Controllers",E37="Choc-Tops"),"TC/CT", IF(AND($D37="Traffic Controllers",$E37="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -26928,45 +26958,45 @@
         <v>0</v>
       </c>
       <c r="T38" s="13">
-        <f t="shared" ref="T38:V38" si="19">T18</f>
+        <f t="shared" ref="T38:V38" si="24">T18</f>
         <v>0</v>
       </c>
       <c r="U38" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V38" s="13">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="W38" s="132">
-        <f t="shared" ref="W24:W38" si="20">IF(W18,1,0)</f>
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="130">
+        <f t="shared" ref="W38" si="25">IF(W18,1,0)</f>
         <v>0</v>
       </c>
       <c r="Y38" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z38" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA38" s="34" t="str">
-        <f>IF(AND(D38="Traffic Controllers",E38="Choc-Tops"),"TC/CT", IF(AND($D38="Traffic Controllers",$E38="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="3:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Y39" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z39" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA39" s="34" t="str">
-        <f>IF(AND(D39="Traffic Controllers",E39="Choc-Tops"),"TC/CT", IF(AND($D39="Traffic Controllers",$E39="Gentle, Men"),"TC/GM", ""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -26979,22 +27009,22 @@
     <row r="41" spans="3:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="S41" s="64"/>
       <c r="T41" s="64"/>
-      <c r="U41" s="126"/>
-      <c r="V41" s="126"/>
-      <c r="W41" s="126"/>
+      <c r="U41" s="125"/>
+      <c r="V41" s="125"/>
+      <c r="W41" s="125"/>
     </row>
     <row r="42" spans="3:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="S42" s="64"/>
       <c r="T42" s="64"/>
-      <c r="U42" s="126"/>
-      <c r="V42" s="126"/>
-      <c r="W42" s="126"/>
+      <c r="U42" s="125"/>
+      <c r="V42" s="125"/>
+      <c r="W42" s="125"/>
     </row>
     <row r="43" spans="3:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C43" t="s">
         <v>138</v>
       </c>
-      <c r="T43" s="132" t="s">
+      <c r="T43" s="10" t="s">
         <v>215</v>
       </c>
       <c r="U43" s="10"/>
@@ -27048,7 +27078,7 @@
       <c r="R44" t="s">
         <v>195</v>
       </c>
-      <c r="T44" t="str">
+      <c r="T44" s="10" t="str">
         <f>CHAR(34)&amp;"Date"&amp;CHAR(34)&amp;":["&amp;CHAR(34)&amp;B4&amp;CHAR(34)&amp;"],"</f>
         <v>"Date":["12 August"],</v>
       </c>
@@ -27119,14 +27149,14 @@
         <f>P4</f>
         <v>0</v>
       </c>
-      <c r="T45" s="132" t="str">
+      <c r="T45" s="10" t="str">
         <f>CHAR(34)&amp;"Missed"&amp;CHAR(34)&amp;":["&amp;W23&amp;W24&amp;W25&amp;W26&amp;W27&amp;W28&amp;W29&amp;W30&amp;W31&amp;W32&amp;W33&amp;W34&amp;W35&amp;W36&amp;W37&amp;W38&amp;"],"</f>
         <v>"Missed":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
       <c r="U45" s="10"/>
     </row>
     <row r="46" spans="3:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="T46" s="132" t="s">
+      <c r="T46" s="10" t="s">
         <v>216</v>
       </c>
       <c r="U46" s="10"/>

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\LTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E52653-3709-4481-BDC0-A54D5C63E930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD510E4-0881-4A23-8A5E-40587EBE1F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{2BAB6892-F479-4D43-B08F-5DB0BF167B7D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="5" xr2:uid="{2BAB6892-F479-4D43-B08F-5DB0BF167B7D}"/>
   </bookViews>
   <sheets>
     <sheet name="SfW" sheetId="2" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="Statistics TC" sheetId="5" r:id="rId4"/>
     <sheet name="Statistics GM" sheetId="6" r:id="rId5"/>
     <sheet name="Template" sheetId="7" r:id="rId6"/>
+    <sheet name="2401" sheetId="8" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="227">
   <si>
     <t>Points</t>
   </si>
@@ -285,9 +286,6 @@
   </si>
   <si>
     <t>Totals</t>
-  </si>
-  <si>
-    <t>Date:</t>
   </si>
   <si>
     <t>Stats</t>
@@ -693,6 +691,36 @@
   </si>
   <si>
     <t>12 August</t>
+  </si>
+  <si>
+    <t>24 January</t>
+  </si>
+  <si>
+    <t>1-0</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>2-0</t>
+  </si>
+  <si>
+    <t>Gentle, Men OTHER</t>
+  </si>
+  <si>
+    <t>Three Pointer</t>
+  </si>
+  <si>
+    <t>Score</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1152,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1348,6 +1376,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1357,6 +1386,76 @@
     <cellStyle name="Percent 2" xfId="4" xr:uid="{634236AC-3325-4CC1-8E1B-D50D109B9BAB}"/>
   </cellStyles>
   <dxfs count="155">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4800,76 +4899,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -7405,40 +7434,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}" name="Table1" displayName="Table1" ref="Z7:AJ23" totalsRowShown="0" headerRowDxfId="147" dataDxfId="145" headerRowBorderDxfId="146" tableBorderDxfId="144" totalsRowBorderDxfId="143">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}" name="Table1" displayName="Table1" ref="Z7:AJ23" totalsRowShown="0" headerRowDxfId="154" dataDxfId="152" headerRowBorderDxfId="153" tableBorderDxfId="151" totalsRowBorderDxfId="150">
   <autoFilter ref="Z7:AJ23" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{9B036617-5450-4894-9268-827D2E0914FF}" name="Scoring" dataDxfId="142">
+    <tableColumn id="1" xr3:uid="{9B036617-5450-4894-9268-827D2E0914FF}" name="Scoring" dataDxfId="149">
       <calculatedColumnFormula>SfW!B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="141">
+    <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="148">
       <calculatedColumnFormula>SUM(AL29,AA49,AL49,AA69,AL69,AA89,AL89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="140">
+    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="147">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="139">
+    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="146">
       <calculatedColumnFormula>SUM(AM29,AB49,AM49,AB69,AM69,AB89,AM89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="138">
+    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="145">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="137">
+    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="144">
       <calculatedColumnFormula>SUM(AN29,AC49,AN49,AC69,AN69,AC89,AN89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="136">
+    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="143">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="135">
+    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="142">
       <calculatedColumnFormula>SUM(AO29,AD49,AO49,AD69,AO69,AD89,AO89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="134">
+    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="141">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="133">
+    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="140">
       <calculatedColumnFormula>SfW!C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="132">
+    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="139">
       <calculatedColumnFormula>SUM(AT29,AI49,AT49,AI69,AT69,AI89,AT89)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7447,225 +7476,225 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}" name="Table1114" displayName="Table1114" ref="P3:Y8" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}" name="Table1114" displayName="Table1114" ref="P3:Y8" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="P3:Y8" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B3B5C08C-655A-460A-A171-B3B0C826FF04}" name="Name" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{427944B0-44CA-4325-A406-29F83026BA5E}" name="Points" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{5E06D173-4DBE-4045-9072-0A0A77D19C84}" name="Average" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{E74131A4-1DCA-4A89-8989-A4CF80175582}" name="Finishes" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{FC3336D4-2CB5-4673-A345-7C9CCED7ADEE}" name="Averages" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{BD6313A7-5D92-4B66-9B85-7ABC12DE9691}" name="Midranges" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{6D0293BC-7E06-45CE-9D4B-FE4769DF9D9F}" name="Averages2" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{89C1C64B-DD66-482C-BCDE-8B912D2676EF}" name="Threes" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{7748B87C-1833-4BD6-9162-76373407E655}" name="Averages3" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{D870E191-A52F-442E-AA52-A42CFAD05573}" name="Missed Games" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{B3B5C08C-655A-460A-A171-B3B0C826FF04}" name="Name" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{427944B0-44CA-4325-A406-29F83026BA5E}" name="Points" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{5E06D173-4DBE-4045-9072-0A0A77D19C84}" name="Average" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{E74131A4-1DCA-4A89-8989-A4CF80175582}" name="Finishes" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{FC3336D4-2CB5-4673-A345-7C9CCED7ADEE}" name="Averages" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{BD6313A7-5D92-4B66-9B85-7ABC12DE9691}" name="Midranges" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{6D0293BC-7E06-45CE-9D4B-FE4769DF9D9F}" name="Averages2" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{89C1C64B-DD66-482C-BCDE-8B912D2676EF}" name="Threes" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{7748B87C-1833-4BD6-9162-76373407E655}" name="Averages3" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{D870E191-A52F-442E-AA52-A42CFAD05573}" name="Missed Games" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}" name="Table1113" displayName="Table1113" ref="M3:V8" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}" name="Table1113" displayName="Table1113" ref="M3:V8" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="M3:V8" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7790729E-C8E5-45C1-8784-25212A2654AA}" name="Name" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{52A67B2B-967C-4970-8D83-8F8E9CC61522}" name="Points" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{BA1FA2C8-AEC0-4644-83DB-5097750D7188}" name="Average" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{4CF66F5D-BF10-4CBD-88FF-CCD38730E1CD}" name="Finishes" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{BC246D5B-7E78-41A6-B796-C93ED8E53DF9}" name="Averages" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{AB819419-CC06-4A40-8DED-E231125129C0}" name="Midranges" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{064AA562-C451-4362-805E-D12DC76C3530}" name="Averages2" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{BD0D8BAE-15E4-4B38-87FE-B682D7BAEE75}" name="Threes" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{541E391B-4B08-4E98-A63F-753C11193269}" name="Averages3" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{999BB5D2-D6FB-4EB9-A268-D62EA72F939D}" name="Missed Games" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{7790729E-C8E5-45C1-8784-25212A2654AA}" name="Name" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{52A67B2B-967C-4970-8D83-8F8E9CC61522}" name="Points" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{BA1FA2C8-AEC0-4644-83DB-5097750D7188}" name="Average" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{4CF66F5D-BF10-4CBD-88FF-CCD38730E1CD}" name="Finishes" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{BC246D5B-7E78-41A6-B796-C93ED8E53DF9}" name="Averages" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{AB819419-CC06-4A40-8DED-E231125129C0}" name="Midranges" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{064AA562-C451-4362-805E-D12DC76C3530}" name="Averages2" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{BD0D8BAE-15E4-4B38-87FE-B682D7BAEE75}" name="Threes" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{541E391B-4B08-4E98-A63F-753C11193269}" name="Averages3" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{999BB5D2-D6FB-4EB9-A268-D62EA72F939D}" name="Missed Games" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}" name="Table11" displayName="Table11" ref="I4:R10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}" name="Table11" displayName="Table11" ref="I4:R10" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="I4:R10" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{CE15C23D-9493-4B21-9D40-1A25D210C18E}" name="Name" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{6BB170B1-AA38-4699-9B96-400D2947EE9C}" name="Points" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{EC8B6CBB-FCC9-416C-AEA6-738419DFE531}" name="Average" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{315DA055-9A43-468A-A501-1092626F523F}" name="Finishes" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{56B6FF4D-95D4-4550-88E4-C781ABDA83A6}" name="Averages" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{F7B5C0B8-FBE2-44B0-A372-112C7776FCCF}" name="Midranges" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{1A1C2126-FEB1-408F-8523-049E53028B4E}" name="Averages2" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{AE94036B-3777-4C1B-97D5-7BFA1037C0BF}" name="Threes" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{448B0903-7F66-40BA-809F-74ADBF397B45}" name="Averages3" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{E0CAC55D-8398-4928-A219-C01706996D48}" name="Missed Games" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CE15C23D-9493-4B21-9D40-1A25D210C18E}" name="Name" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{6BB170B1-AA38-4699-9B96-400D2947EE9C}" name="Points" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{EC8B6CBB-FCC9-416C-AEA6-738419DFE531}" name="Average" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{315DA055-9A43-468A-A501-1092626F523F}" name="Finishes" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{56B6FF4D-95D4-4550-88E4-C781ABDA83A6}" name="Averages" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{F7B5C0B8-FBE2-44B0-A372-112C7776FCCF}" name="Midranges" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{1A1C2126-FEB1-408F-8523-049E53028B4E}" name="Averages2" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{AE94036B-3777-4C1B-97D5-7BFA1037C0BF}" name="Threes" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{448B0903-7F66-40BA-809F-74ADBF397B45}" name="Averages3" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{E0CAC55D-8398-4928-A219-C01706996D48}" name="Missed Games" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}" name="Table2" displayName="Table2" ref="Z28:AI44" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}" name="Table2" displayName="Table2" ref="Z28:AI44" totalsRowShown="0" headerRowDxfId="138" dataDxfId="137">
   <autoFilter ref="Z28:AI44" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4DB7A2B8-7BD8-4BD7-8F53-2A7873A4EAAE}" name="Scoring" dataDxfId="129"/>
-    <tableColumn id="2" xr3:uid="{BE8EBD49-660A-4C9F-970E-230EBB942EF1}" name="Points" dataDxfId="128"/>
-    <tableColumn id="3" xr3:uid="{C2C49EF0-4D8C-4F8C-8D19-CDD1481D9568}" name="Finishes" dataDxfId="127"/>
-    <tableColumn id="4" xr3:uid="{7E789F8C-B8F3-4D6E-AB6C-C9454835B062}" name="Midranges" dataDxfId="126"/>
-    <tableColumn id="5" xr3:uid="{18C990F2-A6D0-4F57-B96A-D00066DCC8D8}" name="Threes" dataDxfId="125"/>
-    <tableColumn id="6" xr3:uid="{40526534-76CA-42BA-A8B6-AB092D9CE18F}" name="Avg P" dataDxfId="124"/>
-    <tableColumn id="7" xr3:uid="{693AF117-21F6-4887-B78D-D59235BABA44}" name="Avg F" dataDxfId="123"/>
-    <tableColumn id="8" xr3:uid="{02AC8FBF-EBB3-4AFC-BAC5-B773E33B7279}" name="Avg M" dataDxfId="122"/>
-    <tableColumn id="9" xr3:uid="{CCF75EB4-34C4-4D47-9D51-E8D85C07E38B}" name="Avg T" dataDxfId="121"/>
-    <tableColumn id="10" xr3:uid="{1A786A5C-D0C2-4ABC-904C-983180542D5F}" name="Missed Games" dataDxfId="120"/>
+    <tableColumn id="1" xr3:uid="{4DB7A2B8-7BD8-4BD7-8F53-2A7873A4EAAE}" name="Scoring" dataDxfId="136"/>
+    <tableColumn id="2" xr3:uid="{BE8EBD49-660A-4C9F-970E-230EBB942EF1}" name="Points" dataDxfId="135"/>
+    <tableColumn id="3" xr3:uid="{C2C49EF0-4D8C-4F8C-8D19-CDD1481D9568}" name="Finishes" dataDxfId="134"/>
+    <tableColumn id="4" xr3:uid="{7E789F8C-B8F3-4D6E-AB6C-C9454835B062}" name="Midranges" dataDxfId="133"/>
+    <tableColumn id="5" xr3:uid="{18C990F2-A6D0-4F57-B96A-D00066DCC8D8}" name="Threes" dataDxfId="132"/>
+    <tableColumn id="6" xr3:uid="{40526534-76CA-42BA-A8B6-AB092D9CE18F}" name="Avg P" dataDxfId="131"/>
+    <tableColumn id="7" xr3:uid="{693AF117-21F6-4887-B78D-D59235BABA44}" name="Avg F" dataDxfId="130"/>
+    <tableColumn id="8" xr3:uid="{02AC8FBF-EBB3-4AFC-BAC5-B773E33B7279}" name="Avg M" dataDxfId="129"/>
+    <tableColumn id="9" xr3:uid="{CCF75EB4-34C4-4D47-9D51-E8D85C07E38B}" name="Avg T" dataDxfId="128"/>
+    <tableColumn id="10" xr3:uid="{1A786A5C-D0C2-4ABC-904C-983180542D5F}" name="Missed Games" dataDxfId="127"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}" name="Table211" displayName="Table211" ref="AK28:AT44" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}" name="Table211" displayName="Table211" ref="AK28:AT44" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125">
   <autoFilter ref="AK28:AT44" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5D003608-C1C2-4694-9447-8632FB8D7348}" name="Scoring" dataDxfId="117"/>
-    <tableColumn id="2" xr3:uid="{D15F4085-CED5-4CDD-B43B-BF7EB59B45A3}" name="Points" dataDxfId="116"/>
-    <tableColumn id="3" xr3:uid="{2D436F37-54B6-4820-9145-F48B4EF9B294}" name="Finishes" dataDxfId="115"/>
-    <tableColumn id="4" xr3:uid="{1D9B6A22-B682-47F3-B738-7C138F317A41}" name="Midranges" dataDxfId="114"/>
-    <tableColumn id="5" xr3:uid="{9966C9A0-3872-44E9-BB39-05DE197EAA68}" name="Threes" dataDxfId="113"/>
-    <tableColumn id="6" xr3:uid="{CC4AB646-735F-425F-8528-C5EFE7FE11DC}" name="Avg P" dataDxfId="112"/>
-    <tableColumn id="7" xr3:uid="{F8D0247E-C6F7-467A-9F38-46084D44F8AB}" name="Avg F" dataDxfId="111"/>
-    <tableColumn id="8" xr3:uid="{7CCF1C77-9DB0-4EB2-B7D0-FD0BDBEBFA0E}" name="Avg M" dataDxfId="110"/>
-    <tableColumn id="9" xr3:uid="{582A1A4E-5383-4383-A480-735408867046}" name="Avg T" dataDxfId="109"/>
-    <tableColumn id="10" xr3:uid="{E547AEB5-F9BA-4C5F-8DCE-34B6A8FF303A}" name="Missed Games" dataDxfId="108"/>
+    <tableColumn id="1" xr3:uid="{5D003608-C1C2-4694-9447-8632FB8D7348}" name="Scoring" dataDxfId="124"/>
+    <tableColumn id="2" xr3:uid="{D15F4085-CED5-4CDD-B43B-BF7EB59B45A3}" name="Points" dataDxfId="123"/>
+    <tableColumn id="3" xr3:uid="{2D436F37-54B6-4820-9145-F48B4EF9B294}" name="Finishes" dataDxfId="122"/>
+    <tableColumn id="4" xr3:uid="{1D9B6A22-B682-47F3-B738-7C138F317A41}" name="Midranges" dataDxfId="121"/>
+    <tableColumn id="5" xr3:uid="{9966C9A0-3872-44E9-BB39-05DE197EAA68}" name="Threes" dataDxfId="120"/>
+    <tableColumn id="6" xr3:uid="{CC4AB646-735F-425F-8528-C5EFE7FE11DC}" name="Avg P" dataDxfId="119"/>
+    <tableColumn id="7" xr3:uid="{F8D0247E-C6F7-467A-9F38-46084D44F8AB}" name="Avg F" dataDxfId="118"/>
+    <tableColumn id="8" xr3:uid="{7CCF1C77-9DB0-4EB2-B7D0-FD0BDBEBFA0E}" name="Avg M" dataDxfId="117"/>
+    <tableColumn id="9" xr3:uid="{582A1A4E-5383-4383-A480-735408867046}" name="Avg T" dataDxfId="116"/>
+    <tableColumn id="10" xr3:uid="{E547AEB5-F9BA-4C5F-8DCE-34B6A8FF303A}" name="Missed Games" dataDxfId="115"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}" name="Table21123" displayName="Table21123" ref="Z48:AI64" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}" name="Table21123" displayName="Table21123" ref="Z48:AI64" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113">
   <autoFilter ref="Z48:AI64" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0B0344E8-2677-4FAB-9B03-4745991FB5AE}" name="Scoring" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{58CA1107-8BB4-4A5D-BA00-31619C8D3973}" name="Points" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{8090861E-1FDF-44F4-9DB6-BB814E32C754}" name="Finishes" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{972D0347-DAB3-4985-A738-E5D78740D498}" name="Midranges" dataDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{48F5F884-1753-4988-9056-632B5EB6BBCB}" name="Threes" dataDxfId="101"/>
-    <tableColumn id="6" xr3:uid="{6953B627-EA05-418F-A758-FD59263EA60D}" name="Avg P" dataDxfId="100"/>
-    <tableColumn id="7" xr3:uid="{BE057C9C-5ECD-4AC2-A9C0-18C89CFB52BC}" name="Avg F" dataDxfId="99"/>
-    <tableColumn id="8" xr3:uid="{0FDEBEE7-CD5E-4A44-A0AE-74F044F1FF46}" name="Avg M" dataDxfId="98"/>
-    <tableColumn id="9" xr3:uid="{76975BB6-3677-41A8-BC24-7536B1D876D3}" name="Avg T" dataDxfId="97"/>
-    <tableColumn id="10" xr3:uid="{E5ADB69B-3BA2-4019-8C83-8B02221F187E}" name="Missed Games" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{0B0344E8-2677-4FAB-9B03-4745991FB5AE}" name="Scoring" dataDxfId="112"/>
+    <tableColumn id="2" xr3:uid="{58CA1107-8BB4-4A5D-BA00-31619C8D3973}" name="Points" dataDxfId="111"/>
+    <tableColumn id="3" xr3:uid="{8090861E-1FDF-44F4-9DB6-BB814E32C754}" name="Finishes" dataDxfId="110"/>
+    <tableColumn id="4" xr3:uid="{972D0347-DAB3-4985-A738-E5D78740D498}" name="Midranges" dataDxfId="109"/>
+    <tableColumn id="5" xr3:uid="{48F5F884-1753-4988-9056-632B5EB6BBCB}" name="Threes" dataDxfId="108"/>
+    <tableColumn id="6" xr3:uid="{6953B627-EA05-418F-A758-FD59263EA60D}" name="Avg P" dataDxfId="107"/>
+    <tableColumn id="7" xr3:uid="{BE057C9C-5ECD-4AC2-A9C0-18C89CFB52BC}" name="Avg F" dataDxfId="106"/>
+    <tableColumn id="8" xr3:uid="{0FDEBEE7-CD5E-4A44-A0AE-74F044F1FF46}" name="Avg M" dataDxfId="105"/>
+    <tableColumn id="9" xr3:uid="{76975BB6-3677-41A8-BC24-7536B1D876D3}" name="Avg T" dataDxfId="104"/>
+    <tableColumn id="10" xr3:uid="{E5ADB69B-3BA2-4019-8C83-8B02221F187E}" name="Missed Games" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}" name="Table21124" displayName="Table21124" ref="AK48:AT64" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}" name="Table21124" displayName="Table21124" ref="AK48:AT64" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
   <autoFilter ref="AK48:AT64" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3D35891E-3654-497A-8DB2-BF0BD916CA29}" name="Scoring" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{54B5B6AF-372A-4E07-B4D6-DFC66F7E20C5}" name="Points" dataDxfId="92"/>
-    <tableColumn id="3" xr3:uid="{6CA15B41-F560-4B43-8836-163F5BB5689C}" name="Finishes" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{8FF05262-0051-44F7-966E-8D405318BA69}" name="Midranges" dataDxfId="90"/>
-    <tableColumn id="5" xr3:uid="{F0D843FC-7A93-4C9A-BCCF-E789F7811B3B}" name="Threes" dataDxfId="89"/>
-    <tableColumn id="6" xr3:uid="{F0498F8A-F646-4C1F-A3CF-E89E73750FC1}" name="Avg P" dataDxfId="88"/>
-    <tableColumn id="7" xr3:uid="{A387BC88-F45C-4386-8503-EFEA33BDAC38}" name="Avg F" dataDxfId="87"/>
-    <tableColumn id="8" xr3:uid="{BEA82919-0828-4351-A01A-D72E13E63FAB}" name="Avg M" dataDxfId="86"/>
-    <tableColumn id="9" xr3:uid="{ABEBCE01-BCA4-4342-966C-27301889B607}" name="Avg T" dataDxfId="85"/>
-    <tableColumn id="10" xr3:uid="{65E7A8E7-4C51-42E4-AB0F-B7FF6099D70A}" name="Missed Games" dataDxfId="84"/>
+    <tableColumn id="1" xr3:uid="{3D35891E-3654-497A-8DB2-BF0BD916CA29}" name="Scoring" dataDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{54B5B6AF-372A-4E07-B4D6-DFC66F7E20C5}" name="Points" dataDxfId="99"/>
+    <tableColumn id="3" xr3:uid="{6CA15B41-F560-4B43-8836-163F5BB5689C}" name="Finishes" dataDxfId="98"/>
+    <tableColumn id="4" xr3:uid="{8FF05262-0051-44F7-966E-8D405318BA69}" name="Midranges" dataDxfId="97"/>
+    <tableColumn id="5" xr3:uid="{F0D843FC-7A93-4C9A-BCCF-E789F7811B3B}" name="Threes" dataDxfId="96"/>
+    <tableColumn id="6" xr3:uid="{F0498F8A-F646-4C1F-A3CF-E89E73750FC1}" name="Avg P" dataDxfId="95"/>
+    <tableColumn id="7" xr3:uid="{A387BC88-F45C-4386-8503-EFEA33BDAC38}" name="Avg F" dataDxfId="94"/>
+    <tableColumn id="8" xr3:uid="{BEA82919-0828-4351-A01A-D72E13E63FAB}" name="Avg M" dataDxfId="93"/>
+    <tableColumn id="9" xr3:uid="{ABEBCE01-BCA4-4342-966C-27301889B607}" name="Avg T" dataDxfId="92"/>
+    <tableColumn id="10" xr3:uid="{65E7A8E7-4C51-42E4-AB0F-B7FF6099D70A}" name="Missed Games" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}" name="Table21125" displayName="Table21125" ref="AK68:AT84" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}" name="Table21125" displayName="Table21125" ref="AK68:AT84" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
   <autoFilter ref="AK68:AT84" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D144EF14-69FD-4E71-90C7-56F49F45FAE5}" name="Scoring" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{34D1D392-F3E0-4C36-9EED-849D5B1149E6}" name="Points" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{E91D98A2-80BD-4E5C-9036-2FCC8185369F}" name="Finishes" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{D2E5029E-4811-4E9B-9A2D-5F5F8F322B0D}" name="Midranges" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{B3E76CEE-33DA-4B18-8DCE-8EBC7EE592D7}" name="Threes" dataDxfId="77"/>
-    <tableColumn id="6" xr3:uid="{6ABE1879-8018-4498-A9A1-22CF831F0364}" name="Avg P" dataDxfId="76"/>
-    <tableColumn id="7" xr3:uid="{8DA4DD79-8A2A-49E4-996F-C1ACCED3C565}" name="Avg F" dataDxfId="75"/>
-    <tableColumn id="8" xr3:uid="{256EA4BC-BA61-49E2-969F-0786AA9AA6EA}" name="Avg M" dataDxfId="74"/>
-    <tableColumn id="9" xr3:uid="{0E5566B2-99EC-4B03-A074-8705C4EDA484}" name="Avg T" dataDxfId="73"/>
-    <tableColumn id="10" xr3:uid="{3E2357F0-493E-401D-AC75-9AAB260F684E}" name="Missed Games" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{D144EF14-69FD-4E71-90C7-56F49F45FAE5}" name="Scoring" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{34D1D392-F3E0-4C36-9EED-849D5B1149E6}" name="Points" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{E91D98A2-80BD-4E5C-9036-2FCC8185369F}" name="Finishes" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{D2E5029E-4811-4E9B-9A2D-5F5F8F322B0D}" name="Midranges" dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{B3E76CEE-33DA-4B18-8DCE-8EBC7EE592D7}" name="Threes" dataDxfId="84"/>
+    <tableColumn id="6" xr3:uid="{6ABE1879-8018-4498-A9A1-22CF831F0364}" name="Avg P" dataDxfId="83"/>
+    <tableColumn id="7" xr3:uid="{8DA4DD79-8A2A-49E4-996F-C1ACCED3C565}" name="Avg F" dataDxfId="82"/>
+    <tableColumn id="8" xr3:uid="{256EA4BC-BA61-49E2-969F-0786AA9AA6EA}" name="Avg M" dataDxfId="81"/>
+    <tableColumn id="9" xr3:uid="{0E5566B2-99EC-4B03-A074-8705C4EDA484}" name="Avg T" dataDxfId="80"/>
+    <tableColumn id="10" xr3:uid="{3E2357F0-493E-401D-AC75-9AAB260F684E}" name="Missed Games" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}" name="Table21126" displayName="Table21126" ref="Z68:AI84" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}" name="Table21126" displayName="Table21126" ref="Z68:AI84" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
   <autoFilter ref="Z68:AI84" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7723929D-65B3-40BB-8FDD-C4533243706C}" name="Scoring" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{EC28DE3D-619E-4930-A3AF-7AD1BE1D4843}" name="Points" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{9537269D-8C1D-42B5-866F-D03CE61A8512}" name="Finishes" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{AC590DDB-BE19-4A14-8B98-1E5E2430AA45}" name="Midranges" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{C96D3ACD-F34D-477E-86DE-4650EE56BC94}" name="Threes" dataDxfId="65"/>
-    <tableColumn id="6" xr3:uid="{A43DE5E9-BB01-49FA-A204-66EE7BAA2E9F}" name="Avg P" dataDxfId="64"/>
-    <tableColumn id="7" xr3:uid="{C75A19FF-6041-45C2-BACB-E347F06B6329}" name="Avg F" dataDxfId="63"/>
-    <tableColumn id="8" xr3:uid="{00D3FCFC-C9C5-4C96-BE0E-8E1FDC95D07C}" name="Avg M" dataDxfId="62"/>
-    <tableColumn id="9" xr3:uid="{0448FF4E-9D2D-47F6-89B7-F17D36B05E8A}" name="Avg T" dataDxfId="61"/>
-    <tableColumn id="10" xr3:uid="{D5BDFA2D-095B-44F8-8567-15B3B1520E5A}" name="Missed Games" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{7723929D-65B3-40BB-8FDD-C4533243706C}" name="Scoring" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{EC28DE3D-619E-4930-A3AF-7AD1BE1D4843}" name="Points" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{9537269D-8C1D-42B5-866F-D03CE61A8512}" name="Finishes" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{AC590DDB-BE19-4A14-8B98-1E5E2430AA45}" name="Midranges" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{C96D3ACD-F34D-477E-86DE-4650EE56BC94}" name="Threes" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{A43DE5E9-BB01-49FA-A204-66EE7BAA2E9F}" name="Avg P" dataDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{C75A19FF-6041-45C2-BACB-E347F06B6329}" name="Avg F" dataDxfId="70"/>
+    <tableColumn id="8" xr3:uid="{00D3FCFC-C9C5-4C96-BE0E-8E1FDC95D07C}" name="Avg M" dataDxfId="69"/>
+    <tableColumn id="9" xr3:uid="{0448FF4E-9D2D-47F6-89B7-F17D36B05E8A}" name="Avg T" dataDxfId="68"/>
+    <tableColumn id="10" xr3:uid="{D5BDFA2D-095B-44F8-8567-15B3B1520E5A}" name="Missed Games" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}" name="Table21127" displayName="Table21127" ref="Z88:AI104" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}" name="Table21127" displayName="Table21127" ref="Z88:AI104" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="Z88:AI104" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{9DBD966D-620C-4B97-A502-29D00ABE150B}" name="Scoring" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{F8F81F0E-16B3-4472-9D90-A92149C763E4}" name="Points" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{09859CE1-290D-4977-B02C-46F4E5A6FDC2}" name="Finishes" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{7D751A0E-2895-46DF-B5E2-5A8AA5531CD2}" name="Midranges" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{591CDC71-B0EA-413B-B6C1-77884E7E50D4}" name="Threes" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{52ED768C-5557-42DC-9824-7A4D9B547153}" name="Avg P" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{FC79BE87-72E2-4F5E-83D6-CDCE645EB943}" name="Avg F" dataDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{BA012C22-0D65-4C11-98A7-4F958703D04B}" name="Avg M" dataDxfId="50"/>
-    <tableColumn id="9" xr3:uid="{63344F2B-5D94-417D-85E2-C2BFBACE3E7E}" name="Avg T" dataDxfId="49"/>
-    <tableColumn id="10" xr3:uid="{1AD5A604-8909-45B3-8E43-11D407451CEA}" name="Missed Games" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{9DBD966D-620C-4B97-A502-29D00ABE150B}" name="Scoring" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{F8F81F0E-16B3-4472-9D90-A92149C763E4}" name="Points" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{09859CE1-290D-4977-B02C-46F4E5A6FDC2}" name="Finishes" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{7D751A0E-2895-46DF-B5E2-5A8AA5531CD2}" name="Midranges" dataDxfId="61"/>
+    <tableColumn id="5" xr3:uid="{591CDC71-B0EA-413B-B6C1-77884E7E50D4}" name="Threes" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{52ED768C-5557-42DC-9824-7A4D9B547153}" name="Avg P" dataDxfId="59"/>
+    <tableColumn id="7" xr3:uid="{FC79BE87-72E2-4F5E-83D6-CDCE645EB943}" name="Avg F" dataDxfId="58"/>
+    <tableColumn id="8" xr3:uid="{BA012C22-0D65-4C11-98A7-4F958703D04B}" name="Avg M" dataDxfId="57"/>
+    <tableColumn id="9" xr3:uid="{63344F2B-5D94-417D-85E2-C2BFBACE3E7E}" name="Avg T" dataDxfId="56"/>
+    <tableColumn id="10" xr3:uid="{1AD5A604-8909-45B3-8E43-11D407451CEA}" name="Missed Games" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}" name="Table21128" displayName="Table21128" ref="AK88:AT104" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}" name="Table21128" displayName="Table21128" ref="AK88:AT104" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <autoFilter ref="AK88:AT104" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{E62FBAA0-D6F6-4997-96C9-B6B13FAA9B6E}" name="Scoring" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{0A655F6F-9A21-4167-85B6-B9F7DC2070CA}" name="Points" dataDxfId="44">
+    <tableColumn id="1" xr3:uid="{E62FBAA0-D6F6-4997-96C9-B6B13FAA9B6E}" name="Scoring" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{0A655F6F-9A21-4167-85B6-B9F7DC2070CA}" name="Points" dataDxfId="51">
       <calculatedColumnFormula>Template!AC51</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{460771D3-3BD8-4DA3-AF1B-1A0F98EF1499}" name="Finishes" dataDxfId="43">
+    <tableColumn id="3" xr3:uid="{460771D3-3BD8-4DA3-AF1B-1A0F98EF1499}" name="Finishes" dataDxfId="50">
       <calculatedColumnFormula>Template!AD51</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3C08B2D7-823D-49C3-A627-A5848E664B2F}" name="Midranges" dataDxfId="42">
+    <tableColumn id="4" xr3:uid="{3C08B2D7-823D-49C3-A627-A5848E664B2F}" name="Midranges" dataDxfId="49">
       <calculatedColumnFormula>Template!AE51</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E88F45FB-4C46-4674-86D5-74808E7E5368}" name="Threes" dataDxfId="41">
+    <tableColumn id="5" xr3:uid="{E88F45FB-4C46-4674-86D5-74808E7E5368}" name="Threes" dataDxfId="48">
       <calculatedColumnFormula>Template!AF51</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0C0E8016-1E6E-4F25-9675-4EE061FFD0F7}" name="Avg P" dataDxfId="40">
+    <tableColumn id="6" xr3:uid="{0C0E8016-1E6E-4F25-9675-4EE061FFD0F7}" name="Avg P" dataDxfId="47">
       <calculatedColumnFormula>AL89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F7AC350B-AE4B-4912-B21D-16D99E2AE8BF}" name="Avg F" dataDxfId="39">
+    <tableColumn id="7" xr3:uid="{F7AC350B-AE4B-4912-B21D-16D99E2AE8BF}" name="Avg F" dataDxfId="46">
       <calculatedColumnFormula>AM89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F451E5CA-B9C4-4EFA-A647-CEDB2FB39550}" name="Avg M" dataDxfId="38">
+    <tableColumn id="8" xr3:uid="{F451E5CA-B9C4-4EFA-A647-CEDB2FB39550}" name="Avg M" dataDxfId="45">
       <calculatedColumnFormula>AN89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ED1D92B5-05F1-40CE-A89F-E6627FAB4A59}" name="Avg T" dataDxfId="37">
+    <tableColumn id="9" xr3:uid="{ED1D92B5-05F1-40CE-A89F-E6627FAB4A59}" name="Avg T" dataDxfId="44">
       <calculatedColumnFormula>AO89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{48A4808A-3DE6-4644-83F5-C2AEDDFC3E5E}" name="Missed Games" dataDxfId="36">
+    <tableColumn id="10" xr3:uid="{48A4808A-3DE6-4644-83F5-C2AEDDFC3E5E}" name="Missed Games" dataDxfId="43">
       <calculatedColumnFormula>COUNTIF(Template!AG63, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7874,7 +7903,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="62" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="62" workbookViewId="0">
       <selection activeCell="T46" sqref="T46"/>
     </sheetView>
   </sheetViews>
@@ -7935,7 +7964,7 @@
         <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>14</v>
@@ -7976,7 +8005,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="116" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D3" s="5">
         <f>'Stats Global'!AB8</f>
@@ -8015,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U3" t="str">
         <f>"Drafted by "&amp;C3</f>
@@ -8030,10 +8059,10 @@
         <v>../Images/Players/Jasper.png</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AD3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE3" t="str">
         <f>'Statistics CT'!G43</f>
@@ -8045,7 +8074,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="105" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" s="5">
         <f>'Stats Global'!AB9</f>
@@ -8084,7 +8113,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="V4" s="1" t="str">
         <f t="shared" ref="V4:V13" si="1">IF(C4="Gentle, Men", $Y$3, IF(C4="Choc-Tops", $Y$4, IF(C4="Traffic Controllers", $Y$5, $Y$6)))</f>
@@ -8095,10 +8124,10 @@
         <v>../Images/Players/Conor.png</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AD4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AE4" t="str">
         <f>'Statistics CT'!G44</f>
@@ -8110,7 +8139,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="116" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D5" s="5">
         <f>'Stats Global'!AB10</f>
@@ -8155,10 +8184,10 @@
         <v>29</v>
       </c>
       <c r="O5" t="s">
+        <v>123</v>
+      </c>
+      <c r="P5" t="s">
         <v>124</v>
-      </c>
-      <c r="P5" t="s">
-        <v>125</v>
       </c>
       <c r="U5" t="str">
         <f t="shared" ref="U5:U12" si="2">"Drafted by "&amp;C5</f>
@@ -8173,10 +8202,10 @@
         <v>../Images/Players/Alex.png</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AD5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AE5" t="str">
         <f>'Statistics CT'!G45</f>
@@ -8188,7 +8217,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="116" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D6" s="5">
         <f>'Stats Global'!AB11</f>
@@ -8236,13 +8265,13 @@
         <v>29</v>
       </c>
       <c r="P6" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q6" t="s">
         <v>124</v>
       </c>
-      <c r="Q6" t="s">
-        <v>125</v>
-      </c>
       <c r="R6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S6" t="s">
         <v>35</v>
@@ -8260,10 +8289,10 @@
         <v>../Images/Players/Rudy.png</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AD6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AE6" t="str">
         <f>'Statistics CT'!G46</f>
@@ -8275,7 +8304,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="116" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D7" s="5">
         <f>'Stats Global'!AB12</f>
@@ -8320,10 +8349,10 @@
         <v>34</v>
       </c>
       <c r="O7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U7" t="str">
         <f t="shared" si="2"/>
@@ -8338,7 +8367,7 @@
         <v>../Images/Players/Michael.png</v>
       </c>
       <c r="AD7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AE7" t="str">
         <f>'Statistics TC'!H43</f>
@@ -8350,7 +8379,7 @@
         <v>37</v>
       </c>
       <c r="C8" s="116" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" s="5">
         <f>'Stats Global'!AB13</f>
@@ -8395,7 +8424,7 @@
         <v>31</v>
       </c>
       <c r="O8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U8" t="str">
         <f t="shared" si="2"/>
@@ -8413,7 +8442,7 @@
         <v>36</v>
       </c>
       <c r="AD8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE8" t="str">
         <f>'Statistics TC'!H44</f>
@@ -8422,10 +8451,10 @@
     </row>
     <row r="9" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="116" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9" s="5">
         <f>'Stats Global'!AB14</f>
@@ -8464,10 +8493,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U9" t="str">
         <f t="shared" si="2"/>
@@ -8482,7 +8511,7 @@
         <v>../Images/Players/SamJ.png</v>
       </c>
       <c r="AD9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AE9" t="str">
         <f>'Statistics TC'!H45</f>
@@ -8494,7 +8523,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="105" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D10" s="5">
         <f>'Stats Global'!AB15</f>
@@ -8533,28 +8562,28 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8568,7 +8597,7 @@
         <v>40</v>
       </c>
       <c r="AD10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AE10" t="str">
         <f>'Statistics TC'!H46</f>
@@ -8580,7 +8609,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="114" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D11" s="5">
         <f>'Stats Global'!AB16</f>
@@ -8628,16 +8657,16 @@
         <v>28</v>
       </c>
       <c r="P11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R11" t="s">
+        <v>128</v>
+      </c>
+      <c r="S11" t="s">
         <v>129</v>
-      </c>
-      <c r="S11" t="s">
-        <v>130</v>
       </c>
       <c r="U11" t="str">
         <f t="shared" si="2"/>
@@ -8655,7 +8684,7 @@
         <v>43</v>
       </c>
       <c r="AD11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AE11" t="str">
         <f>'Statistics GM'!H32</f>
@@ -8667,7 +8696,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="116" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D12" s="5">
         <f>'Stats Global'!AB17</f>
@@ -8715,10 +8744,10 @@
         <v>28</v>
       </c>
       <c r="P12" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q12" t="s">
         <v>124</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>125</v>
       </c>
       <c r="U12" t="str">
         <f t="shared" si="2"/>
@@ -8736,7 +8765,7 @@
         <v>45</v>
       </c>
       <c r="AD12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AE12" t="str">
         <f>'Statistics GM'!H33</f>
@@ -8748,7 +8777,7 @@
         <v>46</v>
       </c>
       <c r="C13" s="105" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D13" s="5">
         <f>'Stats Global'!AB18</f>
@@ -8793,7 +8822,7 @@
         <v>29</v>
       </c>
       <c r="U13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="V13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8807,7 +8836,7 @@
         <v>48</v>
       </c>
       <c r="AD13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE13" t="str">
         <f>'Statistics GM'!H34</f>
@@ -8819,7 +8848,7 @@
         <v>49</v>
       </c>
       <c r="C14" s="116" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D14" s="5">
         <f>'Stats Global'!AB19</f>
@@ -8864,16 +8893,16 @@
         <v>29</v>
       </c>
       <c r="O14" t="s">
+        <v>120</v>
+      </c>
+      <c r="P14" t="s">
         <v>121</v>
       </c>
-      <c r="P14" t="s">
-        <v>122</v>
-      </c>
       <c r="Q14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U14" t="str">
         <f>"Drafted by "&amp;C14</f>
@@ -8891,7 +8920,7 @@
         <v>51</v>
       </c>
       <c r="AD14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AE14" t="str">
         <f>'Statistics GM'!H35</f>
@@ -8903,7 +8932,7 @@
         <v>52</v>
       </c>
       <c r="C15" s="116" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D15" s="5">
         <f>'Stats Global'!AB20</f>
@@ -8945,19 +8974,19 @@
         <v>53</v>
       </c>
       <c r="N15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O15" t="s">
         <v>118</v>
       </c>
-      <c r="O15" t="s">
-        <v>119</v>
-      </c>
       <c r="P15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U15" t="str">
         <f>"Drafted by "&amp;C15</f>
@@ -8980,7 +9009,7 @@
         <v>55</v>
       </c>
       <c r="C16" s="116" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D16" s="5">
         <f>'Stats Global'!AB21</f>
@@ -9019,7 +9048,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>35</v>
@@ -9034,13 +9063,13 @@
         <v>56</v>
       </c>
       <c r="R16" t="s">
+        <v>123</v>
+      </c>
+      <c r="S16" t="s">
         <v>124</v>
       </c>
-      <c r="S16" t="s">
-        <v>125</v>
-      </c>
       <c r="T16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U16" t="str">
         <f>"Drafted by "&amp;C16</f>
@@ -9060,10 +9089,10 @@
     </row>
     <row r="17" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C17" s="116" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D17" s="5">
         <f>'Stats Global'!AB22</f>
@@ -9108,7 +9137,7 @@
         <v>29</v>
       </c>
       <c r="O17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U17" t="str">
         <f>"Drafted by "&amp;C17</f>
@@ -9132,10 +9161,10 @@
     </row>
     <row r="18" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="127" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C18" s="128" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D18" s="5">
         <f>'Stats Global'!AB23</f>
@@ -9228,7 +9257,7 @@
     </row>
     <row r="21" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Y21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AD21" s="35" t="str">
         <f t="shared" si="3"/>
@@ -9237,12 +9266,12 @@
     </row>
     <row r="22" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B22" s="132" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" s="132"/>
       <c r="D22" s="64"/>
       <c r="Y22" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AD22" s="35" t="str">
         <f t="shared" si="3"/>
@@ -9284,7 +9313,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="Y25" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AD25" s="35" t="str">
         <f t="shared" si="3"/>
@@ -11990,46 +12019,46 @@
         <v>68</v>
       </c>
       <c r="F4" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" s="71" t="s">
+        <v>189</v>
+      </c>
+      <c r="I4" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="J4" s="71" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="L4" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="M4" s="71" t="s">
+        <v>192</v>
+      </c>
+      <c r="N4" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="O4" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="G4" s="71" t="s">
-        <v>186</v>
-      </c>
-      <c r="H4" s="71" t="s">
-        <v>190</v>
-      </c>
-      <c r="I4" s="71" t="s">
-        <v>187</v>
-      </c>
-      <c r="J4" s="71" t="s">
+      <c r="P4" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="K4" s="71" t="s">
-        <v>191</v>
-      </c>
-      <c r="L4" s="71" t="s">
-        <v>192</v>
-      </c>
-      <c r="M4" s="71" t="s">
-        <v>193</v>
-      </c>
-      <c r="N4" s="71" t="s">
+      <c r="Q4" s="71" t="s">
         <v>194</v>
-      </c>
-      <c r="O4" s="71" t="s">
-        <v>185</v>
-      </c>
-      <c r="P4" s="71" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q4" s="71" t="s">
-        <v>195</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>69</v>
       </c>
       <c r="Z4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA4" s="80">
         <f>AA6/(20-AA5)</f>
@@ -12066,7 +12095,7 @@
         <v>68</v>
       </c>
       <c r="Z5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -12109,7 +12138,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Z6" s="48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA6" s="6">
         <f>AA47+AA67+AL27+AL47+AL67+AA87+AL87</f>
@@ -12118,7 +12147,7 @@
       <c r="AK6" s="10"/>
       <c r="AL6" s="10"/>
       <c r="AM6" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AO6" s="29"/>
       <c r="AR6" s="40"/>
@@ -12177,19 +12206,19 @@
         <v>2</v>
       </c>
       <c r="AF7" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG7" s="16" t="s">
         <v>3</v>
       </c>
       <c r="AH7" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI7" s="18" t="s">
         <v>5</v>
       </c>
       <c r="AJ7" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK7" s="41"/>
       <c r="AL7" s="41"/>
@@ -12197,24 +12226,24 @@
         <v>69</v>
       </c>
       <c r="AN7" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AO7" s="10"/>
       <c r="AP7" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AQ7" s="86"/>
       <c r="AR7" s="87" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS7" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="AS7" s="39" t="s">
-        <v>158</v>
-      </c>
       <c r="AT7" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="AU7" s="94" t="s">
         <v>161</v>
-      </c>
-      <c r="AU7" s="94" t="s">
-        <v>162</v>
       </c>
       <c r="AW7" s="1"/>
       <c r="AX7" s="91"/>
@@ -12490,7 +12519,7 @@
       </c>
       <c r="AK10" s="42"/>
       <c r="AL10" s="79" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AM10" s="78">
         <f>AVERAGE(Table1[Midranges])</f>
@@ -13815,14 +13844,14 @@
       <c r="P27" s="74"/>
       <c r="Q27" s="74"/>
       <c r="Z27" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA27" s="1">
         <v>0</v>
       </c>
       <c r="AI27" s="2"/>
       <c r="AK27" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AL27" s="1">
         <v>0</v>
@@ -13848,7 +13877,7 @@
       <c r="Q28" s="74"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -13872,19 +13901,19 @@
         <v>3</v>
       </c>
       <c r="AE28" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF28" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG28" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="AG28" s="10" t="s">
-        <v>100</v>
-      </c>
       <c r="AH28" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AI28" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK28" s="10" t="s">
         <v>73</v>
@@ -13902,19 +13931,19 @@
         <v>3</v>
       </c>
       <c r="AP28" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ28" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR28" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="AR28" s="10" t="s">
-        <v>100</v>
-      </c>
       <c r="AS28" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AT28" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -13936,7 +13965,7 @@
       <c r="Q29" s="81"/>
       <c r="R29" s="2"/>
       <c r="S29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X29" s="14"/>
       <c r="Y29" s="14"/>
@@ -13983,7 +14012,7 @@
       <c r="Q30" s="81"/>
       <c r="R30" s="2"/>
       <c r="S30" s="65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z30" s="1" t="s">
         <v>26</v>
@@ -14028,7 +14057,7 @@
       <c r="Q31" s="81"/>
       <c r="R31" s="2"/>
       <c r="S31" s="65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z31" s="1" t="s">
         <v>27</v>
@@ -14072,7 +14101,7 @@
       <c r="P32" s="81"/>
       <c r="Q32" s="81"/>
       <c r="S32" s="65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X32" s="13"/>
       <c r="Z32" s="1" t="s">
@@ -14117,7 +14146,7 @@
       <c r="P33" s="81"/>
       <c r="Q33" s="81"/>
       <c r="S33" s="65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>32</v>
@@ -14161,7 +14190,7 @@
       <c r="P34" s="81"/>
       <c r="Q34" s="81"/>
       <c r="S34" s="65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Z34" s="1" t="s">
         <v>37</v>
@@ -14205,10 +14234,10 @@
       <c r="P35" s="81"/>
       <c r="Q35" s="81"/>
       <c r="S35" s="65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Z35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA35" s="22"/>
       <c r="AB35" s="22"/>
@@ -14219,7 +14248,7 @@
       <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
       <c r="AK35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL35" s="22"/>
       <c r="AM35" s="22"/>
@@ -14249,7 +14278,7 @@
       <c r="P36" s="81"/>
       <c r="Q36" s="81"/>
       <c r="S36" s="65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z36" s="1" t="s">
         <v>39</v>
@@ -14417,19 +14446,19 @@
       <c r="P40" s="81"/>
       <c r="Q40" s="81"/>
       <c r="R40" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U40" t="s">
+        <v>152</v>
+      </c>
+      <c r="V40" t="s">
         <v>153</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>154</v>
       </c>
-      <c r="W40" t="s">
-        <v>155</v>
-      </c>
       <c r="X40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z40" t="s">
         <v>49</v>
@@ -14457,7 +14486,7 @@
     </row>
     <row r="41" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R41" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S41">
         <f>'Statistics CT'!H3</f>
@@ -14510,7 +14539,7 @@
     </row>
     <row r="42" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R42" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S42">
         <f>'Statistics TC'!H3</f>
@@ -14591,7 +14620,7 @@
         <v>3</v>
       </c>
       <c r="Z43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA43" s="22"/>
       <c r="AB43" s="22"/>
@@ -14602,7 +14631,7 @@
       <c r="AG43" s="6"/>
       <c r="AH43" s="6"/>
       <c r="AK43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AL43" s="22"/>
       <c r="AM43" s="22"/>
@@ -14616,7 +14645,7 @@
     </row>
     <row r="44" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Z44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA44" s="22"/>
       <c r="AB44" s="22"/>
@@ -14627,7 +14656,7 @@
       <c r="AG44" s="6"/>
       <c r="AH44" s="6"/>
       <c r="AK44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AL44" s="22"/>
       <c r="AM44" s="22"/>
@@ -14641,7 +14670,7 @@
     </row>
     <row r="45" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W45">
         <f>(20-AA6-AA5)*2</f>
@@ -14669,7 +14698,7 @@
     </row>
     <row r="46" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W46">
         <f>(W45-(MAX(S41:S43)-MIN(S41:S43)))/2</f>
@@ -14683,14 +14712,14 @@
     </row>
     <row r="47" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Z47" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AA47" s="1">
         <v>0</v>
       </c>
       <c r="AI47" s="2"/>
       <c r="AK47" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AL47" s="1">
         <v>0</v>
@@ -14699,7 +14728,7 @@
     </row>
     <row r="48" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="S48" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>71</v>
@@ -14708,7 +14737,7 @@
         <v>74</v>
       </c>
       <c r="W48" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Z48" s="10" t="s">
         <v>73</v>
@@ -14726,19 +14755,19 @@
         <v>3</v>
       </c>
       <c r="AE48" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF48" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG48" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="AG48" s="10" t="s">
-        <v>100</v>
-      </c>
       <c r="AH48" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AI48" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK48" s="10" t="s">
         <v>73</v>
@@ -14756,19 +14785,19 @@
         <v>3</v>
       </c>
       <c r="AP48" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ48" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR48" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="AR48" s="10" t="s">
-        <v>100</v>
-      </c>
       <c r="AS48" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AT48" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="19:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -14923,7 +14952,7 @@
     </row>
     <row r="53" spans="19:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T53" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Z53" s="1" t="s">
         <v>32</v>
@@ -14952,10 +14981,10 @@
     </row>
     <row r="54" spans="19:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T54" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="U54" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="U54" s="10" t="s">
-        <v>168</v>
       </c>
       <c r="V54" s="10" t="s">
         <v>35</v>
@@ -14987,10 +15016,10 @@
     </row>
     <row r="55" spans="19:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="S55" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T55" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U55" s="25">
         <f>'Statistics CT'!J42</f>
@@ -15005,7 +15034,7 @@
         <v>0</v>
       </c>
       <c r="Z55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA55" s="22"/>
       <c r="AB55" s="22"/>
@@ -15017,7 +15046,7 @@
       <c r="AH55" s="90"/>
       <c r="AI55" s="22"/>
       <c r="AK55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL55" s="22"/>
       <c r="AM55" s="22"/>
@@ -15031,14 +15060,14 @@
     </row>
     <row r="56" spans="19:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="S56" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T56" s="25">
         <f>1-'Statistics CT'!J42</f>
         <v>1</v>
       </c>
       <c r="U56" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V56" s="25">
         <f>'Statistics TC'!J42</f>
@@ -15075,7 +15104,7 @@
     </row>
     <row r="57" spans="19:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="S57" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T57" s="25">
         <f>1-V55</f>
@@ -15086,7 +15115,7 @@
         <v>1</v>
       </c>
       <c r="V57" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W57" s="25">
         <f>AVERAGE(T57:V57)</f>
@@ -15251,7 +15280,7 @@
     </row>
     <row r="63" spans="19:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Z63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA63" s="22"/>
       <c r="AB63" s="22"/>
@@ -15263,7 +15292,7 @@
       <c r="AH63" s="90"/>
       <c r="AI63" s="22"/>
       <c r="AK63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AL63" s="22"/>
       <c r="AM63" s="22"/>
@@ -15277,7 +15306,7 @@
     </row>
     <row r="64" spans="19:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Z64" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA64" s="22"/>
       <c r="AB64" s="22"/>
@@ -15289,7 +15318,7 @@
       <c r="AH64" s="90"/>
       <c r="AI64" s="22"/>
       <c r="AK64" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AL64" s="22"/>
       <c r="AM64" s="22"/>
@@ -15347,14 +15376,14 @@
     </row>
     <row r="67" spans="18:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Z67" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AA67" s="1">
         <v>0</v>
       </c>
       <c r="AI67" s="2"/>
       <c r="AK67" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AL67" s="1">
         <v>0</v>
@@ -15378,19 +15407,19 @@
         <v>3</v>
       </c>
       <c r="AE68" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF68" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG68" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="AG68" s="10" t="s">
-        <v>100</v>
-      </c>
       <c r="AH68" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AI68" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK68" s="10" t="s">
         <v>73</v>
@@ -15408,19 +15437,19 @@
         <v>3</v>
       </c>
       <c r="AP68" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ68" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR68" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="AR68" s="10" t="s">
-        <v>100</v>
-      </c>
       <c r="AS68" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AT68" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="18:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -15582,7 +15611,7 @@
     </row>
     <row r="75" spans="18:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Z75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA75" s="22"/>
       <c r="AB75" s="22"/>
@@ -15594,7 +15623,7 @@
       <c r="AH75" s="22"/>
       <c r="AI75" s="22"/>
       <c r="AK75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL75" s="22"/>
       <c r="AM75" s="22"/>
@@ -15608,7 +15637,7 @@
     </row>
     <row r="76" spans="18:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T76" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z76" s="1" t="s">
         <v>39</v>
@@ -15640,13 +15669,13 @@
         <v>63</v>
       </c>
       <c r="T77" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U77" t="s">
         <v>35</v>
       </c>
       <c r="V77" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z77" s="1" t="s">
         <v>41</v>
@@ -15919,7 +15948,7 @@
         <v>0</v>
       </c>
       <c r="Z83" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA83" s="22"/>
       <c r="AB83" s="22"/>
@@ -15931,7 +15960,7 @@
       <c r="AH83" s="22"/>
       <c r="AI83" s="22"/>
       <c r="AK83" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AL83" s="22"/>
       <c r="AM83" s="22"/>
@@ -15964,7 +15993,7 @@
         <v>0</v>
       </c>
       <c r="Z84" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA84" s="22"/>
       <c r="AB84" s="22"/>
@@ -15976,7 +16005,7 @@
       <c r="AH84" s="22"/>
       <c r="AI84" s="22"/>
       <c r="AK84" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AL84" s="22"/>
       <c r="AM84" s="22"/>
@@ -16089,14 +16118,14 @@
         <v>0</v>
       </c>
       <c r="Z87" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AA87" s="1">
         <v>0</v>
       </c>
       <c r="AI87" s="2"/>
       <c r="AK87" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AL87" s="1">
         <v>0</v>
@@ -16139,19 +16168,19 @@
         <v>3</v>
       </c>
       <c r="AE88" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF88" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG88" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="AG88" s="10" t="s">
-        <v>100</v>
-      </c>
       <c r="AH88" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AI88" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK88" s="10" t="s">
         <v>73</v>
@@ -16169,19 +16198,19 @@
         <v>3</v>
       </c>
       <c r="AP88" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ88" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR88" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="AR88" s="10" t="s">
-        <v>100</v>
-      </c>
       <c r="AS88" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AT88" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="18:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -16475,7 +16504,7 @@
         <v>0</v>
       </c>
       <c r="Z95" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA95" s="22"/>
       <c r="AB95" s="22"/>
@@ -16487,7 +16516,7 @@
       <c r="AH95" s="22"/>
       <c r="AI95" s="22"/>
       <c r="AK95" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL95" s="22"/>
       <c r="AM95" s="22"/>
@@ -16734,7 +16763,7 @@
       <c r="V103" s="38"/>
       <c r="W103" s="37"/>
       <c r="Z103" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA103" s="22"/>
       <c r="AB103" s="22"/>
@@ -16746,7 +16775,7 @@
       <c r="AH103" s="22"/>
       <c r="AI103" s="22"/>
       <c r="AK103" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AL103" s="22"/>
       <c r="AM103" s="22"/>
@@ -16775,7 +16804,7 @@
       <c r="V104" s="38"/>
       <c r="W104" s="37"/>
       <c r="Z104" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA104" s="22"/>
       <c r="AB104" s="22"/>
@@ -16787,7 +16816,7 @@
       <c r="AH104" s="22"/>
       <c r="AI104" s="22"/>
       <c r="AK104" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AL104" s="22"/>
       <c r="AM104" s="22"/>
@@ -17942,29 +17971,29 @@
   </sheetData>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="W103:W108 U109:U118">
-    <cfRule type="cellIs" dxfId="154" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ8:AQ24">
-    <cfRule type="cellIs" dxfId="152" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>$AA$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
       <formula>$AA$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
       <formula>$AA$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT8:AU24">
-    <cfRule type="cellIs" dxfId="149" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18016,7 +18045,7 @@
     </row>
     <row r="2" spans="1:25" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F2" s="52" t="s">
         <v>77</v>
@@ -18028,13 +18057,13 @@
         <v>79</v>
       </c>
       <c r="J2" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="M2" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="M2" s="52" t="s">
-        <v>166</v>
-      </c>
       <c r="P2" s="66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
@@ -18095,16 +18124,16 @@
         <v>2</v>
       </c>
       <c r="V3" s="69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W3" s="68" t="s">
         <v>3</v>
       </c>
       <c r="X3" s="69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y3" s="69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
@@ -19735,10 +19764,10 @@
         <v>0,0,0],</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K43" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M43" s="60">
         <f>IFERROR(ROUND((SUM(Table1114[Points]))/'Stats Global'!AA6,1),0)</f>
@@ -19751,7 +19780,7 @@
         <v>0,"N/A",0,"N/A",0,"N/A",0,"N/A"],</v>
       </c>
       <c r="I44" s="36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K44" s="61">
         <f>MAX(Table1114[Points])</f>
@@ -19772,7 +19801,7 @@
         <v>0,0,0,0,0,0],</v>
       </c>
       <c r="I45" s="36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K45" s="61">
         <f>MAX(Table1114[Finishes])</f>
@@ -19793,7 +19822,7 @@
         <v>0,0,0,0,0,0],</v>
       </c>
       <c r="I46" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K46" s="61">
         <f>MAX(Table1114[Midranges])</f>
@@ -20807,7 +20836,7 @@
     <row r="1" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F2" s="52" t="s">
         <v>77</v>
@@ -20819,10 +20848,10 @@
         <v>79</v>
       </c>
       <c r="J2" s="52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M2" s="66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -20876,16 +20905,16 @@
         <v>2</v>
       </c>
       <c r="S3" s="69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T3" s="68" t="s">
         <v>3</v>
       </c>
       <c r="U3" s="69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V3" s="69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -22224,10 +22253,10 @@
       </c>
       <c r="I43" s="52"/>
       <c r="J43" s="36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L43" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N43" s="60">
         <f>IFERROR(ROUND((SUM(Table1114[Points]))/'Stats Global'!AB6,1),0)</f>
@@ -22240,7 +22269,7 @@
         <v>0,"N/A",0,"N/A",0,"N/A",0,"N/A"],</v>
       </c>
       <c r="J44" s="36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L44" s="61">
         <f>MAX(Table1113[Points])</f>
@@ -22261,7 +22290,7 @@
         <v>0,0,0,0,0,0],</v>
       </c>
       <c r="J45" s="36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L45" s="61">
         <f>MAX(Table1113[Finishes])</f>
@@ -22282,7 +22311,7 @@
         <v>0,0,100,0,0,0],</v>
       </c>
       <c r="J46" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L46" s="61">
         <f>MAX(Table1113[Midranges])</f>
@@ -23299,7 +23328,7 @@
     <row r="1" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E2" s="52" t="s">
         <v>77</v>
@@ -23340,7 +23369,7 @@
       </c>
       <c r="H3" s="52"/>
       <c r="I3" s="66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V3" s="52"/>
       <c r="W3" s="52"/>
@@ -23383,16 +23412,16 @@
         <v>2</v>
       </c>
       <c r="O4" s="69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P4" s="68" t="s">
         <v>3</v>
       </c>
       <c r="Q4" s="69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R4" s="69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V4" s="54"/>
       <c r="W4" s="54"/>
@@ -24430,10 +24459,10 @@
       </c>
       <c r="I32" s="52"/>
       <c r="J32" s="36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L32" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N32" s="60">
         <f>IFERROR(ROUND((SUM(Table11[Points]))/'Stats Global'!#REF!,1),0)</f>
@@ -24462,7 +24491,7 @@
         <v>0,"N/A",0,"N/A",0,"N/A",0,"N/A"],</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L33" s="61">
         <f>MAX(Table11[Points])</f>
@@ -24499,7 +24528,7 @@
         <v>0,0,0,0,0,0],</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L34" s="61">
         <f>MAX(Table11[Finishes])</f>
@@ -24536,7 +24565,7 @@
         <v>0,0,100,0,0,100],</v>
       </c>
       <c r="J35" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L35" s="61">
         <f>MAX(Table11[Midranges])</f>
@@ -25645,7 +25674,9 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:AF1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="77" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -25661,7 +25692,7 @@
     <row r="1" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="L2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>75</v>
@@ -25685,13 +25716,13 @@
         <v>1</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="W2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
@@ -25699,34 +25730,34 @@
     </row>
     <row r="3" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="10" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C3" s="129" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="129" t="s">
         <v>211</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="129" t="s">
+      <c r="I3" s="129" t="s">
         <v>212</v>
       </c>
-      <c r="I3" s="129" t="s">
+      <c r="J3" s="129" t="s">
         <v>213</v>
       </c>
-      <c r="J3" s="129" t="s">
-        <v>214</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M3" s="1">
         <f>COUNTIF(D3:D40, "Choc-Tops")</f>
@@ -25767,10 +25798,10 @@
         <v>0</v>
       </c>
       <c r="Y3" s="106" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z3" s="106" t="s">
         <v>167</v>
-      </c>
-      <c r="Z3" s="106" t="s">
-        <v>168</v>
       </c>
       <c r="AA3" s="106" t="s">
         <v>35</v>
@@ -25779,10 +25810,10 @@
     </row>
     <row r="4" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="131" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M4" s="1">
         <f>COUNTIF(D3:D40, "Traffic Controllers")</f>
@@ -26005,7 +26036,7 @@
     </row>
     <row r="9" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S9" s="6">
         <f t="shared" si="0"/>
@@ -26300,7 +26331,7 @@
     </row>
     <row r="17" spans="18:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R17" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" si="0"/>
@@ -26337,7 +26368,7 @@
     </row>
     <row r="18" spans="18:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R18" s="127" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S18" s="6">
         <f t="shared" si="0"/>
@@ -27022,10 +27053,10 @@
     </row>
     <row r="43" spans="3:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T43" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U43" s="10"/>
     </row>
@@ -27043,40 +27074,40 @@
         <v>68</v>
       </c>
       <c r="G44" t="s">
+        <v>183</v>
+      </c>
+      <c r="H44" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="I44" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="J44" t="s">
+        <v>186</v>
+      </c>
+      <c r="K44" t="s">
+        <v>187</v>
+      </c>
+      <c r="L44" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="M44" t="s">
+        <v>191</v>
+      </c>
+      <c r="N44" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="O44" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="P44" t="s">
         <v>184</v>
       </c>
-      <c r="H44" s="65" t="s">
-        <v>186</v>
-      </c>
-      <c r="I44" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="J44" t="s">
-        <v>187</v>
-      </c>
-      <c r="K44" t="s">
+      <c r="Q44" t="s">
         <v>188</v>
       </c>
-      <c r="L44" s="65" t="s">
-        <v>191</v>
-      </c>
-      <c r="M44" t="s">
-        <v>192</v>
-      </c>
-      <c r="N44" s="65" t="s">
-        <v>193</v>
-      </c>
-      <c r="O44" s="65" t="s">
+      <c r="R44" t="s">
         <v>194</v>
-      </c>
-      <c r="P44" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>189</v>
-      </c>
-      <c r="R44" t="s">
-        <v>195</v>
       </c>
       <c r="T44" s="10" t="str">
         <f>CHAR(34)&amp;"Date"&amp;CHAR(34)&amp;":["&amp;CHAR(34)&amp;B4&amp;CHAR(34)&amp;"],"</f>
@@ -27157,7 +27188,7 @@
     </row>
     <row r="46" spans="3:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T46" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U46" s="10"/>
     </row>
@@ -27165,6 +27196,2686 @@
       <c r="U47" s="10"/>
     </row>
     <row r="48" spans="3:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T48" s="10"/>
+    </row>
+    <row r="49" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T49" s="10"/>
+    </row>
+    <row r="50" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T50" s="10"/>
+    </row>
+    <row r="51" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="55" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="57" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="58" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="59" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="60" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="61" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="62" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="63" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="64" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4699DF-4C9E-4BF0-9621-4006726449D0}">
+  <dimension ref="B1:AF1000"/>
+  <sheetViews>
+    <sheetView zoomScale="77" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.73046875" customWidth="1"/>
+    <col min="2" max="2" width="13.06640625" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="17" width="8.73046875" customWidth="1"/>
+    <col min="18" max="18" width="10.73046875" customWidth="1"/>
+    <col min="19" max="26" width="8.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+    </row>
+    <row r="3" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="129" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="129" t="s">
+        <v>211</v>
+      </c>
+      <c r="J3" s="129" t="s">
+        <v>212</v>
+      </c>
+      <c r="K3" s="129" t="s">
+        <v>213</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N3" s="1">
+        <f>COUNTIF(D3:D40, "Choc-Tops")</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <f>COUNTIF(E3:E40, "Choc-Tops")</f>
+        <v>3</v>
+      </c>
+      <c r="P3" s="8">
+        <f>N3/(N3+O3)</f>
+        <v>0.25</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>IF(O3&lt;&gt;0,IF(AND(P3&gt;P4,P3&gt;P5),3,IF(OR(P3&gt;P4,P3&gt;P5),2,1)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="6">
+        <f t="shared" ref="T3:T18" si="0">COUNTIF($F$3:$F$40, S3)+W3</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S3,$G$3:$G$40,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S3,$G$3:$G$40,"Midrange")</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S3,$G$3:$G$40,"Three Pointer")</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="106" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA3" s="106" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB3" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC3" s="1"/>
+    </row>
+    <row r="4" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="131" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="133">
+        <v>1</v>
+      </c>
+      <c r="D4" s="133" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="133" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="133" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="133" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="133" t="s">
+        <v>219</v>
+      </c>
+      <c r="I4" s="133" t="s">
+        <v>220</v>
+      </c>
+      <c r="J4" s="133" t="s">
+        <v>220</v>
+      </c>
+      <c r="K4" s="133">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N4" s="1">
+        <f>COUNTIF(D3:D40, "Traffic Controllers")</f>
+        <v>4</v>
+      </c>
+      <c r="O4" s="1">
+        <f>COUNTIF(E3:E40, "Traffic Controllers")</f>
+        <v>2</v>
+      </c>
+      <c r="P4" s="8">
+        <f t="shared" ref="P4:P5" si="1">N4/(N4+O4)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>IF(O4&lt;&gt;0,IF(AND(P4&gt;P3,P4&gt;P5),3,IF(OR(P4&gt;P3,P4&gt;P5),2,1)),0)</f>
+        <v>3</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U4" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S4,$G$3:$G$40,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S4,$G$3:$G$40,"Midrange")</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S4,$G$3:$G$40,"Three Pointer")</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="34" t="str">
+        <f>IF(AND(D4="Choc-Tops",E4="Gentle, Men"),"CT/GM", IF(AND(D4="Choc-Tops",E4="Traffic Controllers"),"CT/TC", ""))</f>
+        <v>CT/TC</v>
+      </c>
+      <c r="AA4" s="34" t="str">
+        <f>IF(AND(D4="Gentle, Men",E4="Choc-Tops"),"GM/CT", IF(AND(D4="Gentle, Men",E4="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB4" s="34" t="str">
+        <f>IF(AND(D4="Traffic Controllers",E4="Choc-Tops"),"TC/CT", IF(AND($D4="Traffic Controllers",$E4="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+      <c r="AC4" s="1"/>
+    </row>
+    <row r="5" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C5" s="133">
+        <v>1</v>
+      </c>
+      <c r="D5" s="133" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="133" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="133" t="s">
+        <v>221</v>
+      </c>
+      <c r="G5" s="133" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="133" t="s">
+        <v>219</v>
+      </c>
+      <c r="I5" s="133" t="s">
+        <v>220</v>
+      </c>
+      <c r="J5" s="133" t="s">
+        <v>220</v>
+      </c>
+      <c r="K5" s="133">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="1">
+        <f>COUNTIF(D3:D40, "Gentle, Men")</f>
+        <v>2</v>
+      </c>
+      <c r="O5" s="1">
+        <f>COUNTIF(E3:E40, "Gentle, Men")</f>
+        <v>2</v>
+      </c>
+      <c r="P5" s="8">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>IF(O5&lt;&gt;0,IF(AND(P5&gt;P4, P5&gt;P3), 3, IF(OR(P5&gt;P4, P5&gt;P3), 2, 1)),0)</f>
+        <v>2</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S5,$G$3:$G$40,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S5,$G$3:$G$40,"Midrange")</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S5,$G$3:$G$40,"Three Pointer")</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="34" t="str">
+        <f>IF(AND(D5="Choc-Tops",E5="Gentle, Men"),"CT/GM", IF(AND(D5="Choc-Tops",E5="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA5" s="34" t="str">
+        <f>IF(AND(D5="Gentle, Men",E5="Choc-Tops"),"GM/CT", IF(AND(D5="Gentle, Men",E5="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB5" s="34" t="str">
+        <f>IF(AND(D5="Traffic Controllers",E5="Choc-Tops"),"TC/CT", IF(AND($D5="Traffic Controllers",$E5="Gentle, Men"),"TC/GM", ""))</f>
+        <v>TC/CT</v>
+      </c>
+      <c r="AC5" s="1"/>
+    </row>
+    <row r="6" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C6" s="133">
+        <v>1</v>
+      </c>
+      <c r="D6" s="133" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="133" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="133" t="s">
+        <v>222</v>
+      </c>
+      <c r="G6" s="133" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="133" t="s">
+        <v>219</v>
+      </c>
+      <c r="I6" s="133">
+        <v>1</v>
+      </c>
+      <c r="J6" s="133">
+        <v>1</v>
+      </c>
+      <c r="K6" s="133">
+        <v>2</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S6,$G$3:$G$40,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S6,$G$3:$G$40,"Midrange")</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S6,$G$3:$G$40,"Three Pointer")</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="34" t="str">
+        <f>IF(AND(D6="Choc-Tops",E6="Gentle, Men"),"CT/GM", IF(AND(D6="Choc-Tops",E6="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA6" s="34" t="str">
+        <f>IF(AND(D6="Gentle, Men",E6="Choc-Tops"),"GM/CT", IF(AND(D6="Gentle, Men",E6="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB6" s="34" t="str">
+        <f>IF(AND(D6="Traffic Controllers",E6="Choc-Tops"),"TC/CT", IF(AND($D6="Traffic Controllers",$E6="Gentle, Men"),"TC/GM", ""))</f>
+        <v>TC/CT</v>
+      </c>
+      <c r="AC6" s="1"/>
+    </row>
+    <row r="7" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C7" s="133">
+        <v>2</v>
+      </c>
+      <c r="D7" s="133" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="133" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="133" t="s">
+        <v>223</v>
+      </c>
+      <c r="G7" s="133" t="s">
+        <v>224</v>
+      </c>
+      <c r="H7" s="133" t="s">
+        <v>225</v>
+      </c>
+      <c r="I7" s="133">
+        <v>1</v>
+      </c>
+      <c r="J7" s="133">
+        <v>1</v>
+      </c>
+      <c r="K7" s="133">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S7,$G$3:$G$40,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S7,$G$3:$G$40,"Midrange")</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S7,$G$3:$G$40,"Three Pointer")</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="34" t="str">
+        <f>IF(AND(D7="Choc-Tops",E7="Gentle, Men"),"CT/GM", IF(AND(D7="Choc-Tops",E7="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA7" s="34" t="str">
+        <f>IF(AND(D7="Gentle, Men",E7="Choc-Tops"),"GM/CT", IF(AND(D7="Gentle, Men",E7="Traffic Controllers"),"GM/TC", ""))</f>
+        <v>GM/TC</v>
+      </c>
+      <c r="AB7" s="34" t="str">
+        <f>IF(AND(D7="Traffic Controllers",E7="Choc-Tops"),"TC/CT", IF(AND($D7="Traffic Controllers",$E7="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+      <c r="AC7" s="1"/>
+    </row>
+    <row r="8" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C8" s="133">
+        <v>3</v>
+      </c>
+      <c r="D8" s="133" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="133" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="133" t="s">
+        <v>223</v>
+      </c>
+      <c r="G8" s="133" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="133" t="s">
+        <v>225</v>
+      </c>
+      <c r="I8" s="133">
+        <v>2</v>
+      </c>
+      <c r="J8" s="133">
+        <v>2</v>
+      </c>
+      <c r="K8" s="133">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S8,$G$3:$G$40,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S8,$G$3:$G$40,"Midrange")</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S8,$G$3:$G$40,"Three Pointer")</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="34" t="str">
+        <f>IF(AND(D8="Choc-Tops",E8="Gentle, Men"),"CT/GM", IF(AND(D8="Choc-Tops",E8="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA8" s="34" t="str">
+        <f>IF(AND(D8="Gentle, Men",E8="Choc-Tops"),"GM/CT", IF(AND(D8="Gentle, Men",E8="Traffic Controllers"),"GM/TC", ""))</f>
+        <v>GM/CT</v>
+      </c>
+      <c r="AB8" s="34" t="str">
+        <f>IF(AND(D8="Traffic Controllers",E8="Choc-Tops"),"TC/CT", IF(AND($D8="Traffic Controllers",$E8="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+      <c r="AC8" s="1"/>
+    </row>
+    <row r="9" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C9" s="133">
+        <v>4</v>
+      </c>
+      <c r="D9" s="133" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="133" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="133" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="133" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="133" t="s">
+        <v>219</v>
+      </c>
+      <c r="I9" s="133" t="s">
+        <v>220</v>
+      </c>
+      <c r="J9" s="133" t="s">
+        <v>220</v>
+      </c>
+      <c r="K9" s="133">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>91</v>
+      </c>
+      <c r="T9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S9,$G$3:$G$40,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S9,$G$3:$G$40,"Midrange")</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S9,$G$3:$G$40,"Three Pointer")</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="34" t="str">
+        <f>IF(AND(D9="Choc-Tops",E9="Gentle, Men"),"CT/GM", IF(AND(D9="Choc-Tops",E9="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA9" s="34" t="str">
+        <f>IF(AND(D9="Gentle, Men",E9="Choc-Tops"),"GM/CT", IF(AND(D9="Gentle, Men",E9="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB9" s="34" t="str">
+        <f>IF(AND(D9="Traffic Controllers",E9="Choc-Tops"),"TC/CT", IF(AND($D9="Traffic Controllers",$E9="Gentle, Men"),"TC/GM", ""))</f>
+        <v>TC/GM</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C10" s="133">
+        <v>4</v>
+      </c>
+      <c r="D10" s="133" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="133" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="133" t="s">
+        <v>223</v>
+      </c>
+      <c r="G10" s="133" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="133" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="133">
+        <v>1</v>
+      </c>
+      <c r="J10" s="133">
+        <v>1</v>
+      </c>
+      <c r="K10" s="133">
+        <v>2</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S10,$G$3:$G$40,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S10,$G$3:$G$40,"Midrange")</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S10,$G$3:$G$40,"Three Pointer")</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="34" t="str">
+        <f>IF(AND(D10="Choc-Tops",E10="Gentle, Men"),"CT/GM", IF(AND(D10="Choc-Tops",E10="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA10" s="34" t="str">
+        <f>IF(AND(D10="Gentle, Men",E10="Choc-Tops"),"GM/CT", IF(AND(D10="Gentle, Men",E10="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB10" s="34" t="str">
+        <f>IF(AND(D10="Traffic Controllers",E10="Choc-Tops"),"TC/CT", IF(AND($D10="Traffic Controllers",$E10="Gentle, Men"),"TC/GM", ""))</f>
+        <v>TC/GM</v>
+      </c>
+      <c r="AC10" s="1"/>
+    </row>
+    <row r="11" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S11,$G$3:$G$40,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S11,$G$3:$G$40,"Midrange")</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S11,$G$3:$G$40,"Three Pointer")</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="34" t="str">
+        <f>IF(AND(D11="Choc-Tops",E11="Gentle, Men"),"CT/GM", IF(AND(D11="Choc-Tops",E11="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA11" s="34" t="str">
+        <f>IF(AND(D11="Gentle, Men",E11="Choc-Tops"),"GM/CT", IF(AND(D11="Gentle, Men",E11="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB11" s="34" t="str">
+        <f>IF(AND(D11="Traffic Controllers",E11="Choc-Tops"),"TC/CT", IF(AND($D11="Traffic Controllers",$E11="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+      <c r="AC11" s="1"/>
+    </row>
+    <row r="12" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S12,$G$3:$G$40,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S12,$G$3:$G$40,"Midrange")</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S12,$G$3:$G$40,"Three Pointer")</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="34" t="str">
+        <f>IF(AND(D12="Choc-Tops",E12="Gentle, Men"),"CT/GM", IF(AND(D12="Choc-Tops",E12="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA12" s="34" t="str">
+        <f>IF(AND(D12="Gentle, Men",E12="Choc-Tops"),"GM/CT", IF(AND(D12="Gentle, Men",E12="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB12" s="34" t="str">
+        <f>IF(AND(D12="Traffic Controllers",E12="Choc-Tops"),"TC/CT", IF(AND($D12="Traffic Controllers",$E12="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+      <c r="AC12" s="1"/>
+    </row>
+    <row r="13" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S13,$G$3:$G$40,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S13,$G$3:$G$40,"Midrange")</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S13,$G$3:$G$40,"Three Pointer")</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="34" t="str">
+        <f>IF(AND(D13="Choc-Tops",E13="Gentle, Men"),"CT/GM", IF(AND(D13="Choc-Tops",E13="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA13" s="34" t="str">
+        <f>IF(AND(D13="Gentle, Men",E13="Choc-Tops"),"GM/CT", IF(AND(D13="Gentle, Men",E13="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB13" s="34" t="str">
+        <f>IF(AND(D13="Traffic Controllers",E13="Choc-Tops"),"TC/CT", IF(AND($D13="Traffic Controllers",$E13="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+      <c r="AC13" s="1"/>
+    </row>
+    <row r="14" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S14,$G$3:$G$40,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S14,$G$3:$G$40,"Midrange")</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S14,$G$3:$G$40,"Three Pointer")</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="34" t="str">
+        <f>IF(AND(D14="Choc-Tops",E14="Gentle, Men"),"CT/GM", IF(AND(D14="Choc-Tops",E14="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA14" s="34" t="str">
+        <f>IF(AND(D14="Gentle, Men",E14="Choc-Tops"),"GM/CT", IF(AND(D14="Gentle, Men",E14="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB14" s="34" t="str">
+        <f>IF(AND(D14="Traffic Controllers",E14="Choc-Tops"),"TC/CT", IF(AND($D14="Traffic Controllers",$E14="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+      <c r="AC14" s="1"/>
+    </row>
+    <row r="15" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S15,$G$3:$G$40,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S15,$G$3:$G$40,"Midrange")</f>
+        <v>0</v>
+      </c>
+      <c r="W15" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S15,$G$3:$G$40,"Three Pointer")</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="34" t="str">
+        <f>IF(AND(D15="Choc-Tops",E15="Gentle, Men"),"CT/GM", IF(AND(D15="Choc-Tops",E15="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA15" s="34" t="str">
+        <f>IF(AND(D15="Gentle, Men",E15="Choc-Tops"),"GM/CT", IF(AND(D15="Gentle, Men",E15="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB15" s="34" t="str">
+        <f>IF(AND(D15="Traffic Controllers",E15="Choc-Tops"),"TC/CT", IF(AND($D15="Traffic Controllers",$E15="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+      <c r="AC15" s="1"/>
+    </row>
+    <row r="16" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S16,$G$3:$G$40,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S16,$G$3:$G$40,"Midrange")</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S16,$G$3:$G$40,"Three Pointer")</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="34" t="str">
+        <f>IF(AND(D16="Choc-Tops",E16="Gentle, Men"),"CT/GM", IF(AND(D16="Choc-Tops",E16="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA16" s="34" t="str">
+        <f>IF(AND(D16="Gentle, Men",E16="Choc-Tops"),"GM/CT", IF(AND(D16="Gentle, Men",E16="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB16" s="34" t="str">
+        <f>IF(AND(D16="Traffic Controllers",E16="Choc-Tops"),"TC/CT", IF(AND($D16="Traffic Controllers",$E16="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+      <c r="AC16" s="1"/>
+    </row>
+    <row r="17" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S17" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="T17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S17,$G$3:$G$40,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S17,$G$3:$G$40,"Midrange")</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S17,$G$3:$G$40,"Three Pointer")</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="34" t="str">
+        <f>IF(AND(D17="Choc-Tops",E17="Gentle, Men"),"CT/GM", IF(AND(D17="Choc-Tops",E17="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA17" s="34" t="str">
+        <f>IF(AND(D17="Gentle, Men",E17="Choc-Tops"),"GM/CT", IF(AND(D17="Gentle, Men",E17="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB17" s="34" t="str">
+        <f>IF(AND(D17="Traffic Controllers",E17="Choc-Tops"),"TC/CT", IF(AND($D17="Traffic Controllers",$E17="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+      <c r="AC17" s="1"/>
+    </row>
+    <row r="18" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S18" s="127" t="s">
+        <v>209</v>
+      </c>
+      <c r="T18" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S18,$G$3:$G$40,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S18,$G$3:$G$40,"Midrange")</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="7">
+        <f>COUNTIFS($F$3:$F$40, $S18,$G$3:$G$40,"Three Pointer")</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="34" t="str">
+        <f>IF(AND(D18="Choc-Tops",E18="Gentle, Men"),"CT/GM", IF(AND(D18="Choc-Tops",E18="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA18" s="34" t="str">
+        <f>IF(AND(D18="Gentle, Men",E18="Choc-Tops"),"GM/CT", IF(AND(D18="Gentle, Men",E18="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB18" s="34" t="str">
+        <f>IF(AND(D18="Traffic Controllers",E18="Choc-Tops"),"TC/CT", IF(AND($D18="Traffic Controllers",$E18="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+      <c r="AC18" s="1"/>
+    </row>
+    <row r="19" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S19" s="1"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="19"/>
+      <c r="Z19" s="34" t="str">
+        <f>IF(AND(D19="Choc-Tops",E19="Gentle, Men"),"CT/GM", IF(AND(D19="Choc-Tops",E19="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA19" s="34" t="str">
+        <f>IF(AND(D19="Gentle, Men",E19="Choc-Tops"),"GM/CT", IF(AND(D19="Gentle, Men",E19="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB19" s="34" t="str">
+        <f>IF(AND(D19="Traffic Controllers",E19="Choc-Tops"),"TC/CT", IF(AND($D19="Traffic Controllers",$E19="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Z20" s="34" t="str">
+        <f>IF(AND(D20="Choc-Tops",E20="Gentle, Men"),"CT/GM", IF(AND(D20="Choc-Tops",E20="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA20" s="34" t="str">
+        <f>IF(AND(D20="Gentle, Men",E20="Choc-Tops"),"GM/CT", IF(AND(D20="Gentle, Men",E20="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB20" s="34" t="str">
+        <f>IF(AND(D20="Traffic Controllers",E20="Choc-Tops"),"TC/CT", IF(AND($D20="Traffic Controllers",$E20="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Z21" s="34" t="str">
+        <f>IF(AND(D21="Choc-Tops",E21="Gentle, Men"),"CT/GM", IF(AND(D21="Choc-Tops",E21="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA21" s="34" t="str">
+        <f>IF(AND(D21="Gentle, Men",E21="Choc-Tops"),"GM/CT", IF(AND(D21="Gentle, Men",E21="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB21" s="34" t="str">
+        <f>IF(AND(D21="Traffic Controllers",E21="Choc-Tops"),"TC/CT", IF(AND($D21="Traffic Controllers",$E21="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Z22" s="34" t="str">
+        <f>IF(AND(D22="Choc-Tops",E22="Gentle, Men"),"CT/GM", IF(AND(D22="Choc-Tops",E22="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA22" s="34" t="str">
+        <f>IF(AND(D22="Gentle, Men",E22="Choc-Tops"),"GM/CT", IF(AND(D22="Gentle, Men",E22="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB22" s="34" t="str">
+        <f>IF(AND(D22="Traffic Controllers",E22="Choc-Tops"),"TC/CT", IF(AND($D22="Traffic Controllers",$E22="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S23" s="1"/>
+      <c r="T23" t="str">
+        <f>T3&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" ref="U23:V23" si="2">U3&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="W23" t="str">
+        <f>W3&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="X23" s="130" t="str">
+        <f>IF(X3,1,0)&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="Z23" s="34" t="str">
+        <f>IF(AND(D23="Choc-Tops",E23="Gentle, Men"),"CT/GM", IF(AND(D23="Choc-Tops",E23="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA23" s="34" t="str">
+        <f>IF(AND(D23="Gentle, Men",E23="Choc-Tops"),"GM/CT", IF(AND(D23="Gentle, Men",E23="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB23" s="34" t="str">
+        <f>IF(AND(D23="Traffic Controllers",E23="Choc-Tops"),"TC/CT", IF(AND($D23="Traffic Controllers",$E23="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+      <c r="AC23" s="96"/>
+      <c r="AD23" s="97"/>
+      <c r="AE23" s="97"/>
+      <c r="AF23" s="97"/>
+    </row>
+    <row r="24" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T24" t="str">
+        <f t="shared" ref="T24:W37" si="3">T4&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="X24" s="130" t="str">
+        <f t="shared" ref="X24:X37" si="4">IF(X4,1,0)&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="Z24" s="34" t="str">
+        <f>IF(AND(D24="Choc-Tops",E24="Gentle, Men"),"CT/GM", IF(AND(D24="Choc-Tops",E24="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA24" s="34" t="str">
+        <f>IF(AND(D24="Gentle, Men",E24="Choc-Tops"),"GM/CT", IF(AND(D24="Gentle, Men",E24="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB24" s="34" t="str">
+        <f>IF(AND(D24="Traffic Controllers",E24="Choc-Tops"),"TC/CT", IF(AND($D24="Traffic Controllers",$E24="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S25" s="2"/>
+      <c r="T25" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="X25" s="130" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Z25" s="34" t="str">
+        <f>IF(AND(D25="Choc-Tops",E25="Gentle, Men"),"CT/GM", IF(AND(D25="Choc-Tops",E25="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA25" s="34" t="str">
+        <f>IF(AND(D25="Gentle, Men",E25="Choc-Tops"),"GM/CT", IF(AND(D25="Gentle, Men",E25="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB25" s="34" t="str">
+        <f>IF(AND(D25="Traffic Controllers",E25="Choc-Tops"),"TC/CT", IF(AND($D25="Traffic Controllers",$E25="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S26" s="9"/>
+      <c r="T26" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="X26" s="130" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Z26" s="34" t="str">
+        <f>IF(AND(D26="Choc-Tops",E26="Gentle, Men"),"CT/GM", IF(AND(D26="Choc-Tops",E26="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA26" s="34" t="str">
+        <f>IF(AND(D26="Gentle, Men",E26="Choc-Tops"),"GM/CT", IF(AND(D26="Gentle, Men",E26="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB26" s="34" t="str">
+        <f>IF(AND(D26="Traffic Controllers",E26="Choc-Tops"),"TC/CT", IF(AND($D26="Traffic Controllers",$E26="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T27" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="X27" s="130" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Z27" s="34" t="str">
+        <f>IF(AND(D27="Choc-Tops",E27="Gentle, Men"),"CT/GM", IF(AND(D27="Choc-Tops",E27="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA27" s="34" t="str">
+        <f>IF(AND(D27="Gentle, Men",E27="Choc-Tops"),"GM/CT", IF(AND(D27="Gentle, Men",E27="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB27" s="34" t="str">
+        <f>IF(AND(D27="Traffic Controllers",E27="Choc-Tops"),"TC/CT", IF(AND($D27="Traffic Controllers",$E27="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T28" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V28" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="W28" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="X28" s="130" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Z28" s="34" t="str">
+        <f>IF(AND(D28="Choc-Tops",E28="Gentle, Men"),"CT/GM", IF(AND(D28="Choc-Tops",E28="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA28" s="34" t="str">
+        <f>IF(AND(D28="Gentle, Men",E28="Choc-Tops"),"GM/CT", IF(AND(D28="Gentle, Men",E28="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB28" s="34" t="str">
+        <f>IF(AND(D28="Traffic Controllers",E28="Choc-Tops"),"TC/CT", IF(AND($D28="Traffic Controllers",$E28="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T29" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V29" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="W29" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="X29" s="130" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Z29" s="34" t="str">
+        <f>IF(AND(D29="Choc-Tops",E29="Gentle, Men"),"CT/GM", IF(AND(D29="Choc-Tops",E29="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA29" s="34" t="str">
+        <f>IF(AND(D29="Gentle, Men",E29="Choc-Tops"),"GM/CT", IF(AND(D29="Gentle, Men",E29="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB29" s="34" t="str">
+        <f>IF(AND(D29="Traffic Controllers",E29="Choc-Tops"),"TC/CT", IF(AND($D29="Traffic Controllers",$E29="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T30" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V30" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="W30" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="X30" s="130" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Z30" s="34" t="str">
+        <f>IF(AND(D30="Choc-Tops",E30="Gentle, Men"),"CT/GM", IF(AND(D30="Choc-Tops",E30="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA30" s="34" t="str">
+        <f>IF(AND(D30="Gentle, Men",E30="Choc-Tops"),"GM/CT", IF(AND(D30="Gentle, Men",E30="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB30" s="34" t="str">
+        <f>IF(AND(D30="Traffic Controllers",E30="Choc-Tops"),"TC/CT", IF(AND($D30="Traffic Controllers",$E30="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T31" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U31" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V31" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="W31" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="X31" s="130" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Z31" s="34" t="str">
+        <f>IF(AND(D31="Choc-Tops",E31="Gentle, Men"),"CT/GM", IF(AND(D31="Choc-Tops",E31="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA31" s="34" t="str">
+        <f>IF(AND(D31="Gentle, Men",E31="Choc-Tops"),"GM/CT", IF(AND(D31="Gentle, Men",E31="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB31" s="34" t="str">
+        <f>IF(AND(D31="Traffic Controllers",E31="Choc-Tops"),"TC/CT", IF(AND($D31="Traffic Controllers",$E31="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T32" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U32" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V32" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="W32" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="X32" s="130" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Z32" s="34" t="str">
+        <f>IF(AND(D32="Choc-Tops",E32="Gentle, Men"),"CT/GM", IF(AND(D32="Choc-Tops",E32="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA32" s="34" t="str">
+        <f>IF(AND(D32="Gentle, Men",E32="Choc-Tops"),"GM/CT", IF(AND(D32="Gentle, Men",E32="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB32" s="34" t="str">
+        <f>IF(AND(D32="Traffic Controllers",E32="Choc-Tops"),"TC/CT", IF(AND($D32="Traffic Controllers",$E32="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T33" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U33" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V33" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="W33" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="X33" s="130" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Z33" s="34" t="str">
+        <f>IF(AND(D33="Choc-Tops",E33="Gentle, Men"),"CT/GM", IF(AND(D33="Choc-Tops",E33="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA33" s="34" t="str">
+        <f>IF(AND(D33="Gentle, Men",E33="Choc-Tops"),"GM/CT", IF(AND(D33="Gentle, Men",E33="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB33" s="34" t="str">
+        <f>IF(AND(D33="Traffic Controllers",E33="Choc-Tops"),"TC/CT", IF(AND($D33="Traffic Controllers",$E33="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T34" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U34" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V34" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="W34" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="X34" s="130" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Z34" s="34" t="str">
+        <f>IF(AND(D34="Choc-Tops",E34="Gentle, Men"),"CT/GM", IF(AND(D34="Choc-Tops",E34="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA34" s="34" t="str">
+        <f>IF(AND(D34="Gentle, Men",E34="Choc-Tops"),"GM/CT", IF(AND(D34="Gentle, Men",E34="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB34" s="34" t="str">
+        <f>IF(AND(D34="Traffic Controllers",E34="Choc-Tops"),"TC/CT", IF(AND($D34="Traffic Controllers",$E34="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T35" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U35" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V35" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="W35" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="X35" s="130" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Z35" s="34" t="str">
+        <f>IF(AND(D35="Choc-Tops",E35="Gentle, Men"),"CT/GM", IF(AND(D35="Choc-Tops",E35="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA35" s="34" t="str">
+        <f>IF(AND(D35="Gentle, Men",E35="Choc-Tops"),"GM/CT", IF(AND(D35="Gentle, Men",E35="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB35" s="34" t="str">
+        <f>IF(AND(D35="Traffic Controllers",E35="Choc-Tops"),"TC/CT", IF(AND($D35="Traffic Controllers",$E35="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T36" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U36" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V36" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="W36" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="X36" s="130" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Z36" s="34" t="str">
+        <f>IF(AND(D36="Choc-Tops",E36="Gentle, Men"),"CT/GM", IF(AND(D36="Choc-Tops",E36="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA36" s="34" t="str">
+        <f>IF(AND(D36="Gentle, Men",E36="Choc-Tops"),"GM/CT", IF(AND(D36="Gentle, Men",E36="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB36" s="34" t="str">
+        <f>IF(AND(D36="Traffic Controllers",E36="Choc-Tops"),"TC/CT", IF(AND($D36="Traffic Controllers",$E36="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T37" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U37" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V37" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="W37" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="X37" s="130" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Z37" s="34" t="str">
+        <f>IF(AND(D37="Choc-Tops",E37="Gentle, Men"),"CT/GM", IF(AND(D37="Choc-Tops",E37="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA37" s="34" t="str">
+        <f>IF(AND(D37="Gentle, Men",E37="Choc-Tops"),"GM/CT", IF(AND(D37="Gentle, Men",E37="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB37" s="34" t="str">
+        <f>IF(AND(D37="Traffic Controllers",E37="Choc-Tops"),"TC/CT", IF(AND($D37="Traffic Controllers",$E37="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T38" s="13">
+        <f>T18</f>
+        <v>0</v>
+      </c>
+      <c r="U38" s="13">
+        <f t="shared" ref="U38:W38" si="5">U18</f>
+        <v>0</v>
+      </c>
+      <c r="V38" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X38" s="130">
+        <f t="shared" ref="X38" si="6">IF(X18,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z38" s="34" t="str">
+        <f>IF(AND(D38="Choc-Tops",E38="Gentle, Men"),"CT/GM", IF(AND(D38="Choc-Tops",E38="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA38" s="34" t="str">
+        <f>IF(AND(D38="Gentle, Men",E38="Choc-Tops"),"GM/CT", IF(AND(D38="Gentle, Men",E38="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB38" s="34" t="str">
+        <f>IF(AND(D38="Traffic Controllers",E38="Choc-Tops"),"TC/CT", IF(AND($D38="Traffic Controllers",$E38="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Z39" s="34" t="str">
+        <f>IF(AND(D39="Choc-Tops",E39="Gentle, Men"),"CT/GM", IF(AND(D39="Choc-Tops",E39="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA39" s="34" t="str">
+        <f>IF(AND(D39="Gentle, Men",E39="Choc-Tops"),"GM/CT", IF(AND(D39="Gentle, Men",E39="Traffic Controllers"),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB39" s="34" t="str">
+        <f>IF(AND(D39="Traffic Controllers",E39="Choc-Tops"),"TC/CT", IF(AND($D39="Traffic Controllers",$E39="Gentle, Men"),"TC/GM", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C40" s="50"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+    </row>
+    <row r="41" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="S41" s="64"/>
+      <c r="T41" s="64"/>
+      <c r="U41" s="125"/>
+      <c r="V41" s="125"/>
+      <c r="W41" s="125"/>
+    </row>
+    <row r="42" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="S42" s="64"/>
+      <c r="T42" s="64"/>
+      <c r="U42" s="125"/>
+      <c r="V42" s="125"/>
+      <c r="W42" s="125"/>
+    </row>
+    <row r="43" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C43" t="s">
+        <v>137</v>
+      </c>
+      <c r="T43" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="U43" s="10"/>
+    </row>
+    <row r="44" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" t="s">
+        <v>183</v>
+      </c>
+      <c r="H44" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="I44" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="J44" t="s">
+        <v>186</v>
+      </c>
+      <c r="K44" t="s">
+        <v>187</v>
+      </c>
+      <c r="L44" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="M44" t="s">
+        <v>191</v>
+      </c>
+      <c r="N44" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="O44" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="P44" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>188</v>
+      </c>
+      <c r="R44" t="s">
+        <v>194</v>
+      </c>
+      <c r="T44" s="10" t="str">
+        <f>CHAR(34)&amp;"Date"&amp;CHAR(34)&amp;":["&amp;CHAR(34)&amp;B4&amp;CHAR(34)&amp;"],"</f>
+        <v>"Date":["24 January"],</v>
+      </c>
+      <c r="U44" s="10"/>
+    </row>
+    <row r="45" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C45" s="50" t="str">
+        <f>B4</f>
+        <v>24 January</v>
+      </c>
+      <c r="D45">
+        <f>MAX(N3:N5)</f>
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <f>COUNT(C4:C42)-D45-F45</f>
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <f>MIN(N3:N5)</f>
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <f>N3</f>
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <f>COUNTIF(AA4:AA39, "GM/CT")</f>
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <f>COUNTIF(AB4:AB39, "TC/CT")</f>
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <f>N5</f>
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <f>COUNTIF(Z4:Z39, "CT/GM")</f>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f>COUNTIF(AB4:AB39, "TC/GM")</f>
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <f>N4</f>
+        <v>4</v>
+      </c>
+      <c r="N45">
+        <f>COUNTIF(Z4:Z39, "CT/TC")</f>
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <f>COUNTIF(AA4:AA39, "GM/TC")</f>
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <f>Q3</f>
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <f>Q5</f>
+        <v>2</v>
+      </c>
+      <c r="R45">
+        <f>Q4</f>
+        <v>3</v>
+      </c>
+      <c r="T45" s="10" t="str">
+        <f>CHAR(34)&amp;"Missed"&amp;CHAR(34)&amp;":["&amp;X23&amp;X24&amp;X25&amp;X26&amp;X27&amp;X28&amp;X29&amp;X30&amp;X31&amp;X32&amp;X33&amp;X34&amp;X35&amp;X36&amp;X37&amp;X38&amp;"],"</f>
+        <v>"Missed":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
+      </c>
+      <c r="U45" s="10"/>
+    </row>
+    <row r="46" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T46" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="U46" s="10"/>
+    </row>
+    <row r="47" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U47" s="10"/>
+    </row>
+    <row r="48" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T48" s="10"/>
     </row>
     <row r="49" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\LTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08AEA1C-35B7-4E19-87BB-7860EC1920CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566C5A33-8727-4483-8188-0E3480CCC9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="6" xr2:uid="{4DB07035-BDB7-4C75-89E4-DFC507B748B4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="5" xr2:uid="{4DB07035-BDB7-4C75-89E4-DFC507B748B4}"/>
   </bookViews>
   <sheets>
     <sheet name="SfW" sheetId="2" r:id="rId1"/>
@@ -675,9 +675,6 @@
     <t>SStreak</t>
   </si>
   <si>
-    <t>}</t>
-  </si>
-  <si>
     <t>{</t>
   </si>
   <si>
@@ -712,6 +709,9 @@
   </si>
   <si>
     <t>1-1</t>
+  </si>
+  <si>
+    <t>},</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1137,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1352,7 +1352,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -8987,10 +8986,10 @@
       </c>
     </row>
     <row r="22" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="B22" s="133" t="s">
+      <c r="B22" s="132" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="133"/>
+      <c r="C22" s="132"/>
       <c r="D22" s="64"/>
       <c r="Y22" s="1" t="s">
         <v>103</v>
@@ -9001,8 +9000,8 @@
       </c>
     </row>
     <row r="23" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="B23" s="133"/>
-      <c r="C23" s="133"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
       <c r="D23" s="64"/>
       <c r="Y23" s="1" t="s">
         <v>62</v>
@@ -14932,7 +14931,7 @@
     </row>
     <row r="47" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Z47" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AA47" s="1">
         <v>0</v>
@@ -15603,7 +15602,7 @@
       </c>
       <c r="AI67" s="2"/>
       <c r="AK67" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AL67" s="1">
         <v>0</v>
@@ -18145,20 +18144,20 @@
       </c>
       <c r="E4" s="116"/>
       <c r="H4" s="54"/>
-      <c r="J4" s="131">
+      <c r="J4" s="130">
         <f>'Stats Global'!M5</f>
         <v>2</v>
       </c>
-      <c r="K4" s="131">
+      <c r="K4" s="130">
         <f>'Stats Global'!H5</f>
         <v>1</v>
       </c>
       <c r="L4" s="56"/>
-      <c r="M4" s="131">
+      <c r="M4" s="130">
         <f>'Stats Global'!J5</f>
         <v>2</v>
       </c>
-      <c r="N4" s="131">
+      <c r="N4" s="130">
         <f>'Stats Global'!G5</f>
         <v>1</v>
       </c>
@@ -18223,20 +18222,20 @@
       <c r="E5" s="116"/>
       <c r="G5" s="52"/>
       <c r="H5" s="54"/>
-      <c r="J5" s="131">
+      <c r="J5" s="130">
         <f>'Stats Global'!M6</f>
         <v>0</v>
       </c>
-      <c r="K5" s="131">
+      <c r="K5" s="130">
         <f>'Stats Global'!H6</f>
         <v>0</v>
       </c>
       <c r="L5" s="56"/>
-      <c r="M5" s="131">
+      <c r="M5" s="130">
         <f>'Stats Global'!J6</f>
         <v>0</v>
       </c>
-      <c r="N5" s="131">
+      <c r="N5" s="130">
         <f>'Stats Global'!G6</f>
         <v>0</v>
       </c>
@@ -18301,20 +18300,20 @@
       <c r="E6" s="116"/>
       <c r="G6" s="52"/>
       <c r="H6" s="54"/>
-      <c r="J6" s="131">
+      <c r="J6" s="130">
         <f>'Stats Global'!M7</f>
         <v>0</v>
       </c>
-      <c r="K6" s="131">
+      <c r="K6" s="130">
         <f>'Stats Global'!H7</f>
         <v>0</v>
       </c>
       <c r="L6" s="56"/>
-      <c r="M6" s="131">
+      <c r="M6" s="130">
         <f>'Stats Global'!J7</f>
         <v>0</v>
       </c>
-      <c r="N6" s="131">
+      <c r="N6" s="130">
         <f>'Stats Global'!G7</f>
         <v>0</v>
       </c>
@@ -18379,20 +18378,20 @@
       <c r="E7" s="116"/>
       <c r="G7" s="52"/>
       <c r="H7" s="54"/>
-      <c r="J7" s="131">
+      <c r="J7" s="130">
         <f>'Stats Global'!M8</f>
         <v>0</v>
       </c>
-      <c r="K7" s="131">
+      <c r="K7" s="130">
         <f>'Stats Global'!H8</f>
         <v>0</v>
       </c>
       <c r="L7" s="56"/>
-      <c r="M7" s="131">
+      <c r="M7" s="130">
         <f>'Stats Global'!J8</f>
         <v>0</v>
       </c>
-      <c r="N7" s="131">
+      <c r="N7" s="130">
         <f>'Stats Global'!G8</f>
         <v>0</v>
       </c>
@@ -18457,20 +18456,20 @@
       <c r="E8" s="116"/>
       <c r="G8" s="52"/>
       <c r="H8" s="54"/>
-      <c r="J8" s="131">
+      <c r="J8" s="130">
         <f>'Stats Global'!M9</f>
         <v>0</v>
       </c>
-      <c r="K8" s="131">
+      <c r="K8" s="130">
         <f>'Stats Global'!H9</f>
         <v>0</v>
       </c>
       <c r="L8" s="56"/>
-      <c r="M8" s="131">
+      <c r="M8" s="130">
         <f>'Stats Global'!J9</f>
         <v>0</v>
       </c>
-      <c r="N8" s="131">
+      <c r="N8" s="130">
         <f>'Stats Global'!G9</f>
         <v>0</v>
       </c>
@@ -18535,20 +18534,20 @@
       <c r="E9" s="116"/>
       <c r="G9" s="52"/>
       <c r="H9" s="54"/>
-      <c r="J9" s="131">
+      <c r="J9" s="130">
         <f>'Stats Global'!M10</f>
         <v>0</v>
       </c>
-      <c r="K9" s="131">
+      <c r="K9" s="130">
         <f>'Stats Global'!H10</f>
         <v>0</v>
       </c>
       <c r="L9" s="56"/>
-      <c r="M9" s="131">
+      <c r="M9" s="130">
         <f>'Stats Global'!J10</f>
         <v>0</v>
       </c>
-      <c r="N9" s="131">
+      <c r="N9" s="130">
         <f>'Stats Global'!G10</f>
         <v>0</v>
       </c>
@@ -18578,20 +18577,20 @@
       <c r="E10" s="116"/>
       <c r="G10" s="52"/>
       <c r="H10" s="54"/>
-      <c r="J10" s="131">
+      <c r="J10" s="130">
         <f>'Stats Global'!M11</f>
         <v>0</v>
       </c>
-      <c r="K10" s="131">
+      <c r="K10" s="130">
         <f>'Stats Global'!H11</f>
         <v>0</v>
       </c>
       <c r="L10" s="56"/>
-      <c r="M10" s="131">
+      <c r="M10" s="130">
         <f>'Stats Global'!J11</f>
         <v>0</v>
       </c>
-      <c r="N10" s="131">
+      <c r="N10" s="130">
         <f>'Stats Global'!G11</f>
         <v>0</v>
       </c>
@@ -18620,20 +18619,20 @@
       <c r="E11" s="116"/>
       <c r="G11" s="52"/>
       <c r="H11" s="54"/>
-      <c r="J11" s="131">
+      <c r="J11" s="130">
         <f>'Stats Global'!M12</f>
         <v>0</v>
       </c>
-      <c r="K11" s="131">
+      <c r="K11" s="130">
         <f>'Stats Global'!H12</f>
         <v>0</v>
       </c>
       <c r="L11" s="56"/>
-      <c r="M11" s="131">
+      <c r="M11" s="130">
         <f>'Stats Global'!J12</f>
         <v>0</v>
       </c>
-      <c r="N11" s="131">
+      <c r="N11" s="130">
         <f>'Stats Global'!G12</f>
         <v>0</v>
       </c>
@@ -18660,20 +18659,20 @@
       <c r="E12" s="116"/>
       <c r="G12" s="52"/>
       <c r="H12" s="54"/>
-      <c r="J12" s="131">
+      <c r="J12" s="130">
         <f>'Stats Global'!M13</f>
         <v>0</v>
       </c>
-      <c r="K12" s="131">
+      <c r="K12" s="130">
         <f>'Stats Global'!H13</f>
         <v>0</v>
       </c>
       <c r="L12" s="56"/>
-      <c r="M12" s="131">
+      <c r="M12" s="130">
         <f>'Stats Global'!J13</f>
         <v>0</v>
       </c>
-      <c r="N12" s="131">
+      <c r="N12" s="130">
         <f>'Stats Global'!G13</f>
         <v>0</v>
       </c>
@@ -18701,20 +18700,20 @@
       </c>
       <c r="E13" s="116"/>
       <c r="H13" s="54"/>
-      <c r="J13" s="131">
+      <c r="J13" s="130">
         <f>'Stats Global'!M14</f>
         <v>0</v>
       </c>
-      <c r="K13" s="131">
+      <c r="K13" s="130">
         <f>'Stats Global'!H14</f>
         <v>0</v>
       </c>
       <c r="L13" s="56"/>
-      <c r="M13" s="131">
+      <c r="M13" s="130">
         <f>'Stats Global'!J14</f>
         <v>0</v>
       </c>
-      <c r="N13" s="131">
+      <c r="N13" s="130">
         <f>'Stats Global'!G14</f>
         <v>0</v>
       </c>
@@ -18738,20 +18737,20 @@
       </c>
       <c r="E14" s="116"/>
       <c r="H14" s="54"/>
-      <c r="J14" s="131">
+      <c r="J14" s="130">
         <f>'Stats Global'!M15</f>
         <v>0</v>
       </c>
-      <c r="K14" s="131">
+      <c r="K14" s="130">
         <f>'Stats Global'!H15</f>
         <v>0</v>
       </c>
       <c r="L14" s="56"/>
-      <c r="M14" s="131">
+      <c r="M14" s="130">
         <f>'Stats Global'!J15</f>
         <v>0</v>
       </c>
-      <c r="N14" s="131">
+      <c r="N14" s="130">
         <f>'Stats Global'!G15</f>
         <v>0</v>
       </c>
@@ -18775,20 +18774,20 @@
       </c>
       <c r="E15" s="116"/>
       <c r="H15" s="54"/>
-      <c r="J15" s="131">
+      <c r="J15" s="130">
         <f>'Stats Global'!M16</f>
         <v>0</v>
       </c>
-      <c r="K15" s="131">
+      <c r="K15" s="130">
         <f>'Stats Global'!H16</f>
         <v>0</v>
       </c>
       <c r="L15" s="56"/>
-      <c r="M15" s="131">
+      <c r="M15" s="130">
         <f>'Stats Global'!J16</f>
         <v>0</v>
       </c>
-      <c r="N15" s="131">
+      <c r="N15" s="130">
         <f>'Stats Global'!G16</f>
         <v>0</v>
       </c>
@@ -18812,20 +18811,20 @@
       </c>
       <c r="E16" s="116"/>
       <c r="H16" s="54"/>
-      <c r="J16" s="131">
+      <c r="J16" s="130">
         <f>'Stats Global'!M17</f>
         <v>0</v>
       </c>
-      <c r="K16" s="131">
+      <c r="K16" s="130">
         <f>'Stats Global'!H17</f>
         <v>0</v>
       </c>
       <c r="L16" s="56"/>
-      <c r="M16" s="131">
+      <c r="M16" s="130">
         <f>'Stats Global'!J17</f>
         <v>0</v>
       </c>
-      <c r="N16" s="131">
+      <c r="N16" s="130">
         <f>'Stats Global'!G17</f>
         <v>0</v>
       </c>
@@ -18849,20 +18848,20 @@
       </c>
       <c r="E17" s="117"/>
       <c r="H17" s="54"/>
-      <c r="J17" s="131">
+      <c r="J17" s="130">
         <f>'Stats Global'!M18</f>
         <v>0</v>
       </c>
-      <c r="K17" s="131">
+      <c r="K17" s="130">
         <f>'Stats Global'!H18</f>
         <v>0</v>
       </c>
       <c r="L17" s="56"/>
-      <c r="M17" s="131">
+      <c r="M17" s="130">
         <f>'Stats Global'!J18</f>
         <v>0</v>
       </c>
-      <c r="N17" s="131">
+      <c r="N17" s="130">
         <f>'Stats Global'!G18</f>
         <v>0</v>
       </c>
@@ -18886,20 +18885,20 @@
       </c>
       <c r="E18" s="118"/>
       <c r="H18" s="54"/>
-      <c r="J18" s="131">
+      <c r="J18" s="130">
         <f>'Stats Global'!M19</f>
         <v>0</v>
       </c>
-      <c r="K18" s="131">
+      <c r="K18" s="130">
         <f>'Stats Global'!H19</f>
         <v>0</v>
       </c>
       <c r="L18" s="56"/>
-      <c r="M18" s="131">
+      <c r="M18" s="130">
         <f>'Stats Global'!J19</f>
         <v>0</v>
       </c>
-      <c r="N18" s="131">
+      <c r="N18" s="130">
         <f>'Stats Global'!G19</f>
         <v>0</v>
       </c>
@@ -18923,20 +18922,20 @@
       </c>
       <c r="E19" s="119"/>
       <c r="H19" s="54"/>
-      <c r="J19" s="131">
+      <c r="J19" s="130">
         <f>'Stats Global'!M20</f>
         <v>0</v>
       </c>
-      <c r="K19" s="131">
+      <c r="K19" s="130">
         <f>'Stats Global'!H20</f>
         <v>0</v>
       </c>
       <c r="L19" s="56"/>
-      <c r="M19" s="131">
+      <c r="M19" s="130">
         <f>'Stats Global'!J20</f>
         <v>0</v>
       </c>
-      <c r="N19" s="131">
+      <c r="N19" s="130">
         <f>'Stats Global'!G20</f>
         <v>0</v>
       </c>
@@ -18960,20 +18959,20 @@
       </c>
       <c r="E20" s="120"/>
       <c r="H20" s="54"/>
-      <c r="J20" s="131">
+      <c r="J20" s="130">
         <f>'Stats Global'!M21</f>
         <v>0</v>
       </c>
-      <c r="K20" s="131">
+      <c r="K20" s="130">
         <f>'Stats Global'!H21</f>
         <v>0</v>
       </c>
       <c r="L20" s="56"/>
-      <c r="M20" s="131">
+      <c r="M20" s="130">
         <f>'Stats Global'!J21</f>
         <v>0</v>
       </c>
-      <c r="N20" s="131">
+      <c r="N20" s="130">
         <f>'Stats Global'!G21</f>
         <v>0</v>
       </c>
@@ -18997,20 +18996,20 @@
       </c>
       <c r="E21" s="116"/>
       <c r="H21" s="54"/>
-      <c r="J21" s="131">
+      <c r="J21" s="130">
         <f>'Stats Global'!M22</f>
         <v>0</v>
       </c>
-      <c r="K21" s="131">
+      <c r="K21" s="130">
         <f>'Stats Global'!H22</f>
         <v>0</v>
       </c>
       <c r="L21" s="56"/>
-      <c r="M21" s="131">
+      <c r="M21" s="130">
         <f>'Stats Global'!J22</f>
         <v>0</v>
       </c>
-      <c r="N21" s="131">
+      <c r="N21" s="130">
         <f>'Stats Global'!G22</f>
         <v>0</v>
       </c>
@@ -19035,20 +19034,20 @@
       <c r="E22" s="116"/>
       <c r="F22" s="57"/>
       <c r="H22" s="54"/>
-      <c r="J22" s="131">
+      <c r="J22" s="130">
         <f>'Stats Global'!M23</f>
         <v>0</v>
       </c>
-      <c r="K22" s="131">
+      <c r="K22" s="130">
         <f>'Stats Global'!H23</f>
         <v>0</v>
       </c>
       <c r="L22" s="56"/>
-      <c r="M22" s="131">
+      <c r="M22" s="130">
         <f>'Stats Global'!J23</f>
         <v>0</v>
       </c>
-      <c r="N22" s="131">
+      <c r="N22" s="130">
         <f>'Stats Global'!G23</f>
         <v>0</v>
       </c>
@@ -19073,20 +19072,20 @@
       <c r="E23" s="121"/>
       <c r="F23" s="57"/>
       <c r="H23" s="54"/>
-      <c r="J23" s="131">
+      <c r="J23" s="130">
         <f>'Stats Global'!M24</f>
         <v>0</v>
       </c>
-      <c r="K23" s="131">
+      <c r="K23" s="130">
         <f>'Stats Global'!H24</f>
         <v>0</v>
       </c>
       <c r="L23" s="56"/>
-      <c r="M23" s="131">
+      <c r="M23" s="130">
         <f>'Stats Global'!J24</f>
         <v>0</v>
       </c>
-      <c r="N23" s="131">
+      <c r="N23" s="130">
         <f>'Stats Global'!G24</f>
         <v>0</v>
       </c>
@@ -19111,20 +19110,20 @@
       <c r="E24" s="122"/>
       <c r="F24" s="57"/>
       <c r="H24" s="54"/>
-      <c r="J24" s="131">
+      <c r="J24" s="130">
         <f>'Stats Global'!M25</f>
         <v>0</v>
       </c>
-      <c r="K24" s="131">
+      <c r="K24" s="130">
         <f>'Stats Global'!H25</f>
         <v>0</v>
       </c>
       <c r="L24" s="56"/>
-      <c r="M24" s="131">
+      <c r="M24" s="130">
         <f>'Stats Global'!J25</f>
         <v>0</v>
       </c>
-      <c r="N24" s="131">
+      <c r="N24" s="130">
         <f>'Stats Global'!G25</f>
         <v>0</v>
       </c>
@@ -19148,20 +19147,20 @@
       </c>
       <c r="E25" s="122"/>
       <c r="H25" s="54"/>
-      <c r="J25" s="131">
+      <c r="J25" s="130">
         <f>'Stats Global'!M26</f>
         <v>0</v>
       </c>
-      <c r="K25" s="131">
+      <c r="K25" s="130">
         <f>'Stats Global'!H26</f>
         <v>0</v>
       </c>
       <c r="L25" s="56"/>
-      <c r="M25" s="131">
+      <c r="M25" s="130">
         <f>'Stats Global'!J26</f>
         <v>0</v>
       </c>
-      <c r="N25" s="131">
+      <c r="N25" s="130">
         <f>'Stats Global'!G26</f>
         <v>0</v>
       </c>
@@ -19185,20 +19184,20 @@
       </c>
       <c r="E26" s="116"/>
       <c r="H26" s="54"/>
-      <c r="J26" s="131">
+      <c r="J26" s="130">
         <f>'Stats Global'!M27</f>
         <v>0</v>
       </c>
-      <c r="K26" s="131">
+      <c r="K26" s="130">
         <f>'Stats Global'!H27</f>
         <v>0</v>
       </c>
       <c r="L26" s="56"/>
-      <c r="M26" s="131">
+      <c r="M26" s="130">
         <f>'Stats Global'!J27</f>
         <v>0</v>
       </c>
-      <c r="N26" s="131">
+      <c r="N26" s="130">
         <f>'Stats Global'!G27</f>
         <v>0</v>
       </c>
@@ -19222,20 +19221,20 @@
       </c>
       <c r="E27" s="116"/>
       <c r="H27" s="54"/>
-      <c r="J27" s="131">
+      <c r="J27" s="130">
         <f>'Stats Global'!M28</f>
         <v>0</v>
       </c>
-      <c r="K27" s="131">
+      <c r="K27" s="130">
         <f>'Stats Global'!H28</f>
         <v>0</v>
       </c>
       <c r="L27" s="56"/>
-      <c r="M27" s="131">
+      <c r="M27" s="130">
         <f>'Stats Global'!J28</f>
         <v>0</v>
       </c>
-      <c r="N27" s="131">
+      <c r="N27" s="130">
         <f>'Stats Global'!G28</f>
         <v>0</v>
       </c>
@@ -19259,20 +19258,20 @@
       </c>
       <c r="E28" s="116"/>
       <c r="H28" s="54"/>
-      <c r="J28" s="131">
+      <c r="J28" s="130">
         <f>'Stats Global'!M29</f>
         <v>0</v>
       </c>
-      <c r="K28" s="131">
+      <c r="K28" s="130">
         <f>'Stats Global'!H29</f>
         <v>0</v>
       </c>
       <c r="L28" s="56"/>
-      <c r="M28" s="131">
+      <c r="M28" s="130">
         <f>'Stats Global'!J29</f>
         <v>0</v>
       </c>
-      <c r="N28" s="131">
+      <c r="N28" s="130">
         <f>'Stats Global'!G29</f>
         <v>0</v>
       </c>
@@ -19296,20 +19295,20 @@
       </c>
       <c r="E29" s="116"/>
       <c r="H29" s="54"/>
-      <c r="J29" s="131">
+      <c r="J29" s="130">
         <f>'Stats Global'!M30</f>
         <v>0</v>
       </c>
-      <c r="K29" s="131">
+      <c r="K29" s="130">
         <f>'Stats Global'!H30</f>
         <v>0</v>
       </c>
       <c r="L29" s="56"/>
-      <c r="M29" s="131">
+      <c r="M29" s="130">
         <f>'Stats Global'!J30</f>
         <v>0</v>
       </c>
-      <c r="N29" s="131">
+      <c r="N29" s="130">
         <f>'Stats Global'!G30</f>
         <v>0</v>
       </c>
@@ -19332,20 +19331,20 @@
         <v>0</v>
       </c>
       <c r="E30" s="116"/>
-      <c r="J30" s="131">
+      <c r="J30" s="130">
         <f>'Stats Global'!M31</f>
         <v>0</v>
       </c>
-      <c r="K30" s="131">
+      <c r="K30" s="130">
         <f>'Stats Global'!H31</f>
         <v>0</v>
       </c>
       <c r="L30" s="56"/>
-      <c r="M30" s="131">
+      <c r="M30" s="130">
         <f>'Stats Global'!J31</f>
         <v>0</v>
       </c>
-      <c r="N30" s="131">
+      <c r="N30" s="130">
         <f>'Stats Global'!G31</f>
         <v>0</v>
       </c>
@@ -19368,20 +19367,20 @@
         <v>0</v>
       </c>
       <c r="E31" s="116"/>
-      <c r="J31" s="131">
+      <c r="J31" s="130">
         <f>'Stats Global'!M32</f>
         <v>0</v>
       </c>
-      <c r="K31" s="131">
+      <c r="K31" s="130">
         <f>'Stats Global'!H32</f>
         <v>0</v>
       </c>
       <c r="L31" s="56"/>
-      <c r="M31" s="131">
+      <c r="M31" s="130">
         <f>'Stats Global'!J32</f>
         <v>0</v>
       </c>
-      <c r="N31" s="131">
+      <c r="N31" s="130">
         <f>'Stats Global'!G32</f>
         <v>0</v>
       </c>
@@ -19404,20 +19403,20 @@
         <v>0</v>
       </c>
       <c r="E32" s="116"/>
-      <c r="J32" s="131">
+      <c r="J32" s="130">
         <f>'Stats Global'!M33</f>
         <v>0</v>
       </c>
-      <c r="K32" s="131">
+      <c r="K32" s="130">
         <f>'Stats Global'!H33</f>
         <v>0</v>
       </c>
       <c r="L32" s="56"/>
-      <c r="M32" s="131">
+      <c r="M32" s="130">
         <f>'Stats Global'!J33</f>
         <v>0</v>
       </c>
-      <c r="N32" s="131">
+      <c r="N32" s="130">
         <f>'Stats Global'!G33</f>
         <v>0</v>
       </c>
@@ -19440,20 +19439,20 @@
         <v>0</v>
       </c>
       <c r="E33" s="116"/>
-      <c r="J33" s="131">
+      <c r="J33" s="130">
         <f>'Stats Global'!M34</f>
         <v>0</v>
       </c>
-      <c r="K33" s="131">
+      <c r="K33" s="130">
         <f>'Stats Global'!H34</f>
         <v>0</v>
       </c>
       <c r="L33" s="56"/>
-      <c r="M33" s="131">
+      <c r="M33" s="130">
         <f>'Stats Global'!J34</f>
         <v>0</v>
       </c>
-      <c r="N33" s="131">
+      <c r="N33" s="130">
         <f>'Stats Global'!G34</f>
         <v>0</v>
       </c>
@@ -19476,20 +19475,20 @@
         <v>0</v>
       </c>
       <c r="E34" s="116"/>
-      <c r="J34" s="131">
+      <c r="J34" s="130">
         <f>'Stats Global'!M35</f>
         <v>0</v>
       </c>
-      <c r="K34" s="131">
+      <c r="K34" s="130">
         <f>'Stats Global'!H35</f>
         <v>0</v>
       </c>
       <c r="L34" s="56"/>
-      <c r="M34" s="131">
+      <c r="M34" s="130">
         <f>'Stats Global'!J35</f>
         <v>0</v>
       </c>
-      <c r="N34" s="131">
+      <c r="N34" s="130">
         <f>'Stats Global'!G35</f>
         <v>0</v>
       </c>
@@ -19512,20 +19511,20 @@
         <v>0</v>
       </c>
       <c r="E35" s="116"/>
-      <c r="J35" s="131">
+      <c r="J35" s="130">
         <f>'Stats Global'!M36</f>
         <v>0</v>
       </c>
-      <c r="K35" s="131">
+      <c r="K35" s="130">
         <f>'Stats Global'!H36</f>
         <v>0</v>
       </c>
       <c r="L35" s="56"/>
-      <c r="M35" s="131">
+      <c r="M35" s="130">
         <f>'Stats Global'!J36</f>
         <v>0</v>
       </c>
-      <c r="N35" s="131">
+      <c r="N35" s="130">
         <f>'Stats Global'!G36</f>
         <v>0</v>
       </c>
@@ -19548,20 +19547,20 @@
         <v>0</v>
       </c>
       <c r="E36" s="116"/>
-      <c r="J36" s="131">
+      <c r="J36" s="130">
         <f>'Stats Global'!M37</f>
         <v>0</v>
       </c>
-      <c r="K36" s="131">
+      <c r="K36" s="130">
         <f>'Stats Global'!H37</f>
         <v>0</v>
       </c>
       <c r="L36" s="56"/>
-      <c r="M36" s="131">
+      <c r="M36" s="130">
         <f>'Stats Global'!J37</f>
         <v>0</v>
       </c>
-      <c r="N36" s="131">
+      <c r="N36" s="130">
         <f>'Stats Global'!G37</f>
         <v>0</v>
       </c>
@@ -19584,20 +19583,20 @@
         <v>0</v>
       </c>
       <c r="E37" s="116"/>
-      <c r="J37" s="131">
+      <c r="J37" s="130">
         <f>'Stats Global'!M38</f>
         <v>0</v>
       </c>
-      <c r="K37" s="131">
+      <c r="K37" s="130">
         <f>'Stats Global'!H38</f>
         <v>0</v>
       </c>
       <c r="L37" s="56"/>
-      <c r="M37" s="131">
+      <c r="M37" s="130">
         <f>'Stats Global'!J38</f>
         <v>0</v>
       </c>
-      <c r="N37" s="131">
+      <c r="N37" s="130">
         <f>'Stats Global'!G38</f>
         <v>0</v>
       </c>
@@ -19620,20 +19619,20 @@
         <v>0</v>
       </c>
       <c r="E38" s="116"/>
-      <c r="J38" s="131">
+      <c r="J38" s="130">
         <f>'Stats Global'!M39</f>
         <v>0</v>
       </c>
-      <c r="K38" s="131">
+      <c r="K38" s="130">
         <f>'Stats Global'!H39</f>
         <v>0</v>
       </c>
       <c r="L38" s="56"/>
-      <c r="M38" s="131">
+      <c r="M38" s="130">
         <f>'Stats Global'!J39</f>
         <v>0</v>
       </c>
-      <c r="N38" s="131">
+      <c r="N38" s="130">
         <f>'Stats Global'!G39</f>
         <v>0</v>
       </c>
@@ -19656,20 +19655,20 @@
         <v>0</v>
       </c>
       <c r="E39" s="116"/>
-      <c r="J39" s="131">
+      <c r="J39" s="130">
         <f>'Stats Global'!M40</f>
         <v>0</v>
       </c>
-      <c r="K39" s="131">
+      <c r="K39" s="130">
         <f>'Stats Global'!H40</f>
         <v>0</v>
       </c>
       <c r="L39" s="56"/>
-      <c r="M39" s="131">
+      <c r="M39" s="130">
         <f>'Stats Global'!J40</f>
         <v>0</v>
       </c>
-      <c r="N39" s="131">
+      <c r="N39" s="130">
         <f>'Stats Global'!G40</f>
         <v>0</v>
       </c>
@@ -19692,20 +19691,20 @@
         <v>0</v>
       </c>
       <c r="E40" s="116"/>
-      <c r="J40" s="131">
+      <c r="J40" s="130">
         <f>'Stats Global'!M41</f>
         <v>0</v>
       </c>
-      <c r="K40" s="131">
+      <c r="K40" s="130">
         <f>'Stats Global'!H41</f>
         <v>0</v>
       </c>
       <c r="L40" s="56"/>
-      <c r="M40" s="131">
+      <c r="M40" s="130">
         <f>'Stats Global'!J41</f>
         <v>0</v>
       </c>
-      <c r="N40" s="131">
+      <c r="N40" s="130">
         <f>'Stats Global'!G41</f>
         <v>0</v>
       </c>
@@ -20924,11 +20923,11 @@
         <f>'Stats Global'!Q5</f>
         <v>1.5</v>
       </c>
-      <c r="J4" s="132">
+      <c r="J4" s="131">
         <f>'Stats Global'!K5</f>
         <v>1</v>
       </c>
-      <c r="K4" s="132">
+      <c r="K4" s="131">
         <f>'Stats Global'!N5</f>
         <v>1</v>
       </c>
@@ -25664,8 +25663,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:AF1000"/>
   <sheetViews>
-    <sheetView zoomScale="50" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -25731,7 +25730,7 @@
         <v>86</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>87</v>
@@ -25771,19 +25770,19 @@
         <v>25</v>
       </c>
       <c r="T3" s="6">
-        <f t="shared" ref="T3:T18" si="0">COUNTIF($F$3:$F$40, S3)+W3</f>
+        <f>COUNTIF($G$3:$G$40, S3)+W3</f>
         <v>0</v>
       </c>
       <c r="U3" s="7">
-        <f t="shared" ref="U3:U18" si="1">COUNTIFS($F$3:$F$40, $S3,$G$3:$G$40,"Finish")</f>
+        <f>COUNTIFS($G$3:$G$40, $S3,$H$3:$H$40,"Finish")</f>
         <v>0</v>
       </c>
       <c r="V3" s="7">
-        <f t="shared" ref="V3:V18" si="2">COUNTIFS($F$3:$F$40, $S3,$G$3:$G$40,"Midrange")</f>
+        <f>COUNTIFS($G$3:$G$40, $S3,$H$3:$H$40,"Midrange")</f>
         <v>0</v>
       </c>
       <c r="W3" s="7">
-        <f t="shared" ref="W3:W18" si="3">COUNTIFS($F$3:$F$40, $S3,$G$3:$G$40,"Three Pointer")</f>
+        <f>COUNTIFS($G$3:$G$40, $S3,$H$3:$H$40,"Three Pointer")</f>
         <v>0</v>
       </c>
       <c r="X3" s="19" t="b">
@@ -25802,17 +25801,17 @@
     </row>
     <row r="4" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="129" t="s">
-        <v>213</v>
-      </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
+        <v>212</v>
+      </c>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
       <c r="M4" s="1" t="s">
         <v>164</v>
       </c>
@@ -25825,30 +25824,29 @@
         <v>0</v>
       </c>
       <c r="P4" s="8" t="e">
-        <f t="shared" ref="P4:P5" si="4">N4/(N4+O4)</f>
+        <f t="shared" ref="P4:P5" si="0">N4/(N4+O4)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q4" s="1">
-        <f>IF(O4&lt;&gt;0,IF(AND(P4&gt;P3,P4&gt;P5),3,IF(OR(P4&gt;P3,P4&gt;P5),2,1)),0)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T4" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="T4:T18" si="1">COUNTIF($G$3:$G$40, S4)+W4</f>
         <v>0</v>
       </c>
       <c r="U4" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="U4:U18" si="2">COUNTIFS($G$3:$G$40, $S4,$H$3:$H$40,"Finish")</f>
         <v>0</v>
       </c>
       <c r="V4" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="V4:V18" si="3">COUNTIFS($G$3:$G$40, $S4,$H$3:$H$40,"Midrange")</f>
         <v>0</v>
       </c>
       <c r="W4" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="W4:W18" si="4">COUNTIFS($G$3:$G$40, $S4,$H$3:$H$40,"Three Pointer")</f>
         <v>0</v>
       </c>
       <c r="X4" s="19" t="b">
@@ -25869,15 +25867,15 @@
       <c r="AC4" s="1"/>
     </row>
     <row r="5" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="130"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
       <c r="M5" s="1" t="s">
         <v>35</v>
       </c>
@@ -25890,30 +25888,29 @@
         <v>0</v>
       </c>
       <c r="P5" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q5" s="1">
-        <f>IF(O5&lt;&gt;0,IF(AND(P5&gt;P4, P5&gt;P3), 3, IF(OR(P5&gt;P4, P5&gt;P3), 2, 1)),0)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U5" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W5" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X5" s="19" t="b">
@@ -25934,32 +25931,32 @@
       <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
       <c r="S6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V6" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W6" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X6" s="19" t="b">
@@ -25980,32 +25977,32 @@
       <c r="AC6" s="1"/>
     </row>
     <row r="7" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
       <c r="S7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="T7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V7" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X7" s="19" t="b">
@@ -26026,32 +26023,32 @@
       <c r="AC7" s="1"/>
     </row>
     <row r="8" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="130"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="133"/>
       <c r="S8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U8" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V8" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X8" s="19" t="b">
@@ -26072,32 +26069,32 @@
       <c r="AC8" s="1"/>
     </row>
     <row r="9" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="130"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
       <c r="S9" t="s">
         <v>91</v>
       </c>
       <c r="T9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V9" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W9" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X9" s="19" t="b">
@@ -26117,32 +26114,32 @@
       </c>
     </row>
     <row r="10" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="130"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="133"/>
       <c r="S10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V10" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X10" s="19" t="b">
@@ -26162,24 +26159,33 @@
       </c>
       <c r="AC10" s="1"/>
     </row>
-    <row r="11" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
       <c r="S11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V11" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W11" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X11" s="19" t="b">
@@ -26199,24 +26205,33 @@
       </c>
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="133"/>
       <c r="S12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="T12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V12" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W12" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X12" s="19" t="b">
@@ -26236,24 +26251,33 @@
       </c>
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
       <c r="S13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="T13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V13" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W13" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X13" s="19" t="b">
@@ -26273,28 +26297,37 @@
       </c>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
       <c r="S14" s="1" t="s">
         <v>49</v>
       </c>
       <c r="T14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V14" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W14" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X14" s="19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14" s="34" t="str">
         <f t="shared" si="5"/>
@@ -26310,24 +26343,33 @@
       </c>
       <c r="AC14" s="1"/>
     </row>
-    <row r="15" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="133"/>
       <c r="S15" s="1" t="s">
         <v>52</v>
       </c>
       <c r="T15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V15" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W15" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X15" s="19" t="b">
@@ -26347,24 +26389,33 @@
       </c>
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
       <c r="S16" s="1" t="s">
         <v>55</v>
       </c>
       <c r="T16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V16" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W16" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X16" s="19" t="b">
@@ -26384,24 +26435,33 @@
       </c>
       <c r="AC16" s="1"/>
     </row>
-    <row r="17" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
       <c r="S17" s="1" t="s">
         <v>192</v>
       </c>
       <c r="T17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V17" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W17" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X17" s="19" t="b">
@@ -26421,24 +26481,33 @@
       </c>
       <c r="AC17" s="1"/>
     </row>
-    <row r="18" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="133"/>
       <c r="S18" s="125" t="s">
         <v>206</v>
       </c>
       <c r="T18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V18" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W18" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X18" s="19" t="b">
@@ -26458,7 +26527,16 @@
       </c>
       <c r="AC18" s="1"/>
     </row>
-    <row r="19" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="133"/>
       <c r="S19" s="1"/>
       <c r="T19" s="6"/>
       <c r="U19" s="7"/>
@@ -26478,7 +26556,16 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="133"/>
       <c r="Z20" s="34" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -26492,7 +26579,16 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="133"/>
       <c r="Z21" s="34" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -26506,7 +26602,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Z22" s="34" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -26520,7 +26616,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="S23" s="1"/>
       <c r="T23" t="str">
         <f>T3&amp;","</f>
@@ -26559,7 +26655,7 @@
       <c r="AE23" s="96"/>
       <c r="AF23" s="96"/>
     </row>
-    <row r="24" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T24" t="str">
         <f t="shared" ref="T24:W37" si="9">T4&amp;","</f>
         <v>0,</v>
@@ -26593,7 +26689,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="S25" s="2"/>
       <c r="T25" t="str">
         <f t="shared" si="9"/>
@@ -26628,7 +26724,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="S26" s="9"/>
       <c r="T26" t="str">
         <f t="shared" si="9"/>
@@ -26663,7 +26759,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T27" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
@@ -26697,7 +26793,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T28" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
@@ -26731,7 +26827,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T29" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
@@ -26765,7 +26861,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T30" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
@@ -26799,7 +26895,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T31" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
@@ -26833,7 +26929,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="19:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T32" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
@@ -26920,7 +27016,7 @@
       </c>
       <c r="X34" s="128" t="str">
         <f t="shared" si="10"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="Z34" s="34" t="str">
         <f t="shared" si="5"/>
@@ -27228,25 +27324,29 @@
       </c>
       <c r="Q45">
         <f>Q5</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R45">
         <f>Q4</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T45" s="10" t="str">
         <f>CHAR(34)&amp;"Missed"&amp;CHAR(34)&amp;":["&amp;X23&amp;X24&amp;X25&amp;X26&amp;X27&amp;X28&amp;X29&amp;X30&amp;X31&amp;X32&amp;X33&amp;X34&amp;X35&amp;X36&amp;X37&amp;X38&amp;"],"</f>
-        <v>"Missed":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
+        <v>"Missed":[0,0,0,0,0,0,0,0,0,0,0,1,0,0,0,0],</v>
       </c>
       <c r="U45" s="10"/>
     </row>
     <row r="46" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="T46" s="10" t="s">
-        <v>212</v>
+      <c r="T46" s="10" t="str">
+        <f>CHAR(34)&amp;"Points"&amp;CHAR(34)&amp;":["&amp;Q3&amp;","&amp;Q4&amp;","&amp;Q5&amp;"]"</f>
+        <v>"Points":[0,1.5,1.5]</v>
       </c>
       <c r="U46" s="10"/>
     </row>
     <row r="47" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T47" s="10" t="s">
+        <v>223</v>
+      </c>
       <c r="U47" s="10"/>
     </row>
     <row r="48" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -27272,942 +27372,942 @@
     <row r="62" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="63" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="64" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="96" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="99" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="101" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="103" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="105" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="107" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="113" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="115" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="125" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="126" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="127" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="128" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="129" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="130" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="131" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="132" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="133" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="134" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="135" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="136" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="137" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="138" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="139" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="140" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="141" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="142" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="143" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="144" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="145" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="146" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="147" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="148" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="149" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="150" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="151" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="152" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="153" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="154" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="155" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="156" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="157" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="158" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="159" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="160" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="161" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="162" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="163" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="164" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="165" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="166" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="167" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="168" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="169" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="170" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="171" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="172" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="173" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="174" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="175" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="176" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="177" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="178" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="179" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="180" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="181" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="182" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="183" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="184" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="185" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="186" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="187" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="188" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="189" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="190" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="191" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="192" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="193" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="194" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="195" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="196" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="197" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="198" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="199" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="200" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="201" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="202" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="203" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="204" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="205" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="206" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="207" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="208" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="209" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="210" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="211" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="212" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="213" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="214" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="215" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="216" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="217" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="218" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="219" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="220" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="221" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="222" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="223" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="224" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="225" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="226" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="227" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="228" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="229" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="230" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="231" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="232" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="233" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="234" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="235" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="236" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="237" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="238" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="239" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="240" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="241" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="242" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="243" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="244" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="245" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="246" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="247" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="248" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="249" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="250" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="251" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="252" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="253" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="254" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="255" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="256" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="257" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="258" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="259" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="260" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="261" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="262" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="263" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="264" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="265" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="266" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="267" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="268" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="269" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="270" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="271" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="272" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="273" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="274" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="275" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="276" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="277" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="278" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="279" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="280" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="281" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="282" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="283" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="284" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="285" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="286" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="287" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="288" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="289" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="290" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="291" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="292" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="293" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="294" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="295" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="296" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="297" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="298" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="299" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="300" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="301" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="302" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="303" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="304" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="305" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="306" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="307" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="308" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="309" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="310" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="311" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="312" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="313" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="314" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="315" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="316" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="317" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="318" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="319" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="320" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="321" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="322" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="323" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="324" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="325" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="326" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="327" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="328" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="329" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="330" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="331" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="332" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="333" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="334" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="335" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="336" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="337" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="338" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="339" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="340" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="341" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="342" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="343" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="344" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="345" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="346" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="347" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="348" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="349" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="350" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="351" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="352" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="353" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="354" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="355" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="356" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="357" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="358" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="359" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="360" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="361" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="362" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="363" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="364" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="365" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="366" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="367" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="368" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="369" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="370" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="371" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="372" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="373" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="374" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="375" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="376" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="377" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="378" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="379" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="380" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="381" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="382" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="383" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="384" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="385" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="386" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="387" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="388" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="389" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="390" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="391" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="392" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="393" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="394" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="395" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="396" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="397" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="398" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="399" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="400" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="401" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="402" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="403" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="404" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="405" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="406" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="407" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="408" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="409" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="410" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="411" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="412" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="413" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="414" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="415" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="416" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="417" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="418" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="419" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="420" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="421" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="422" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="423" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="424" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="425" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="426" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="427" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="428" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="429" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="430" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="431" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="432" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="433" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="434" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="435" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="436" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="437" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="438" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="439" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="440" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="441" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="442" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="443" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="444" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="445" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="446" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="447" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="448" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="449" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="450" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="451" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="452" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="453" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="454" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="455" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="456" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="457" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="458" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="459" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="460" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="461" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="462" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="463" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="464" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="465" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="466" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="467" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="468" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="469" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="470" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="471" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="472" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="473" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="474" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="475" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="476" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="477" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="478" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="479" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="480" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="481" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="482" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="483" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="484" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="485" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="486" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="487" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="488" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="489" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="490" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="491" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="492" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="493" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="494" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="495" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="496" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="497" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="498" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="499" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="500" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="501" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="502" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="503" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="504" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="505" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="506" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="507" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="508" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="509" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="510" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="511" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="512" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="513" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="514" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="515" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="516" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="517" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="518" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="519" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="520" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="521" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="522" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="523" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="524" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="525" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="526" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="527" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="528" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="529" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="530" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="531" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="532" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="533" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="534" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="535" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="536" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="537" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="538" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="539" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="540" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="541" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="542" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="543" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="544" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="545" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="546" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="547" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="548" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="549" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="550" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="551" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="552" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="553" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="554" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="555" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="556" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="557" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="558" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="559" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="560" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="561" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="562" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="563" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="564" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="565" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="566" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="567" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="568" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="569" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="570" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="571" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="572" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="573" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="574" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="575" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="576" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="577" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="578" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="579" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="580" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="581" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="582" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="583" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="584" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="585" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="586" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="587" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="588" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="589" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="590" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="591" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="592" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="593" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="594" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="595" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="596" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="597" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="598" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="599" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="600" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="601" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="602" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="603" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="604" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="605" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="606" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="607" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="608" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="609" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="610" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="611" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="612" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="613" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="614" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="615" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="616" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="617" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="618" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="619" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="620" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="621" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="622" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="623" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="624" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="625" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="626" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="627" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="628" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="629" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="630" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="631" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="632" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="633" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="634" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="635" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="636" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="637" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="638" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="639" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="640" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="641" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="642" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="643" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="644" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="645" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="646" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="647" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="648" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="649" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="650" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="651" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="652" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="653" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="654" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="655" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="656" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="657" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="658" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="659" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="660" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="661" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="662" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="663" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="664" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="665" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="666" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="667" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="668" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="669" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="670" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="671" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="672" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="673" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="674" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="675" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="676" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="677" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="678" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="679" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="680" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="681" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="682" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="683" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="684" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="685" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="686" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="687" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="688" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="689" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="690" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="691" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="692" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="693" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="694" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="695" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="696" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="697" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="698" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="699" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="700" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="701" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="702" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="703" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="704" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="705" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="706" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="707" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="708" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="709" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="710" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="711" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="712" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="713" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="714" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="715" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="716" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="717" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="718" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="719" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="720" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="721" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="722" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="723" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="724" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="725" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="726" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="727" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="728" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="729" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="730" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="731" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="732" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="733" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="734" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="735" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="736" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="737" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="738" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="739" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="740" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="741" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="742" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="743" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="744" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="745" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="746" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="747" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="748" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="749" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="750" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="751" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="752" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="753" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="754" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="755" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="756" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="757" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="758" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="759" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="760" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="761" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="762" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="763" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="764" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="765" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="766" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="767" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="768" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="769" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="770" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="771" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="772" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="773" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="774" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="775" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="776" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="777" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="778" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="779" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="780" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="781" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="782" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="783" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="784" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="785" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="786" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="787" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="788" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="789" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="790" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="791" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="792" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="793" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="794" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="795" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="796" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="797" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="798" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="799" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="800" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="801" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="802" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="803" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="804" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="805" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="806" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="807" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="808" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="809" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="810" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="811" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="812" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="813" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="814" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="815" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="816" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="817" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="818" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="819" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="820" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="821" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="822" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="823" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="824" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="825" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="826" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="827" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="828" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="829" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="830" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="831" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="832" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="833" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="834" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="835" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="836" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="837" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="838" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="839" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="840" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="841" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="842" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="843" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="844" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="845" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="846" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="847" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="848" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="849" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="850" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="851" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="852" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="853" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="854" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="855" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="856" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="857" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="858" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="859" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="860" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="861" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="862" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="863" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="864" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="865" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="866" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="867" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="868" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="869" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="870" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="871" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="872" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="873" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="874" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="875" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="876" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="877" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="878" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="879" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="880" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="881" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="882" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="883" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="884" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="885" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="886" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="887" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="888" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="889" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="890" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="891" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="892" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="893" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="894" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="895" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="896" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="897" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="898" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="899" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="900" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="901" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="902" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="903" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="904" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="905" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="906" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="907" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="908" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="909" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="910" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="911" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="912" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="913" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="914" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="915" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="916" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="917" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="918" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="919" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="920" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="921" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="922" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="923" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="924" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="925" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="926" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="927" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="928" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="929" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="930" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="931" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="932" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="933" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="934" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="935" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="936" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="937" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="938" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="939" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="940" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="941" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="942" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="943" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="944" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="945" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="946" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="947" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="948" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="949" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="950" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="951" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="952" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="953" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="954" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="955" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="956" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="957" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="958" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="959" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="960" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="961" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="962" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="963" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="964" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="965" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="966" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="967" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="968" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="969" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="970" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="971" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="972" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="973" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="974" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="975" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="976" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="977" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="978" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="979" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="980" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="981" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="982" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="983" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="984" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="985" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="986" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="987" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="988" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="989" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="990" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="991" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="992" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="993" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="994" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="995" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="996" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="997" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="998" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="999" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1000" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -28218,8 +28318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4699DF-4C9E-4BF0-9621-4006726449D0}">
   <dimension ref="B1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="T47" sqref="T47"/>
+    <sheetView zoomScale="73" workbookViewId="0">
+      <selection activeCell="P28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -28285,7 +28385,7 @@
         <v>86</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>87</v>
@@ -28356,33 +28456,33 @@
     </row>
     <row r="4" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="129" t="s">
-        <v>213</v>
-      </c>
-      <c r="C4" s="134">
+        <v>212</v>
+      </c>
+      <c r="C4" s="133">
         <v>1</v>
       </c>
-      <c r="D4" s="134" t="s">
+      <c r="D4" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="134" t="s">
+      <c r="E4" s="133" t="s">
         <v>173</v>
       </c>
-      <c r="F4" s="134" t="s">
+      <c r="F4" s="133" t="s">
+        <v>216</v>
+      </c>
+      <c r="G4" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="133" t="s">
         <v>217</v>
       </c>
-      <c r="G4" s="134" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="134" t="s">
-        <v>218</v>
-      </c>
-      <c r="I4" s="134">
+      <c r="I4" s="133">
         <v>1</v>
       </c>
-      <c r="J4" s="134">
+      <c r="J4" s="133">
         <v>1</v>
       </c>
-      <c r="K4" s="134">
+      <c r="K4" s="133">
         <v>1</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -28440,31 +28540,31 @@
       <c r="AC4" s="1"/>
     </row>
     <row r="5" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="134">
+      <c r="C5" s="133">
         <v>2</v>
       </c>
-      <c r="D5" s="134" t="s">
+      <c r="D5" s="133" t="s">
         <v>171</v>
       </c>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="F5" s="134" t="s">
+      <c r="F5" s="133" t="s">
+        <v>218</v>
+      </c>
+      <c r="G5" s="133" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="133" t="s">
         <v>219</v>
       </c>
-      <c r="G5" s="134" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="134" t="s">
+      <c r="I5" s="133" t="s">
         <v>220</v>
       </c>
-      <c r="I5" s="134" t="s">
-        <v>221</v>
-      </c>
-      <c r="J5" s="134" t="s">
-        <v>221</v>
-      </c>
-      <c r="K5" s="134">
+      <c r="J5" s="133" t="s">
+        <v>220</v>
+      </c>
+      <c r="K5" s="133">
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -28522,31 +28622,31 @@
       <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C6" s="134">
+      <c r="C6" s="133">
         <v>2</v>
       </c>
-      <c r="D6" s="134" t="s">
+      <c r="D6" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="133" t="s">
         <v>171</v>
       </c>
-      <c r="F6" s="134" t="s">
-        <v>222</v>
-      </c>
-      <c r="G6" s="134" t="s">
+      <c r="F6" s="133" t="s">
+        <v>221</v>
+      </c>
+      <c r="G6" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="134" t="s">
-        <v>218</v>
-      </c>
-      <c r="I6" s="134">
+      <c r="H6" s="133" t="s">
+        <v>217</v>
+      </c>
+      <c r="I6" s="133">
         <v>2</v>
       </c>
-      <c r="J6" s="134">
+      <c r="J6" s="133">
         <v>1</v>
       </c>
-      <c r="K6" s="134">
+      <c r="K6" s="133">
         <v>1</v>
       </c>
       <c r="S6" s="1" t="s">
@@ -28586,31 +28686,31 @@
       <c r="AC6" s="1"/>
     </row>
     <row r="7" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C7" s="134">
+      <c r="C7" s="133">
         <v>3</v>
       </c>
-      <c r="D7" s="134" t="s">
+      <c r="D7" s="133" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="134" t="s">
+      <c r="E7" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="134" t="s">
+      <c r="F7" s="133" t="s">
+        <v>218</v>
+      </c>
+      <c r="G7" s="133" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="133" t="s">
         <v>219</v>
       </c>
-      <c r="G7" s="134" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="134" t="s">
+      <c r="I7" s="133" t="s">
         <v>220</v>
       </c>
-      <c r="I7" s="134" t="s">
-        <v>221</v>
-      </c>
-      <c r="J7" s="134" t="s">
-        <v>221</v>
-      </c>
-      <c r="K7" s="134">
+      <c r="J7" s="133" t="s">
+        <v>220</v>
+      </c>
+      <c r="K7" s="133">
         <v>1</v>
       </c>
       <c r="S7" s="1" t="s">
@@ -28650,31 +28750,31 @@
       <c r="AC7" s="1"/>
     </row>
     <row r="8" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="134">
+      <c r="C8" s="133">
         <v>3</v>
       </c>
-      <c r="D8" s="134" t="s">
+      <c r="D8" s="133" t="s">
         <v>173</v>
       </c>
-      <c r="E8" s="134" t="s">
+      <c r="E8" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="F8" s="134" t="s">
-        <v>217</v>
-      </c>
-      <c r="G8" s="134" t="s">
+      <c r="F8" s="133" t="s">
+        <v>216</v>
+      </c>
+      <c r="G8" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="134" t="s">
-        <v>220</v>
-      </c>
-      <c r="I8" s="134">
+      <c r="H8" s="133" t="s">
+        <v>219</v>
+      </c>
+      <c r="I8" s="133">
         <v>1</v>
       </c>
-      <c r="J8" s="134">
+      <c r="J8" s="133">
         <v>1</v>
       </c>
-      <c r="K8" s="134">
+      <c r="K8" s="133">
         <v>1</v>
       </c>
       <c r="S8" s="1" t="s">
@@ -28714,31 +28814,31 @@
       <c r="AC8" s="1"/>
     </row>
     <row r="9" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C9" s="134">
+      <c r="C9" s="133">
         <v>4</v>
       </c>
-      <c r="D9" s="134" t="s">
+      <c r="D9" s="133" t="s">
         <v>173</v>
       </c>
-      <c r="E9" s="134" t="s">
+      <c r="E9" s="133" t="s">
         <v>171</v>
       </c>
-      <c r="F9" s="134" t="s">
+      <c r="F9" s="133" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="133" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="133" t="s">
         <v>219</v>
       </c>
-      <c r="G9" s="134" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="134" t="s">
+      <c r="I9" s="133" t="s">
         <v>220</v>
       </c>
-      <c r="I9" s="134" t="s">
-        <v>221</v>
-      </c>
-      <c r="J9" s="134" t="s">
-        <v>221</v>
-      </c>
-      <c r="K9" s="134">
+      <c r="J9" s="133" t="s">
+        <v>220</v>
+      </c>
+      <c r="K9" s="133">
         <v>1</v>
       </c>
       <c r="S9" t="s">
@@ -28777,31 +28877,31 @@
       </c>
     </row>
     <row r="10" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C10" s="134">
+      <c r="C10" s="133">
         <v>4</v>
       </c>
-      <c r="D10" s="134" t="s">
+      <c r="D10" s="133" t="s">
         <v>171</v>
       </c>
-      <c r="E10" s="134" t="s">
+      <c r="E10" s="133" t="s">
         <v>173</v>
       </c>
-      <c r="F10" s="134" t="s">
-        <v>223</v>
-      </c>
-      <c r="G10" s="134" t="s">
+      <c r="F10" s="133" t="s">
+        <v>222</v>
+      </c>
+      <c r="G10" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="134" t="s">
+      <c r="H10" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="134" t="s">
-        <v>221</v>
-      </c>
-      <c r="J10" s="134" t="s">
-        <v>221</v>
-      </c>
-      <c r="K10" s="134">
+      <c r="I10" s="133" t="s">
+        <v>220</v>
+      </c>
+      <c r="J10" s="133" t="s">
+        <v>220</v>
+      </c>
+      <c r="K10" s="133">
         <v>1</v>
       </c>
       <c r="S10" s="1" t="s">
@@ -28841,31 +28941,31 @@
       <c r="AC10" s="1"/>
     </row>
     <row r="11" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C11" s="134">
+      <c r="C11" s="133">
         <v>4</v>
       </c>
-      <c r="D11" s="134" t="s">
+      <c r="D11" s="133" t="s">
         <v>171</v>
       </c>
-      <c r="E11" s="134" t="s">
+      <c r="E11" s="133" t="s">
         <v>173</v>
       </c>
-      <c r="F11" s="134" t="s">
-        <v>222</v>
-      </c>
-      <c r="G11" s="134" t="s">
+      <c r="F11" s="133" t="s">
+        <v>221</v>
+      </c>
+      <c r="G11" s="133" t="s">
         <v>192</v>
       </c>
-      <c r="H11" s="134" t="s">
-        <v>220</v>
-      </c>
-      <c r="I11" s="134">
+      <c r="H11" s="133" t="s">
+        <v>219</v>
+      </c>
+      <c r="I11" s="133">
         <v>1</v>
       </c>
-      <c r="J11" s="134">
+      <c r="J11" s="133">
         <v>1</v>
       </c>
-      <c r="K11" s="134">
+      <c r="K11" s="133">
         <v>1</v>
       </c>
       <c r="S11" s="1" t="s">
@@ -28905,31 +29005,31 @@
       <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="134">
+      <c r="C12" s="133">
         <v>5</v>
       </c>
-      <c r="D12" s="134" t="s">
+      <c r="D12" s="133" t="s">
         <v>171</v>
       </c>
-      <c r="E12" s="134" t="s">
+      <c r="E12" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="F12" s="134" t="s">
+      <c r="F12" s="133" t="s">
+        <v>218</v>
+      </c>
+      <c r="G12" s="133" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="133" t="s">
         <v>219</v>
       </c>
-      <c r="G12" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="134" t="s">
+      <c r="I12" s="133" t="s">
         <v>220</v>
       </c>
-      <c r="I12" s="134" t="s">
-        <v>221</v>
-      </c>
-      <c r="J12" s="134" t="s">
-        <v>221</v>
-      </c>
-      <c r="K12" s="134">
+      <c r="J12" s="133" t="s">
+        <v>220</v>
+      </c>
+      <c r="K12" s="133">
         <v>1</v>
       </c>
       <c r="S12" s="1" t="s">
@@ -28969,31 +29069,31 @@
       <c r="AC12" s="1"/>
     </row>
     <row r="13" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="134">
+      <c r="C13" s="133">
         <v>5</v>
       </c>
-      <c r="D13" s="134" t="s">
+      <c r="D13" s="133" t="s">
         <v>171</v>
       </c>
-      <c r="E13" s="134" t="s">
+      <c r="E13" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="F13" s="134" t="s">
-        <v>217</v>
-      </c>
-      <c r="G13" s="134" t="s">
+      <c r="F13" s="133" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="134" t="s">
-        <v>220</v>
-      </c>
-      <c r="I13" s="134">
+      <c r="H13" s="133" t="s">
+        <v>219</v>
+      </c>
+      <c r="I13" s="133">
         <v>2</v>
       </c>
-      <c r="J13" s="134">
+      <c r="J13" s="133">
         <v>2</v>
       </c>
-      <c r="K13" s="134">
+      <c r="K13" s="133">
         <v>1</v>
       </c>
       <c r="S13" s="1" t="s">
@@ -29033,31 +29133,31 @@
       <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C14" s="134">
+      <c r="C14" s="133">
         <v>6</v>
       </c>
-      <c r="D14" s="134" t="s">
+      <c r="D14" s="133" t="s">
         <v>173</v>
       </c>
-      <c r="E14" s="134" t="s">
+      <c r="E14" s="133" t="s">
         <v>171</v>
       </c>
-      <c r="F14" s="134" t="s">
+      <c r="F14" s="133" t="s">
+        <v>218</v>
+      </c>
+      <c r="G14" s="133" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="133" t="s">
         <v>219</v>
       </c>
-      <c r="G14" s="134" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="134" t="s">
+      <c r="I14" s="133" t="s">
         <v>220</v>
       </c>
-      <c r="I14" s="134" t="s">
-        <v>221</v>
-      </c>
-      <c r="J14" s="134" t="s">
-        <v>221</v>
-      </c>
-      <c r="K14" s="134">
+      <c r="J14" s="133" t="s">
+        <v>220</v>
+      </c>
+      <c r="K14" s="133">
         <v>1</v>
       </c>
       <c r="S14" s="1" t="s">
@@ -29097,31 +29197,31 @@
       <c r="AC14" s="1"/>
     </row>
     <row r="15" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C15" s="134">
+      <c r="C15" s="133">
         <v>6</v>
       </c>
-      <c r="D15" s="134" t="s">
+      <c r="D15" s="133" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="134" t="s">
+      <c r="E15" s="133" t="s">
         <v>171</v>
       </c>
-      <c r="F15" s="134" t="s">
-        <v>217</v>
-      </c>
-      <c r="G15" s="134" t="s">
+      <c r="F15" s="133" t="s">
+        <v>216</v>
+      </c>
+      <c r="G15" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="134" t="s">
-        <v>220</v>
-      </c>
-      <c r="I15" s="134">
+      <c r="H15" s="133" t="s">
+        <v>219</v>
+      </c>
+      <c r="I15" s="133">
         <v>1</v>
       </c>
-      <c r="J15" s="134">
+      <c r="J15" s="133">
         <v>1</v>
       </c>
-      <c r="K15" s="134">
+      <c r="K15" s="133">
         <v>2</v>
       </c>
       <c r="S15" s="1" t="s">
@@ -29161,31 +29261,31 @@
       <c r="AC15" s="1"/>
     </row>
     <row r="16" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="134">
+      <c r="C16" s="133">
         <v>7</v>
       </c>
-      <c r="D16" s="134" t="s">
+      <c r="D16" s="133" t="s">
         <v>173</v>
       </c>
-      <c r="E16" s="134" t="s">
+      <c r="E16" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="F16" s="134" t="s">
-        <v>219</v>
-      </c>
-      <c r="G16" s="134" t="s">
+      <c r="F16" s="133" t="s">
+        <v>218</v>
+      </c>
+      <c r="G16" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="134" t="s">
+      <c r="H16" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="134" t="s">
-        <v>221</v>
-      </c>
-      <c r="J16" s="134" t="s">
-        <v>221</v>
-      </c>
-      <c r="K16" s="134">
+      <c r="I16" s="133" t="s">
+        <v>220</v>
+      </c>
+      <c r="J16" s="133" t="s">
+        <v>220</v>
+      </c>
+      <c r="K16" s="133">
         <v>1</v>
       </c>
       <c r="S16" s="1" t="s">
@@ -29225,31 +29325,31 @@
       <c r="AC16" s="1"/>
     </row>
     <row r="17" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C17" s="134">
+      <c r="C17" s="133">
         <v>7</v>
       </c>
-      <c r="D17" s="134" t="s">
+      <c r="D17" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="134" t="s">
+      <c r="E17" s="133" t="s">
         <v>173</v>
       </c>
-      <c r="F17" s="134" t="s">
-        <v>223</v>
-      </c>
-      <c r="G17" s="134" t="s">
+      <c r="F17" s="133" t="s">
+        <v>222</v>
+      </c>
+      <c r="G17" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="134" t="s">
+      <c r="H17" s="133" t="s">
+        <v>219</v>
+      </c>
+      <c r="I17" s="133" t="s">
         <v>220</v>
       </c>
-      <c r="I17" s="134" t="s">
-        <v>221</v>
-      </c>
-      <c r="J17" s="134" t="s">
-        <v>221</v>
-      </c>
-      <c r="K17" s="134">
+      <c r="J17" s="133" t="s">
+        <v>220</v>
+      </c>
+      <c r="K17" s="133">
         <v>1</v>
       </c>
       <c r="S17" s="1" t="s">
@@ -29289,31 +29389,31 @@
       <c r="AC17" s="1"/>
     </row>
     <row r="18" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="134">
+      <c r="C18" s="133">
         <v>7</v>
       </c>
-      <c r="D18" s="134" t="s">
+      <c r="D18" s="133" t="s">
         <v>173</v>
       </c>
-      <c r="E18" s="134" t="s">
+      <c r="E18" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="F18" s="134" t="s">
-        <v>222</v>
-      </c>
-      <c r="G18" s="134" t="s">
+      <c r="F18" s="133" t="s">
+        <v>221</v>
+      </c>
+      <c r="G18" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="134" t="s">
-        <v>220</v>
-      </c>
-      <c r="I18" s="134">
+      <c r="H18" s="133" t="s">
+        <v>219</v>
+      </c>
+      <c r="I18" s="133">
         <v>2</v>
       </c>
-      <c r="J18" s="134">
+      <c r="J18" s="133">
         <v>3</v>
       </c>
-      <c r="K18" s="134">
+      <c r="K18" s="133">
         <v>1</v>
       </c>
       <c r="S18" s="125" t="s">
@@ -29353,31 +29453,31 @@
       <c r="AC18" s="1"/>
     </row>
     <row r="19" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C19" s="134">
+      <c r="C19" s="133">
         <v>8</v>
       </c>
-      <c r="D19" s="134" t="s">
+      <c r="D19" s="133" t="s">
         <v>173</v>
       </c>
-      <c r="E19" s="134" t="s">
+      <c r="E19" s="133" t="s">
         <v>171</v>
       </c>
-      <c r="F19" s="134" t="s">
+      <c r="F19" s="133" t="s">
+        <v>218</v>
+      </c>
+      <c r="G19" s="133" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="133" t="s">
         <v>219</v>
       </c>
-      <c r="G19" s="134" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="134" t="s">
+      <c r="I19" s="133" t="s">
         <v>220</v>
       </c>
-      <c r="I19" s="134" t="s">
-        <v>221</v>
-      </c>
-      <c r="J19" s="134" t="s">
-        <v>221</v>
-      </c>
-      <c r="K19" s="134">
+      <c r="J19" s="133" t="s">
+        <v>220</v>
+      </c>
+      <c r="K19" s="133">
         <v>1</v>
       </c>
       <c r="S19" s="1"/>
@@ -29400,31 +29500,31 @@
       </c>
     </row>
     <row r="20" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C20" s="134">
+      <c r="C20" s="133">
         <v>8</v>
       </c>
-      <c r="D20" s="134" t="s">
+      <c r="D20" s="133" t="s">
         <v>171</v>
       </c>
-      <c r="E20" s="134" t="s">
+      <c r="E20" s="133" t="s">
         <v>173</v>
       </c>
-      <c r="F20" s="134" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="134" t="s">
+      <c r="F20" s="133" t="s">
+        <v>222</v>
+      </c>
+      <c r="G20" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="134" t="s">
+      <c r="H20" s="133" t="s">
+        <v>219</v>
+      </c>
+      <c r="I20" s="133" t="s">
         <v>220</v>
       </c>
-      <c r="I20" s="134" t="s">
-        <v>221</v>
-      </c>
-      <c r="J20" s="134" t="s">
-        <v>221</v>
-      </c>
-      <c r="K20" s="134">
+      <c r="J20" s="133" t="s">
+        <v>220</v>
+      </c>
+      <c r="K20" s="133">
         <v>1</v>
       </c>
       <c r="Z20" s="34" t="str">
@@ -29441,31 +29541,31 @@
       </c>
     </row>
     <row r="21" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C21" s="134">
+      <c r="C21" s="133">
         <v>8</v>
       </c>
-      <c r="D21" s="134" t="s">
+      <c r="D21" s="133" t="s">
         <v>173</v>
       </c>
-      <c r="E21" s="134" t="s">
+      <c r="E21" s="133" t="s">
         <v>171</v>
       </c>
-      <c r="F21" s="134" t="s">
-        <v>222</v>
-      </c>
-      <c r="G21" s="134" t="s">
+      <c r="F21" s="133" t="s">
+        <v>221</v>
+      </c>
+      <c r="G21" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="134" t="s">
-        <v>220</v>
-      </c>
-      <c r="I21" s="134">
+      <c r="H21" s="133" t="s">
+        <v>219</v>
+      </c>
+      <c r="I21" s="133">
         <v>3</v>
       </c>
-      <c r="J21" s="134">
+      <c r="J21" s="133">
         <v>2</v>
       </c>
-      <c r="K21" s="134">
+      <c r="K21" s="133">
         <v>1</v>
       </c>
       <c r="Z21" s="34" t="str">
@@ -30224,7 +30324,7 @@
     </row>
     <row r="47" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T47" s="10" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="U47" s="10"/>
     </row>
@@ -30251,942 +30351,942 @@
     <row r="62" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="63" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="64" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="96" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="99" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="101" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="103" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="105" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="107" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="113" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="115" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="125" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="126" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="127" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="128" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="129" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="130" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="131" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="132" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="133" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="134" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="135" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="136" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="137" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="138" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="139" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="140" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="141" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="142" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="143" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="144" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="145" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="146" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="147" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="148" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="149" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="150" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="151" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="152" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="153" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="154" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="155" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="156" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="157" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="158" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="159" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="160" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="161" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="162" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="163" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="164" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="165" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="166" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="167" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="168" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="169" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="170" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="171" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="172" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="173" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="174" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="175" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="176" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="177" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="178" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="179" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="180" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="181" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="182" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="183" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="184" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="185" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="186" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="187" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="188" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="189" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="190" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="191" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="192" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="193" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="194" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="195" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="196" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="197" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="198" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="199" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="200" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="201" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="202" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="203" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="204" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="205" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="206" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="207" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="208" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="209" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="210" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="211" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="212" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="213" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="214" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="215" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="216" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="217" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="218" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="219" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="220" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="221" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="222" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="223" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="224" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="225" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="226" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="227" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="228" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="229" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="230" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="231" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="232" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="233" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="234" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="235" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="236" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="237" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="238" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="239" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="240" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="241" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="242" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="243" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="244" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="245" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="246" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="247" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="248" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="249" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="250" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="251" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="252" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="253" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="254" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="255" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="256" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="257" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="258" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="259" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="260" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="261" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="262" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="263" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="264" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="265" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="266" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="267" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="268" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="269" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="270" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="271" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="272" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="273" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="274" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="275" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="276" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="277" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="278" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="279" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="280" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="281" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="282" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="283" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="284" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="285" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="286" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="287" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="288" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="289" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="290" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="291" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="292" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="293" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="294" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="295" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="296" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="297" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="298" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="299" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="300" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="301" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="302" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="303" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="304" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="305" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="306" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="307" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="308" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="309" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="310" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="311" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="312" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="313" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="314" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="315" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="316" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="317" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="318" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="319" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="320" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="321" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="322" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="323" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="324" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="325" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="326" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="327" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="328" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="329" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="330" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="331" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="332" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="333" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="334" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="335" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="336" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="337" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="338" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="339" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="340" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="341" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="342" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="343" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="344" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="345" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="346" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="347" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="348" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="349" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="350" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="351" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="352" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="353" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="354" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="355" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="356" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="357" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="358" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="359" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="360" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="361" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="362" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="363" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="364" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="365" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="366" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="367" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="368" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="369" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="370" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="371" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="372" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="373" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="374" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="375" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="376" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="377" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="378" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="379" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="380" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="381" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="382" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="383" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="384" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="385" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="386" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="387" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="388" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="389" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="390" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="391" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="392" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="393" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="394" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="395" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="396" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="397" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="398" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="399" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="400" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="401" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="402" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="403" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="404" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="405" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="406" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="407" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="408" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="409" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="410" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="411" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="412" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="413" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="414" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="415" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="416" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="417" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="418" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="419" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="420" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="421" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="422" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="423" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="424" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="425" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="426" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="427" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="428" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="429" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="430" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="431" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="432" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="433" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="434" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="435" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="436" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="437" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="438" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="439" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="440" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="441" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="442" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="443" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="444" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="445" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="446" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="447" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="448" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="449" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="450" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="451" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="452" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="453" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="454" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="455" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="456" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="457" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="458" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="459" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="460" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="461" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="462" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="463" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="464" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="465" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="466" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="467" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="468" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="469" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="470" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="471" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="472" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="473" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="474" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="475" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="476" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="477" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="478" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="479" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="480" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="481" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="482" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="483" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="484" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="485" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="486" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="487" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="488" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="489" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="490" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="491" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="492" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="493" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="494" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="495" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="496" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="497" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="498" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="499" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="500" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="501" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="502" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="503" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="504" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="505" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="506" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="507" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="508" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="509" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="510" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="511" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="512" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="513" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="514" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="515" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="516" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="517" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="518" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="519" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="520" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="521" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="522" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="523" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="524" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="525" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="526" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="527" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="528" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="529" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="530" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="531" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="532" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="533" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="534" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="535" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="536" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="537" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="538" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="539" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="540" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="541" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="542" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="543" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="544" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="545" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="546" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="547" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="548" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="549" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="550" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="551" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="552" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="553" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="554" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="555" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="556" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="557" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="558" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="559" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="560" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="561" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="562" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="563" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="564" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="565" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="566" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="567" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="568" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="569" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="570" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="571" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="572" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="573" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="574" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="575" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="576" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="577" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="578" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="579" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="580" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="581" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="582" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="583" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="584" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="585" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="586" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="587" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="588" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="589" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="590" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="591" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="592" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="593" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="594" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="595" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="596" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="597" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="598" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="599" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="600" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="601" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="602" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="603" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="604" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="605" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="606" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="607" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="608" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="609" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="610" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="611" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="612" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="613" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="614" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="615" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="616" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="617" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="618" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="619" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="620" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="621" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="622" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="623" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="624" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="625" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="626" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="627" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="628" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="629" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="630" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="631" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="632" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="633" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="634" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="635" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="636" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="637" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="638" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="639" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="640" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="641" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="642" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="643" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="644" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="645" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="646" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="647" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="648" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="649" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="650" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="651" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="652" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="653" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="654" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="655" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="656" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="657" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="658" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="659" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="660" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="661" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="662" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="663" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="664" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="665" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="666" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="667" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="668" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="669" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="670" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="671" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="672" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="673" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="674" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="675" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="676" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="677" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="678" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="679" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="680" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="681" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="682" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="683" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="684" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="685" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="686" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="687" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="688" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="689" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="690" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="691" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="692" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="693" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="694" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="695" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="696" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="697" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="698" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="699" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="700" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="701" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="702" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="703" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="704" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="705" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="706" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="707" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="708" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="709" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="710" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="711" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="712" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="713" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="714" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="715" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="716" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="717" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="718" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="719" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="720" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="721" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="722" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="723" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="724" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="725" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="726" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="727" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="728" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="729" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="730" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="731" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="732" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="733" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="734" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="735" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="736" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="737" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="738" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="739" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="740" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="741" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="742" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="743" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="744" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="745" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="746" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="747" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="748" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="749" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="750" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="751" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="752" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="753" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="754" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="755" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="756" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="757" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="758" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="759" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="760" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="761" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="762" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="763" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="764" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="765" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="766" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="767" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="768" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="769" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="770" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="771" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="772" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="773" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="774" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="775" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="776" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="777" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="778" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="779" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="780" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="781" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="782" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="783" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="784" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="785" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="786" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="787" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="788" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="789" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="790" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="791" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="792" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="793" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="794" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="795" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="796" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="797" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="798" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="799" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="800" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="801" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="802" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="803" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="804" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="805" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="806" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="807" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="808" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="809" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="810" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="811" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="812" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="813" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="814" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="815" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="816" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="817" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="818" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="819" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="820" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="821" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="822" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="823" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="824" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="825" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="826" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="827" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="828" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="829" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="830" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="831" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="832" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="833" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="834" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="835" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="836" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="837" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="838" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="839" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="840" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="841" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="842" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="843" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="844" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="845" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="846" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="847" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="848" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="849" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="850" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="851" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="852" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="853" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="854" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="855" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="856" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="857" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="858" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="859" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="860" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="861" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="862" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="863" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="864" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="865" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="866" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="867" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="868" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="869" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="870" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="871" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="872" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="873" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="874" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="875" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="876" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="877" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="878" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="879" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="880" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="881" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="882" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="883" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="884" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="885" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="886" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="887" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="888" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="889" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="890" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="891" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="892" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="893" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="894" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="895" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="896" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="897" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="898" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="899" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="900" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="901" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="902" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="903" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="904" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="905" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="906" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="907" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="908" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="909" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="910" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="911" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="912" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="913" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="914" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="915" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="916" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="917" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="918" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="919" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="920" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="921" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="922" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="923" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="924" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="925" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="926" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="927" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="928" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="929" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="930" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="931" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="932" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="933" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="934" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="935" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="936" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="937" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="938" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="939" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="940" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="941" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="942" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="943" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="944" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="945" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="946" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="947" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="948" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="949" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="950" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="951" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="952" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="953" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="954" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="955" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="956" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="957" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="958" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="959" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="960" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="961" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="962" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="963" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="964" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="965" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="966" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="967" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="968" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="969" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="970" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="971" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="972" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="973" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="974" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="975" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="976" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="977" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="978" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="979" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="980" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="981" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="982" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="983" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="984" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="985" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="986" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="987" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="988" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="989" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="990" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="991" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="992" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="993" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="994" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="995" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="996" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="997" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="998" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="999" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1000" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\LTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566C5A33-8727-4483-8188-0E3480CCC9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29863820-A769-4A95-9052-B01EE3E2A8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="5" xr2:uid="{4DB07035-BDB7-4C75-89E4-DFC507B748B4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{4DB07035-BDB7-4C75-89E4-DFC507B748B4}"/>
   </bookViews>
   <sheets>
     <sheet name="SfW" sheetId="2" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="Statistics TC" sheetId="5" r:id="rId4"/>
     <sheet name="Statistics GM" sheetId="6" r:id="rId5"/>
     <sheet name="Template" sheetId="7" r:id="rId6"/>
-    <sheet name="2401" sheetId="8" r:id="rId7"/>
+    <sheet name="2501" sheetId="9" r:id="rId7"/>
+    <sheet name="2401" sheetId="8" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="225">
   <si>
     <t>Points</t>
   </si>
@@ -713,6 +714,9 @@
   <si>
     <t>},</t>
   </si>
+  <si>
+    <t>25 January</t>
+  </si>
 </sst>
 </file>
 
@@ -1358,10 +1362,10 @@
     <xf numFmtId="1" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1373,73 +1377,53 @@
   <dxfs count="143">
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3886,31 +3870,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3960,31 +3919,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4620,6 +4554,76 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7156,40 +7160,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}" name="Table1" displayName="Table1" ref="Z7:AJ23" totalsRowShown="0" headerRowDxfId="142" dataDxfId="140" headerRowBorderDxfId="141" tableBorderDxfId="139" totalsRowBorderDxfId="138">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}" name="Table1" displayName="Table1" ref="Z7:AJ23" totalsRowShown="0" headerRowDxfId="135" dataDxfId="133" headerRowBorderDxfId="134" tableBorderDxfId="132" totalsRowBorderDxfId="131">
   <autoFilter ref="Z7:AJ23" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{9B036617-5450-4894-9268-827D2E0914FF}" name="Scoring" dataDxfId="137">
+    <tableColumn id="1" xr3:uid="{9B036617-5450-4894-9268-827D2E0914FF}" name="Scoring" dataDxfId="130">
       <calculatedColumnFormula>SfW!B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="136">
+    <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="129">
       <calculatedColumnFormula>SUM(AA29,AA49,AL49,AA69,AL69,AA89,AL29)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="135">
+    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="128">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="134">
+    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="127">
       <calculatedColumnFormula>SUM(AB29,AB49,AM49,AB69,AM69,AB89,AM29)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="133">
+    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="126">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="132">
+    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="125">
       <calculatedColumnFormula>SUM(AC29,AC49,AN49,AC69,AN69,AC89,AN29)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="131">
+    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="124">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="130">
+    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="123">
       <calculatedColumnFormula>SUM(AD29,AD49,AO49,AD69,AO69,AD89,AO29)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="129">
+    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="122">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="128">
+    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="121">
       <calculatedColumnFormula>SfW!C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="127">
+    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="120">
       <calculatedColumnFormula>SUM(AI29,AI49,AT49,AI69,AT69,AI89,AT29)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7198,74 +7202,74 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}" name="Table1113" displayName="Table1113" ref="M3:V8" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}" name="Table1113" displayName="Table1113" ref="M3:V8" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="M3:V8" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7790729E-C8E5-45C1-8784-25212A2654AA}" name="Name" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{52A67B2B-967C-4970-8D83-8F8E9CC61522}" name="Points" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{BA1FA2C8-AEC0-4644-83DB-5097750D7188}" name="Average" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{4CF66F5D-BF10-4CBD-88FF-CCD38730E1CD}" name="Finishes" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{BC246D5B-7E78-41A6-B796-C93ED8E53DF9}" name="Averages" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{AB819419-CC06-4A40-8DED-E231125129C0}" name="Midranges" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{064AA562-C451-4362-805E-D12DC76C3530}" name="Averages2" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{BD0D8BAE-15E4-4B38-87FE-B682D7BAEE75}" name="Threes" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{541E391B-4B08-4E98-A63F-753C11193269}" name="Averages3" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{999BB5D2-D6FB-4EB9-A268-D62EA72F939D}" name="Missed Games" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{7790729E-C8E5-45C1-8784-25212A2654AA}" name="Name" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{52A67B2B-967C-4970-8D83-8F8E9CC61522}" name="Points" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{BA1FA2C8-AEC0-4644-83DB-5097750D7188}" name="Average" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{4CF66F5D-BF10-4CBD-88FF-CCD38730E1CD}" name="Finishes" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{BC246D5B-7E78-41A6-B796-C93ED8E53DF9}" name="Averages" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{AB819419-CC06-4A40-8DED-E231125129C0}" name="Midranges" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{064AA562-C451-4362-805E-D12DC76C3530}" name="Averages2" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{BD0D8BAE-15E4-4B38-87FE-B682D7BAEE75}" name="Threes" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{541E391B-4B08-4E98-A63F-753C11193269}" name="Averages3" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{999BB5D2-D6FB-4EB9-A268-D62EA72F939D}" name="Missed Games" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}" name="Table11" displayName="Table11" ref="I4:R10" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}" name="Table11" displayName="Table11" ref="I4:R10" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="I4:R10" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{CE15C23D-9493-4B21-9D40-1A25D210C18E}" name="Name" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{6BB170B1-AA38-4699-9B96-400D2947EE9C}" name="Points" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{EC8B6CBB-FCC9-416C-AEA6-738419DFE531}" name="Average" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{315DA055-9A43-468A-A501-1092626F523F}" name="Finishes" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{56B6FF4D-95D4-4550-88E4-C781ABDA83A6}" name="Averages" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{F7B5C0B8-FBE2-44B0-A372-112C7776FCCF}" name="Midranges" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{1A1C2126-FEB1-408F-8523-049E53028B4E}" name="Averages2" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{AE94036B-3777-4C1B-97D5-7BFA1037C0BF}" name="Threes" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{448B0903-7F66-40BA-809F-74ADBF397B45}" name="Averages3" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{E0CAC55D-8398-4928-A219-C01706996D48}" name="Missed Games" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{CE15C23D-9493-4B21-9D40-1A25D210C18E}" name="Name" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{6BB170B1-AA38-4699-9B96-400D2947EE9C}" name="Points" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{EC8B6CBB-FCC9-416C-AEA6-738419DFE531}" name="Average" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{315DA055-9A43-468A-A501-1092626F523F}" name="Finishes" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{56B6FF4D-95D4-4550-88E4-C781ABDA83A6}" name="Averages" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{F7B5C0B8-FBE2-44B0-A372-112C7776FCCF}" name="Midranges" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{1A1C2126-FEB1-408F-8523-049E53028B4E}" name="Averages2" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{AE94036B-3777-4C1B-97D5-7BFA1037C0BF}" name="Threes" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{448B0903-7F66-40BA-809F-74ADBF397B45}" name="Averages3" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{E0CAC55D-8398-4928-A219-C01706996D48}" name="Missed Games" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}" name="Table211" displayName="Table211" ref="Z28:AI44" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}" name="Table211" displayName="Table211" ref="Z28:AI44" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="Z28:AI44" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5D003608-C1C2-4694-9447-8632FB8D7348}" name="Scoring" dataDxfId="124"/>
-    <tableColumn id="2" xr3:uid="{D15F4085-CED5-4CDD-B43B-BF7EB59B45A3}" name="Points" dataDxfId="123">
-      <calculatedColumnFormula>'2401'!T3</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{5D003608-C1C2-4694-9447-8632FB8D7348}" name="Scoring" dataDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{D15F4085-CED5-4CDD-B43B-BF7EB59B45A3}" name="Points" dataDxfId="1">
+      <calculatedColumnFormula>'2401'!T3+'2501'!T3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2D436F37-54B6-4820-9145-F48B4EF9B294}" name="Finishes" dataDxfId="122">
-      <calculatedColumnFormula>'2401'!U3</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{2D436F37-54B6-4820-9145-F48B4EF9B294}" name="Finishes" dataDxfId="116">
+      <calculatedColumnFormula>'2401'!U3+'2501'!U3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1D9B6A22-B682-47F3-B738-7C138F317A41}" name="Midranges" dataDxfId="121">
-      <calculatedColumnFormula>'2401'!V3</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{1D9B6A22-B682-47F3-B738-7C138F317A41}" name="Midranges" dataDxfId="115">
+      <calculatedColumnFormula>'2401'!V3+'2501'!V3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9966C9A0-3872-44E9-BB39-05DE197EAA68}" name="Threes" dataDxfId="120">
-      <calculatedColumnFormula>'2401'!W3</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{9966C9A0-3872-44E9-BB39-05DE197EAA68}" name="Threes" dataDxfId="114">
+      <calculatedColumnFormula>'2401'!W3+'2501'!W3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CC4AB646-735F-425F-8528-C5EFE7FE11DC}" name="Avg P" dataDxfId="119">
+    <tableColumn id="6" xr3:uid="{CC4AB646-735F-425F-8528-C5EFE7FE11DC}" name="Avg P" dataDxfId="113">
       <calculatedColumnFormula>Table211[[#This Row],[Points]]/($AA$27-$AI29)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F8D0247E-C6F7-467A-9F38-46084D44F8AB}" name="Avg F" dataDxfId="118">
+    <tableColumn id="7" xr3:uid="{F8D0247E-C6F7-467A-9F38-46084D44F8AB}" name="Avg F" dataDxfId="112">
       <calculatedColumnFormula>Table211[[#This Row],[Finishes]]/($AA$27-$AI29)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7CCF1C77-9DB0-4EB2-B7D0-FD0BDBEBFA0E}" name="Avg M" dataDxfId="117">
+    <tableColumn id="8" xr3:uid="{7CCF1C77-9DB0-4EB2-B7D0-FD0BDBEBFA0E}" name="Avg M" dataDxfId="111">
       <calculatedColumnFormula>Table211[[#This Row],[Midranges]]/($AA$27-$AI29)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{582A1A4E-5383-4383-A480-735408867046}" name="Avg T" dataDxfId="116">
+    <tableColumn id="9" xr3:uid="{582A1A4E-5383-4383-A480-735408867046}" name="Avg T" dataDxfId="110">
       <calculatedColumnFormula>Table211[[#This Row],[Threes]]/($AA$27-$AI29)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E547AEB5-F9BA-4C5F-8DCE-34B6A8FF303A}" name="Missed Games" dataDxfId="115">
-      <calculatedColumnFormula>COUNT('2401'!X3)</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{E547AEB5-F9BA-4C5F-8DCE-34B6A8FF303A}" name="Missed Games" dataDxfId="0">
+      <calculatedColumnFormula>COUNTIF('2401'!X3, TRUE)+COUNTIF('2501'!X3, TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7273,130 +7277,130 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}" name="Table21123" displayName="Table21123" ref="Z48:AI64" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}" name="Table21123" displayName="Table21123" ref="Z48:AI64" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
   <autoFilter ref="Z48:AI64" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0B0344E8-2677-4FAB-9B03-4745991FB5AE}" name="Scoring" dataDxfId="112"/>
-    <tableColumn id="2" xr3:uid="{58CA1107-8BB4-4A5D-BA00-31619C8D3973}" name="Points" dataDxfId="111"/>
-    <tableColumn id="3" xr3:uid="{8090861E-1FDF-44F4-9DB6-BB814E32C754}" name="Finishes" dataDxfId="110"/>
-    <tableColumn id="4" xr3:uid="{972D0347-DAB3-4985-A738-E5D78740D498}" name="Midranges" dataDxfId="109"/>
-    <tableColumn id="5" xr3:uid="{48F5F884-1753-4988-9056-632B5EB6BBCB}" name="Threes" dataDxfId="108"/>
-    <tableColumn id="6" xr3:uid="{6953B627-EA05-418F-A758-FD59263EA60D}" name="Avg P" dataDxfId="107"/>
-    <tableColumn id="7" xr3:uid="{BE057C9C-5ECD-4AC2-A9C0-18C89CFB52BC}" name="Avg F" dataDxfId="106"/>
-    <tableColumn id="8" xr3:uid="{0FDEBEE7-CD5E-4A44-A0AE-74F044F1FF46}" name="Avg M" dataDxfId="105"/>
-    <tableColumn id="9" xr3:uid="{76975BB6-3677-41A8-BC24-7536B1D876D3}" name="Avg T" dataDxfId="104"/>
-    <tableColumn id="10" xr3:uid="{E5ADB69B-3BA2-4019-8C83-8B02221F187E}" name="Missed Games" dataDxfId="103"/>
+    <tableColumn id="1" xr3:uid="{0B0344E8-2677-4FAB-9B03-4745991FB5AE}" name="Scoring" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{58CA1107-8BB4-4A5D-BA00-31619C8D3973}" name="Points" dataDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{8090861E-1FDF-44F4-9DB6-BB814E32C754}" name="Finishes" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{972D0347-DAB3-4985-A738-E5D78740D498}" name="Midranges" dataDxfId="104"/>
+    <tableColumn id="5" xr3:uid="{48F5F884-1753-4988-9056-632B5EB6BBCB}" name="Threes" dataDxfId="103"/>
+    <tableColumn id="6" xr3:uid="{6953B627-EA05-418F-A758-FD59263EA60D}" name="Avg P" dataDxfId="102"/>
+    <tableColumn id="7" xr3:uid="{BE057C9C-5ECD-4AC2-A9C0-18C89CFB52BC}" name="Avg F" dataDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{0FDEBEE7-CD5E-4A44-A0AE-74F044F1FF46}" name="Avg M" dataDxfId="100"/>
+    <tableColumn id="9" xr3:uid="{76975BB6-3677-41A8-BC24-7536B1D876D3}" name="Avg T" dataDxfId="99"/>
+    <tableColumn id="10" xr3:uid="{E5ADB69B-3BA2-4019-8C83-8B02221F187E}" name="Missed Games" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}" name="Table21124" displayName="Table21124" ref="AK48:AT64" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}" name="Table21124" displayName="Table21124" ref="AK48:AT64" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
   <autoFilter ref="AK48:AT64" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3D35891E-3654-497A-8DB2-BF0BD916CA29}" name="Scoring" dataDxfId="100"/>
-    <tableColumn id="2" xr3:uid="{54B5B6AF-372A-4E07-B4D6-DFC66F7E20C5}" name="Points" dataDxfId="99"/>
-    <tableColumn id="3" xr3:uid="{6CA15B41-F560-4B43-8836-163F5BB5689C}" name="Finishes" dataDxfId="98"/>
-    <tableColumn id="4" xr3:uid="{8FF05262-0051-44F7-966E-8D405318BA69}" name="Midranges" dataDxfId="97"/>
-    <tableColumn id="5" xr3:uid="{F0D843FC-7A93-4C9A-BCCF-E789F7811B3B}" name="Threes" dataDxfId="96"/>
-    <tableColumn id="6" xr3:uid="{F0498F8A-F646-4C1F-A3CF-E89E73750FC1}" name="Avg P" dataDxfId="95"/>
-    <tableColumn id="7" xr3:uid="{A387BC88-F45C-4386-8503-EFEA33BDAC38}" name="Avg F" dataDxfId="94"/>
-    <tableColumn id="8" xr3:uid="{BEA82919-0828-4351-A01A-D72E13E63FAB}" name="Avg M" dataDxfId="93"/>
-    <tableColumn id="9" xr3:uid="{ABEBCE01-BCA4-4342-966C-27301889B607}" name="Avg T" dataDxfId="92"/>
-    <tableColumn id="10" xr3:uid="{65E7A8E7-4C51-42E4-AB0F-B7FF6099D70A}" name="Missed Games" dataDxfId="91"/>
+    <tableColumn id="1" xr3:uid="{3D35891E-3654-497A-8DB2-BF0BD916CA29}" name="Scoring" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{54B5B6AF-372A-4E07-B4D6-DFC66F7E20C5}" name="Points" dataDxfId="94"/>
+    <tableColumn id="3" xr3:uid="{6CA15B41-F560-4B43-8836-163F5BB5689C}" name="Finishes" dataDxfId="93"/>
+    <tableColumn id="4" xr3:uid="{8FF05262-0051-44F7-966E-8D405318BA69}" name="Midranges" dataDxfId="92"/>
+    <tableColumn id="5" xr3:uid="{F0D843FC-7A93-4C9A-BCCF-E789F7811B3B}" name="Threes" dataDxfId="91"/>
+    <tableColumn id="6" xr3:uid="{F0498F8A-F646-4C1F-A3CF-E89E73750FC1}" name="Avg P" dataDxfId="90"/>
+    <tableColumn id="7" xr3:uid="{A387BC88-F45C-4386-8503-EFEA33BDAC38}" name="Avg F" dataDxfId="89"/>
+    <tableColumn id="8" xr3:uid="{BEA82919-0828-4351-A01A-D72E13E63FAB}" name="Avg M" dataDxfId="88"/>
+    <tableColumn id="9" xr3:uid="{ABEBCE01-BCA4-4342-966C-27301889B607}" name="Avg T" dataDxfId="87"/>
+    <tableColumn id="10" xr3:uid="{65E7A8E7-4C51-42E4-AB0F-B7FF6099D70A}" name="Missed Games" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}" name="Table21125" displayName="Table21125" ref="AK68:AT84" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}" name="Table21125" displayName="Table21125" ref="AK68:AT84" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
   <autoFilter ref="AK68:AT84" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D144EF14-69FD-4E71-90C7-56F49F45FAE5}" name="Scoring" dataDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{34D1D392-F3E0-4C36-9EED-849D5B1149E6}" name="Points" dataDxfId="87"/>
-    <tableColumn id="3" xr3:uid="{E91D98A2-80BD-4E5C-9036-2FCC8185369F}" name="Finishes" dataDxfId="86"/>
-    <tableColumn id="4" xr3:uid="{D2E5029E-4811-4E9B-9A2D-5F5F8F322B0D}" name="Midranges" dataDxfId="85"/>
-    <tableColumn id="5" xr3:uid="{B3E76CEE-33DA-4B18-8DCE-8EBC7EE592D7}" name="Threes" dataDxfId="84"/>
-    <tableColumn id="6" xr3:uid="{6ABE1879-8018-4498-A9A1-22CF831F0364}" name="Avg P" dataDxfId="83"/>
-    <tableColumn id="7" xr3:uid="{8DA4DD79-8A2A-49E4-996F-C1ACCED3C565}" name="Avg F" dataDxfId="82"/>
-    <tableColumn id="8" xr3:uid="{256EA4BC-BA61-49E2-969F-0786AA9AA6EA}" name="Avg M" dataDxfId="81"/>
-    <tableColumn id="9" xr3:uid="{0E5566B2-99EC-4B03-A074-8705C4EDA484}" name="Avg T" dataDxfId="80"/>
-    <tableColumn id="10" xr3:uid="{3E2357F0-493E-401D-AC75-9AAB260F684E}" name="Missed Games" dataDxfId="79"/>
+    <tableColumn id="1" xr3:uid="{D144EF14-69FD-4E71-90C7-56F49F45FAE5}" name="Scoring" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{34D1D392-F3E0-4C36-9EED-849D5B1149E6}" name="Points" dataDxfId="82"/>
+    <tableColumn id="3" xr3:uid="{E91D98A2-80BD-4E5C-9036-2FCC8185369F}" name="Finishes" dataDxfId="81"/>
+    <tableColumn id="4" xr3:uid="{D2E5029E-4811-4E9B-9A2D-5F5F8F322B0D}" name="Midranges" dataDxfId="80"/>
+    <tableColumn id="5" xr3:uid="{B3E76CEE-33DA-4B18-8DCE-8EBC7EE592D7}" name="Threes" dataDxfId="79"/>
+    <tableColumn id="6" xr3:uid="{6ABE1879-8018-4498-A9A1-22CF831F0364}" name="Avg P" dataDxfId="78"/>
+    <tableColumn id="7" xr3:uid="{8DA4DD79-8A2A-49E4-996F-C1ACCED3C565}" name="Avg F" dataDxfId="77"/>
+    <tableColumn id="8" xr3:uid="{256EA4BC-BA61-49E2-969F-0786AA9AA6EA}" name="Avg M" dataDxfId="76"/>
+    <tableColumn id="9" xr3:uid="{0E5566B2-99EC-4B03-A074-8705C4EDA484}" name="Avg T" dataDxfId="75"/>
+    <tableColumn id="10" xr3:uid="{3E2357F0-493E-401D-AC75-9AAB260F684E}" name="Missed Games" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}" name="Table21126" displayName="Table21126" ref="Z68:AI84" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}" name="Table21126" displayName="Table21126" ref="Z68:AI84" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
   <autoFilter ref="Z68:AI84" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7723929D-65B3-40BB-8FDD-C4533243706C}" name="Scoring" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{EC28DE3D-619E-4930-A3AF-7AD1BE1D4843}" name="Points" dataDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{9537269D-8C1D-42B5-866F-D03CE61A8512}" name="Finishes" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{AC590DDB-BE19-4A14-8B98-1E5E2430AA45}" name="Midranges" dataDxfId="73"/>
-    <tableColumn id="5" xr3:uid="{C96D3ACD-F34D-477E-86DE-4650EE56BC94}" name="Threes" dataDxfId="72"/>
-    <tableColumn id="6" xr3:uid="{A43DE5E9-BB01-49FA-A204-66EE7BAA2E9F}" name="Avg P" dataDxfId="71"/>
-    <tableColumn id="7" xr3:uid="{C75A19FF-6041-45C2-BACB-E347F06B6329}" name="Avg F" dataDxfId="70"/>
-    <tableColumn id="8" xr3:uid="{00D3FCFC-C9C5-4C96-BE0E-8E1FDC95D07C}" name="Avg M" dataDxfId="69"/>
-    <tableColumn id="9" xr3:uid="{0448FF4E-9D2D-47F6-89B7-F17D36B05E8A}" name="Avg T" dataDxfId="68"/>
-    <tableColumn id="10" xr3:uid="{D5BDFA2D-095B-44F8-8567-15B3B1520E5A}" name="Missed Games" dataDxfId="67"/>
+    <tableColumn id="1" xr3:uid="{7723929D-65B3-40BB-8FDD-C4533243706C}" name="Scoring" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{EC28DE3D-619E-4930-A3AF-7AD1BE1D4843}" name="Points" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{9537269D-8C1D-42B5-866F-D03CE61A8512}" name="Finishes" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{AC590DDB-BE19-4A14-8B98-1E5E2430AA45}" name="Midranges" dataDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{C96D3ACD-F34D-477E-86DE-4650EE56BC94}" name="Threes" dataDxfId="67"/>
+    <tableColumn id="6" xr3:uid="{A43DE5E9-BB01-49FA-A204-66EE7BAA2E9F}" name="Avg P" dataDxfId="66"/>
+    <tableColumn id="7" xr3:uid="{C75A19FF-6041-45C2-BACB-E347F06B6329}" name="Avg F" dataDxfId="65"/>
+    <tableColumn id="8" xr3:uid="{00D3FCFC-C9C5-4C96-BE0E-8E1FDC95D07C}" name="Avg M" dataDxfId="64"/>
+    <tableColumn id="9" xr3:uid="{0448FF4E-9D2D-47F6-89B7-F17D36B05E8A}" name="Avg T" dataDxfId="63"/>
+    <tableColumn id="10" xr3:uid="{D5BDFA2D-095B-44F8-8567-15B3B1520E5A}" name="Missed Games" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}" name="Table21127" displayName="Table21127" ref="Z88:AI104" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}" name="Table21127" displayName="Table21127" ref="Z88:AI104" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <autoFilter ref="Z88:AI104" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{9DBD966D-620C-4B97-A502-29D00ABE150B}" name="Scoring" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{F8F81F0E-16B3-4472-9D90-A92149C763E4}" name="Points" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{09859CE1-290D-4977-B02C-46F4E5A6FDC2}" name="Finishes" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{7D751A0E-2895-46DF-B5E2-5A8AA5531CD2}" name="Midranges" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{591CDC71-B0EA-413B-B6C1-77884E7E50D4}" name="Threes" dataDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{52ED768C-5557-42DC-9824-7A4D9B547153}" name="Avg P" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{FC79BE87-72E2-4F5E-83D6-CDCE645EB943}" name="Avg F" dataDxfId="58"/>
-    <tableColumn id="8" xr3:uid="{BA012C22-0D65-4C11-98A7-4F958703D04B}" name="Avg M" dataDxfId="57"/>
-    <tableColumn id="9" xr3:uid="{63344F2B-5D94-417D-85E2-C2BFBACE3E7E}" name="Avg T" dataDxfId="56"/>
-    <tableColumn id="10" xr3:uid="{1AD5A604-8909-45B3-8E43-11D407451CEA}" name="Missed Games" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{9DBD966D-620C-4B97-A502-29D00ABE150B}" name="Scoring" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{F8F81F0E-16B3-4472-9D90-A92149C763E4}" name="Points" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{09859CE1-290D-4977-B02C-46F4E5A6FDC2}" name="Finishes" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{7D751A0E-2895-46DF-B5E2-5A8AA5531CD2}" name="Midranges" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{591CDC71-B0EA-413B-B6C1-77884E7E50D4}" name="Threes" dataDxfId="55"/>
+    <tableColumn id="6" xr3:uid="{52ED768C-5557-42DC-9824-7A4D9B547153}" name="Avg P" dataDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{FC79BE87-72E2-4F5E-83D6-CDCE645EB943}" name="Avg F" dataDxfId="53"/>
+    <tableColumn id="8" xr3:uid="{BA012C22-0D65-4C11-98A7-4F958703D04B}" name="Avg M" dataDxfId="52"/>
+    <tableColumn id="9" xr3:uid="{63344F2B-5D94-417D-85E2-C2BFBACE3E7E}" name="Avg T" dataDxfId="51"/>
+    <tableColumn id="10" xr3:uid="{1AD5A604-8909-45B3-8E43-11D407451CEA}" name="Missed Games" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}" name="Table21128" displayName="Table21128" ref="AK28:AT44" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}" name="Table21128" displayName="Table21128" ref="AK28:AT44" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <autoFilter ref="AK28:AT44" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{E62FBAA0-D6F6-4997-96C9-B6B13FAA9B6E}" name="Scoring" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{0A655F6F-9A21-4167-85B6-B9F7DC2070CA}" name="Points" dataDxfId="51">
+    <tableColumn id="1" xr3:uid="{E62FBAA0-D6F6-4997-96C9-B6B13FAA9B6E}" name="Scoring" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{0A655F6F-9A21-4167-85B6-B9F7DC2070CA}" name="Points" dataDxfId="46">
       <calculatedColumnFormula>Template!AC51</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{460771D3-3BD8-4DA3-AF1B-1A0F98EF1499}" name="Finishes" dataDxfId="50">
+    <tableColumn id="3" xr3:uid="{460771D3-3BD8-4DA3-AF1B-1A0F98EF1499}" name="Finishes" dataDxfId="45">
       <calculatedColumnFormula>Template!AD51</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3C08B2D7-823D-49C3-A627-A5848E664B2F}" name="Midranges" dataDxfId="49">
+    <tableColumn id="4" xr3:uid="{3C08B2D7-823D-49C3-A627-A5848E664B2F}" name="Midranges" dataDxfId="44">
       <calculatedColumnFormula>Template!AE51</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E88F45FB-4C46-4674-86D5-74808E7E5368}" name="Threes" dataDxfId="48">
+    <tableColumn id="5" xr3:uid="{E88F45FB-4C46-4674-86D5-74808E7E5368}" name="Threes" dataDxfId="43">
       <calculatedColumnFormula>Template!AF51</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0C0E8016-1E6E-4F25-9675-4EE061FFD0F7}" name="Avg P" dataDxfId="47">
+    <tableColumn id="6" xr3:uid="{0C0E8016-1E6E-4F25-9675-4EE061FFD0F7}" name="Avg P" dataDxfId="42">
       <calculatedColumnFormula>AL29/#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F7AC350B-AE4B-4912-B21D-16D99E2AE8BF}" name="Avg F" dataDxfId="46">
+    <tableColumn id="7" xr3:uid="{F7AC350B-AE4B-4912-B21D-16D99E2AE8BF}" name="Avg F" dataDxfId="41">
       <calculatedColumnFormula>AM29/#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F451E5CA-B9C4-4EFA-A647-CEDB2FB39550}" name="Avg M" dataDxfId="45">
+    <tableColumn id="8" xr3:uid="{F451E5CA-B9C4-4EFA-A647-CEDB2FB39550}" name="Avg M" dataDxfId="40">
       <calculatedColumnFormula>AN29/#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ED1D92B5-05F1-40CE-A89F-E6627FAB4A59}" name="Avg T" dataDxfId="44">
+    <tableColumn id="9" xr3:uid="{ED1D92B5-05F1-40CE-A89F-E6627FAB4A59}" name="Avg T" dataDxfId="39">
       <calculatedColumnFormula>AO29/#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{48A4808A-3DE6-4644-83F5-C2AEDDFC3E5E}" name="Missed Games" dataDxfId="43">
+    <tableColumn id="10" xr3:uid="{48A4808A-3DE6-4644-83F5-C2AEDDFC3E5E}" name="Missed Games" dataDxfId="38">
       <calculatedColumnFormula>COUNTIF(Template!AG63, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7405,19 +7409,19 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}" name="Table1114" displayName="Table1114" ref="P3:Y8" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}" name="Table1114" displayName="Table1114" ref="P3:Y8" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="P3:Y8" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B3B5C08C-655A-460A-A171-B3B0C826FF04}" name="Name" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{427944B0-44CA-4325-A406-29F83026BA5E}" name="Points" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{5E06D173-4DBE-4045-9072-0A0A77D19C84}" name="Average" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{E74131A4-1DCA-4A89-8989-A4CF80175582}" name="Finishes" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{FC3336D4-2CB5-4673-A345-7C9CCED7ADEE}" name="Averages" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{BD6313A7-5D92-4B66-9B85-7ABC12DE9691}" name="Midranges" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{6D0293BC-7E06-45CE-9D4B-FE4769DF9D9F}" name="Averages2" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{89C1C64B-DD66-482C-BCDE-8B912D2676EF}" name="Threes" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{7748B87C-1833-4BD6-9162-76373407E655}" name="Averages3" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{D870E191-A52F-442E-AA52-A42CFAD05573}" name="Missed Games" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{B3B5C08C-655A-460A-A171-B3B0C826FF04}" name="Name" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{427944B0-44CA-4325-A406-29F83026BA5E}" name="Points" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{5E06D173-4DBE-4045-9072-0A0A77D19C84}" name="Average" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{E74131A4-1DCA-4A89-8989-A4CF80175582}" name="Finishes" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{FC3336D4-2CB5-4673-A345-7C9CCED7ADEE}" name="Averages" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{BD6313A7-5D92-4B66-9B85-7ABC12DE9691}" name="Midranges" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{6D0293BC-7E06-45CE-9D4B-FE4769DF9D9F}" name="Averages2" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{89C1C64B-DD66-482C-BCDE-8B912D2676EF}" name="Threes" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{7748B87C-1833-4BD6-9162-76373407E655}" name="Averages3" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{D870E191-A52F-442E-AA52-A42CFAD05573}" name="Missed Games" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7864,7 +7868,7 @@
       </c>
       <c r="D5" s="5">
         <f>'Stats Global'!AB10</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E5" s="1">
         <f>'Stats Global'!AA10</f>
@@ -7872,7 +7876,7 @@
       </c>
       <c r="F5" s="5">
         <f>'Stats Global'!AD10</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G5" s="1">
         <f>'Stats Global'!AC10</f>
@@ -7930,7 +7934,7 @@
       </c>
       <c r="AE5" t="str">
         <f>'Statistics CT'!G45</f>
-        <v>9,8,1,0,4,2],</v>
+        <v>4.5,4,0.5,0,2,1],</v>
       </c>
     </row>
     <row r="6" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -7942,7 +7946,7 @@
       </c>
       <c r="D6" s="5">
         <f>'Stats Global'!AB11</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <f>'Stats Global'!AA11</f>
@@ -7950,7 +7954,7 @@
       </c>
       <c r="F6" s="5">
         <f>'Stats Global'!AD11</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
         <f>'Stats Global'!AC11</f>
@@ -8029,7 +8033,7 @@
       </c>
       <c r="D7" s="5">
         <f>'Stats Global'!AB12</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E7" s="1">
         <f>'Stats Global'!AA12</f>
@@ -8037,7 +8041,7 @@
       </c>
       <c r="F7" s="5">
         <f>'Stats Global'!AD12</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
         <f>'Stats Global'!AC12</f>
@@ -8045,7 +8049,7 @@
       </c>
       <c r="H7" s="5">
         <f>'Stats Global'!AF12</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I7" s="1">
         <f>'Stats Global'!AE12</f>
@@ -8236,7 +8240,7 @@
       </c>
       <c r="AE9" t="str">
         <f>'Statistics TC'!H45</f>
-        <v>9,1,0,2,2,3],</v>
+        <v>4.5,0.5,0,1,1,1.5],</v>
       </c>
     </row>
     <row r="10" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -8248,7 +8252,7 @@
       </c>
       <c r="D10" s="5">
         <f>'Stats Global'!AB15</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
         <f>'Stats Global'!AA15</f>
@@ -8272,7 +8276,7 @@
       </c>
       <c r="J10" s="5">
         <f>'Stats Global'!AH15</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K10" s="1">
         <f>'Stats Global'!AG15</f>
@@ -8334,7 +8338,7 @@
       </c>
       <c r="D11" s="5">
         <f>'Stats Global'!AB16</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E11" s="1">
         <f>'Stats Global'!AA16</f>
@@ -8342,7 +8346,7 @@
       </c>
       <c r="F11" s="5">
         <f>'Stats Global'!AD16</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G11" s="1">
         <f>'Stats Global'!AC16</f>
@@ -8421,7 +8425,7 @@
       </c>
       <c r="D12" s="5">
         <f>'Stats Global'!AB17</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
         <f>'Stats Global'!AA17</f>
@@ -8429,7 +8433,7 @@
       </c>
       <c r="F12" s="5">
         <f>'Stats Global'!AD17</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1">
         <f>'Stats Global'!AC17</f>
@@ -8490,7 +8494,7 @@
       </c>
       <c r="AE12" t="str">
         <f>'Statistics GM'!H33</f>
-        <v>3,"Michael Iffland",2,"Michael Iffland",1,"N/A",0,"N/A"],</v>
+        <v>3,"Michael Iffland",2,"N/A",1,"N/A",0,"N/A"],</v>
       </c>
     </row>
     <row r="13" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -8502,7 +8506,7 @@
       </c>
       <c r="D13" s="5">
         <f>'Stats Global'!AB18</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E13" s="1">
         <f>'Stats Global'!AA18</f>
@@ -8518,7 +8522,7 @@
       </c>
       <c r="H13" s="5">
         <f>'Stats Global'!AF18</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I13" s="1">
         <f>'Stats Global'!AE18</f>
@@ -8561,7 +8565,7 @@
       </c>
       <c r="AE13" t="str">
         <f>'Statistics GM'!H34</f>
-        <v>6,5,1,0,2,3],</v>
+        <v>3,2.5,0.5,0,1,1.5],</v>
       </c>
     </row>
     <row r="14" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -8657,7 +8661,7 @@
       </c>
       <c r="D15" s="5">
         <f>'Stats Global'!AB20</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E15" s="1">
         <f>'Stats Global'!AA20</f>
@@ -8665,7 +8669,7 @@
       </c>
       <c r="F15" s="5">
         <f>'Stats Global'!AD20</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G15" s="1">
         <f>'Stats Global'!AC20</f>
@@ -8734,7 +8738,7 @@
       </c>
       <c r="D16" s="5">
         <f>'Stats Global'!AB21</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
         <f>'Stats Global'!AA21</f>
@@ -8758,7 +8762,7 @@
       </c>
       <c r="J16" s="5">
         <f>'Stats Global'!AH21</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K16" s="1">
         <f>'Stats Global'!AG21</f>
@@ -8817,7 +8821,7 @@
       </c>
       <c r="D17" s="5">
         <f>'Stats Global'!AB22</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E17" s="1">
         <f>'Stats Global'!AA22</f>
@@ -8825,7 +8829,7 @@
       </c>
       <c r="F17" s="5">
         <f>'Stats Global'!AD22</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17" s="1">
         <f>'Stats Global'!AC22</f>
@@ -8849,7 +8853,7 @@
       </c>
       <c r="L17" s="13">
         <f>'Stats Global'!AJ23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>58</v>
@@ -8959,7 +8963,7 @@
       </c>
       <c r="AD19" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>"PartCCT":[9,8,1,0,4,2],</v>
+        <v>"PartCCT":[4.5,4,0.5,0,2,1],</v>
       </c>
     </row>
     <row r="20" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -8986,10 +8990,10 @@
       </c>
     </row>
     <row r="22" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="B22" s="132" t="s">
+      <c r="B22" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="132"/>
+      <c r="C22" s="133"/>
       <c r="D22" s="64"/>
       <c r="Y22" s="1" t="s">
         <v>103</v>
@@ -9000,15 +9004,15 @@
       </c>
     </row>
     <row r="23" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="B23" s="132"/>
-      <c r="C23" s="132"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="133"/>
       <c r="D23" s="64"/>
       <c r="Y23" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AD23" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>"PartCTC":[9,1,0,2,2,3],</v>
+        <v>"PartCTC":[4.5,0.5,0,1,1,1.5],</v>
       </c>
     </row>
     <row r="24" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
@@ -9050,17 +9054,17 @@
       <c r="Y26" s="1"/>
       <c r="AD26" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>"PartBGM":[3,"Michael Iffland",2,"Michael Iffland",1,"N/A",0,"N/A"],</v>
+        <v>"PartBGM":[3,"Michael Iffland",2,"N/A",1,"N/A",0,"N/A"],</v>
       </c>
     </row>
     <row r="27" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="115" t="str">
         <f>D49&amp;":["&amp;D50&amp;D51&amp;D52&amp;D53&amp;D54&amp;D55&amp;D56&amp;D57&amp;D58&amp;D59&amp;D60&amp;D61&amp;D62&amp;D63&amp;D64&amp;D65&amp;"],"</f>
-        <v>"PPG":[0,0,5,2,3,0,0,2,1,2,1,0,1,2,1,"0"],</v>
+        <v>"PPG":[0,0,2.5,1,1.5,0,0,1,0.5,1,0.5,0,0.5,1,0.5,"0"],</v>
       </c>
       <c r="AD27" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>"PartCGM":[6,5,1,0,2,3],</v>
+        <v>"PartCGM":[3,2.5,0.5,0,1,1.5],</v>
       </c>
     </row>
     <row r="28" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -9076,7 +9080,7 @@
     <row r="29" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="10" t="str">
         <f>F49&amp;":["&amp;F50&amp;F51&amp;F52&amp;F53&amp;F54&amp;F55&amp;F56&amp;F57&amp;F58&amp;F59&amp;F60&amp;F61&amp;F62&amp;F63&amp;F64&amp;F65&amp;"],"</f>
-        <v>"FPG":[0,0,5,2,2,0,0,0,1,2,0,0,1,0,1,"0"],</v>
+        <v>"FPG":[0,0,2.5,1,1,0,0,0,0.5,1,0,0,0.5,0,0.5,"0"],</v>
       </c>
     </row>
     <row r="30" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -9088,7 +9092,7 @@
     <row r="31" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="10" t="str">
         <f>H49&amp;":["&amp;H50&amp;H51&amp;H52&amp;H53&amp;H54&amp;H55&amp;H56&amp;H57&amp;H58&amp;H59&amp;H60&amp;H61&amp;H62&amp;H63&amp;H64&amp;H65&amp;"],"</f>
-        <v>"MPG":[0,0,0,0,1,0,0,0,0,0,1,0,0,0,0,"0"],</v>
+        <v>"MPG":[0,0,0,0,0.5,0,0,0,0,0,0.5,0,0,0,0,"0"],</v>
       </c>
     </row>
     <row r="32" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -9100,7 +9104,7 @@
     <row r="33" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="10" t="str">
         <f>J49&amp;":["&amp;J50&amp;J51&amp;J52&amp;J53&amp;J54&amp;J55&amp;J56&amp;J57&amp;J58&amp;J59&amp;J60&amp;J61&amp;J62&amp;J63&amp;J64&amp;J65&amp;"],"</f>
-        <v>"TPG":[0,0,0,0,0,0,0,1,0,0,0,0,0,1,0,"0"],</v>
+        <v>"TPG":[0,0,0,0,0,0,0,0.5,0,0,0,0,0,0.5,0,"0"],</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -9112,7 +9116,7 @@
     <row r="35" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="10" t="str">
         <f>L49&amp;":["&amp;L50&amp;L51&amp;L52&amp;L53&amp;L54&amp;L55&amp;L56&amp;L57&amp;L58&amp;L59&amp;L60&amp;L61&amp;L62&amp;L63&amp;L64&amp;L65&amp;"],"</f>
-        <v>"Missed":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,"0"],</v>
+        <v>"Missed":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,1,"0"],</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -9466,7 +9470,7 @@
       </c>
       <c r="D52" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>5,</v>
+        <v>2.5,</v>
       </c>
       <c r="E52" s="12" t="str">
         <f t="shared" si="7"/>
@@ -9474,7 +9478,7 @@
       </c>
       <c r="F52" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>5,</v>
+        <v>2.5,</v>
       </c>
       <c r="G52" s="12" t="str">
         <f t="shared" si="9"/>
@@ -9556,7 +9560,7 @@
       </c>
       <c r="D53" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>2,</v>
+        <v>1,</v>
       </c>
       <c r="E53" s="12" t="str">
         <f t="shared" si="7"/>
@@ -9564,7 +9568,7 @@
       </c>
       <c r="F53" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>2,</v>
+        <v>1,</v>
       </c>
       <c r="G53" s="12" t="str">
         <f t="shared" si="9"/>
@@ -9646,7 +9650,7 @@
       </c>
       <c r="D54" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>3,</v>
+        <v>1.5,</v>
       </c>
       <c r="E54" s="12" t="str">
         <f t="shared" si="7"/>
@@ -9654,7 +9658,7 @@
       </c>
       <c r="F54" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>2,</v>
+        <v>1,</v>
       </c>
       <c r="G54" s="12" t="str">
         <f t="shared" si="9"/>
@@ -9662,7 +9666,7 @@
       </c>
       <c r="H54" s="12" t="str">
         <f t="shared" si="10"/>
-        <v>1,</v>
+        <v>0.5,</v>
       </c>
       <c r="I54" s="12" t="str">
         <f t="shared" si="11"/>
@@ -9916,7 +9920,7 @@
       </c>
       <c r="D57" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>2,</v>
+        <v>1,</v>
       </c>
       <c r="E57" s="12" t="str">
         <f t="shared" si="7"/>
@@ -9940,7 +9944,7 @@
       </c>
       <c r="J57" s="12" t="str">
         <f t="shared" si="12"/>
-        <v>1,</v>
+        <v>0.5,</v>
       </c>
       <c r="K57" s="12" t="str">
         <f t="shared" si="13"/>
@@ -10006,7 +10010,7 @@
       </c>
       <c r="D58" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>1,</v>
+        <v>0.5,</v>
       </c>
       <c r="E58" s="12" t="str">
         <f t="shared" si="7"/>
@@ -10014,7 +10018,7 @@
       </c>
       <c r="F58" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1,</v>
+        <v>0.5,</v>
       </c>
       <c r="G58" s="12" t="str">
         <f t="shared" si="9"/>
@@ -10096,7 +10100,7 @@
       </c>
       <c r="D59" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>2,</v>
+        <v>1,</v>
       </c>
       <c r="E59" s="12" t="str">
         <f t="shared" si="7"/>
@@ -10104,7 +10108,7 @@
       </c>
       <c r="F59" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>2,</v>
+        <v>1,</v>
       </c>
       <c r="G59" s="12" t="str">
         <f t="shared" si="9"/>
@@ -10186,7 +10190,7 @@
       </c>
       <c r="D60" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>1,</v>
+        <v>0.5,</v>
       </c>
       <c r="E60" s="12" t="str">
         <f t="shared" si="7"/>
@@ -10202,7 +10206,7 @@
       </c>
       <c r="H60" s="12" t="str">
         <f t="shared" si="10"/>
-        <v>1,</v>
+        <v>0.5,</v>
       </c>
       <c r="I60" s="12" t="str">
         <f t="shared" si="11"/>
@@ -10366,7 +10370,7 @@
       </c>
       <c r="D62" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>1,</v>
+        <v>0.5,</v>
       </c>
       <c r="E62" s="12" t="str">
         <f t="shared" si="7"/>
@@ -10374,7 +10378,7 @@
       </c>
       <c r="F62" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1,</v>
+        <v>0.5,</v>
       </c>
       <c r="G62" s="12" t="str">
         <f t="shared" si="9"/>
@@ -10456,7 +10460,7 @@
       </c>
       <c r="D63" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>2,</v>
+        <v>1,</v>
       </c>
       <c r="E63" s="12" t="str">
         <f t="shared" si="7"/>
@@ -10480,7 +10484,7 @@
       </c>
       <c r="J63" s="12" t="str">
         <f t="shared" si="12"/>
-        <v>1,</v>
+        <v>0.5,</v>
       </c>
       <c r="K63" s="12" t="str">
         <f t="shared" ref="K63:L63" si="35">K16&amp;","</f>
@@ -10546,7 +10550,7 @@
       </c>
       <c r="D64" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>1,</v>
+        <v>0.5,</v>
       </c>
       <c r="E64" s="12" t="str">
         <f t="shared" si="7"/>
@@ -10554,7 +10558,7 @@
       </c>
       <c r="F64" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1,</v>
+        <v>0.5,</v>
       </c>
       <c r="G64" s="12" t="str">
         <f t="shared" si="9"/>
@@ -10578,7 +10582,7 @@
       </c>
       <c r="L64" s="12" t="str">
         <f t="shared" si="38"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="M64" s="12" t="str">
         <f t="shared" si="32"/>
@@ -11690,8 +11694,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:BC1000"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="W7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="U2" zoomScale="61" workbookViewId="0">
+      <selection activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -11785,7 +11789,7 @@
       </c>
       <c r="AA4" s="79">
         <f>AA6/(20-AA5)</f>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -11876,44 +11880,92 @@
       <c r="AT5" s="40"/>
     </row>
     <row r="6" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
+      <c r="B6" s="74" t="str">
+        <f>'2501'!C45</f>
+        <v>25 January</v>
+      </c>
+      <c r="C6" s="74">
+        <f>'2501'!D45</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="74">
+        <f>'2501'!E45</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="74">
+        <f>'2501'!F45</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="74">
+        <f>'2501'!G45</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="74">
+        <f>'2501'!H45</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="74">
+        <f>'2501'!I45</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="74">
+        <f>'2501'!J45</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="74">
+        <f>'2501'!K45</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="74">
+        <f>'2501'!L45</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="74">
+        <f>'2501'!M45</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="74">
+        <f>'2501'!N45</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="74">
+        <f>'2501'!O45</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="74">
+        <f>'2501'!P45</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="74">
+        <f>'2501'!Q45</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="74">
+        <f>'2501'!R45</f>
+        <v>0</v>
+      </c>
       <c r="S6" s="3">
         <f>SUM(C5:E40)/COUNT(C5:C40)</f>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="T6" s="113">
         <f>AVERAGE(C5:C40)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U6" s="113">
         <f>AVERAGE(D5:D40)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="V6" s="113">
         <f>AVERAGE(E5:E40)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="48" t="s">
         <v>134</v>
       </c>
       <c r="AA6" s="6">
         <f>AA47+AA67+AA27+AL47+AL67+AA87+AL27</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK6" s="10"/>
       <c r="AL6" s="10"/>
@@ -12092,11 +12144,11 @@
       </c>
       <c r="AM8" s="77">
         <f>AVERAGE(Table1[Average])</f>
-        <v>1.25</v>
+        <v>0.625</v>
       </c>
       <c r="AN8" s="77">
         <f>MEDIAN(Table1[Average])</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO8" s="23"/>
       <c r="AP8" s="13">
@@ -12254,7 +12306,7 @@
       </c>
       <c r="AB10" s="45">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="AC10" s="46">
         <f t="shared" si="1"/>
@@ -12262,7 +12314,7 @@
       </c>
       <c r="AD10" s="43">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="AE10" s="46">
         <f t="shared" si="2"/>
@@ -12319,11 +12371,11 @@
       </c>
       <c r="AT10" s="92">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R10</f>
-        <v>1.8571428571428572</v>
+        <v>-0.64285714285714279</v>
       </c>
       <c r="AU10" s="20">
         <f>(Table1[[#This Row],[Average]]-'[1]Stats Global'!R10)/'[1]Stats Global'!R10</f>
-        <v>0.59090909090909094</v>
+        <v>-0.20454545454545453</v>
       </c>
       <c r="AW10" s="1"/>
     </row>
@@ -12355,7 +12407,7 @@
       </c>
       <c r="AB11" s="45">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC11" s="46">
         <f t="shared" si="1"/>
@@ -12363,7 +12415,7 @@
       </c>
       <c r="AD11" s="43">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE11" s="46">
         <f t="shared" si="2"/>
@@ -12420,11 +12472,11 @@
       </c>
       <c r="AT11" s="92">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R11</f>
-        <v>-0.8125</v>
+        <v>-1.8125</v>
       </c>
       <c r="AU11" s="20">
         <f>(Table1[[#This Row],[Average]]-'[1]Stats Global'!R11)/'[1]Stats Global'!R11</f>
-        <v>-0.28888888888888886</v>
+        <v>-0.64444444444444449</v>
       </c>
       <c r="AW11" s="1"/>
     </row>
@@ -12456,7 +12508,7 @@
       </c>
       <c r="AB12" s="45">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AC12" s="46">
         <f t="shared" si="1"/>
@@ -12464,7 +12516,7 @@
       </c>
       <c r="AD12" s="43">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE12" s="46">
         <f t="shared" si="2"/>
@@ -12472,7 +12524,7 @@
       </c>
       <c r="AF12" s="43">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AG12" s="46">
         <f t="shared" si="3"/>
@@ -12512,11 +12564,11 @@
       </c>
       <c r="AT12" s="92">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R12</f>
-        <v>0.9411764705882355</v>
+        <v>-0.5588235294117645</v>
       </c>
       <c r="AU12" s="20">
         <f>(Table1[[#This Row],[Average]]-'[1]Stats Global'!R12)/'[1]Stats Global'!R12</f>
-        <v>0.4571428571428573</v>
+        <v>-0.27142857142857135</v>
       </c>
       <c r="AW12" s="1"/>
     </row>
@@ -12731,7 +12783,7 @@
       </c>
       <c r="AB15" s="99">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC15" s="100">
         <f t="shared" si="1"/>
@@ -12755,7 +12807,7 @@
       </c>
       <c r="AH15" s="97">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AI15" s="97" t="str">
         <f>SfW!C10</f>
@@ -12787,11 +12839,11 @@
       </c>
       <c r="AT15" s="92">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R14</f>
-        <v>0.41176470588235303</v>
+        <v>-0.58823529411764697</v>
       </c>
       <c r="AU15" s="20">
         <f>(Table1[[#This Row],[Average]]-'[1]Stats Global'!R14)/'[1]Stats Global'!R14</f>
-        <v>0.25925925925925936</v>
+        <v>-0.37037037037037035</v>
       </c>
       <c r="AW15" s="1"/>
     </row>
@@ -12823,7 +12875,7 @@
       </c>
       <c r="AB16" s="45">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC16" s="46">
         <f t="shared" si="1"/>
@@ -12831,7 +12883,7 @@
       </c>
       <c r="AD16" s="43">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE16" s="46">
         <f t="shared" si="2"/>
@@ -12879,11 +12931,11 @@
       </c>
       <c r="AT16" s="92">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R15</f>
-        <v>-0.41176470588235303</v>
+        <v>-0.91176470588235303</v>
       </c>
       <c r="AU16" s="20">
         <f>(Table1[[#This Row],[Average]]-'[1]Stats Global'!R15)/'[1]Stats Global'!R15</f>
-        <v>-0.29166666666666669</v>
+        <v>-0.64583333333333337</v>
       </c>
       <c r="AW16" s="1"/>
     </row>
@@ -12914,7 +12966,7 @@
       </c>
       <c r="AB17" s="45">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC17" s="46">
         <f t="shared" si="1"/>
@@ -12922,7 +12974,7 @@
       </c>
       <c r="AD17" s="43">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" s="46">
         <f t="shared" si="2"/>
@@ -12970,11 +13022,11 @@
       </c>
       <c r="AT17" s="92">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R16</f>
-        <v>-0.53333333333333321</v>
+        <v>-1.5333333333333332</v>
       </c>
       <c r="AU17" s="20">
         <f>(Table1[[#This Row],[Average]]-'[1]Stats Global'!R16)/'[1]Stats Global'!R16</f>
-        <v>-0.21052631578947364</v>
+        <v>-0.60526315789473684</v>
       </c>
       <c r="AW17" s="1"/>
     </row>
@@ -13005,7 +13057,7 @@
       </c>
       <c r="AB18" s="99">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC18" s="100">
         <f t="shared" si="1"/>
@@ -13021,7 +13073,7 @@
       </c>
       <c r="AF18" s="97">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AG18" s="100">
         <f t="shared" si="3"/>
@@ -13061,11 +13113,11 @@
       </c>
       <c r="AT18" s="92">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R17</f>
-        <v>0.125</v>
+        <v>-0.375</v>
       </c>
       <c r="AU18" s="20">
         <f>(Table1[[#This Row],[Average]]-'[1]Stats Global'!R17)/'[1]Stats Global'!R17</f>
-        <v>0.14285714285714285</v>
+        <v>-0.42857142857142855</v>
       </c>
       <c r="AW18" s="1"/>
     </row>
@@ -13128,7 +13180,7 @@
       </c>
       <c r="AJ19" s="101">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK19" s="42"/>
       <c r="AL19" s="42"/>
@@ -13183,7 +13235,7 @@
       </c>
       <c r="AB20" s="99">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC20" s="100">
         <f t="shared" si="1"/>
@@ -13191,7 +13243,7 @@
       </c>
       <c r="AD20" s="97">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE20" s="100">
         <f t="shared" si="2"/>
@@ -13239,11 +13291,11 @@
       </c>
       <c r="AT20" s="92">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R18</f>
-        <v>-6.6666666666666652E-2</v>
+        <v>-0.56666666666666665</v>
       </c>
       <c r="AU20" s="20">
         <f>(Table1[[#This Row],[Average]]-'[1]Stats Global'!R18)/'[1]Stats Global'!R18</f>
-        <v>-6.2499999999999986E-2</v>
+        <v>-0.53125</v>
       </c>
       <c r="AW20" s="1"/>
     </row>
@@ -13274,7 +13326,7 @@
       </c>
       <c r="AB21" s="99">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC21" s="100">
         <f t="shared" si="1"/>
@@ -13298,7 +13350,7 @@
       </c>
       <c r="AH21" s="97">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AI21" s="43" t="str">
         <f>SfW!C16</f>
@@ -13330,11 +13382,11 @@
       </c>
       <c r="AT21" s="92">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R19</f>
-        <v>0.94117647058823528</v>
+        <v>-5.8823529411764719E-2</v>
       </c>
       <c r="AU21" s="20">
         <f>(Table1[[#This Row],[Average]]-'[1]Stats Global'!R19)/'[1]Stats Global'!R19</f>
-        <v>0.88888888888888884</v>
+        <v>-5.5555555555555566E-2</v>
       </c>
       <c r="AW21" s="1"/>
     </row>
@@ -13365,7 +13417,7 @@
       </c>
       <c r="AB22" s="45">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC22" s="46">
         <f t="shared" si="1"/>
@@ -13373,7 +13425,7 @@
       </c>
       <c r="AD22" s="72">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE22" s="46">
         <f t="shared" si="2"/>
@@ -13421,11 +13473,11 @@
       </c>
       <c r="AT22" s="92">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R20</f>
-        <v>-1.4285714285714284</v>
+        <v>-1.9285714285714284</v>
       </c>
       <c r="AU22" s="20">
         <f>(Table1[[#This Row],[Average]]-'[1]Stats Global'!R20)/'[1]Stats Global'!R20</f>
-        <v>-0.58823529411764708</v>
+        <v>-0.79411764705882348</v>
       </c>
       <c r="AW22" s="1"/>
     </row>
@@ -13488,7 +13540,7 @@
       </c>
       <c r="AJ23" s="101">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK23" s="42"/>
       <c r="AL23" s="42"/>
@@ -13618,7 +13670,7 @@
         <v>101</v>
       </c>
       <c r="AA27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI27" s="2"/>
       <c r="AK27" s="1" t="s">
@@ -13744,19 +13796,19 @@
         <v>25</v>
       </c>
       <c r="AA29" s="22">
-        <f>'2401'!T3</f>
+        <f>'2401'!T3+'2501'!T3</f>
         <v>0</v>
       </c>
       <c r="AB29" s="22">
-        <f>'2401'!U3</f>
+        <f>'2401'!U3+'2501'!U3</f>
         <v>0</v>
       </c>
       <c r="AC29" s="22">
-        <f>'2401'!V3</f>
+        <f>'2401'!V3+'2501'!V3</f>
         <v>0</v>
       </c>
       <c r="AD29" s="22">
-        <f>'2401'!W3</f>
+        <f>'2401'!W3+'2501'!W3</f>
         <v>0</v>
       </c>
       <c r="AE29" s="6">
@@ -13776,7 +13828,7 @@
         <v>0</v>
       </c>
       <c r="AI29" s="22">
-        <f>COUNTIF('2401'!X3, TRUE)</f>
+        <f>COUNTIF('2401'!X3, TRUE)+COUNTIF('2501'!X3, TRUE)</f>
         <v>0</v>
       </c>
       <c r="AK29" s="1" t="s">
@@ -13817,19 +13869,19 @@
         <v>26</v>
       </c>
       <c r="AA30" s="22">
-        <f>'2401'!T4</f>
+        <f>'2401'!T4+'2501'!T4</f>
         <v>0</v>
       </c>
       <c r="AB30" s="22">
-        <f>'2401'!U4</f>
+        <f>'2401'!U4+'2501'!U4</f>
         <v>0</v>
       </c>
       <c r="AC30" s="22">
-        <f>'2401'!V4</f>
+        <f>'2401'!V4+'2501'!V4</f>
         <v>0</v>
       </c>
       <c r="AD30" s="22">
-        <f>'2401'!W4</f>
+        <f>'2401'!W4+'2501'!W4</f>
         <v>0</v>
       </c>
       <c r="AE30" s="6">
@@ -13849,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="AI30" s="22">
-        <f>COUNT('2401'!X4)</f>
+        <f>COUNTIF('2401'!X4, TRUE)+COUNTIF('2501'!X4, TRUE)</f>
         <v>0</v>
       </c>
       <c r="AK30" s="1" t="s">
@@ -13890,28 +13942,28 @@
         <v>27</v>
       </c>
       <c r="AA31" s="22">
-        <f>'2401'!T5</f>
+        <f>'2401'!T5+'2501'!T5</f>
         <v>5</v>
       </c>
       <c r="AB31" s="22">
-        <f>'2401'!U5</f>
+        <f>'2401'!U5+'2501'!U5</f>
         <v>5</v>
       </c>
       <c r="AC31" s="22">
-        <f>'2401'!V5</f>
+        <f>'2401'!V5+'2501'!V5</f>
         <v>0</v>
       </c>
       <c r="AD31" s="22">
-        <f>'2401'!W5</f>
+        <f>'2401'!W5+'2501'!W5</f>
         <v>0</v>
       </c>
       <c r="AE31" s="6">
         <f>Table211[[#This Row],[Points]]/($AA$27-$AI31)</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="AF31" s="6">
         <f>Table211[[#This Row],[Finishes]]/($AA$27-$AI31)</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="AG31" s="6">
         <f>Table211[[#This Row],[Midranges]]/($AA$27-$AI31)</f>
@@ -13922,7 +13974,7 @@
         <v>0</v>
       </c>
       <c r="AI31" s="22">
-        <f>COUNT('2401'!X5)</f>
+        <f>COUNTIF('2401'!X5, TRUE)+COUNTIF('2501'!X5, TRUE)</f>
         <v>0</v>
       </c>
       <c r="AK31" s="1" t="s">
@@ -13963,28 +14015,28 @@
         <v>30</v>
       </c>
       <c r="AA32" s="22">
-        <f>'2401'!T6</f>
+        <f>'2401'!T6+'2501'!T6</f>
         <v>2</v>
       </c>
       <c r="AB32" s="22">
-        <f>'2401'!U6</f>
+        <f>'2401'!U6+'2501'!U6</f>
         <v>2</v>
       </c>
       <c r="AC32" s="22">
-        <f>'2401'!V6</f>
+        <f>'2401'!V6+'2501'!V6</f>
         <v>0</v>
       </c>
       <c r="AD32" s="22">
-        <f>'2401'!W6</f>
+        <f>'2401'!W6+'2501'!W6</f>
         <v>0</v>
       </c>
       <c r="AE32" s="6">
         <f>Table211[[#This Row],[Points]]/($AA$27-$AI32)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF32" s="6">
         <f>Table211[[#This Row],[Finishes]]/($AA$27-$AI32)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG32" s="6">
         <f>Table211[[#This Row],[Midranges]]/($AA$27-$AI32)</f>
@@ -13995,7 +14047,7 @@
         <v>0</v>
       </c>
       <c r="AI32" s="22">
-        <f>COUNT('2401'!X6)</f>
+        <f>COUNTIF('2401'!X6, TRUE)+COUNTIF('2501'!X6, TRUE)</f>
         <v>0</v>
       </c>
       <c r="AK32" s="1" t="s">
@@ -14035,39 +14087,39 @@
         <v>32</v>
       </c>
       <c r="AA33" s="22">
-        <f>'2401'!T7</f>
+        <f>'2401'!T7+'2501'!T7</f>
         <v>3</v>
       </c>
       <c r="AB33" s="22">
-        <f>'2401'!U7</f>
+        <f>'2401'!U7+'2501'!U7</f>
         <v>2</v>
       </c>
       <c r="AC33" s="22">
-        <f>'2401'!V7</f>
+        <f>'2401'!V7+'2501'!V7</f>
         <v>1</v>
       </c>
       <c r="AD33" s="22">
-        <f>'2401'!W7</f>
+        <f>'2401'!W7+'2501'!W7</f>
         <v>0</v>
       </c>
       <c r="AE33" s="6">
         <f>Table211[[#This Row],[Points]]/($AA$27-$AI33)</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AF33" s="6">
         <f>Table211[[#This Row],[Finishes]]/($AA$27-$AI33)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG33" s="6">
         <f>Table211[[#This Row],[Midranges]]/($AA$27-$AI33)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH33" s="6">
         <f>Table211[[#This Row],[Threes]]/($AA$27-$AI33)</f>
         <v>0</v>
       </c>
       <c r="AI33" s="22">
-        <f>COUNT('2401'!X7)</f>
+        <f>COUNTIF('2401'!X7, TRUE)+COUNTIF('2501'!X7, TRUE)</f>
         <v>0</v>
       </c>
       <c r="AK33" s="1" t="s">
@@ -14107,19 +14159,19 @@
         <v>37</v>
       </c>
       <c r="AA34" s="22">
-        <f>'2401'!T8</f>
+        <f>'2401'!T8+'2501'!T8</f>
         <v>0</v>
       </c>
       <c r="AB34" s="22">
-        <f>'2401'!U8</f>
+        <f>'2401'!U8+'2501'!U8</f>
         <v>0</v>
       </c>
       <c r="AC34" s="22">
-        <f>'2401'!V8</f>
+        <f>'2401'!V8+'2501'!V8</f>
         <v>0</v>
       </c>
       <c r="AD34" s="22">
-        <f>'2401'!W8</f>
+        <f>'2401'!W8+'2501'!W8</f>
         <v>0</v>
       </c>
       <c r="AE34" s="6">
@@ -14139,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="AI34" s="22">
-        <f>COUNT('2401'!X8)</f>
+        <f>COUNTIF('2401'!X8, TRUE)+COUNTIF('2501'!X8, TRUE)</f>
         <v>0</v>
       </c>
       <c r="AK34" s="1" t="s">
@@ -14179,19 +14231,19 @@
         <v>91</v>
       </c>
       <c r="AA35" s="22">
-        <f>'2401'!T9</f>
+        <f>'2401'!T9+'2501'!T9</f>
         <v>0</v>
       </c>
       <c r="AB35" s="22">
-        <f>'2401'!U9</f>
+        <f>'2401'!U9+'2501'!U9</f>
         <v>0</v>
       </c>
       <c r="AC35" s="22">
-        <f>'2401'!V9</f>
+        <f>'2401'!V9+'2501'!V9</f>
         <v>0</v>
       </c>
       <c r="AD35" s="22">
-        <f>'2401'!W9</f>
+        <f>'2401'!W9+'2501'!W9</f>
         <v>0</v>
       </c>
       <c r="AE35" s="6">
@@ -14211,7 +14263,7 @@
         <v>0</v>
       </c>
       <c r="AI35" s="22">
-        <f>COUNT('2401'!X9)</f>
+        <f>COUNTIF('2401'!X9, TRUE)+COUNTIF('2501'!X9, TRUE)</f>
         <v>0</v>
       </c>
       <c r="AK35" t="s">
@@ -14251,24 +14303,24 @@
         <v>39</v>
       </c>
       <c r="AA36" s="22">
-        <f>'2401'!T10</f>
+        <f>'2401'!T10+'2501'!T10</f>
         <v>2</v>
       </c>
       <c r="AB36" s="22">
-        <f>'2401'!U10</f>
+        <f>'2401'!U10+'2501'!U10</f>
         <v>0</v>
       </c>
       <c r="AC36" s="22">
-        <f>'2401'!V10</f>
+        <f>'2401'!V10+'2501'!V10</f>
         <v>0</v>
       </c>
       <c r="AD36" s="22">
-        <f>'2401'!W10</f>
+        <f>'2401'!W10+'2501'!W10</f>
         <v>1</v>
       </c>
       <c r="AE36" s="6">
         <f>Table211[[#This Row],[Points]]/($AA$27-$AI36)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF36" s="6">
         <f>Table211[[#This Row],[Finishes]]/($AA$27-$AI36)</f>
@@ -14280,10 +14332,10 @@
       </c>
       <c r="AH36" s="6">
         <f>Table211[[#This Row],[Threes]]/($AA$27-$AI36)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AI36" s="22">
-        <f>COUNT('2401'!X10)</f>
+        <f>COUNTIF('2401'!X10, TRUE)+COUNTIF('2501'!X10, TRUE)</f>
         <v>0</v>
       </c>
       <c r="AK36" s="1" t="s">
@@ -14320,28 +14372,28 @@
         <v>41</v>
       </c>
       <c r="AA37" s="22">
-        <f>'2401'!T11</f>
+        <f>'2401'!T11+'2501'!T11</f>
         <v>1</v>
       </c>
       <c r="AB37" s="22">
-        <f>'2401'!U11</f>
+        <f>'2401'!U11+'2501'!U11</f>
         <v>1</v>
       </c>
       <c r="AC37" s="22">
-        <f>'2401'!V11</f>
+        <f>'2401'!V11+'2501'!V11</f>
         <v>0</v>
       </c>
       <c r="AD37" s="22">
-        <f>'2401'!W11</f>
+        <f>'2401'!W11+'2501'!W11</f>
         <v>0</v>
       </c>
       <c r="AE37" s="6">
         <f>Table211[[#This Row],[Points]]/($AA$27-$AI37)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AF37" s="6">
         <f>Table211[[#This Row],[Finishes]]/($AA$27-$AI37)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AG37" s="6">
         <f>Table211[[#This Row],[Midranges]]/($AA$27-$AI37)</f>
@@ -14352,7 +14404,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="22">
-        <f>COUNT('2401'!X11)</f>
+        <f>COUNTIF('2401'!X11, TRUE)+COUNTIF('2501'!X11, TRUE)</f>
         <v>0</v>
       </c>
       <c r="AK37" s="1" t="s">
@@ -14389,28 +14441,28 @@
         <v>44</v>
       </c>
       <c r="AA38" s="22">
-        <f>'2401'!T12</f>
+        <f>'2401'!T12+'2501'!T12</f>
         <v>2</v>
       </c>
       <c r="AB38" s="22">
-        <f>'2401'!U12</f>
+        <f>'2401'!U12+'2501'!U12</f>
         <v>2</v>
       </c>
       <c r="AC38" s="22">
-        <f>'2401'!V12</f>
+        <f>'2401'!V12+'2501'!V12</f>
         <v>0</v>
       </c>
       <c r="AD38" s="22">
-        <f>'2401'!W12</f>
+        <f>'2401'!W12+'2501'!W12</f>
         <v>0</v>
       </c>
       <c r="AE38" s="6">
         <f>Table211[[#This Row],[Points]]/($AA$27-$AI38)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF38" s="6">
         <f>Table211[[#This Row],[Finishes]]/($AA$27-$AI38)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG38" s="6">
         <f>Table211[[#This Row],[Midranges]]/($AA$27-$AI38)</f>
@@ -14421,7 +14473,7 @@
         <v>0</v>
       </c>
       <c r="AI38" s="22">
-        <f>COUNT('2401'!X12)</f>
+        <f>COUNTIF('2401'!X12, TRUE)+COUNTIF('2501'!X12, TRUE)</f>
         <v>0</v>
       </c>
       <c r="AK38" s="1" t="s">
@@ -14458,24 +14510,24 @@
         <v>46</v>
       </c>
       <c r="AA39" s="22">
-        <f>'2401'!T13</f>
+        <f>'2401'!T13+'2501'!T13</f>
         <v>1</v>
       </c>
       <c r="AB39" s="22">
-        <f>'2401'!U13</f>
+        <f>'2401'!U13+'2501'!U13</f>
         <v>0</v>
       </c>
       <c r="AC39" s="22">
-        <f>'2401'!V13</f>
+        <f>'2401'!V13+'2501'!V13</f>
         <v>1</v>
       </c>
       <c r="AD39" s="22">
-        <f>'2401'!W13</f>
+        <f>'2401'!W13+'2501'!W13</f>
         <v>0</v>
       </c>
       <c r="AE39" s="6">
         <f>Table211[[#This Row],[Points]]/($AA$27-$AI39)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AF39" s="6">
         <f>Table211[[#This Row],[Finishes]]/($AA$27-$AI39)</f>
@@ -14483,14 +14535,14 @@
       </c>
       <c r="AG39" s="6">
         <f>Table211[[#This Row],[Midranges]]/($AA$27-$AI39)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH39" s="6">
         <f>Table211[[#This Row],[Threes]]/($AA$27-$AI39)</f>
         <v>0</v>
       </c>
       <c r="AI39" s="22">
-        <f>COUNT('2401'!X13)</f>
+        <f>COUNTIF('2401'!X13, TRUE)+COUNTIF('2501'!X13, TRUE)</f>
         <v>0</v>
       </c>
       <c r="AJ39" s="49"/>
@@ -14543,40 +14595,40 @@
         <v>49</v>
       </c>
       <c r="AA40" s="22">
-        <f>'2401'!T14</f>
+        <f>'2401'!T14+'2501'!T14</f>
         <v>0</v>
       </c>
       <c r="AB40" s="22">
-        <f>'2401'!U14</f>
+        <f>'2401'!U14+'2501'!U14</f>
         <v>0</v>
       </c>
       <c r="AC40" s="22">
-        <f>'2401'!V14</f>
+        <f>'2401'!V14+'2501'!V14</f>
         <v>0</v>
       </c>
       <c r="AD40" s="22">
-        <f>'2401'!W14</f>
-        <v>0</v>
-      </c>
-      <c r="AE40" s="6">
+        <f>'2401'!W14+'2501'!W14</f>
+        <v>0</v>
+      </c>
+      <c r="AE40" s="6" t="e">
         <f>Table211[[#This Row],[Points]]/($AA$27-$AI40)</f>
-        <v>0</v>
-      </c>
-      <c r="AF40" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF40" s="6" t="e">
         <f>Table211[[#This Row],[Finishes]]/($AA$27-$AI40)</f>
-        <v>0</v>
-      </c>
-      <c r="AG40" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG40" s="6" t="e">
         <f>Table211[[#This Row],[Midranges]]/($AA$27-$AI40)</f>
-        <v>0</v>
-      </c>
-      <c r="AH40" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH40" s="6" t="e">
         <f>Table211[[#This Row],[Threes]]/($AA$27-$AI40)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI40" s="22">
-        <f>COUNT('2401'!X14)</f>
-        <v>0</v>
+        <f>COUNTIF('2401'!X14, TRUE)+COUNTIF('2501'!X14, TRUE)</f>
+        <v>2</v>
       </c>
       <c r="AK40" t="s">
         <v>49</v>
@@ -14624,28 +14676,28 @@
         <v>52</v>
       </c>
       <c r="AA41" s="22">
-        <f>'2401'!T15</f>
+        <f>'2401'!T15+'2501'!T15</f>
         <v>1</v>
       </c>
       <c r="AB41" s="22">
-        <f>'2401'!U15</f>
+        <f>'2401'!U15+'2501'!U15</f>
         <v>1</v>
       </c>
       <c r="AC41" s="22">
-        <f>'2401'!V15</f>
+        <f>'2401'!V15+'2501'!V15</f>
         <v>0</v>
       </c>
       <c r="AD41" s="22">
-        <f>'2401'!W15</f>
+        <f>'2401'!W15+'2501'!W15</f>
         <v>0</v>
       </c>
       <c r="AE41" s="6">
         <f>Table211[[#This Row],[Points]]/($AA$27-$AI41)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AF41" s="6">
         <f>Table211[[#This Row],[Finishes]]/($AA$27-$AI41)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AG41" s="6">
         <f>Table211[[#This Row],[Midranges]]/($AA$27-$AI41)</f>
@@ -14656,7 +14708,7 @@
         <v>0</v>
       </c>
       <c r="AI41" s="22">
-        <f>COUNT('2401'!X15)</f>
+        <f>COUNTIF('2401'!X15, TRUE)+COUNTIF('2501'!X15, TRUE)</f>
         <v>0</v>
       </c>
       <c r="AK41" t="s">
@@ -14705,24 +14757,24 @@
         <v>55</v>
       </c>
       <c r="AA42" s="22">
-        <f>'2401'!T16</f>
+        <f>'2401'!T16+'2501'!T16</f>
         <v>2</v>
       </c>
       <c r="AB42" s="22">
-        <f>'2401'!U16</f>
+        <f>'2401'!U16+'2501'!U16</f>
         <v>0</v>
       </c>
       <c r="AC42" s="22">
-        <f>'2401'!V16</f>
+        <f>'2401'!V16+'2501'!V16</f>
         <v>0</v>
       </c>
       <c r="AD42" s="22">
-        <f>'2401'!W16</f>
+        <f>'2401'!W16+'2501'!W16</f>
         <v>1</v>
       </c>
       <c r="AE42" s="6">
         <f>Table211[[#This Row],[Points]]/($AA$27-$AI42)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF42" s="6">
         <f>Table211[[#This Row],[Finishes]]/($AA$27-$AI42)</f>
@@ -14734,10 +14786,10 @@
       </c>
       <c r="AH42" s="6">
         <f>Table211[[#This Row],[Threes]]/($AA$27-$AI42)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AI42" s="22">
-        <f>COUNT('2401'!X16)</f>
+        <f>COUNTIF('2401'!X16, TRUE)+COUNTIF('2501'!X16, TRUE)</f>
         <v>0</v>
       </c>
       <c r="AK42" t="s">
@@ -14786,28 +14838,28 @@
         <v>192</v>
       </c>
       <c r="AA43" s="22">
-        <f>'2401'!T17</f>
+        <f>'2401'!T17+'2501'!T17</f>
         <v>1</v>
       </c>
       <c r="AB43" s="22">
-        <f>'2401'!U17</f>
+        <f>'2401'!U17+'2501'!U17</f>
         <v>1</v>
       </c>
       <c r="AC43" s="22">
-        <f>'2401'!V17</f>
+        <f>'2401'!V17+'2501'!V17</f>
         <v>0</v>
       </c>
       <c r="AD43" s="22">
-        <f>'2401'!W17</f>
+        <f>'2401'!W17+'2501'!W17</f>
         <v>0</v>
       </c>
       <c r="AE43" s="6">
         <f>Table211[[#This Row],[Points]]/($AA$27-$AI43)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AF43" s="6">
         <f>Table211[[#This Row],[Finishes]]/($AA$27-$AI43)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AG43" s="6">
         <f>Table211[[#This Row],[Midranges]]/($AA$27-$AI43)</f>
@@ -14818,7 +14870,7 @@
         <v>0</v>
       </c>
       <c r="AI43" s="22">
-        <f>COUNT('2401'!X17)</f>
+        <f>COUNTIF('2401'!X17, TRUE)+COUNTIF('2501'!X17, TRUE)</f>
         <v>0</v>
       </c>
       <c r="AK43" t="s">
@@ -14839,19 +14891,19 @@
         <v>206</v>
       </c>
       <c r="AA44" s="22">
-        <f>'2401'!T18</f>
+        <f>'2401'!T18+'2501'!T18</f>
         <v>0</v>
       </c>
       <c r="AB44" s="22">
-        <f>'2401'!U18</f>
+        <f>'2401'!U18+'2501'!U18</f>
         <v>0</v>
       </c>
       <c r="AC44" s="22">
-        <f>'2401'!V18</f>
+        <f>'2401'!V18+'2501'!V18</f>
         <v>0</v>
       </c>
       <c r="AD44" s="22">
-        <f>'2401'!W18</f>
+        <f>'2401'!W18+'2501'!W18</f>
         <v>0</v>
       </c>
       <c r="AE44" s="6">
@@ -14871,8 +14923,8 @@
         <v>0</v>
       </c>
       <c r="AI44" s="22">
-        <f>COUNT('2401'!X18)</f>
-        <v>0</v>
+        <f>COUNTIF('2401'!X18, TRUE)+COUNTIF('2501'!X18, TRUE)</f>
+        <v>1</v>
       </c>
       <c r="AK44" t="s">
         <v>206</v>
@@ -14893,7 +14945,7 @@
       </c>
       <c r="W45">
         <f>(20-AA6-AA5)*2</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45" s="22"/>
@@ -14921,7 +14973,7 @@
       </c>
       <c r="W46">
         <f>(W45-(MAX(S41:S43)-MIN(S41:S43)))/2</f>
-        <v>18.25</v>
+        <v>17.25</v>
       </c>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
@@ -15029,7 +15081,7 @@
       </c>
       <c r="V49" s="12">
         <f>U49/AA6</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="W49" s="20">
         <f>U49/SUM($U$49:$U$51)</f>
@@ -15071,7 +15123,7 @@
       </c>
       <c r="V50" s="12">
         <f>U50/AA6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W50" s="20">
         <f>U50/SUM($U$49:$U$51)</f>
@@ -15112,7 +15164,7 @@
       </c>
       <c r="V51" s="12">
         <f>U51/AA6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W51" s="20">
         <f>U51/SUM($U$49:$U$51)</f>
@@ -17961,29 +18013,29 @@
   </sheetData>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="W103:W108 U109:U118">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ8:AQ24">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="5" operator="equal">
       <formula>$AA$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="6" operator="lessThan">
       <formula>$AA$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="138" priority="7" operator="greaterThan">
       <formula>$AA$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT8:AU24">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="136" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18171,7 +18223,7 @@
       </c>
       <c r="R4" s="70">
         <f>'Stats Global'!AB18</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S4" s="70">
         <f>'Stats Global'!AC18</f>
@@ -18187,7 +18239,7 @@
       </c>
       <c r="V4" s="70">
         <f>'Stats Global'!AF18</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W4" s="70">
         <f>'Stats Global'!AG18</f>
@@ -18203,9 +18255,9 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="107">
+      <c r="A5" s="107" t="str">
         <f>'Stats Global'!B6</f>
-        <v>0</v>
+        <v>25 January</v>
       </c>
       <c r="B5" s="107">
         <f>'Stats Global'!F6</f>
@@ -18327,7 +18379,7 @@
       </c>
       <c r="R6" s="63">
         <f>'Stats Global'!AB10</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="S6" s="63">
         <f>'Stats Global'!AC10</f>
@@ -18335,7 +18387,7 @@
       </c>
       <c r="T6" s="63">
         <f>'Stats Global'!AD10</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="U6" s="63">
         <f>'Stats Global'!AE10</f>
@@ -18405,7 +18457,7 @@
       </c>
       <c r="R7" s="54">
         <f>'Stats Global'!AB11</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S7" s="54">
         <f>'Stats Global'!AC11</f>
@@ -18413,7 +18465,7 @@
       </c>
       <c r="T7" s="54">
         <f>'Stats Global'!AD11</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U7" s="54">
         <f>'Stats Global'!AE11</f>
@@ -18483,7 +18535,7 @@
       </c>
       <c r="R8" s="54">
         <f>'Stats Global'!AB20</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S8" s="54">
         <f>'Stats Global'!AC20</f>
@@ -18491,7 +18543,7 @@
       </c>
       <c r="T8" s="54">
         <f>'Stats Global'!AD20</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U8" s="54">
         <f>'Stats Global'!AE20</f>
@@ -19760,7 +19812,7 @@
       </c>
       <c r="M43" s="60">
         <f>IFERROR(ROUND((SUM(Table1114[Points]))/'Stats Global'!AA6,1),0)</f>
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -19781,13 +19833,13 @@
       </c>
       <c r="M44" s="60">
         <f>IFERROR(ROUND((SUM(Table1114[Finishes]))/'Stats Global'!AA6,1),0)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G45" s="36" t="str">
         <f>M43&amp;","&amp;M44&amp;","&amp;M45&amp;","&amp;M46&amp;","&amp;M47&amp;","&amp;M48&amp;"],"</f>
-        <v>9,8,1,0,4,2],</v>
+        <v>4.5,4,0.5,0,2,1],</v>
       </c>
       <c r="I45" s="36" t="s">
         <v>108</v>
@@ -19802,7 +19854,7 @@
       </c>
       <c r="M45" s="60">
         <f>IFERROR(ROUND((SUM(Table1114[Midranges]))/'Stats Global'!AA6,1),0)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -19837,13 +19889,13 @@
       </c>
       <c r="M47" s="36">
         <f>IFERROR(ROUND(F3/'Stats Global'!AA6,1),0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="M48" s="36">
         <f>IFERROR(ROUND(G3/'Stats Global'!AA6,1),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -20942,7 +20994,7 @@
       </c>
       <c r="O4" s="54">
         <f>'Stats Global'!AB15</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4" s="54">
         <f>'Stats Global'!AC15</f>
@@ -20966,7 +21018,7 @@
       </c>
       <c r="U4" s="54">
         <f>'Stats Global'!AH15</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V4" s="63">
         <f>'Stats Global'!AJ15</f>
@@ -20974,9 +21026,9 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="107">
+      <c r="A5" s="107" t="str">
         <f>'Stats Global'!B6</f>
-        <v>0</v>
+        <v>25 January</v>
       </c>
       <c r="B5" s="108">
         <f>'Stats Global'!L6</f>
@@ -21079,7 +21131,7 @@
       </c>
       <c r="O6" s="54">
         <f>'Stats Global'!AB16</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P6" s="54">
         <f>'Stats Global'!AC16</f>
@@ -21087,7 +21139,7 @@
       </c>
       <c r="Q6" s="54">
         <f>'Stats Global'!AD16</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R6" s="54">
         <f>'Stats Global'!AE16</f>
@@ -21176,7 +21228,7 @@
       </c>
       <c r="V7" s="63">
         <f>'Stats Global'!AJ19</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -21217,7 +21269,7 @@
       </c>
       <c r="O8" s="54">
         <f>'Stats Global'!AB21</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" s="54">
         <f>'Stats Global'!AC21</f>
@@ -21241,7 +21293,7 @@
       </c>
       <c r="U8" s="54">
         <f>'Stats Global'!AH21</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V8" s="63">
         <f>'Stats Global'!AJ21</f>
@@ -22249,7 +22301,7 @@
       </c>
       <c r="N43" s="60">
         <f>IFERROR(ROUND((SUM(Table1114[Points]))/'Stats Global'!AA6,1),0)</f>
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -22270,13 +22322,13 @@
       </c>
       <c r="N44" s="60">
         <f>IFERROR(ROUND((SUM(Table1113[Finishes]))/'Stats Global'!AA6,1),0)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H45" s="36" t="str">
         <f>N43&amp;","&amp;N44&amp;","&amp;N45&amp;","&amp;N46&amp;","&amp;N47&amp;","&amp;N48&amp;"],"</f>
-        <v>9,1,0,2,2,3],</v>
+        <v>4.5,0.5,0,1,1,1.5],</v>
       </c>
       <c r="J45" s="36" t="s">
         <v>108</v>
@@ -22312,7 +22364,7 @@
       </c>
       <c r="N46" s="60">
         <f>IFERROR(ROUND((SUM(Table1113[Threes]))/'Stats Global'!AA6,1),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -22326,13 +22378,13 @@
       </c>
       <c r="N47" s="36">
         <f>IFERROR(ROUND(F3/'Stats Global'!AA6,1),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="N48" s="36">
         <f>IFERROR(ROUND(G3/'Stats Global'!AA6,1),0)</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -23417,9 +23469,9 @@
       <c r="X4" s="54"/>
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="107">
+      <c r="A5" s="107" t="str">
         <f>'Stats Global'!B6</f>
-        <v>0</v>
+        <v>25 January</v>
       </c>
       <c r="B5" s="108">
         <f>'Stats Global'!I6</f>
@@ -23508,7 +23560,7 @@
       </c>
       <c r="K6" s="54">
         <f>'Stats Global'!AB12</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L6" s="54">
         <f>'Stats Global'!AC12</f>
@@ -23516,7 +23568,7 @@
       </c>
       <c r="M6" s="54">
         <f>'Stats Global'!AD12</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6" s="54">
         <f>'Stats Global'!AE12</f>
@@ -23524,7 +23576,7 @@
       </c>
       <c r="O6" s="54">
         <f>'Stats Global'!AF12</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P6" s="54">
         <f>'Stats Global'!AG12</f>
@@ -23636,7 +23688,7 @@
       </c>
       <c r="K8" s="54">
         <f>'Stats Global'!AB17</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" s="54">
         <f>'Stats Global'!AC17</f>
@@ -23644,7 +23696,7 @@
       </c>
       <c r="M8" s="54">
         <f>'Stats Global'!AD17</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" s="54">
         <f>'Stats Global'!AE17</f>
@@ -23700,7 +23752,7 @@
       </c>
       <c r="K9" s="54">
         <f>'Stats Global'!AB22</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L9" s="54">
         <f>'Stats Global'!AC22</f>
@@ -23708,7 +23760,7 @@
       </c>
       <c r="M9" s="54">
         <f>'Stats Global'!AD22</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N9" s="54">
         <f>'Stats Global'!AE22</f>
@@ -23791,7 +23843,7 @@
       </c>
       <c r="R10" s="63">
         <f>'Stats Global'!AJ23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="54"/>
       <c r="W10" s="54"/>
@@ -24455,7 +24507,7 @@
       </c>
       <c r="N32" s="60">
         <f>IFERROR(ROUND((SUM(Table11[Points]))/'Stats Global'!AA6,1),0)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -24477,7 +24529,7 @@
       </c>
       <c r="H33" s="36" t="str">
         <f>L33&amp;","&amp;CHAR(34)&amp;M33&amp;CHAR(34)&amp;","&amp;L34&amp;","&amp;CHAR(34)&amp;M34&amp;CHAR(34)&amp;","&amp;L35&amp;","&amp;CHAR(34)&amp;M35&amp;CHAR(34)&amp;","&amp;L36&amp;","&amp;CHAR(34)&amp;M36&amp;CHAR(34)&amp;"],"</f>
-        <v>3,"Michael Iffland",2,"Michael Iffland",1,"N/A",0,"N/A"],</v>
+        <v>3,"Michael Iffland",2,"N/A",1,"N/A",0,"N/A"],</v>
       </c>
       <c r="J33" s="36" t="s">
         <v>107</v>
@@ -24492,7 +24544,7 @@
       </c>
       <c r="N33" s="60">
         <f>IFERROR(ROUND((SUM(Table11[Finishes]))/'Stats Global'!AA6,1),0)</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -24514,7 +24566,7 @@
       </c>
       <c r="H34" s="36" t="str">
         <f>N32&amp;","&amp;N33&amp;","&amp;N34&amp;","&amp;N35&amp;","&amp;N36&amp;","&amp;N37&amp;"],"</f>
-        <v>6,5,1,0,2,3],</v>
+        <v>3,2.5,0.5,0,1,1.5],</v>
       </c>
       <c r="J34" s="36" t="s">
         <v>108</v>
@@ -24525,11 +24577,11 @@
       </c>
       <c r="M34" s="36" t="str">
         <f>IF(L33&lt;&gt;0, _xlfn.XLOOKUP(L33,K5:K10,I5:I10, "N/A"), "N/A")</f>
-        <v>Michael Iffland</v>
+        <v>N/A</v>
       </c>
       <c r="N34" s="60">
         <f>IFERROR(ROUND((SUM(Table11[Midranges]))/'Stats Global'!AA6,1),0)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -24596,7 +24648,7 @@
       </c>
       <c r="N36" s="36">
         <f>IFERROR(ROUND(E3/'Stats Global'!AA6,1),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -24618,7 +24670,7 @@
       </c>
       <c r="N37" s="36">
         <f>IFERROR(ROUND(F3/'Stats Global'!AA6,1),0)</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -25663,7 +25715,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+    <sheetView zoomScale="50" workbookViewId="0">
       <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
@@ -25803,15 +25855,15 @@
       <c r="B4" s="129" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
       <c r="M4" s="1" t="s">
         <v>164</v>
       </c>
@@ -25867,15 +25919,15 @@
       <c r="AC4" s="1"/>
     </row>
     <row r="5" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
       <c r="M5" s="1" t="s">
         <v>35</v>
       </c>
@@ -25931,15 +25983,15 @@
       <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
       <c r="S6" s="1" t="s">
         <v>30</v>
       </c>
@@ -25977,15 +26029,15 @@
       <c r="AC6" s="1"/>
     </row>
     <row r="7" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
       <c r="S7" s="1" t="s">
         <v>32</v>
       </c>
@@ -26023,15 +26075,15 @@
       <c r="AC7" s="1"/>
     </row>
     <row r="8" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="133"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
       <c r="S8" s="1" t="s">
         <v>37</v>
       </c>
@@ -26069,15 +26121,15 @@
       <c r="AC8" s="1"/>
     </row>
     <row r="9" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="133"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
       <c r="S9" t="s">
         <v>91</v>
       </c>
@@ -26114,15 +26166,15 @@
       </c>
     </row>
     <row r="10" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="133"/>
-      <c r="K10" s="133"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="132"/>
       <c r="S10" s="1" t="s">
         <v>39</v>
       </c>
@@ -26160,15 +26212,15 @@
       <c r="AC10" s="1"/>
     </row>
     <row r="11" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="133"/>
-      <c r="K11" s="133"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="132"/>
       <c r="S11" s="1" t="s">
         <v>41</v>
       </c>
@@ -26206,15 +26258,15 @@
       <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="133"/>
-      <c r="K12" s="133"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="132"/>
       <c r="S12" s="1" t="s">
         <v>44</v>
       </c>
@@ -26252,15 +26304,15 @@
       <c r="AC12" s="1"/>
     </row>
     <row r="13" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="133"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
       <c r="S13" s="1" t="s">
         <v>46</v>
       </c>
@@ -26298,15 +26350,15 @@
       <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="132"/>
       <c r="S14" s="1" t="s">
         <v>49</v>
       </c>
@@ -26344,15 +26396,15 @@
       <c r="AC14" s="1"/>
     </row>
     <row r="15" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="133"/>
-      <c r="K15" s="133"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
       <c r="S15" s="1" t="s">
         <v>52</v>
       </c>
@@ -26390,15 +26442,15 @@
       <c r="AC15" s="1"/>
     </row>
     <row r="16" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="133"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="132"/>
       <c r="S16" s="1" t="s">
         <v>55</v>
       </c>
@@ -26436,15 +26488,15 @@
       <c r="AC16" s="1"/>
     </row>
     <row r="17" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="133"/>
-      <c r="K17" s="133"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="132"/>
+      <c r="K17" s="132"/>
       <c r="S17" s="1" t="s">
         <v>192</v>
       </c>
@@ -26482,15 +26534,15 @@
       <c r="AC17" s="1"/>
     </row>
     <row r="18" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="133"/>
-      <c r="K18" s="133"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="132"/>
       <c r="S18" s="125" t="s">
         <v>206</v>
       </c>
@@ -26528,15 +26580,15 @@
       <c r="AC18" s="1"/>
     </row>
     <row r="19" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C19" s="133"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="133"/>
-      <c r="J19" s="133"/>
-      <c r="K19" s="133"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="132"/>
+      <c r="K19" s="132"/>
       <c r="S19" s="1"/>
       <c r="T19" s="6"/>
       <c r="U19" s="7"/>
@@ -26557,15 +26609,15 @@
       </c>
     </row>
     <row r="20" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="133"/>
-      <c r="J20" s="133"/>
-      <c r="K20" s="133"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="132"/>
       <c r="Z20" s="34" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -26580,15 +26632,15 @@
       </c>
     </row>
     <row r="21" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="133"/>
-      <c r="J21" s="133"/>
-      <c r="K21" s="133"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="132"/>
+      <c r="K21" s="132"/>
       <c r="Z21" s="34" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -28315,6 +28367,2654 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E530344B-6CBC-413B-A1BF-AB6BC841C5AA}">
+  <dimension ref="B1:AF1000"/>
+  <sheetViews>
+    <sheetView zoomScale="50" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3:Q5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.73046875" customWidth="1"/>
+    <col min="2" max="2" width="13.06640625" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="17" width="8.73046875" customWidth="1"/>
+    <col min="18" max="18" width="10.73046875" customWidth="1"/>
+    <col min="19" max="26" width="8.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+    </row>
+    <row r="3" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="127" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="127" t="s">
+        <v>208</v>
+      </c>
+      <c r="J3" s="127" t="s">
+        <v>209</v>
+      </c>
+      <c r="K3" s="127" t="s">
+        <v>210</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N3" s="1">
+        <f>COUNTIF(Z4:Z39,"*")-COUNTIF(Z4:Z39,"")</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <f>H45+I45</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="8" t="e">
+        <f>N3/(N3+O3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="6">
+        <f>COUNTIF($G$3:$G$40, S3)+W3</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="7">
+        <f>COUNTIFS($G$3:$G$40, $S3,$H$3:$H$40,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="7">
+        <f>COUNTIFS($G$3:$G$40, $S3,$H$3:$H$40,"Midrange")</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="7">
+        <f>COUNTIFS($G$3:$G$40, $S3,$H$3:$H$40,"Three Pointer")</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="105" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA3" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB3" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC3" s="1"/>
+    </row>
+    <row r="4" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="M4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N4" s="1">
+        <f>COUNTIF(AA4:AA39,"*")-COUNTIF(AA4:AA39,"")</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <f>K45+L45</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="8" t="e">
+        <f t="shared" ref="P4:P5" si="0">N4/(N4+O4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="S4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="6">
+        <f t="shared" ref="T4:T18" si="1">COUNTIF($G$3:$G$40, S4)+W4</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="7">
+        <f t="shared" ref="U4:U18" si="2">COUNTIFS($G$3:$G$40, $S4,$H$3:$H$40,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="7">
+        <f t="shared" ref="V4:V18" si="3">COUNTIFS($G$3:$G$40, $S4,$H$3:$H$40,"Midrange")</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="7">
+        <f t="shared" ref="W4:W18" si="4">COUNTIFS($G$3:$G$40, $S4,$H$3:$H$40,"Three Pointer")</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="34" t="str">
+        <f>IF(AND(D4="Choc-Tops",E4="Gentle, Men", OR(C4&lt;C5,C5="")),"CT/GM", IF(AND(D4="Choc-Tops",E4="Traffic Controllers", OR(C4&lt;C5,C5="")),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA4" s="34" t="str">
+        <f>IF(AND(D4="Gentle, Men",E4="Choc-Tops", OR(C4&lt;C5,C5="")),"GM/CT", IF(AND(D4="Gentle, Men",E4="Traffic Controllers", OR(C4&lt;C5,C5="")),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB4" s="34" t="str">
+        <f>IF(AND(D4="Traffic Controllers",E4="Choc-Tops", OR(C4&lt;C5,C5="")),"TC/CT", IF(AND($D4="Traffic Controllers",$E4="Gentle, Men", OR(C4&lt;C5,C5="")),"TC/GM", ""))</f>
+        <v/>
+      </c>
+      <c r="AC4" s="1"/>
+    </row>
+    <row r="5" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="M5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="1">
+        <f>COUNTIF(AB4:AB39,"*")-COUNTIF(AB4:AB39,"")</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <f>N45+O45</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="S5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="34" t="str">
+        <f t="shared" ref="Z5:Z38" si="5">IF(AND(D5="Choc-Tops",E5="Gentle, Men", OR(C5&lt;C6,C6="")),"CT/GM", IF(AND(D5="Choc-Tops",E5="Traffic Controllers", OR(C5&lt;C6,C6="")),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA5" s="34" t="str">
+        <f t="shared" ref="AA5:AA39" si="6">IF(AND(D5="Gentle, Men",E5="Choc-Tops", OR(C5&lt;C6,C6="")),"GM/CT", IF(AND(D5="Gentle, Men",E5="Traffic Controllers", OR(C5&lt;C6,C6="")),"GM/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AB5" s="34" t="str">
+        <f t="shared" ref="AB5:AB39" si="7">IF(AND(D5="Traffic Controllers",E5="Choc-Tops", OR(C5&lt;C6,C6="")),"TC/CT", IF(AND($D5="Traffic Controllers",$E5="Gentle, Men", OR(C5&lt;C6,C6="")),"TC/GM", ""))</f>
+        <v/>
+      </c>
+      <c r="AC5" s="1"/>
+    </row>
+    <row r="6" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
+      <c r="S6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA6" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB6" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC6" s="1"/>
+    </row>
+    <row r="7" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
+      <c r="S7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA7" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB7" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC7" s="1"/>
+    </row>
+    <row r="8" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="S8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA8" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB8" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC8" s="1"/>
+    </row>
+    <row r="9" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="S9" t="s">
+        <v>91</v>
+      </c>
+      <c r="T9" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA9" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB9" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="132"/>
+      <c r="S10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA10" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB10" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC10" s="1"/>
+    </row>
+    <row r="11" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="132"/>
+      <c r="S11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA11" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB11" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC11" s="1"/>
+    </row>
+    <row r="12" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="132"/>
+      <c r="S12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T12" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA12" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB12" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC12" s="1"/>
+    </row>
+    <row r="13" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
+      <c r="S13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T13" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA13" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB13" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC13" s="1"/>
+    </row>
+    <row r="14" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="132"/>
+      <c r="S14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T14" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA14" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB14" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC14" s="1"/>
+    </row>
+    <row r="15" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="S15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T15" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA15" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB15" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC15" s="1"/>
+    </row>
+    <row r="16" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="132"/>
+      <c r="S16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA16" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB16" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC16" s="1"/>
+    </row>
+    <row r="17" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="132"/>
+      <c r="K17" s="132"/>
+      <c r="S17" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="T17" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA17" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB17" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC17" s="1"/>
+    </row>
+    <row r="18" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="132"/>
+      <c r="S18" s="125" t="s">
+        <v>206</v>
+      </c>
+      <c r="T18" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA18" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB18" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC18" s="1"/>
+    </row>
+    <row r="19" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="132"/>
+      <c r="K19" s="132"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="19"/>
+      <c r="Z19" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA19" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB19" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="132"/>
+      <c r="Z20" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA20" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB20" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="132"/>
+      <c r="K21" s="132"/>
+      <c r="Z21" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA21" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB21" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Z22" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA22" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB22" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S23" s="1"/>
+      <c r="T23" t="str">
+        <f>T3&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" ref="U23:V23" si="8">U3&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" si="8"/>
+        <v>0,</v>
+      </c>
+      <c r="W23" t="str">
+        <f>W3&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="X23" s="128" t="str">
+        <f>IF(X3,1,0)&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="Z23" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA23" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB23" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC23" s="95"/>
+      <c r="AD23" s="96"/>
+      <c r="AE23" s="96"/>
+      <c r="AF23" s="96"/>
+    </row>
+    <row r="24" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T24" t="str">
+        <f t="shared" ref="T24:W37" si="9">T4&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X24" s="128" t="str">
+        <f t="shared" ref="X24:X37" si="10">IF(X4,1,0)&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="Z24" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA24" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB24" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S25" s="2"/>
+      <c r="T25" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X25" s="128" t="str">
+        <f t="shared" si="10"/>
+        <v>0,</v>
+      </c>
+      <c r="Z25" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA25" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB25" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S26" s="9"/>
+      <c r="T26" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X26" s="128" t="str">
+        <f t="shared" si="10"/>
+        <v>0,</v>
+      </c>
+      <c r="Z26" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA26" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB26" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T27" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X27" s="128" t="str">
+        <f t="shared" si="10"/>
+        <v>0,</v>
+      </c>
+      <c r="Z27" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA27" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB27" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T28" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="V28" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="W28" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X28" s="128" t="str">
+        <f t="shared" si="10"/>
+        <v>0,</v>
+      </c>
+      <c r="Z28" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA28" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB28" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T29" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="V29" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="W29" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X29" s="128" t="str">
+        <f t="shared" si="10"/>
+        <v>0,</v>
+      </c>
+      <c r="Z29" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA29" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB29" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T30" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="V30" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="W30" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X30" s="128" t="str">
+        <f t="shared" si="10"/>
+        <v>0,</v>
+      </c>
+      <c r="Z30" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA30" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB30" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T31" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U31" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="V31" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="W31" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X31" s="128" t="str">
+        <f t="shared" si="10"/>
+        <v>0,</v>
+      </c>
+      <c r="Z31" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA31" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB31" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T32" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U32" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="V32" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="W32" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X32" s="128" t="str">
+        <f t="shared" si="10"/>
+        <v>0,</v>
+      </c>
+      <c r="Z32" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA32" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB32" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T33" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U33" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="V33" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="W33" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X33" s="128" t="str">
+        <f t="shared" si="10"/>
+        <v>0,</v>
+      </c>
+      <c r="Z33" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA33" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB33" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T34" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U34" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="V34" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="W34" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X34" s="128" t="str">
+        <f t="shared" si="10"/>
+        <v>1,</v>
+      </c>
+      <c r="Z34" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA34" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB34" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T35" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U35" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="V35" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="W35" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X35" s="128" t="str">
+        <f t="shared" si="10"/>
+        <v>0,</v>
+      </c>
+      <c r="Z35" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA35" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB35" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T36" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U36" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="V36" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="W36" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X36" s="128" t="str">
+        <f t="shared" si="10"/>
+        <v>0,</v>
+      </c>
+      <c r="Z36" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA36" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB36" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T37" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U37" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="V37" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="W37" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X37" s="128" t="str">
+        <f t="shared" si="10"/>
+        <v>0,</v>
+      </c>
+      <c r="Z37" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA37" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB37" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T38" s="13">
+        <f>T18</f>
+        <v>0</v>
+      </c>
+      <c r="U38" s="13">
+        <f t="shared" ref="U38:W38" si="11">U18</f>
+        <v>0</v>
+      </c>
+      <c r="V38" s="13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X38" s="128">
+        <f t="shared" ref="X38" si="12">IF(X18,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z38" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA38" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB38" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Z39" s="34" t="str">
+        <f t="shared" ref="Z39" si="13">IF(AND(D39="Choc-Tops",E39="Gentle, Men"),"CT/GM", IF(AND(D39="Choc-Tops",E39="Traffic Controllers"),"CT/TC", ""))</f>
+        <v/>
+      </c>
+      <c r="AA39" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB39" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C40" s="50"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+    </row>
+    <row r="41" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="S41" s="64"/>
+      <c r="T41" s="64"/>
+      <c r="U41" s="123"/>
+      <c r="V41" s="123"/>
+      <c r="W41" s="123"/>
+    </row>
+    <row r="42" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="S42" s="64"/>
+      <c r="T42" s="64"/>
+      <c r="U42" s="123"/>
+      <c r="V42" s="123"/>
+      <c r="W42" s="123"/>
+    </row>
+    <row r="43" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C43" t="s">
+        <v>135</v>
+      </c>
+      <c r="T43" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="U43" s="10"/>
+    </row>
+    <row r="44" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" t="s">
+        <v>180</v>
+      </c>
+      <c r="H44" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="I44" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="J44" t="s">
+        <v>183</v>
+      </c>
+      <c r="K44" t="s">
+        <v>184</v>
+      </c>
+      <c r="L44" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="M44" t="s">
+        <v>188</v>
+      </c>
+      <c r="N44" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="O44" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="P44" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>185</v>
+      </c>
+      <c r="R44" t="s">
+        <v>191</v>
+      </c>
+      <c r="T44" s="10" t="str">
+        <f>CHAR(34)&amp;"Date"&amp;CHAR(34)&amp;":["&amp;CHAR(34)&amp;B4&amp;CHAR(34)&amp;"],"</f>
+        <v>"Date":["25 January"],</v>
+      </c>
+      <c r="U44" s="10"/>
+    </row>
+    <row r="45" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C45" s="50" t="str">
+        <f>B4</f>
+        <v>25 January</v>
+      </c>
+      <c r="D45">
+        <f>MAX(N3:N5)</f>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f>COUNT(C4:C42)-D45-F45</f>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f>MIN(N3:N5)</f>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f>N3</f>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f>COUNTIF(AA4:AA39, "GM/CT")</f>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f>COUNTIF(AB4:AB39, "TC/CT")</f>
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f>N5</f>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f>COUNTIF(Z4:Z39, "CT/GM")</f>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f>COUNTIF(AB4:AB39, "TC/GM")</f>
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <f>N4</f>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f>COUNTIF(Z4:Z39, "CT/TC")</f>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f>COUNTIF(AA4:AA39, "GM/TC")</f>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f>Q3</f>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f>Q5</f>
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <f>Q4</f>
+        <v>0</v>
+      </c>
+      <c r="T45" s="10" t="str">
+        <f>CHAR(34)&amp;"Missed"&amp;CHAR(34)&amp;":["&amp;X23&amp;X24&amp;X25&amp;X26&amp;X27&amp;X28&amp;X29&amp;X30&amp;X31&amp;X32&amp;X33&amp;X34&amp;X35&amp;X36&amp;X37&amp;X38&amp;"],"</f>
+        <v>"Missed":[0,0,0,0,0,0,0,0,0,0,0,1,0,0,0,0],</v>
+      </c>
+      <c r="U45" s="10"/>
+    </row>
+    <row r="46" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T46" s="10" t="str">
+        <f>CHAR(34)&amp;"Points"&amp;CHAR(34)&amp;":["&amp;Q3&amp;","&amp;Q4&amp;","&amp;Q5&amp;"]"</f>
+        <v>"Points":[,,]</v>
+      </c>
+      <c r="U46" s="10"/>
+    </row>
+    <row r="47" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T47" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="U47" s="10"/>
+    </row>
+    <row r="48" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T48" s="10"/>
+    </row>
+    <row r="49" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T49" s="10"/>
+    </row>
+    <row r="50" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T50" s="10"/>
+    </row>
+    <row r="51" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="55" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="57" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="58" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="59" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="60" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="61" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="62" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="63" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="64" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="96" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="99" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="101" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="103" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="105" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="107" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="113" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="115" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="125" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="126" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="127" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="128" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="129" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="130" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="131" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="132" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="133" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="134" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="135" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="136" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="137" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="138" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="139" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="140" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="141" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="142" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="143" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="144" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="145" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="146" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="147" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="148" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="149" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="150" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="151" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="152" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="153" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="154" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="155" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="156" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="157" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="158" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="159" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="160" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="161" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="162" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="163" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="164" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="165" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="166" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="167" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="168" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="169" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="170" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="171" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="172" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="173" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="174" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="175" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="176" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="177" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="178" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="179" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="180" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="181" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="182" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="183" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="184" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="185" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="186" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="187" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="188" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="189" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="190" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="191" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="192" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="193" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="194" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="195" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="196" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="197" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="198" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="199" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="200" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="201" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="202" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="203" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="204" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="205" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="206" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="207" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="208" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="209" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="210" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="211" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="212" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="213" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="214" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="215" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="216" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="217" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="218" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="219" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="220" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="221" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="222" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="223" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="224" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="225" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="226" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="227" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="228" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="229" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="230" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="231" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="232" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="233" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="234" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="235" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="236" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="237" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="238" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="239" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="240" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="241" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="242" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="243" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="244" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="245" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="246" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="247" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="248" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="249" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="250" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="251" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="252" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="253" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="254" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="255" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="256" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="257" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="258" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="259" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="260" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="261" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="262" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="263" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="264" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="265" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="266" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="267" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="268" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="269" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="270" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="271" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="272" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="273" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="274" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="275" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="276" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="277" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="278" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="279" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="280" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="281" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="282" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="283" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="284" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="285" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="286" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="287" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="288" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="289" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="290" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="291" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="292" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="293" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="294" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="295" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="296" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="297" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="298" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="299" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="300" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="301" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="302" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="303" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="304" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="305" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="306" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="307" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="308" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="309" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="310" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="311" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="312" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="313" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="314" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="315" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="316" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="317" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="318" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="319" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="320" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="321" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="322" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="323" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="324" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="325" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="326" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="327" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="328" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="329" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="330" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="331" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="332" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="333" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="334" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="335" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="336" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="337" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="338" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="339" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="340" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="341" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="342" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="343" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="344" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="345" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="346" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="347" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="348" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="349" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="350" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="351" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="352" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="353" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="354" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="355" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="356" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="357" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="358" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="359" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="360" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="361" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="362" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="363" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="364" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="365" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="366" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="367" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="368" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="369" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="370" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="371" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="372" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="373" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="374" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="375" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="376" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="377" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="378" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="379" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="380" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="381" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="382" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="383" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="384" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="385" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="386" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="387" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="388" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="389" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="390" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="391" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="392" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="393" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="394" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="395" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="396" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="397" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="398" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="399" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="400" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="401" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="402" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="403" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="404" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="405" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="406" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="407" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="408" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="409" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="410" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="411" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="412" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="413" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="414" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="415" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="416" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="417" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="418" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="419" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="420" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="421" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="422" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="423" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="424" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="425" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="426" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="427" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="428" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="429" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="430" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="431" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="432" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="433" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="434" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="435" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="436" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="437" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="438" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="439" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="440" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="441" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="442" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="443" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="444" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="445" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="446" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="447" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="448" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="449" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="450" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="451" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="452" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="453" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="454" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="455" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="456" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="457" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="458" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="459" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="460" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="461" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="462" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="463" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="464" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="465" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="466" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="467" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="468" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="469" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="470" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="471" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="472" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="473" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="474" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="475" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="476" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="477" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="478" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="479" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="480" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="481" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="482" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="483" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="484" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="485" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="486" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="487" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="488" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="489" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="490" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="491" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="492" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="493" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="494" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="495" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="496" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="497" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="498" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="499" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="500" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="501" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="502" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="503" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="504" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="505" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="506" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="507" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="508" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="509" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="510" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="511" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="512" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="513" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="514" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="515" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="516" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="517" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="518" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="519" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="520" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="521" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="522" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="523" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="524" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="525" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="526" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="527" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="528" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="529" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="530" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="531" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="532" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="533" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="534" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="535" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="536" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="537" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="538" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="539" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="540" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="541" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="542" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="543" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="544" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="545" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="546" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="547" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="548" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="549" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="550" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="551" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="552" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="553" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="554" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="555" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="556" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="557" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="558" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="559" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="560" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="561" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="562" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="563" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="564" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="565" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="566" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="567" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="568" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="569" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="570" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="571" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="572" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="573" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="574" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="575" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="576" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="577" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="578" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="579" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="580" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="581" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="582" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="583" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="584" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="585" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="586" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="587" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="588" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="589" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="590" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="591" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="592" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="593" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="594" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="595" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="596" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="597" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="598" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="599" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="600" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="601" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="602" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="603" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="604" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="605" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="606" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="607" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="608" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="609" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="610" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="611" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="612" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="613" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="614" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="615" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="616" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="617" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="618" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="619" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="620" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="621" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="622" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="623" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="624" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="625" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="626" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="627" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="628" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="629" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="630" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="631" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="632" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="633" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="634" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="635" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="636" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="637" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="638" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="639" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="640" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="641" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="642" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="643" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="644" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="645" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="646" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="647" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="648" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="649" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="650" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="651" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="652" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="653" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="654" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="655" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="656" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="657" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="658" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="659" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="660" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="661" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="662" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="663" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="664" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="665" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="666" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="667" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="668" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="669" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="670" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="671" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="672" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="673" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="674" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="675" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="676" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="677" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="678" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="679" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="680" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="681" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="682" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="683" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="684" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="685" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="686" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="687" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="688" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="689" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="690" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="691" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="692" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="693" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="694" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="695" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="696" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="697" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="698" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="699" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="700" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="701" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="702" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="703" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="704" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="705" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="706" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="707" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="708" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="709" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="710" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="711" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="712" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="713" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="714" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="715" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="716" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="717" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="718" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="719" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="720" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="721" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="722" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="723" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="724" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="725" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="726" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="727" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="728" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="729" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="730" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="731" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="732" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="733" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="734" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="735" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="736" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="737" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="738" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="739" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="740" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="741" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="742" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="743" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="744" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="745" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="746" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="747" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="748" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="749" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="750" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="751" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="752" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="753" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="754" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="755" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="756" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="757" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="758" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="759" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="760" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="761" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="762" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="763" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="764" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="765" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="766" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="767" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="768" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="769" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="770" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="771" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="772" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="773" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="774" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="775" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="776" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="777" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="778" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="779" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="780" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="781" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="782" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="783" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="784" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="785" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="786" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="787" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="788" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="789" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="790" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="791" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="792" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="793" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="794" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="795" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="796" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="797" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="798" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="799" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="800" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="801" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="802" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="803" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="804" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="805" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="806" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="807" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="808" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="809" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="810" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="811" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="812" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="813" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="814" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="815" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="816" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="817" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="818" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="819" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="820" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="821" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="822" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="823" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="824" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="825" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="826" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="827" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="828" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="829" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="830" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="831" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="832" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="833" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="834" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="835" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="836" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="837" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="838" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="839" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="840" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="841" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="842" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="843" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="844" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="845" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="846" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="847" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="848" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="849" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="850" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="851" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="852" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="853" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="854" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="855" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="856" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="857" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="858" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="859" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="860" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="861" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="862" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="863" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="864" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="865" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="866" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="867" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="868" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="869" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="870" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="871" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="872" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="873" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="874" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="875" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="876" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="877" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="878" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="879" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="880" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="881" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="882" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="883" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="884" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="885" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="886" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="887" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="888" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="889" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="890" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="891" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="892" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="893" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="894" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="895" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="896" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="897" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="898" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="899" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="900" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="901" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="902" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="903" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="904" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="905" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="906" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="907" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="908" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="909" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="910" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="911" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="912" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="913" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="914" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="915" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="916" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="917" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="918" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="919" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="920" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="921" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="922" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="923" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="924" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="925" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="926" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="927" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="928" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="929" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="930" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="931" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="932" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="933" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="934" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="935" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="936" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="937" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="938" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="939" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="940" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="941" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="942" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="943" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="944" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="945" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="946" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="947" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="948" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="949" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="950" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="951" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="952" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="953" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="954" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="955" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="956" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="957" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="958" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="959" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="960" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="961" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="962" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="963" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="964" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="965" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="966" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="967" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="968" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="969" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="970" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="971" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="972" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="973" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="974" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="975" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="976" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="977" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="978" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="979" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="980" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="981" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="982" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="983" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="984" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="985" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="986" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="987" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="988" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="989" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="990" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="991" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="992" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="993" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="994" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="995" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="996" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="997" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="998" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="999" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1000" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4699DF-4C9E-4BF0-9621-4006726449D0}">
   <dimension ref="B1:AF1000"/>
   <sheetViews>
@@ -28458,31 +31158,31 @@
       <c r="B4" s="129" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="133">
+      <c r="C4" s="132">
         <v>1</v>
       </c>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="132" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="133" t="s">
+      <c r="E4" s="132" t="s">
         <v>173</v>
       </c>
-      <c r="F4" s="133" t="s">
+      <c r="F4" s="132" t="s">
         <v>216</v>
       </c>
-      <c r="G4" s="133" t="s">
+      <c r="G4" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="133" t="s">
+      <c r="H4" s="132" t="s">
         <v>217</v>
       </c>
-      <c r="I4" s="133">
+      <c r="I4" s="132">
         <v>1</v>
       </c>
-      <c r="J4" s="133">
+      <c r="J4" s="132">
         <v>1</v>
       </c>
-      <c r="K4" s="133">
+      <c r="K4" s="132">
         <v>1</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -28540,31 +31240,31 @@
       <c r="AC4" s="1"/>
     </row>
     <row r="5" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="133">
+      <c r="C5" s="132">
         <v>2</v>
       </c>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="132" t="s">
         <v>171</v>
       </c>
-      <c r="E5" s="133" t="s">
+      <c r="E5" s="132" t="s">
         <v>172</v>
       </c>
-      <c r="F5" s="133" t="s">
+      <c r="F5" s="132" t="s">
         <v>218</v>
       </c>
-      <c r="G5" s="133" t="s">
+      <c r="G5" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="133" t="s">
+      <c r="H5" s="132" t="s">
         <v>219</v>
       </c>
-      <c r="I5" s="133" t="s">
+      <c r="I5" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="J5" s="133" t="s">
+      <c r="J5" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="K5" s="133">
+      <c r="K5" s="132">
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -28622,31 +31322,31 @@
       <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C6" s="133">
+      <c r="C6" s="132">
         <v>2</v>
       </c>
-      <c r="D6" s="133" t="s">
+      <c r="D6" s="132" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="133" t="s">
+      <c r="E6" s="132" t="s">
         <v>171</v>
       </c>
-      <c r="F6" s="133" t="s">
+      <c r="F6" s="132" t="s">
         <v>221</v>
       </c>
-      <c r="G6" s="133" t="s">
+      <c r="G6" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="133" t="s">
+      <c r="H6" s="132" t="s">
         <v>217</v>
       </c>
-      <c r="I6" s="133">
+      <c r="I6" s="132">
         <v>2</v>
       </c>
-      <c r="J6" s="133">
+      <c r="J6" s="132">
         <v>1</v>
       </c>
-      <c r="K6" s="133">
+      <c r="K6" s="132">
         <v>1</v>
       </c>
       <c r="S6" s="1" t="s">
@@ -28686,31 +31386,31 @@
       <c r="AC6" s="1"/>
     </row>
     <row r="7" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C7" s="133">
+      <c r="C7" s="132">
         <v>3</v>
       </c>
-      <c r="D7" s="133" t="s">
+      <c r="D7" s="132" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="133" t="s">
+      <c r="E7" s="132" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="133" t="s">
+      <c r="F7" s="132" t="s">
         <v>218</v>
       </c>
-      <c r="G7" s="133" t="s">
+      <c r="G7" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="133" t="s">
+      <c r="H7" s="132" t="s">
         <v>219</v>
       </c>
-      <c r="I7" s="133" t="s">
+      <c r="I7" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="J7" s="133" t="s">
+      <c r="J7" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="K7" s="133">
+      <c r="K7" s="132">
         <v>1</v>
       </c>
       <c r="S7" s="1" t="s">
@@ -28750,31 +31450,31 @@
       <c r="AC7" s="1"/>
     </row>
     <row r="8" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="133">
+      <c r="C8" s="132">
         <v>3</v>
       </c>
-      <c r="D8" s="133" t="s">
+      <c r="D8" s="132" t="s">
         <v>173</v>
       </c>
-      <c r="E8" s="133" t="s">
+      <c r="E8" s="132" t="s">
         <v>172</v>
       </c>
-      <c r="F8" s="133" t="s">
+      <c r="F8" s="132" t="s">
         <v>216</v>
       </c>
-      <c r="G8" s="133" t="s">
+      <c r="G8" s="132" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="133" t="s">
+      <c r="H8" s="132" t="s">
         <v>219</v>
       </c>
-      <c r="I8" s="133">
+      <c r="I8" s="132">
         <v>1</v>
       </c>
-      <c r="J8" s="133">
+      <c r="J8" s="132">
         <v>1</v>
       </c>
-      <c r="K8" s="133">
+      <c r="K8" s="132">
         <v>1</v>
       </c>
       <c r="S8" s="1" t="s">
@@ -28814,31 +31514,31 @@
       <c r="AC8" s="1"/>
     </row>
     <row r="9" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C9" s="133">
+      <c r="C9" s="132">
         <v>4</v>
       </c>
-      <c r="D9" s="133" t="s">
+      <c r="D9" s="132" t="s">
         <v>173</v>
       </c>
-      <c r="E9" s="133" t="s">
+      <c r="E9" s="132" t="s">
         <v>171</v>
       </c>
-      <c r="F9" s="133" t="s">
+      <c r="F9" s="132" t="s">
         <v>218</v>
       </c>
-      <c r="G9" s="133" t="s">
+      <c r="G9" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="133" t="s">
+      <c r="H9" s="132" t="s">
         <v>219</v>
       </c>
-      <c r="I9" s="133" t="s">
+      <c r="I9" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="J9" s="133" t="s">
+      <c r="J9" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="K9" s="133">
+      <c r="K9" s="132">
         <v>1</v>
       </c>
       <c r="S9" t="s">
@@ -28877,31 +31577,31 @@
       </c>
     </row>
     <row r="10" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C10" s="133">
+      <c r="C10" s="132">
         <v>4</v>
       </c>
-      <c r="D10" s="133" t="s">
+      <c r="D10" s="132" t="s">
         <v>171</v>
       </c>
-      <c r="E10" s="133" t="s">
+      <c r="E10" s="132" t="s">
         <v>173</v>
       </c>
-      <c r="F10" s="133" t="s">
+      <c r="F10" s="132" t="s">
         <v>222</v>
       </c>
-      <c r="G10" s="133" t="s">
+      <c r="G10" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="133" t="s">
+      <c r="H10" s="132" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="133" t="s">
+      <c r="I10" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="J10" s="133" t="s">
+      <c r="J10" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="K10" s="133">
+      <c r="K10" s="132">
         <v>1</v>
       </c>
       <c r="S10" s="1" t="s">
@@ -28941,31 +31641,31 @@
       <c r="AC10" s="1"/>
     </row>
     <row r="11" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C11" s="133">
+      <c r="C11" s="132">
         <v>4</v>
       </c>
-      <c r="D11" s="133" t="s">
+      <c r="D11" s="132" t="s">
         <v>171</v>
       </c>
-      <c r="E11" s="133" t="s">
+      <c r="E11" s="132" t="s">
         <v>173</v>
       </c>
-      <c r="F11" s="133" t="s">
+      <c r="F11" s="132" t="s">
         <v>221</v>
       </c>
-      <c r="G11" s="133" t="s">
+      <c r="G11" s="132" t="s">
         <v>192</v>
       </c>
-      <c r="H11" s="133" t="s">
+      <c r="H11" s="132" t="s">
         <v>219</v>
       </c>
-      <c r="I11" s="133">
+      <c r="I11" s="132">
         <v>1</v>
       </c>
-      <c r="J11" s="133">
+      <c r="J11" s="132">
         <v>1</v>
       </c>
-      <c r="K11" s="133">
+      <c r="K11" s="132">
         <v>1</v>
       </c>
       <c r="S11" s="1" t="s">
@@ -29005,31 +31705,31 @@
       <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="133">
+      <c r="C12" s="132">
         <v>5</v>
       </c>
-      <c r="D12" s="133" t="s">
+      <c r="D12" s="132" t="s">
         <v>171</v>
       </c>
-      <c r="E12" s="133" t="s">
+      <c r="E12" s="132" t="s">
         <v>172</v>
       </c>
-      <c r="F12" s="133" t="s">
+      <c r="F12" s="132" t="s">
         <v>218</v>
       </c>
-      <c r="G12" s="133" t="s">
+      <c r="G12" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="133" t="s">
+      <c r="H12" s="132" t="s">
         <v>219</v>
       </c>
-      <c r="I12" s="133" t="s">
+      <c r="I12" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="J12" s="133" t="s">
+      <c r="J12" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="K12" s="133">
+      <c r="K12" s="132">
         <v>1</v>
       </c>
       <c r="S12" s="1" t="s">
@@ -29069,31 +31769,31 @@
       <c r="AC12" s="1"/>
     </row>
     <row r="13" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="133">
+      <c r="C13" s="132">
         <v>5</v>
       </c>
-      <c r="D13" s="133" t="s">
+      <c r="D13" s="132" t="s">
         <v>171</v>
       </c>
-      <c r="E13" s="133" t="s">
+      <c r="E13" s="132" t="s">
         <v>172</v>
       </c>
-      <c r="F13" s="133" t="s">
+      <c r="F13" s="132" t="s">
         <v>216</v>
       </c>
-      <c r="G13" s="133" t="s">
+      <c r="G13" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="133" t="s">
+      <c r="H13" s="132" t="s">
         <v>219</v>
       </c>
-      <c r="I13" s="133">
+      <c r="I13" s="132">
         <v>2</v>
       </c>
-      <c r="J13" s="133">
+      <c r="J13" s="132">
         <v>2</v>
       </c>
-      <c r="K13" s="133">
+      <c r="K13" s="132">
         <v>1</v>
       </c>
       <c r="S13" s="1" t="s">
@@ -29133,31 +31833,31 @@
       <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C14" s="133">
+      <c r="C14" s="132">
         <v>6</v>
       </c>
-      <c r="D14" s="133" t="s">
+      <c r="D14" s="132" t="s">
         <v>173</v>
       </c>
-      <c r="E14" s="133" t="s">
+      <c r="E14" s="132" t="s">
         <v>171</v>
       </c>
-      <c r="F14" s="133" t="s">
+      <c r="F14" s="132" t="s">
         <v>218</v>
       </c>
-      <c r="G14" s="133" t="s">
+      <c r="G14" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="133" t="s">
+      <c r="H14" s="132" t="s">
         <v>219</v>
       </c>
-      <c r="I14" s="133" t="s">
+      <c r="I14" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="J14" s="133" t="s">
+      <c r="J14" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="K14" s="133">
+      <c r="K14" s="132">
         <v>1</v>
       </c>
       <c r="S14" s="1" t="s">
@@ -29197,31 +31897,31 @@
       <c r="AC14" s="1"/>
     </row>
     <row r="15" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C15" s="133">
+      <c r="C15" s="132">
         <v>6</v>
       </c>
-      <c r="D15" s="133" t="s">
+      <c r="D15" s="132" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="133" t="s">
+      <c r="E15" s="132" t="s">
         <v>171</v>
       </c>
-      <c r="F15" s="133" t="s">
+      <c r="F15" s="132" t="s">
         <v>216</v>
       </c>
-      <c r="G15" s="133" t="s">
+      <c r="G15" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="133" t="s">
+      <c r="H15" s="132" t="s">
         <v>219</v>
       </c>
-      <c r="I15" s="133">
+      <c r="I15" s="132">
         <v>1</v>
       </c>
-      <c r="J15" s="133">
+      <c r="J15" s="132">
         <v>1</v>
       </c>
-      <c r="K15" s="133">
+      <c r="K15" s="132">
         <v>2</v>
       </c>
       <c r="S15" s="1" t="s">
@@ -29261,31 +31961,31 @@
       <c r="AC15" s="1"/>
     </row>
     <row r="16" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="133">
+      <c r="C16" s="132">
         <v>7</v>
       </c>
-      <c r="D16" s="133" t="s">
+      <c r="D16" s="132" t="s">
         <v>173</v>
       </c>
-      <c r="E16" s="133" t="s">
+      <c r="E16" s="132" t="s">
         <v>172</v>
       </c>
-      <c r="F16" s="133" t="s">
+      <c r="F16" s="132" t="s">
         <v>218</v>
       </c>
-      <c r="G16" s="133" t="s">
+      <c r="G16" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="133" t="s">
+      <c r="H16" s="132" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="133" t="s">
+      <c r="I16" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="J16" s="133" t="s">
+      <c r="J16" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="K16" s="133">
+      <c r="K16" s="132">
         <v>1</v>
       </c>
       <c r="S16" s="1" t="s">
@@ -29325,31 +32025,31 @@
       <c r="AC16" s="1"/>
     </row>
     <row r="17" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C17" s="133">
+      <c r="C17" s="132">
         <v>7</v>
       </c>
-      <c r="D17" s="133" t="s">
+      <c r="D17" s="132" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="133" t="s">
+      <c r="E17" s="132" t="s">
         <v>173</v>
       </c>
-      <c r="F17" s="133" t="s">
+      <c r="F17" s="132" t="s">
         <v>222</v>
       </c>
-      <c r="G17" s="133" t="s">
+      <c r="G17" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="133" t="s">
+      <c r="H17" s="132" t="s">
         <v>219</v>
       </c>
-      <c r="I17" s="133" t="s">
+      <c r="I17" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="J17" s="133" t="s">
+      <c r="J17" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="K17" s="133">
+      <c r="K17" s="132">
         <v>1</v>
       </c>
       <c r="S17" s="1" t="s">
@@ -29389,31 +32089,31 @@
       <c r="AC17" s="1"/>
     </row>
     <row r="18" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="133">
+      <c r="C18" s="132">
         <v>7</v>
       </c>
-      <c r="D18" s="133" t="s">
+      <c r="D18" s="132" t="s">
         <v>173</v>
       </c>
-      <c r="E18" s="133" t="s">
+      <c r="E18" s="132" t="s">
         <v>172</v>
       </c>
-      <c r="F18" s="133" t="s">
+      <c r="F18" s="132" t="s">
         <v>221</v>
       </c>
-      <c r="G18" s="133" t="s">
+      <c r="G18" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="133" t="s">
+      <c r="H18" s="132" t="s">
         <v>219</v>
       </c>
-      <c r="I18" s="133">
+      <c r="I18" s="132">
         <v>2</v>
       </c>
-      <c r="J18" s="133">
+      <c r="J18" s="132">
         <v>3</v>
       </c>
-      <c r="K18" s="133">
+      <c r="K18" s="132">
         <v>1</v>
       </c>
       <c r="S18" s="125" t="s">
@@ -29453,31 +32153,31 @@
       <c r="AC18" s="1"/>
     </row>
     <row r="19" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C19" s="133">
+      <c r="C19" s="132">
         <v>8</v>
       </c>
-      <c r="D19" s="133" t="s">
+      <c r="D19" s="132" t="s">
         <v>173</v>
       </c>
-      <c r="E19" s="133" t="s">
+      <c r="E19" s="132" t="s">
         <v>171</v>
       </c>
-      <c r="F19" s="133" t="s">
+      <c r="F19" s="132" t="s">
         <v>218</v>
       </c>
-      <c r="G19" s="133" t="s">
+      <c r="G19" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="133" t="s">
+      <c r="H19" s="132" t="s">
         <v>219</v>
       </c>
-      <c r="I19" s="133" t="s">
+      <c r="I19" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="J19" s="133" t="s">
+      <c r="J19" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="K19" s="133">
+      <c r="K19" s="132">
         <v>1</v>
       </c>
       <c r="S19" s="1"/>
@@ -29500,31 +32200,31 @@
       </c>
     </row>
     <row r="20" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C20" s="133">
+      <c r="C20" s="132">
         <v>8</v>
       </c>
-      <c r="D20" s="133" t="s">
+      <c r="D20" s="132" t="s">
         <v>171</v>
       </c>
-      <c r="E20" s="133" t="s">
+      <c r="E20" s="132" t="s">
         <v>173</v>
       </c>
-      <c r="F20" s="133" t="s">
+      <c r="F20" s="132" t="s">
         <v>222</v>
       </c>
-      <c r="G20" s="133" t="s">
+      <c r="G20" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="133" t="s">
+      <c r="H20" s="132" t="s">
         <v>219</v>
       </c>
-      <c r="I20" s="133" t="s">
+      <c r="I20" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="J20" s="133" t="s">
+      <c r="J20" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="K20" s="133">
+      <c r="K20" s="132">
         <v>1</v>
       </c>
       <c r="Z20" s="34" t="str">
@@ -29541,31 +32241,31 @@
       </c>
     </row>
     <row r="21" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C21" s="133">
+      <c r="C21" s="132">
         <v>8</v>
       </c>
-      <c r="D21" s="133" t="s">
+      <c r="D21" s="132" t="s">
         <v>173</v>
       </c>
-      <c r="E21" s="133" t="s">
+      <c r="E21" s="132" t="s">
         <v>171</v>
       </c>
-      <c r="F21" s="133" t="s">
+      <c r="F21" s="132" t="s">
         <v>221</v>
       </c>
-      <c r="G21" s="133" t="s">
+      <c r="G21" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="133" t="s">
+      <c r="H21" s="132" t="s">
         <v>219</v>
       </c>
-      <c r="I21" s="133">
+      <c r="I21" s="132">
         <v>3</v>
       </c>
-      <c r="J21" s="133">
+      <c r="J21" s="132">
         <v>2</v>
       </c>
-      <c r="K21" s="133">
+      <c r="K21" s="132">
         <v>1</v>
       </c>
       <c r="Z21" s="34" t="str">

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\LTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29863820-A769-4A95-9052-B01EE3E2A8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF474FAA-6E05-491F-A0AE-31F2346D7B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{4DB07035-BDB7-4C75-89E4-DFC507B748B4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="6" xr2:uid="{4DB07035-BDB7-4C75-89E4-DFC507B748B4}"/>
   </bookViews>
   <sheets>
     <sheet name="SfW" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="225">
   <si>
     <t>Points</t>
   </si>
@@ -1141,7 +1141,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1366,6 +1366,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1375,56 +1376,6 @@
     <cellStyle name="Percent 2" xfId="4" xr:uid="{634236AC-3325-4CC1-8E1B-D50D109B9BAB}"/>
   </cellStyles>
   <dxfs count="143">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3870,6 +3821,31 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3919,6 +3895,31 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4848,13 +4849,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.22222222222222221</c:v>
+                  <c:v>0.21428571428571427</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.6785714285714286</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.10714285714285714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7202,38 +7203,38 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}" name="Table1113" displayName="Table1113" ref="M3:V8" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}" name="Table1113" displayName="Table1113" ref="M3:V8" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="M3:V8" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7790729E-C8E5-45C1-8784-25212A2654AA}" name="Name" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{52A67B2B-967C-4970-8D83-8F8E9CC61522}" name="Points" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{BA1FA2C8-AEC0-4644-83DB-5097750D7188}" name="Average" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{4CF66F5D-BF10-4CBD-88FF-CCD38730E1CD}" name="Finishes" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{BC246D5B-7E78-41A6-B796-C93ED8E53DF9}" name="Averages" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{AB819419-CC06-4A40-8DED-E231125129C0}" name="Midranges" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{064AA562-C451-4362-805E-D12DC76C3530}" name="Averages2" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{BD0D8BAE-15E4-4B38-87FE-B682D7BAEE75}" name="Threes" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{541E391B-4B08-4E98-A63F-753C11193269}" name="Averages3" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{999BB5D2-D6FB-4EB9-A268-D62EA72F939D}" name="Missed Games" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{7790729E-C8E5-45C1-8784-25212A2654AA}" name="Name" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{52A67B2B-967C-4970-8D83-8F8E9CC61522}" name="Points" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{BA1FA2C8-AEC0-4644-83DB-5097750D7188}" name="Average" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{4CF66F5D-BF10-4CBD-88FF-CCD38730E1CD}" name="Finishes" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{BC246D5B-7E78-41A6-B796-C93ED8E53DF9}" name="Averages" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{AB819419-CC06-4A40-8DED-E231125129C0}" name="Midranges" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{064AA562-C451-4362-805E-D12DC76C3530}" name="Averages2" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{BD0D8BAE-15E4-4B38-87FE-B682D7BAEE75}" name="Threes" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{541E391B-4B08-4E98-A63F-753C11193269}" name="Averages3" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{999BB5D2-D6FB-4EB9-A268-D62EA72F939D}" name="Missed Games" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}" name="Table11" displayName="Table11" ref="I4:R10" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}" name="Table11" displayName="Table11" ref="I4:R10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="I4:R10" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{CE15C23D-9493-4B21-9D40-1A25D210C18E}" name="Name" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{6BB170B1-AA38-4699-9B96-400D2947EE9C}" name="Points" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{EC8B6CBB-FCC9-416C-AEA6-738419DFE531}" name="Average" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{315DA055-9A43-468A-A501-1092626F523F}" name="Finishes" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{56B6FF4D-95D4-4550-88E4-C781ABDA83A6}" name="Averages" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{F7B5C0B8-FBE2-44B0-A372-112C7776FCCF}" name="Midranges" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{1A1C2126-FEB1-408F-8523-049E53028B4E}" name="Averages2" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{AE94036B-3777-4C1B-97D5-7BFA1037C0BF}" name="Threes" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{448B0903-7F66-40BA-809F-74ADBF397B45}" name="Averages3" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{E0CAC55D-8398-4928-A219-C01706996D48}" name="Missed Games" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{CE15C23D-9493-4B21-9D40-1A25D210C18E}" name="Name" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{6BB170B1-AA38-4699-9B96-400D2947EE9C}" name="Points" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{EC8B6CBB-FCC9-416C-AEA6-738419DFE531}" name="Average" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{315DA055-9A43-468A-A501-1092626F523F}" name="Finishes" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{56B6FF4D-95D4-4550-88E4-C781ABDA83A6}" name="Averages" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{F7B5C0B8-FBE2-44B0-A372-112C7776FCCF}" name="Midranges" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{1A1C2126-FEB1-408F-8523-049E53028B4E}" name="Averages2" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{AE94036B-3777-4C1B-97D5-7BFA1037C0BF}" name="Threes" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{448B0903-7F66-40BA-809F-74ADBF397B45}" name="Averages3" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{E0CAC55D-8398-4928-A219-C01706996D48}" name="Missed Games" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7244,31 +7245,31 @@
   <autoFilter ref="Z28:AI44" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{5D003608-C1C2-4694-9447-8632FB8D7348}" name="Scoring" dataDxfId="117"/>
-    <tableColumn id="2" xr3:uid="{D15F4085-CED5-4CDD-B43B-BF7EB59B45A3}" name="Points" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{D15F4085-CED5-4CDD-B43B-BF7EB59B45A3}" name="Points" dataDxfId="116">
       <calculatedColumnFormula>'2401'!T3+'2501'!T3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2D436F37-54B6-4820-9145-F48B4EF9B294}" name="Finishes" dataDxfId="116">
+    <tableColumn id="3" xr3:uid="{2D436F37-54B6-4820-9145-F48B4EF9B294}" name="Finishes" dataDxfId="115">
       <calculatedColumnFormula>'2401'!U3+'2501'!U3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1D9B6A22-B682-47F3-B738-7C138F317A41}" name="Midranges" dataDxfId="115">
+    <tableColumn id="4" xr3:uid="{1D9B6A22-B682-47F3-B738-7C138F317A41}" name="Midranges" dataDxfId="114">
       <calculatedColumnFormula>'2401'!V3+'2501'!V3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9966C9A0-3872-44E9-BB39-05DE197EAA68}" name="Threes" dataDxfId="114">
+    <tableColumn id="5" xr3:uid="{9966C9A0-3872-44E9-BB39-05DE197EAA68}" name="Threes" dataDxfId="113">
       <calculatedColumnFormula>'2401'!W3+'2501'!W3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CC4AB646-735F-425F-8528-C5EFE7FE11DC}" name="Avg P" dataDxfId="113">
+    <tableColumn id="6" xr3:uid="{CC4AB646-735F-425F-8528-C5EFE7FE11DC}" name="Avg P" dataDxfId="112">
       <calculatedColumnFormula>Table211[[#This Row],[Points]]/($AA$27-$AI29)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F8D0247E-C6F7-467A-9F38-46084D44F8AB}" name="Avg F" dataDxfId="112">
+    <tableColumn id="7" xr3:uid="{F8D0247E-C6F7-467A-9F38-46084D44F8AB}" name="Avg F" dataDxfId="111">
       <calculatedColumnFormula>Table211[[#This Row],[Finishes]]/($AA$27-$AI29)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7CCF1C77-9DB0-4EB2-B7D0-FD0BDBEBFA0E}" name="Avg M" dataDxfId="111">
+    <tableColumn id="8" xr3:uid="{7CCF1C77-9DB0-4EB2-B7D0-FD0BDBEBFA0E}" name="Avg M" dataDxfId="110">
       <calculatedColumnFormula>Table211[[#This Row],[Midranges]]/($AA$27-$AI29)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{582A1A4E-5383-4383-A480-735408867046}" name="Avg T" dataDxfId="110">
+    <tableColumn id="9" xr3:uid="{582A1A4E-5383-4383-A480-735408867046}" name="Avg T" dataDxfId="109">
       <calculatedColumnFormula>Table211[[#This Row],[Threes]]/($AA$27-$AI29)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E547AEB5-F9BA-4C5F-8DCE-34B6A8FF303A}" name="Missed Games" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{E547AEB5-F9BA-4C5F-8DCE-34B6A8FF303A}" name="Missed Games" dataDxfId="108">
       <calculatedColumnFormula>COUNTIF('2401'!X3, TRUE)+COUNTIF('2501'!X3, TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7277,130 +7278,130 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}" name="Table21123" displayName="Table21123" ref="Z48:AI64" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}" name="Table21123" displayName="Table21123" ref="Z48:AI64" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="Z48:AI64" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0B0344E8-2677-4FAB-9B03-4745991FB5AE}" name="Scoring" dataDxfId="107"/>
-    <tableColumn id="2" xr3:uid="{58CA1107-8BB4-4A5D-BA00-31619C8D3973}" name="Points" dataDxfId="106"/>
-    <tableColumn id="3" xr3:uid="{8090861E-1FDF-44F4-9DB6-BB814E32C754}" name="Finishes" dataDxfId="105"/>
-    <tableColumn id="4" xr3:uid="{972D0347-DAB3-4985-A738-E5D78740D498}" name="Midranges" dataDxfId="104"/>
-    <tableColumn id="5" xr3:uid="{48F5F884-1753-4988-9056-632B5EB6BBCB}" name="Threes" dataDxfId="103"/>
-    <tableColumn id="6" xr3:uid="{6953B627-EA05-418F-A758-FD59263EA60D}" name="Avg P" dataDxfId="102"/>
-    <tableColumn id="7" xr3:uid="{BE057C9C-5ECD-4AC2-A9C0-18C89CFB52BC}" name="Avg F" dataDxfId="101"/>
-    <tableColumn id="8" xr3:uid="{0FDEBEE7-CD5E-4A44-A0AE-74F044F1FF46}" name="Avg M" dataDxfId="100"/>
-    <tableColumn id="9" xr3:uid="{76975BB6-3677-41A8-BC24-7536B1D876D3}" name="Avg T" dataDxfId="99"/>
-    <tableColumn id="10" xr3:uid="{E5ADB69B-3BA2-4019-8C83-8B02221F187E}" name="Missed Games" dataDxfId="98"/>
+    <tableColumn id="1" xr3:uid="{0B0344E8-2677-4FAB-9B03-4745991FB5AE}" name="Scoring" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{58CA1107-8BB4-4A5D-BA00-31619C8D3973}" name="Points" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{8090861E-1FDF-44F4-9DB6-BB814E32C754}" name="Finishes" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{972D0347-DAB3-4985-A738-E5D78740D498}" name="Midranges" dataDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{48F5F884-1753-4988-9056-632B5EB6BBCB}" name="Threes" dataDxfId="101"/>
+    <tableColumn id="6" xr3:uid="{6953B627-EA05-418F-A758-FD59263EA60D}" name="Avg P" dataDxfId="100"/>
+    <tableColumn id="7" xr3:uid="{BE057C9C-5ECD-4AC2-A9C0-18C89CFB52BC}" name="Avg F" dataDxfId="99"/>
+    <tableColumn id="8" xr3:uid="{0FDEBEE7-CD5E-4A44-A0AE-74F044F1FF46}" name="Avg M" dataDxfId="98"/>
+    <tableColumn id="9" xr3:uid="{76975BB6-3677-41A8-BC24-7536B1D876D3}" name="Avg T" dataDxfId="97"/>
+    <tableColumn id="10" xr3:uid="{E5ADB69B-3BA2-4019-8C83-8B02221F187E}" name="Missed Games" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}" name="Table21124" displayName="Table21124" ref="AK48:AT64" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}" name="Table21124" displayName="Table21124" ref="AK48:AT64" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="AK48:AT64" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3D35891E-3654-497A-8DB2-BF0BD916CA29}" name="Scoring" dataDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{54B5B6AF-372A-4E07-B4D6-DFC66F7E20C5}" name="Points" dataDxfId="94"/>
-    <tableColumn id="3" xr3:uid="{6CA15B41-F560-4B43-8836-163F5BB5689C}" name="Finishes" dataDxfId="93"/>
-    <tableColumn id="4" xr3:uid="{8FF05262-0051-44F7-966E-8D405318BA69}" name="Midranges" dataDxfId="92"/>
-    <tableColumn id="5" xr3:uid="{F0D843FC-7A93-4C9A-BCCF-E789F7811B3B}" name="Threes" dataDxfId="91"/>
-    <tableColumn id="6" xr3:uid="{F0498F8A-F646-4C1F-A3CF-E89E73750FC1}" name="Avg P" dataDxfId="90"/>
-    <tableColumn id="7" xr3:uid="{A387BC88-F45C-4386-8503-EFEA33BDAC38}" name="Avg F" dataDxfId="89"/>
-    <tableColumn id="8" xr3:uid="{BEA82919-0828-4351-A01A-D72E13E63FAB}" name="Avg M" dataDxfId="88"/>
-    <tableColumn id="9" xr3:uid="{ABEBCE01-BCA4-4342-966C-27301889B607}" name="Avg T" dataDxfId="87"/>
-    <tableColumn id="10" xr3:uid="{65E7A8E7-4C51-42E4-AB0F-B7FF6099D70A}" name="Missed Games" dataDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{3D35891E-3654-497A-8DB2-BF0BD916CA29}" name="Scoring" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{54B5B6AF-372A-4E07-B4D6-DFC66F7E20C5}" name="Points" dataDxfId="92"/>
+    <tableColumn id="3" xr3:uid="{6CA15B41-F560-4B43-8836-163F5BB5689C}" name="Finishes" dataDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{8FF05262-0051-44F7-966E-8D405318BA69}" name="Midranges" dataDxfId="90"/>
+    <tableColumn id="5" xr3:uid="{F0D843FC-7A93-4C9A-BCCF-E789F7811B3B}" name="Threes" dataDxfId="89"/>
+    <tableColumn id="6" xr3:uid="{F0498F8A-F646-4C1F-A3CF-E89E73750FC1}" name="Avg P" dataDxfId="88"/>
+    <tableColumn id="7" xr3:uid="{A387BC88-F45C-4386-8503-EFEA33BDAC38}" name="Avg F" dataDxfId="87"/>
+    <tableColumn id="8" xr3:uid="{BEA82919-0828-4351-A01A-D72E13E63FAB}" name="Avg M" dataDxfId="86"/>
+    <tableColumn id="9" xr3:uid="{ABEBCE01-BCA4-4342-966C-27301889B607}" name="Avg T" dataDxfId="85"/>
+    <tableColumn id="10" xr3:uid="{65E7A8E7-4C51-42E4-AB0F-B7FF6099D70A}" name="Missed Games" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}" name="Table21125" displayName="Table21125" ref="AK68:AT84" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}" name="Table21125" displayName="Table21125" ref="AK68:AT84" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="AK68:AT84" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D144EF14-69FD-4E71-90C7-56F49F45FAE5}" name="Scoring" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{34D1D392-F3E0-4C36-9EED-849D5B1149E6}" name="Points" dataDxfId="82"/>
-    <tableColumn id="3" xr3:uid="{E91D98A2-80BD-4E5C-9036-2FCC8185369F}" name="Finishes" dataDxfId="81"/>
-    <tableColumn id="4" xr3:uid="{D2E5029E-4811-4E9B-9A2D-5F5F8F322B0D}" name="Midranges" dataDxfId="80"/>
-    <tableColumn id="5" xr3:uid="{B3E76CEE-33DA-4B18-8DCE-8EBC7EE592D7}" name="Threes" dataDxfId="79"/>
-    <tableColumn id="6" xr3:uid="{6ABE1879-8018-4498-A9A1-22CF831F0364}" name="Avg P" dataDxfId="78"/>
-    <tableColumn id="7" xr3:uid="{8DA4DD79-8A2A-49E4-996F-C1ACCED3C565}" name="Avg F" dataDxfId="77"/>
-    <tableColumn id="8" xr3:uid="{256EA4BC-BA61-49E2-969F-0786AA9AA6EA}" name="Avg M" dataDxfId="76"/>
-    <tableColumn id="9" xr3:uid="{0E5566B2-99EC-4B03-A074-8705C4EDA484}" name="Avg T" dataDxfId="75"/>
-    <tableColumn id="10" xr3:uid="{3E2357F0-493E-401D-AC75-9AAB260F684E}" name="Missed Games" dataDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{D144EF14-69FD-4E71-90C7-56F49F45FAE5}" name="Scoring" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{34D1D392-F3E0-4C36-9EED-849D5B1149E6}" name="Points" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{E91D98A2-80BD-4E5C-9036-2FCC8185369F}" name="Finishes" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{D2E5029E-4811-4E9B-9A2D-5F5F8F322B0D}" name="Midranges" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{B3E76CEE-33DA-4B18-8DCE-8EBC7EE592D7}" name="Threes" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{6ABE1879-8018-4498-A9A1-22CF831F0364}" name="Avg P" dataDxfId="76"/>
+    <tableColumn id="7" xr3:uid="{8DA4DD79-8A2A-49E4-996F-C1ACCED3C565}" name="Avg F" dataDxfId="75"/>
+    <tableColumn id="8" xr3:uid="{256EA4BC-BA61-49E2-969F-0786AA9AA6EA}" name="Avg M" dataDxfId="74"/>
+    <tableColumn id="9" xr3:uid="{0E5566B2-99EC-4B03-A074-8705C4EDA484}" name="Avg T" dataDxfId="73"/>
+    <tableColumn id="10" xr3:uid="{3E2357F0-493E-401D-AC75-9AAB260F684E}" name="Missed Games" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}" name="Table21126" displayName="Table21126" ref="Z68:AI84" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}" name="Table21126" displayName="Table21126" ref="Z68:AI84" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="Z68:AI84" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7723929D-65B3-40BB-8FDD-C4533243706C}" name="Scoring" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{EC28DE3D-619E-4930-A3AF-7AD1BE1D4843}" name="Points" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{9537269D-8C1D-42B5-866F-D03CE61A8512}" name="Finishes" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{AC590DDB-BE19-4A14-8B98-1E5E2430AA45}" name="Midranges" dataDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{C96D3ACD-F34D-477E-86DE-4650EE56BC94}" name="Threes" dataDxfId="67"/>
-    <tableColumn id="6" xr3:uid="{A43DE5E9-BB01-49FA-A204-66EE7BAA2E9F}" name="Avg P" dataDxfId="66"/>
-    <tableColumn id="7" xr3:uid="{C75A19FF-6041-45C2-BACB-E347F06B6329}" name="Avg F" dataDxfId="65"/>
-    <tableColumn id="8" xr3:uid="{00D3FCFC-C9C5-4C96-BE0E-8E1FDC95D07C}" name="Avg M" dataDxfId="64"/>
-    <tableColumn id="9" xr3:uid="{0448FF4E-9D2D-47F6-89B7-F17D36B05E8A}" name="Avg T" dataDxfId="63"/>
-    <tableColumn id="10" xr3:uid="{D5BDFA2D-095B-44F8-8567-15B3B1520E5A}" name="Missed Games" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{7723929D-65B3-40BB-8FDD-C4533243706C}" name="Scoring" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{EC28DE3D-619E-4930-A3AF-7AD1BE1D4843}" name="Points" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{9537269D-8C1D-42B5-866F-D03CE61A8512}" name="Finishes" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{AC590DDB-BE19-4A14-8B98-1E5E2430AA45}" name="Midranges" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{C96D3ACD-F34D-477E-86DE-4650EE56BC94}" name="Threes" dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{A43DE5E9-BB01-49FA-A204-66EE7BAA2E9F}" name="Avg P" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{C75A19FF-6041-45C2-BACB-E347F06B6329}" name="Avg F" dataDxfId="63"/>
+    <tableColumn id="8" xr3:uid="{00D3FCFC-C9C5-4C96-BE0E-8E1FDC95D07C}" name="Avg M" dataDxfId="62"/>
+    <tableColumn id="9" xr3:uid="{0448FF4E-9D2D-47F6-89B7-F17D36B05E8A}" name="Avg T" dataDxfId="61"/>
+    <tableColumn id="10" xr3:uid="{D5BDFA2D-095B-44F8-8567-15B3B1520E5A}" name="Missed Games" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}" name="Table21127" displayName="Table21127" ref="Z88:AI104" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}" name="Table21127" displayName="Table21127" ref="Z88:AI104" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="Z88:AI104" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{9DBD966D-620C-4B97-A502-29D00ABE150B}" name="Scoring" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{F8F81F0E-16B3-4472-9D90-A92149C763E4}" name="Points" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{09859CE1-290D-4977-B02C-46F4E5A6FDC2}" name="Finishes" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{7D751A0E-2895-46DF-B5E2-5A8AA5531CD2}" name="Midranges" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{591CDC71-B0EA-413B-B6C1-77884E7E50D4}" name="Threes" dataDxfId="55"/>
-    <tableColumn id="6" xr3:uid="{52ED768C-5557-42DC-9824-7A4D9B547153}" name="Avg P" dataDxfId="54"/>
-    <tableColumn id="7" xr3:uid="{FC79BE87-72E2-4F5E-83D6-CDCE645EB943}" name="Avg F" dataDxfId="53"/>
-    <tableColumn id="8" xr3:uid="{BA012C22-0D65-4C11-98A7-4F958703D04B}" name="Avg M" dataDxfId="52"/>
-    <tableColumn id="9" xr3:uid="{63344F2B-5D94-417D-85E2-C2BFBACE3E7E}" name="Avg T" dataDxfId="51"/>
-    <tableColumn id="10" xr3:uid="{1AD5A604-8909-45B3-8E43-11D407451CEA}" name="Missed Games" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{9DBD966D-620C-4B97-A502-29D00ABE150B}" name="Scoring" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{F8F81F0E-16B3-4472-9D90-A92149C763E4}" name="Points" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{09859CE1-290D-4977-B02C-46F4E5A6FDC2}" name="Finishes" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{7D751A0E-2895-46DF-B5E2-5A8AA5531CD2}" name="Midranges" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{591CDC71-B0EA-413B-B6C1-77884E7E50D4}" name="Threes" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{52ED768C-5557-42DC-9824-7A4D9B547153}" name="Avg P" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{FC79BE87-72E2-4F5E-83D6-CDCE645EB943}" name="Avg F" dataDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{BA012C22-0D65-4C11-98A7-4F958703D04B}" name="Avg M" dataDxfId="50"/>
+    <tableColumn id="9" xr3:uid="{63344F2B-5D94-417D-85E2-C2BFBACE3E7E}" name="Avg T" dataDxfId="49"/>
+    <tableColumn id="10" xr3:uid="{1AD5A604-8909-45B3-8E43-11D407451CEA}" name="Missed Games" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}" name="Table21128" displayName="Table21128" ref="AK28:AT44" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}" name="Table21128" displayName="Table21128" ref="AK28:AT44" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="AK28:AT44" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{E62FBAA0-D6F6-4997-96C9-B6B13FAA9B6E}" name="Scoring" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{0A655F6F-9A21-4167-85B6-B9F7DC2070CA}" name="Points" dataDxfId="46">
+    <tableColumn id="1" xr3:uid="{E62FBAA0-D6F6-4997-96C9-B6B13FAA9B6E}" name="Scoring" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{0A655F6F-9A21-4167-85B6-B9F7DC2070CA}" name="Points" dataDxfId="44">
       <calculatedColumnFormula>Template!AC51</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{460771D3-3BD8-4DA3-AF1B-1A0F98EF1499}" name="Finishes" dataDxfId="45">
+    <tableColumn id="3" xr3:uid="{460771D3-3BD8-4DA3-AF1B-1A0F98EF1499}" name="Finishes" dataDxfId="43">
       <calculatedColumnFormula>Template!AD51</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3C08B2D7-823D-49C3-A627-A5848E664B2F}" name="Midranges" dataDxfId="44">
+    <tableColumn id="4" xr3:uid="{3C08B2D7-823D-49C3-A627-A5848E664B2F}" name="Midranges" dataDxfId="42">
       <calculatedColumnFormula>Template!AE51</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E88F45FB-4C46-4674-86D5-74808E7E5368}" name="Threes" dataDxfId="43">
+    <tableColumn id="5" xr3:uid="{E88F45FB-4C46-4674-86D5-74808E7E5368}" name="Threes" dataDxfId="41">
       <calculatedColumnFormula>Template!AF51</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0C0E8016-1E6E-4F25-9675-4EE061FFD0F7}" name="Avg P" dataDxfId="42">
+    <tableColumn id="6" xr3:uid="{0C0E8016-1E6E-4F25-9675-4EE061FFD0F7}" name="Avg P" dataDxfId="40">
       <calculatedColumnFormula>AL29/#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F7AC350B-AE4B-4912-B21D-16D99E2AE8BF}" name="Avg F" dataDxfId="41">
+    <tableColumn id="7" xr3:uid="{F7AC350B-AE4B-4912-B21D-16D99E2AE8BF}" name="Avg F" dataDxfId="39">
       <calculatedColumnFormula>AM29/#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F451E5CA-B9C4-4EFA-A647-CEDB2FB39550}" name="Avg M" dataDxfId="40">
+    <tableColumn id="8" xr3:uid="{F451E5CA-B9C4-4EFA-A647-CEDB2FB39550}" name="Avg M" dataDxfId="38">
       <calculatedColumnFormula>AN29/#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ED1D92B5-05F1-40CE-A89F-E6627FAB4A59}" name="Avg T" dataDxfId="39">
+    <tableColumn id="9" xr3:uid="{ED1D92B5-05F1-40CE-A89F-E6627FAB4A59}" name="Avg T" dataDxfId="37">
       <calculatedColumnFormula>AO29/#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{48A4808A-3DE6-4644-83F5-C2AEDDFC3E5E}" name="Missed Games" dataDxfId="38">
+    <tableColumn id="10" xr3:uid="{48A4808A-3DE6-4644-83F5-C2AEDDFC3E5E}" name="Missed Games" dataDxfId="36">
       <calculatedColumnFormula>COUNTIF(Template!AG63, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7409,19 +7410,19 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}" name="Table1114" displayName="Table1114" ref="P3:Y8" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}" name="Table1114" displayName="Table1114" ref="P3:Y8" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="P3:Y8" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B3B5C08C-655A-460A-A171-B3B0C826FF04}" name="Name" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{427944B0-44CA-4325-A406-29F83026BA5E}" name="Points" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{5E06D173-4DBE-4045-9072-0A0A77D19C84}" name="Average" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{E74131A4-1DCA-4A89-8989-A4CF80175582}" name="Finishes" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{FC3336D4-2CB5-4673-A345-7C9CCED7ADEE}" name="Averages" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{BD6313A7-5D92-4B66-9B85-7ABC12DE9691}" name="Midranges" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{6D0293BC-7E06-45CE-9D4B-FE4769DF9D9F}" name="Averages2" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{89C1C64B-DD66-482C-BCDE-8B912D2676EF}" name="Threes" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{7748B87C-1833-4BD6-9162-76373407E655}" name="Averages3" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{D870E191-A52F-442E-AA52-A42CFAD05573}" name="Missed Games" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{B3B5C08C-655A-460A-A171-B3B0C826FF04}" name="Name" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{427944B0-44CA-4325-A406-29F83026BA5E}" name="Points" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{5E06D173-4DBE-4045-9072-0A0A77D19C84}" name="Average" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{E74131A4-1DCA-4A89-8989-A4CF80175582}" name="Finishes" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{FC3336D4-2CB5-4673-A345-7C9CCED7ADEE}" name="Averages" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{BD6313A7-5D92-4B66-9B85-7ABC12DE9691}" name="Midranges" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{6D0293BC-7E06-45CE-9D4B-FE4769DF9D9F}" name="Averages2" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{89C1C64B-DD66-482C-BCDE-8B912D2676EF}" name="Threes" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{7748B87C-1833-4BD6-9162-76373407E655}" name="Averages3" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{D870E191-A52F-442E-AA52-A42CFAD05573}" name="Missed Games" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7791,7 +7792,7 @@
       </c>
       <c r="AE3" t="str">
         <f>'Statistics CT'!G43</f>
-        <v>4,2,3],</v>
+        <v>6,4,6],</v>
       </c>
     </row>
     <row r="4" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -7856,7 +7857,7 @@
       </c>
       <c r="AE4" t="str">
         <f>'Statistics CT'!G44</f>
-        <v>5,"Alexander Galt",5,"Alexander Galt",1,"Ryan Pattemore",0,"N/A"],</v>
+        <v>6,"Alexander Galt",6,"Alexander Galt",1,"Ryan Pattemore",0,"N/A"],</v>
       </c>
     </row>
     <row r="5" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -7868,19 +7869,19 @@
       </c>
       <c r="D5" s="5">
         <f>'Stats Global'!AB10</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
         <f>'Stats Global'!AA10</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="5">
         <f>'Stats Global'!AD10</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
         <f>'Stats Global'!AC10</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5" s="5">
         <f>'Stats Global'!AF10</f>
@@ -7934,7 +7935,7 @@
       </c>
       <c r="AE5" t="str">
         <f>'Statistics CT'!G45</f>
-        <v>4.5,4,0.5,0,2,1],</v>
+        <v>7,6,1,0,3,2],</v>
       </c>
     </row>
     <row r="6" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -7946,19 +7947,19 @@
       </c>
       <c r="D6" s="5">
         <f>'Stats Global'!AB11</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1">
         <f>'Stats Global'!AA11</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" s="5">
         <f>'Stats Global'!AD11</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
         <f>'Stats Global'!AC11</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6" s="5">
         <f>'Stats Global'!AF11</f>
@@ -8021,7 +8022,7 @@
       </c>
       <c r="AE6" t="str">
         <f>'Statistics CT'!G46</f>
-        <v>2,1,66.7,2,1,66.7],</v>
+        <v>3,1,75,3,2,60],</v>
       </c>
     </row>
     <row r="7" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -8096,7 +8097,7 @@
       </c>
       <c r="AE7" t="str">
         <f>'Statistics TC'!H43</f>
-        <v>2,3,1.5],</v>
+        <v>3,4,3.5],</v>
       </c>
     </row>
     <row r="8" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -8108,19 +8109,19 @@
       </c>
       <c r="D8" s="5">
         <f>'Stats Global'!AB13</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E8" s="1">
         <f>'Stats Global'!AA13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="5">
         <f>'Stats Global'!AD13</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G8" s="1">
         <f>'Stats Global'!AC13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="5">
         <f>'Stats Global'!AF13</f>
@@ -8171,7 +8172,7 @@
       </c>
       <c r="AE8" t="str">
         <f>'Statistics TC'!H44</f>
-        <v>2,"Clarrie Jones",1,"William Kim",0,"N/A",1,"Clarrie Jones"],</v>
+        <v>4,"Angus Walker",1,"William Kim",0,"N/A",2,"Angus Walker"],</v>
       </c>
     </row>
     <row r="9" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -8240,7 +8241,7 @@
       </c>
       <c r="AE9" t="str">
         <f>'Statistics TC'!H45</f>
-        <v>4.5,0.5,0,1,1,1.5],</v>
+        <v>7,0.5,0,1.5,1.5,2],</v>
       </c>
     </row>
     <row r="10" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -8326,7 +8327,7 @@
       </c>
       <c r="AE10" t="str">
         <f>'Statistics TC'!H46</f>
-        <v>1,2,33.3,1,1,50],</v>
+        <v>1,3,25,1,2,33.3],</v>
       </c>
     </row>
     <row r="11" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -8413,7 +8414,7 @@
       </c>
       <c r="AE11" t="str">
         <f>'Statistics GM'!H32</f>
-        <v>2,3,1.5],</v>
+        <v>3,5,2.5],</v>
       </c>
     </row>
     <row r="12" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -8425,11 +8426,11 @@
       </c>
       <c r="D12" s="5">
         <f>'Stats Global'!AB17</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E12" s="1">
         <f>'Stats Global'!AA17</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F12" s="5">
         <f>'Stats Global'!AD17</f>
@@ -8441,11 +8442,11 @@
       </c>
       <c r="H12" s="5">
         <f>'Stats Global'!AF17</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I12" s="1">
         <f>'Stats Global'!AE17</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" s="5">
         <f>'Stats Global'!AH17</f>
@@ -8494,7 +8495,7 @@
       </c>
       <c r="AE12" t="str">
         <f>'Statistics GM'!H33</f>
-        <v>3,"Michael Iffland",2,"N/A",1,"N/A",0,"N/A"],</v>
+        <v>5,"Samuel McConaghy",2,"N/A",3,"N/A",0,"N/A"],</v>
       </c>
     </row>
     <row r="13" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -8565,7 +8566,7 @@
       </c>
       <c r="AE13" t="str">
         <f>'Statistics GM'!H34</f>
-        <v>3,2.5,0.5,0,1,1.5],</v>
+        <v>5,3,2,0,1.5,2.5],</v>
       </c>
     </row>
     <row r="14" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -8649,7 +8650,7 @@
       </c>
       <c r="AE14" t="str">
         <f>'Statistics GM'!H35</f>
-        <v>1,2,33.3,1,1,50],</v>
+        <v>2,3,40,2,1,66.7],</v>
       </c>
     </row>
     <row r="15" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -8661,27 +8662,27 @@
       </c>
       <c r="D15" s="5">
         <f>'Stats Global'!AB20</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E15" s="1">
         <f>'Stats Global'!AA20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" s="5">
         <f>'Stats Global'!AD20</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
         <f>'Stats Global'!AC20</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="5">
         <f>'Stats Global'!AF20</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I15" s="1">
         <f>'Stats Global'!AE20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="5">
         <f>'Stats Global'!AH20</f>
@@ -8738,11 +8739,11 @@
       </c>
       <c r="D16" s="5">
         <f>'Stats Global'!AB21</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1">
         <f>'Stats Global'!AA21</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" s="5">
         <f>'Stats Global'!AD21</f>
@@ -8762,11 +8763,11 @@
       </c>
       <c r="J16" s="5">
         <f>'Stats Global'!AH21</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
         <f>'Stats Global'!AG21</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" s="13">
         <f>'Stats Global'!AJ22</f>
@@ -8853,7 +8854,7 @@
       </c>
       <c r="L17" s="13">
         <f>'Stats Global'!AJ23</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>58</v>
@@ -8881,7 +8882,7 @@
       </c>
       <c r="AD17" s="35" t="str">
         <f t="shared" ref="AD17:AD28" si="3">CHAR(34)&amp;AD3&amp;CHAR(34)&amp;":["&amp;AE3</f>
-        <v>"PartACT":[4,2,3],</v>
+        <v>"PartACT":[6,4,6],</v>
       </c>
     </row>
     <row r="18" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -8940,7 +8941,7 @@
       </c>
       <c r="AD18" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>"PartBCT":[5,"Alexander Galt",5,"Alexander Galt",1,"Ryan Pattemore",0,"N/A"],</v>
+        <v>"PartBCT":[6,"Alexander Galt",6,"Alexander Galt",1,"Ryan Pattemore",0,"N/A"],</v>
       </c>
     </row>
     <row r="19" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -8963,7 +8964,7 @@
       </c>
       <c r="AD19" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>"PartCCT":[4.5,4,0.5,0,2,1],</v>
+        <v>"PartCCT":[7,6,1,0,3,2],</v>
       </c>
     </row>
     <row r="20" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -8977,7 +8978,7 @@
       </c>
       <c r="AD20" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>"PartDCT":[2,1,66.7,2,1,66.7],</v>
+        <v>"PartDCT":[3,1,75,3,2,60],</v>
       </c>
     </row>
     <row r="21" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -8986,7 +8987,7 @@
       </c>
       <c r="AD21" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>"PartATC":[2,3,1.5],</v>
+        <v>"PartATC":[3,4,3.5],</v>
       </c>
     </row>
     <row r="22" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
@@ -9000,7 +9001,7 @@
       </c>
       <c r="AD22" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>"PartBTC":[2,"Clarrie Jones",1,"William Kim",0,"N/A",1,"Clarrie Jones"],</v>
+        <v>"PartBTC":[4,"Angus Walker",1,"William Kim",0,"N/A",2,"Angus Walker"],</v>
       </c>
     </row>
     <row r="23" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
@@ -9012,7 +9013,7 @@
       </c>
       <c r="AD23" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>"PartCTC":[4.5,0.5,0,1,1,1.5],</v>
+        <v>"PartCTC":[7,0.5,0,1.5,1.5,2],</v>
       </c>
     </row>
     <row r="24" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
@@ -9023,7 +9024,7 @@
       </c>
       <c r="AD24" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>"PartDTC":[1,2,33.3,1,1,50],</v>
+        <v>"PartDTC":[1,3,25,1,2,33.3],</v>
       </c>
     </row>
     <row r="25" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
@@ -9042,7 +9043,7 @@
       </c>
       <c r="AD25" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>"PartAGM":[2,3,1.5],</v>
+        <v>"PartAGM":[3,5,2.5],</v>
       </c>
     </row>
     <row r="26" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
@@ -9054,69 +9055,69 @@
       <c r="Y26" s="1"/>
       <c r="AD26" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>"PartBGM":[3,"Michael Iffland",2,"N/A",1,"N/A",0,"N/A"],</v>
+        <v>"PartBGM":[5,"Samuel McConaghy",2,"N/A",3,"N/A",0,"N/A"],</v>
       </c>
     </row>
     <row r="27" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="115" t="str">
         <f>D49&amp;":["&amp;D50&amp;D51&amp;D52&amp;D53&amp;D54&amp;D55&amp;D56&amp;D57&amp;D58&amp;D59&amp;D60&amp;D61&amp;D62&amp;D63&amp;D64&amp;D65&amp;"],"</f>
-        <v>"PPG":[0,0,2.5,1,1.5,0,0,1,0.5,1,0.5,0,0.5,1,0.5,"0"],</v>
+        <v>"PPG":[0,0,3,2,1.5,0.5,0,1,0.5,2.5,0.5,0,1.5,2,0.5,"0"],</v>
       </c>
       <c r="AD27" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>"PartCGM":[3,2.5,0.5,0,1,1.5],</v>
+        <v>"PartCGM":[5,3,2,0,1.5,2.5],</v>
       </c>
     </row>
     <row r="28" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="10" t="str">
         <f>E49&amp;":["&amp;E50&amp;E51&amp;E52&amp;E53&amp;E54&amp;E55&amp;E56&amp;E57&amp;E58&amp;E59&amp;E60&amp;E61&amp;E62&amp;E63&amp;E64&amp;E65&amp;"],"</f>
-        <v>"TP":[0,0,5,2,3,0,0,2,1,2,1,0,1,2,1,"0"],</v>
+        <v>"TP":[0,0,6,4,3,1,0,2,1,5,1,0,3,4,1,"0"],</v>
       </c>
       <c r="AD28" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>"PartDGM":[1,2,33.3,1,1,50],</v>
+        <v>"PartDGM":[2,3,40,2,1,66.7],</v>
       </c>
     </row>
     <row r="29" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="10" t="str">
         <f>F49&amp;":["&amp;F50&amp;F51&amp;F52&amp;F53&amp;F54&amp;F55&amp;F56&amp;F57&amp;F58&amp;F59&amp;F60&amp;F61&amp;F62&amp;F63&amp;F64&amp;F65&amp;"],"</f>
-        <v>"FPG":[0,0,2.5,1,1,0,0,0,0.5,1,0,0,0.5,0,0.5,"0"],</v>
+        <v>"FPG":[0,0,3,2,1,0.5,0,0,0.5,1,0,0,1,0,0.5,"0"],</v>
       </c>
     </row>
     <row r="30" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="10" t="str">
         <f>G49&amp;":["&amp;G50&amp;G51&amp;G52&amp;G53&amp;G54&amp;G55&amp;G56&amp;G57&amp;G58&amp;G59&amp;G60&amp;G61&amp;G62&amp;G63&amp;G64&amp;G65&amp;"],"</f>
-        <v>"TF":[0,0,5,2,2,0,0,0,1,2,0,0,1,0,1,"0"],</v>
+        <v>"TF":[0,0,6,4,2,1,0,0,1,2,0,0,2,0,1,"0"],</v>
       </c>
     </row>
     <row r="31" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="10" t="str">
         <f>H49&amp;":["&amp;H50&amp;H51&amp;H52&amp;H53&amp;H54&amp;H55&amp;H56&amp;H57&amp;H58&amp;H59&amp;H60&amp;H61&amp;H62&amp;H63&amp;H64&amp;H65&amp;"],"</f>
-        <v>"MPG":[0,0,0,0,0.5,0,0,0,0,0,0.5,0,0,0,0,"0"],</v>
+        <v>"MPG":[0,0,0,0,0.5,0,0,0,0,1.5,0.5,0,0.5,0,0,"0"],</v>
       </c>
     </row>
     <row r="32" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="10" t="str">
         <f>I49&amp;":["&amp;I50&amp;I51&amp;I52&amp;I53&amp;I54&amp;I55&amp;I56&amp;I57&amp;I58&amp;I59&amp;I60&amp;I61&amp;I62&amp;I63&amp;I64&amp;I65&amp;"],"</f>
-        <v>"TM":[0,0,0,0,1,0,0,0,0,0,1,0,0,0,0,"0"],</v>
+        <v>"TM":[0,0,0,0,1,0,0,0,0,3,1,0,1,0,0,"0"],</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="10" t="str">
         <f>J49&amp;":["&amp;J50&amp;J51&amp;J52&amp;J53&amp;J54&amp;J55&amp;J56&amp;J57&amp;J58&amp;J59&amp;J60&amp;J61&amp;J62&amp;J63&amp;J64&amp;J65&amp;"],"</f>
-        <v>"TPG":[0,0,0,0,0,0,0,0.5,0,0,0,0,0,0.5,0,"0"],</v>
+        <v>"TPG":[0,0,0,0,0,0,0,0.5,0,0,0,0,0,1,0,"0"],</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="10" t="str">
         <f>K49&amp;":["&amp;K50&amp;K51&amp;K52&amp;K53&amp;K54&amp;K55&amp;K56&amp;K57&amp;K58&amp;K59&amp;K60&amp;K61&amp;K62&amp;K63&amp;K64&amp;K65&amp;"],"</f>
-        <v>"TT":[0,0,0,0,0,0,0,1,0,0,0,0,0,1,0,"0"],</v>
+        <v>"TT":[0,0,0,0,0,0,0,1,0,0,0,0,0,2,0,"0"],</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="10" t="str">
         <f>L49&amp;":["&amp;L50&amp;L51&amp;L52&amp;L53&amp;L54&amp;L55&amp;L56&amp;L57&amp;L58&amp;L59&amp;L60&amp;L61&amp;L62&amp;L63&amp;L64&amp;L65&amp;"],"</f>
-        <v>"Missed":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,1,"0"],</v>
+        <v>"Missed":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,"0"],</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -9470,19 +9471,19 @@
       </c>
       <c r="D52" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>2.5,</v>
+        <v>3,</v>
       </c>
       <c r="E52" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>5,</v>
+        <v>6,</v>
       </c>
       <c r="F52" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>2.5,</v>
+        <v>3,</v>
       </c>
       <c r="G52" s="12" t="str">
         <f t="shared" si="9"/>
-        <v>5,</v>
+        <v>6,</v>
       </c>
       <c r="H52" s="12" t="str">
         <f t="shared" si="10"/>
@@ -9560,19 +9561,19 @@
       </c>
       <c r="D53" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>1,</v>
+        <v>2,</v>
       </c>
       <c r="E53" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>2,</v>
+        <v>4,</v>
       </c>
       <c r="F53" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1,</v>
+        <v>2,</v>
       </c>
       <c r="G53" s="12" t="str">
         <f t="shared" si="9"/>
-        <v>2,</v>
+        <v>4,</v>
       </c>
       <c r="H53" s="12" t="str">
         <f t="shared" si="10"/>
@@ -9740,19 +9741,19 @@
       </c>
       <c r="D55" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>0,</v>
+        <v>0.5,</v>
       </c>
       <c r="E55" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="F55" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>0,</v>
+        <v>0.5,</v>
       </c>
       <c r="G55" s="12" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="H55" s="12" t="str">
         <f t="shared" si="10"/>
@@ -10100,11 +10101,11 @@
       </c>
       <c r="D59" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>1,</v>
+        <v>2.5,</v>
       </c>
       <c r="E59" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>2,</v>
+        <v>5,</v>
       </c>
       <c r="F59" s="12" t="str">
         <f t="shared" si="8"/>
@@ -10116,11 +10117,11 @@
       </c>
       <c r="H59" s="12" t="str">
         <f t="shared" si="10"/>
-        <v>0,</v>
+        <v>1.5,</v>
       </c>
       <c r="I59" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>0,</v>
+        <v>3,</v>
       </c>
       <c r="J59" s="12" t="str">
         <f t="shared" si="12"/>
@@ -10370,27 +10371,27 @@
       </c>
       <c r="D62" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>0.5,</v>
+        <v>1.5,</v>
       </c>
       <c r="E62" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>1,</v>
+        <v>3,</v>
       </c>
       <c r="F62" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>0.5,</v>
+        <v>1,</v>
       </c>
       <c r="G62" s="12" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
+        <v>2,</v>
       </c>
       <c r="H62" s="12" t="str">
         <f t="shared" si="10"/>
-        <v>0,</v>
+        <v>0.5,</v>
       </c>
       <c r="I62" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="J62" s="12" t="str">
         <f t="shared" si="12"/>
@@ -10460,11 +10461,11 @@
       </c>
       <c r="D63" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>1,</v>
+        <v>2,</v>
       </c>
       <c r="E63" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>2,</v>
+        <v>4,</v>
       </c>
       <c r="F63" s="12" t="str">
         <f t="shared" si="8"/>
@@ -10484,11 +10485,11 @@
       </c>
       <c r="J63" s="12" t="str">
         <f t="shared" si="12"/>
-        <v>0.5,</v>
+        <v>1,</v>
       </c>
       <c r="K63" s="12" t="str">
         <f t="shared" ref="K63:L63" si="35">K16&amp;","</f>
-        <v>1,</v>
+        <v>2,</v>
       </c>
       <c r="L63" s="12" t="str">
         <f t="shared" si="35"/>
@@ -10582,7 +10583,7 @@
       </c>
       <c r="L64" s="12" t="str">
         <f t="shared" si="38"/>
-        <v>1,</v>
+        <v>2,</v>
       </c>
       <c r="M64" s="12" t="str">
         <f t="shared" si="32"/>
@@ -11694,7 +11695,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:BC1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U2" zoomScale="61" workbookViewId="0">
+    <sheetView topLeftCell="U2" zoomScale="61" workbookViewId="0">
       <selection activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
@@ -11886,23 +11887,23 @@
       </c>
       <c r="C6" s="74">
         <f>'2501'!D45</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="74">
         <f>'2501'!E45</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E6" s="74">
         <f>'2501'!F45</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="74">
         <f>'2501'!G45</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="74">
         <f>'2501'!H45</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="74">
         <f>'2501'!I45</f>
@@ -11910,23 +11911,23 @@
       </c>
       <c r="I6" s="74">
         <f>'2501'!J45</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="74">
         <f>'2501'!K45</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="74">
         <f>'2501'!L45</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="74">
         <f>'2501'!M45</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="74">
         <f>'2501'!N45</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="74">
         <f>'2501'!O45</f>
@@ -11934,31 +11935,31 @@
       </c>
       <c r="O6" s="74">
         <f>'2501'!P45</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P6" s="74">
         <f>'2501'!Q45</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="74">
         <f>'2501'!R45</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S6" s="3">
         <f>SUM(C5:E40)/COUNT(C5:C40)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T6" s="113">
         <f>AVERAGE(C5:C40)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U6" s="113">
         <f>AVERAGE(D5:D40)</f>
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="V6" s="113">
         <f>AVERAGE(E5:E40)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Z6" s="48" t="s">
         <v>134</v>
@@ -12000,15 +12001,15 @@
       </c>
       <c r="T7" s="4">
         <f>T6/$S$6</f>
-        <v>0.22222222222222221</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="U7" s="4">
         <f>U6/$S$6</f>
-        <v>0.66666666666666663</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="V7" s="4">
         <f>V6/$S$6</f>
-        <v>0.1111111111111111</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="Z7" s="15" t="s">
         <v>73</v>
@@ -12144,7 +12145,7 @@
       </c>
       <c r="AM8" s="77">
         <f>AVERAGE(Table1[Average])</f>
-        <v>0.625</v>
+        <v>0.96875</v>
       </c>
       <c r="AN8" s="77">
         <f>MEDIAN(Table1[Average])</f>
@@ -12245,11 +12246,11 @@
       </c>
       <c r="AM9" s="77">
         <f>AVERAGE(Table1[Finishes])</f>
-        <v>0.875</v>
+        <v>1.1875</v>
       </c>
       <c r="AN9" s="77">
         <f>MEDIAN(Table1[Finishes])</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO9" s="82"/>
       <c r="AP9" s="13">
@@ -12302,19 +12303,19 @@
       </c>
       <c r="AA10" s="44">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB10" s="45">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AC10" s="46">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD10" s="43">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AE10" s="46">
         <f t="shared" si="2"/>
@@ -12346,7 +12347,7 @@
       </c>
       <c r="AM10" s="77">
         <f>AVERAGE(Table1[Midranges])</f>
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="AN10" s="77">
         <f>MEDIAN(Table1[Midranges])</f>
@@ -12359,23 +12360,23 @@
       </c>
       <c r="AQ10" s="20">
         <f>Table1[[#This Row],[Points]]/AP10</f>
-        <v>7.9365079365079361E-2</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="AR10" s="81">
         <f>AP10-Table1[[#This Row],[Points]]</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS10" s="87">
         <f>Table1[[#This Row],[Points]]/(20-AA$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="AT10" s="92">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R10</f>
-        <v>-0.64285714285714279</v>
+        <v>-0.14285714285714279</v>
       </c>
       <c r="AU10" s="20">
         <f>(Table1[[#This Row],[Average]]-'[1]Stats Global'!R10)/'[1]Stats Global'!R10</f>
-        <v>-0.20454545454545453</v>
+        <v>-4.5454545454545435E-2</v>
       </c>
       <c r="AW10" s="1"/>
     </row>
@@ -12403,19 +12404,19 @@
       </c>
       <c r="AA11" s="44">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB11" s="45">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC11" s="46">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD11" s="43">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE11" s="46">
         <f t="shared" si="2"/>
@@ -12447,7 +12448,7 @@
       </c>
       <c r="AM11" s="77">
         <f>AVERAGE(Table1[Threes])</f>
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="AN11" s="77">
         <f>MEDIAN(Table1[Threes])</f>
@@ -12460,23 +12461,23 @@
       </c>
       <c r="AQ11" s="20">
         <f>Table1[[#This Row],[Points]]/AP11</f>
-        <v>3.5087719298245612E-2</v>
+        <v>7.0175438596491224E-2</v>
       </c>
       <c r="AR11" s="81">
         <f>AP11-Table1[[#This Row],[Points]]</f>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AS11" s="87">
         <f>Table1[[#This Row],[Points]]/(20-AA$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AT11" s="92">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R11</f>
-        <v>-1.8125</v>
+        <v>-0.8125</v>
       </c>
       <c r="AU11" s="20">
         <f>(Table1[[#This Row],[Average]]-'[1]Stats Global'!R11)/'[1]Stats Global'!R11</f>
-        <v>-0.64444444444444449</v>
+        <v>-0.28888888888888886</v>
       </c>
       <c r="AW11" s="1"/>
     </row>
@@ -12596,19 +12597,19 @@
       </c>
       <c r="AA13" s="98">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13" s="99">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AC13" s="100">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13" s="97">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE13" s="100">
         <f t="shared" si="2"/>
@@ -12644,23 +12645,23 @@
       </c>
       <c r="AQ13" s="20">
         <f>Table1[[#This Row],[Points]]/AP13</f>
-        <v>0</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="AR13" s="81">
         <f>AP13-Table1[[#This Row],[Points]]</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS13" s="87">
         <f>Table1[[#This Row],[Points]]/(20-AA$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AT13" s="92">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R13</f>
-        <v>-1.1428571428571428</v>
+        <v>-0.64285714285714279</v>
       </c>
       <c r="AU13" s="20">
         <f>(Table1[[#This Row],[Average]]-'[1]Stats Global'!R13)/'[1]Stats Global'!R13</f>
-        <v>-1</v>
+        <v>-0.5625</v>
       </c>
       <c r="AW13" s="1"/>
     </row>
@@ -12962,11 +12963,11 @@
       </c>
       <c r="AA17" s="44">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB17" s="45">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AC17" s="46">
         <f t="shared" si="1"/>
@@ -12978,11 +12979,11 @@
       </c>
       <c r="AE17" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF17" s="43">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG17" s="46">
         <f t="shared" si="3"/>
@@ -13010,23 +13011,23 @@
       </c>
       <c r="AQ17" s="20">
         <f>Table1[[#This Row],[Points]]/AP17</f>
-        <v>3.9215686274509803E-2</v>
+        <v>9.8039215686274508E-2</v>
       </c>
       <c r="AR17" s="81">
         <f>AP17-Table1[[#This Row],[Points]]</f>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AS17" s="87">
         <f>Table1[[#This Row],[Points]]/(20-AA$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AT17" s="92">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R16</f>
-        <v>-1.5333333333333332</v>
+        <v>-3.3333333333333215E-2</v>
       </c>
       <c r="AU17" s="20">
         <f>(Table1[[#This Row],[Average]]-'[1]Stats Global'!R16)/'[1]Stats Global'!R16</f>
-        <v>-0.60526315789473684</v>
+        <v>-1.3157894736842059E-2</v>
       </c>
       <c r="AW17" s="1"/>
     </row>
@@ -13231,27 +13232,27 @@
       </c>
       <c r="AA20" s="98">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB20" s="99">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AC20" s="100">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD20" s="97">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AE20" s="100">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20" s="97">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG20" s="100">
         <f t="shared" si="3"/>
@@ -13279,23 +13280,23 @@
       </c>
       <c r="AQ20" s="20">
         <f>Table1[[#This Row],[Points]]/AP20</f>
-        <v>4.5454545454545456E-2</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="AR20" s="81">
         <f>AP20-Table1[[#This Row],[Points]]</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AS20" s="87">
         <f>Table1[[#This Row],[Points]]/(20-AA$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="AT20" s="92">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R18</f>
-        <v>-0.56666666666666665</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="AU20" s="20">
         <f>(Table1[[#This Row],[Average]]-'[1]Stats Global'!R18)/'[1]Stats Global'!R18</f>
-        <v>-0.53125</v>
+        <v>0.40625</v>
       </c>
       <c r="AW20" s="1"/>
     </row>
@@ -13322,11 +13323,11 @@
       </c>
       <c r="AA21" s="98">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB21" s="99">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC21" s="100">
         <f t="shared" si="1"/>
@@ -13346,11 +13347,11 @@
       </c>
       <c r="AG21" s="100">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH21" s="97">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AI21" s="43" t="str">
         <f>SfW!C16</f>
@@ -13370,23 +13371,23 @@
       </c>
       <c r="AQ21" s="20">
         <f>Table1[[#This Row],[Points]]/AP21</f>
-        <v>9.0909090909090912E-2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="AR21" s="81">
         <f>AP21-Table1[[#This Row],[Points]]</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AS21" s="87">
         <f>Table1[[#This Row],[Points]]/(20-AA$5-Table1[[#This Row],[Missed Games]])</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AT21" s="92">
         <f>Table1[[#This Row],[Average]]-'[1]Stats Global'!R19</f>
-        <v>-5.8823529411764719E-2</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="AU21" s="20">
         <f>(Table1[[#This Row],[Average]]-'[1]Stats Global'!R19)/'[1]Stats Global'!R19</f>
-        <v>-5.5555555555555566E-2</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="AW21" s="1"/>
     </row>
@@ -13540,7 +13541,7 @@
       </c>
       <c r="AJ23" s="101">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK23" s="42"/>
       <c r="AL23" s="42"/>
@@ -13943,11 +13944,11 @@
       </c>
       <c r="AA31" s="22">
         <f>'2401'!T5+'2501'!T5</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB31" s="22">
         <f>'2401'!U5+'2501'!U5</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC31" s="22">
         <f>'2401'!V5+'2501'!V5</f>
@@ -13959,11 +13960,11 @@
       </c>
       <c r="AE31" s="6">
         <f>Table211[[#This Row],[Points]]/($AA$27-$AI31)</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AF31" s="6">
         <f>Table211[[#This Row],[Finishes]]/($AA$27-$AI31)</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AG31" s="6">
         <f>Table211[[#This Row],[Midranges]]/($AA$27-$AI31)</f>
@@ -14016,11 +14017,11 @@
       </c>
       <c r="AA32" s="22">
         <f>'2401'!T6+'2501'!T6</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB32" s="22">
         <f>'2401'!U6+'2501'!U6</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC32" s="22">
         <f>'2401'!V6+'2501'!V6</f>
@@ -14032,11 +14033,11 @@
       </c>
       <c r="AE32" s="6">
         <f>Table211[[#This Row],[Points]]/($AA$27-$AI32)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF32" s="6">
         <f>Table211[[#This Row],[Finishes]]/($AA$27-$AI32)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG32" s="6">
         <f>Table211[[#This Row],[Midranges]]/($AA$27-$AI32)</f>
@@ -14160,11 +14161,11 @@
       </c>
       <c r="AA34" s="22">
         <f>'2401'!T8+'2501'!T8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34" s="22">
         <f>'2401'!U8+'2501'!U8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34" s="22">
         <f>'2401'!V8+'2501'!V8</f>
@@ -14176,11 +14177,11 @@
       </c>
       <c r="AE34" s="6">
         <f>Table211[[#This Row],[Points]]/($AA$27-$AI34)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF34" s="6">
         <f>Table211[[#This Row],[Finishes]]/($AA$27-$AI34)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG34" s="6">
         <f>Table211[[#This Row],[Midranges]]/($AA$27-$AI34)</f>
@@ -14442,7 +14443,7 @@
       </c>
       <c r="AA38" s="22">
         <f>'2401'!T12+'2501'!T12</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB38" s="22">
         <f>'2401'!U12+'2501'!U12</f>
@@ -14450,7 +14451,7 @@
       </c>
       <c r="AC38" s="22">
         <f>'2401'!V12+'2501'!V12</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD38" s="22">
         <f>'2401'!W12+'2501'!W12</f>
@@ -14458,7 +14459,7 @@
       </c>
       <c r="AE38" s="6">
         <f>Table211[[#This Row],[Points]]/($AA$27-$AI38)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF38" s="6">
         <f>Table211[[#This Row],[Finishes]]/($AA$27-$AI38)</f>
@@ -14466,7 +14467,7 @@
       </c>
       <c r="AG38" s="6">
         <f>Table211[[#This Row],[Midranges]]/($AA$27-$AI38)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AH38" s="6">
         <f>Table211[[#This Row],[Threes]]/($AA$27-$AI38)</f>
@@ -14649,7 +14650,7 @@
       </c>
       <c r="S41">
         <f>'Statistics CT'!H3</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T41" s="79">
         <f>S41/SUM(S41:S43)</f>
@@ -14677,15 +14678,15 @@
       </c>
       <c r="AA41" s="22">
         <f>'2401'!T15+'2501'!T15</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB41" s="22">
         <f>'2401'!U15+'2501'!U15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC41" s="22">
         <f>'2401'!V15+'2501'!V15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41" s="22">
         <f>'2401'!W15+'2501'!W15</f>
@@ -14693,15 +14694,15 @@
       </c>
       <c r="AE41" s="6">
         <f>Table211[[#This Row],[Points]]/($AA$27-$AI41)</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AF41" s="6">
         <f>Table211[[#This Row],[Finishes]]/($AA$27-$AI41)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AG41" s="6">
         <f>Table211[[#This Row],[Midranges]]/($AA$27-$AI41)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AH41" s="6">
         <f>Table211[[#This Row],[Threes]]/($AA$27-$AI41)</f>
@@ -14730,11 +14731,11 @@
       </c>
       <c r="S42">
         <f>'Statistics TC'!H3</f>
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="T42" s="83">
         <f>S42/SUM(S41:S43)</f>
-        <v>0.25</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="U42" s="83">
         <v>0.35193133047210301</v>
@@ -14744,7 +14745,7 @@
       </c>
       <c r="W42">
         <f t="shared" ref="W42:W43" si="5">T42*(6*(20-AA$5))</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="X42" s="13">
         <f>6*(20-AA5)-X41-X43</f>
@@ -14758,7 +14759,7 @@
       </c>
       <c r="AA42" s="22">
         <f>'2401'!T16+'2501'!T16</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB42" s="22">
         <f>'2401'!U16+'2501'!U16</f>
@@ -14770,11 +14771,11 @@
       </c>
       <c r="AD42" s="22">
         <f>'2401'!W16+'2501'!W16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE42" s="6">
         <f>Table211[[#This Row],[Points]]/($AA$27-$AI42)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF42" s="6">
         <f>Table211[[#This Row],[Finishes]]/($AA$27-$AI42)</f>
@@ -14786,7 +14787,7 @@
       </c>
       <c r="AH42" s="6">
         <f>Table211[[#This Row],[Threes]]/($AA$27-$AI42)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AI42" s="22">
         <f>COUNTIF('2401'!X16, TRUE)+COUNTIF('2501'!X16, TRUE)</f>
@@ -14811,11 +14812,11 @@
       </c>
       <c r="S43">
         <f>'Statistics GM'!G3</f>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="T43" s="83">
         <f>S43/SUM(S41:S43)</f>
-        <v>0.25</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="U43" s="83">
         <v>0.3261802575107296</v>
@@ -14825,7 +14826,7 @@
       </c>
       <c r="W43">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="X43" s="13">
         <f>((MIN(U41:U43)+MIN(V41:V43))/2)*6*(20-AA5)</f>
@@ -14906,25 +14907,25 @@
         <f>'2401'!W18+'2501'!W18</f>
         <v>0</v>
       </c>
-      <c r="AE44" s="6">
+      <c r="AE44" s="6" t="e">
         <f>Table211[[#This Row],[Points]]/($AA$27-$AI44)</f>
-        <v>0</v>
-      </c>
-      <c r="AF44" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF44" s="6" t="e">
         <f>Table211[[#This Row],[Finishes]]/($AA$27-$AI44)</f>
-        <v>0</v>
-      </c>
-      <c r="AG44" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG44" s="6" t="e">
         <f>Table211[[#This Row],[Midranges]]/($AA$27-$AI44)</f>
-        <v>0</v>
-      </c>
-      <c r="AH44" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH44" s="6" t="e">
         <f>Table211[[#This Row],[Threes]]/($AA$27-$AI44)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI44" s="22">
         <f>COUNTIF('2401'!X18, TRUE)+COUNTIF('2501'!X18, TRUE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK44" t="s">
         <v>206</v>
@@ -14973,7 +14974,7 @@
       </c>
       <c r="W46">
         <f>(W45-(MAX(S41:S43)-MIN(S41:S43)))/2</f>
-        <v>17.25</v>
+        <v>16.25</v>
       </c>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
@@ -15077,15 +15078,15 @@
       </c>
       <c r="U49" s="13">
         <f>SUM(Table1[Finishes])</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="V49" s="12">
         <f>U49/AA6</f>
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="W49" s="20">
         <f>U49/SUM($U$49:$U$51)</f>
-        <v>0.77777777777777779</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="Z49" s="1" t="s">
         <v>25</v>
@@ -15119,15 +15120,15 @@
       </c>
       <c r="U50" s="13">
         <f>SUM(Table1[Midranges])</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V50" s="12">
         <f>U50/AA6</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W50" s="20">
         <f>U50/SUM($U$49:$U$51)</f>
-        <v>0.1111111111111111</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="Z50" s="1" t="s">
         <v>26</v>
@@ -15160,15 +15161,15 @@
       </c>
       <c r="U51" s="13">
         <f>SUM(Table1[Threes])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V51" s="12">
         <f>U51/AA6</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="W51" s="20">
         <f>U51/SUM($U$49:$U$51)</f>
-        <v>0.1111111111111111</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="Z51" s="1" t="s">
         <v>27</v>
@@ -15294,15 +15295,15 @@
       </c>
       <c r="U55" s="25">
         <f>'Statistics CT'!J42</f>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="V55" s="25">
         <f>'Statistics CT'!M42</f>
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="W55" s="25">
         <f>AVERAGE(U55:V55)</f>
-        <v>0.66666666666666663</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="Z55" t="s">
         <v>91</v>
@@ -15335,18 +15336,18 @@
       </c>
       <c r="T56" s="25">
         <f>1-'Statistics CT'!J42</f>
-        <v>0.33333333333333337</v>
+        <v>0.25</v>
       </c>
       <c r="U56" s="27" t="s">
         <v>105</v>
       </c>
       <c r="V56" s="25">
         <f>'Statistics TC'!J42</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W56" s="25">
         <f>AVERAGE(T56:V56)</f>
-        <v>0.41666666666666669</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="Z56" s="1" t="s">
         <v>39</v>
@@ -15379,18 +15380,18 @@
       </c>
       <c r="T57" s="25">
         <f>1-V55</f>
-        <v>0.33333333333333337</v>
+        <v>0.4</v>
       </c>
       <c r="U57" s="25">
         <f>1-V56</f>
-        <v>0.5</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="V57" s="27" t="s">
         <v>105</v>
       </c>
       <c r="W57" s="25">
         <f>AVERAGE(T57:V57)</f>
-        <v>0.41666666666666669</v>
+        <v>0.53333333333333344</v>
       </c>
       <c r="Z57" s="1" t="s">
         <v>41</v>
@@ -18123,15 +18124,15 @@
       <c r="E3" s="116"/>
       <c r="F3" s="106">
         <f>SUM(B4:B40)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G3" s="106">
         <f>SUM(C4:C40)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3" s="106">
         <f>SUM(D4:D40)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J3" s="52" t="s">
         <v>75</v>
@@ -18261,22 +18262,22 @@
       </c>
       <c r="B5" s="107">
         <f>'Stats Global'!F6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" s="107">
         <f>'Stats Global'!G6+'Stats Global'!G6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="107">
         <f>'Stats Global'!O6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="116"/>
       <c r="G5" s="52"/>
       <c r="H5" s="54"/>
       <c r="J5" s="130">
         <f>'Stats Global'!M6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="130">
         <f>'Stats Global'!H6</f>
@@ -18285,11 +18286,11 @@
       <c r="L5" s="56"/>
       <c r="M5" s="130">
         <f>'Stats Global'!J6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="130">
         <f>'Stats Global'!G6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="54" t="str">
         <f>'Stats Global'!Z8</f>
@@ -18375,19 +18376,19 @@
       </c>
       <c r="Q6" s="63">
         <f>'Stats Global'!AA10</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R6" s="63">
         <f>'Stats Global'!AB10</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="S6" s="63">
         <f>'Stats Global'!AC10</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T6" s="63">
         <f>'Stats Global'!AD10</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U6" s="63">
         <f>'Stats Global'!AE10</f>
@@ -18453,19 +18454,19 @@
       </c>
       <c r="Q7" s="54">
         <f>'Stats Global'!AA11</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R7" s="54">
         <f>'Stats Global'!AB11</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S7" s="54">
         <f>'Stats Global'!AC11</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T7" s="54">
         <f>'Stats Global'!AD11</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U7" s="54">
         <f>'Stats Global'!AE11</f>
@@ -18531,27 +18532,27 @@
       </c>
       <c r="Q8" s="54">
         <f>'Stats Global'!AA20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R8" s="54">
         <f>'Stats Global'!AB20</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="S8" s="54">
         <f>'Stats Global'!AC20</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T8" s="54">
         <f>'Stats Global'!AD20</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U8" s="54">
         <f>'Stats Global'!AE20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="54">
         <f>'Stats Global'!AF20</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W8" s="54">
         <f>'Stats Global'!AG20</f>
@@ -19764,7 +19765,7 @@
     <row r="41" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C41" s="76">
         <f>SUM(B4:B40)/SUM(B4:C40)</f>
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="E41" s="116"/>
       <c r="H41" s="54"/>
@@ -19773,7 +19774,7 @@
       </c>
       <c r="J41" s="110">
         <f>SUM(J4:J40)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K41" s="110">
         <f>SUM(K4:K40)</f>
@@ -19782,27 +19783,27 @@
       <c r="L41" s="54"/>
       <c r="M41" s="110">
         <f>SUM(M4:M40)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N41" s="110">
         <f>SUM(N4:N40)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J42" s="58">
         <f>IFERROR(J41/(K41+J41),0)</f>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="M42" s="58">
         <f>IFERROR(M41/(N41+M41),0)</f>
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G43" s="59" t="str">
         <f>F3&amp;","&amp;G3&amp;","&amp;H3&amp;"],"</f>
-        <v>4,2,3],</v>
+        <v>6,4,6],</v>
       </c>
       <c r="I43" s="36" t="s">
         <v>106</v>
@@ -19812,20 +19813,20 @@
       </c>
       <c r="M43" s="60">
         <f>IFERROR(ROUND((SUM(Table1114[Points]))/'Stats Global'!AA6,1),0)</f>
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G44" s="36" t="str">
         <f>K44&amp;","&amp;CHAR(34)&amp;L44&amp;CHAR(34)&amp;","&amp;K45&amp;","&amp;CHAR(34)&amp;L45&amp;CHAR(34)&amp;","&amp;K46&amp;","&amp;CHAR(34)&amp;L46&amp;CHAR(34)&amp;","&amp;K47&amp;","&amp;CHAR(34)&amp;L47&amp;CHAR(34)&amp;"],"</f>
-        <v>5,"Alexander Galt",5,"Alexander Galt",1,"Ryan Pattemore",0,"N/A"],</v>
+        <v>6,"Alexander Galt",6,"Alexander Galt",1,"Ryan Pattemore",0,"N/A"],</v>
       </c>
       <c r="I44" s="36" t="s">
         <v>107</v>
       </c>
       <c r="K44" s="61">
         <f>MAX(Table1114[Points])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L44" s="36" t="str">
         <f>IF(K44&lt;&gt;0, _xlfn.XLOOKUP(K44,Table1114[Points],Table1114[Name], "N/A"), "N/A")</f>
@@ -19833,20 +19834,20 @@
       </c>
       <c r="M44" s="60">
         <f>IFERROR(ROUND((SUM(Table1114[Finishes]))/'Stats Global'!AA6,1),0)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G45" s="36" t="str">
         <f>M43&amp;","&amp;M44&amp;","&amp;M45&amp;","&amp;M46&amp;","&amp;M47&amp;","&amp;M48&amp;"],"</f>
-        <v>4.5,4,0.5,0,2,1],</v>
+        <v>7,6,1,0,3,2],</v>
       </c>
       <c r="I45" s="36" t="s">
         <v>108</v>
       </c>
       <c r="K45" s="61">
         <f>MAX(Table1114[Finishes])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L45" s="36" t="str">
         <f>IF(K45&lt;&gt;0, _xlfn.XLOOKUP(K45,Table1114[Finishes],Table1114[Name], "N/A"), "N/A")</f>
@@ -19854,13 +19855,13 @@
       </c>
       <c r="M45" s="60">
         <f>IFERROR(ROUND((SUM(Table1114[Midranges]))/'Stats Global'!AA6,1),0)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G46" s="36" t="str">
         <f>J41&amp;","&amp;K41&amp;","&amp;ROUND(J42*100,1)&amp;","&amp;M41&amp;","&amp;N41&amp;","&amp;ROUND(M42*100,1)&amp;"],"</f>
-        <v>2,1,66.7,2,1,66.7],</v>
+        <v>3,1,75,3,2,60],</v>
       </c>
       <c r="I46" s="36" t="s">
         <v>109</v>
@@ -19889,13 +19890,13 @@
       </c>
       <c r="M47" s="36">
         <f>IFERROR(ROUND(F3/'Stats Global'!AA6,1),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="M48" s="36">
         <f>IFERROR(ROUND(G3/'Stats Global'!AA6,1),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -20910,15 +20911,15 @@
       </c>
       <c r="F3" s="109">
         <f>SUM(B4:B40)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" s="109">
         <f>SUM(C4:C40)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" s="109">
         <f>SUM(D4:D40)</f>
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="J3" s="52" t="s">
         <v>75</v>
@@ -21032,15 +21033,15 @@
       </c>
       <c r="B5" s="108">
         <f>'Stats Global'!L6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="108">
         <f>'Stats Global'!M6+'Stats Global'!N6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="108">
         <f>'Stats Global'!Q6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="54"/>
       <c r="J5" s="55">
@@ -21049,7 +21050,7 @@
       </c>
       <c r="K5" s="55">
         <f>'Stats Global'!K6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="56"/>
       <c r="M5" s="54" t="str">
@@ -21265,11 +21266,11 @@
       </c>
       <c r="N8" s="54">
         <f>'Stats Global'!AA21</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O8" s="54">
         <f>'Stats Global'!AB21</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" s="54">
         <f>'Stats Global'!AC21</f>
@@ -21289,11 +21290,11 @@
       </c>
       <c r="T8" s="54">
         <f>'Stats Global'!AG21</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U8" s="54">
         <f>'Stats Global'!AH21</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V8" s="63">
         <f>'Stats Global'!AJ21</f>
@@ -22264,7 +22265,7 @@
     <row r="41" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C41" s="76">
         <f>SUM(B4:B40)/SUM(B4:C40)</f>
-        <v>0.4</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H41" s="54"/>
       <c r="I41" s="36" t="s">
@@ -22276,7 +22277,7 @@
       </c>
       <c r="K41" s="111">
         <f>SUM(K4:K40)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L41" s="54"/>
       <c r="M41" s="54"/>
@@ -22284,13 +22285,13 @@
     <row r="42" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J42" s="58">
         <f>IFERROR(J41/(K41+J41),0)</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H43" s="59" t="str">
         <f>F3&amp;","&amp;G3&amp;","&amp;H3&amp;"],"</f>
-        <v>2,3,1.5],</v>
+        <v>3,4,3.5],</v>
       </c>
       <c r="I43" s="52"/>
       <c r="J43" s="36" t="s">
@@ -22301,24 +22302,24 @@
       </c>
       <c r="N43" s="60">
         <f>IFERROR(ROUND((SUM(Table1114[Points]))/'Stats Global'!AA6,1),0)</f>
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H44" s="36" t="str">
         <f>L44&amp;","&amp;CHAR(34)&amp;M44&amp;CHAR(34)&amp;","&amp;L45&amp;","&amp;CHAR(34)&amp;M45&amp;CHAR(34)&amp;","&amp;L46&amp;","&amp;CHAR(34)&amp;M46&amp;CHAR(34)&amp;","&amp;L47&amp;","&amp;CHAR(34)&amp;M47&amp;CHAR(34)&amp;"],"</f>
-        <v>2,"Clarrie Jones",1,"William Kim",0,"N/A",1,"Clarrie Jones"],</v>
+        <v>4,"Angus Walker",1,"William Kim",0,"N/A",2,"Angus Walker"],</v>
       </c>
       <c r="J44" s="36" t="s">
         <v>107</v>
       </c>
       <c r="L44" s="61">
         <f>MAX(Table1113[Points])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M44" s="36" t="str">
         <f>IF(L44&lt;&gt;0, _xlfn.XLOOKUP(L44,Table1113[Points],Table1113[Name], "N/A"), "N/A")</f>
-        <v>Clarrie Jones</v>
+        <v>Angus Walker</v>
       </c>
       <c r="N44" s="60">
         <f>IFERROR(ROUND((SUM(Table1113[Finishes]))/'Stats Global'!AA6,1),0)</f>
@@ -22328,7 +22329,7 @@
     <row r="45" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H45" s="36" t="str">
         <f>N43&amp;","&amp;N44&amp;","&amp;N45&amp;","&amp;N46&amp;","&amp;N47&amp;","&amp;N48&amp;"],"</f>
-        <v>4.5,0.5,0,1,1,1.5],</v>
+        <v>7,0.5,0,1.5,1.5,2],</v>
       </c>
       <c r="J45" s="36" t="s">
         <v>108</v>
@@ -22349,7 +22350,7 @@
     <row r="46" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H46" s="36" t="str">
         <f>'Statistics CT'!K41&amp;","&amp;'Statistics CT'!J41&amp;","&amp;ROUND((1-'Statistics CT'!J42)*100,1)&amp;","&amp;J41&amp;","&amp;K41&amp;","&amp;ROUND(J42*100,1)&amp;"],"</f>
-        <v>1,2,33.3,1,1,50],</v>
+        <v>1,3,25,1,2,33.3],</v>
       </c>
       <c r="J46" s="36" t="s">
         <v>109</v>
@@ -22364,27 +22365,27 @@
       </c>
       <c r="N46" s="60">
         <f>IFERROR(ROUND((SUM(Table1113[Threes]))/'Stats Global'!AA6,1),0)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="L47" s="61">
         <f>MAX(Table1113[Threes])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47" s="36" t="str">
         <f>IF(L47&lt;&gt;0, _xlfn.XLOOKUP(L47,Table1113[Threes],Table1113[Name], "N/A"), "N/A")</f>
-        <v>Clarrie Jones</v>
+        <v>Angus Walker</v>
       </c>
       <c r="N47" s="36">
         <f>IFERROR(ROUND(F3/'Stats Global'!AA6,1),0)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="N48" s="36">
         <f>IFERROR(ROUND(G3/'Stats Global'!AA6,1),0)</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -23398,15 +23399,15 @@
       </c>
       <c r="E3" s="109">
         <f>SUM(B4:B40)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="109">
         <f>SUM(C4:C40)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G3" s="109">
         <f>SUM(D4:D40)</f>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H3" s="52"/>
       <c r="I3" s="66" t="s">
@@ -23475,15 +23476,15 @@
       </c>
       <c r="B5" s="108">
         <f>'Stats Global'!I6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="108">
         <f>'Stats Global'!J6+'Stats Global'!K6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="108">
         <f>'Stats Global'!P6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="54"/>
       <c r="I5" s="54" t="str">
@@ -23620,19 +23621,19 @@
       </c>
       <c r="J7" s="54">
         <f>'Stats Global'!AA13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="54">
         <f>'Stats Global'!AB13</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L7" s="54">
         <f>'Stats Global'!AC13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="54">
         <f>'Stats Global'!AD13</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N7" s="54">
         <f>'Stats Global'!AE13</f>
@@ -23684,11 +23685,11 @@
       </c>
       <c r="J8" s="54">
         <f>'Stats Global'!AA17</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K8" s="54">
         <f>'Stats Global'!AB17</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="L8" s="54">
         <f>'Stats Global'!AC17</f>
@@ -23700,11 +23701,11 @@
       </c>
       <c r="N8" s="54">
         <f>'Stats Global'!AE17</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O8" s="54">
         <f>'Stats Global'!AF17</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P8" s="54">
         <f>'Stats Global'!AG17</f>
@@ -23843,7 +23844,7 @@
       </c>
       <c r="R10" s="63">
         <f>'Stats Global'!AJ23</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V10" s="54"/>
       <c r="W10" s="54"/>
@@ -24496,7 +24497,7 @@
       <c r="G32" s="52"/>
       <c r="H32" s="59" t="str">
         <f>E3&amp;","&amp;F3&amp;","&amp;G3&amp;"],"</f>
-        <v>2,3,1.5],</v>
+        <v>3,5,2.5],</v>
       </c>
       <c r="I32" s="52"/>
       <c r="J32" s="36" t="s">
@@ -24507,7 +24508,7 @@
       </c>
       <c r="N32" s="60">
         <f>IFERROR(ROUND((SUM(Table11[Points]))/'Stats Global'!AA6,1),0)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -24529,22 +24530,22 @@
       </c>
       <c r="H33" s="36" t="str">
         <f>L33&amp;","&amp;CHAR(34)&amp;M33&amp;CHAR(34)&amp;","&amp;L34&amp;","&amp;CHAR(34)&amp;M34&amp;CHAR(34)&amp;","&amp;L35&amp;","&amp;CHAR(34)&amp;M35&amp;CHAR(34)&amp;","&amp;L36&amp;","&amp;CHAR(34)&amp;M36&amp;CHAR(34)&amp;"],"</f>
-        <v>3,"Michael Iffland",2,"N/A",1,"N/A",0,"N/A"],</v>
+        <v>5,"Samuel McConaghy",2,"N/A",3,"N/A",0,"N/A"],</v>
       </c>
       <c r="J33" s="36" t="s">
         <v>107</v>
       </c>
       <c r="L33" s="61">
         <f>MAX(Table11[Points])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M33" s="36" t="str">
         <f>IF(L33&lt;&gt;0, _xlfn.XLOOKUP(L33,J5:J10,I5:I10, "N/A"), "N/A")</f>
-        <v>Michael Iffland</v>
+        <v>Samuel McConaghy</v>
       </c>
       <c r="N33" s="60">
         <f>IFERROR(ROUND((SUM(Table11[Finishes]))/'Stats Global'!AA6,1),0)</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -24566,7 +24567,7 @@
       </c>
       <c r="H34" s="36" t="str">
         <f>N32&amp;","&amp;N33&amp;","&amp;N34&amp;","&amp;N35&amp;","&amp;N36&amp;","&amp;N37&amp;"],"</f>
-        <v>3,2.5,0.5,0,1,1.5],</v>
+        <v>5,3,2,0,1.5,2.5],</v>
       </c>
       <c r="J34" s="36" t="s">
         <v>108</v>
@@ -24581,7 +24582,7 @@
       </c>
       <c r="N34" s="60">
         <f>IFERROR(ROUND((SUM(Table11[Midranges]))/'Stats Global'!AA6,1),0)</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -24603,14 +24604,14 @@
       </c>
       <c r="H35" s="36" t="str">
         <f>'Statistics CT'!N41&amp;","&amp;'Statistics CT'!M41&amp;","&amp;ROUND((1-'Statistics CT'!M42)*100,1)&amp;","&amp;'Statistics TC'!K41&amp;","&amp;'Statistics TC'!J41&amp;","&amp;ROUND((1-'Statistics TC'!J42)*100,1)&amp;"],"</f>
-        <v>1,2,33.3,1,1,50],</v>
+        <v>2,3,40,2,1,66.7],</v>
       </c>
       <c r="J35" s="36" t="s">
         <v>109</v>
       </c>
       <c r="L35" s="61">
         <f>MAX(Table11[Midranges])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M35" s="36" t="str">
         <f>IF(L33&lt;&gt;0, _xlfn.XLOOKUP(L33,L5:L10,I5:I10, "N/A"), "N/A")</f>
@@ -24648,7 +24649,7 @@
       </c>
       <c r="N36" s="36">
         <f>IFERROR(ROUND(E3/'Stats Global'!AA6,1),0)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -24670,7 +24671,7 @@
       </c>
       <c r="N37" s="36">
         <f>IFERROR(ROUND(F3/'Stats Global'!AA6,1),0)</f>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -24739,7 +24740,7 @@
     <row r="41" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C41" s="76">
         <f>SUM(B4:B40)/SUM(B4:C40)</f>
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -27424,942 +27425,942 @@
     <row r="62" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="63" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="64" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="65" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="67" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="68" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="69" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="70" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="71" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="72" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="73" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="75" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="76" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="78" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="81" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="82" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="83" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="85" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="86" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="87" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="88" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="89" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="90" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="91" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="92" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="93" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="94" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="95" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="96" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="97" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="98" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="99" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="101" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="102" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="103" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="105" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="107" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="108" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="109" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="111" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="113" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="115" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="116" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="117" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="118" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="121" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="122" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="123" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="124" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="125" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="126" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="127" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="128" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="129" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="130" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="131" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="132" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="133" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="134" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="135" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="136" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="137" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="138" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="139" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="140" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="141" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="142" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="143" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="144" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="145" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="146" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="147" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="148" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="149" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="150" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="151" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="152" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="153" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="154" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="155" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="156" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="157" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="158" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="159" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="160" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="161" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="162" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="163" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="164" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="165" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="166" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="167" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="168" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="169" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="170" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="171" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="172" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="173" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="174" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="175" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="176" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="177" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="178" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="179" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="180" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="181" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="182" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="183" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="184" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="185" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="186" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="187" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="188" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="189" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="190" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="191" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="192" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="193" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="194" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="195" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="196" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="197" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="198" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="199" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="200" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="201" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="202" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="203" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="204" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="205" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="206" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="207" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="208" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="209" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="210" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="211" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="212" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="213" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="214" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="215" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="216" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="217" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="218" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="219" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="220" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="221" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="222" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="223" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="224" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="225" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="226" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="227" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="228" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="229" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="230" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="231" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="232" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="233" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="234" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="235" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="236" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="237" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="238" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="239" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="240" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="241" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="242" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="243" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="244" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="245" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="246" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="247" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="248" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="249" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="250" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="251" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="252" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="253" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="254" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="255" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="256" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="257" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="258" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="259" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="260" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="261" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="262" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="263" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="264" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="265" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="266" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="267" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="268" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="269" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="270" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="271" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="272" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="273" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="274" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="275" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="276" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="277" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="278" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="279" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="280" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="281" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="282" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="283" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="284" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="285" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="286" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="287" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="288" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="289" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="290" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="291" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="292" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="293" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="294" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="295" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="296" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="297" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="298" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="299" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="300" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="301" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="302" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="303" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="304" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="305" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="306" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="307" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="308" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="309" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="310" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="311" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="312" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="313" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="314" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="315" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="316" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="317" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="318" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="319" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="320" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="321" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="322" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="323" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="324" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="325" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="326" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="327" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="328" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="329" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="330" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="331" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="332" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="333" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="334" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="335" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="336" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="337" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="338" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="339" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="340" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="341" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="342" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="343" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="344" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="345" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="346" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="347" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="348" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="349" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="350" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="351" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="352" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="353" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="354" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="355" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="356" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="357" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="358" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="359" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="360" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="361" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="362" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="363" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="364" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="365" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="366" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="367" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="368" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="369" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="370" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="371" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="372" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="373" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="374" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="375" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="376" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="377" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="378" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="379" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="380" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="381" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="382" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="383" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="384" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="385" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="386" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="387" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="388" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="389" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="390" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="391" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="392" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="393" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="394" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="395" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="396" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="397" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="398" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="399" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="400" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="401" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="402" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="403" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="404" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="405" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="406" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="407" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="408" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="409" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="410" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="411" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="412" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="413" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="414" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="415" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="416" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="417" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="418" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="419" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="420" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="421" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="422" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="423" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="424" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="425" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="426" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="427" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="428" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="429" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="430" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="431" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="432" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="433" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="434" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="435" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="436" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="437" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="438" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="439" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="440" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="441" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="442" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="443" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="444" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="445" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="446" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="447" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="448" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="449" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="450" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="451" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="452" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="453" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="454" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="455" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="456" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="457" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="458" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="459" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="460" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="461" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="462" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="463" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="464" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="465" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="466" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="467" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="468" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="469" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="470" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="471" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="472" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="473" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="474" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="475" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="476" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="477" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="478" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="479" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="480" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="481" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="482" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="483" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="484" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="485" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="486" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="487" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="488" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="489" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="490" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="491" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="492" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="493" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="494" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="495" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="496" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="497" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="498" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="499" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="500" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="501" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="502" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="503" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="504" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="505" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="506" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="507" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="508" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="509" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="510" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="511" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="512" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="513" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="514" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="515" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="516" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="517" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="518" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="519" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="520" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="521" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="522" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="523" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="524" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="525" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="526" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="527" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="528" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="529" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="530" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="531" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="532" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="533" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="534" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="535" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="536" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="537" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="538" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="539" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="540" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="541" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="542" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="543" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="544" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="545" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="546" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="547" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="548" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="549" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="550" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="551" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="552" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="553" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="554" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="555" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="556" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="557" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="558" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="559" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="560" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="561" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="562" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="563" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="564" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="565" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="566" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="567" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="568" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="569" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="570" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="571" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="572" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="573" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="574" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="575" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="576" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="577" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="578" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="579" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="580" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="581" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="582" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="583" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="584" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="585" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="586" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="587" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="588" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="589" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="590" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="591" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="592" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="593" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="594" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="595" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="596" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="597" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="598" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="599" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="600" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="601" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="602" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="603" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="604" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="605" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="606" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="607" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="608" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="609" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="610" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="611" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="612" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="613" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="614" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="615" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="616" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="617" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="618" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="619" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="620" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="621" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="622" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="623" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="624" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="625" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="626" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="627" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="628" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="629" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="630" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="631" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="632" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="633" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="634" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="635" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="636" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="637" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="638" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="639" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="640" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="641" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="642" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="643" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="644" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="645" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="646" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="647" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="648" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="649" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="650" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="651" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="652" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="653" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="654" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="655" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="656" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="657" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="658" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="659" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="660" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="661" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="662" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="663" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="664" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="665" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="666" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="667" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="668" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="669" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="670" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="671" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="672" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="673" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="674" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="675" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="676" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="677" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="678" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="679" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="680" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="681" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="682" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="683" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="684" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="685" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="686" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="687" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="688" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="689" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="690" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="691" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="692" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="693" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="694" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="695" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="696" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="697" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="698" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="699" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="700" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="701" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="702" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="703" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="704" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="705" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="706" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="707" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="708" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="709" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="710" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="711" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="712" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="713" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="714" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="715" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="716" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="717" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="718" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="719" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="720" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="721" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="722" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="723" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="724" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="725" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="726" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="727" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="728" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="729" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="730" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="731" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="732" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="733" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="734" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="735" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="736" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="737" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="738" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="739" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="740" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="741" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="742" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="743" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="744" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="745" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="746" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="747" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="748" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="749" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="750" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="751" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="752" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="753" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="754" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="755" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="756" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="757" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="758" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="759" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="760" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="761" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="762" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="763" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="764" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="765" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="766" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="767" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="768" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="769" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="770" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="771" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="772" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="773" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="774" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="775" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="776" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="777" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="778" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="779" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="780" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="781" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="782" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="783" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="784" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="785" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="786" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="787" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="788" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="789" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="790" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="791" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="792" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="793" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="794" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="795" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="796" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="797" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="798" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="799" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="800" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="801" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="802" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="803" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="804" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="805" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="806" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="807" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="808" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="809" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="810" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="811" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="812" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="813" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="814" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="815" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="816" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="817" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="818" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="819" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="820" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="821" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="822" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="823" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="824" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="825" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="826" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="827" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="828" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="829" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="830" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="831" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="832" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="833" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="834" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="835" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="836" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="837" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="838" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="839" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="840" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="841" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="842" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="843" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="844" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="845" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="846" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="847" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="848" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="849" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="850" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="851" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="852" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="853" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="854" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="855" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="856" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="857" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="858" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="859" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="860" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="861" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="862" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="863" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="864" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="865" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="866" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="867" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="868" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="869" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="870" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="871" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="872" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="873" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="874" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="875" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="876" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="877" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="878" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="879" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="880" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="881" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="882" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="883" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="884" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="885" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="886" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="887" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="888" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="889" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="890" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="891" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="892" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="893" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="894" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="895" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="896" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="897" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="898" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="899" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="900" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="901" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="902" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="903" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="904" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="905" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="906" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="907" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="908" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="909" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="910" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="911" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="912" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="913" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="914" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="915" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="916" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="917" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="918" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="919" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="920" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="921" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="922" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="923" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="924" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="925" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="926" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="927" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="928" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="929" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="930" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="931" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="932" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="933" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="934" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="935" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="936" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="937" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="938" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="939" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="940" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="941" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="942" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="943" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="944" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="945" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="946" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="947" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="948" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="949" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="950" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="951" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="952" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="953" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="954" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="955" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="956" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="957" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="958" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="959" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="960" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="961" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="962" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="963" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="964" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="965" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="966" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="967" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="968" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="969" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="970" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="971" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="972" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="973" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="974" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="975" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="976" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="977" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="978" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="979" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="980" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="981" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="982" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="983" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="984" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="985" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="986" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="987" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="988" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="989" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="990" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="991" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="992" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="993" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="994" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="995" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="996" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="997" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="998" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="999" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="1000" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -28370,8 +28371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E530344B-6CBC-413B-A1BF-AB6BC841C5AA}">
   <dimension ref="B1:AF1000"/>
   <sheetViews>
-    <sheetView zoomScale="50" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:Q5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -28459,17 +28460,19 @@
       </c>
       <c r="N3" s="1">
         <f>COUNTIF(Z4:Z39,"*")-COUNTIF(Z4:Z39,"")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3" s="1">
         <f>H45+I45</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="8" t="e">
+        <v>1</v>
+      </c>
+      <c r="P3" s="8">
         <f>N3/(N3+O3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q3" s="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>3</v>
+      </c>
       <c r="S3" s="1" t="s">
         <v>25</v>
       </c>
@@ -28496,10 +28499,10 @@
         <v>163</v>
       </c>
       <c r="AA3" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB3" s="105" t="s">
         <v>164</v>
-      </c>
-      <c r="AB3" s="105" t="s">
-        <v>35</v>
       </c>
       <c r="AC3" s="1"/>
     </row>
@@ -28507,31 +28510,51 @@
       <c r="B4" s="129" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
+      <c r="C4" s="134">
+        <v>1</v>
+      </c>
+      <c r="D4" s="134" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="134" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="134" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="134" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="134" t="s">
+        <v>219</v>
+      </c>
+      <c r="I4" s="134" t="s">
+        <v>220</v>
+      </c>
+      <c r="J4" s="134" t="s">
+        <v>220</v>
+      </c>
+      <c r="K4" s="134">
+        <v>1</v>
+      </c>
       <c r="M4" s="1" t="s">
         <v>164</v>
       </c>
       <c r="N4" s="1">
-        <f>COUNTIF(AA4:AA39,"*")-COUNTIF(AA4:AA39,"")</f>
-        <v>0</v>
+        <f>COUNTIF(AB4:AB39,"*")-COUNTIF(AB4:AB39,"")</f>
+        <v>1</v>
       </c>
       <c r="O4" s="1">
-        <f>K45+L45</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="8" t="e">
+        <f>N45+O45</f>
+        <v>1</v>
+      </c>
+      <c r="P4" s="8">
         <f t="shared" ref="P4:P5" si="0">N4/(N4+O4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q4" s="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>2</v>
+      </c>
       <c r="S4" s="1" t="s">
         <v>26</v>
       </c>
@@ -28569,41 +28592,61 @@
       <c r="AC4" s="1"/>
     </row>
     <row r="5" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="132"/>
+      <c r="C5" s="134">
+        <v>1</v>
+      </c>
+      <c r="D5" s="134" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="134" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="134" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="134" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="134" t="s">
+        <v>220</v>
+      </c>
+      <c r="J5" s="134" t="s">
+        <v>220</v>
+      </c>
+      <c r="K5" s="134">
+        <v>1</v>
+      </c>
       <c r="M5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="N5" s="1">
-        <f>COUNTIF(AB4:AB39,"*")-COUNTIF(AB4:AB39,"")</f>
-        <v>0</v>
+        <f>COUNTIF(AA4:AA39,"*")-COUNTIF(AA4:AA39,"")</f>
+        <v>1</v>
       </c>
       <c r="O5" s="1">
-        <f>N45+O45</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="8" t="e">
+        <f>K45+L45</f>
+        <v>2</v>
+      </c>
+      <c r="P5" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q5" s="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
       <c r="S5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T5" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="7">
         <f t="shared" si="3"/>
@@ -28631,25 +28674,43 @@
       <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132"/>
+      <c r="C6" s="134">
+        <v>1</v>
+      </c>
+      <c r="D6" s="134" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="134" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="134" t="s">
+        <v>221</v>
+      </c>
+      <c r="G6" s="134" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="134" t="s">
+        <v>219</v>
+      </c>
+      <c r="I6" s="134">
+        <v>1</v>
+      </c>
+      <c r="J6" s="134">
+        <v>1</v>
+      </c>
+      <c r="K6" s="134">
+        <v>1</v>
+      </c>
       <c r="S6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T6" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U6" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V6" s="7">
         <f t="shared" si="3"/>
@@ -28664,7 +28725,7 @@
       </c>
       <c r="Z6" s="34" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>CT/GM</v>
       </c>
       <c r="AA6" s="34" t="str">
         <f t="shared" si="6"/>
@@ -28677,15 +28738,33 @@
       <c r="AC6" s="1"/>
     </row>
     <row r="7" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="132"/>
+      <c r="C7" s="134">
+        <v>2</v>
+      </c>
+      <c r="D7" s="134" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="134" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="134" t="s">
+        <v>218</v>
+      </c>
+      <c r="G7" s="134" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="134" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="134" t="s">
+        <v>220</v>
+      </c>
+      <c r="J7" s="134" t="s">
+        <v>220</v>
+      </c>
+      <c r="K7" s="134">
+        <v>1</v>
+      </c>
       <c r="S7" s="1" t="s">
         <v>32</v>
       </c>
@@ -28723,25 +28802,43 @@
       <c r="AC7" s="1"/>
     </row>
     <row r="8" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="132"/>
+      <c r="C8" s="134">
+        <v>2</v>
+      </c>
+      <c r="D8" s="134" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="134" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="134" t="s">
+        <v>216</v>
+      </c>
+      <c r="G8" s="134" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="134" t="s">
+        <v>219</v>
+      </c>
+      <c r="I8" s="134">
+        <v>2</v>
+      </c>
+      <c r="J8" s="134">
+        <v>1</v>
+      </c>
+      <c r="K8" s="134">
+        <v>1</v>
+      </c>
       <c r="S8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T8" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="7">
         <f t="shared" si="3"/>
@@ -28756,7 +28853,7 @@
       </c>
       <c r="Z8" s="34" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>CT/TC</v>
       </c>
       <c r="AA8" s="34" t="str">
         <f t="shared" si="6"/>
@@ -28769,15 +28866,33 @@
       <c r="AC8" s="1"/>
     </row>
     <row r="9" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
+      <c r="C9" s="134">
+        <v>3</v>
+      </c>
+      <c r="D9" s="134" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="134" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" s="134" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="134" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="134" t="s">
+        <v>220</v>
+      </c>
+      <c r="J9" s="134" t="s">
+        <v>220</v>
+      </c>
+      <c r="K9" s="134">
+        <v>1</v>
+      </c>
       <c r="S9" t="s">
         <v>91</v>
       </c>
@@ -28814,15 +28929,33 @@
       </c>
     </row>
     <row r="10" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="132"/>
-      <c r="K10" s="132"/>
+      <c r="C10" s="134">
+        <v>3</v>
+      </c>
+      <c r="D10" s="134" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="134" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="134" t="s">
+        <v>222</v>
+      </c>
+      <c r="G10" s="134" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="134" t="s">
+        <v>219</v>
+      </c>
+      <c r="I10" s="134" t="s">
+        <v>220</v>
+      </c>
+      <c r="J10" s="134" t="s">
+        <v>220</v>
+      </c>
+      <c r="K10" s="134">
+        <v>1</v>
+      </c>
       <c r="S10" s="1" t="s">
         <v>39</v>
       </c>
@@ -28860,15 +28993,33 @@
       <c r="AC10" s="1"/>
     </row>
     <row r="11" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="132"/>
+      <c r="C11" s="134">
+        <v>3</v>
+      </c>
+      <c r="D11" s="134" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="134" t="s">
+        <v>173</v>
+      </c>
+      <c r="F11" s="134" t="s">
+        <v>221</v>
+      </c>
+      <c r="G11" s="134" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="134" t="s">
+        <v>219</v>
+      </c>
+      <c r="I11" s="134">
+        <v>1</v>
+      </c>
+      <c r="J11" s="134">
+        <v>1</v>
+      </c>
+      <c r="K11" s="134">
+        <v>1</v>
+      </c>
       <c r="S11" s="1" t="s">
         <v>41</v>
       </c>
@@ -28897,7 +29048,7 @@
       </c>
       <c r="AA11" s="34" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>GM/CT</v>
       </c>
       <c r="AB11" s="34" t="str">
         <f t="shared" si="7"/>
@@ -28906,21 +29057,39 @@
       <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="132"/>
-      <c r="K12" s="132"/>
+      <c r="C12" s="134">
+        <v>4</v>
+      </c>
+      <c r="D12" s="134" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="134" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="134" t="s">
+        <v>218</v>
+      </c>
+      <c r="G12" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="134" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="134" t="s">
+        <v>220</v>
+      </c>
+      <c r="J12" s="134" t="s">
+        <v>220</v>
+      </c>
+      <c r="K12" s="134">
+        <v>1</v>
+      </c>
       <c r="S12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="T12" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U12" s="7">
         <f t="shared" si="2"/>
@@ -28928,7 +29097,7 @@
       </c>
       <c r="V12" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W12" s="7">
         <f t="shared" si="4"/>
@@ -28952,15 +29121,33 @@
       <c r="AC12" s="1"/>
     </row>
     <row r="13" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="132"/>
+      <c r="C13" s="134">
+        <v>4</v>
+      </c>
+      <c r="D13" s="134" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="134" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="134" t="s">
+        <v>221</v>
+      </c>
+      <c r="G13" s="134" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="134" t="s">
+        <v>217</v>
+      </c>
+      <c r="I13" s="134">
+        <v>1</v>
+      </c>
+      <c r="J13" s="134">
+        <v>1</v>
+      </c>
+      <c r="K13" s="134">
+        <v>1</v>
+      </c>
       <c r="S13" s="1" t="s">
         <v>46</v>
       </c>
@@ -28993,7 +29180,7 @@
       </c>
       <c r="AB13" s="34" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>TC/GM</v>
       </c>
       <c r="AC13" s="1"/>
     </row>
@@ -29058,15 +29245,15 @@
       </c>
       <c r="T15" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U15" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" s="7">
         <f t="shared" si="4"/>
@@ -29104,7 +29291,7 @@
       </c>
       <c r="T16" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U16" s="7">
         <f t="shared" si="2"/>
@@ -29116,7 +29303,7 @@
       </c>
       <c r="W16" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" s="19" t="b">
         <v>0</v>
@@ -29211,7 +29398,7 @@
         <v>0</v>
       </c>
       <c r="X18" s="19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="34" t="str">
         <f t="shared" si="5"/>
@@ -29393,11 +29580,11 @@
       <c r="S25" s="2"/>
       <c r="T25" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="U25" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="V25" t="str">
         <f t="shared" si="9"/>
@@ -29428,11 +29615,11 @@
       <c r="S26" s="9"/>
       <c r="T26" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>2,</v>
       </c>
       <c r="U26" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>2,</v>
       </c>
       <c r="V26" t="str">
         <f t="shared" si="9"/>
@@ -29496,11 +29683,11 @@
     <row r="28" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T28" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="U28" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="V28" t="str">
         <f t="shared" si="9"/>
@@ -29632,7 +29819,7 @@
     <row r="32" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T32" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>3,</v>
       </c>
       <c r="U32" t="str">
         <f t="shared" si="9"/>
@@ -29640,7 +29827,7 @@
       </c>
       <c r="V32" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>3,</v>
       </c>
       <c r="W32" t="str">
         <f t="shared" si="9"/>
@@ -29734,15 +29921,15 @@
     <row r="35" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T35" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>2,</v>
       </c>
       <c r="U35" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="V35" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="W35" t="str">
         <f t="shared" si="9"/>
@@ -29768,7 +29955,7 @@
     <row r="36" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T36" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>2,</v>
       </c>
       <c r="U36" t="str">
         <f t="shared" si="9"/>
@@ -29780,7 +29967,7 @@
       </c>
       <c r="W36" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="X36" s="128" t="str">
         <f t="shared" si="10"/>
@@ -29852,7 +30039,7 @@
       </c>
       <c r="X38" s="128">
         <f t="shared" ref="X38" si="12">IF(X18,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z38" s="34" t="str">
         <f t="shared" si="5"/>
@@ -29972,23 +30159,23 @@
       </c>
       <c r="D45">
         <f>MAX(N3:N5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45">
         <f>COUNT(C4:C42)-D45-F45</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F45">
         <f>MIN(N3:N5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <f>N3</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45">
         <f>COUNTIF(AA4:AA39, "GM/CT")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <f>COUNTIF(AB4:AB39, "TC/CT")</f>
@@ -29996,23 +30183,23 @@
       </c>
       <c r="J45">
         <f>N5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45">
         <f>COUNTIF(Z4:Z39, "CT/GM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45">
         <f>COUNTIF(AB4:AB39, "TC/GM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45">
         <f>N4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45">
         <f>COUNTIF(Z4:Z39, "CT/TC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45">
         <f>COUNTIF(AA4:AA39, "GM/TC")</f>
@@ -30020,26 +30207,26 @@
       </c>
       <c r="P45">
         <f>Q3</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q45">
         <f>Q5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45">
         <f>Q4</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T45" s="10" t="str">
         <f>CHAR(34)&amp;"Missed"&amp;CHAR(34)&amp;":["&amp;X23&amp;X24&amp;X25&amp;X26&amp;X27&amp;X28&amp;X29&amp;X30&amp;X31&amp;X32&amp;X33&amp;X34&amp;X35&amp;X36&amp;X37&amp;X38&amp;"],"</f>
-        <v>"Missed":[0,0,0,0,0,0,0,0,0,0,0,1,0,0,0,0],</v>
+        <v>"Missed":[0,0,0,0,0,0,0,0,0,0,0,1,0,0,0,1],</v>
       </c>
       <c r="U45" s="10"/>
     </row>
     <row r="46" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T46" s="10" t="str">
         <f>CHAR(34)&amp;"Points"&amp;CHAR(34)&amp;":["&amp;Q3&amp;","&amp;Q4&amp;","&amp;Q5&amp;"]"</f>
-        <v>"Points":[,,]</v>
+        <v>"Points":[3,2,1]</v>
       </c>
       <c r="U46" s="10"/>
     </row>
@@ -30072,942 +30259,942 @@
     <row r="62" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="63" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="64" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="65" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="67" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="68" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="69" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="70" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="71" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="72" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="73" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="75" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="76" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="78" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="81" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="82" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="83" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="85" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="86" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="87" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="88" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="89" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="90" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="91" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="92" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="93" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="94" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="95" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="96" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="97" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="98" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="99" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="101" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="102" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="103" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="105" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="107" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="108" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="109" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="111" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="113" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="115" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="116" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="117" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="118" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="121" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="122" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="123" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="124" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="125" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="126" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="127" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="128" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="129" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="130" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="131" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="132" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="133" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="134" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="135" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="136" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="137" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="138" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="139" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="140" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="141" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="142" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="143" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="144" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="145" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="146" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="147" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="148" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="149" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="150" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="151" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="152" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="153" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="154" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="155" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="156" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="157" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="158" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="159" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="160" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="161" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="162" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="163" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="164" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="165" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="166" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="167" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="168" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="169" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="170" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="171" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="172" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="173" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="174" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="175" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="176" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="177" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="178" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="179" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="180" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="181" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="182" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="183" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="184" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="185" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="186" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="187" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="188" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="189" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="190" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="191" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="192" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="193" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="194" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="195" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="196" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="197" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="198" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="199" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="200" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="201" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="202" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="203" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="204" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="205" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="206" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="207" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="208" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="209" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="210" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="211" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="212" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="213" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="214" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="215" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="216" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="217" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="218" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="219" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="220" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="221" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="222" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="223" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="224" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="225" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="226" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="227" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="228" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="229" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="230" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="231" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="232" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="233" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="234" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="235" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="236" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="237" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="238" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="239" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="240" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="241" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="242" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="243" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="244" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="245" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="246" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="247" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="248" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="249" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="250" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="251" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="252" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="253" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="254" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="255" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="256" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="257" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="258" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="259" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="260" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="261" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="262" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="263" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="264" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="265" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="266" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="267" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="268" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="269" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="270" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="271" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="272" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="273" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="274" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="275" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="276" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="277" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="278" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="279" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="280" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="281" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="282" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="283" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="284" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="285" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="286" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="287" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="288" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="289" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="290" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="291" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="292" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="293" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="294" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="295" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="296" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="297" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="298" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="299" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="300" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="301" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="302" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="303" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="304" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="305" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="306" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="307" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="308" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="309" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="310" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="311" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="312" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="313" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="314" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="315" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="316" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="317" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="318" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="319" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="320" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="321" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="322" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="323" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="324" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="325" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="326" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="327" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="328" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="329" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="330" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="331" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="332" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="333" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="334" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="335" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="336" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="337" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="338" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="339" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="340" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="341" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="342" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="343" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="344" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="345" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="346" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="347" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="348" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="349" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="350" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="351" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="352" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="353" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="354" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="355" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="356" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="357" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="358" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="359" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="360" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="361" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="362" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="363" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="364" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="365" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="366" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="367" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="368" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="369" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="370" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="371" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="372" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="373" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="374" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="375" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="376" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="377" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="378" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="379" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="380" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="381" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="382" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="383" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="384" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="385" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="386" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="387" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="388" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="389" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="390" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="391" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="392" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="393" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="394" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="395" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="396" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="397" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="398" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="399" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="400" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="401" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="402" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="403" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="404" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="405" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="406" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="407" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="408" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="409" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="410" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="411" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="412" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="413" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="414" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="415" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="416" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="417" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="418" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="419" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="420" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="421" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="422" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="423" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="424" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="425" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="426" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="427" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="428" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="429" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="430" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="431" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="432" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="433" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="434" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="435" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="436" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="437" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="438" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="439" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="440" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="441" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="442" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="443" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="444" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="445" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="446" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="447" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="448" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="449" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="450" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="451" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="452" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="453" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="454" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="455" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="456" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="457" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="458" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="459" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="460" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="461" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="462" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="463" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="464" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="465" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="466" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="467" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="468" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="469" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="470" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="471" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="472" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="473" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="474" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="475" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="476" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="477" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="478" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="479" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="480" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="481" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="482" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="483" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="484" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="485" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="486" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="487" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="488" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="489" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="490" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="491" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="492" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="493" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="494" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="495" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="496" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="497" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="498" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="499" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="500" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="501" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="502" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="503" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="504" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="505" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="506" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="507" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="508" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="509" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="510" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="511" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="512" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="513" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="514" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="515" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="516" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="517" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="518" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="519" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="520" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="521" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="522" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="523" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="524" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="525" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="526" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="527" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="528" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="529" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="530" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="531" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="532" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="533" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="534" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="535" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="536" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="537" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="538" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="539" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="540" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="541" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="542" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="543" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="544" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="545" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="546" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="547" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="548" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="549" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="550" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="551" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="552" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="553" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="554" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="555" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="556" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="557" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="558" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="559" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="560" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="561" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="562" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="563" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="564" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="565" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="566" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="567" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="568" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="569" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="570" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="571" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="572" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="573" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="574" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="575" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="576" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="577" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="578" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="579" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="580" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="581" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="582" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="583" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="584" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="585" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="586" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="587" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="588" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="589" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="590" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="591" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="592" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="593" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="594" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="595" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="596" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="597" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="598" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="599" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="600" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="601" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="602" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="603" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="604" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="605" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="606" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="607" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="608" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="609" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="610" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="611" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="612" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="613" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="614" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="615" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="616" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="617" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="618" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="619" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="620" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="621" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="622" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="623" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="624" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="625" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="626" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="627" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="628" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="629" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="630" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="631" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="632" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="633" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="634" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="635" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="636" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="637" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="638" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="639" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="640" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="641" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="642" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="643" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="644" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="645" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="646" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="647" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="648" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="649" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="650" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="651" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="652" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="653" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="654" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="655" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="656" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="657" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="658" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="659" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="660" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="661" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="662" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="663" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="664" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="665" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="666" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="667" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="668" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="669" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="670" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="671" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="672" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="673" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="674" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="675" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="676" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="677" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="678" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="679" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="680" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="681" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="682" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="683" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="684" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="685" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="686" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="687" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="688" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="689" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="690" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="691" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="692" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="693" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="694" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="695" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="696" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="697" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="698" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="699" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="700" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="701" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="702" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="703" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="704" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="705" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="706" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="707" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="708" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="709" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="710" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="711" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="712" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="713" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="714" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="715" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="716" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="717" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="718" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="719" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="720" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="721" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="722" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="723" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="724" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="725" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="726" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="727" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="728" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="729" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="730" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="731" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="732" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="733" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="734" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="735" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="736" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="737" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="738" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="739" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="740" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="741" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="742" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="743" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="744" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="745" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="746" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="747" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="748" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="749" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="750" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="751" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="752" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="753" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="754" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="755" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="756" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="757" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="758" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="759" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="760" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="761" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="762" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="763" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="764" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="765" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="766" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="767" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="768" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="769" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="770" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="771" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="772" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="773" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="774" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="775" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="776" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="777" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="778" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="779" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="780" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="781" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="782" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="783" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="784" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="785" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="786" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="787" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="788" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="789" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="790" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="791" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="792" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="793" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="794" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="795" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="796" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="797" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="798" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="799" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="800" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="801" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="802" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="803" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="804" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="805" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="806" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="807" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="808" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="809" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="810" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="811" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="812" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="813" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="814" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="815" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="816" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="817" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="818" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="819" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="820" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="821" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="822" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="823" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="824" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="825" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="826" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="827" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="828" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="829" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="830" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="831" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="832" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="833" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="834" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="835" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="836" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="837" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="838" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="839" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="840" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="841" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="842" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="843" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="844" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="845" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="846" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="847" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="848" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="849" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="850" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="851" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="852" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="853" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="854" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="855" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="856" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="857" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="858" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="859" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="860" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="861" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="862" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="863" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="864" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="865" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="866" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="867" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="868" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="869" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="870" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="871" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="872" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="873" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="874" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="875" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="876" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="877" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="878" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="879" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="880" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="881" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="882" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="883" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="884" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="885" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="886" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="887" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="888" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="889" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="890" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="891" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="892" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="893" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="894" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="895" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="896" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="897" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="898" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="899" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="900" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="901" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="902" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="903" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="904" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="905" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="906" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="907" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="908" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="909" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="910" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="911" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="912" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="913" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="914" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="915" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="916" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="917" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="918" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="919" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="920" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="921" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="922" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="923" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="924" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="925" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="926" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="927" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="928" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="929" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="930" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="931" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="932" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="933" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="934" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="935" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="936" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="937" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="938" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="939" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="940" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="941" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="942" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="943" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="944" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="945" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="946" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="947" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="948" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="949" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="950" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="951" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="952" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="953" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="954" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="955" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="956" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="957" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="958" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="959" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="960" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="961" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="962" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="963" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="964" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="965" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="966" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="967" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="968" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="969" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="970" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="971" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="972" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="973" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="974" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="975" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="976" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="977" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="978" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="979" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="980" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="981" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="982" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="983" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="984" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="985" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="986" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="987" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="988" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="989" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="990" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="991" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="992" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="993" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="994" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="995" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="996" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="997" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="998" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="999" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="1000" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -33051,942 +33238,942 @@
     <row r="62" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="63" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="64" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="65" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="67" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="68" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="69" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="70" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="71" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="72" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="73" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="75" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="76" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="78" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="81" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="82" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="83" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="85" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="86" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="87" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="88" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="89" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="90" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="91" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="92" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="93" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="94" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="95" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="96" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="97" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="98" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="99" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="101" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="102" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="103" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="105" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="107" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="108" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="109" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="111" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="113" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="115" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="116" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="117" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="118" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="121" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="122" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="123" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="124" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="125" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="126" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="127" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="128" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="129" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="130" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="131" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="132" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="133" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="134" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="135" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="136" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="137" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="138" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="139" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="140" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="141" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="142" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="143" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="144" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="145" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="146" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="147" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="148" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="149" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="150" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="151" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="152" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="153" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="154" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="155" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="156" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="157" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="158" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="159" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="160" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="161" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="162" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="163" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="164" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="165" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="166" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="167" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="168" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="169" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="170" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="171" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="172" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="173" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="174" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="175" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="176" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="177" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="178" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="179" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="180" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="181" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="182" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="183" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="184" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="185" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="186" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="187" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="188" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="189" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="190" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="191" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="192" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="193" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="194" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="195" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="196" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="197" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="198" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="199" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="200" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="201" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="202" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="203" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="204" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="205" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="206" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="207" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="208" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="209" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="210" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="211" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="212" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="213" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="214" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="215" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="216" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="217" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="218" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="219" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="220" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="221" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="222" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="223" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="224" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="225" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="226" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="227" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="228" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="229" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="230" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="231" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="232" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="233" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="234" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="235" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="236" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="237" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="238" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="239" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="240" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="241" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="242" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="243" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="244" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="245" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="246" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="247" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="248" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="249" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="250" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="251" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="252" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="253" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="254" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="255" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="256" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="257" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="258" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="259" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="260" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="261" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="262" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="263" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="264" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="265" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="266" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="267" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="268" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="269" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="270" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="271" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="272" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="273" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="274" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="275" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="276" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="277" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="278" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="279" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="280" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="281" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="282" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="283" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="284" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="285" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="286" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="287" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="288" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="289" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="290" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="291" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="292" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="293" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="294" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="295" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="296" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="297" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="298" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="299" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="300" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="301" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="302" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="303" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="304" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="305" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="306" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="307" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="308" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="309" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="310" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="311" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="312" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="313" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="314" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="315" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="316" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="317" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="318" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="319" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="320" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="321" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="322" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="323" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="324" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="325" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="326" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="327" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="328" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="329" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="330" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="331" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="332" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="333" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="334" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="335" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="336" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="337" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="338" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="339" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="340" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="341" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="342" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="343" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="344" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="345" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="346" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="347" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="348" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="349" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="350" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="351" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="352" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="353" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="354" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="355" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="356" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="357" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="358" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="359" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="360" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="361" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="362" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="363" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="364" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="365" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="366" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="367" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="368" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="369" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="370" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="371" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="372" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="373" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="374" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="375" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="376" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="377" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="378" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="379" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="380" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="381" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="382" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="383" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="384" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="385" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="386" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="387" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="388" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="389" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="390" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="391" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="392" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="393" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="394" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="395" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="396" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="397" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="398" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="399" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="400" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="401" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="402" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="403" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="404" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="405" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="406" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="407" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="408" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="409" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="410" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="411" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="412" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="413" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="414" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="415" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="416" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="417" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="418" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="419" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="420" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="421" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="422" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="423" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="424" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="425" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="426" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="427" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="428" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="429" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="430" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="431" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="432" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="433" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="434" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="435" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="436" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="437" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="438" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="439" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="440" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="441" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="442" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="443" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="444" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="445" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="446" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="447" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="448" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="449" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="450" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="451" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="452" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="453" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="454" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="455" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="456" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="457" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="458" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="459" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="460" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="461" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="462" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="463" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="464" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="465" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="466" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="467" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="468" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="469" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="470" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="471" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="472" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="473" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="474" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="475" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="476" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="477" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="478" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="479" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="480" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="481" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="482" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="483" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="484" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="485" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="486" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="487" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="488" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="489" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="490" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="491" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="492" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="493" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="494" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="495" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="496" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="497" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="498" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="499" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="500" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="501" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="502" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="503" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="504" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="505" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="506" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="507" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="508" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="509" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="510" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="511" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="512" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="513" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="514" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="515" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="516" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="517" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="518" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="519" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="520" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="521" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="522" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="523" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="524" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="525" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="526" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="527" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="528" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="529" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="530" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="531" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="532" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="533" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="534" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="535" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="536" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="537" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="538" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="539" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="540" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="541" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="542" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="543" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="544" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="545" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="546" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="547" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="548" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="549" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="550" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="551" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="552" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="553" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="554" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="555" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="556" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="557" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="558" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="559" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="560" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="561" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="562" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="563" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="564" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="565" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="566" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="567" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="568" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="569" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="570" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="571" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="572" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="573" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="574" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="575" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="576" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="577" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="578" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="579" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="580" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="581" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="582" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="583" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="584" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="585" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="586" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="587" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="588" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="589" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="590" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="591" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="592" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="593" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="594" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="595" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="596" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="597" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="598" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="599" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="600" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="601" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="602" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="603" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="604" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="605" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="606" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="607" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="608" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="609" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="610" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="611" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="612" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="613" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="614" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="615" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="616" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="617" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="618" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="619" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="620" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="621" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="622" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="623" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="624" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="625" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="626" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="627" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="628" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="629" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="630" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="631" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="632" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="633" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="634" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="635" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="636" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="637" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="638" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="639" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="640" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="641" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="642" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="643" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="644" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="645" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="646" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="647" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="648" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="649" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="650" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="651" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="652" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="653" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="654" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="655" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="656" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="657" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="658" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="659" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="660" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="661" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="662" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="663" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="664" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="665" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="666" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="667" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="668" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="669" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="670" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="671" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="672" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="673" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="674" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="675" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="676" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="677" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="678" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="679" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="680" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="681" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="682" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="683" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="684" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="685" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="686" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="687" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="688" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="689" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="690" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="691" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="692" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="693" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="694" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="695" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="696" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="697" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="698" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="699" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="700" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="701" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="702" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="703" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="704" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="705" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="706" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="707" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="708" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="709" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="710" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="711" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="712" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="713" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="714" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="715" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="716" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="717" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="718" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="719" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="720" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="721" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="722" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="723" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="724" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="725" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="726" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="727" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="728" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="729" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="730" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="731" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="732" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="733" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="734" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="735" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="736" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="737" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="738" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="739" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="740" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="741" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="742" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="743" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="744" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="745" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="746" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="747" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="748" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="749" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="750" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="751" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="752" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="753" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="754" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="755" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="756" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="757" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="758" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="759" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="760" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="761" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="762" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="763" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="764" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="765" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="766" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="767" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="768" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="769" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="770" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="771" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="772" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="773" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="774" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="775" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="776" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="777" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="778" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="779" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="780" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="781" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="782" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="783" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="784" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="785" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="786" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="787" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="788" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="789" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="790" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="791" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="792" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="793" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="794" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="795" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="796" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="797" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="798" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="799" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="800" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="801" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="802" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="803" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="804" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="805" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="806" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="807" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="808" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="809" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="810" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="811" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="812" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="813" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="814" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="815" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="816" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="817" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="818" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="819" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="820" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="821" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="822" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="823" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="824" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="825" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="826" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="827" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="828" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="829" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="830" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="831" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="832" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="833" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="834" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="835" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="836" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="837" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="838" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="839" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="840" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="841" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="842" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="843" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="844" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="845" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="846" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="847" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="848" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="849" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="850" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="851" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="852" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="853" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="854" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="855" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="856" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="857" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="858" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="859" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="860" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="861" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="862" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="863" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="864" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="865" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="866" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="867" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="868" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="869" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="870" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="871" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="872" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="873" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="874" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="875" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="876" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="877" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="878" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="879" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="880" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="881" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="882" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="883" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="884" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="885" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="886" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="887" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="888" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="889" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="890" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="891" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="892" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="893" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="894" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="895" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="896" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="897" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="898" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="899" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="900" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="901" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="902" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="903" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="904" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="905" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="906" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="907" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="908" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="909" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="910" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="911" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="912" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="913" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="914" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="915" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="916" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="917" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="918" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="919" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="920" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="921" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="922" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="923" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="924" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="925" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="926" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="927" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="928" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="929" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="930" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="931" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="932" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="933" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="934" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="935" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="936" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="937" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="938" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="939" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="940" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="941" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="942" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="943" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="944" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="945" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="946" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="947" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="948" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="949" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="950" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="951" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="952" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="953" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="954" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="955" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="956" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="957" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="958" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="959" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="960" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="961" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="962" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="963" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="964" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="965" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="966" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="967" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="968" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="969" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="970" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="971" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="972" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="973" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="974" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="975" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="976" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="977" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="978" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="979" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="980" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="981" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="982" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="983" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="984" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="985" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="986" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="987" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="988" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="989" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="990" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="991" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="992" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="993" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="994" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="995" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="996" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="997" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="998" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="999" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="1000" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="991" ht="14.25"